--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deslauj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deslauj/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFBA682-C960-43FA-ABC5-AAE2D6B116F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E0F44F-DAA4-514D-9630-7228BE02FA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Microservice" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="553">
   <si>
     <t>Microservice Metadata v0.9</t>
   </si>
@@ -676,9 +676,6 @@
   </si>
   <si>
     <t>a short, human-readable description of the Algorithm to aid a human user in analysing the Algorithm’s capabilities and its applicability to a certain problem</t>
-  </si>
-  <si>
-    <t>Enumeration { Simulation | ML | others }</t>
   </si>
   <si>
     <t>ML</t>
@@ -1795,10 +1792,6 @@
     <t>volumeMapping</t>
   </si>
   <si>
-    <t>{microserviceA: [microserviceA, microserviceB],
-microserviceB:[], microserviceC:[]}</t>
-  </si>
-  <si>
     <t>Map( String: String)</t>
   </si>
   <si>
@@ -1868,6 +1861,9 @@
   </si>
   <si>
     <t>Name of the model file (if necessary) for example when MODEL_URI points to a repository and not a single file</t>
+  </si>
+  <si>
+    <t>{microserviceA: [microserviceA, microserviceB], microserviceB:[], microserviceC:[]}</t>
   </si>
 </sst>
 </file>
@@ -2458,30 +2454,30 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2915,31 +2911,31 @@
       <selection activeCell="K7" sqref="K6:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="24.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" style="2" customWidth="1"/>
-    <col min="9" max="1024" width="9.140625" style="1"/>
+    <col min="1" max="1" width="34.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="1" customWidth="1"/>
+    <col min="4" max="5" width="24.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" style="2" customWidth="1"/>
+    <col min="9" max="1024" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="47.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+    <row r="1" spans="1:8" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-    </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+    </row>
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2965,7 +2961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="22.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -2977,7 +2973,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
         <v>9</v>
@@ -2997,7 +2993,7 @@
       </c>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
         <v>14</v>
@@ -3017,7 +3013,7 @@
       </c>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>17</v>
@@ -3037,7 +3033,7 @@
       </c>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>20</v>
@@ -3057,7 +3053,7 @@
       </c>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
         <v>24</v>
@@ -3077,7 +3073,7 @@
       </c>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="155.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="126" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
         <v>27</v>
@@ -3097,7 +3093,7 @@
       </c>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
         <v>30</v>
@@ -3117,7 +3113,7 @@
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="54" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
         <v>34</v>
@@ -3137,7 +3133,7 @@
       </c>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>38</v>
       </c>
@@ -3149,7 +3145,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="54" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
         <v>39</v>
@@ -3159,7 +3155,7 @@
         <v>40</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>41</v>
@@ -3169,90 +3165,90 @@
       </c>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="90" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="19" t="s">
+        <v>534</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>536</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>538</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="22"/>
     </row>
-    <row r="15" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="54" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
       <c r="B15" s="19" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="19" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G15" s="19" t="s">
         <v>47</v>
       </c>
       <c r="H15" s="22"/>
     </row>
-    <row r="16" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="54" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="19" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E16" s="21" t="s">
+        <v>542</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>544</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>546</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>47</v>
       </c>
       <c r="H16" s="22"/>
     </row>
-    <row r="17" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="54" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
       <c r="B17" s="19" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="F17" s="19" t="s">
         <v>545</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>547</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>47</v>
       </c>
       <c r="H17" s="22"/>
     </row>
-    <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
     </row>
-    <row r="19" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>43</v>
       </c>
@@ -3264,8 +3260,8 @@
       <c r="G19" s="16"/>
       <c r="H19" s="17"/>
     </row>
-    <row r="20" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="111"/>
+    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="112"/>
       <c r="B20" s="9" t="s">
         <v>44</v>
       </c>
@@ -3284,8 +3280,8 @@
       </c>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="111"/>
+    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="112"/>
       <c r="B21" s="9" t="s">
         <v>48</v>
       </c>
@@ -3304,8 +3300,8 @@
       </c>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="111"/>
+    <row r="22" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="A22" s="112"/>
       <c r="B22" s="9" t="s">
         <v>50</v>
       </c>
@@ -3324,8 +3320,8 @@
       </c>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="111"/>
+    <row r="23" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="A23" s="112"/>
       <c r="B23" s="9" t="s">
         <v>52</v>
       </c>
@@ -3344,8 +3340,8 @@
       </c>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="69" x14ac:dyDescent="0.25">
-      <c r="A24" s="111"/>
+    <row r="24" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="A24" s="112"/>
       <c r="B24" s="9" t="s">
         <v>54</v>
       </c>
@@ -3364,8 +3360,8 @@
       </c>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="111"/>
+    <row r="25" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="A25" s="112"/>
       <c r="B25" s="9" t="s">
         <v>57</v>
       </c>
@@ -3384,8 +3380,8 @@
       </c>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="69" x14ac:dyDescent="0.25">
-      <c r="A26" s="111"/>
+    <row r="26" spans="1:8" ht="72" x14ac:dyDescent="0.2">
+      <c r="A26" s="112"/>
       <c r="B26" s="9" t="s">
         <v>61</v>
       </c>
@@ -3404,8 +3400,8 @@
       </c>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="111"/>
+    <row r="27" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="A27" s="112"/>
       <c r="B27" s="9" t="s">
         <v>65</v>
       </c>
@@ -3424,8 +3420,8 @@
       </c>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="111"/>
+    <row r="28" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="A28" s="112"/>
       <c r="B28" s="9" t="s">
         <v>67</v>
       </c>
@@ -3444,8 +3440,8 @@
       </c>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="111"/>
+    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="112"/>
       <c r="B29" s="9" t="s">
         <v>69</v>
       </c>
@@ -3464,8 +3460,8 @@
       </c>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="111"/>
+    <row r="30" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="A30" s="112"/>
       <c r="B30" s="9" t="s">
         <v>71</v>
       </c>
@@ -3484,8 +3480,8 @@
       </c>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="111"/>
+    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="112"/>
       <c r="B31" s="9" t="s">
         <v>73</v>
       </c>
@@ -3504,7 +3500,7 @@
       </c>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>76</v>
       </c>
@@ -3516,8 +3512,8 @@
       <c r="G32" s="24"/>
       <c r="H32" s="26"/>
     </row>
-    <row r="33" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="116"/>
+    <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="113"/>
       <c r="B33" s="27" t="s">
         <v>77</v>
       </c>
@@ -3536,8 +3532,8 @@
       </c>
       <c r="H33" s="22"/>
     </row>
-    <row r="34" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="116"/>
+    <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="113"/>
       <c r="B34" s="27" t="s">
         <v>80</v>
       </c>
@@ -3556,8 +3552,8 @@
       </c>
       <c r="H34" s="22"/>
     </row>
-    <row r="35" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="116"/>
+    <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="113"/>
       <c r="B35" s="27" t="s">
         <v>83</v>
       </c>
@@ -3576,8 +3572,8 @@
       </c>
       <c r="H35" s="22"/>
     </row>
-    <row r="36" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="116"/>
+    <row r="36" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="113"/>
       <c r="B36" s="27" t="s">
         <v>86</v>
       </c>
@@ -3596,7 +3592,7 @@
       </c>
       <c r="H36" s="22"/>
     </row>
-    <row r="37" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>89</v>
       </c>
@@ -3608,8 +3604,8 @@
       <c r="G37" s="16"/>
       <c r="H37" s="17"/>
     </row>
-    <row r="38" spans="1:8" ht="69" x14ac:dyDescent="0.25">
-      <c r="A38" s="111"/>
+    <row r="38" spans="1:8" ht="72" x14ac:dyDescent="0.2">
+      <c r="A38" s="112"/>
       <c r="B38" s="9" t="s">
         <v>90</v>
       </c>
@@ -3628,9 +3624,9 @@
       </c>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="46.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="111"/>
-      <c r="B39" s="112" t="s">
+    <row r="39" spans="1:8" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="112"/>
+      <c r="B39" s="114" t="s">
         <v>94</v>
       </c>
       <c r="C39" s="9" t="s">
@@ -3650,9 +3646,9 @@
       </c>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="111"/>
-      <c r="B40" s="112"/>
+    <row r="40" spans="1:8" ht="90" x14ac:dyDescent="0.2">
+      <c r="A40" s="112"/>
+      <c r="B40" s="114"/>
       <c r="C40" s="9" t="s">
         <v>98</v>
       </c>
@@ -3670,9 +3666,9 @@
       </c>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="111"/>
-      <c r="B41" s="112"/>
+    <row r="41" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="A41" s="112"/>
+      <c r="B41" s="114"/>
       <c r="C41" s="9" t="s">
         <v>102</v>
       </c>
@@ -3690,9 +3686,9 @@
       </c>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="155.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="111"/>
-      <c r="B42" s="112"/>
+    <row r="42" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+      <c r="A42" s="112"/>
+      <c r="B42" s="114"/>
       <c r="C42" s="9" t="s">
         <v>106</v>
       </c>
@@ -3710,9 +3706,9 @@
       </c>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="69" x14ac:dyDescent="0.25">
-      <c r="A43" s="111"/>
-      <c r="B43" s="112"/>
+    <row r="43" spans="1:8" ht="72" x14ac:dyDescent="0.2">
+      <c r="A43" s="112"/>
+      <c r="B43" s="114"/>
       <c r="C43" s="9" t="s">
         <v>110</v>
       </c>
@@ -3730,9 +3726,9 @@
       </c>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="111"/>
-      <c r="B44" s="112"/>
+    <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="112"/>
+      <c r="B44" s="114"/>
       <c r="C44" s="9" t="s">
         <v>114</v>
       </c>
@@ -3750,9 +3746,9 @@
       </c>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="111"/>
-      <c r="B45" s="112"/>
+    <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="112"/>
+      <c r="B45" s="114"/>
       <c r="C45" s="9" t="s">
         <v>118</v>
       </c>
@@ -3770,9 +3766,9 @@
       </c>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="111"/>
-      <c r="B46" s="112"/>
+    <row r="46" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="A46" s="112"/>
+      <c r="B46" s="114"/>
       <c r="C46" s="9" t="s">
         <v>122</v>
       </c>
@@ -3790,9 +3786,9 @@
       </c>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="111"/>
-      <c r="B47" s="112"/>
+    <row r="47" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="A47" s="112"/>
+      <c r="B47" s="114"/>
       <c r="C47" s="9" t="s">
         <v>126</v>
       </c>
@@ -3810,9 +3806,9 @@
       </c>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="111"/>
-      <c r="B48" s="112"/>
+    <row r="48" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="A48" s="112"/>
+      <c r="B48" s="114"/>
       <c r="C48" s="9" t="s">
         <v>130</v>
       </c>
@@ -3830,9 +3826,9 @@
       </c>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="111"/>
-      <c r="B49" s="112"/>
+    <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" s="112"/>
+      <c r="B49" s="114"/>
       <c r="C49" s="9" t="s">
         <v>134</v>
       </c>
@@ -3850,9 +3846,9 @@
       </c>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="103.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="111"/>
-      <c r="B50" s="112"/>
+    <row r="50" spans="1:8" ht="90" x14ac:dyDescent="0.2">
+      <c r="A50" s="112"/>
+      <c r="B50" s="114"/>
       <c r="C50" s="9" t="s">
         <v>138</v>
       </c>
@@ -3870,7 +3866,7 @@
       </c>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
         <v>142</v>
       </c>
@@ -3882,8 +3878,8 @@
       <c r="G51" s="31"/>
       <c r="H51" s="26"/>
     </row>
-    <row r="52" spans="1:8" ht="69" x14ac:dyDescent="0.25">
-      <c r="A52" s="113"/>
+    <row r="52" spans="1:8" ht="72" x14ac:dyDescent="0.2">
+      <c r="A52" s="115"/>
       <c r="B52" s="32" t="s">
         <v>143</v>
       </c>
@@ -3902,9 +3898,9 @@
       </c>
       <c r="H52" s="26"/>
     </row>
-    <row r="53" spans="1:8" ht="46.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="113"/>
-      <c r="B53" s="114" t="s">
+    <row r="53" spans="1:8" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="115"/>
+      <c r="B53" s="116" t="s">
         <v>94</v>
       </c>
       <c r="C53" s="35" t="s">
@@ -3924,9 +3920,9 @@
       </c>
       <c r="H53" s="26"/>
     </row>
-    <row r="54" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="113"/>
-      <c r="B54" s="114"/>
+    <row r="54" spans="1:8" ht="90" x14ac:dyDescent="0.2">
+      <c r="A54" s="115"/>
+      <c r="B54" s="116"/>
       <c r="C54" s="32" t="s">
         <v>98</v>
       </c>
@@ -3944,9 +3940,9 @@
       </c>
       <c r="H54" s="26"/>
     </row>
-    <row r="55" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="113"/>
-      <c r="B55" s="114"/>
+    <row r="55" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="A55" s="115"/>
+      <c r="B55" s="116"/>
       <c r="C55" s="32" t="s">
         <v>102</v>
       </c>
@@ -3964,9 +3960,9 @@
       </c>
       <c r="H55" s="26"/>
     </row>
-    <row r="56" spans="1:8" ht="155.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="113"/>
-      <c r="B56" s="114"/>
+    <row r="56" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+      <c r="A56" s="115"/>
+      <c r="B56" s="116"/>
       <c r="C56" s="32" t="s">
         <v>106</v>
       </c>
@@ -3984,9 +3980,9 @@
       </c>
       <c r="H56" s="26"/>
     </row>
-    <row r="57" spans="1:8" ht="69" x14ac:dyDescent="0.25">
-      <c r="A57" s="113"/>
-      <c r="B57" s="114"/>
+    <row r="57" spans="1:8" ht="72" x14ac:dyDescent="0.2">
+      <c r="A57" s="115"/>
+      <c r="B57" s="116"/>
       <c r="C57" s="32" t="s">
         <v>110</v>
       </c>
@@ -4004,9 +4000,9 @@
       </c>
       <c r="H57" s="26"/>
     </row>
-    <row r="58" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A58" s="113"/>
-      <c r="B58" s="114"/>
+    <row r="58" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A58" s="115"/>
+      <c r="B58" s="116"/>
       <c r="C58" s="32" t="s">
         <v>114</v>
       </c>
@@ -4024,9 +4020,9 @@
       </c>
       <c r="H58" s="26"/>
     </row>
-    <row r="59" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="113"/>
-      <c r="B59" s="114"/>
+    <row r="59" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A59" s="115"/>
+      <c r="B59" s="116"/>
       <c r="C59" s="32" t="s">
         <v>118</v>
       </c>
@@ -4044,9 +4040,9 @@
       </c>
       <c r="H59" s="26"/>
     </row>
-    <row r="60" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="113"/>
-      <c r="B60" s="114"/>
+    <row r="60" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="A60" s="115"/>
+      <c r="B60" s="116"/>
       <c r="C60" s="32" t="s">
         <v>122</v>
       </c>
@@ -4064,9 +4060,9 @@
       </c>
       <c r="H60" s="26"/>
     </row>
-    <row r="61" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="113"/>
-      <c r="B61" s="114"/>
+    <row r="61" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="A61" s="115"/>
+      <c r="B61" s="116"/>
       <c r="C61" s="32" t="s">
         <v>126</v>
       </c>
@@ -4084,9 +4080,9 @@
       </c>
       <c r="H61" s="26"/>
     </row>
-    <row r="62" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="113"/>
-      <c r="B62" s="114"/>
+    <row r="62" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="A62" s="115"/>
+      <c r="B62" s="116"/>
       <c r="C62" s="32" t="s">
         <v>130</v>
       </c>
@@ -4104,9 +4100,9 @@
       </c>
       <c r="H62" s="26"/>
     </row>
-    <row r="63" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="113"/>
-      <c r="B63" s="114"/>
+    <row r="63" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A63" s="115"/>
+      <c r="B63" s="116"/>
       <c r="C63" s="32" t="s">
         <v>134</v>
       </c>
@@ -4124,9 +4120,9 @@
       </c>
       <c r="H63" s="26"/>
     </row>
-    <row r="64" spans="1:8" ht="103.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="113"/>
-      <c r="B64" s="114"/>
+    <row r="64" spans="1:8" ht="90" x14ac:dyDescent="0.2">
+      <c r="A64" s="115"/>
+      <c r="B64" s="116"/>
       <c r="C64" s="32" t="s">
         <v>138</v>
       </c>
@@ -4144,7 +4140,7 @@
       </c>
       <c r="H64" s="26"/>
     </row>
-    <row r="65" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>150</v>
       </c>
@@ -4156,8 +4152,8 @@
       <c r="G65" s="16"/>
       <c r="H65" s="17"/>
     </row>
-    <row r="66" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="115"/>
+    <row r="66" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="A66" s="117"/>
       <c r="B66" s="36" t="s">
         <v>151</v>
       </c>
@@ -4176,8 +4172,8 @@
       </c>
       <c r="H66" s="17"/>
     </row>
-    <row r="67" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A67" s="115"/>
+    <row r="67" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="A67" s="117"/>
       <c r="B67" s="36" t="s">
         <v>155</v>
       </c>
@@ -4196,7 +4192,7 @@
       </c>
       <c r="H67" s="17"/>
     </row>
-    <row r="68" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A68" s="39" t="s">
         <v>159</v>
       </c>
@@ -4208,8 +4204,8 @@
       <c r="G68" s="40"/>
       <c r="H68" s="26"/>
     </row>
-    <row r="69" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="116"/>
+    <row r="69" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="A69" s="113"/>
       <c r="B69" s="27" t="s">
         <v>160</v>
       </c>
@@ -4226,9 +4222,9 @@
       </c>
       <c r="H69" s="22"/>
     </row>
-    <row r="70" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="116"/>
-      <c r="B70" s="117" t="s">
+    <row r="70" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="113"/>
+      <c r="B70" s="118" t="s">
         <v>163</v>
       </c>
       <c r="C70" s="27" t="s">
@@ -4248,9 +4244,9 @@
       </c>
       <c r="H70" s="22"/>
     </row>
-    <row r="71" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="116"/>
-      <c r="B71" s="117"/>
+    <row r="71" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="A71" s="113"/>
+      <c r="B71" s="118"/>
       <c r="C71" s="27" t="s">
         <v>34</v>
       </c>
@@ -4268,9 +4264,9 @@
       </c>
       <c r="H71" s="22"/>
     </row>
-    <row r="72" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="116"/>
-      <c r="B72" s="117"/>
+    <row r="72" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="A72" s="113"/>
+      <c r="B72" s="118"/>
       <c r="C72" s="27" t="s">
         <v>13</v>
       </c>
@@ -4288,9 +4284,9 @@
       </c>
       <c r="H72" s="22"/>
     </row>
-    <row r="73" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="116"/>
-      <c r="B73" s="117"/>
+    <row r="73" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="A73" s="113"/>
+      <c r="B73" s="118"/>
       <c r="C73" s="27" t="s">
         <v>172</v>
       </c>
@@ -4308,9 +4304,9 @@
       </c>
       <c r="H73" s="22"/>
     </row>
-    <row r="74" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="A74" s="116"/>
-      <c r="B74" s="117"/>
+    <row r="74" spans="1:8" ht="90" x14ac:dyDescent="0.2">
+      <c r="A74" s="113"/>
+      <c r="B74" s="118"/>
       <c r="C74" s="27" t="s">
         <v>27</v>
       </c>
@@ -4328,7 +4324,7 @@
       </c>
       <c r="H74" s="22"/>
     </row>
-    <row r="75" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A75" s="43" t="s">
         <v>177</v>
       </c>
@@ -4340,8 +4336,8 @@
       <c r="G75" s="44"/>
       <c r="H75" s="17"/>
     </row>
-    <row r="76" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="111"/>
+    <row r="76" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="A76" s="112"/>
       <c r="B76" s="9" t="s">
         <v>178</v>
       </c>
@@ -4358,9 +4354,9 @@
       </c>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="46.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="111"/>
-      <c r="B77" s="112" t="s">
+    <row r="77" spans="1:8" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="112"/>
+      <c r="B77" s="114" t="s">
         <v>181</v>
       </c>
       <c r="C77" s="9" t="s">
@@ -4380,9 +4376,9 @@
       </c>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="111"/>
-      <c r="B78" s="112"/>
+    <row r="78" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="A78" s="112"/>
+      <c r="B78" s="114"/>
       <c r="C78" s="9" t="s">
         <v>184</v>
       </c>
@@ -4400,9 +4396,9 @@
       </c>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="111"/>
-      <c r="B79" s="112"/>
+    <row r="79" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="A79" s="112"/>
+      <c r="B79" s="114"/>
       <c r="C79" s="9" t="s">
         <v>187</v>
       </c>
@@ -4420,9 +4416,9 @@
       </c>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="111"/>
-      <c r="B80" s="112"/>
+    <row r="80" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A80" s="112"/>
+      <c r="B80" s="114"/>
       <c r="C80" s="9" t="s">
         <v>190</v>
       </c>
@@ -4440,9 +4436,9 @@
       </c>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="103.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="111"/>
-      <c r="B81" s="112"/>
+    <row r="81" spans="1:8" ht="108" x14ac:dyDescent="0.2">
+      <c r="A81" s="112"/>
+      <c r="B81" s="114"/>
       <c r="C81" s="9" t="s">
         <v>27</v>
       </c>
@@ -4460,85 +4456,80 @@
       </c>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H82" s="46"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H83" s="46"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H84" s="46"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H85" s="46"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H86" s="46"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H87" s="46"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H88" s="46"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H89" s="46"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H90" s="46"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H91" s="46"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H92" s="46"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H93" s="46"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H94" s="46"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H95" s="46"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H96" s="46"/>
     </row>
-    <row r="97" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H97" s="46"/>
     </row>
-    <row r="98" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H98" s="46"/>
     </row>
-    <row r="99" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H99" s="46"/>
     </row>
-    <row r="100" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H100" s="46"/>
     </row>
-    <row r="101" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H101" s="46"/>
     </row>
-    <row r="102" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H102" s="46"/>
     </row>
-    <row r="103" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H103" s="46"/>
     </row>
-    <row r="104" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H104" s="46"/>
     </row>
-    <row r="105" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H105" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A20:A31"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A38:A50"/>
-    <mergeCell ref="B39:B50"/>
     <mergeCell ref="A76:A81"/>
     <mergeCell ref="B77:B81"/>
     <mergeCell ref="A52:A64"/>
@@ -4546,6 +4537,11 @@
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="A69:A74"/>
     <mergeCell ref="B70:B74"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A20:A31"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A38:A50"/>
+    <mergeCell ref="B39:B50"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4561,24 +4557,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="1" customWidth="1"/>
-    <col min="8" max="1023" width="8.5703125" style="1"/>
-    <col min="1024" max="1024" width="9.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="1" customWidth="1"/>
+    <col min="8" max="1023" width="8.5" style="1"/>
+    <col min="1024" max="1024" width="9.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
         <v>195</v>
       </c>
@@ -4590,7 +4586,7 @@
       <c r="G1" s="119"/>
       <c r="H1" s="119"/>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4616,7 +4612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="17.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="120" t="s">
         <v>6</v>
       </c>
@@ -4628,7 +4624,7 @@
       <c r="G3" s="50"/>
       <c r="H3" s="51"/>
     </row>
-    <row r="4" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="36" x14ac:dyDescent="0.25">
       <c r="A4" s="52"/>
       <c r="B4" s="53" t="s">
         <v>9</v>
@@ -4648,7 +4644,7 @@
       </c>
       <c r="H4" s="55"/>
     </row>
-    <row r="5" spans="1:8" ht="86.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A5" s="52"/>
       <c r="B5" s="53" t="s">
         <v>14</v>
@@ -4668,7 +4664,7 @@
       </c>
       <c r="H5" s="55"/>
     </row>
-    <row r="6" spans="1:8" ht="138" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="126" x14ac:dyDescent="0.25">
       <c r="A6" s="52"/>
       <c r="B6" s="53" t="s">
         <v>27</v>
@@ -4688,27 +4684,27 @@
       </c>
       <c r="H6" s="55"/>
     </row>
-    <row r="7" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="54" x14ac:dyDescent="0.25">
       <c r="A7" s="52"/>
       <c r="B7" s="53" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="F7" s="53" t="s">
         <v>204</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>205</v>
       </c>
       <c r="G7" s="53" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="55"/>
     </row>
-    <row r="8" spans="1:8" ht="69" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="54" x14ac:dyDescent="0.25">
       <c r="A8" s="52"/>
       <c r="B8" s="53" t="s">
         <v>34</v>
@@ -4721,14 +4717,14 @@
         <v>36</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G8" s="53" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="55"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="52"/>
       <c r="B9" s="53" t="s">
         <v>17</v>
@@ -4741,14 +4737,14 @@
         <v>18</v>
       </c>
       <c r="F9" s="53" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G9" s="53" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="55"/>
     </row>
-    <row r="10" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.25">
       <c r="A10" s="52"/>
       <c r="B10" s="53" t="s">
         <v>20</v>
@@ -4761,14 +4757,14 @@
         <v>22</v>
       </c>
       <c r="F10" s="53" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G10" s="53" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="55"/>
     </row>
-    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="53" t="s">
         <v>24</v>
@@ -4781,16 +4777,16 @@
         <v>25</v>
       </c>
       <c r="F11" s="53" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G11" s="53" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="55"/>
     </row>
-    <row r="12" spans="1:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="17.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="121" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B12" s="121"/>
       <c r="C12" s="56"/>
@@ -4800,60 +4796,60 @@
       <c r="G12" s="59"/>
       <c r="H12" s="60"/>
     </row>
-    <row r="13" spans="1:8" ht="69" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="54" x14ac:dyDescent="0.2">
       <c r="A13" s="122"/>
       <c r="B13" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>212</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>213</v>
       </c>
       <c r="G13" s="27" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" spans="1:8" ht="103.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="122"/>
       <c r="B14" s="19" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>532</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>534</v>
-      </c>
       <c r="F14" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G14" s="27" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="22"/>
     </row>
-    <row r="15" spans="1:8" ht="69" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="54" x14ac:dyDescent="0.2">
       <c r="A15" s="61"/>
       <c r="B15" s="19" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>531</v>
+        <v>552</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G15" s="27" t="s">
         <v>47</v>
@@ -4876,36 +4872,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" style="62" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" style="62" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="62" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="62" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="62" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" style="62" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="62" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" style="62" customWidth="1"/>
+    <col min="2" max="2" width="35.5" style="62" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="62" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="62" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="62" customWidth="1"/>
+    <col min="6" max="6" width="38.5" style="62" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="62" customWidth="1"/>
     <col min="8" max="8" width="21" style="62" customWidth="1"/>
-    <col min="9" max="1024" width="9.140625" style="62"/>
+    <col min="9" max="1024" width="9.1640625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
-        <v>215</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-    </row>
-    <row r="2" spans="1:1024" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1024" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="111" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+    </row>
+    <row r="2" spans="1:1024" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="63" t="s">
         <v>1</v>
       </c>
@@ -4919,7 +4915,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F2" s="65" t="s">
         <v>196</v>
@@ -4931,9 +4927,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1024" s="67" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1024" s="67" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="67" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H3" s="68"/>
       <c r="I3" s="69"/>
@@ -4975,114 +4971,114 @@
       <c r="AS3" s="69"/>
       <c r="AMJ3" s="62"/>
     </row>
-    <row r="4" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="124"/>
       <c r="B4" s="71" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="71" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="71" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="71"/>
     </row>
-    <row r="5" spans="1:1024" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1024" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="124"/>
       <c r="B5" s="71" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="71" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="71"/>
     </row>
-    <row r="6" spans="1:1024" ht="97.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1024" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="124"/>
       <c r="B6" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="71" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="71" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="71"/>
     </row>
-    <row r="7" spans="1:1024" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1024" ht="40" x14ac:dyDescent="0.2">
       <c r="A7" s="124"/>
       <c r="B7" s="71" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="72" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="71" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="71"/>
     </row>
-    <row r="8" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="124"/>
       <c r="B8" s="71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="71"/>
     </row>
-    <row r="9" spans="1:1024" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1024" ht="90.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="124"/>
       <c r="B9" s="71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="71" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="71"/>
     </row>
-    <row r="10" spans="1:1024" s="74" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1024" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="124"/>
       <c r="B10" s="71" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="71" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="71" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="71"/>
@@ -5100,146 +5096,146 @@
       <c r="T10" s="73"/>
       <c r="AMJ10" s="62"/>
     </row>
-    <row r="11" spans="1:1024" ht="116.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1024" ht="116" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="124"/>
       <c r="B11" s="71" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="71" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="71" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="71"/>
     </row>
-    <row r="12" spans="1:1024" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1024" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="124"/>
       <c r="B12" s="71" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="71" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="71"/>
     </row>
-    <row r="13" spans="1:1024" ht="120.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1024" ht="108" x14ac:dyDescent="0.2">
       <c r="A13" s="124"/>
       <c r="B13" s="71" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>245</v>
-      </c>
       <c r="H13" s="71"/>
     </row>
-    <row r="14" spans="1:1024" ht="69" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1024" ht="54" x14ac:dyDescent="0.2">
       <c r="A14" s="124"/>
       <c r="B14" s="71" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C14" s="110"/>
       <c r="D14" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E14" s="110"/>
       <c r="F14" s="71" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G14" s="110" t="s">
         <v>47</v>
       </c>
       <c r="H14" s="71"/>
     </row>
-    <row r="15" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="124"/>
       <c r="B15" s="71" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="71"/>
     </row>
-    <row r="16" spans="1:1024" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1024" s="69" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A16" s="69" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H16" s="75"/>
       <c r="AMJ16" s="62"/>
     </row>
-    <row r="17" spans="1:1024" ht="126.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1024" ht="127" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="125"/>
       <c r="B17" s="77" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="77" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="77" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="77"/>
     </row>
-    <row r="18" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="125"/>
       <c r="B18" s="77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="77"/>
       <c r="E18" s="27"/>
       <c r="F18" s="77" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="77"/>
     </row>
-    <row r="19" spans="1:1024" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1024" ht="41.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="125"/>
       <c r="B19" s="77" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="77" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E19" s="27"/>
       <c r="F19" s="77" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="77"/>
     </row>
-    <row r="20" spans="1:1024" s="67" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1024" s="67" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="67" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H20" s="68"/>
       <c r="I20" s="69"/>
@@ -5281,18 +5277,18 @@
       <c r="AS20" s="69"/>
       <c r="AMJ20" s="62"/>
     </row>
-    <row r="21" spans="1:1024" s="74" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1024" s="74" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="70"/>
       <c r="B21" s="71" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="71" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="71" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="71"/>
@@ -5316,64 +5312,64 @@
       <c r="Z21" s="73"/>
       <c r="AMJ21" s="62"/>
     </row>
-    <row r="22" spans="1:1024" s="69" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1024" s="69" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="69" t="s">
         <v>76</v>
       </c>
       <c r="H22" s="75"/>
       <c r="AMJ22" s="62"/>
     </row>
-    <row r="23" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="125"/>
       <c r="B23" s="77" t="s">
         <v>77</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="77" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E23" s="27"/>
       <c r="F23" s="77" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="77"/>
     </row>
-    <row r="24" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="125"/>
       <c r="B24" s="77" t="s">
         <v>80</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="77" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E24" s="27"/>
       <c r="F24" s="77" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="77"/>
     </row>
-    <row r="25" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="125"/>
       <c r="B25" s="77" t="s">
         <v>83</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="77" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E25" s="27"/>
       <c r="F25" s="77" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="77"/>
     </row>
-    <row r="26" spans="1:1024" s="67" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1024" s="67" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="67" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H26" s="68"/>
       <c r="I26" s="69"/>
@@ -5396,90 +5392,90 @@
       <c r="Z26" s="69"/>
       <c r="AMJ26" s="62"/>
     </row>
-    <row r="27" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="126"/>
       <c r="B27" s="71" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="71" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>47</v>
       </c>
       <c r="H27" s="71"/>
     </row>
-    <row r="28" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="126"/>
       <c r="B28" s="71" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="71" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>47</v>
       </c>
       <c r="H28" s="71"/>
     </row>
-    <row r="29" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="126"/>
       <c r="B29" s="71" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="71" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>47</v>
       </c>
       <c r="H29" s="71"/>
     </row>
-    <row r="30" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="126"/>
       <c r="B30" s="71" t="s">
         <v>52</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="71" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>47</v>
       </c>
       <c r="H30" s="71"/>
     </row>
-    <row r="31" spans="1:1024" s="74" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1024" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="126"/>
       <c r="B31" s="71" t="s">
         <v>65</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="71" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>47</v>
@@ -5506,81 +5502,81 @@
       <c r="AA31" s="73"/>
       <c r="AMJ31" s="62"/>
     </row>
-    <row r="32" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="126"/>
       <c r="B32" s="71" t="s">
         <v>67</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="71" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>47</v>
       </c>
       <c r="H32" s="71"/>
     </row>
-    <row r="33" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="126"/>
       <c r="B33" s="71" t="s">
         <v>69</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>47</v>
       </c>
       <c r="H33" s="71"/>
     </row>
-    <row r="34" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="126"/>
       <c r="B34" s="71" t="s">
         <v>71</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="71" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>47</v>
       </c>
       <c r="H34" s="71"/>
     </row>
-    <row r="35" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="126"/>
       <c r="B35" s="71" t="s">
         <v>73</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="71" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G35" s="9" t="s">
         <v>47</v>
       </c>
       <c r="H35" s="71"/>
     </row>
-    <row r="36" spans="1:1024" s="69" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1024" s="69" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="123" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B36" s="123"/>
       <c r="C36" s="123"/>
@@ -5591,18 +5587,18 @@
       <c r="H36" s="123"/>
       <c r="AMJ36" s="62"/>
     </row>
-    <row r="37" spans="1:1024" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1024" ht="90.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="76"/>
       <c r="B37" s="77" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="27"/>
       <c r="D37" s="77" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E37" s="27"/>
       <c r="F37" s="77" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="77"/>
@@ -5633,21 +5629,21 @@
       <selection activeCell="A10" sqref="A10:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="59.140625" style="62" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="62" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="62" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="62" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" style="62" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" style="62" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="62" customWidth="1"/>
-    <col min="8" max="1024" width="9.140625" style="62"/>
+    <col min="1" max="1" width="59.1640625" style="62" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="62" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="62" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="62" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" style="62" customWidth="1"/>
+    <col min="6" max="6" width="41.5" style="62" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="62" customWidth="1"/>
+    <col min="8" max="1024" width="9.1640625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1024" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B1" s="127"/>
       <c r="C1" s="127"/>
@@ -5657,7 +5653,7 @@
       <c r="G1" s="127"/>
       <c r="H1" s="127"/>
     </row>
-    <row r="2" spans="1:1024" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1024" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="63" t="s">
         <v>1</v>
       </c>
@@ -5671,7 +5667,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F2" s="65" t="s">
         <v>196</v>
@@ -5683,9 +5679,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1024" s="67" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1024" s="67" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="124" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H3" s="68"/>
       <c r="I3" s="69"/>
@@ -5702,109 +5698,109 @@
       <c r="T3" s="69"/>
       <c r="AMJ3" s="62"/>
     </row>
-    <row r="4" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="124"/>
       <c r="B4" s="71" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="71" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="F4" s="71" t="s">
         <v>331</v>
       </c>
-      <c r="F4" s="71" t="s">
-        <v>332</v>
-      </c>
       <c r="G4" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H4" s="93"/>
     </row>
-    <row r="5" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
       <c r="A5" s="124"/>
       <c r="B5" s="71" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="71" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F5" s="71" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H5" s="93"/>
     </row>
-    <row r="6" spans="1:1024" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1024" ht="54" x14ac:dyDescent="0.2">
       <c r="A6" s="124"/>
       <c r="B6" s="71" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="71" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F6" s="71" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H6" s="93"/>
     </row>
-    <row r="7" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
       <c r="A7" s="124"/>
       <c r="B7" s="71" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="71" t="s">
+        <v>337</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="71" t="s">
         <v>339</v>
       </c>
-      <c r="F7" s="71" t="s">
-        <v>340</v>
-      </c>
       <c r="G7" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H7" s="93"/>
     </row>
-    <row r="8" spans="1:1024" ht="69" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1024" ht="72" x14ac:dyDescent="0.2">
       <c r="A8" s="124"/>
       <c r="B8" s="71" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="71" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="F8" s="71" t="s">
         <v>342</v>
       </c>
-      <c r="F8" s="71" t="s">
+      <c r="G8" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="H8" s="93"/>
+    </row>
+    <row r="9" spans="1:1024" s="69" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="123" t="s">
         <v>344</v>
-      </c>
-      <c r="H8" s="93"/>
-    </row>
-    <row r="9" spans="1:1024" s="69" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="123" t="s">
-        <v>345</v>
       </c>
       <c r="B9" s="123"/>
       <c r="C9" s="123"/>
@@ -5815,127 +5811,127 @@
       <c r="H9" s="123"/>
       <c r="AMJ9" s="62"/>
     </row>
-    <row r="10" spans="1:1024" ht="69" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1024" ht="54" x14ac:dyDescent="0.2">
       <c r="A10" s="125"/>
       <c r="B10" s="77" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="77" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E10" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="F10" s="77" t="s">
         <v>347</v>
-      </c>
-      <c r="F10" s="77" t="s">
-        <v>348</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="94"/>
     </row>
-    <row r="11" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
       <c r="A11" s="125"/>
       <c r="B11" s="77" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="77" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E11" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="F11" s="77" t="s">
         <v>350</v>
       </c>
-      <c r="F11" s="77" t="s">
-        <v>351</v>
-      </c>
       <c r="G11" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H11" s="94"/>
     </row>
-    <row r="12" spans="1:1024" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1024" ht="72" x14ac:dyDescent="0.2">
       <c r="A12" s="125"/>
       <c r="B12" s="77" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="77" t="s">
+        <v>352</v>
+      </c>
+      <c r="E12" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="F12" s="77" t="s">
         <v>354</v>
       </c>
-      <c r="F12" s="77" t="s">
-        <v>355</v>
-      </c>
       <c r="G12" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H12" s="94"/>
     </row>
-    <row r="13" spans="1:1024" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1024" ht="90" x14ac:dyDescent="0.2">
       <c r="A13" s="125"/>
       <c r="B13" s="77" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="77" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E13" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="F13" s="77" t="s">
         <v>357</v>
-      </c>
-      <c r="F13" s="77" t="s">
-        <v>358</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="94"/>
     </row>
-    <row r="14" spans="1:1024" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1024" ht="90" x14ac:dyDescent="0.2">
       <c r="A14" s="125"/>
       <c r="B14" s="77" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="77" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E14" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="F14" s="77" t="s">
         <v>360</v>
       </c>
-      <c r="F14" s="77" t="s">
-        <v>361</v>
-      </c>
       <c r="G14" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H14" s="94"/>
     </row>
-    <row r="15" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
       <c r="A15" s="125"/>
       <c r="B15" s="77" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="77" t="s">
+        <v>362</v>
+      </c>
+      <c r="E15" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="F15" s="77" t="s">
         <v>364</v>
-      </c>
-      <c r="F15" s="77" t="s">
-        <v>365</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="94"/>
     </row>
-    <row r="16" spans="1:1024" s="67" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1024" s="67" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="67" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H16" s="95"/>
       <c r="I16" s="69"/>
@@ -5948,29 +5944,29 @@
       <c r="P16" s="69"/>
       <c r="AMJ16" s="62"/>
     </row>
-    <row r="17" spans="1:1024" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1024" ht="54" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="71" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="71" t="s">
+        <v>367</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="F17" s="71" t="s">
         <v>369</v>
       </c>
-      <c r="F17" s="71" t="s">
+      <c r="G17" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="H17" s="93"/>
+    </row>
+    <row r="18" spans="1:1024" ht="18.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="123" t="s">
         <v>370</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="H17" s="93"/>
-    </row>
-    <row r="18" spans="1:1024" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="123" t="s">
-        <v>371</v>
       </c>
       <c r="B18" s="123"/>
       <c r="C18" s="123"/>
@@ -5980,69 +5976,69 @@
       <c r="G18" s="123"/>
       <c r="H18" s="123"/>
     </row>
-    <row r="19" spans="1:1024" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1024" ht="72" x14ac:dyDescent="0.2">
       <c r="A19" s="125"/>
       <c r="B19" s="77" t="s">
         <v>98</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="77" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E19" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="F19" s="77" t="s">
         <v>372</v>
-      </c>
-      <c r="F19" s="77" t="s">
-        <v>373</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
       <c r="A20" s="125"/>
       <c r="B20" s="77" t="s">
         <v>102</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="77" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E20" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="F20" s="77" t="s">
         <v>374</v>
-      </c>
-      <c r="F20" s="77" t="s">
-        <v>375</v>
       </c>
       <c r="G20" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="94"/>
     </row>
-    <row r="21" spans="1:1024" ht="120.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1024" ht="108" x14ac:dyDescent="0.2">
       <c r="A21" s="125"/>
       <c r="B21" s="77" t="s">
         <v>106</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="77" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E21" s="27" t="s">
+        <v>375</v>
+      </c>
+      <c r="F21" s="77" t="s">
         <v>376</v>
       </c>
-      <c r="F21" s="77" t="s">
+      <c r="G21" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="H21" s="94"/>
+    </row>
+    <row r="22" spans="1:1024" s="67" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="67" t="s">
         <v>378</v>
-      </c>
-      <c r="H21" s="94"/>
-    </row>
-    <row r="22" spans="1:1024" s="67" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="67" t="s">
-        <v>379</v>
       </c>
       <c r="H22" s="95"/>
       <c r="I22" s="69"/>
@@ -6054,94 +6050,94 @@
       <c r="O22" s="69"/>
       <c r="AMJ22" s="62"/>
     </row>
-    <row r="23" spans="1:1024" ht="69" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1024" ht="72" x14ac:dyDescent="0.2">
       <c r="A23" s="126"/>
       <c r="B23" s="71" t="s">
         <v>110</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E23" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="F23" s="71" t="s">
         <v>380</v>
       </c>
-      <c r="F23" s="71" t="s">
+      <c r="G23" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>382</v>
-      </c>
       <c r="H23" s="93"/>
     </row>
-    <row r="24" spans="1:1024" ht="146.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1024" ht="146.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="126"/>
       <c r="B24" s="71" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E24" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="F24" s="71" t="s">
         <v>384</v>
       </c>
-      <c r="F24" s="71" t="s">
+      <c r="G24" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>386</v>
-      </c>
       <c r="H24" s="93"/>
     </row>
-    <row r="25" spans="1:1024" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1024" ht="90" x14ac:dyDescent="0.2">
       <c r="A25" s="126"/>
       <c r="B25" s="71" t="s">
         <v>118</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="71" t="s">
+        <v>386</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="F25" s="71" t="s">
         <v>388</v>
       </c>
-      <c r="F25" s="71" t="s">
+      <c r="G25" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="H25" s="93"/>
+    </row>
+    <row r="26" spans="1:1024" s="69" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="69" t="s">
         <v>390</v>
-      </c>
-      <c r="H25" s="93"/>
-    </row>
-    <row r="26" spans="1:1024" s="69" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="69" t="s">
-        <v>391</v>
       </c>
       <c r="H26" s="96"/>
       <c r="AMJ26" s="62"/>
     </row>
-    <row r="27" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="76"/>
       <c r="B27" s="77" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="77" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E27" s="27"/>
       <c r="F27" s="77" t="s">
+        <v>393</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="H27" s="94"/>
+    </row>
+    <row r="28" spans="1:1024" s="67" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="67" t="s">
         <v>394</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="H27" s="94"/>
-    </row>
-    <row r="28" spans="1:1024" s="67" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="67" t="s">
-        <v>395</v>
       </c>
       <c r="H28" s="95"/>
       <c r="I28" s="69"/>
@@ -6153,109 +6149,109 @@
       <c r="O28" s="69"/>
       <c r="AMJ28" s="62"/>
     </row>
-    <row r="29" spans="1:1024" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1024" ht="72" x14ac:dyDescent="0.2">
       <c r="A29" s="78"/>
       <c r="B29" s="71" t="s">
         <v>114</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E29" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="F29" s="71" t="s">
         <v>396</v>
       </c>
-      <c r="F29" s="71" t="s">
-        <v>397</v>
-      </c>
       <c r="G29" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H29" s="93"/>
     </row>
-    <row r="30" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
       <c r="A30" s="78"/>
       <c r="B30" s="71" t="s">
         <v>122</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E30" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="F30" s="71" t="s">
         <v>398</v>
       </c>
-      <c r="F30" s="71" t="s">
-        <v>399</v>
-      </c>
       <c r="G30" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H30" s="93"/>
     </row>
-    <row r="31" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
       <c r="A31" s="78"/>
       <c r="B31" s="71" t="s">
         <v>126</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E31" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="F31" s="71" t="s">
         <v>400</v>
       </c>
-      <c r="F31" s="71" t="s">
-        <v>401</v>
-      </c>
       <c r="G31" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H31" s="93"/>
     </row>
-    <row r="32" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
       <c r="A32" s="78"/>
       <c r="B32" s="71" t="s">
         <v>130</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E32" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="F32" s="71" t="s">
         <v>402</v>
       </c>
-      <c r="F32" s="71" t="s">
-        <v>403</v>
-      </c>
       <c r="G32" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H32" s="93"/>
     </row>
-    <row r="33" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="78"/>
       <c r="B33" s="71" t="s">
         <v>134</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E33" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="F33" s="71" t="s">
         <v>404</v>
       </c>
-      <c r="F33" s="71" t="s">
+      <c r="G33" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="H33" s="93"/>
+    </row>
+    <row r="34" spans="1:1024" s="69" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="123" t="s">
         <v>405</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="H33" s="93"/>
-    </row>
-    <row r="34" spans="1:1024" s="69" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="123" t="s">
-        <v>406</v>
       </c>
       <c r="B34" s="123"/>
       <c r="C34" s="123"/>
@@ -6266,41 +6262,41 @@
       <c r="H34" s="123"/>
       <c r="AMJ34" s="62"/>
     </row>
-    <row r="35" spans="1:1024" ht="89.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1024" ht="89.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="125"/>
       <c r="B35" s="77" t="s">
         <v>138</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="77" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E35" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F35" s="77" t="s">
         <v>407</v>
       </c>
-      <c r="F35" s="77" t="s">
-        <v>408</v>
-      </c>
       <c r="G35" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H35" s="94"/>
     </row>
-    <row r="36" spans="1:1024" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1024" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="125"/>
       <c r="B36" s="77" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="77" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E36" s="27"/>
       <c r="F36" s="77" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H36" s="94"/>
     </row>
@@ -6333,23 +6329,23 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="62" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="62" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" style="62" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="62" customWidth="1"/>
-    <col min="5" max="5" width="43.85546875" style="62" customWidth="1"/>
-    <col min="6" max="6" width="77.28515625" style="62" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="62" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" style="62" customWidth="1"/>
-    <col min="9" max="67" width="10.5703125" style="62" customWidth="1"/>
-    <col min="68" max="1024" width="9.140625" style="62"/>
+    <col min="1" max="1" width="11.33203125" style="62" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="62" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="62" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="62" customWidth="1"/>
+    <col min="5" max="5" width="43.83203125" style="62" customWidth="1"/>
+    <col min="6" max="6" width="77.33203125" style="62" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="62" customWidth="1"/>
+    <col min="8" max="8" width="22.5" style="62" customWidth="1"/>
+    <col min="9" max="67" width="10.5" style="62" customWidth="1"/>
+    <col min="68" max="1024" width="9.1640625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1024" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B1" s="127"/>
       <c r="C1" s="127"/>
@@ -6359,7 +6355,7 @@
       <c r="G1" s="127"/>
       <c r="H1" s="127"/>
     </row>
-    <row r="2" spans="1:1024" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1024" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
@@ -6373,7 +6369,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F2" s="64" t="s">
         <v>196</v>
@@ -6385,7 +6381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1024" s="97" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1024" s="97" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H3" s="98"/>
       <c r="I3" s="99"/>
       <c r="J3" s="99"/>
@@ -6403,50 +6399,50 @@
       <c r="V3" s="99"/>
       <c r="AMJ3" s="62"/>
     </row>
-    <row r="4" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="128"/>
       <c r="B4" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E4" s="90" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G4" s="84" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="128"/>
       <c r="B5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="E5" s="90" t="s">
         <v>285</v>
       </c>
-      <c r="E5" s="90" t="s">
+      <c r="F5" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>287</v>
-      </c>
       <c r="G5" s="84" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="128"/>
       <c r="B6" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="11" t="s">
@@ -6456,201 +6452,201 @@
         <v>21</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G6" s="84"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="128"/>
       <c r="B7" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E7" s="90" t="s">
+        <v>290</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>292</v>
-      </c>
       <c r="G7" s="84" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
       <c r="A8" s="128"/>
       <c r="B8" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E8" s="90" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G8" s="84" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="128"/>
       <c r="B9" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E9" s="90" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G9" s="84" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="128"/>
       <c r="B10" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E10" s="90" t="s">
+        <v>416</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>417</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>418</v>
       </c>
       <c r="G10" s="84"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="128"/>
       <c r="B11" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E11" s="90" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="128"/>
       <c r="B12" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E12" s="90" t="s">
+        <v>420</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>421</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>422</v>
       </c>
       <c r="G12" s="84"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="128"/>
       <c r="B13" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E13" s="90" t="s">
+        <v>310</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>311</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>312</v>
       </c>
       <c r="G13" s="84"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:1024" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1024" ht="72" x14ac:dyDescent="0.2">
       <c r="A14" s="128"/>
       <c r="B14" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E14" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>425</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>426</v>
       </c>
       <c r="G14" s="84"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="128"/>
       <c r="B15" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E15" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>428</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>429</v>
       </c>
       <c r="G15" s="84"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="128"/>
       <c r="B16" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="F16" s="11" t="s">
         <v>432</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>433</v>
       </c>
       <c r="G16" s="84"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A17" s="128"/>
       <c r="B17" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9" t="s">
@@ -6660,33 +6656,33 @@
         <v>12</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G17" s="84"/>
       <c r="H17" s="84"/>
     </row>
-    <row r="18" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="128"/>
       <c r="B18" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G18" s="84"/>
       <c r="H18" s="84"/>
     </row>
-    <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="23" x14ac:dyDescent="0.2">
       <c r="F20" s="100"/>
     </row>
-    <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="D28" s="76"/>
     </row>
   </sheetData>
@@ -6707,32 +6703,32 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" customWidth="1"/>
-    <col min="6" max="6" width="65.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" customWidth="1"/>
+    <col min="6" max="6" width="65.83203125" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
     <col min="8" max="8" width="28" customWidth="1"/>
-    <col min="9" max="62" width="10.5703125" customWidth="1"/>
+    <col min="9" max="62" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
-        <v>279</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-    </row>
-    <row r="2" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="111" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+    </row>
+    <row r="2" spans="1:17" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -6746,7 +6742,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="79" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F2" s="80" t="s">
         <v>196</v>
@@ -6758,7 +6754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="24" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -6768,23 +6764,23 @@
       <c r="G3" s="14"/>
       <c r="H3" s="82"/>
     </row>
-    <row r="4" spans="1:17" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="129"/>
       <c r="B4" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="71" t="s">
+        <v>279</v>
+      </c>
+      <c r="E4" s="83" t="s">
         <v>280</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="F4" s="71" t="s">
         <v>281</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="G4" s="84" t="s">
         <v>282</v>
-      </c>
-      <c r="G4" s="84" t="s">
-        <v>283</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="24"/>
@@ -6797,23 +6793,23 @@
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
     </row>
-    <row r="5" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="129"/>
       <c r="B5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="71" t="s">
+        <v>284</v>
+      </c>
+      <c r="E5" s="83" t="s">
         <v>285</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="F5" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>287</v>
-      </c>
       <c r="G5" s="84" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="24"/>
@@ -6826,20 +6822,20 @@
       <c r="P5" s="24"/>
       <c r="Q5" s="24"/>
     </row>
-    <row r="6" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="129"/>
       <c r="B6" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="71" t="s">
         <v>168</v>
       </c>
       <c r="E6" s="83" t="s">
+        <v>287</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>288</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>289</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="11"/>
@@ -6853,23 +6849,23 @@
       <c r="P6" s="24"/>
       <c r="Q6" s="24"/>
     </row>
-    <row r="7" spans="1:17" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="36" x14ac:dyDescent="0.2">
       <c r="A7" s="129"/>
       <c r="B7" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="71" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E7" s="83" t="s">
+        <v>290</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>292</v>
-      </c>
       <c r="G7" s="84" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="24"/>
@@ -6882,23 +6878,23 @@
       <c r="P7" s="24"/>
       <c r="Q7" s="24"/>
     </row>
-    <row r="8" spans="1:17" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="36" x14ac:dyDescent="0.2">
       <c r="A8" s="129"/>
       <c r="B8" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="71" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E8" s="83" t="s">
+        <v>293</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>295</v>
-      </c>
       <c r="G8" s="84" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="24"/>
@@ -6911,23 +6907,23 @@
       <c r="P8" s="24"/>
       <c r="Q8" s="24"/>
     </row>
-    <row r="9" spans="1:17" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="129"/>
       <c r="B9" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="E9" s="86" t="s">
         <v>297</v>
       </c>
-      <c r="E9" s="86" t="s">
+      <c r="F9" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>299</v>
-      </c>
       <c r="G9" s="84" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H9" s="87"/>
       <c r="I9" s="24"/>
@@ -6940,20 +6936,20 @@
       <c r="P9" s="24"/>
       <c r="Q9" s="24"/>
     </row>
-    <row r="10" spans="1:17" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="129"/>
       <c r="B10" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="71" t="s">
+        <v>299</v>
+      </c>
+      <c r="E10" s="83" t="s">
         <v>300</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="F10" s="9" t="s">
         <v>301</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>302</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="11"/>
@@ -6967,20 +6963,20 @@
       <c r="P10" s="24"/>
       <c r="Q10" s="24"/>
     </row>
-    <row r="11" spans="1:17" ht="36.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="129"/>
       <c r="B11" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="71" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E11" s="83" t="s">
+        <v>303</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>304</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>305</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="11"/>
@@ -6994,20 +6990,20 @@
       <c r="P11" s="24"/>
       <c r="Q11" s="24"/>
     </row>
-    <row r="12" spans="1:17" s="89" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" s="89" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A12" s="129"/>
       <c r="B12" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="71" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E12" s="83" t="s">
+        <v>306</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>307</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>308</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="11"/>
@@ -7021,20 +7017,20 @@
       <c r="P12" s="24"/>
       <c r="Q12" s="24"/>
     </row>
-    <row r="13" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="129"/>
       <c r="B13" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="71" t="s">
+        <v>309</v>
+      </c>
+      <c r="E13" s="83" t="s">
         <v>310</v>
       </c>
-      <c r="E13" s="83" t="s">
+      <c r="F13" s="9" t="s">
         <v>311</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>312</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="11"/>
@@ -7048,20 +7044,20 @@
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>
     </row>
-    <row r="14" spans="1:17" ht="37.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="129"/>
       <c r="B14" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="71" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E14" s="83" t="s">
+        <v>313</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>314</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>315</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="11"/>
@@ -7075,20 +7071,20 @@
       <c r="P14" s="24"/>
       <c r="Q14" s="24"/>
     </row>
-    <row r="15" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="129"/>
       <c r="B15" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="71" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E15" s="83" t="s">
+        <v>316</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>317</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>318</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="11"/>
@@ -7102,20 +7098,20 @@
       <c r="P15" s="24"/>
       <c r="Q15" s="24"/>
     </row>
-    <row r="16" spans="1:17" ht="86.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="72" x14ac:dyDescent="0.2">
       <c r="A16" s="129"/>
       <c r="B16" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="71" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E16" s="83" t="s">
+        <v>319</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>320</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>321</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="11"/>
@@ -7129,20 +7125,20 @@
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
     </row>
-    <row r="17" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="129"/>
       <c r="B17" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="E17" s="90" t="s">
         <v>323</v>
       </c>
-      <c r="E17" s="90" t="s">
+      <c r="F17" s="9" t="s">
         <v>324</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>325</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -7156,20 +7152,20 @@
       <c r="P17" s="24"/>
       <c r="Q17" s="24"/>
     </row>
-    <row r="18" spans="1:17" ht="36.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="129"/>
       <c r="B18" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="90" t="s">
+        <v>326</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>327</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>328</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -7183,7 +7179,7 @@
       <c r="P18" s="24"/>
       <c r="Q18" s="24"/>
     </row>
-    <row r="22" spans="1:17" ht="25.5" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:17" ht="23" x14ac:dyDescent="0.3">
       <c r="F22" s="91"/>
     </row>
   </sheetData>
@@ -7204,22 +7200,22 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="101" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="101" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="102" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" style="102" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" style="102" customWidth="1"/>
-    <col min="6" max="6" width="46.140625" style="102" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="101" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="101" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="102" customWidth="1"/>
+    <col min="4" max="4" width="40.1640625" style="102" customWidth="1"/>
+    <col min="5" max="5" width="30.5" style="102" customWidth="1"/>
+    <col min="6" max="6" width="46.1640625" style="102" customWidth="1"/>
     <col min="7" max="7" width="19" style="102" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="1024" max="1024" width="9.140625" customWidth="1"/>
+    <col min="1024" max="1024" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="44.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="44.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B1" s="127"/>
       <c r="C1" s="127"/>
@@ -7229,7 +7225,7 @@
       <c r="G1" s="127"/>
       <c r="H1" s="127"/>
     </row>
-    <row r="2" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="17.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -7237,7 +7233,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>4</v>
@@ -7249,13 +7245,13 @@
         <v>196</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="103" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" s="103" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="103" t="s">
         <v>6</v>
       </c>
@@ -7273,25 +7269,25 @@
       <c r="S3" s="105"/>
       <c r="T3" s="105"/>
     </row>
-    <row r="4" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="130"/>
       <c r="B4" s="71" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="71"/>
       <c r="D4" s="71" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E4" s="71"/>
       <c r="F4" s="71" t="s">
+        <v>438</v>
+      </c>
+      <c r="G4" s="71" t="s">
         <v>439</v>
       </c>
-      <c r="G4" s="71" t="s">
-        <v>440</v>
-      </c>
       <c r="H4" s="71"/>
     </row>
-    <row r="5" spans="1:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="130"/>
       <c r="B5" s="71" t="s">
         <v>14</v>
@@ -7302,14 +7298,14 @@
       </c>
       <c r="E5" s="71"/>
       <c r="F5" s="71" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G5" s="71" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H5" s="71"/>
     </row>
-    <row r="6" spans="1:20" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="130"/>
       <c r="B6" s="71" t="s">
         <v>17</v>
@@ -7320,14 +7316,14 @@
       </c>
       <c r="E6" s="71"/>
       <c r="F6" s="71" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G6" s="71" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H6" s="71"/>
     </row>
-    <row r="7" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="130"/>
       <c r="B7" s="71" t="s">
         <v>20</v>
@@ -7338,180 +7334,180 @@
       </c>
       <c r="E7" s="71"/>
       <c r="F7" s="71" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G7" s="71" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H7" s="71"/>
     </row>
-    <row r="8" spans="1:20" s="105" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" s="105" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="105" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H8" s="106"/>
     </row>
-    <row r="9" spans="1:20" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="18.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="131"/>
       <c r="B9" s="77" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="77"/>
       <c r="D9" s="77" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E9" s="77"/>
       <c r="F9" s="77" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G9" s="107" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H9" s="77"/>
     </row>
-    <row r="10" spans="1:20" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="131"/>
       <c r="B10" s="77" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C10" s="77"/>
       <c r="D10" s="77" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E10" s="77"/>
       <c r="F10" s="77"/>
       <c r="G10" s="77" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H10" s="77"/>
     </row>
-    <row r="11" spans="1:20" ht="40.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="40.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="131"/>
       <c r="B11" s="77"/>
       <c r="C11" s="77" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E11" s="77"/>
       <c r="F11" s="77" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G11" s="77" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H11" s="77"/>
     </row>
-    <row r="12" spans="1:20" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="131"/>
       <c r="B12" s="77"/>
       <c r="C12" s="77" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D12" s="77" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E12" s="77"/>
       <c r="F12" s="77" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G12" s="77" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H12" s="77"/>
     </row>
-    <row r="13" spans="1:20" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="131"/>
       <c r="B13" s="77"/>
       <c r="C13" s="77" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D13" s="77" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E13" s="77"/>
       <c r="F13" s="77" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G13" s="77" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H13" s="77"/>
     </row>
-    <row r="14" spans="1:20" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="131"/>
       <c r="B14" s="77"/>
       <c r="C14" s="77" t="s">
+        <v>454</v>
+      </c>
+      <c r="D14" s="77" t="s">
         <v>455</v>
-      </c>
-      <c r="D14" s="77" t="s">
-        <v>456</v>
       </c>
       <c r="E14" s="77"/>
       <c r="F14" s="77" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G14" s="77" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H14" s="77"/>
     </row>
-    <row r="15" spans="1:20" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="131"/>
       <c r="B15" s="77"/>
       <c r="C15" s="77" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D15" s="77" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E15" s="77"/>
       <c r="F15" s="77" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G15" s="77" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H15" s="77"/>
     </row>
-    <row r="16" spans="1:20" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="131"/>
       <c r="B16" s="77" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C16" s="77"/>
       <c r="D16" s="77" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E16" s="77"/>
       <c r="F16" s="77"/>
       <c r="G16" s="77" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H16" s="77"/>
     </row>
-    <row r="17" spans="1:19" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="18.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="131"/>
       <c r="B17" s="77"/>
       <c r="C17" s="77" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D17" s="77" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E17" s="77"/>
       <c r="F17" s="77" t="s">
+        <v>461</v>
+      </c>
+      <c r="G17" s="77" t="s">
+        <v>460</v>
+      </c>
+      <c r="H17" s="77"/>
+    </row>
+    <row r="18" spans="1:19" s="103" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="103" t="s">
         <v>462</v>
-      </c>
-      <c r="G17" s="77" t="s">
-        <v>461</v>
-      </c>
-      <c r="H17" s="77"/>
-    </row>
-    <row r="18" spans="1:19" s="103" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="103" t="s">
-        <v>463</v>
       </c>
       <c r="H18" s="104"/>
       <c r="I18" s="105"/>
@@ -7526,66 +7522,66 @@
       <c r="R18" s="105"/>
       <c r="S18" s="105"/>
     </row>
-    <row r="19" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="132"/>
       <c r="B19" s="71" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C19" s="71"/>
       <c r="D19" s="71" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="71" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H19" s="71"/>
     </row>
-    <row r="20" spans="1:19" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="41.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="132"/>
       <c r="B20" s="71"/>
       <c r="C20" s="71" t="s">
+        <v>465</v>
+      </c>
+      <c r="D20" s="71" t="s">
         <v>466</v>
-      </c>
-      <c r="D20" s="71" t="s">
-        <v>467</v>
       </c>
       <c r="E20" s="71"/>
       <c r="F20" s="71" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G20" s="71"/>
       <c r="H20" s="71"/>
     </row>
-    <row r="21" spans="1:19" ht="36.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="132"/>
       <c r="B21" s="71"/>
       <c r="C21" s="71" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D21" s="71" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E21" s="71"/>
       <c r="F21" s="71" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G21" s="71"/>
       <c r="H21" s="71"/>
     </row>
-    <row r="22" spans="1:19" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="132"/>
       <c r="B22" s="71"/>
       <c r="C22" s="71" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D22" s="71" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E22" s="71"/>
       <c r="F22" s="71" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G22" s="71"/>
       <c r="H22" s="71"/>
@@ -7614,22 +7610,22 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.140625" style="62" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="62" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="62" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" style="62" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="62" customWidth="1"/>
+    <col min="1" max="1" width="35.1640625" style="62" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="62" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="62" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" style="62" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="62" customWidth="1"/>
     <col min="6" max="6" width="32" style="62" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="62" customWidth="1"/>
-    <col min="8" max="8" width="49.85546875" style="62" customWidth="1"/>
-    <col min="9" max="1024" width="9.140625" style="62"/>
+    <col min="7" max="7" width="19.6640625" style="62" customWidth="1"/>
+    <col min="8" max="8" width="49.83203125" style="62" customWidth="1"/>
+    <col min="9" max="1024" width="9.1640625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1024" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B1" s="127"/>
       <c r="C1" s="127"/>
@@ -7639,7 +7635,7 @@
       <c r="G1" s="127"/>
       <c r="H1" s="127"/>
     </row>
-    <row r="2" spans="1:1024" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1024" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="63" t="s">
         <v>1</v>
       </c>
@@ -7653,7 +7649,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F2" s="65" t="s">
         <v>196</v>
@@ -7665,9 +7661,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="108" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B3" s="78"/>
       <c r="C3" s="78"/>
@@ -7677,42 +7673,42 @@
       <c r="G3" s="78"/>
       <c r="H3" s="78"/>
     </row>
-    <row r="4" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="126"/>
       <c r="B4" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C4" s="71"/>
       <c r="D4" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="71" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="71"/>
     </row>
-    <row r="5" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="126"/>
       <c r="B5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C5" s="71"/>
       <c r="D5" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="71" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="71"/>
     </row>
-    <row r="6" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="126"/>
       <c r="B6" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C6" s="71"/>
       <c r="D6" s="9" t="s">
@@ -7720,149 +7716,149 @@
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="71" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="126"/>
       <c r="B7" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C7" s="71"/>
       <c r="D7" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="71" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="71"/>
     </row>
-    <row r="8" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="126"/>
       <c r="B8" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C8" s="71"/>
       <c r="D8" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="71" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="71"/>
     </row>
-    <row r="9" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="126"/>
       <c r="B9" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C9" s="71"/>
       <c r="D9" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="71" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="71"/>
     </row>
-    <row r="10" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="126"/>
       <c r="B10" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C10" s="71"/>
       <c r="D10" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="71" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="71"/>
     </row>
-    <row r="11" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="126"/>
       <c r="B11" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="71" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="71"/>
     </row>
-    <row r="12" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
       <c r="A12" s="126"/>
       <c r="B12" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C12" s="71"/>
       <c r="D12" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="71" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="71"/>
     </row>
-    <row r="13" spans="1:1024" s="109" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1024" s="109" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="109" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AMJ13" s="62"/>
     </row>
-    <row r="14" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
       <c r="A14" s="125"/>
       <c r="B14" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
     </row>
-    <row r="15" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="125"/>
       <c r="B15" s="27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
     </row>
-    <row r="16" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
       <c r="A16" s="125"/>
       <c r="B16" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="27" t="s">
@@ -7870,111 +7866,111 @@
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="27" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A17" s="125"/>
       <c r="B17" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
     </row>
-    <row r="18" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="125"/>
       <c r="B18" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E18" s="27"/>
       <c r="F18" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
     </row>
-    <row r="19" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="125"/>
       <c r="B19" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E19" s="27"/>
       <c r="F19" s="27" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
     </row>
-    <row r="20" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="125"/>
       <c r="B20" s="27" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E20" s="27"/>
       <c r="F20" s="27" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
     </row>
-    <row r="21" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="125"/>
       <c r="B21" s="27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E21" s="27"/>
       <c r="F21" s="27" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
     </row>
-    <row r="22" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A22" s="125"/>
       <c r="B22" s="27" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E22" s="27"/>
       <c r="F22" s="27" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
     </row>
-    <row r="23" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="125"/>
       <c r="B23" s="27" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="27" t="s">
@@ -7982,15 +7978,15 @@
       </c>
       <c r="E23" s="27"/>
       <c r="F23" s="27" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
     </row>
-    <row r="24" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="125"/>
       <c r="B24" s="27" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="27" t="s">
@@ -7998,14 +7994,14 @@
       </c>
       <c r="E24" s="27"/>
       <c r="F24" s="27" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
     </row>
-    <row r="25" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="108" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B25" s="78"/>
       <c r="C25" s="78"/>
@@ -8015,42 +8011,42 @@
       <c r="G25" s="78"/>
       <c r="H25" s="78"/>
     </row>
-    <row r="26" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="126"/>
       <c r="B26" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="126"/>
       <c r="B27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="126"/>
       <c r="B28" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9" t="s">
@@ -8058,181 +8054,181 @@
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A29" s="126"/>
       <c r="B29" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A30" s="126"/>
       <c r="B30" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="126"/>
       <c r="B31" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="126"/>
       <c r="B32" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="126"/>
       <c r="B33" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="126"/>
       <c r="B34" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="126"/>
       <c r="B35" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
       <c r="A36" s="126"/>
       <c r="B36" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:1024" s="109" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1024" s="109" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="109" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AMJ37" s="62"/>
     </row>
-    <row r="38" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="125"/>
       <c r="B38" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C38" s="27"/>
       <c r="D38" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E38" s="27"/>
       <c r="F38" s="27" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
     </row>
-    <row r="39" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="125"/>
       <c r="B39" s="27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C39" s="27"/>
       <c r="D39" s="27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E39" s="27"/>
       <c r="F39" s="27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
     </row>
-    <row r="40" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="125"/>
       <c r="B40" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C40" s="27"/>
       <c r="D40" s="27" t="s">
@@ -8240,135 +8236,135 @@
       </c>
       <c r="E40" s="27"/>
       <c r="F40" s="27" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
     </row>
-    <row r="41" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
       <c r="A41" s="125"/>
       <c r="B41" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C41" s="27"/>
       <c r="D41" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E41" s="27"/>
       <c r="F41" s="27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
     </row>
-    <row r="42" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
       <c r="A42" s="125"/>
       <c r="B42" s="27" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C42" s="27"/>
       <c r="D42" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E42" s="27"/>
       <c r="F42" s="27" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
     </row>
-    <row r="43" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="125"/>
       <c r="B43" s="27" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C43" s="27"/>
       <c r="D43" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E43" s="27"/>
       <c r="F43" s="27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
     </row>
-    <row r="44" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="125"/>
       <c r="B44" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C44" s="27"/>
       <c r="D44" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E44" s="27"/>
       <c r="F44" s="27" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
     </row>
-    <row r="45" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="125"/>
       <c r="B45" s="27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C45" s="27"/>
       <c r="D45" s="27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E45" s="27"/>
       <c r="F45" s="27" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
     </row>
-    <row r="46" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="125"/>
       <c r="B46" s="27" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C46" s="27"/>
       <c r="D46" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E46" s="27"/>
       <c r="F46" s="27" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
     </row>
-    <row r="47" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="125"/>
       <c r="B47" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="27"/>
       <c r="D47" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E47" s="27"/>
       <c r="F47" s="27" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
     </row>
-    <row r="48" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="125"/>
       <c r="B48" s="27" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C48" s="27"/>
       <c r="D48" s="27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E48" s="27"/>
       <c r="F48" s="27" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deslauj/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E0F44F-DAA4-514D-9630-7228BE02FA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B738CAD8-5999-494D-8763-717E003574EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13880" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Microservice" sheetId="1" r:id="rId1"/>
     <sheet name="Algorithm" sheetId="2" r:id="rId2"/>
-    <sheet name="Models" sheetId="3" r:id="rId3"/>
+    <sheet name="Model" sheetId="3" r:id="rId3"/>
     <sheet name="Data" sheetId="5" r:id="rId4"/>
     <sheet name="MA Pair" sheetId="6" r:id="rId5"/>
     <sheet name="DMA Tuple" sheetId="4" r:id="rId6"/>
@@ -711,9 +711,6 @@
     <t>an abstract definition of which microservice shall run on which host, to indicate which Microservices may need to run on the same host</t>
   </si>
   <si>
-    <t xml:space="preserve"> Metadata for Models v0.9</t>
-  </si>
-  <si>
     <t>example Value</t>
   </si>
   <si>
@@ -1864,6 +1861,9 @@
   </si>
   <si>
     <t>{microserviceA: [microserviceA, microserviceB], microserviceB:[], microserviceC:[]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Metadata for Model v0.9</t>
   </si>
 </sst>
 </file>
@@ -2454,30 +2454,30 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2924,16 +2924,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
     </row>
     <row r="2" spans="1:8" s="5" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -3155,7 +3155,7 @@
         <v>40</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>41</v>
@@ -3172,13 +3172,13 @@
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>534</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="F14" s="19" t="s">
         <v>535</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>536</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>13</v>
@@ -3188,17 +3188,17 @@
     <row r="15" spans="1:8" ht="54" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
       <c r="B15" s="19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>548</v>
       </c>
-      <c r="E15" s="21" t="s">
-        <v>549</v>
-      </c>
       <c r="F15" s="19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G15" s="19" t="s">
         <v>47</v>
@@ -3208,17 +3208,17 @@
     <row r="16" spans="1:8" ht="54" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="E16" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>542</v>
-      </c>
       <c r="F16" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>47</v>
@@ -3228,17 +3228,17 @@
     <row r="17" spans="1:8" ht="54" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
       <c r="B17" s="19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="19" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>47</v>
@@ -3261,7 +3261,7 @@
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="112"/>
+      <c r="A20" s="111"/>
       <c r="B20" s="9" t="s">
         <v>44</v>
       </c>
@@ -3281,7 +3281,7 @@
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="112"/>
+      <c r="A21" s="111"/>
       <c r="B21" s="9" t="s">
         <v>48</v>
       </c>
@@ -3301,7 +3301,7 @@
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A22" s="112"/>
+      <c r="A22" s="111"/>
       <c r="B22" s="9" t="s">
         <v>50</v>
       </c>
@@ -3321,7 +3321,7 @@
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A23" s="112"/>
+      <c r="A23" s="111"/>
       <c r="B23" s="9" t="s">
         <v>52</v>
       </c>
@@ -3341,7 +3341,7 @@
       <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A24" s="112"/>
+      <c r="A24" s="111"/>
       <c r="B24" s="9" t="s">
         <v>54</v>
       </c>
@@ -3361,7 +3361,7 @@
       <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A25" s="112"/>
+      <c r="A25" s="111"/>
       <c r="B25" s="9" t="s">
         <v>57</v>
       </c>
@@ -3381,7 +3381,7 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="72" x14ac:dyDescent="0.2">
-      <c r="A26" s="112"/>
+      <c r="A26" s="111"/>
       <c r="B26" s="9" t="s">
         <v>61</v>
       </c>
@@ -3401,7 +3401,7 @@
       <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A27" s="112"/>
+      <c r="A27" s="111"/>
       <c r="B27" s="9" t="s">
         <v>65</v>
       </c>
@@ -3421,7 +3421,7 @@
       <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A28" s="112"/>
+      <c r="A28" s="111"/>
       <c r="B28" s="9" t="s">
         <v>67</v>
       </c>
@@ -3441,7 +3441,7 @@
       <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="112"/>
+      <c r="A29" s="111"/>
       <c r="B29" s="9" t="s">
         <v>69</v>
       </c>
@@ -3461,7 +3461,7 @@
       <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A30" s="112"/>
+      <c r="A30" s="111"/>
       <c r="B30" s="9" t="s">
         <v>71</v>
       </c>
@@ -3481,7 +3481,7 @@
       <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="112"/>
+      <c r="A31" s="111"/>
       <c r="B31" s="9" t="s">
         <v>73</v>
       </c>
@@ -3513,7 +3513,7 @@
       <c r="H32" s="26"/>
     </row>
     <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="113"/>
+      <c r="A33" s="116"/>
       <c r="B33" s="27" t="s">
         <v>77</v>
       </c>
@@ -3533,7 +3533,7 @@
       <c r="H33" s="22"/>
     </row>
     <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="113"/>
+      <c r="A34" s="116"/>
       <c r="B34" s="27" t="s">
         <v>80</v>
       </c>
@@ -3553,7 +3553,7 @@
       <c r="H34" s="22"/>
     </row>
     <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="113"/>
+      <c r="A35" s="116"/>
       <c r="B35" s="27" t="s">
         <v>83</v>
       </c>
@@ -3573,7 +3573,7 @@
       <c r="H35" s="22"/>
     </row>
     <row r="36" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="113"/>
+      <c r="A36" s="116"/>
       <c r="B36" s="27" t="s">
         <v>86</v>
       </c>
@@ -3605,7 +3605,7 @@
       <c r="H37" s="17"/>
     </row>
     <row r="38" spans="1:8" ht="72" x14ac:dyDescent="0.2">
-      <c r="A38" s="112"/>
+      <c r="A38" s="111"/>
       <c r="B38" s="9" t="s">
         <v>90</v>
       </c>
@@ -3625,8 +3625,8 @@
       <c r="H38" s="12"/>
     </row>
     <row r="39" spans="1:8" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="112"/>
-      <c r="B39" s="114" t="s">
+      <c r="A39" s="111"/>
+      <c r="B39" s="112" t="s">
         <v>94</v>
       </c>
       <c r="C39" s="9" t="s">
@@ -3647,8 +3647,8 @@
       <c r="H39" s="12"/>
     </row>
     <row r="40" spans="1:8" ht="90" x14ac:dyDescent="0.2">
-      <c r="A40" s="112"/>
-      <c r="B40" s="114"/>
+      <c r="A40" s="111"/>
+      <c r="B40" s="112"/>
       <c r="C40" s="9" t="s">
         <v>98</v>
       </c>
@@ -3667,8 +3667,8 @@
       <c r="H40" s="12"/>
     </row>
     <row r="41" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A41" s="112"/>
-      <c r="B41" s="114"/>
+      <c r="A41" s="111"/>
+      <c r="B41" s="112"/>
       <c r="C41" s="9" t="s">
         <v>102</v>
       </c>
@@ -3687,8 +3687,8 @@
       <c r="H41" s="12"/>
     </row>
     <row r="42" spans="1:8" ht="144" x14ac:dyDescent="0.2">
-      <c r="A42" s="112"/>
-      <c r="B42" s="114"/>
+      <c r="A42" s="111"/>
+      <c r="B42" s="112"/>
       <c r="C42" s="9" t="s">
         <v>106</v>
       </c>
@@ -3707,8 +3707,8 @@
       <c r="H42" s="12"/>
     </row>
     <row r="43" spans="1:8" ht="72" x14ac:dyDescent="0.2">
-      <c r="A43" s="112"/>
-      <c r="B43" s="114"/>
+      <c r="A43" s="111"/>
+      <c r="B43" s="112"/>
       <c r="C43" s="9" t="s">
         <v>110</v>
       </c>
@@ -3727,8 +3727,8 @@
       <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="112"/>
-      <c r="B44" s="114"/>
+      <c r="A44" s="111"/>
+      <c r="B44" s="112"/>
       <c r="C44" s="9" t="s">
         <v>114</v>
       </c>
@@ -3747,8 +3747,8 @@
       <c r="H44" s="12"/>
     </row>
     <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="112"/>
-      <c r="B45" s="114"/>
+      <c r="A45" s="111"/>
+      <c r="B45" s="112"/>
       <c r="C45" s="9" t="s">
         <v>118</v>
       </c>
@@ -3767,8 +3767,8 @@
       <c r="H45" s="12"/>
     </row>
     <row r="46" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A46" s="112"/>
-      <c r="B46" s="114"/>
+      <c r="A46" s="111"/>
+      <c r="B46" s="112"/>
       <c r="C46" s="9" t="s">
         <v>122</v>
       </c>
@@ -3787,8 +3787,8 @@
       <c r="H46" s="12"/>
     </row>
     <row r="47" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A47" s="112"/>
-      <c r="B47" s="114"/>
+      <c r="A47" s="111"/>
+      <c r="B47" s="112"/>
       <c r="C47" s="9" t="s">
         <v>126</v>
       </c>
@@ -3807,8 +3807,8 @@
       <c r="H47" s="12"/>
     </row>
     <row r="48" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A48" s="112"/>
-      <c r="B48" s="114"/>
+      <c r="A48" s="111"/>
+      <c r="B48" s="112"/>
       <c r="C48" s="9" t="s">
         <v>130</v>
       </c>
@@ -3827,8 +3827,8 @@
       <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="112"/>
-      <c r="B49" s="114"/>
+      <c r="A49" s="111"/>
+      <c r="B49" s="112"/>
       <c r="C49" s="9" t="s">
         <v>134</v>
       </c>
@@ -3847,8 +3847,8 @@
       <c r="H49" s="12"/>
     </row>
     <row r="50" spans="1:8" ht="90" x14ac:dyDescent="0.2">
-      <c r="A50" s="112"/>
-      <c r="B50" s="114"/>
+      <c r="A50" s="111"/>
+      <c r="B50" s="112"/>
       <c r="C50" s="9" t="s">
         <v>138</v>
       </c>
@@ -3879,7 +3879,7 @@
       <c r="H51" s="26"/>
     </row>
     <row r="52" spans="1:8" ht="72" x14ac:dyDescent="0.2">
-      <c r="A52" s="115"/>
+      <c r="A52" s="113"/>
       <c r="B52" s="32" t="s">
         <v>143</v>
       </c>
@@ -3899,8 +3899,8 @@
       <c r="H52" s="26"/>
     </row>
     <row r="53" spans="1:8" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="115"/>
-      <c r="B53" s="116" t="s">
+      <c r="A53" s="113"/>
+      <c r="B53" s="114" t="s">
         <v>94</v>
       </c>
       <c r="C53" s="35" t="s">
@@ -3921,8 +3921,8 @@
       <c r="H53" s="26"/>
     </row>
     <row r="54" spans="1:8" ht="90" x14ac:dyDescent="0.2">
-      <c r="A54" s="115"/>
-      <c r="B54" s="116"/>
+      <c r="A54" s="113"/>
+      <c r="B54" s="114"/>
       <c r="C54" s="32" t="s">
         <v>98</v>
       </c>
@@ -3941,8 +3941,8 @@
       <c r="H54" s="26"/>
     </row>
     <row r="55" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A55" s="115"/>
-      <c r="B55" s="116"/>
+      <c r="A55" s="113"/>
+      <c r="B55" s="114"/>
       <c r="C55" s="32" t="s">
         <v>102</v>
       </c>
@@ -3961,8 +3961,8 @@
       <c r="H55" s="26"/>
     </row>
     <row r="56" spans="1:8" ht="144" x14ac:dyDescent="0.2">
-      <c r="A56" s="115"/>
-      <c r="B56" s="116"/>
+      <c r="A56" s="113"/>
+      <c r="B56" s="114"/>
       <c r="C56" s="32" t="s">
         <v>106</v>
       </c>
@@ -3981,8 +3981,8 @@
       <c r="H56" s="26"/>
     </row>
     <row r="57" spans="1:8" ht="72" x14ac:dyDescent="0.2">
-      <c r="A57" s="115"/>
-      <c r="B57" s="116"/>
+      <c r="A57" s="113"/>
+      <c r="B57" s="114"/>
       <c r="C57" s="32" t="s">
         <v>110</v>
       </c>
@@ -4001,8 +4001,8 @@
       <c r="H57" s="26"/>
     </row>
     <row r="58" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A58" s="115"/>
-      <c r="B58" s="116"/>
+      <c r="A58" s="113"/>
+      <c r="B58" s="114"/>
       <c r="C58" s="32" t="s">
         <v>114</v>
       </c>
@@ -4021,8 +4021,8 @@
       <c r="H58" s="26"/>
     </row>
     <row r="59" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A59" s="115"/>
-      <c r="B59" s="116"/>
+      <c r="A59" s="113"/>
+      <c r="B59" s="114"/>
       <c r="C59" s="32" t="s">
         <v>118</v>
       </c>
@@ -4041,8 +4041,8 @@
       <c r="H59" s="26"/>
     </row>
     <row r="60" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A60" s="115"/>
-      <c r="B60" s="116"/>
+      <c r="A60" s="113"/>
+      <c r="B60" s="114"/>
       <c r="C60" s="32" t="s">
         <v>122</v>
       </c>
@@ -4061,8 +4061,8 @@
       <c r="H60" s="26"/>
     </row>
     <row r="61" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A61" s="115"/>
-      <c r="B61" s="116"/>
+      <c r="A61" s="113"/>
+      <c r="B61" s="114"/>
       <c r="C61" s="32" t="s">
         <v>126</v>
       </c>
@@ -4081,8 +4081,8 @@
       <c r="H61" s="26"/>
     </row>
     <row r="62" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A62" s="115"/>
-      <c r="B62" s="116"/>
+      <c r="A62" s="113"/>
+      <c r="B62" s="114"/>
       <c r="C62" s="32" t="s">
         <v>130</v>
       </c>
@@ -4101,8 +4101,8 @@
       <c r="H62" s="26"/>
     </row>
     <row r="63" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A63" s="115"/>
-      <c r="B63" s="116"/>
+      <c r="A63" s="113"/>
+      <c r="B63" s="114"/>
       <c r="C63" s="32" t="s">
         <v>134</v>
       </c>
@@ -4121,8 +4121,8 @@
       <c r="H63" s="26"/>
     </row>
     <row r="64" spans="1:8" ht="90" x14ac:dyDescent="0.2">
-      <c r="A64" s="115"/>
-      <c r="B64" s="116"/>
+      <c r="A64" s="113"/>
+      <c r="B64" s="114"/>
       <c r="C64" s="32" t="s">
         <v>138</v>
       </c>
@@ -4153,7 +4153,7 @@
       <c r="H65" s="17"/>
     </row>
     <row r="66" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A66" s="117"/>
+      <c r="A66" s="115"/>
       <c r="B66" s="36" t="s">
         <v>151</v>
       </c>
@@ -4173,7 +4173,7 @@
       <c r="H66" s="17"/>
     </row>
     <row r="67" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A67" s="117"/>
+      <c r="A67" s="115"/>
       <c r="B67" s="36" t="s">
         <v>155</v>
       </c>
@@ -4205,7 +4205,7 @@
       <c r="H68" s="26"/>
     </row>
     <row r="69" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A69" s="113"/>
+      <c r="A69" s="116"/>
       <c r="B69" s="27" t="s">
         <v>160</v>
       </c>
@@ -4223,8 +4223,8 @@
       <c r="H69" s="22"/>
     </row>
     <row r="70" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="113"/>
-      <c r="B70" s="118" t="s">
+      <c r="A70" s="116"/>
+      <c r="B70" s="117" t="s">
         <v>163</v>
       </c>
       <c r="C70" s="27" t="s">
@@ -4245,8 +4245,8 @@
       <c r="H70" s="22"/>
     </row>
     <row r="71" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A71" s="113"/>
-      <c r="B71" s="118"/>
+      <c r="A71" s="116"/>
+      <c r="B71" s="117"/>
       <c r="C71" s="27" t="s">
         <v>34</v>
       </c>
@@ -4265,8 +4265,8 @@
       <c r="H71" s="22"/>
     </row>
     <row r="72" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A72" s="113"/>
-      <c r="B72" s="118"/>
+      <c r="A72" s="116"/>
+      <c r="B72" s="117"/>
       <c r="C72" s="27" t="s">
         <v>13</v>
       </c>
@@ -4285,8 +4285,8 @@
       <c r="H72" s="22"/>
     </row>
     <row r="73" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A73" s="113"/>
-      <c r="B73" s="118"/>
+      <c r="A73" s="116"/>
+      <c r="B73" s="117"/>
       <c r="C73" s="27" t="s">
         <v>172</v>
       </c>
@@ -4305,8 +4305,8 @@
       <c r="H73" s="22"/>
     </row>
     <row r="74" spans="1:8" ht="90" x14ac:dyDescent="0.2">
-      <c r="A74" s="113"/>
-      <c r="B74" s="118"/>
+      <c r="A74" s="116"/>
+      <c r="B74" s="117"/>
       <c r="C74" s="27" t="s">
         <v>27</v>
       </c>
@@ -4337,7 +4337,7 @@
       <c r="H75" s="17"/>
     </row>
     <row r="76" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A76" s="112"/>
+      <c r="A76" s="111"/>
       <c r="B76" s="9" t="s">
         <v>178</v>
       </c>
@@ -4355,8 +4355,8 @@
       <c r="H76" s="12"/>
     </row>
     <row r="77" spans="1:8" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="112"/>
-      <c r="B77" s="114" t="s">
+      <c r="A77" s="111"/>
+      <c r="B77" s="112" t="s">
         <v>181</v>
       </c>
       <c r="C77" s="9" t="s">
@@ -4377,8 +4377,8 @@
       <c r="H77" s="12"/>
     </row>
     <row r="78" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A78" s="112"/>
-      <c r="B78" s="114"/>
+      <c r="A78" s="111"/>
+      <c r="B78" s="112"/>
       <c r="C78" s="9" t="s">
         <v>184</v>
       </c>
@@ -4397,8 +4397,8 @@
       <c r="H78" s="12"/>
     </row>
     <row r="79" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A79" s="112"/>
-      <c r="B79" s="114"/>
+      <c r="A79" s="111"/>
+      <c r="B79" s="112"/>
       <c r="C79" s="9" t="s">
         <v>187</v>
       </c>
@@ -4417,8 +4417,8 @@
       <c r="H79" s="12"/>
     </row>
     <row r="80" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A80" s="112"/>
-      <c r="B80" s="114"/>
+      <c r="A80" s="111"/>
+      <c r="B80" s="112"/>
       <c r="C80" s="9" t="s">
         <v>190</v>
       </c>
@@ -4437,8 +4437,8 @@
       <c r="H80" s="12"/>
     </row>
     <row r="81" spans="1:8" ht="108" x14ac:dyDescent="0.2">
-      <c r="A81" s="112"/>
-      <c r="B81" s="114"/>
+      <c r="A81" s="111"/>
+      <c r="B81" s="112"/>
       <c r="C81" s="9" t="s">
         <v>27</v>
       </c>
@@ -4530,6 +4530,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A20:A31"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A38:A50"/>
+    <mergeCell ref="B39:B50"/>
     <mergeCell ref="A76:A81"/>
     <mergeCell ref="B77:B81"/>
     <mergeCell ref="A52:A64"/>
@@ -4537,11 +4542,6 @@
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="A69:A74"/>
     <mergeCell ref="B70:B74"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A20:A31"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A38:A50"/>
-    <mergeCell ref="B39:B50"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4557,7 +4557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -4819,14 +4819,14 @@
     <row r="14" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="122"/>
       <c r="B14" s="19" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>213</v>
@@ -4839,14 +4839,14 @@
     <row r="15" spans="1:8" ht="54" x14ac:dyDescent="0.2">
       <c r="A15" s="61"/>
       <c r="B15" s="19" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>212</v>
@@ -4872,8 +4872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ37"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4890,16 +4890,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="111" t="s">
-        <v>214</v>
-      </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="A1" s="118" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
     </row>
     <row r="2" spans="1:1024" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="63" t="s">
@@ -4915,7 +4915,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F2" s="65" t="s">
         <v>196</v>
@@ -4929,7 +4929,7 @@
     </row>
     <row r="3" spans="1:1024" s="67" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H3" s="68"/>
       <c r="I3" s="69"/>
@@ -4974,15 +4974,15 @@
     <row r="4" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="124"/>
       <c r="B4" s="71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="71" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="71" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="71"/>
@@ -4990,15 +4990,15 @@
     <row r="5" spans="1:1024" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="124"/>
       <c r="B5" s="71" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="71" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="71"/>
@@ -5006,15 +5006,15 @@
     <row r="6" spans="1:1024" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="124"/>
       <c r="B6" s="71" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="71" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="71"/>
@@ -5022,15 +5022,15 @@
     <row r="7" spans="1:1024" ht="40" x14ac:dyDescent="0.2">
       <c r="A7" s="124"/>
       <c r="B7" s="71" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="72" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="71"/>
@@ -5038,15 +5038,15 @@
     <row r="8" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="124"/>
       <c r="B8" s="71" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="71" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="71"/>
@@ -5054,15 +5054,15 @@
     <row r="9" spans="1:1024" ht="90.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="124"/>
       <c r="B9" s="71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="71"/>
@@ -5070,15 +5070,15 @@
     <row r="10" spans="1:1024" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="124"/>
       <c r="B10" s="71" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="71" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="71" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="71"/>
@@ -5103,11 +5103,11 @@
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="71" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="71" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="71"/>
@@ -5115,15 +5115,15 @@
     <row r="12" spans="1:1024" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="124"/>
       <c r="B12" s="71" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="71" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="71"/>
@@ -5131,33 +5131,33 @@
     <row r="13" spans="1:1024" ht="108" x14ac:dyDescent="0.2">
       <c r="A13" s="124"/>
       <c r="B13" s="71" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="71" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>243</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>244</v>
       </c>
       <c r="H13" s="71"/>
     </row>
     <row r="14" spans="1:1024" ht="54" x14ac:dyDescent="0.2">
       <c r="A14" s="124"/>
       <c r="B14" s="71" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C14" s="110"/>
       <c r="D14" s="71" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E14" s="110"/>
       <c r="F14" s="71" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G14" s="110" t="s">
         <v>47</v>
@@ -5167,22 +5167,22 @@
     <row r="15" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="124"/>
       <c r="B15" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="71" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="71"/>
     </row>
     <row r="16" spans="1:1024" s="69" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A16" s="69" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H16" s="75"/>
       <c r="AMJ16" s="62"/>
@@ -5190,15 +5190,15 @@
     <row r="17" spans="1:1024" ht="127" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="125"/>
       <c r="B17" s="77" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="77" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="77" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="77"/>
@@ -5206,13 +5206,13 @@
     <row r="18" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="125"/>
       <c r="B18" s="77" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="77"/>
       <c r="E18" s="27"/>
       <c r="F18" s="77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="77"/>
@@ -5220,22 +5220,22 @@
     <row r="19" spans="1:1024" ht="41.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="125"/>
       <c r="B19" s="77" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="77" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E19" s="27"/>
       <c r="F19" s="77" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="77"/>
     </row>
     <row r="20" spans="1:1024" s="67" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="67" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H20" s="68"/>
       <c r="I20" s="69"/>
@@ -5280,15 +5280,15 @@
     <row r="21" spans="1:1024" s="74" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="70"/>
       <c r="B21" s="71" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="71" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="71" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="71"/>
@@ -5326,11 +5326,11 @@
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="77" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E23" s="27"/>
       <c r="F23" s="77" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="77"/>
@@ -5342,11 +5342,11 @@
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="77" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E24" s="27"/>
       <c r="F24" s="77" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="77"/>
@@ -5358,18 +5358,18 @@
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="77" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E25" s="27"/>
       <c r="F25" s="77" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="77"/>
     </row>
     <row r="26" spans="1:1024" s="67" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="67" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H26" s="68"/>
       <c r="I26" s="69"/>
@@ -5395,15 +5395,15 @@
     <row r="27" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="126"/>
       <c r="B27" s="71" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="71" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="71" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>47</v>
@@ -5413,15 +5413,15 @@
     <row r="28" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="126"/>
       <c r="B28" s="71" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="71" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="71" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>47</v>
@@ -5435,11 +5435,11 @@
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="71" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="71" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>47</v>
@@ -5453,11 +5453,11 @@
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="71" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="71" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>47</v>
@@ -5471,11 +5471,11 @@
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="71" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="71" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>47</v>
@@ -5509,11 +5509,11 @@
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="71" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="71" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>47</v>
@@ -5527,11 +5527,11 @@
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="71" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="71" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>47</v>
@@ -5545,11 +5545,11 @@
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="71" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>47</v>
@@ -5563,11 +5563,11 @@
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="71" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="71" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G35" s="9" t="s">
         <v>47</v>
@@ -5576,7 +5576,7 @@
     </row>
     <row r="36" spans="1:1024" s="69" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="123" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B36" s="123"/>
       <c r="C36" s="123"/>
@@ -5594,11 +5594,11 @@
       </c>
       <c r="C37" s="27"/>
       <c r="D37" s="77" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E37" s="27"/>
       <c r="F37" s="77" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="77"/>
@@ -5643,7 +5643,7 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B1" s="127"/>
       <c r="C1" s="127"/>
@@ -5667,7 +5667,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F2" s="65" t="s">
         <v>196</v>
@@ -5681,7 +5681,7 @@
     </row>
     <row r="3" spans="1:1024" s="67" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="124" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H3" s="68"/>
       <c r="I3" s="69"/>
@@ -5701,106 +5701,106 @@
     <row r="4" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="124"/>
       <c r="B4" s="71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="71" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="F4" s="71" t="s">
         <v>330</v>
       </c>
-      <c r="F4" s="71" t="s">
-        <v>331</v>
-      </c>
       <c r="G4" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H4" s="93"/>
     </row>
     <row r="5" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
       <c r="A5" s="124"/>
       <c r="B5" s="71" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="71" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F5" s="71" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H5" s="93"/>
     </row>
     <row r="6" spans="1:1024" ht="54" x14ac:dyDescent="0.2">
       <c r="A6" s="124"/>
       <c r="B6" s="71" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="71" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F6" s="71" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H6" s="93"/>
     </row>
     <row r="7" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
       <c r="A7" s="124"/>
       <c r="B7" s="71" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="71" t="s">
+        <v>336</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="71" t="s">
         <v>338</v>
       </c>
-      <c r="F7" s="71" t="s">
-        <v>339</v>
-      </c>
       <c r="G7" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H7" s="93"/>
     </row>
     <row r="8" spans="1:1024" ht="72" x14ac:dyDescent="0.2">
       <c r="A8" s="124"/>
       <c r="B8" s="71" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="71" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="F8" s="71" t="s">
         <v>341</v>
       </c>
-      <c r="F8" s="71" t="s">
+      <c r="G8" s="9" t="s">
         <v>342</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>343</v>
       </c>
       <c r="H8" s="93"/>
     </row>
     <row r="9" spans="1:1024" s="69" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="123" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B9" s="123"/>
       <c r="C9" s="123"/>
@@ -5814,17 +5814,17 @@
     <row r="10" spans="1:1024" ht="54" x14ac:dyDescent="0.2">
       <c r="A10" s="125"/>
       <c r="B10" s="77" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="77" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E10" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="F10" s="77" t="s">
         <v>346</v>
-      </c>
-      <c r="F10" s="77" t="s">
-        <v>347</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>13</v>
@@ -5834,57 +5834,57 @@
     <row r="11" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
       <c r="A11" s="125"/>
       <c r="B11" s="77" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="77" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E11" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="F11" s="77" t="s">
         <v>349</v>
       </c>
-      <c r="F11" s="77" t="s">
-        <v>350</v>
-      </c>
       <c r="G11" s="27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H11" s="94"/>
     </row>
     <row r="12" spans="1:1024" ht="72" x14ac:dyDescent="0.2">
       <c r="A12" s="125"/>
       <c r="B12" s="77" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="77" t="s">
+        <v>351</v>
+      </c>
+      <c r="E12" s="27" t="s">
         <v>352</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="F12" s="77" t="s">
         <v>353</v>
       </c>
-      <c r="F12" s="77" t="s">
-        <v>354</v>
-      </c>
       <c r="G12" s="27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H12" s="94"/>
     </row>
     <row r="13" spans="1:1024" ht="90" x14ac:dyDescent="0.2">
       <c r="A13" s="125"/>
       <c r="B13" s="77" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="77" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E13" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="F13" s="77" t="s">
         <v>356</v>
-      </c>
-      <c r="F13" s="77" t="s">
-        <v>357</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>13</v>
@@ -5894,44 +5894,44 @@
     <row r="14" spans="1:1024" ht="90" x14ac:dyDescent="0.2">
       <c r="A14" s="125"/>
       <c r="B14" s="77" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="77" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E14" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="F14" s="77" t="s">
         <v>359</v>
       </c>
-      <c r="F14" s="77" t="s">
-        <v>360</v>
-      </c>
       <c r="G14" s="27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H14" s="94"/>
     </row>
     <row r="15" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
       <c r="A15" s="125"/>
       <c r="B15" s="77" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="77" t="s">
+        <v>361</v>
+      </c>
+      <c r="E15" s="27" t="s">
         <v>362</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="F15" s="77" t="s">
         <v>363</v>
-      </c>
-      <c r="F15" s="77" t="s">
-        <v>364</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="94"/>
     </row>
     <row r="16" spans="1:1024" s="67" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="67" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H16" s="95"/>
       <c r="I16" s="69"/>
@@ -5947,26 +5947,26 @@
     <row r="17" spans="1:1024" ht="54" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="71" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="71" t="s">
+        <v>366</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="F17" s="71" t="s">
         <v>368</v>
       </c>
-      <c r="F17" s="71" t="s">
-        <v>369</v>
-      </c>
       <c r="G17" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H17" s="93"/>
     </row>
     <row r="18" spans="1:1024" ht="18.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="123" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B18" s="123"/>
       <c r="C18" s="123"/>
@@ -5983,13 +5983,13 @@
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="77" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E19" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="F19" s="77" t="s">
         <v>371</v>
-      </c>
-      <c r="F19" s="77" t="s">
-        <v>372</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>13</v>
@@ -6003,13 +6003,13 @@
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="77" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E20" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="F20" s="77" t="s">
         <v>373</v>
-      </c>
-      <c r="F20" s="77" t="s">
-        <v>374</v>
       </c>
       <c r="G20" s="19" t="s">
         <v>13</v>
@@ -6023,22 +6023,22 @@
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="77" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E21" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="F21" s="77" t="s">
         <v>375</v>
       </c>
-      <c r="F21" s="77" t="s">
+      <c r="G21" s="27" t="s">
         <v>376</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>377</v>
       </c>
       <c r="H21" s="94"/>
     </row>
     <row r="22" spans="1:1024" s="67" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="67" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H22" s="95"/>
       <c r="I22" s="69"/>
@@ -6057,36 +6057,36 @@
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="71" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E23" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="F23" s="71" t="s">
         <v>379</v>
       </c>
-      <c r="F23" s="71" t="s">
+      <c r="G23" s="9" t="s">
         <v>380</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>381</v>
       </c>
       <c r="H23" s="93"/>
     </row>
     <row r="24" spans="1:1024" ht="146.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="126"/>
       <c r="B24" s="71" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="71" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E24" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="F24" s="71" t="s">
         <v>383</v>
       </c>
-      <c r="F24" s="71" t="s">
+      <c r="G24" s="9" t="s">
         <v>384</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>385</v>
       </c>
       <c r="H24" s="93"/>
     </row>
@@ -6097,22 +6097,22 @@
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="71" t="s">
+        <v>385</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="F25" s="71" t="s">
         <v>387</v>
       </c>
-      <c r="F25" s="71" t="s">
+      <c r="G25" s="9" t="s">
         <v>388</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>389</v>
       </c>
       <c r="H25" s="93"/>
     </row>
     <row r="26" spans="1:1024" s="69" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="69" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H26" s="96"/>
       <c r="AMJ26" s="62"/>
@@ -6120,24 +6120,24 @@
     <row r="27" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="76"/>
       <c r="B27" s="77" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="77" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E27" s="27"/>
       <c r="F27" s="77" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H27" s="94"/>
     </row>
     <row r="28" spans="1:1024" s="67" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="67" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H28" s="95"/>
       <c r="I28" s="69"/>
@@ -6156,16 +6156,16 @@
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="71" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E29" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="F29" s="71" t="s">
         <v>395</v>
       </c>
-      <c r="F29" s="71" t="s">
-        <v>396</v>
-      </c>
       <c r="G29" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H29" s="93"/>
     </row>
@@ -6176,16 +6176,16 @@
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="71" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E30" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="F30" s="71" t="s">
         <v>397</v>
       </c>
-      <c r="F30" s="71" t="s">
-        <v>398</v>
-      </c>
       <c r="G30" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H30" s="93"/>
     </row>
@@ -6196,16 +6196,16 @@
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="71" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E31" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="F31" s="71" t="s">
         <v>399</v>
       </c>
-      <c r="F31" s="71" t="s">
-        <v>400</v>
-      </c>
       <c r="G31" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H31" s="93"/>
     </row>
@@ -6216,16 +6216,16 @@
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="71" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E32" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="F32" s="71" t="s">
         <v>401</v>
       </c>
-      <c r="F32" s="71" t="s">
-        <v>402</v>
-      </c>
       <c r="G32" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H32" s="93"/>
     </row>
@@ -6236,22 +6236,22 @@
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="71" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E33" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="F33" s="71" t="s">
         <v>403</v>
       </c>
-      <c r="F33" s="71" t="s">
-        <v>404</v>
-      </c>
       <c r="G33" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H33" s="93"/>
     </row>
     <row r="34" spans="1:1024" s="69" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="123" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B34" s="123"/>
       <c r="C34" s="123"/>
@@ -6269,34 +6269,34 @@
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="77" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E35" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="F35" s="77" t="s">
         <v>406</v>
       </c>
-      <c r="F35" s="77" t="s">
-        <v>407</v>
-      </c>
       <c r="G35" s="27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H35" s="94"/>
     </row>
     <row r="36" spans="1:1024" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="125"/>
       <c r="B36" s="77" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="77" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E36" s="27"/>
       <c r="F36" s="77" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H36" s="94"/>
     </row>
@@ -6345,7 +6345,7 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B1" s="127"/>
       <c r="C1" s="127"/>
@@ -6369,7 +6369,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F2" s="64" t="s">
         <v>196</v>
@@ -6402,47 +6402,47 @@
     <row r="4" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="128"/>
       <c r="B4" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E4" s="90" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G4" s="84" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="128"/>
       <c r="B5" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="E5" s="90" t="s">
         <v>284</v>
       </c>
-      <c r="E5" s="90" t="s">
+      <c r="F5" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>286</v>
-      </c>
       <c r="G5" s="84" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="128"/>
       <c r="B6" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="11" t="s">
@@ -6452,7 +6452,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G6" s="84"/>
       <c r="H6" s="9"/>
@@ -6460,77 +6460,77 @@
     <row r="7" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="128"/>
       <c r="B7" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E7" s="90" t="s">
+        <v>289</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>291</v>
-      </c>
       <c r="G7" s="84" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
       <c r="A8" s="128"/>
       <c r="B8" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E8" s="90" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G8" s="84" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="128"/>
       <c r="B9" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E9" s="90" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G9" s="84" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="128"/>
       <c r="B10" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E10" s="90" t="s">
+        <v>415</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>416</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>417</v>
       </c>
       <c r="G10" s="84"/>
       <c r="H10" s="9"/>
@@ -6538,17 +6538,17 @@
     <row r="11" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="128"/>
       <c r="B11" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E11" s="90" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -6556,17 +6556,17 @@
     <row r="12" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="128"/>
       <c r="B12" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E12" s="90" t="s">
+        <v>419</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>420</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>421</v>
       </c>
       <c r="G12" s="84"/>
       <c r="H12" s="9"/>
@@ -6574,17 +6574,17 @@
     <row r="13" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="128"/>
       <c r="B13" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E13" s="90" t="s">
+        <v>309</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>310</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>311</v>
       </c>
       <c r="G13" s="84"/>
       <c r="H13" s="9"/>
@@ -6592,17 +6592,17 @@
     <row r="14" spans="1:1024" ht="72" x14ac:dyDescent="0.2">
       <c r="A14" s="128"/>
       <c r="B14" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E14" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>424</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>425</v>
       </c>
       <c r="G14" s="84"/>
       <c r="H14" s="9"/>
@@ -6610,17 +6610,17 @@
     <row r="15" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="128"/>
       <c r="B15" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E15" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>427</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>428</v>
       </c>
       <c r="G15" s="84"/>
       <c r="H15" s="9"/>
@@ -6628,17 +6628,17 @@
     <row r="16" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="128"/>
       <c r="B16" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="F16" s="11" t="s">
         <v>431</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>432</v>
       </c>
       <c r="G16" s="84"/>
       <c r="H16" s="9"/>
@@ -6646,7 +6646,7 @@
     <row r="17" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A17" s="128"/>
       <c r="B17" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9" t="s">
@@ -6656,7 +6656,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G17" s="84"/>
       <c r="H17" s="84"/>
@@ -6664,17 +6664,17 @@
     <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="128"/>
       <c r="B18" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G18" s="84"/>
       <c r="H18" s="84"/>
@@ -6717,16 +6717,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="111" t="s">
-        <v>278</v>
-      </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="A1" s="118" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
     </row>
     <row r="2" spans="1:17" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -6742,7 +6742,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="79" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F2" s="80" t="s">
         <v>196</v>
@@ -6767,20 +6767,20 @@
     <row r="4" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="129"/>
       <c r="B4" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="71" t="s">
+        <v>278</v>
+      </c>
+      <c r="E4" s="83" t="s">
         <v>279</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="F4" s="71" t="s">
         <v>280</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="G4" s="84" t="s">
         <v>281</v>
-      </c>
-      <c r="G4" s="84" t="s">
-        <v>282</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="24"/>
@@ -6796,20 +6796,20 @@
     <row r="5" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="129"/>
       <c r="B5" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="71" t="s">
+        <v>283</v>
+      </c>
+      <c r="E5" s="83" t="s">
         <v>284</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="F5" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>286</v>
-      </c>
       <c r="G5" s="84" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="24"/>
@@ -6825,17 +6825,17 @@
     <row r="6" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="129"/>
       <c r="B6" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="71" t="s">
         <v>168</v>
       </c>
       <c r="E6" s="83" t="s">
+        <v>286</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>287</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>288</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="11"/>
@@ -6852,20 +6852,20 @@
     <row r="7" spans="1:17" ht="36" x14ac:dyDescent="0.2">
       <c r="A7" s="129"/>
       <c r="B7" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="71" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E7" s="83" t="s">
+        <v>289</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>291</v>
-      </c>
       <c r="G7" s="84" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="24"/>
@@ -6881,20 +6881,20 @@
     <row r="8" spans="1:17" ht="36" x14ac:dyDescent="0.2">
       <c r="A8" s="129"/>
       <c r="B8" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="71" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E8" s="83" t="s">
+        <v>292</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>294</v>
-      </c>
       <c r="G8" s="84" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="24"/>
@@ -6910,20 +6910,20 @@
     <row r="9" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="129"/>
       <c r="B9" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="E9" s="86" t="s">
         <v>296</v>
       </c>
-      <c r="E9" s="86" t="s">
+      <c r="F9" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>298</v>
-      </c>
       <c r="G9" s="84" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H9" s="87"/>
       <c r="I9" s="24"/>
@@ -6939,17 +6939,17 @@
     <row r="10" spans="1:17" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="129"/>
       <c r="B10" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="71" t="s">
+        <v>298</v>
+      </c>
+      <c r="E10" s="83" t="s">
         <v>299</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="F10" s="9" t="s">
         <v>300</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>301</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="11"/>
@@ -6966,17 +6966,17 @@
     <row r="11" spans="1:17" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="129"/>
       <c r="B11" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="71" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E11" s="83" t="s">
+        <v>302</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>303</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>304</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="11"/>
@@ -6993,17 +6993,17 @@
     <row r="12" spans="1:17" s="89" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A12" s="129"/>
       <c r="B12" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="71" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E12" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>306</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>307</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="11"/>
@@ -7020,17 +7020,17 @@
     <row r="13" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="129"/>
       <c r="B13" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="E13" s="83" t="s">
         <v>309</v>
       </c>
-      <c r="E13" s="83" t="s">
+      <c r="F13" s="9" t="s">
         <v>310</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>311</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="11"/>
@@ -7047,17 +7047,17 @@
     <row r="14" spans="1:17" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="129"/>
       <c r="B14" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="71" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E14" s="83" t="s">
+        <v>312</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>313</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>314</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="11"/>
@@ -7074,17 +7074,17 @@
     <row r="15" spans="1:17" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="129"/>
       <c r="B15" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="71" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E15" s="83" t="s">
+        <v>315</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>316</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>317</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="11"/>
@@ -7101,17 +7101,17 @@
     <row r="16" spans="1:17" ht="72" x14ac:dyDescent="0.2">
       <c r="A16" s="129"/>
       <c r="B16" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="71" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E16" s="83" t="s">
+        <v>318</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>319</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>320</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="11"/>
@@ -7128,17 +7128,17 @@
     <row r="17" spans="1:17" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="129"/>
       <c r="B17" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="E17" s="90" t="s">
         <v>322</v>
       </c>
-      <c r="E17" s="90" t="s">
+      <c r="F17" s="9" t="s">
         <v>323</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>324</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -7155,17 +7155,17 @@
     <row r="18" spans="1:17" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="129"/>
       <c r="B18" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="90" t="s">
+        <v>325</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>326</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>327</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -7215,7 +7215,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="44.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1" s="127"/>
       <c r="C1" s="127"/>
@@ -7233,7 +7233,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>4</v>
@@ -7245,7 +7245,7 @@
         <v>196</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>8</v>
@@ -7276,14 +7276,14 @@
       </c>
       <c r="C4" s="71"/>
       <c r="D4" s="71" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E4" s="71"/>
       <c r="F4" s="71" t="s">
+        <v>437</v>
+      </c>
+      <c r="G4" s="71" t="s">
         <v>438</v>
-      </c>
-      <c r="G4" s="71" t="s">
-        <v>439</v>
       </c>
       <c r="H4" s="71"/>
     </row>
@@ -7298,10 +7298,10 @@
       </c>
       <c r="E5" s="71"/>
       <c r="F5" s="71" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G5" s="71" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H5" s="71"/>
     </row>
@@ -7316,10 +7316,10 @@
       </c>
       <c r="E6" s="71"/>
       <c r="F6" s="71" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G6" s="71" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H6" s="71"/>
     </row>
@@ -7334,16 +7334,16 @@
       </c>
       <c r="E7" s="71"/>
       <c r="F7" s="71" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G7" s="71" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H7" s="71"/>
     </row>
     <row r="8" spans="1:20" s="105" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="105" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H8" s="106"/>
     </row>
@@ -7354,30 +7354,30 @@
       </c>
       <c r="C9" s="77"/>
       <c r="D9" s="77" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E9" s="77"/>
       <c r="F9" s="77" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G9" s="107" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H9" s="77"/>
     </row>
     <row r="10" spans="1:20" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="131"/>
       <c r="B10" s="77" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C10" s="77"/>
       <c r="D10" s="77" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E10" s="77"/>
       <c r="F10" s="77"/>
       <c r="G10" s="77" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H10" s="77"/>
     </row>
@@ -7385,17 +7385,17 @@
       <c r="A11" s="131"/>
       <c r="B11" s="77"/>
       <c r="C11" s="77" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E11" s="77"/>
       <c r="F11" s="77" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G11" s="77" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H11" s="77"/>
     </row>
@@ -7403,17 +7403,17 @@
       <c r="A12" s="131"/>
       <c r="B12" s="77"/>
       <c r="C12" s="77" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D12" s="77" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E12" s="77"/>
       <c r="F12" s="77" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G12" s="77" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H12" s="77"/>
     </row>
@@ -7421,17 +7421,17 @@
       <c r="A13" s="131"/>
       <c r="B13" s="77"/>
       <c r="C13" s="77" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D13" s="77" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E13" s="77"/>
       <c r="F13" s="77" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G13" s="77" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H13" s="77"/>
     </row>
@@ -7439,17 +7439,17 @@
       <c r="A14" s="131"/>
       <c r="B14" s="77"/>
       <c r="C14" s="77" t="s">
+        <v>453</v>
+      </c>
+      <c r="D14" s="77" t="s">
         <v>454</v>
-      </c>
-      <c r="D14" s="77" t="s">
-        <v>455</v>
       </c>
       <c r="E14" s="77"/>
       <c r="F14" s="77" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G14" s="77" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H14" s="77"/>
     </row>
@@ -7457,33 +7457,33 @@
       <c r="A15" s="131"/>
       <c r="B15" s="77"/>
       <c r="C15" s="77" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D15" s="77" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E15" s="77"/>
       <c r="F15" s="77" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G15" s="77" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H15" s="77"/>
     </row>
     <row r="16" spans="1:20" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="131"/>
       <c r="B16" s="77" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C16" s="77"/>
       <c r="D16" s="77" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E16" s="77"/>
       <c r="F16" s="77"/>
       <c r="G16" s="77" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H16" s="77"/>
     </row>
@@ -7491,23 +7491,23 @@
       <c r="A17" s="131"/>
       <c r="B17" s="77"/>
       <c r="C17" s="77" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D17" s="77" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E17" s="77"/>
       <c r="F17" s="77" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G17" s="77" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H17" s="77"/>
     </row>
     <row r="18" spans="1:19" s="103" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="103" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H18" s="104"/>
       <c r="I18" s="105"/>
@@ -7525,16 +7525,16 @@
     <row r="19" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="132"/>
       <c r="B19" s="71" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C19" s="71"/>
       <c r="D19" s="71" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="71" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H19" s="71"/>
     </row>
@@ -7542,14 +7542,14 @@
       <c r="A20" s="132"/>
       <c r="B20" s="71"/>
       <c r="C20" s="71" t="s">
+        <v>464</v>
+      </c>
+      <c r="D20" s="71" t="s">
         <v>465</v>
-      </c>
-      <c r="D20" s="71" t="s">
-        <v>466</v>
       </c>
       <c r="E20" s="71"/>
       <c r="F20" s="71" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G20" s="71"/>
       <c r="H20" s="71"/>
@@ -7558,14 +7558,14 @@
       <c r="A21" s="132"/>
       <c r="B21" s="71"/>
       <c r="C21" s="71" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D21" s="71" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E21" s="71"/>
       <c r="F21" s="71" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G21" s="71"/>
       <c r="H21" s="71"/>
@@ -7574,14 +7574,14 @@
       <c r="A22" s="132"/>
       <c r="B22" s="71"/>
       <c r="C22" s="71" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D22" s="71" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E22" s="71"/>
       <c r="F22" s="71" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G22" s="71"/>
       <c r="H22" s="71"/>
@@ -7625,7 +7625,7 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B1" s="127"/>
       <c r="C1" s="127"/>
@@ -7649,7 +7649,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F2" s="65" t="s">
         <v>196</v>
@@ -7663,7 +7663,7 @@
     </row>
     <row r="3" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="108" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B3" s="78"/>
       <c r="C3" s="78"/>
@@ -7676,15 +7676,15 @@
     <row r="4" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="126"/>
       <c r="B4" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C4" s="71"/>
       <c r="D4" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="71" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="71"/>
@@ -7692,15 +7692,15 @@
     <row r="5" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="126"/>
       <c r="B5" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C5" s="71"/>
       <c r="D5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="71" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="71"/>
@@ -7708,7 +7708,7 @@
     <row r="6" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="126"/>
       <c r="B6" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C6" s="71"/>
       <c r="D6" s="9" t="s">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="71" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -7724,15 +7724,15 @@
     <row r="7" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="126"/>
       <c r="B7" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C7" s="71"/>
       <c r="D7" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="71" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="71"/>
@@ -7740,15 +7740,15 @@
     <row r="8" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="126"/>
       <c r="B8" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C8" s="71"/>
       <c r="D8" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="71" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="71"/>
@@ -7756,15 +7756,15 @@
     <row r="9" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="126"/>
       <c r="B9" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C9" s="71"/>
       <c r="D9" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="71" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="71"/>
@@ -7772,15 +7772,15 @@
     <row r="10" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="126"/>
       <c r="B10" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C10" s="71"/>
       <c r="D10" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="71" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="71"/>
@@ -7788,15 +7788,15 @@
     <row r="11" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="126"/>
       <c r="B11" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="71" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="71"/>
@@ -7804,37 +7804,37 @@
     <row r="12" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
       <c r="A12" s="126"/>
       <c r="B12" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C12" s="71"/>
       <c r="D12" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="71" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="71"/>
     </row>
     <row r="13" spans="1:1024" s="109" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="109" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AMJ13" s="62"/>
     </row>
     <row r="14" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
       <c r="A14" s="125"/>
       <c r="B14" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="27" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
@@ -7842,15 +7842,15 @@
     <row r="15" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="125"/>
       <c r="B15" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
@@ -7858,7 +7858,7 @@
     <row r="16" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
       <c r="A16" s="125"/>
       <c r="B16" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="27" t="s">
@@ -7866,7 +7866,7 @@
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
@@ -7874,15 +7874,15 @@
     <row r="17" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A17" s="125"/>
       <c r="B17" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="27" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
@@ -7890,15 +7890,15 @@
     <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="125"/>
       <c r="B18" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E18" s="27"/>
       <c r="F18" s="27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
@@ -7910,11 +7910,11 @@
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E19" s="27"/>
       <c r="F19" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
@@ -7922,15 +7922,15 @@
     <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="125"/>
       <c r="B20" s="27" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="27" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E20" s="27"/>
       <c r="F20" s="27" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
@@ -7938,15 +7938,15 @@
     <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="125"/>
       <c r="B21" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E21" s="27"/>
       <c r="F21" s="27" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
@@ -7954,15 +7954,15 @@
     <row r="22" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A22" s="125"/>
       <c r="B22" s="27" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E22" s="27"/>
       <c r="F22" s="27" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
@@ -7970,7 +7970,7 @@
     <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="125"/>
       <c r="B23" s="27" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="27" t="s">
@@ -7978,7 +7978,7 @@
       </c>
       <c r="E23" s="27"/>
       <c r="F23" s="27" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
@@ -7986,7 +7986,7 @@
     <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="125"/>
       <c r="B24" s="27" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="27" t="s">
@@ -7994,14 +7994,14 @@
       </c>
       <c r="E24" s="27"/>
       <c r="F24" s="27" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
     </row>
     <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="108" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B25" s="78"/>
       <c r="C25" s="78"/>
@@ -8014,15 +8014,15 @@
     <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="126"/>
       <c r="B26" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -8030,15 +8030,15 @@
     <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="126"/>
       <c r="B27" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -8046,7 +8046,7 @@
     <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="126"/>
       <c r="B28" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9" t="s">
@@ -8054,7 +8054,7 @@
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -8062,15 +8062,15 @@
     <row r="29" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A29" s="126"/>
       <c r="B29" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -8078,15 +8078,15 @@
     <row r="30" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A30" s="126"/>
       <c r="B30" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -8094,15 +8094,15 @@
     <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="126"/>
       <c r="B31" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -8110,15 +8110,15 @@
     <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="126"/>
       <c r="B32" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
@@ -8126,15 +8126,15 @@
     <row r="33" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="126"/>
       <c r="B33" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
@@ -8146,11 +8146,11 @@
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
@@ -8158,15 +8158,15 @@
     <row r="35" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="126"/>
       <c r="B35" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -8174,37 +8174,37 @@
     <row r="36" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
       <c r="A36" s="126"/>
       <c r="B36" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:1024" s="109" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="109" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AMJ37" s="62"/>
     </row>
     <row r="38" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="125"/>
       <c r="B38" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C38" s="27"/>
       <c r="D38" s="27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E38" s="27"/>
       <c r="F38" s="27" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
@@ -8212,15 +8212,15 @@
     <row r="39" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="125"/>
       <c r="B39" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C39" s="27"/>
       <c r="D39" s="27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E39" s="27"/>
       <c r="F39" s="27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
@@ -8228,7 +8228,7 @@
     <row r="40" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="125"/>
       <c r="B40" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C40" s="27"/>
       <c r="D40" s="27" t="s">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="E40" s="27"/>
       <c r="F40" s="27" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
@@ -8244,15 +8244,15 @@
     <row r="41" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
       <c r="A41" s="125"/>
       <c r="B41" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C41" s="27"/>
       <c r="D41" s="27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E41" s="27"/>
       <c r="F41" s="27" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
@@ -8260,15 +8260,15 @@
     <row r="42" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
       <c r="A42" s="125"/>
       <c r="B42" s="27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C42" s="27"/>
       <c r="D42" s="27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E42" s="27"/>
       <c r="F42" s="27" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
@@ -8276,15 +8276,15 @@
     <row r="43" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="125"/>
       <c r="B43" s="27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C43" s="27"/>
       <c r="D43" s="27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E43" s="27"/>
       <c r="F43" s="27" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
@@ -8292,15 +8292,15 @@
     <row r="44" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="125"/>
       <c r="B44" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C44" s="27"/>
       <c r="D44" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E44" s="27"/>
       <c r="F44" s="27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
@@ -8308,15 +8308,15 @@
     <row r="45" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="125"/>
       <c r="B45" s="27" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C45" s="27"/>
       <c r="D45" s="27" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E45" s="27"/>
       <c r="F45" s="27" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
@@ -8324,15 +8324,15 @@
     <row r="46" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="125"/>
       <c r="B46" s="27" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C46" s="27"/>
       <c r="D46" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E46" s="27"/>
       <c r="F46" s="27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
@@ -8344,11 +8344,11 @@
       </c>
       <c r="C47" s="27"/>
       <c r="D47" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E47" s="27"/>
       <c r="F47" s="27" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
@@ -8356,15 +8356,15 @@
     <row r="48" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="125"/>
       <c r="B48" s="27" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C48" s="27"/>
       <c r="D48" s="27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E48" s="27"/>
       <c r="F48" s="27" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deslauj/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\jay\code\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B738CAD8-5999-494D-8763-717E003574EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A5F868-3294-4941-A54D-0C9613899523}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13880" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2265" yWindow="915" windowWidth="24390" windowHeight="11325" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Microservice" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="551">
   <si>
     <t>Microservice Metadata v0.9</t>
   </si>
@@ -152,12 +152,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>This microservices solves a certain problem using very specific methods. It supports some special input types, and allows results to be presented in chosen format.</t>
-  </si>
-  <si>
-    <t>human readable short description of the Microservice's capabilities, e.g. which problems could be solved with it</t>
-  </si>
-  <si>
     <t>classificationSchema</t>
   </si>
   <si>
@@ -489,10 +483,6 @@
   </si>
   <si>
     <t>{jpg}</t>
-  </si>
-  <si>
-    <t>supported internal message structure, semantics, ontology.
-It can be any file (doc, rdf, owl, etc.). Asset Administration Shell, IEC 61360 - Common Data Dictionary, …</t>
   </si>
   <si>
     <t>Output Data (WP4)</t>
@@ -1074,9 +1064,6 @@
     <t>Administrative data (system managed)</t>
   </si>
   <si>
-    <t>e.g. UUID</t>
-  </si>
-  <si>
     <t>Unique identifier of the data resource.</t>
   </si>
   <si>
@@ -1098,18 +1085,12 @@
     <t>timestamp</t>
   </si>
   <si>
-    <t>e.g. 10:45:13 CET 21/03/2021</t>
-  </si>
-  <si>
     <t>Date of data resource registration.</t>
   </si>
   <si>
     <t>PARENT</t>
   </si>
   <si>
-    <t>e.g. inherit legal entity, contact details from a parent record.</t>
-  </si>
-  <si>
     <t>Refercing a parent record. All fields of parent are inherited by this record, fields filled here will override parent field values (?).</t>
   </si>
   <si>
@@ -1122,51 +1103,30 @@
     <t>DATA_NAME</t>
   </si>
   <si>
-    <t>e.g. CNSPiezoBolt#1 
-(in directory: factory 1 / machine1 / piezobolts/)</t>
-  </si>
-  <si>
     <t>Name of the data resource. (The directory hierarchy in Nexus provides a fully qualified (FQ) name, which is unique.)</t>
   </si>
   <si>
     <t>VERSION</t>
   </si>
   <si>
-    <t>default: 1.0.0
-e.g. 2.3.4</t>
-  </si>
-  <si>
-    <t>Version of this data resource entry
-(major.minor.patch)</t>
-  </si>
-  <si>
     <t>DATA_SIZE</t>
   </si>
   <si>
     <t>integer</t>
   </si>
   <si>
-    <t>e.g. 112m</t>
-  </si>
-  <si>
     <t>Estimated/exact size of data (e.g. file size, volume size, or message size); might be used to assess HW requirements (RAM, CPU) . In bytes (k - kilo, m - mega, t - tera, p - peta)</t>
   </si>
   <si>
     <t>DATA_CONTACT</t>
   </si>
   <si>
-    <t>e.g. info@company.com</t>
-  </si>
-  <si>
     <t>Data provider contact point, e.g. email address, to get access to these data (ask permissions/credentials to use these data). Optional if it corresponds to DATA_PROVIDER (email) details.</t>
   </si>
   <si>
     <t>DATA_DESC</t>
   </si>
   <si>
-    <t>e.g. “This sensor measures temperature in Celsius, sends data via ConSenses edge device via an MQTT broker”</t>
-  </si>
-  <si>
     <t>Human readable description of the data resource.</t>
   </si>
   <si>
@@ -1176,9 +1136,6 @@
     <t>URL</t>
   </si>
   <si>
-    <t>e.g. data-source-specification-sheet.pdf</t>
-  </si>
-  <si>
     <t>More detailed specification of data source characteristics (doc, pdf, …)</t>
   </si>
   <si>
@@ -1191,30 +1148,18 @@
     <t>list of strings</t>
   </si>
   <si>
-    <t>e.g. [camera, rgb, w640, h480, jpg]</t>
-  </si>
-  <si>
     <t>A list of tags freely added to help in searching/indexing (not limited to a basic set of tags, keywords)</t>
   </si>
   <si>
     <t>Datakind specification</t>
   </si>
   <si>
-    <t>FILE | DIRECTORY | DATABASE | STREAM</t>
-  </si>
-  <si>
     <t>Type of the data resource (e.g. file/object storage, database management system, streaming broker). FILE can mean a single file or a folder.</t>
   </si>
   <si>
-    <t>SOURCE | SINK | BIDIRECTIONAL</t>
-  </si>
-  <si>
     <t>Direction of data flow (source: data provider, sink: data consumer/storage)</t>
   </si>
   <si>
-    <t xml:space="preserve">e.g. [ { application/json | text/plain | application/octet-stream | application/zip }+ ] </t>
-  </si>
-  <si>
     <t>Format/encoding of the data produced or consumed by the data resource as a MIME type (IETF RFC 6838 https://www.sitepoint.com/mime-types-complete-list/). More than one can appear here (remote directory with several files).</t>
   </si>
   <si>
@@ -1224,9 +1169,6 @@
     <t>Data access specification</t>
   </si>
   <si>
-    <t>e.g. S3 | MYSQL | MQTT | ... (WP6: DATA_SOURCE_TYPE=LOCAL, PATH=...")</t>
-  </si>
-  <si>
     <t>The exact type of the data resource. Typically corresponds to the scheme part (protocol://) of DATA_URI.</t>
   </si>
   <si>
@@ -1236,22 +1178,10 @@
     <t>DATA_URI (pseudo vars: DATA_PROTOCOL, DATA_HOST, DATA_PORT, DATA_PATH, DATA_QUERY, DATA_FRAGMENT)</t>
   </si>
   <si>
-    <t>protocol://host:port/path 
-e.g. |
-s3://amazonaws/bucket/object |
-kafka://host/topic#1 | ...</t>
-  </si>
-  <si>
-    <t>Accessibility of the data resource, including host, port information, protocol, and other fields (path is protocol dependent, can be a topic name). GUI may show host, port, path separately. Hidden at search.</t>
-  </si>
-  <si>
     <t>mandatory (WP6 open)</t>
   </si>
   <si>
     <t>list of enums</t>
-  </si>
-  <si>
-    <t>e.g. [ { none | userpass | accesskey_secretkey | ssl_certificate | tls_mutual, access_token | rclone_config }+ ]</t>
   </si>
   <si>
     <t>One or more authentication types that can be accepted by the storage resource.</t>
@@ -1303,46 +1233,24 @@
     <t>Further access clauses (extensible)</t>
   </si>
   <si>
-    <t>e.g. HTTP, HTTPS, TCP, UDP</t>
-  </si>
-  <si>
     <t>Protocol to use in communication with the data source, only if DATA_TYPE does not imply it (e.g. S3 over HTTP). Moved from to Data access specification.</t>
   </si>
   <si>
-    <t>e.g. mysqldialect | mariadbdialect</t>
-  </si>
-  <si>
     <t>Protocol dialect to be used in communication with the database</t>
   </si>
   <si>
-    <t>e.g. 3.1.1, 5.0</t>
-  </si>
-  <si>
     <t>MQTT protocol version must be used</t>
   </si>
   <si>
-    <t>e.g. 2.7.0</t>
-  </si>
-  <si>
     <t>Kafka broker version</t>
   </si>
   <si>
-    <t>e.g. eu-central-1</t>
-  </si>
-  <si>
     <t>S3 region</t>
   </si>
   <si>
     <t>Data content semantics</t>
   </si>
   <si>
-    <t>e.g. database schema file contents (or URL?)</t>
-  </si>
-  <si>
-    <t>Describes message internal structure, semantics, ontology.
-It can be any file (doc, rdf, owl, etc.). Asset Administration Shell, IEC 61360 - Common Data Dictionary, ...</t>
-  </si>
-  <si>
     <t>DATA_SCHEMA_ADDITIONAL_ATTRIBUTES</t>
   </si>
   <si>
@@ -1458,9 +1366,6 @@
   </si>
   <si>
     <t>Map of…</t>
-  </si>
-  <si>
-    <t>if type:cloudbroker</t>
   </si>
   <si>
     <t>deployment_id</t>
@@ -1579,9 +1484,6 @@
     <t>edge</t>
   </si>
   <si>
-    <t>if type:edge</t>
-  </si>
-  <si>
     <t>accesible IP or FQDN of edge device</t>
   </si>
   <si>
@@ -1804,13 +1706,6 @@
     <t>JSON</t>
   </si>
   <si>
-    <t>"services": {
-    "db": {
-        "image": "nginx"
-    } 
-}</t>
-  </si>
-  <si>
     <t>JSON of docker-compose or kubernetes manifest required to run the container</t>
   </si>
   <si>
@@ -1850,10 +1745,6 @@
     <t>Map(Files)</t>
   </si>
   <si>
-    <t>filename: &lt;file.yml&gt;,
-other_filename: &lt;other_file.cfg&gt;</t>
-  </si>
-  <si>
     <t>Model_FILENAME</t>
   </si>
   <si>
@@ -1864,6 +1755,96 @@
   </si>
   <si>
     <t xml:space="preserve"> Metadata for Model v0.9</t>
+  </si>
+  <si>
+    <t>See https://github.com/UoW-CPC/ADTGenerator/blob/main/examples/metadata_microservice.json#L30</t>
+  </si>
+  <si>
+    <t>filename: &lt;file.yml&gt;, other_filename: &lt;other_file.cfg&gt;</t>
+  </si>
+  <si>
+    <t>supported internal message structure, semantics, ontology. It can be any file (doc, rdf, owl, etc.). Asset Administration Shell, IEC 61360 - Common Data Dictionary, …</t>
+  </si>
+  <si>
+    <t>This microservices solves a certain problem using very specific methods...</t>
+  </si>
+  <si>
+    <t>human readable short description of the Microservice's capabilities</t>
+  </si>
+  <si>
+    <t>10:45:13 CET 21/03/2021</t>
+  </si>
+  <si>
+    <t>inherit legal entity, contact details from a parent record.</t>
+  </si>
+  <si>
+    <t>CNSPiezoBolt#1 (in directory: factory 1 , machine1 , piezobolts)</t>
+  </si>
+  <si>
+    <t>FILE , DIRECTORY , DATABASE , STREAM</t>
+  </si>
+  <si>
+    <t>SOURCE , SINK , BIDIRECTIONAL</t>
+  </si>
+  <si>
+    <t>2.3.4</t>
+  </si>
+  <si>
+    <t>112m</t>
+  </si>
+  <si>
+    <t>info@company.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ { application/json , text/plain , application/octet-stream , application/zip } ] </t>
+  </si>
+  <si>
+    <t>2.7.0</t>
+  </si>
+  <si>
+    <t>3.1.1, 5.0</t>
+  </si>
+  <si>
+    <t>eu-central-1</t>
+  </si>
+  <si>
+    <t>mysqldialect , mariadbdialect</t>
+  </si>
+  <si>
+    <t>HTTP, HTTPS, TCP, UDP</t>
+  </si>
+  <si>
+    <t>database schema file contents (or URL?)</t>
+  </si>
+  <si>
+    <t>[ { none , userpass , accesskey_secretkey , ssl_certificate , tls_mutual, access_token , rclone_config }+ ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accessibility of the data resource, including host, port information, protocol, and other fields (path is protocol dependent, can be a topic name). GUI may show host, port, path separately. Hidden at search. Format: protocol://host:port/path </t>
+  </si>
+  <si>
+    <t>This sensor measures temperature in Celsius, sends data via ConSenses edge device via an MQTT broker</t>
+  </si>
+  <si>
+    <t>data-source-specification-sheet.pdf</t>
+  </si>
+  <si>
+    <t>[camera, rgb, w640, h480, jpg]</t>
+  </si>
+  <si>
+    <t>S3 , MYSQL , MQTT , ... (WP6: DATA_SOURCE_TYPE=LOCAL, PATH=...")</t>
+  </si>
+  <si>
+    <t>Version of this data resource entry (major.minor.patch). Defaults to 1.0.0</t>
+  </si>
+  <si>
+    <t>s3://amazonaws/bucket/object , kafka://host/topic#1 , ...</t>
+  </si>
+  <si>
+    <t>Describes message internal structure, semantics, ontology. It can be any file (doc, rdf, owl, etc.). Asset Administration Shell, IEC 61360 - Common Data Dictionary, ...</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -2454,30 +2435,30 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2907,35 +2888,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ105"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K7" sqref="K6:K7"/>
+    <sheetView topLeftCell="A73" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="1" customWidth="1"/>
-    <col min="4" max="5" width="24.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" style="2" customWidth="1"/>
-    <col min="9" max="1024" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="34.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="24.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" style="2" customWidth="1"/>
+    <col min="9" max="1024" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="118" t="s">
+    <row r="1" spans="1:8" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-    </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+    </row>
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2961,7 +2942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="22.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -2973,7 +2954,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
         <v>9</v>
@@ -2993,7 +2974,7 @@
       </c>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
         <v>14</v>
@@ -3013,7 +2994,7 @@
       </c>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>17</v>
@@ -3033,7 +3014,7 @@
       </c>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>20</v>
@@ -3053,7 +3034,7 @@
       </c>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
         <v>24</v>
@@ -3073,7 +3054,7 @@
       </c>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="126" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="69" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
         <v>27</v>
@@ -3083,59 +3064,59 @@
         <v>10</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>28</v>
+        <v>524</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>29</v>
+        <v>525</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -3145,112 +3126,112 @@
       <c r="G12" s="16"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>532</v>
+        <v>502</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" spans="1:8" ht="90" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="120.75" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="19" t="s">
-        <v>533</v>
+        <v>503</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>535</v>
+        <v>504</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="22"/>
     </row>
-    <row r="15" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="19" t="s">
-        <v>545</v>
+        <v>514</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="19" t="s">
-        <v>547</v>
+        <v>516</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>548</v>
+        <v>522</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>546</v>
+        <v>515</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H15" s="22"/>
     </row>
-    <row r="16" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
-        <v>538</v>
+        <v>507</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="19" t="s">
-        <v>540</v>
+        <v>509</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>541</v>
+        <v>510</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>543</v>
+        <v>512</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H16" s="22"/>
     </row>
-    <row r="17" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="19" t="s">
-        <v>539</v>
+        <v>508</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="19" t="s">
-        <v>540</v>
+        <v>509</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>542</v>
+        <v>511</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>544</v>
+        <v>513</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H17" s="22"/>
     </row>
-    <row r="18" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
     </row>
-    <row r="19" spans="1:8" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -3260,150 +3241,150 @@
       <c r="G19" s="16"/>
       <c r="H19" s="17"/>
     </row>
-    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="111"/>
+    <row r="20" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="112"/>
       <c r="B20" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E20" s="11">
         <v>2</v>
       </c>
       <c r="F20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="112"/>
+      <c r="B21" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="111"/>
-      <c r="B21" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E21" s="11">
         <v>1</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A22" s="111"/>
+    <row r="22" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="112"/>
       <c r="B22" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E22" s="11">
         <v>6</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A23" s="111"/>
+    <row r="23" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="112"/>
       <c r="B23" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E23" s="11">
         <v>1</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A24" s="111"/>
+    <row r="24" spans="1:8" ht="69" x14ac:dyDescent="0.25">
+      <c r="A24" s="112"/>
       <c r="B24" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="112"/>
+      <c r="B25" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A25" s="111"/>
-      <c r="B25" s="9" t="s">
-        <v>57</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="G25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:8" ht="69" x14ac:dyDescent="0.25">
+      <c r="A26" s="112"/>
+      <c r="B26" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="1:8" ht="72" x14ac:dyDescent="0.2">
-      <c r="A26" s="111"/>
-      <c r="B26" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="G26" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="112"/>
+      <c r="B27" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A27" s="111"/>
-      <c r="B27" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="9" t="s">
@@ -3413,17 +3394,17 @@
         <v>16</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A28" s="111"/>
+    <row r="28" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="112"/>
       <c r="B28" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="9" t="s">
@@ -3433,76 +3414,76 @@
         <v>2</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="111"/>
+    <row r="29" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="112"/>
       <c r="B29" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E29" s="11">
         <v>4</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A30" s="111"/>
+    <row r="30" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="112"/>
       <c r="B30" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E30" s="11">
         <v>2</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="111"/>
+    <row r="31" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="112"/>
       <c r="B31" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="23" t="s">
         <v>74</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
-        <v>76</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
@@ -3512,89 +3493,89 @@
       <c r="G32" s="24"/>
       <c r="H32" s="26"/>
     </row>
-    <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="116"/>
+    <row r="33" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="113"/>
       <c r="B33" s="27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C33" s="28"/>
       <c r="D33" s="27" t="s">
         <v>10</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G33" s="27" t="s">
         <v>13</v>
       </c>
       <c r="H33" s="22"/>
     </row>
-    <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="116"/>
+    <row r="34" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="113"/>
       <c r="B34" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C34" s="28"/>
       <c r="D34" s="27" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" s="22"/>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="113"/>
+      <c r="B35" s="27" t="s">
         <v>81</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="G34" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="H34" s="22"/>
-    </row>
-    <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="116"/>
-      <c r="B35" s="27" t="s">
-        <v>83</v>
       </c>
       <c r="C35" s="28"/>
       <c r="D35" s="27" t="s">
         <v>10</v>
       </c>
       <c r="E35" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="22"/>
+    </row>
+    <row r="36" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="113"/>
+      <c r="B36" s="27" t="s">
         <v>84</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="G35" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="H35" s="22"/>
-    </row>
-    <row r="36" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="116"/>
-      <c r="B36" s="27" t="s">
-        <v>86</v>
       </c>
       <c r="C36" s="28"/>
       <c r="D36" s="27" t="s">
         <v>10</v>
       </c>
       <c r="E36" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" s="22"/>
+    </row>
+    <row r="37" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="G36" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="H36" s="22"/>
-    </row>
-    <row r="37" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>89</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -3604,271 +3585,271 @@
       <c r="G37" s="16"/>
       <c r="H37" s="17"/>
     </row>
-    <row r="38" spans="1:8" ht="72" x14ac:dyDescent="0.2">
-      <c r="A38" s="111"/>
+    <row r="38" spans="1:8" ht="69" x14ac:dyDescent="0.25">
+      <c r="A38" s="112"/>
       <c r="B38" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="G38" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" spans="1:8" ht="46.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="112"/>
+      <c r="B39" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="C39" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H38" s="12"/>
-    </row>
-    <row r="39" spans="1:8" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="111"/>
-      <c r="B39" s="112" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="90" x14ac:dyDescent="0.2">
-      <c r="A40" s="111"/>
-      <c r="B40" s="112"/>
+    <row r="40" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="112"/>
+      <c r="B40" s="114"/>
       <c r="C40" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="F40" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A41" s="111"/>
-      <c r="B41" s="112"/>
+    <row r="41" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="112"/>
+      <c r="B41" s="114"/>
       <c r="C41" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="F41" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>105</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="144" x14ac:dyDescent="0.2">
-      <c r="A42" s="111"/>
-      <c r="B42" s="112"/>
+    <row r="42" spans="1:8" ht="155.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="112"/>
+      <c r="B42" s="114"/>
       <c r="C42" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="F42" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="G42" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" spans="1:8" ht="69" x14ac:dyDescent="0.25">
+      <c r="A43" s="112"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="D43" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G42" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H42" s="12"/>
-    </row>
-    <row r="43" spans="1:8" ht="72" x14ac:dyDescent="0.2">
-      <c r="A43" s="111"/>
-      <c r="B43" s="112"/>
-      <c r="C43" s="9" t="s">
+      <c r="E43" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="F43" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="G43" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="112"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="D44" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G43" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H43" s="12"/>
-    </row>
-    <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="111"/>
-      <c r="B44" s="112"/>
-      <c r="C44" s="9" t="s">
+      <c r="E44" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="F44" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="G44" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" s="12"/>
+    </row>
+    <row r="45" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="112"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="D45" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G44" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H44" s="12"/>
-    </row>
-    <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="111"/>
-      <c r="B45" s="112"/>
-      <c r="C45" s="9" t="s">
+      <c r="E45" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="F45" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="G45" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" s="12"/>
+    </row>
+    <row r="46" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="112"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="D46" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G45" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H45" s="12"/>
-    </row>
-    <row r="46" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A46" s="111"/>
-      <c r="B46" s="112"/>
-      <c r="C46" s="9" t="s">
+      <c r="E46" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="F46" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="G46" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" s="12"/>
+    </row>
+    <row r="47" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="112"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="D47" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G46" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H46" s="12"/>
-    </row>
-    <row r="47" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A47" s="111"/>
-      <c r="B47" s="112"/>
-      <c r="C47" s="9" t="s">
+      <c r="E47" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="F47" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="G47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" s="12"/>
+    </row>
+    <row r="48" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="112"/>
+      <c r="B48" s="114"/>
+      <c r="C48" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="D48" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="G47" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H47" s="12"/>
-    </row>
-    <row r="48" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A48" s="111"/>
-      <c r="B48" s="112"/>
-      <c r="C48" s="9" t="s">
+      <c r="E48" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="F48" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="G48" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="112"/>
+      <c r="B49" s="114"/>
+      <c r="C49" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="D49" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="G48" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H48" s="12"/>
-    </row>
-    <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="111"/>
-      <c r="B49" s="112"/>
-      <c r="C49" s="9" t="s">
+      <c r="E49" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="F49" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="G49" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" s="12"/>
+    </row>
+    <row r="50" spans="1:8" ht="103.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="112"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="D50" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G49" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H49" s="12"/>
-    </row>
-    <row r="50" spans="1:8" ht="90" x14ac:dyDescent="0.2">
-      <c r="A50" s="111"/>
-      <c r="B50" s="112"/>
-      <c r="C50" s="9" t="s">
+      <c r="E50" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="F50" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" s="12"/>
+    </row>
+    <row r="51" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="30" t="s">
         <v>139</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H50" s="12"/>
-    </row>
-    <row r="51" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A51" s="30" t="s">
-        <v>142</v>
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
@@ -3878,271 +3859,271 @@
       <c r="G51" s="31"/>
       <c r="H51" s="26"/>
     </row>
-    <row r="52" spans="1:8" ht="72" x14ac:dyDescent="0.2">
-      <c r="A52" s="113"/>
+    <row r="52" spans="1:8" ht="69" x14ac:dyDescent="0.25">
+      <c r="A52" s="115"/>
       <c r="B52" s="32" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C52" s="33"/>
       <c r="D52" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E52" s="34" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F52" s="32" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G52" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H52" s="26"/>
     </row>
-    <row r="53" spans="1:8" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="113"/>
-      <c r="B53" s="114" t="s">
-        <v>94</v>
+    <row r="53" spans="1:8" ht="46.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="115"/>
+      <c r="B53" s="116" t="s">
+        <v>92</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D53" s="32" t="s">
         <v>10</v>
       </c>
       <c r="E53" s="34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F53" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G53" s="27" t="s">
         <v>13</v>
       </c>
       <c r="H53" s="26"/>
     </row>
-    <row r="54" spans="1:8" ht="90" x14ac:dyDescent="0.2">
-      <c r="A54" s="113"/>
-      <c r="B54" s="114"/>
+    <row r="54" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="115"/>
+      <c r="B54" s="116"/>
       <c r="C54" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E54" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="D54" s="32" t="s">
+      <c r="F54" s="32" t="s">
         <v>99</v>
-      </c>
-      <c r="E54" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="F54" s="32" t="s">
-        <v>101</v>
       </c>
       <c r="G54" s="27" t="s">
         <v>13</v>
       </c>
       <c r="H54" s="26"/>
     </row>
-    <row r="55" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A55" s="113"/>
-      <c r="B55" s="114"/>
+    <row r="55" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="115"/>
+      <c r="B55" s="116"/>
       <c r="C55" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="D55" s="32" t="s">
+      <c r="F55" s="32" t="s">
         <v>103</v>
-      </c>
-      <c r="E55" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="F55" s="32" t="s">
-        <v>105</v>
       </c>
       <c r="G55" s="27" t="s">
         <v>13</v>
       </c>
       <c r="H55" s="26"/>
     </row>
-    <row r="56" spans="1:8" ht="144" x14ac:dyDescent="0.2">
-      <c r="A56" s="113"/>
-      <c r="B56" s="114"/>
+    <row r="56" spans="1:8" ht="155.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="115"/>
+      <c r="B56" s="116"/>
       <c r="C56" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="D56" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="E56" s="34" t="s">
+      <c r="F56" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G56" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" s="26"/>
+    </row>
+    <row r="57" spans="1:8" ht="69" x14ac:dyDescent="0.25">
+      <c r="A57" s="115"/>
+      <c r="B57" s="116"/>
+      <c r="C57" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="F56" s="32" t="s">
+      <c r="D57" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="E57" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="G57" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" s="26"/>
+    </row>
+    <row r="58" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="115"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="G58" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" s="26"/>
+    </row>
+    <row r="59" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="115"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D59" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="E59" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="F59" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="G59" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" s="26"/>
+    </row>
+    <row r="60" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="115"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="F60" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="G60" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" s="26"/>
+    </row>
+    <row r="61" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="115"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D61" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="E61" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="F61" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="G61" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" s="26"/>
+    </row>
+    <row r="62" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="115"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E62" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="F62" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="G62" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" s="26"/>
+    </row>
+    <row r="63" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="115"/>
+      <c r="B63" s="116"/>
+      <c r="C63" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E63" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="F63" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="G63" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" s="26"/>
+    </row>
+    <row r="64" spans="1:8" ht="103.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="115"/>
+      <c r="B64" s="116"/>
+      <c r="C64" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D64" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="E64" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="F64" s="32" t="s">
+        <v>523</v>
+      </c>
+      <c r="G64" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" s="26"/>
+    </row>
+    <row r="65" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="13" t="s">
         <v>147</v>
-      </c>
-      <c r="G56" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="H56" s="26"/>
-    </row>
-    <row r="57" spans="1:8" ht="72" x14ac:dyDescent="0.2">
-      <c r="A57" s="113"/>
-      <c r="B57" s="114"/>
-      <c r="C57" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="D57" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="E57" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="F57" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="G57" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="H57" s="26"/>
-    </row>
-    <row r="58" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A58" s="113"/>
-      <c r="B58" s="114"/>
-      <c r="C58" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="D58" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E58" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="F58" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="G58" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="H58" s="26"/>
-    </row>
-    <row r="59" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A59" s="113"/>
-      <c r="B59" s="114"/>
-      <c r="C59" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="D59" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="E59" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="F59" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="G59" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="H59" s="26"/>
-    </row>
-    <row r="60" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A60" s="113"/>
-      <c r="B60" s="114"/>
-      <c r="C60" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="D60" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="E60" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="F60" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="G60" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="H60" s="26"/>
-    </row>
-    <row r="61" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A61" s="113"/>
-      <c r="B61" s="114"/>
-      <c r="C61" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D61" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E61" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="F61" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="G61" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="H61" s="26"/>
-    </row>
-    <row r="62" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A62" s="113"/>
-      <c r="B62" s="114"/>
-      <c r="C62" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D62" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E62" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="F62" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="G62" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="H62" s="26"/>
-    </row>
-    <row r="63" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A63" s="113"/>
-      <c r="B63" s="114"/>
-      <c r="C63" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="D63" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="E63" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="F63" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="G63" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="H63" s="26"/>
-    </row>
-    <row r="64" spans="1:8" ht="90" x14ac:dyDescent="0.2">
-      <c r="A64" s="113"/>
-      <c r="B64" s="114"/>
-      <c r="C64" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="D64" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="E64" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="F64" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="G64" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="H64" s="26"/>
-    </row>
-    <row r="65" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A65" s="13" t="s">
-        <v>150</v>
       </c>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -4152,49 +4133,49 @@
       <c r="G65" s="16"/>
       <c r="H65" s="17"/>
     </row>
-    <row r="66" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A66" s="115"/>
+    <row r="66" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A66" s="117"/>
       <c r="B66" s="36" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C66" s="37"/>
       <c r="D66" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="E66" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="F66" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" s="17"/>
+    </row>
+    <row r="67" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A67" s="117"/>
+      <c r="B67" s="36" t="s">
         <v>152</v>
-      </c>
-      <c r="E66" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="F66" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H66" s="17"/>
-    </row>
-    <row r="67" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A67" s="115"/>
-      <c r="B67" s="36" t="s">
-        <v>155</v>
       </c>
       <c r="C67" s="37"/>
       <c r="D67" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="E67" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="F67" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" s="17"/>
+    </row>
+    <row r="68" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A68" s="39" t="s">
         <v>156</v>
-      </c>
-      <c r="E67" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="F67" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H67" s="17"/>
-    </row>
-    <row r="68" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A68" s="39" t="s">
-        <v>159</v>
       </c>
       <c r="B68" s="40"/>
       <c r="C68" s="40"/>
@@ -4204,109 +4185,109 @@
       <c r="G68" s="40"/>
       <c r="H68" s="26"/>
     </row>
-    <row r="69" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A69" s="116"/>
+    <row r="69" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="113"/>
       <c r="B69" s="27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C69" s="28"/>
       <c r="D69" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E69" s="29"/>
       <c r="F69" s="27" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G69" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H69" s="22"/>
     </row>
-    <row r="70" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="116"/>
-      <c r="B70" s="117" t="s">
-        <v>163</v>
+    <row r="70" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="113"/>
+      <c r="B70" s="118" t="s">
+        <v>160</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D70" s="27" t="s">
         <v>10</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F70" s="27" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G70" s="27" t="s">
         <v>13</v>
       </c>
       <c r="H70" s="22"/>
     </row>
-    <row r="71" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A71" s="116"/>
-      <c r="B71" s="117"/>
+    <row r="71" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="113"/>
+      <c r="B71" s="118"/>
       <c r="C71" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E71" s="29" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F71" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G71" s="27" t="s">
         <v>13</v>
       </c>
       <c r="H71" s="22"/>
     </row>
-    <row r="72" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A72" s="116"/>
-      <c r="B72" s="117"/>
+    <row r="72" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="113"/>
+      <c r="B72" s="118"/>
       <c r="C72" s="27" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E72" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F72" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="G72" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" s="22"/>
+    </row>
+    <row r="73" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="113"/>
+      <c r="B73" s="118"/>
+      <c r="C73" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D73" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="E72" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="F72" s="29" t="s">
+      <c r="E73" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F73" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="G72" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="H72" s="22"/>
-    </row>
-    <row r="73" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A73" s="116"/>
-      <c r="B73" s="117"/>
-      <c r="C73" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="D73" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E73" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="F73" s="27" t="s">
-        <v>174</v>
-      </c>
       <c r="G73" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H73" s="22"/>
     </row>
-    <row r="74" spans="1:8" ht="90" x14ac:dyDescent="0.2">
-      <c r="A74" s="116"/>
-      <c r="B74" s="117"/>
+    <row r="74" spans="1:8" ht="86.25" x14ac:dyDescent="0.25">
+      <c r="A74" s="113"/>
+      <c r="B74" s="118"/>
       <c r="C74" s="27" t="s">
         <v>27</v>
       </c>
@@ -4314,19 +4295,19 @@
         <v>10</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F74" s="27" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G74" s="27" t="s">
         <v>13</v>
       </c>
       <c r="H74" s="22"/>
     </row>
-    <row r="75" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="43" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
@@ -4336,109 +4317,109 @@
       <c r="G75" s="44"/>
       <c r="H75" s="17"/>
     </row>
-    <row r="76" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A76" s="111"/>
+    <row r="76" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="112"/>
       <c r="B76" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E76" s="11"/>
       <c r="F76" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="111"/>
-      <c r="B77" s="112" t="s">
-        <v>181</v>
+    <row r="77" spans="1:8" ht="46.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="112"/>
+      <c r="B77" s="114" t="s">
+        <v>178</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G77" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A78" s="111"/>
-      <c r="B78" s="112"/>
+    <row r="78" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="112"/>
+      <c r="B78" s="114"/>
       <c r="C78" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G78" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A79" s="111"/>
-      <c r="B79" s="112"/>
+    <row r="79" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="112"/>
+      <c r="B79" s="114"/>
       <c r="C79" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G79" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A80" s="111"/>
-      <c r="B80" s="112"/>
+    <row r="80" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="112"/>
+      <c r="B80" s="114"/>
       <c r="C80" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G80" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="108" x14ac:dyDescent="0.2">
-      <c r="A81" s="111"/>
-      <c r="B81" s="112"/>
+    <row r="81" spans="1:8" ht="103.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="112"/>
+      <c r="B81" s="114"/>
       <c r="C81" s="9" t="s">
         <v>27</v>
       </c>
@@ -4446,95 +4427,90 @@
         <v>10</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G81" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H82" s="46"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H83" s="46"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H84" s="46"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H85" s="46"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H86" s="46"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H87" s="46"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H88" s="46"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H89" s="46"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H90" s="46"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H91" s="46"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H92" s="46"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H93" s="46"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H94" s="46"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H95" s="46"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H96" s="46"/>
     </row>
-    <row r="97" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H97" s="46"/>
     </row>
-    <row r="98" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H98" s="46"/>
     </row>
-    <row r="99" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H99" s="46"/>
     </row>
-    <row r="100" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H100" s="46"/>
     </row>
-    <row r="101" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H101" s="46"/>
     </row>
-    <row r="102" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H102" s="46"/>
     </row>
-    <row r="103" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H103" s="46"/>
     </row>
-    <row r="104" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H104" s="46"/>
     </row>
-    <row r="105" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H105" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A20:A31"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A38:A50"/>
-    <mergeCell ref="B39:B50"/>
     <mergeCell ref="A76:A81"/>
     <mergeCell ref="B77:B81"/>
     <mergeCell ref="A52:A64"/>
@@ -4542,6 +4518,11 @@
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="A69:A74"/>
     <mergeCell ref="B70:B74"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A20:A31"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A38:A50"/>
+    <mergeCell ref="B39:B50"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4561,22 +4542,22 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" style="1" customWidth="1"/>
-    <col min="8" max="1023" width="8.5" style="1"/>
-    <col min="1024" max="1024" width="9.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="1" customWidth="1"/>
+    <col min="8" max="1023" width="8.42578125" style="1"/>
+    <col min="1024" max="1024" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="119" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B1" s="119"/>
       <c r="C1" s="119"/>
@@ -4586,7 +4567,7 @@
       <c r="G1" s="119"/>
       <c r="H1" s="119"/>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4603,7 +4584,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>7</v>
@@ -4612,7 +4593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="120" t="s">
         <v>6</v>
       </c>
@@ -4624,7 +4605,7 @@
       <c r="G3" s="50"/>
       <c r="H3" s="51"/>
     </row>
-    <row r="4" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A4" s="52"/>
       <c r="B4" s="53" t="s">
         <v>9</v>
@@ -4634,17 +4615,17 @@
         <v>10</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G4" s="53" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="55"/>
     </row>
-    <row r="5" spans="1:8" ht="72" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="86.25" x14ac:dyDescent="0.3">
       <c r="A5" s="52"/>
       <c r="B5" s="53" t="s">
         <v>14</v>
@@ -4654,17 +4635,17 @@
         <v>10</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G5" s="53" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="55"/>
     </row>
-    <row r="6" spans="1:8" ht="126" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="138" x14ac:dyDescent="0.3">
       <c r="A6" s="52"/>
       <c r="B6" s="53" t="s">
         <v>27</v>
@@ -4674,57 +4655,57 @@
         <v>10</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G6" s="53" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="55"/>
     </row>
-    <row r="7" spans="1:8" ht="54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A7" s="52"/>
       <c r="B7" s="53" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="53" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G7" s="53" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="55"/>
     </row>
-    <row r="8" spans="1:8" ht="54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="69" x14ac:dyDescent="0.3">
       <c r="A8" s="52"/>
       <c r="B8" s="53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="53"/>
       <c r="D8" s="53" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G8" s="53" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="55"/>
     </row>
-    <row r="9" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="52"/>
       <c r="B9" s="53" t="s">
         <v>17</v>
@@ -4737,14 +4718,14 @@
         <v>18</v>
       </c>
       <c r="F9" s="53" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G9" s="53" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="55"/>
     </row>
-    <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A10" s="52"/>
       <c r="B10" s="53" t="s">
         <v>20</v>
@@ -4757,14 +4738,14 @@
         <v>22</v>
       </c>
       <c r="F10" s="53" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G10" s="53" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="55"/>
     </row>
-    <row r="11" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="47"/>
       <c r="B11" s="53" t="s">
         <v>24</v>
@@ -4777,16 +4758,16 @@
         <v>25</v>
       </c>
       <c r="F11" s="53" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G11" s="53" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="55"/>
     </row>
-    <row r="12" spans="1:8" ht="17.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="121" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B12" s="121"/>
       <c r="C12" s="56"/>
@@ -4796,63 +4777,63 @@
       <c r="G12" s="59"/>
       <c r="H12" s="60"/>
     </row>
-    <row r="13" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="69" x14ac:dyDescent="0.25">
       <c r="A13" s="122"/>
       <c r="B13" s="19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G13" s="27" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="103.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="122"/>
       <c r="B14" s="19" t="s">
-        <v>527</v>
+        <v>497</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19" t="s">
-        <v>529</v>
+        <v>499</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>531</v>
+        <v>501</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G14" s="27" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="22"/>
     </row>
-    <row r="15" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="69" x14ac:dyDescent="0.25">
       <c r="A15" s="61"/>
       <c r="B15" s="19" t="s">
-        <v>528</v>
+        <v>498</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19" t="s">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>551</v>
+        <v>519</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H15" s="22"/>
     </row>
@@ -4872,36 +4853,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" style="62" customWidth="1"/>
-    <col min="2" max="2" width="35.5" style="62" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="62" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="62" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" style="62" customWidth="1"/>
-    <col min="6" max="6" width="38.5" style="62" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="62" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" style="62" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" style="62" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="62" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="62" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="62" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" style="62" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="62" customWidth="1"/>
     <col min="8" max="8" width="21" style="62" customWidth="1"/>
-    <col min="9" max="1024" width="9.1640625" style="62"/>
+    <col min="9" max="1024" width="9.140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="118" t="s">
-        <v>552</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-    </row>
-    <row r="2" spans="1:1024" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1024" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="111" t="s">
+        <v>520</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+    </row>
+    <row r="2" spans="1:1024" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
         <v>1</v>
       </c>
@@ -4915,10 +4896,10 @@
         <v>4</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F2" s="65" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G2" s="64" t="s">
         <v>7</v>
@@ -4927,9 +4908,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1024" s="67" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1024" s="67" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="67" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H3" s="68"/>
       <c r="I3" s="69"/>
@@ -4971,114 +4952,114 @@
       <c r="AS3" s="69"/>
       <c r="AMJ3" s="62"/>
     </row>
-    <row r="4" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A4" s="124"/>
       <c r="B4" s="71" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="71" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="71" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="71"/>
     </row>
-    <row r="5" spans="1:1024" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1024" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="124"/>
       <c r="B5" s="71" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="71" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="71" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="71"/>
     </row>
-    <row r="6" spans="1:1024" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1024" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="124"/>
       <c r="B6" s="71" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="71" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="71" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="71"/>
     </row>
-    <row r="7" spans="1:1024" ht="40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1024" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A7" s="124"/>
       <c r="B7" s="71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="72" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="71" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="71"/>
     </row>
-    <row r="8" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A8" s="124"/>
       <c r="B8" s="71" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="71" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="71" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="71"/>
     </row>
-    <row r="9" spans="1:1024" ht="90.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1024" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="124"/>
       <c r="B9" s="71" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="71" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="71" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="71"/>
     </row>
-    <row r="10" spans="1:1024" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1024" s="74" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A10" s="124"/>
       <c r="B10" s="71" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="71" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="71" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="71"/>
@@ -5096,146 +5077,146 @@
       <c r="T10" s="73"/>
       <c r="AMJ10" s="62"/>
     </row>
-    <row r="11" spans="1:1024" ht="116" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1024" ht="116.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="124"/>
       <c r="B11" s="71" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="71" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="71" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="71"/>
     </row>
-    <row r="12" spans="1:1024" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1024" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="124"/>
       <c r="B12" s="71" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="71" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="71" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="71"/>
     </row>
-    <row r="13" spans="1:1024" ht="108" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1024" ht="120.75" x14ac:dyDescent="0.25">
       <c r="A13" s="124"/>
       <c r="B13" s="71" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="71" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="71" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H13" s="71"/>
     </row>
-    <row r="14" spans="1:1024" ht="54" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1024" ht="69" x14ac:dyDescent="0.25">
       <c r="A14" s="124"/>
       <c r="B14" s="71" t="s">
-        <v>549</v>
+        <v>517</v>
       </c>
       <c r="C14" s="110"/>
       <c r="D14" s="71" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E14" s="110"/>
       <c r="F14" s="71" t="s">
-        <v>550</v>
+        <v>518</v>
       </c>
       <c r="G14" s="110" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H14" s="71"/>
     </row>
-    <row r="15" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" s="124"/>
       <c r="B15" s="71" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="71" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="71" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="71"/>
     </row>
-    <row r="16" spans="1:1024" s="69" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1024" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="69" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H16" s="75"/>
       <c r="AMJ16" s="62"/>
     </row>
-    <row r="17" spans="1:1024" ht="127" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1024" ht="126.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="125"/>
       <c r="B17" s="77" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="77" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="77" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="77"/>
     </row>
-    <row r="18" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" s="125"/>
       <c r="B18" s="77" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="77"/>
       <c r="E18" s="27"/>
       <c r="F18" s="77" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="77"/>
     </row>
-    <row r="19" spans="1:1024" ht="41.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1024" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="125"/>
       <c r="B19" s="77" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="77" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E19" s="27"/>
       <c r="F19" s="77" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="77"/>
     </row>
-    <row r="20" spans="1:1024" s="67" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1024" s="67" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="67" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H20" s="68"/>
       <c r="I20" s="69"/>
@@ -5277,18 +5258,18 @@
       <c r="AS20" s="69"/>
       <c r="AMJ20" s="62"/>
     </row>
-    <row r="21" spans="1:1024" s="74" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1024" s="74" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="70"/>
       <c r="B21" s="71" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="71" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="71" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="71"/>
@@ -5312,64 +5293,64 @@
       <c r="Z21" s="73"/>
       <c r="AMJ21" s="62"/>
     </row>
-    <row r="22" spans="1:1024" s="69" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1024" s="69" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="69" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H22" s="75"/>
       <c r="AMJ22" s="62"/>
     </row>
-    <row r="23" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A23" s="125"/>
       <c r="B23" s="77" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="77" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E23" s="27"/>
       <c r="F23" s="77" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="77"/>
     </row>
-    <row r="24" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A24" s="125"/>
       <c r="B24" s="77" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="77" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E24" s="27"/>
       <c r="F24" s="77" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="77"/>
     </row>
-    <row r="25" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A25" s="125"/>
       <c r="B25" s="77" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="77" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E25" s="27"/>
       <c r="F25" s="77" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="77"/>
     </row>
-    <row r="26" spans="1:1024" s="67" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1024" s="67" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="67" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H26" s="68"/>
       <c r="I26" s="69"/>
@@ -5392,93 +5373,93 @@
       <c r="Z26" s="69"/>
       <c r="AMJ26" s="62"/>
     </row>
-    <row r="27" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A27" s="126"/>
       <c r="B27" s="71" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="71" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="71" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H27" s="71"/>
     </row>
-    <row r="28" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A28" s="126"/>
       <c r="B28" s="71" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="71" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="71" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H28" s="71"/>
     </row>
-    <row r="29" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A29" s="126"/>
       <c r="B29" s="71" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="71" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="71" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H29" s="71"/>
     </row>
-    <row r="30" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A30" s="126"/>
       <c r="B30" s="71" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="71" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="71" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H30" s="71"/>
     </row>
-    <row r="31" spans="1:1024" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1024" s="74" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A31" s="126"/>
       <c r="B31" s="71" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="71" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="71" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H31" s="71"/>
       <c r="I31" s="73"/>
@@ -5502,81 +5483,81 @@
       <c r="AA31" s="73"/>
       <c r="AMJ31" s="62"/>
     </row>
-    <row r="32" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A32" s="126"/>
       <c r="B32" s="71" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="71" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="71" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H32" s="71"/>
     </row>
-    <row r="33" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A33" s="126"/>
       <c r="B33" s="71" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="71" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="71" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H33" s="71"/>
     </row>
-    <row r="34" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A34" s="126"/>
       <c r="B34" s="71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="71" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="71" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H34" s="71"/>
     </row>
-    <row r="35" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A35" s="126"/>
       <c r="B35" s="71" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="71" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="71" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H35" s="71"/>
     </row>
-    <row r="36" spans="1:1024" s="69" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1024" s="69" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="123" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B36" s="123"/>
       <c r="C36" s="123"/>
@@ -5587,18 +5568,18 @@
       <c r="H36" s="123"/>
       <c r="AMJ36" s="62"/>
     </row>
-    <row r="37" spans="1:1024" ht="90.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1024" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="76"/>
       <c r="B37" s="77" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="27"/>
       <c r="D37" s="77" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E37" s="27"/>
       <c r="F37" s="77" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="77"/>
@@ -5625,25 +5606,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ36"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A15"/>
+    <sheetView topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.1640625" style="62" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="62" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="62" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" style="62" customWidth="1"/>
-    <col min="5" max="5" width="27.1640625" style="62" customWidth="1"/>
-    <col min="6" max="6" width="41.5" style="62" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="62" customWidth="1"/>
-    <col min="8" max="1024" width="9.1640625" style="62"/>
+    <col min="1" max="1" width="59.140625" style="62" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="62" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="62" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="62" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" style="62" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" style="62" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="62" customWidth="1"/>
+    <col min="8" max="1024" width="9.140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1024" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="127" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B1" s="127"/>
       <c r="C1" s="127"/>
@@ -5653,7 +5634,7 @@
       <c r="G1" s="127"/>
       <c r="H1" s="127"/>
     </row>
-    <row r="2" spans="1:1024" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1024" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
         <v>1</v>
       </c>
@@ -5667,10 +5648,10 @@
         <v>4</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F2" s="65" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G2" s="64" t="s">
         <v>7</v>
@@ -5679,9 +5660,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1024" s="67" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1024" s="67" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="124" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H3" s="68"/>
       <c r="I3" s="69"/>
@@ -5698,109 +5679,109 @@
       <c r="T3" s="69"/>
       <c r="AMJ3" s="62"/>
     </row>
-    <row r="4" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="124"/>
       <c r="B4" s="71" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="71" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>329</v>
+        <v>214</v>
       </c>
       <c r="F4" s="71" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H4" s="93"/>
     </row>
-    <row r="5" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A5" s="124"/>
       <c r="B5" s="71" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="71" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>329</v>
+        <v>214</v>
       </c>
       <c r="F5" s="71" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H5" s="93"/>
     </row>
-    <row r="6" spans="1:1024" ht="54" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1024" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A6" s="124"/>
       <c r="B6" s="71" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="71" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>329</v>
+        <v>214</v>
       </c>
       <c r="F6" s="71" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H6" s="93"/>
     </row>
-    <row r="7" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A7" s="124"/>
       <c r="B7" s="71" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="71" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>337</v>
+        <v>526</v>
       </c>
       <c r="F7" s="71" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H7" s="93"/>
     </row>
-    <row r="8" spans="1:1024" ht="72" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1024" ht="69" x14ac:dyDescent="0.25">
       <c r="A8" s="124"/>
       <c r="B8" s="71" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="71" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>340</v>
+        <v>527</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H8" s="93"/>
     </row>
-    <row r="9" spans="1:1024" s="69" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1024" s="69" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="123" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B9" s="123"/>
       <c r="C9" s="123"/>
@@ -5811,127 +5792,127 @@
       <c r="H9" s="123"/>
       <c r="AMJ9" s="62"/>
     </row>
-    <row r="10" spans="1:1024" ht="54" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1024" ht="69" x14ac:dyDescent="0.25">
       <c r="A10" s="125"/>
       <c r="B10" s="77" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="77" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>345</v>
+        <v>528</v>
       </c>
       <c r="F10" s="77" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="94"/>
     </row>
-    <row r="11" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A11" s="125"/>
       <c r="B11" s="77" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="77" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>348</v>
+        <v>531</v>
       </c>
       <c r="F11" s="77" t="s">
-        <v>349</v>
+        <v>547</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H11" s="94"/>
     </row>
-    <row r="12" spans="1:1024" ht="72" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1024" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A12" s="125"/>
       <c r="B12" s="77" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="77" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>352</v>
+        <v>532</v>
       </c>
       <c r="F12" s="77" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H12" s="94"/>
     </row>
-    <row r="13" spans="1:1024" ht="90" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1024" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A13" s="125"/>
       <c r="B13" s="77" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="77" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>355</v>
+        <v>533</v>
       </c>
       <c r="F13" s="77" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="94"/>
     </row>
-    <row r="14" spans="1:1024" ht="90" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1024" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A14" s="125"/>
       <c r="B14" s="77" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="77" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>358</v>
+        <v>543</v>
       </c>
       <c r="F14" s="77" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H14" s="94"/>
     </row>
-    <row r="15" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A15" s="125"/>
       <c r="B15" s="77" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="77" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>362</v>
+        <v>544</v>
       </c>
       <c r="F15" s="77" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="94"/>
     </row>
-    <row r="16" spans="1:1024" s="67" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1024" s="67" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="67" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="H16" s="95"/>
       <c r="I16" s="69"/>
@@ -5944,29 +5925,29 @@
       <c r="P16" s="69"/>
       <c r="AMJ16" s="62"/>
     </row>
-    <row r="17" spans="1:1024" ht="54" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1024" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A17" s="78"/>
       <c r="B17" s="71" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="71" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>367</v>
+        <v>545</v>
       </c>
       <c r="F17" s="71" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H17" s="93"/>
     </row>
-    <row r="18" spans="1:1024" ht="18.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1024" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="123" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="B18" s="123"/>
       <c r="C18" s="123"/>
@@ -5976,69 +5957,69 @@
       <c r="G18" s="123"/>
       <c r="H18" s="123"/>
     </row>
-    <row r="19" spans="1:1024" ht="72" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1024" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A19" s="125"/>
       <c r="B19" s="77" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="77" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>370</v>
+        <v>529</v>
       </c>
       <c r="F19" s="77" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A20" s="125"/>
       <c r="B20" s="77" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="77" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>372</v>
+        <v>530</v>
       </c>
       <c r="F20" s="77" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="G20" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="94"/>
     </row>
-    <row r="21" spans="1:1024" ht="108" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1024" ht="120.75" x14ac:dyDescent="0.25">
       <c r="A21" s="125"/>
       <c r="B21" s="77" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="77" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>374</v>
+        <v>534</v>
       </c>
       <c r="F21" s="77" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="H21" s="94"/>
     </row>
-    <row r="22" spans="1:1024" s="67" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1024" s="67" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="67" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="H22" s="95"/>
       <c r="I22" s="69"/>
@@ -6050,94 +6031,94 @@
       <c r="O22" s="69"/>
       <c r="AMJ22" s="62"/>
     </row>
-    <row r="23" spans="1:1024" ht="72" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1024" ht="69" x14ac:dyDescent="0.25">
       <c r="A23" s="126"/>
       <c r="B23" s="71" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="71" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>378</v>
+        <v>546</v>
       </c>
       <c r="F23" s="71" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="H23" s="93"/>
     </row>
-    <row r="24" spans="1:1024" ht="146.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1024" ht="146.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="126"/>
       <c r="B24" s="71" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="71" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>382</v>
+        <v>548</v>
       </c>
       <c r="F24" s="71" t="s">
-        <v>383</v>
+        <v>542</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="H24" s="93"/>
     </row>
-    <row r="25" spans="1:1024" ht="90" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1024" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A25" s="126"/>
       <c r="B25" s="71" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="71" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>386</v>
+        <v>541</v>
       </c>
       <c r="F25" s="71" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="H25" s="93"/>
     </row>
-    <row r="26" spans="1:1024" s="69" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1024" s="69" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="69" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="H26" s="96"/>
       <c r="AMJ26" s="62"/>
     </row>
-    <row r="27" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A27" s="76"/>
       <c r="B27" s="77" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="77" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="E27" s="27"/>
       <c r="F27" s="77" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="H27" s="94"/>
     </row>
-    <row r="28" spans="1:1024" s="67" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1024" s="67" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="67" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="H28" s="95"/>
       <c r="I28" s="69"/>
@@ -6149,109 +6130,109 @@
       <c r="O28" s="69"/>
       <c r="AMJ28" s="62"/>
     </row>
-    <row r="29" spans="1:1024" ht="72" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1024" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A29" s="78"/>
       <c r="B29" s="71" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="71" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>394</v>
+        <v>539</v>
       </c>
       <c r="F29" s="71" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H29" s="93"/>
     </row>
-    <row r="30" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A30" s="78"/>
       <c r="B30" s="71" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="71" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>396</v>
+        <v>538</v>
       </c>
       <c r="F30" s="71" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H30" s="93"/>
     </row>
-    <row r="31" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A31" s="78"/>
       <c r="B31" s="71" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="71" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>398</v>
+        <v>536</v>
       </c>
       <c r="F31" s="71" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H31" s="93"/>
     </row>
-    <row r="32" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A32" s="78"/>
       <c r="B32" s="71" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="71" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>400</v>
+        <v>535</v>
       </c>
       <c r="F32" s="71" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H32" s="93"/>
     </row>
-    <row r="33" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A33" s="78"/>
       <c r="B33" s="71" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="71" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>402</v>
+        <v>537</v>
       </c>
       <c r="F33" s="71" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H33" s="93"/>
     </row>
-    <row r="34" spans="1:1024" s="69" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1024" s="69" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="123" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="B34" s="123"/>
       <c r="C34" s="123"/>
@@ -6262,41 +6243,41 @@
       <c r="H34" s="123"/>
       <c r="AMJ34" s="62"/>
     </row>
-    <row r="35" spans="1:1024" ht="89.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1024" ht="89.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="125"/>
       <c r="B35" s="77" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="77" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>405</v>
+        <v>540</v>
       </c>
       <c r="F35" s="77" t="s">
-        <v>406</v>
+        <v>549</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H35" s="94"/>
     </row>
-    <row r="36" spans="1:1024" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1024" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="125"/>
       <c r="B36" s="77" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="77" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E36" s="27"/>
       <c r="F36" s="77" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H36" s="94"/>
     </row>
@@ -6329,23 +6310,23 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="62" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="62" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="62" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" style="62" customWidth="1"/>
-    <col min="5" max="5" width="43.83203125" style="62" customWidth="1"/>
-    <col min="6" max="6" width="77.33203125" style="62" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="62" customWidth="1"/>
-    <col min="8" max="8" width="22.5" style="62" customWidth="1"/>
-    <col min="9" max="67" width="10.5" style="62" customWidth="1"/>
-    <col min="68" max="1024" width="9.1640625" style="62"/>
+    <col min="1" max="1" width="11.28515625" style="62" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="62" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" style="62" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="62" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" style="62" customWidth="1"/>
+    <col min="6" max="6" width="77.28515625" style="62" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="62" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" style="62" customWidth="1"/>
+    <col min="9" max="67" width="10.42578125" style="62" customWidth="1"/>
+    <col min="68" max="1024" width="9.140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1024" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="127" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="B1" s="127"/>
       <c r="C1" s="127"/>
@@ -6355,7 +6336,7 @@
       <c r="G1" s="127"/>
       <c r="H1" s="127"/>
     </row>
-    <row r="2" spans="1:1024" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1024" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
@@ -6369,10 +6350,10 @@
         <v>4</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="F2" s="64" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G2" s="64" t="s">
         <v>7</v>
@@ -6381,7 +6362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1024" s="97" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1024" s="97" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H3" s="98"/>
       <c r="I3" s="99"/>
       <c r="J3" s="99"/>
@@ -6399,290 +6380,290 @@
       <c r="V3" s="99"/>
       <c r="AMJ3" s="62"/>
     </row>
-    <row r="4" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A4" s="128"/>
       <c r="B4" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E4" s="90" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="G4" s="84" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A5" s="128"/>
       <c r="B5" s="9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="11" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E5" s="90" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G5" s="84" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="128"/>
       <c r="B6" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E6" s="90">
         <v>21</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="G6" s="84"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A7" s="128"/>
       <c r="B7" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E7" s="90" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G7" s="84" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A8" s="128"/>
       <c r="B8" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E8" s="90" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>413</v>
+        <v>385</v>
       </c>
       <c r="G8" s="84" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="128"/>
       <c r="B9" s="9" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E9" s="90" t="s">
-        <v>414</v>
+        <v>386</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G9" s="84" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" s="128"/>
       <c r="B10" s="9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="11" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E10" s="90" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="G10" s="84"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A11" s="128"/>
       <c r="B11" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E11" s="90" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A12" s="128"/>
       <c r="B12" s="9" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E12" s="90" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="G12" s="84"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" s="128"/>
       <c r="B13" s="9" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="11" t="s">
-        <v>421</v>
+        <v>393</v>
       </c>
       <c r="E13" s="90" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G13" s="84"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:1024" ht="72" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1024" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A14" s="128"/>
       <c r="B14" s="9" t="s">
-        <v>422</v>
+        <v>394</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>423</v>
+        <v>395</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="G14" s="84"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" s="128"/>
       <c r="B15" s="9" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>426</v>
+        <v>398</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>427</v>
+        <v>399</v>
       </c>
       <c r="G15" s="84"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A16" s="128"/>
       <c r="B16" s="9" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="11" t="s">
-        <v>429</v>
+        <v>401</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="G16" s="84"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A17" s="128"/>
       <c r="B17" s="9" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E17" s="9">
         <v>12</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>433</v>
+        <v>405</v>
       </c>
       <c r="G17" s="84"/>
       <c r="H17" s="84"/>
     </row>
-    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A18" s="128"/>
       <c r="B18" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G18" s="84"/>
       <c r="H18" s="84"/>
     </row>
-    <row r="20" spans="1:8" ht="23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="F20" s="100"/>
     </row>
-    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D28" s="76"/>
     </row>
   </sheetData>
@@ -6703,32 +6684,32 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" customWidth="1"/>
-    <col min="6" max="6" width="65.83203125" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" customWidth="1"/>
+    <col min="6" max="6" width="65.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
     <col min="8" max="8" width="28" customWidth="1"/>
-    <col min="9" max="62" width="10.5" customWidth="1"/>
+    <col min="9" max="62" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="118" t="s">
-        <v>277</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-    </row>
-    <row r="2" spans="1:17" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="111" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+    </row>
+    <row r="2" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -6742,10 +6723,10 @@
         <v>4</v>
       </c>
       <c r="E2" s="79" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F2" s="80" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G2" s="79" t="s">
         <v>7</v>
@@ -6754,7 +6735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" s="24" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -6764,23 +6745,23 @@
       <c r="G3" s="14"/>
       <c r="H3" s="82"/>
     </row>
-    <row r="4" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A4" s="129"/>
       <c r="B4" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="71" t="s">
+        <v>275</v>
+      </c>
+      <c r="E4" s="83" t="s">
+        <v>276</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>277</v>
+      </c>
+      <c r="G4" s="84" t="s">
         <v>278</v>
-      </c>
-      <c r="E4" s="83" t="s">
-        <v>279</v>
-      </c>
-      <c r="F4" s="71" t="s">
-        <v>280</v>
-      </c>
-      <c r="G4" s="84" t="s">
-        <v>281</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="24"/>
@@ -6793,23 +6774,23 @@
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
     </row>
-    <row r="5" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="129"/>
       <c r="B5" s="9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="71" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G5" s="84" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="24"/>
@@ -6822,20 +6803,20 @@
       <c r="P5" s="24"/>
       <c r="Q5" s="24"/>
     </row>
-    <row r="6" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="129"/>
       <c r="B6" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="71" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E6" s="83" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="11"/>
@@ -6849,23 +6830,23 @@
       <c r="P6" s="24"/>
       <c r="Q6" s="24"/>
     </row>
-    <row r="7" spans="1:17" ht="36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A7" s="129"/>
       <c r="B7" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="71" t="s">
+        <v>275</v>
+      </c>
+      <c r="E7" s="83" t="s">
+        <v>286</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="G7" s="84" t="s">
         <v>278</v>
-      </c>
-      <c r="E7" s="83" t="s">
-        <v>289</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="G7" s="84" t="s">
-        <v>281</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="24"/>
@@ -6878,23 +6859,23 @@
       <c r="P7" s="24"/>
       <c r="Q7" s="24"/>
     </row>
-    <row r="8" spans="1:17" ht="36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A8" s="129"/>
       <c r="B8" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="71" t="s">
+        <v>275</v>
+      </c>
+      <c r="E8" s="83" t="s">
+        <v>289</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="G8" s="84" t="s">
         <v>278</v>
-      </c>
-      <c r="E8" s="83" t="s">
-        <v>292</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="G8" s="84" t="s">
-        <v>281</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="24"/>
@@ -6907,23 +6888,23 @@
       <c r="P8" s="24"/>
       <c r="Q8" s="24"/>
     </row>
-    <row r="9" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A9" s="129"/>
       <c r="B9" s="9" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="71" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E9" s="86" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G9" s="84" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H9" s="87"/>
       <c r="I9" s="24"/>
@@ -6936,20 +6917,20 @@
       <c r="P9" s="24"/>
       <c r="Q9" s="24"/>
     </row>
-    <row r="10" spans="1:17" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="129"/>
       <c r="B10" s="9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="71" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E10" s="83" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="11"/>
@@ -6963,20 +6944,20 @@
       <c r="P10" s="24"/>
       <c r="Q10" s="24"/>
     </row>
-    <row r="11" spans="1:17" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="129"/>
       <c r="B11" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="71" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E11" s="83" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="11"/>
@@ -6990,20 +6971,20 @@
       <c r="P11" s="24"/>
       <c r="Q11" s="24"/>
     </row>
-    <row r="12" spans="1:17" s="89" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" s="89" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A12" s="129"/>
       <c r="B12" s="9" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="71" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E12" s="83" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="11"/>
@@ -7017,20 +6998,20 @@
       <c r="P12" s="24"/>
       <c r="Q12" s="24"/>
     </row>
-    <row r="13" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="129"/>
       <c r="B13" s="9" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="71" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E13" s="83" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="11"/>
@@ -7044,20 +7025,20 @@
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>
     </row>
-    <row r="14" spans="1:17" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="37.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="129"/>
       <c r="B14" s="9" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="71" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E14" s="83" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="11"/>
@@ -7071,20 +7052,20 @@
       <c r="P14" s="24"/>
       <c r="Q14" s="24"/>
     </row>
-    <row r="15" spans="1:17" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="129"/>
       <c r="B15" s="9" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="71" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E15" s="83" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="11"/>
@@ -7098,20 +7079,20 @@
       <c r="P15" s="24"/>
       <c r="Q15" s="24"/>
     </row>
-    <row r="16" spans="1:17" ht="72" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="86.25" x14ac:dyDescent="0.3">
       <c r="A16" s="129"/>
       <c r="B16" s="9" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="71" t="s">
-        <v>536</v>
+        <v>505</v>
       </c>
       <c r="E16" s="83" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="11"/>
@@ -7125,20 +7106,20 @@
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
     </row>
-    <row r="17" spans="1:17" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="129"/>
       <c r="B17" s="9" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E17" s="90" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -7152,20 +7133,20 @@
       <c r="P17" s="24"/>
       <c r="Q17" s="24"/>
     </row>
-    <row r="18" spans="1:17" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="129"/>
       <c r="B18" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="90" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -7179,7 +7160,7 @@
       <c r="P18" s="24"/>
       <c r="Q18" s="24"/>
     </row>
-    <row r="22" spans="1:17" ht="23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="25.5" x14ac:dyDescent="0.5">
       <c r="F22" s="91"/>
     </row>
   </sheetData>
@@ -7196,26 +7177,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="101" customWidth="1"/>
-    <col min="2" max="2" width="26.5" style="101" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="102" customWidth="1"/>
-    <col min="4" max="4" width="40.1640625" style="102" customWidth="1"/>
-    <col min="5" max="5" width="30.5" style="102" customWidth="1"/>
-    <col min="6" max="6" width="46.1640625" style="102" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" style="101" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="101" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="102" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" style="102" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" style="102" customWidth="1"/>
+    <col min="6" max="6" width="46.140625" style="102" customWidth="1"/>
     <col min="7" max="7" width="19" style="102" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="1024" max="1024" width="9.1640625" customWidth="1"/>
+    <col min="1024" max="1024" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="44.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="44.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="127" t="s">
-        <v>537</v>
+        <v>506</v>
       </c>
       <c r="B1" s="127"/>
       <c r="C1" s="127"/>
@@ -7225,7 +7206,7 @@
       <c r="G1" s="127"/>
       <c r="H1" s="127"/>
     </row>
-    <row r="2" spans="1:20" ht="17.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -7233,7 +7214,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>4</v>
@@ -7242,16 +7223,16 @@
         <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="103" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" s="103" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="103" t="s">
         <v>6</v>
       </c>
@@ -7269,25 +7250,25 @@
       <c r="S3" s="105"/>
       <c r="T3" s="105"/>
     </row>
-    <row r="4" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
       <c r="B4" s="71" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="71"/>
       <c r="D4" s="71" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E4" s="71"/>
       <c r="F4" s="71" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
       <c r="G4" s="71" t="s">
-        <v>438</v>
+        <v>278</v>
       </c>
       <c r="H4" s="71"/>
     </row>
-    <row r="5" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
       <c r="B5" s="71" t="s">
         <v>14</v>
@@ -7298,14 +7279,14 @@
       </c>
       <c r="E5" s="71"/>
       <c r="F5" s="71" t="s">
-        <v>439</v>
+        <v>411</v>
       </c>
       <c r="G5" s="71" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="H5" s="71"/>
     </row>
-    <row r="6" spans="1:20" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
       <c r="B6" s="71" t="s">
         <v>17</v>
@@ -7316,198 +7297,182 @@
       </c>
       <c r="E6" s="71"/>
       <c r="F6" s="71" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="G6" s="71" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="H6" s="71"/>
     </row>
-    <row r="7" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
       <c r="B7" s="71" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="71"/>
       <c r="D7" s="71" t="s">
-        <v>21</v>
+        <v>550</v>
       </c>
       <c r="E7" s="71"/>
       <c r="F7" s="71" t="s">
-        <v>441</v>
+        <v>413</v>
       </c>
       <c r="G7" s="71" t="s">
-        <v>438</v>
+        <v>278</v>
       </c>
       <c r="H7" s="71"/>
     </row>
-    <row r="8" spans="1:20" s="105" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" s="105" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="105" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H8" s="106"/>
     </row>
-    <row r="9" spans="1:20" ht="18.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="131"/>
       <c r="B9" s="77" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="77"/>
       <c r="D9" s="77" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="E9" s="77"/>
       <c r="F9" s="77" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="G9" s="107" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="H9" s="77"/>
     </row>
-    <row r="10" spans="1:20" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="131"/>
       <c r="B10" s="77" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="C10" s="77"/>
       <c r="D10" s="77" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="E10" s="77"/>
       <c r="F10" s="77"/>
-      <c r="G10" s="77" t="s">
-        <v>446</v>
-      </c>
+      <c r="G10" s="77"/>
       <c r="H10" s="77"/>
     </row>
-    <row r="11" spans="1:20" ht="40.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="40.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="131"/>
       <c r="B11" s="77"/>
       <c r="C11" s="77" t="s">
-        <v>447</v>
+        <v>418</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E11" s="77"/>
       <c r="F11" s="77" t="s">
-        <v>448</v>
-      </c>
-      <c r="G11" s="77" t="s">
-        <v>446</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="G11" s="77"/>
       <c r="H11" s="77"/>
     </row>
-    <row r="12" spans="1:20" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="131"/>
       <c r="B12" s="77"/>
       <c r="C12" s="77" t="s">
-        <v>449</v>
+        <v>420</v>
       </c>
       <c r="D12" s="77" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E12" s="77"/>
       <c r="F12" s="77" t="s">
-        <v>450</v>
-      </c>
-      <c r="G12" s="77" t="s">
-        <v>446</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="G12" s="77"/>
       <c r="H12" s="77"/>
     </row>
-    <row r="13" spans="1:20" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="131"/>
       <c r="B13" s="77"/>
       <c r="C13" s="77" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="D13" s="77" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E13" s="77"/>
       <c r="F13" s="77" t="s">
-        <v>452</v>
-      </c>
-      <c r="G13" s="77" t="s">
-        <v>446</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="G13" s="77"/>
       <c r="H13" s="77"/>
     </row>
-    <row r="14" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="131"/>
       <c r="B14" s="77"/>
       <c r="C14" s="77" t="s">
-        <v>453</v>
+        <v>424</v>
       </c>
       <c r="D14" s="77" t="s">
-        <v>454</v>
+        <v>425</v>
       </c>
       <c r="E14" s="77"/>
       <c r="F14" s="77" t="s">
-        <v>455</v>
-      </c>
-      <c r="G14" s="77" t="s">
-        <v>446</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="G14" s="77"/>
       <c r="H14" s="77"/>
     </row>
-    <row r="15" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" s="131"/>
       <c r="B15" s="77"/>
       <c r="C15" s="77" t="s">
-        <v>456</v>
+        <v>427</v>
       </c>
       <c r="D15" s="77" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="E15" s="77"/>
       <c r="F15" s="77" t="s">
-        <v>457</v>
-      </c>
-      <c r="G15" s="77" t="s">
-        <v>446</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="G15" s="77"/>
       <c r="H15" s="77"/>
     </row>
-    <row r="16" spans="1:20" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="131"/>
       <c r="B16" s="77" t="s">
-        <v>458</v>
+        <v>429</v>
       </c>
       <c r="C16" s="77"/>
       <c r="D16" s="77" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="E16" s="77"/>
       <c r="F16" s="77"/>
-      <c r="G16" s="77" t="s">
-        <v>459</v>
-      </c>
+      <c r="G16" s="77"/>
       <c r="H16" s="77"/>
     </row>
-    <row r="17" spans="1:19" ht="18.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="131"/>
       <c r="B17" s="77"/>
       <c r="C17" s="77" t="s">
-        <v>456</v>
+        <v>427</v>
       </c>
       <c r="D17" s="77" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="E17" s="77"/>
       <c r="F17" s="77" t="s">
-        <v>460</v>
-      </c>
-      <c r="G17" s="77" t="s">
-        <v>459</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="G17" s="77"/>
       <c r="H17" s="77"/>
     </row>
-    <row r="18" spans="1:19" s="103" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" s="103" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="103" t="s">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="H18" s="104"/>
       <c r="I18" s="105"/>
@@ -7522,66 +7487,66 @@
       <c r="R18" s="105"/>
       <c r="S18" s="105"/>
     </row>
-    <row r="19" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="132"/>
       <c r="B19" s="71" t="s">
-        <v>462</v>
+        <v>432</v>
       </c>
       <c r="C19" s="71"/>
       <c r="D19" s="71" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="71" t="s">
-        <v>463</v>
+        <v>433</v>
       </c>
       <c r="H19" s="71"/>
     </row>
-    <row r="20" spans="1:19" ht="41.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="132"/>
       <c r="B20" s="71"/>
       <c r="C20" s="71" t="s">
-        <v>464</v>
+        <v>434</v>
       </c>
       <c r="D20" s="71" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="E20" s="71"/>
       <c r="F20" s="71" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="G20" s="71"/>
       <c r="H20" s="71"/>
     </row>
-    <row r="21" spans="1:19" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="132"/>
       <c r="B21" s="71"/>
       <c r="C21" s="71" t="s">
-        <v>467</v>
+        <v>437</v>
       </c>
       <c r="D21" s="71" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="E21" s="71"/>
       <c r="F21" s="71" t="s">
-        <v>468</v>
+        <v>438</v>
       </c>
       <c r="G21" s="71"/>
       <c r="H21" s="71"/>
     </row>
-    <row r="22" spans="1:19" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="132"/>
       <c r="B22" s="71"/>
       <c r="C22" s="71" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="D22" s="71" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="E22" s="71"/>
       <c r="F22" s="71" t="s">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="G22" s="71"/>
       <c r="H22" s="71"/>
@@ -7610,22 +7575,22 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" style="62" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="62" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="62" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" style="62" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="62" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" style="62" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="62" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="62" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="62" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="62" customWidth="1"/>
     <col min="6" max="6" width="32" style="62" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="62" customWidth="1"/>
-    <col min="8" max="8" width="49.83203125" style="62" customWidth="1"/>
-    <col min="9" max="1024" width="9.1640625" style="62"/>
+    <col min="7" max="7" width="19.7109375" style="62" customWidth="1"/>
+    <col min="8" max="8" width="49.85546875" style="62" customWidth="1"/>
+    <col min="9" max="1024" width="9.140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1024" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="127" t="s">
-        <v>471</v>
+        <v>441</v>
       </c>
       <c r="B1" s="127"/>
       <c r="C1" s="127"/>
@@ -7635,7 +7600,7 @@
       <c r="G1" s="127"/>
       <c r="H1" s="127"/>
     </row>
-    <row r="2" spans="1:1024" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1024" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
         <v>1</v>
       </c>
@@ -7649,10 +7614,10 @@
         <v>4</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F2" s="65" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G2" s="64" t="s">
         <v>7</v>
@@ -7661,9 +7626,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
-        <v>472</v>
+        <v>442</v>
       </c>
       <c r="B3" s="78"/>
       <c r="C3" s="78"/>
@@ -7673,304 +7638,304 @@
       <c r="G3" s="78"/>
       <c r="H3" s="78"/>
     </row>
-    <row r="4" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A4" s="126"/>
       <c r="B4" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C4" s="71"/>
       <c r="D4" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="71" t="s">
-        <v>473</v>
+        <v>443</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="71"/>
     </row>
-    <row r="5" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5" s="126"/>
       <c r="B5" s="9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C5" s="71"/>
       <c r="D5" s="9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="71" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="71"/>
     </row>
-    <row r="6" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="126"/>
       <c r="B6" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C6" s="71"/>
       <c r="D6" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="71" t="s">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="126"/>
       <c r="B7" s="9" t="s">
-        <v>475</v>
+        <v>445</v>
       </c>
       <c r="C7" s="71"/>
       <c r="D7" s="9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="71" t="s">
-        <v>476</v>
+        <v>446</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="71"/>
     </row>
-    <row r="8" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A8" s="126"/>
       <c r="B8" s="9" t="s">
-        <v>477</v>
+        <v>447</v>
       </c>
       <c r="C8" s="71"/>
       <c r="D8" s="9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="71" t="s">
-        <v>478</v>
+        <v>448</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="71"/>
     </row>
-    <row r="9" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="126"/>
       <c r="B9" s="9" t="s">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="C9" s="71"/>
       <c r="D9" s="9" t="s">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="71" t="s">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="71"/>
     </row>
-    <row r="10" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A10" s="126"/>
       <c r="B10" s="9" t="s">
-        <v>481</v>
+        <v>451</v>
       </c>
       <c r="C10" s="71"/>
       <c r="D10" s="9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="71" t="s">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="71"/>
     </row>
-    <row r="11" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A11" s="126"/>
       <c r="B11" s="9" t="s">
-        <v>483</v>
+        <v>453</v>
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="9" t="s">
-        <v>483</v>
+        <v>453</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="71" t="s">
-        <v>484</v>
+        <v>454</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="71"/>
     </row>
-    <row r="12" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A12" s="126"/>
       <c r="B12" s="9" t="s">
-        <v>485</v>
+        <v>455</v>
       </c>
       <c r="C12" s="71"/>
       <c r="D12" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="71" t="s">
-        <v>486</v>
+        <v>456</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="71"/>
     </row>
-    <row r="13" spans="1:1024" s="109" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1024" s="109" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="109" t="s">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="AMJ13" s="62"/>
     </row>
-    <row r="14" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A14" s="125"/>
       <c r="B14" s="27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="27" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="27" t="s">
-        <v>488</v>
+        <v>458</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
     </row>
-    <row r="15" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" s="125"/>
       <c r="B15" s="27" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="27" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="27" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
     </row>
-    <row r="16" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A16" s="125"/>
       <c r="B16" s="27" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="27" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="27" t="s">
-        <v>489</v>
+        <v>459</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A17" s="125"/>
       <c r="B17" s="27" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="27" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="27" t="s">
-        <v>490</v>
+        <v>460</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
     </row>
-    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" s="125"/>
       <c r="B18" s="27" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="27" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E18" s="27"/>
       <c r="F18" s="27" t="s">
-        <v>491</v>
+        <v>461</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
     </row>
-    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A19" s="125"/>
       <c r="B19" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="27" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E19" s="27"/>
       <c r="F19" s="27" t="s">
-        <v>492</v>
+        <v>462</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
     </row>
-    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A20" s="125"/>
       <c r="B20" s="27" t="s">
-        <v>493</v>
+        <v>463</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="27" t="s">
-        <v>483</v>
+        <v>453</v>
       </c>
       <c r="E20" s="27"/>
       <c r="F20" s="27" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
     </row>
-    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A21" s="125"/>
       <c r="B21" s="27" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="27" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="E21" s="27"/>
       <c r="F21" s="27" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
     </row>
-    <row r="22" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A22" s="125"/>
       <c r="B22" s="27" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="27" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E22" s="27"/>
       <c r="F22" s="27" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
     </row>
-    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A23" s="125"/>
       <c r="B23" s="27" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="27" t="s">
@@ -7978,15 +7943,15 @@
       </c>
       <c r="E23" s="27"/>
       <c r="F23" s="27" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
     </row>
-    <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A24" s="125"/>
       <c r="B24" s="27" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="27" t="s">
@@ -7994,14 +7959,14 @@
       </c>
       <c r="E24" s="27"/>
       <c r="F24" s="27" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
     </row>
-    <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A25" s="108" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
       <c r="B25" s="78"/>
       <c r="C25" s="78"/>
@@ -8011,360 +7976,360 @@
       <c r="G25" s="78"/>
       <c r="H25" s="78"/>
     </row>
-    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A26" s="126"/>
       <c r="B26" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A27" s="126"/>
       <c r="B27" s="9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A28" s="126"/>
       <c r="B28" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9" t="s">
-        <v>503</v>
+        <v>473</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A29" s="126"/>
       <c r="B29" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9" t="s">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A30" s="126"/>
       <c r="B30" s="9" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A31" s="126"/>
       <c r="B31" s="9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A32" s="126"/>
       <c r="B32" s="9" t="s">
-        <v>483</v>
+        <v>453</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9" t="s">
-        <v>483</v>
+        <v>453</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A33" s="126"/>
       <c r="B33" s="9" t="s">
-        <v>509</v>
+        <v>479</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9" t="s">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="126"/>
       <c r="B34" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A35" s="126"/>
       <c r="B35" s="9" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A36" s="126"/>
       <c r="B36" s="9" t="s">
-        <v>514</v>
+        <v>484</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9" t="s">
-        <v>515</v>
+        <v>485</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:1024" s="109" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1024" s="109" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="109" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AMJ37" s="62"/>
     </row>
-    <row r="38" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A38" s="125"/>
       <c r="B38" s="27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C38" s="27"/>
       <c r="D38" s="27" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E38" s="27"/>
       <c r="F38" s="27" t="s">
-        <v>516</v>
+        <v>486</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
     </row>
-    <row r="39" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A39" s="125"/>
       <c r="B39" s="27" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C39" s="27"/>
       <c r="D39" s="27" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E39" s="27"/>
       <c r="F39" s="27" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
     </row>
-    <row r="40" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A40" s="125"/>
       <c r="B40" s="27" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C40" s="27"/>
       <c r="D40" s="27" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E40" s="27"/>
       <c r="F40" s="27" t="s">
-        <v>517</v>
+        <v>487</v>
       </c>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
     </row>
-    <row r="41" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A41" s="125"/>
       <c r="B41" s="27" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C41" s="27"/>
       <c r="D41" s="27" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E41" s="27"/>
       <c r="F41" s="27" t="s">
-        <v>518</v>
+        <v>488</v>
       </c>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
     </row>
-    <row r="42" spans="1:1024" ht="36" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A42" s="125"/>
       <c r="B42" s="27" t="s">
-        <v>519</v>
+        <v>489</v>
       </c>
       <c r="C42" s="27"/>
       <c r="D42" s="27" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E42" s="27"/>
       <c r="F42" s="27" t="s">
-        <v>520</v>
+        <v>490</v>
       </c>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
     </row>
-    <row r="43" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A43" s="125"/>
       <c r="B43" s="27" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
       <c r="C43" s="27"/>
       <c r="D43" s="27" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E43" s="27"/>
       <c r="F43" s="27" t="s">
-        <v>521</v>
+        <v>491</v>
       </c>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
     </row>
-    <row r="44" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A44" s="125"/>
       <c r="B44" s="27" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C44" s="27"/>
       <c r="D44" s="27" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E44" s="27"/>
       <c r="F44" s="27" t="s">
-        <v>522</v>
+        <v>492</v>
       </c>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
     </row>
-    <row r="45" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A45" s="125"/>
       <c r="B45" s="27" t="s">
-        <v>483</v>
+        <v>453</v>
       </c>
       <c r="C45" s="27"/>
       <c r="D45" s="27" t="s">
-        <v>483</v>
+        <v>453</v>
       </c>
       <c r="E45" s="27"/>
       <c r="F45" s="27" t="s">
-        <v>523</v>
+        <v>493</v>
       </c>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
     </row>
-    <row r="46" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A46" s="125"/>
       <c r="B46" s="27" t="s">
-        <v>524</v>
+        <v>494</v>
       </c>
       <c r="C46" s="27"/>
       <c r="D46" s="27" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E46" s="27"/>
       <c r="F46" s="27" t="s">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
     </row>
-    <row r="47" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1024" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A47" s="125"/>
       <c r="B47" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="27"/>
       <c r="D47" s="27" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E47" s="27"/>
       <c r="F47" s="27" t="s">
-        <v>525</v>
+        <v>495</v>
       </c>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
     </row>
-    <row r="48" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1024" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A48" s="125"/>
       <c r="B48" s="27" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="C48" s="27"/>
       <c r="D48" s="27" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E48" s="27"/>
       <c r="F48" s="27" t="s">
-        <v>526</v>
+        <v>496</v>
       </c>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deslauj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deslauj/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A28E42-F825-40D4-AA4C-53CE3ED4B8E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D26D19-9A06-4A45-A0CE-D38021DEB90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Microservice" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="538">
   <si>
     <t>Concept</t>
   </si>
@@ -683,9 +683,6 @@
   </si>
   <si>
     <t>a list of Microservice Asset IDs, which are contained in the algorithm</t>
-  </si>
-  <si>
-    <t>an abstract definition of which microservice shall run on which host, to indicate which Microservices may need to run on the same host</t>
   </si>
   <si>
     <t>ID</t>
@@ -1474,13 +1471,7 @@
     <t>deploymentMapping</t>
   </si>
   <si>
-    <t>volumeMapping</t>
-  </si>
-  <si>
     <t>Map( String: String)</t>
-  </si>
-  <si>
-    <t>Map( String: List(String))</t>
   </si>
   <si>
     <t>{microserviceA:hostB, microserviceB:hostB, microserviceC:hostC}</t>
@@ -1532,9 +1523,6 @@
   </si>
   <si>
     <t>Name of the model file (if necessary) for example when MODEL_URI points to a repository and not a single file</t>
-  </si>
-  <si>
-    <t>{microserviceA: [microserviceA, microserviceB], microserviceB:[], microserviceC:[]}</t>
   </si>
   <si>
     <t>See https://github.com/UoW-CPC/ADTGenerator/blob/main/examples/metadata_microservice.json#L30</t>
@@ -1749,6 +1737,9 @@
   </si>
   <si>
     <t>Definition</t>
+  </si>
+  <si>
+    <t>a mapping specifying which microservice should run on which host. By default each microservice is assigned a respective host, but this behaviour is not always ideal (eg. when two or more Microservices may need to run on the same host)</t>
   </si>
 </sst>
 </file>
@@ -2259,7 +2250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="260">
+  <cellXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2630,14 +2621,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3085,134 +3068,6 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
@@ -3247,6 +3102,130 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -4090,32 +4069,32 @@
       <selection pane="bottomRight" activeCell="A105" sqref="A105:XFD105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="2" customWidth="1"/>
     <col min="9" max="1024" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="1025" max="16384" width="9.140625" hidden="1"/>
+    <col min="1025" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="219" t="s">
-        <v>521</v>
-      </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="220"/>
+    <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="238" t="s">
+        <v>517</v>
+      </c>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="239"/>
     </row>
-    <row r="2" spans="1:1024" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1024" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -4141,8 +4120,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1024" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="223" t="s">
+    <row r="3" spans="1:1024" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="240" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="27"/>
@@ -4150,11 +4129,11 @@
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
-      <c r="G3" s="184"/>
+      <c r="G3" s="182"/>
       <c r="H3" s="28"/>
     </row>
-    <row r="4" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="224"/>
+    <row r="4" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="241"/>
       <c r="B4" s="47" t="s">
         <v>8</v>
       </c>
@@ -4168,13 +4147,13 @@
       <c r="F4" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="185" t="s">
-        <v>534</v>
+      <c r="G4" s="183" t="s">
+        <v>530</v>
       </c>
       <c r="H4" s="50"/>
     </row>
-    <row r="5" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="224"/>
+    <row r="5" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="241"/>
       <c r="B5" s="47" t="s">
         <v>13</v>
       </c>
@@ -4188,13 +4167,13 @@
       <c r="F5" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="185" t="s">
+      <c r="G5" s="183" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="50"/>
     </row>
-    <row r="6" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="224"/>
+    <row r="6" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="241"/>
       <c r="B6" s="47" t="s">
         <v>16</v>
       </c>
@@ -4208,19 +4187,19 @@
       <c r="F6" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="185" t="s">
+      <c r="G6" s="183" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="50"/>
     </row>
-    <row r="7" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="224"/>
+    <row r="7" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="241"/>
       <c r="B7" s="47" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="47" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E7" s="49" t="s">
         <v>20</v>
@@ -4228,13 +4207,13 @@
       <c r="F7" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="185" t="s">
-        <v>534</v>
+      <c r="G7" s="183" t="s">
+        <v>530</v>
       </c>
       <c r="H7" s="50"/>
     </row>
-    <row r="8" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="224"/>
+    <row r="8" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="241"/>
       <c r="B8" s="47" t="s">
         <v>22</v>
       </c>
@@ -4248,13 +4227,13 @@
       <c r="F8" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="185" t="s">
+      <c r="G8" s="183" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="50"/>
     </row>
-    <row r="9" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="224"/>
+    <row r="9" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="241"/>
       <c r="B9" s="47" t="s">
         <v>25</v>
       </c>
@@ -4263,18 +4242,18 @@
         <v>9</v>
       </c>
       <c r="E9" s="49" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>495</v>
-      </c>
-      <c r="G9" s="185" t="s">
+        <v>491</v>
+      </c>
+      <c r="G9" s="183" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="50"/>
     </row>
-    <row r="10" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="224"/>
+    <row r="10" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="241"/>
       <c r="B10" s="47" t="s">
         <v>26</v>
       </c>
@@ -4288,13 +4267,13 @@
       <c r="F10" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="185" t="s">
+      <c r="G10" s="183" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="50"/>
     </row>
-    <row r="11" spans="1:1024" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="225"/>
+    <row r="11" spans="1:1024" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="242"/>
       <c r="B11" s="51" t="s">
         <v>30</v>
       </c>
@@ -4308,25 +4287,25 @@
       <c r="F11" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="186" t="s">
+      <c r="G11" s="184" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="54"/>
     </row>
-    <row r="12" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="226" t="s">
+    <row r="12" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="243" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="251"/>
-      <c r="C12" s="251"/>
-      <c r="D12" s="251"/>
-      <c r="E12" s="252"/>
-      <c r="F12" s="251"/>
-      <c r="G12" s="253"/>
-      <c r="H12" s="254"/>
+      <c r="B12" s="217"/>
+      <c r="C12" s="217"/>
+      <c r="D12" s="217"/>
+      <c r="E12" s="218"/>
+      <c r="F12" s="217"/>
+      <c r="G12" s="219"/>
+      <c r="H12" s="220"/>
     </row>
-    <row r="13" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="227"/>
+    <row r="13" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="244"/>
       <c r="B13" s="55" t="s">
         <v>35</v>
       </c>
@@ -4335,52 +4314,52 @@
         <v>36</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F13" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="190" t="s">
+      <c r="G13" s="188" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="58"/>
     </row>
-    <row r="14" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="227"/>
+    <row r="14" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="244"/>
       <c r="B14" s="55" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="56"/>
       <c r="D14" s="55" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F14" s="55" t="s">
-        <v>476</v>
-      </c>
-      <c r="G14" s="190" t="s">
+        <v>473</v>
+      </c>
+      <c r="G14" s="188" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="58"/>
     </row>
-    <row r="15" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="227"/>
+    <row r="15" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="244"/>
       <c r="B15" s="55" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C15" s="56"/>
       <c r="D15" s="55" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F15" s="55" t="s">
-        <v>486</v>
-      </c>
-      <c r="G15" s="190" t="s">
+        <v>483</v>
+      </c>
+      <c r="G15" s="188" t="s">
         <v>43</v>
       </c>
       <c r="H15" s="58"/>
@@ -5401,22 +5380,22 @@
       <c r="AMI15" s="4"/>
       <c r="AMJ15" s="4"/>
     </row>
-    <row r="16" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="227"/>
+    <row r="16" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="244"/>
       <c r="B16" s="55" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C16" s="56"/>
       <c r="D16" s="55" t="s">
+        <v>477</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>478</v>
+      </c>
+      <c r="F16" s="55" t="s">
         <v>480</v>
       </c>
-      <c r="E16" s="57" t="s">
-        <v>481</v>
-      </c>
-      <c r="F16" s="55" t="s">
-        <v>483</v>
-      </c>
-      <c r="G16" s="190" t="s">
+      <c r="G16" s="188" t="s">
         <v>43</v>
       </c>
       <c r="H16" s="58"/>
@@ -6437,25 +6416,25 @@
       <c r="AMI16" s="4"/>
       <c r="AMJ16" s="4"/>
     </row>
-    <row r="17" spans="1:1024" s="10" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="228"/>
-      <c r="B17" s="255" t="s">
+    <row r="17" spans="1:1024" s="10" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="245"/>
+      <c r="B17" s="221" t="s">
+        <v>476</v>
+      </c>
+      <c r="C17" s="222"/>
+      <c r="D17" s="221" t="s">
+        <v>477</v>
+      </c>
+      <c r="E17" s="223" t="s">
         <v>479</v>
       </c>
-      <c r="C17" s="256"/>
-      <c r="D17" s="255" t="s">
-        <v>480</v>
-      </c>
-      <c r="E17" s="257" t="s">
-        <v>482</v>
-      </c>
-      <c r="F17" s="255" t="s">
-        <v>484</v>
-      </c>
-      <c r="G17" s="258" t="s">
+      <c r="F17" s="221" t="s">
+        <v>481</v>
+      </c>
+      <c r="G17" s="224" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="259"/>
+      <c r="H17" s="225"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -7473,8 +7452,8 @@
       <c r="AMI17" s="4"/>
       <c r="AMJ17" s="4"/>
     </row>
-    <row r="18" spans="1:1024" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="230" t="s">
+    <row r="18" spans="1:1024" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="236" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="59"/>
@@ -7482,11 +7461,11 @@
       <c r="D18" s="59"/>
       <c r="E18" s="60"/>
       <c r="F18" s="59"/>
-      <c r="G18" s="191"/>
+      <c r="G18" s="189"/>
       <c r="H18" s="61"/>
     </row>
-    <row r="19" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="230"/>
+    <row r="19" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="236"/>
       <c r="B19" s="47" t="s">
         <v>40</v>
       </c>
@@ -7500,13 +7479,13 @@
       <c r="F19" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="185" t="s">
+      <c r="G19" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H19" s="50"/>
     </row>
-    <row r="20" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="230"/>
+    <row r="20" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="236"/>
       <c r="B20" s="47" t="s">
         <v>44</v>
       </c>
@@ -7520,13 +7499,13 @@
       <c r="F20" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="185" t="s">
+      <c r="G20" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H20" s="50"/>
     </row>
-    <row r="21" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="230"/>
+    <row r="21" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="236"/>
       <c r="B21" s="47" t="s">
         <v>46</v>
       </c>
@@ -7540,13 +7519,13 @@
       <c r="F21" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="185" t="s">
+      <c r="G21" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H21" s="50"/>
     </row>
-    <row r="22" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="230"/>
+    <row r="22" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="236"/>
       <c r="B22" s="47" t="s">
         <v>48</v>
       </c>
@@ -7560,13 +7539,13 @@
       <c r="F22" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="185" t="s">
+      <c r="G22" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H22" s="50"/>
     </row>
-    <row r="23" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="230"/>
+    <row r="23" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="236"/>
       <c r="B23" s="47" t="s">
         <v>50</v>
       </c>
@@ -7580,13 +7559,13 @@
       <c r="F23" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="185" t="s">
+      <c r="G23" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H23" s="50"/>
     </row>
-    <row r="24" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="230"/>
+    <row r="24" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="236"/>
       <c r="B24" s="47" t="s">
         <v>53</v>
       </c>
@@ -7600,13 +7579,13 @@
       <c r="F24" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="185" t="s">
+      <c r="G24" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H24" s="50"/>
     </row>
-    <row r="25" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
-      <c r="A25" s="230"/>
+    <row r="25" spans="1:1024" ht="68" x14ac:dyDescent="0.2">
+      <c r="A25" s="236"/>
       <c r="B25" s="47" t="s">
         <v>57</v>
       </c>
@@ -7620,13 +7599,13 @@
       <c r="F25" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="G25" s="185" t="s">
+      <c r="G25" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H25" s="50"/>
     </row>
-    <row r="26" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="230"/>
+    <row r="26" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="236"/>
       <c r="B26" s="47" t="s">
         <v>61</v>
       </c>
@@ -7640,13 +7619,13 @@
       <c r="F26" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="185" t="s">
+      <c r="G26" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H26" s="50"/>
     </row>
-    <row r="27" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="230"/>
+    <row r="27" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="236"/>
       <c r="B27" s="47" t="s">
         <v>63</v>
       </c>
@@ -7660,13 +7639,13 @@
       <c r="F27" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="185" t="s">
+      <c r="G27" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H27" s="50"/>
     </row>
-    <row r="28" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="230"/>
+    <row r="28" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="236"/>
       <c r="B28" s="47" t="s">
         <v>65</v>
       </c>
@@ -7680,13 +7659,13 @@
       <c r="F28" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="185" t="s">
+      <c r="G28" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H28" s="50"/>
     </row>
-    <row r="29" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="230"/>
+    <row r="29" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="236"/>
       <c r="B29" s="47" t="s">
         <v>67</v>
       </c>
@@ -7700,13 +7679,13 @@
       <c r="F29" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="185" t="s">
+      <c r="G29" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H29" s="50"/>
     </row>
-    <row r="30" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="231"/>
+    <row r="30" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="237"/>
       <c r="B30" s="51" t="s">
         <v>69</v>
       </c>
@@ -7720,12 +7699,12 @@
       <c r="F30" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="186" t="s">
+      <c r="G30" s="184" t="s">
         <v>43</v>
       </c>
       <c r="H30" s="54"/>
     </row>
-    <row r="31" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="232" t="s">
         <v>72</v>
       </c>
@@ -7734,10 +7713,10 @@
       <c r="D31" s="62"/>
       <c r="E31" s="63"/>
       <c r="F31" s="62"/>
-      <c r="G31" s="192"/>
+      <c r="G31" s="190"/>
       <c r="H31" s="64"/>
     </row>
-    <row r="32" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="233"/>
       <c r="B32" s="65" t="s">
         <v>73</v>
@@ -7752,12 +7731,12 @@
       <c r="F32" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="G32" s="193" t="s">
+      <c r="G32" s="191" t="s">
         <v>12</v>
       </c>
       <c r="H32" s="68"/>
     </row>
-    <row r="33" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="233"/>
       <c r="B33" s="69" t="s">
         <v>76</v>
@@ -7772,12 +7751,12 @@
       <c r="F33" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="G33" s="188" t="s">
+      <c r="G33" s="186" t="s">
         <v>43</v>
       </c>
       <c r="H33" s="72"/>
     </row>
-    <row r="34" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="233"/>
       <c r="B34" s="69" t="s">
         <v>79</v>
@@ -7792,12 +7771,12 @@
       <c r="F34" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="G34" s="188" t="s">
+      <c r="G34" s="186" t="s">
         <v>43</v>
       </c>
       <c r="H34" s="72"/>
     </row>
-    <row r="35" spans="1:1024" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1024" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="234"/>
       <c r="B35" s="73" t="s">
         <v>82</v>
@@ -7812,13 +7791,13 @@
       <c r="F35" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="G35" s="189" t="s">
+      <c r="G35" s="187" t="s">
         <v>43</v>
       </c>
       <c r="H35" s="76"/>
     </row>
-    <row r="36" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="229" t="s">
+    <row r="36" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="235" t="s">
         <v>85</v>
       </c>
       <c r="B36" s="59"/>
@@ -7826,11 +7805,11 @@
       <c r="D36" s="59"/>
       <c r="E36" s="60"/>
       <c r="F36" s="59"/>
-      <c r="G36" s="191"/>
+      <c r="G36" s="189"/>
       <c r="H36" s="61"/>
     </row>
-    <row r="37" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="230"/>
+    <row r="37" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" s="236"/>
       <c r="B37" s="47" t="s">
         <v>86</v>
       </c>
@@ -7844,7 +7823,7 @@
       <c r="F37" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="G37" s="185" t="s">
+      <c r="G37" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H37" s="50"/>
@@ -8865,9 +8844,9 @@
       <c r="AMI37" s="4"/>
       <c r="AMJ37" s="4"/>
     </row>
-    <row r="38" spans="1:1024" s="10" customFormat="1" ht="46.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="230"/>
-      <c r="B38" s="221" t="s">
+    <row r="38" spans="1:1024" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="236"/>
+      <c r="B38" s="226" t="s">
         <v>90</v>
       </c>
       <c r="C38" s="47" t="s">
@@ -8882,7 +8861,7 @@
       <c r="F38" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="G38" s="185" t="s">
+      <c r="G38" s="183" t="s">
         <v>12</v>
       </c>
       <c r="H38" s="50"/>
@@ -9903,9 +9882,9 @@
       <c r="AMI38" s="4"/>
       <c r="AMJ38" s="4"/>
     </row>
-    <row r="39" spans="1:1024" s="10" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A39" s="230"/>
-      <c r="B39" s="221"/>
+    <row r="39" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" s="236"/>
+      <c r="B39" s="226"/>
       <c r="C39" s="47" t="s">
         <v>94</v>
       </c>
@@ -9918,7 +9897,7 @@
       <c r="F39" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="G39" s="185" t="s">
+      <c r="G39" s="183" t="s">
         <v>12</v>
       </c>
       <c r="H39" s="50"/>
@@ -10939,9 +10918,9 @@
       <c r="AMI39" s="4"/>
       <c r="AMJ39" s="4"/>
     </row>
-    <row r="40" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="230"/>
-      <c r="B40" s="221"/>
+    <row r="40" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="236"/>
+      <c r="B40" s="226"/>
       <c r="C40" s="47" t="s">
         <v>98</v>
       </c>
@@ -10954,7 +10933,7 @@
       <c r="F40" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="G40" s="185" t="s">
+      <c r="G40" s="183" t="s">
         <v>12</v>
       </c>
       <c r="H40" s="50"/>
@@ -11975,9 +11954,9 @@
       <c r="AMI40" s="4"/>
       <c r="AMJ40" s="4"/>
     </row>
-    <row r="41" spans="1:1024" s="10" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="230"/>
-      <c r="B41" s="221"/>
+    <row r="41" spans="1:1024" s="10" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A41" s="236"/>
+      <c r="B41" s="226"/>
       <c r="C41" s="47" t="s">
         <v>102</v>
       </c>
@@ -11990,7 +11969,7 @@
       <c r="F41" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="G41" s="185" t="s">
+      <c r="G41" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H41" s="50"/>
@@ -13011,9 +12990,9 @@
       <c r="AMI41" s="4"/>
       <c r="AMJ41" s="4"/>
     </row>
-    <row r="42" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="230"/>
-      <c r="B42" s="221"/>
+    <row r="42" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="236"/>
+      <c r="B42" s="226"/>
       <c r="C42" s="47" t="s">
         <v>106</v>
       </c>
@@ -13026,7 +13005,7 @@
       <c r="F42" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="G42" s="185" t="s">
+      <c r="G42" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H42" s="50"/>
@@ -14047,9 +14026,9 @@
       <c r="AMI42" s="4"/>
       <c r="AMJ42" s="4"/>
     </row>
-    <row r="43" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="230"/>
-      <c r="B43" s="221"/>
+    <row r="43" spans="1:1024" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="236"/>
+      <c r="B43" s="226"/>
       <c r="C43" s="47" t="s">
         <v>110</v>
       </c>
@@ -14062,7 +14041,7 @@
       <c r="F43" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="G43" s="185" t="s">
+      <c r="G43" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H43" s="50"/>
@@ -15083,9 +15062,9 @@
       <c r="AMI43" s="4"/>
       <c r="AMJ43" s="4"/>
     </row>
-    <row r="44" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="230"/>
-      <c r="B44" s="221"/>
+    <row r="44" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="236"/>
+      <c r="B44" s="226"/>
       <c r="C44" s="47" t="s">
         <v>114</v>
       </c>
@@ -15098,7 +15077,7 @@
       <c r="F44" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="G44" s="185" t="s">
+      <c r="G44" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H44" s="50"/>
@@ -16119,9 +16098,9 @@
       <c r="AMI44" s="4"/>
       <c r="AMJ44" s="4"/>
     </row>
-    <row r="45" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="230"/>
-      <c r="B45" s="221"/>
+    <row r="45" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A45" s="236"/>
+      <c r="B45" s="226"/>
       <c r="C45" s="47" t="s">
         <v>118</v>
       </c>
@@ -16134,7 +16113,7 @@
       <c r="F45" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="G45" s="185" t="s">
+      <c r="G45" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H45" s="50"/>
@@ -17155,9 +17134,9 @@
       <c r="AMI45" s="4"/>
       <c r="AMJ45" s="4"/>
     </row>
-    <row r="46" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="230"/>
-      <c r="B46" s="221"/>
+    <row r="46" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A46" s="236"/>
+      <c r="B46" s="226"/>
       <c r="C46" s="47" t="s">
         <v>122</v>
       </c>
@@ -17170,7 +17149,7 @@
       <c r="F46" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="G46" s="185" t="s">
+      <c r="G46" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H46" s="50"/>
@@ -18191,9 +18170,9 @@
       <c r="AMI46" s="4"/>
       <c r="AMJ46" s="4"/>
     </row>
-    <row r="47" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="230"/>
-      <c r="B47" s="221"/>
+    <row r="47" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A47" s="236"/>
+      <c r="B47" s="226"/>
       <c r="C47" s="47" t="s">
         <v>126</v>
       </c>
@@ -18206,7 +18185,7 @@
       <c r="F47" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="G47" s="185" t="s">
+      <c r="G47" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H47" s="50"/>
@@ -19227,9 +19206,9 @@
       <c r="AMI47" s="4"/>
       <c r="AMJ47" s="4"/>
     </row>
-    <row r="48" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="230"/>
-      <c r="B48" s="221"/>
+    <row r="48" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A48" s="236"/>
+      <c r="B48" s="226"/>
       <c r="C48" s="47" t="s">
         <v>130</v>
       </c>
@@ -19242,7 +19221,7 @@
       <c r="F48" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="G48" s="185" t="s">
+      <c r="G48" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H48" s="50"/>
@@ -20263,9 +20242,9 @@
       <c r="AMI48" s="4"/>
       <c r="AMJ48" s="4"/>
     </row>
-    <row r="49" spans="1:1024" s="16" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="231"/>
-      <c r="B49" s="222"/>
+    <row r="49" spans="1:1024" s="16" customFormat="1" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="237"/>
+      <c r="B49" s="227"/>
       <c r="C49" s="51" t="s">
         <v>134</v>
       </c>
@@ -20276,9 +20255,9 @@
         <v>136</v>
       </c>
       <c r="F49" s="51" t="s">
-        <v>493</v>
-      </c>
-      <c r="G49" s="186" t="s">
+        <v>489</v>
+      </c>
+      <c r="G49" s="184" t="s">
         <v>43</v>
       </c>
       <c r="H49" s="54"/>
@@ -21299,7 +21278,7 @@
       <c r="AMI49" s="15"/>
       <c r="AMJ49" s="15"/>
     </row>
-    <row r="50" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="232" t="s">
         <v>137</v>
       </c>
@@ -21308,10 +21287,10 @@
       <c r="D50" s="77"/>
       <c r="E50" s="78"/>
       <c r="F50" s="77"/>
-      <c r="G50" s="194"/>
+      <c r="G50" s="192"/>
       <c r="H50" s="79"/>
     </row>
-    <row r="51" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="233"/>
       <c r="B51" s="80" t="s">
         <v>138</v>
@@ -21326,14 +21305,14 @@
       <c r="F51" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="G51" s="188" t="s">
+      <c r="G51" s="186" t="s">
         <v>43</v>
       </c>
       <c r="H51" s="83"/>
     </row>
-    <row r="52" spans="1:1024" ht="46.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1024" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="233"/>
-      <c r="B52" s="235" t="s">
+      <c r="B52" s="228" t="s">
         <v>90</v>
       </c>
       <c r="C52" s="84" t="s">
@@ -21348,14 +21327,14 @@
       <c r="F52" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="G52" s="188" t="s">
+      <c r="G52" s="186" t="s">
         <v>12</v>
       </c>
       <c r="H52" s="83"/>
     </row>
-    <row r="53" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="233"/>
-      <c r="B53" s="235"/>
+      <c r="B53" s="228"/>
       <c r="C53" s="80" t="s">
         <v>94</v>
       </c>
@@ -21368,14 +21347,14 @@
       <c r="F53" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="G53" s="188" t="s">
+      <c r="G53" s="186" t="s">
         <v>12</v>
       </c>
       <c r="H53" s="83"/>
     </row>
-    <row r="54" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="233"/>
-      <c r="B54" s="235"/>
+      <c r="B54" s="228"/>
       <c r="C54" s="80" t="s">
         <v>98</v>
       </c>
@@ -21388,14 +21367,14 @@
       <c r="F54" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="G54" s="188" t="s">
+      <c r="G54" s="186" t="s">
         <v>12</v>
       </c>
       <c r="H54" s="83"/>
     </row>
-    <row r="55" spans="1:1024" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1024" ht="85" x14ac:dyDescent="0.2">
       <c r="A55" s="233"/>
-      <c r="B55" s="235"/>
+      <c r="B55" s="228"/>
       <c r="C55" s="80" t="s">
         <v>102</v>
       </c>
@@ -21408,14 +21387,14 @@
       <c r="F55" s="80" t="s">
         <v>142</v>
       </c>
-      <c r="G55" s="188" t="s">
+      <c r="G55" s="186" t="s">
         <v>43</v>
       </c>
       <c r="H55" s="83"/>
     </row>
-    <row r="56" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="233"/>
-      <c r="B56" s="235"/>
+      <c r="B56" s="228"/>
       <c r="C56" s="80" t="s">
         <v>106</v>
       </c>
@@ -21428,14 +21407,14 @@
       <c r="F56" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="G56" s="188" t="s">
+      <c r="G56" s="186" t="s">
         <v>43</v>
       </c>
       <c r="H56" s="83"/>
     </row>
-    <row r="57" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="233"/>
-      <c r="B57" s="235"/>
+      <c r="B57" s="228"/>
       <c r="C57" s="80" t="s">
         <v>110</v>
       </c>
@@ -21448,14 +21427,14 @@
       <c r="F57" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="G57" s="188" t="s">
+      <c r="G57" s="186" t="s">
         <v>43</v>
       </c>
       <c r="H57" s="83"/>
     </row>
-    <row r="58" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="233"/>
-      <c r="B58" s="235"/>
+      <c r="B58" s="228"/>
       <c r="C58" s="80" t="s">
         <v>114</v>
       </c>
@@ -21468,14 +21447,14 @@
       <c r="F58" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="G58" s="188" t="s">
+      <c r="G58" s="186" t="s">
         <v>43</v>
       </c>
       <c r="H58" s="83"/>
     </row>
-    <row r="59" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
       <c r="A59" s="233"/>
-      <c r="B59" s="235"/>
+      <c r="B59" s="228"/>
       <c r="C59" s="80" t="s">
         <v>118</v>
       </c>
@@ -21488,14 +21467,14 @@
       <c r="F59" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="G59" s="188" t="s">
+      <c r="G59" s="186" t="s">
         <v>43</v>
       </c>
       <c r="H59" s="83"/>
     </row>
-    <row r="60" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="233"/>
-      <c r="B60" s="235"/>
+      <c r="B60" s="228"/>
       <c r="C60" s="80" t="s">
         <v>122</v>
       </c>
@@ -21508,14 +21487,14 @@
       <c r="F60" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="G60" s="188" t="s">
+      <c r="G60" s="186" t="s">
         <v>43</v>
       </c>
       <c r="H60" s="83"/>
     </row>
-    <row r="61" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="233"/>
-      <c r="B61" s="235"/>
+      <c r="B61" s="228"/>
       <c r="C61" s="80" t="s">
         <v>126</v>
       </c>
@@ -21528,14 +21507,14 @@
       <c r="F61" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="G61" s="188" t="s">
+      <c r="G61" s="186" t="s">
         <v>43</v>
       </c>
       <c r="H61" s="83"/>
     </row>
-    <row r="62" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="233"/>
-      <c r="B62" s="235"/>
+      <c r="B62" s="228"/>
       <c r="C62" s="80" t="s">
         <v>130</v>
       </c>
@@ -21548,14 +21527,14 @@
       <c r="F62" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="G62" s="188" t="s">
+      <c r="G62" s="186" t="s">
         <v>43</v>
       </c>
       <c r="H62" s="83"/>
     </row>
-    <row r="63" spans="1:1024" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1024" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="234"/>
-      <c r="B63" s="236"/>
+      <c r="B63" s="229"/>
       <c r="C63" s="85" t="s">
         <v>134</v>
       </c>
@@ -21566,15 +21545,15 @@
         <v>136</v>
       </c>
       <c r="F63" s="85" t="s">
-        <v>493</v>
-      </c>
-      <c r="G63" s="189" t="s">
+        <v>489</v>
+      </c>
+      <c r="G63" s="187" t="s">
         <v>43</v>
       </c>
       <c r="H63" s="87"/>
     </row>
-    <row r="64" spans="1:1024" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="229" t="s">
+    <row r="64" spans="1:1024" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="235" t="s">
         <v>145</v>
       </c>
       <c r="B64" s="59"/>
@@ -21582,7 +21561,7 @@
       <c r="D64" s="59"/>
       <c r="E64" s="60"/>
       <c r="F64" s="59"/>
-      <c r="G64" s="195"/>
+      <c r="G64" s="193"/>
       <c r="H64" s="88"/>
       <c r="I64" s="13"/>
       <c r="J64" s="13"/>
@@ -22601,8 +22580,8 @@
       <c r="AMI64" s="13"/>
       <c r="AMJ64" s="13"/>
     </row>
-    <row r="65" spans="1:1024" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="230"/>
+    <row r="65" spans="1:1024" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="236"/>
       <c r="B65" s="89" t="s">
         <v>146</v>
       </c>
@@ -22616,7 +22595,7 @@
       <c r="F65" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="G65" s="185" t="s">
+      <c r="G65" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H65" s="92"/>
@@ -23637,8 +23616,8 @@
       <c r="AMI65" s="13"/>
       <c r="AMJ65" s="13"/>
     </row>
-    <row r="66" spans="1:1024" s="14" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="231"/>
+    <row r="66" spans="1:1024" s="14" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="237"/>
       <c r="B66" s="93" t="s">
         <v>150</v>
       </c>
@@ -23652,7 +23631,7 @@
       <c r="F66" s="93" t="s">
         <v>153</v>
       </c>
-      <c r="G66" s="186" t="s">
+      <c r="G66" s="184" t="s">
         <v>43</v>
       </c>
       <c r="H66" s="96"/>
@@ -24673,7 +24652,7 @@
       <c r="AMI66" s="13"/>
       <c r="AMJ66" s="13"/>
     </row>
-    <row r="67" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="232" t="s">
         <v>154</v>
       </c>
@@ -24682,10 +24661,10 @@
       <c r="D67" s="29"/>
       <c r="E67" s="30"/>
       <c r="F67" s="29"/>
-      <c r="G67" s="196"/>
+      <c r="G67" s="194"/>
       <c r="H67" s="64"/>
     </row>
-    <row r="68" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="233"/>
       <c r="B68" s="69" t="s">
         <v>155</v>
@@ -24698,14 +24677,14 @@
       <c r="F68" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="G68" s="188" t="s">
+      <c r="G68" s="186" t="s">
         <v>43</v>
       </c>
       <c r="H68" s="72"/>
     </row>
-    <row r="69" spans="1:1024" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1024" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="233"/>
-      <c r="B69" s="237" t="s">
+      <c r="B69" s="230" t="s">
         <v>158</v>
       </c>
       <c r="C69" s="69" t="s">
@@ -24720,14 +24699,14 @@
       <c r="F69" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="G69" s="188" t="s">
+      <c r="G69" s="186" t="s">
         <v>12</v>
       </c>
       <c r="H69" s="72"/>
     </row>
-    <row r="70" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="233"/>
-      <c r="B70" s="237"/>
+      <c r="B70" s="230"/>
       <c r="C70" s="69" t="s">
         <v>30</v>
       </c>
@@ -24740,14 +24719,14 @@
       <c r="F70" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="G70" s="188" t="s">
+      <c r="G70" s="186" t="s">
         <v>12</v>
       </c>
       <c r="H70" s="72"/>
     </row>
-    <row r="71" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="233"/>
-      <c r="B71" s="237"/>
+      <c r="B71" s="230"/>
       <c r="C71" s="69" t="s">
         <v>12</v>
       </c>
@@ -24760,14 +24739,14 @@
       <c r="F71" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="G71" s="188" t="s">
+      <c r="G71" s="186" t="s">
         <v>43</v>
       </c>
       <c r="H71" s="72"/>
     </row>
-    <row r="72" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="233"/>
-      <c r="B72" s="237"/>
+      <c r="B72" s="230"/>
       <c r="C72" s="69" t="s">
         <v>167</v>
       </c>
@@ -24780,14 +24759,14 @@
       <c r="F72" s="69" t="s">
         <v>169</v>
       </c>
-      <c r="G72" s="188" t="s">
+      <c r="G72" s="186" t="s">
         <v>43</v>
       </c>
       <c r="H72" s="72"/>
     </row>
-    <row r="73" spans="1:1024" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1024" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="234"/>
-      <c r="B73" s="238"/>
+      <c r="B73" s="231"/>
       <c r="C73" s="73" t="s">
         <v>25</v>
       </c>
@@ -24800,13 +24779,13 @@
       <c r="F73" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="G73" s="189" t="s">
+      <c r="G73" s="187" t="s">
         <v>12</v>
       </c>
       <c r="H73" s="76"/>
     </row>
-    <row r="74" spans="1:1024" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="229" t="s">
+    <row r="74" spans="1:1024" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="235" t="s">
         <v>172</v>
       </c>
       <c r="B74" s="31"/>
@@ -24814,7 +24793,7 @@
       <c r="D74" s="31"/>
       <c r="E74" s="32"/>
       <c r="F74" s="31"/>
-      <c r="G74" s="197"/>
+      <c r="G74" s="195"/>
       <c r="H74" s="88"/>
       <c r="I74" s="13"/>
       <c r="J74" s="13"/>
@@ -25833,8 +25812,8 @@
       <c r="AMI74" s="13"/>
       <c r="AMJ74" s="13"/>
     </row>
-    <row r="75" spans="1:1024" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="230"/>
+    <row r="75" spans="1:1024" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A75" s="236"/>
       <c r="B75" s="47" t="s">
         <v>173</v>
       </c>
@@ -25846,7 +25825,7 @@
       <c r="F75" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="G75" s="185" t="s">
+      <c r="G75" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H75" s="50"/>
@@ -26867,9 +26846,9 @@
       <c r="AMI75" s="13"/>
       <c r="AMJ75" s="13"/>
     </row>
-    <row r="76" spans="1:1024" s="14" customFormat="1" ht="46.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="230"/>
-      <c r="B76" s="221" t="s">
+    <row r="76" spans="1:1024" s="14" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="236"/>
+      <c r="B76" s="226" t="s">
         <v>176</v>
       </c>
       <c r="C76" s="47" t="s">
@@ -26884,7 +26863,7 @@
       <c r="F76" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="G76" s="185" t="s">
+      <c r="G76" s="183" t="s">
         <v>12</v>
       </c>
       <c r="H76" s="50"/>
@@ -27905,9 +27884,9 @@
       <c r="AMI76" s="13"/>
       <c r="AMJ76" s="13"/>
     </row>
-    <row r="77" spans="1:1024" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="230"/>
-      <c r="B77" s="221"/>
+    <row r="77" spans="1:1024" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A77" s="236"/>
+      <c r="B77" s="226"/>
       <c r="C77" s="47" t="s">
         <v>179</v>
       </c>
@@ -27920,7 +27899,7 @@
       <c r="F77" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="G77" s="185" t="s">
+      <c r="G77" s="183" t="s">
         <v>12</v>
       </c>
       <c r="H77" s="50"/>
@@ -28941,9 +28920,9 @@
       <c r="AMI77" s="13"/>
       <c r="AMJ77" s="13"/>
     </row>
-    <row r="78" spans="1:1024" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="230"/>
-      <c r="B78" s="221"/>
+    <row r="78" spans="1:1024" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A78" s="236"/>
+      <c r="B78" s="226"/>
       <c r="C78" s="47" t="s">
         <v>182</v>
       </c>
@@ -28956,7 +28935,7 @@
       <c r="F78" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="G78" s="185" t="s">
+      <c r="G78" s="183" t="s">
         <v>12</v>
       </c>
       <c r="H78" s="50"/>
@@ -29977,9 +29956,9 @@
       <c r="AMI78" s="13"/>
       <c r="AMJ78" s="13"/>
     </row>
-    <row r="79" spans="1:1024" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="230"/>
-      <c r="B79" s="221"/>
+    <row r="79" spans="1:1024" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="236"/>
+      <c r="B79" s="226"/>
       <c r="C79" s="47" t="s">
         <v>185</v>
       </c>
@@ -29992,7 +29971,7 @@
       <c r="F79" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="G79" s="185" t="s">
+      <c r="G79" s="183" t="s">
         <v>12</v>
       </c>
       <c r="H79" s="50"/>
@@ -31013,9 +30992,9 @@
       <c r="AMI79" s="13"/>
       <c r="AMJ79" s="13"/>
     </row>
-    <row r="80" spans="1:1024" s="14" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="231"/>
-      <c r="B80" s="222"/>
+    <row r="80" spans="1:1024" s="14" customFormat="1" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="237"/>
+      <c r="B80" s="227"/>
       <c r="C80" s="51" t="s">
         <v>25</v>
       </c>
@@ -31028,7 +31007,7 @@
       <c r="F80" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="G80" s="186" t="s">
+      <c r="G80" s="184" t="s">
         <v>12</v>
       </c>
       <c r="H80" s="54"/>
@@ -32049,81 +32028,88 @@
       <c r="AMI80" s="13"/>
       <c r="AMJ80" s="13"/>
     </row>
-    <row r="81" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="H82" s="4"/>
     </row>
-    <row r="83" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="H89" s="4"/>
     </row>
-    <row r="90" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="H96" s="4"/>
     </row>
-    <row r="97" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="H97" s="4"/>
     </row>
-    <row r="98" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="H98" s="4"/>
     </row>
-    <row r="99" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="H99" s="4"/>
     </row>
-    <row r="100" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="H100" s="4"/>
     </row>
-    <row r="101" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="H101" s="4"/>
     </row>
-    <row r="102" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="H102" s="4"/>
     </row>
-    <row r="103" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="H103" s="4"/>
     </row>
-    <row r="104" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="H104" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" insertRows="0" deleteRows="0"/>
   <mergeCells count="14">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B38:B49"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A18:A30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A36:A49"/>
     <mergeCell ref="B76:B80"/>
     <mergeCell ref="B52:B63"/>
     <mergeCell ref="B69:B73"/>
@@ -32131,13 +32117,6 @@
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="A67:A73"/>
     <mergeCell ref="A74:A80"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B38:B49"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A18:A30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A36:A49"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -32152,43 +32131,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:XFC15"/>
+  <dimension ref="A1:XFC14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E10" sqref="E10"/>
       <selection pane="topRight" activeCell="E10" sqref="E10"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
-    <col min="9" max="1023" width="8.42578125" style="1" hidden="1"/>
-    <col min="1024" max="1024" width="9.140625" style="1" hidden="1"/>
-    <col min="16384" max="16384" width="3.42578125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="1" customWidth="1"/>
+    <col min="9" max="1023" width="8.5" style="1" hidden="1"/>
+    <col min="1024" max="1024" width="9.1640625" style="1" hidden="1"/>
+    <col min="16384" max="16384" width="3.5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="219" t="s">
-        <v>522</v>
-      </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="220"/>
+    <row r="1" spans="1:8" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="238" t="s">
+        <v>518</v>
+      </c>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="239"/>
     </row>
-    <row r="2" spans="1:8" s="35" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -32214,8 +32193,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="223" t="s">
+    <row r="3" spans="1:8" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="240" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="27"/>
@@ -32223,11 +32202,11 @@
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
-      <c r="G3" s="184"/>
+      <c r="G3" s="182"/>
       <c r="H3" s="28"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="224"/>
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="241"/>
       <c r="B4" s="47" t="s">
         <v>8</v>
       </c>
@@ -32241,13 +32220,13 @@
       <c r="F4" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="G4" s="185" t="s">
-        <v>534</v>
+      <c r="G4" s="183" t="s">
+        <v>530</v>
       </c>
       <c r="H4" s="50"/>
     </row>
-    <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="224"/>
+    <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="241"/>
       <c r="B5" s="47" t="s">
         <v>13</v>
       </c>
@@ -32261,13 +32240,13 @@
       <c r="F5" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="G5" s="185" t="s">
+      <c r="G5" s="183" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="50"/>
     </row>
-    <row r="6" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="224"/>
+    <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="241"/>
       <c r="B6" s="47" t="s">
         <v>25</v>
       </c>
@@ -32281,13 +32260,13 @@
       <c r="F6" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="G6" s="185" t="s">
+      <c r="G6" s="183" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="50"/>
     </row>
-    <row r="7" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="224"/>
+    <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="241"/>
       <c r="B7" s="47" t="s">
         <v>26</v>
       </c>
@@ -32301,13 +32280,13 @@
       <c r="F7" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="G7" s="185" t="s">
+      <c r="G7" s="183" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="50"/>
     </row>
-    <row r="8" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="224"/>
+    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="241"/>
       <c r="B8" s="47" t="s">
         <v>30</v>
       </c>
@@ -32321,13 +32300,13 @@
       <c r="F8" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="G8" s="185" t="s">
+      <c r="G8" s="183" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="50"/>
     </row>
-    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="224"/>
+    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="241"/>
       <c r="B9" s="47" t="s">
         <v>16</v>
       </c>
@@ -32341,19 +32320,19 @@
       <c r="F9" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="G9" s="185" t="s">
+      <c r="G9" s="183" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="50"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="224"/>
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="241"/>
       <c r="B10" s="47" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="47" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E10" s="49" t="s">
         <v>20</v>
@@ -32361,13 +32340,13 @@
       <c r="F10" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="G10" s="185" t="s">
-        <v>534</v>
+      <c r="G10" s="183" t="s">
+        <v>530</v>
       </c>
       <c r="H10" s="50"/>
     </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="225"/>
+    <row r="11" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="242"/>
       <c r="B11" s="51" t="s">
         <v>22</v>
       </c>
@@ -32381,13 +32360,13 @@
       <c r="F11" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="G11" s="186" t="s">
+      <c r="G11" s="184" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="54"/>
     </row>
-    <row r="12" spans="1:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="239" t="s">
+    <row r="12" spans="1:8" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="246" t="s">
         <v>203</v>
       </c>
       <c r="B12" s="98"/>
@@ -32395,11 +32374,11 @@
       <c r="D12" s="100"/>
       <c r="E12" s="101"/>
       <c r="F12" s="100"/>
-      <c r="G12" s="187"/>
+      <c r="G12" s="185"/>
       <c r="H12" s="102"/>
     </row>
-    <row r="13" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="240"/>
+    <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="247"/>
       <c r="B13" s="103" t="s">
         <v>204</v>
       </c>
@@ -32413,57 +32392,37 @@
       <c r="F13" s="103" t="s">
         <v>206</v>
       </c>
-      <c r="G13" s="188" t="s">
+      <c r="G13" s="186" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="72"/>
     </row>
-    <row r="14" spans="1:8" ht="103.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="240"/>
+    <row r="14" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="247"/>
       <c r="B14" s="103" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C14" s="103"/>
       <c r="D14" s="103" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E14" s="104" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F14" s="103" t="s">
-        <v>207</v>
-      </c>
-      <c r="G14" s="188" t="s">
+        <v>537</v>
+      </c>
+      <c r="G14" s="186" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="72"/>
-    </row>
-    <row r="15" spans="1:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="241"/>
-      <c r="B15" s="105" t="s">
-        <v>470</v>
-      </c>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105" t="s">
-        <v>472</v>
-      </c>
-      <c r="E15" s="106" t="s">
-        <v>490</v>
-      </c>
-      <c r="F15" s="105" t="s">
-        <v>206</v>
-      </c>
-      <c r="G15" s="189" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="76"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" insertRows="0" deleteRows="0"/>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -32483,32 +32442,32 @@
       <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="5" customWidth="1"/>
-    <col min="3" max="4" width="20.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="207" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="20.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="205" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="5" customWidth="1"/>
     <col min="9" max="1024" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="1025" max="16384" width="9.140625" hidden="1"/>
+    <col min="1025" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="219" t="s">
-        <v>523</v>
-      </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="220"/>
+    <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="238" t="s">
+        <v>519</v>
+      </c>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="239"/>
     </row>
-    <row r="2" spans="1:1024" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1024" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -32534,8 +32493,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="223" t="s">
+    <row r="3" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="240" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="37"/>
@@ -32543,7 +32502,7 @@
       <c r="D3" s="37"/>
       <c r="E3" s="37"/>
       <c r="F3" s="37"/>
-      <c r="G3" s="198"/>
+      <c r="G3" s="196"/>
       <c r="H3" s="38"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -32584,119 +32543,119 @@
       <c r="AS3" s="7"/>
       <c r="AMJ3" s="5"/>
     </row>
-    <row r="4" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="224"/>
-      <c r="B4" s="107" t="s">
+    <row r="4" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="241"/>
+      <c r="B4" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="106"/>
+      <c r="D4" s="105" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="107" t="s">
+      <c r="E4" s="106"/>
+      <c r="F4" s="105" t="s">
         <v>209</v>
       </c>
-      <c r="E4" s="108"/>
-      <c r="F4" s="107" t="s">
+      <c r="G4" s="197" t="s">
+        <v>530</v>
+      </c>
+      <c r="H4" s="107"/>
+    </row>
+    <row r="5" spans="1:1024" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="241"/>
+      <c r="B5" s="105" t="s">
         <v>210</v>
       </c>
-      <c r="G4" s="199" t="s">
-        <v>534</v>
-      </c>
-      <c r="H4" s="109"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="105" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" s="106"/>
+      <c r="F5" s="105" t="s">
+        <v>212</v>
+      </c>
+      <c r="G5" s="197"/>
+      <c r="H5" s="107"/>
     </row>
-    <row r="5" spans="1:1024" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="224"/>
-      <c r="B5" s="107" t="s">
+    <row r="6" spans="1:1024" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="241"/>
+      <c r="B6" s="105" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="106"/>
+      <c r="D6" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="106"/>
+      <c r="F6" s="105" t="s">
+        <v>215</v>
+      </c>
+      <c r="G6" s="197"/>
+      <c r="H6" s="107"/>
+    </row>
+    <row r="7" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="241"/>
+      <c r="B7" s="105" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="106"/>
+      <c r="D7" s="105" t="s">
+        <v>525</v>
+      </c>
+      <c r="E7" s="106"/>
+      <c r="F7" s="105" t="s">
+        <v>217</v>
+      </c>
+      <c r="G7" s="197"/>
+      <c r="H7" s="107"/>
+    </row>
+    <row r="8" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="241"/>
+      <c r="B8" s="105" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="106"/>
+      <c r="D8" s="105" t="s">
         <v>211</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="107" t="s">
-        <v>212</v>
-      </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="107" t="s">
-        <v>213</v>
-      </c>
-      <c r="G5" s="199"/>
-      <c r="H5" s="109"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="105" t="s">
+        <v>219</v>
+      </c>
+      <c r="G8" s="197"/>
+      <c r="H8" s="107"/>
     </row>
-    <row r="6" spans="1:1024" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="224"/>
-      <c r="B6" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="107" t="s">
-        <v>215</v>
-      </c>
-      <c r="E6" s="108"/>
-      <c r="F6" s="107" t="s">
-        <v>216</v>
-      </c>
-      <c r="G6" s="199"/>
-      <c r="H6" s="109"/>
+    <row r="9" spans="1:1024" ht="90.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="241"/>
+      <c r="B9" s="105" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="106"/>
+      <c r="D9" s="105" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" s="106"/>
+      <c r="F9" s="105" t="s">
+        <v>222</v>
+      </c>
+      <c r="G9" s="197"/>
+      <c r="H9" s="107"/>
     </row>
-    <row r="7" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="224"/>
-      <c r="B7" s="107" t="s">
-        <v>217</v>
-      </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="107" t="s">
-        <v>529</v>
-      </c>
-      <c r="E7" s="108"/>
-      <c r="F7" s="107" t="s">
-        <v>218</v>
-      </c>
-      <c r="G7" s="199"/>
-      <c r="H7" s="109"/>
-    </row>
-    <row r="8" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="224"/>
-      <c r="B8" s="107" t="s">
-        <v>219</v>
-      </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="107" t="s">
-        <v>212</v>
-      </c>
-      <c r="E8" s="108"/>
-      <c r="F8" s="107" t="s">
-        <v>220</v>
-      </c>
-      <c r="G8" s="199"/>
-      <c r="H8" s="109"/>
-    </row>
-    <row r="9" spans="1:1024" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="224"/>
-      <c r="B9" s="107" t="s">
-        <v>221</v>
-      </c>
-      <c r="C9" s="108"/>
-      <c r="D9" s="107" t="s">
-        <v>222</v>
-      </c>
-      <c r="E9" s="108"/>
-      <c r="F9" s="107" t="s">
+    <row r="10" spans="1:1024" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="241"/>
+      <c r="B10" s="105" t="s">
         <v>223</v>
       </c>
-      <c r="G9" s="199"/>
-      <c r="H9" s="109"/>
-    </row>
-    <row r="10" spans="1:1024" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="224"/>
-      <c r="B10" s="107" t="s">
+      <c r="C10" s="106"/>
+      <c r="D10" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="107" t="s">
+      <c r="E10" s="106"/>
+      <c r="F10" s="105" t="s">
         <v>225</v>
       </c>
-      <c r="E10" s="108"/>
-      <c r="F10" s="107" t="s">
-        <v>226</v>
-      </c>
-      <c r="G10" s="199"/>
-      <c r="H10" s="109"/>
+      <c r="G10" s="197"/>
+      <c r="H10" s="107"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -32711,160 +32670,160 @@
       <c r="T10" s="8"/>
       <c r="AMJ10" s="5"/>
     </row>
-    <row r="11" spans="1:1024" ht="116.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="224"/>
-      <c r="B11" s="107" t="s">
+    <row r="11" spans="1:1024" ht="116" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="241"/>
+      <c r="B11" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="108"/>
-      <c r="D11" s="107" t="s">
-        <v>225</v>
-      </c>
-      <c r="E11" s="108"/>
-      <c r="F11" s="107" t="s">
+      <c r="C11" s="106"/>
+      <c r="D11" s="105" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11" s="106"/>
+      <c r="F11" s="105" t="s">
+        <v>226</v>
+      </c>
+      <c r="G11" s="197"/>
+      <c r="H11" s="107"/>
+    </row>
+    <row r="12" spans="1:1024" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="241"/>
+      <c r="B12" s="105" t="s">
         <v>227</v>
       </c>
-      <c r="G11" s="199"/>
-      <c r="H11" s="109"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="105" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12" s="106"/>
+      <c r="F12" s="105" t="s">
+        <v>229</v>
+      </c>
+      <c r="G12" s="197"/>
+      <c r="H12" s="107"/>
     </row>
-    <row r="12" spans="1:1024" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="224"/>
-      <c r="B12" s="107" t="s">
-        <v>228</v>
-      </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="107" t="s">
-        <v>229</v>
-      </c>
-      <c r="E12" s="108"/>
-      <c r="F12" s="107" t="s">
+    <row r="13" spans="1:1024" ht="68" x14ac:dyDescent="0.2">
+      <c r="A13" s="241"/>
+      <c r="B13" s="105" t="s">
         <v>230</v>
       </c>
-      <c r="G12" s="199"/>
-      <c r="H12" s="109"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="105" t="s">
+        <v>231</v>
+      </c>
+      <c r="E13" s="106"/>
+      <c r="F13" s="105" t="s">
+        <v>232</v>
+      </c>
+      <c r="G13" s="197" t="s">
+        <v>233</v>
+      </c>
+      <c r="H13" s="107"/>
     </row>
-    <row r="13" spans="1:1024" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="224"/>
-      <c r="B13" s="107" t="s">
-        <v>231</v>
-      </c>
-      <c r="C13" s="108"/>
-      <c r="D13" s="107" t="s">
-        <v>232</v>
-      </c>
-      <c r="E13" s="108"/>
-      <c r="F13" s="107" t="s">
-        <v>233</v>
-      </c>
-      <c r="G13" s="199" t="s">
+    <row r="14" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="241"/>
+      <c r="B14" s="105" t="s">
+        <v>485</v>
+      </c>
+      <c r="C14" s="106"/>
+      <c r="D14" s="105" t="s">
+        <v>211</v>
+      </c>
+      <c r="E14" s="106"/>
+      <c r="F14" s="105" t="s">
+        <v>486</v>
+      </c>
+      <c r="G14" s="197" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="107"/>
+    </row>
+    <row r="15" spans="1:1024" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="242"/>
+      <c r="B15" s="108" t="s">
         <v>234</v>
       </c>
-      <c r="H13" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="108" t="s">
+        <v>235</v>
+      </c>
+      <c r="E15" s="109"/>
+      <c r="F15" s="108" t="s">
+        <v>236</v>
+      </c>
+      <c r="G15" s="198"/>
+      <c r="H15" s="110"/>
     </row>
-    <row r="14" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="224"/>
-      <c r="B14" s="107" t="s">
-        <v>488</v>
-      </c>
-      <c r="C14" s="108"/>
-      <c r="D14" s="107" t="s">
-        <v>212</v>
-      </c>
-      <c r="E14" s="108"/>
-      <c r="F14" s="107" t="s">
-        <v>489</v>
-      </c>
-      <c r="G14" s="199" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="109"/>
-    </row>
-    <row r="15" spans="1:1024" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="225"/>
-      <c r="B15" s="110" t="s">
-        <v>235</v>
-      </c>
-      <c r="C15" s="111"/>
-      <c r="D15" s="110" t="s">
-        <v>236</v>
-      </c>
-      <c r="E15" s="111"/>
-      <c r="F15" s="110" t="s">
-        <v>237</v>
-      </c>
-      <c r="G15" s="200"/>
-      <c r="H15" s="112"/>
-    </row>
-    <row r="16" spans="1:1024" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1024" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="232" t="s">
         <v>154</v>
       </c>
-      <c r="B16" s="113"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="201"/>
-      <c r="H16" s="114"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="112"/>
       <c r="AMJ16" s="5"/>
     </row>
-    <row r="17" spans="1:1024" ht="126.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1024" ht="127" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="233"/>
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="113" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="114"/>
+      <c r="D17" s="113" t="s">
         <v>238</v>
       </c>
-      <c r="C17" s="116"/>
-      <c r="D17" s="115" t="s">
+      <c r="E17" s="114"/>
+      <c r="F17" s="113" t="s">
         <v>239</v>
       </c>
-      <c r="E17" s="116"/>
-      <c r="F17" s="115" t="s">
+      <c r="G17" s="200"/>
+      <c r="H17" s="115"/>
+    </row>
+    <row r="18" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="233"/>
+      <c r="B18" s="113" t="s">
         <v>240</v>
       </c>
-      <c r="G17" s="202"/>
-      <c r="H17" s="117"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="113" t="s">
+        <v>241</v>
+      </c>
+      <c r="G18" s="200"/>
+      <c r="H18" s="115"/>
     </row>
-    <row r="18" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="233"/>
-      <c r="B18" s="115" t="s">
-        <v>241</v>
-      </c>
-      <c r="C18" s="116"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="115" t="s">
+    <row r="19" spans="1:1024" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="234"/>
+      <c r="B19" s="116" t="s">
         <v>242</v>
       </c>
-      <c r="G18" s="202"/>
-      <c r="H18" s="117"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="116" t="s">
+        <v>243</v>
+      </c>
+      <c r="E19" s="117"/>
+      <c r="F19" s="116" t="s">
+        <v>244</v>
+      </c>
+      <c r="G19" s="201"/>
+      <c r="H19" s="118"/>
     </row>
-    <row r="19" spans="1:1024" ht="41.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="234"/>
-      <c r="B19" s="118" t="s">
-        <v>243</v>
-      </c>
-      <c r="C19" s="119"/>
-      <c r="D19" s="118" t="s">
-        <v>244</v>
-      </c>
-      <c r="E19" s="119"/>
-      <c r="F19" s="118" t="s">
+    <row r="20" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="235" t="s">
         <v>245</v>
       </c>
-      <c r="G19" s="203"/>
-      <c r="H19" s="120"/>
-    </row>
-    <row r="20" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="229" t="s">
-        <v>246</v>
-      </c>
-      <c r="B20" s="121"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="204"/>
-      <c r="H20" s="122"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="202"/>
+      <c r="H20" s="120"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -32904,21 +32863,21 @@
       <c r="AS20" s="7"/>
       <c r="AMJ20" s="5"/>
     </row>
-    <row r="21" spans="1:1024" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="231"/>
-      <c r="B21" s="110" t="s">
+    <row r="21" spans="1:1024" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="237"/>
+      <c r="B21" s="108" t="s">
+        <v>246</v>
+      </c>
+      <c r="C21" s="109"/>
+      <c r="D21" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="110" t="s">
+      <c r="E21" s="109"/>
+      <c r="F21" s="108" t="s">
         <v>248</v>
       </c>
-      <c r="E21" s="111"/>
-      <c r="F21" s="110" t="s">
-        <v>249</v>
-      </c>
-      <c r="G21" s="200"/>
-      <c r="H21" s="112"/>
+      <c r="G21" s="198"/>
+      <c r="H21" s="110"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -32939,78 +32898,78 @@
       <c r="Z21" s="8"/>
       <c r="AMJ21" s="5"/>
     </row>
-    <row r="22" spans="1:1024" s="7" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="232" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="201"/>
-      <c r="H22" s="114"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="199"/>
+      <c r="H22" s="112"/>
       <c r="AMJ22" s="5"/>
     </row>
-    <row r="23" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="233"/>
-      <c r="B23" s="115" t="s">
+      <c r="B23" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="116"/>
-      <c r="D23" s="115" t="s">
-        <v>225</v>
-      </c>
-      <c r="E23" s="116"/>
-      <c r="F23" s="115" t="s">
+      <c r="C23" s="114"/>
+      <c r="D23" s="113" t="s">
+        <v>224</v>
+      </c>
+      <c r="E23" s="114"/>
+      <c r="F23" s="113" t="s">
+        <v>249</v>
+      </c>
+      <c r="G23" s="200"/>
+      <c r="H23" s="115"/>
+    </row>
+    <row r="24" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="233"/>
+      <c r="B24" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="114"/>
+      <c r="D24" s="113" t="s">
+        <v>224</v>
+      </c>
+      <c r="E24" s="114"/>
+      <c r="F24" s="113" t="s">
         <v>250</v>
       </c>
-      <c r="G23" s="202"/>
-      <c r="H23" s="117"/>
+      <c r="G24" s="200"/>
+      <c r="H24" s="115"/>
     </row>
-    <row r="24" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="233"/>
-      <c r="B24" s="115" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="116"/>
-      <c r="D24" s="115" t="s">
-        <v>225</v>
-      </c>
-      <c r="E24" s="116"/>
-      <c r="F24" s="115" t="s">
+    <row r="25" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="234"/>
+      <c r="B25" s="116" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="117"/>
+      <c r="D25" s="116" t="s">
+        <v>224</v>
+      </c>
+      <c r="E25" s="117"/>
+      <c r="F25" s="116" t="s">
         <v>251</v>
       </c>
-      <c r="G24" s="202"/>
-      <c r="H24" s="117"/>
+      <c r="G25" s="201"/>
+      <c r="H25" s="118"/>
     </row>
-    <row r="25" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="234"/>
-      <c r="B25" s="118" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="119"/>
-      <c r="D25" s="118" t="s">
-        <v>225</v>
-      </c>
-      <c r="E25" s="119"/>
-      <c r="F25" s="118" t="s">
+    <row r="26" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="235" t="s">
         <v>252</v>
       </c>
-      <c r="G25" s="203"/>
-      <c r="H25" s="120"/>
-    </row>
-    <row r="26" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="229" t="s">
-        <v>253</v>
-      </c>
-      <c r="B26" s="123"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="205"/>
-      <c r="H26" s="124"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="203"/>
+      <c r="H26" s="122"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
@@ -33031,95 +32990,95 @@
       <c r="Z26" s="7"/>
       <c r="AMJ26" s="5"/>
     </row>
-    <row r="27" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="230"/>
-      <c r="B27" s="107" t="s">
+    <row r="27" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="236"/>
+      <c r="B27" s="105" t="s">
+        <v>253</v>
+      </c>
+      <c r="C27" s="106"/>
+      <c r="D27" s="105" t="s">
+        <v>228</v>
+      </c>
+      <c r="E27" s="106"/>
+      <c r="F27" s="105" t="s">
         <v>254</v>
       </c>
-      <c r="C27" s="108"/>
-      <c r="D27" s="107" t="s">
-        <v>229</v>
-      </c>
-      <c r="E27" s="108"/>
-      <c r="F27" s="107" t="s">
+      <c r="G27" s="197" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="107"/>
+    </row>
+    <row r="28" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="236"/>
+      <c r="B28" s="105" t="s">
         <v>255</v>
       </c>
-      <c r="G27" s="199" t="s">
+      <c r="C28" s="106"/>
+      <c r="D28" s="105" t="s">
+        <v>228</v>
+      </c>
+      <c r="E28" s="106"/>
+      <c r="F28" s="105" t="s">
+        <v>256</v>
+      </c>
+      <c r="G28" s="197" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="109"/>
+      <c r="H28" s="107"/>
     </row>
-    <row r="28" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="230"/>
-      <c r="B28" s="107" t="s">
-        <v>256</v>
-      </c>
-      <c r="C28" s="108"/>
-      <c r="D28" s="107" t="s">
-        <v>229</v>
-      </c>
-      <c r="E28" s="108"/>
-      <c r="F28" s="107" t="s">
+    <row r="29" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="236"/>
+      <c r="B29" s="105" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="106"/>
+      <c r="D29" s="105" t="s">
+        <v>228</v>
+      </c>
+      <c r="E29" s="106"/>
+      <c r="F29" s="105" t="s">
         <v>257</v>
       </c>
-      <c r="G28" s="199" t="s">
+      <c r="G29" s="197" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="109"/>
+      <c r="H29" s="107"/>
     </row>
-    <row r="29" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="230"/>
-      <c r="B29" s="107" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="108"/>
-      <c r="D29" s="107" t="s">
-        <v>229</v>
-      </c>
-      <c r="E29" s="108"/>
-      <c r="F29" s="107" t="s">
+    <row r="30" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="236"/>
+      <c r="B30" s="105" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="106"/>
+      <c r="D30" s="105" t="s">
+        <v>228</v>
+      </c>
+      <c r="E30" s="106"/>
+      <c r="F30" s="105" t="s">
         <v>258</v>
       </c>
-      <c r="G29" s="199" t="s">
+      <c r="G30" s="197" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="109"/>
+      <c r="H30" s="107"/>
     </row>
-    <row r="30" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="230"/>
-      <c r="B30" s="107" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="108"/>
-      <c r="D30" s="107" t="s">
-        <v>229</v>
-      </c>
-      <c r="E30" s="108"/>
-      <c r="F30" s="107" t="s">
+    <row r="31" spans="1:1024" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="236"/>
+      <c r="B31" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="106"/>
+      <c r="D31" s="105" t="s">
+        <v>228</v>
+      </c>
+      <c r="E31" s="106"/>
+      <c r="F31" s="105" t="s">
         <v>259</v>
       </c>
-      <c r="G30" s="199" t="s">
+      <c r="G31" s="197" t="s">
         <v>43</v>
       </c>
-      <c r="H30" s="109"/>
-    </row>
-    <row r="31" spans="1:1024" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="230"/>
-      <c r="B31" s="107" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="108"/>
-      <c r="D31" s="107" t="s">
-        <v>229</v>
-      </c>
-      <c r="E31" s="108"/>
-      <c r="F31" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="G31" s="199" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" s="109"/>
+      <c r="H31" s="107"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -33141,106 +33100,106 @@
       <c r="AA31" s="8"/>
       <c r="AMJ31" s="5"/>
     </row>
-    <row r="32" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="230"/>
-      <c r="B32" s="107" t="s">
+    <row r="32" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="236"/>
+      <c r="B32" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="108"/>
-      <c r="D32" s="107" t="s">
-        <v>229</v>
-      </c>
-      <c r="E32" s="108"/>
-      <c r="F32" s="107" t="s">
+      <c r="C32" s="106"/>
+      <c r="D32" s="105" t="s">
+        <v>228</v>
+      </c>
+      <c r="E32" s="106"/>
+      <c r="F32" s="105" t="s">
+        <v>260</v>
+      </c>
+      <c r="G32" s="197" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="107"/>
+    </row>
+    <row r="33" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="236"/>
+      <c r="B33" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="106"/>
+      <c r="D33" s="105" t="s">
+        <v>228</v>
+      </c>
+      <c r="E33" s="106"/>
+      <c r="F33" s="105" t="s">
         <v>261</v>
       </c>
-      <c r="G32" s="199" t="s">
+      <c r="G33" s="197" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="109"/>
+      <c r="H33" s="107"/>
     </row>
-    <row r="33" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="230"/>
-      <c r="B33" s="107" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="108"/>
-      <c r="D33" s="107" t="s">
-        <v>229</v>
-      </c>
-      <c r="E33" s="108"/>
-      <c r="F33" s="107" t="s">
+    <row r="34" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="236"/>
+      <c r="B34" s="105" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="106"/>
+      <c r="D34" s="105" t="s">
+        <v>228</v>
+      </c>
+      <c r="E34" s="106"/>
+      <c r="F34" s="105" t="s">
         <v>262</v>
       </c>
-      <c r="G33" s="199" t="s">
+      <c r="G34" s="197" t="s">
         <v>43</v>
       </c>
-      <c r="H33" s="109"/>
+      <c r="H34" s="107"/>
     </row>
-    <row r="34" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="230"/>
-      <c r="B34" s="107" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="108"/>
-      <c r="D34" s="107" t="s">
-        <v>229</v>
-      </c>
-      <c r="E34" s="108"/>
-      <c r="F34" s="107" t="s">
+    <row r="35" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="237"/>
+      <c r="B35" s="108" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="109"/>
+      <c r="D35" s="108" t="s">
+        <v>228</v>
+      </c>
+      <c r="E35" s="109"/>
+      <c r="F35" s="108" t="s">
         <v>263</v>
       </c>
-      <c r="G34" s="199" t="s">
+      <c r="G35" s="198" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="109"/>
+      <c r="H35" s="110"/>
     </row>
-    <row r="35" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="231"/>
-      <c r="B35" s="110" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="111"/>
-      <c r="D35" s="110" t="s">
-        <v>229</v>
-      </c>
-      <c r="E35" s="111"/>
-      <c r="F35" s="110" t="s">
-        <v>264</v>
-      </c>
-      <c r="G35" s="200" t="s">
-        <v>43</v>
-      </c>
-      <c r="H35" s="112"/>
-    </row>
-    <row r="36" spans="1:1024" s="7" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="232" t="s">
-        <v>536</v>
-      </c>
-      <c r="B36" s="125"/>
-      <c r="C36" s="125"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="125"/>
-      <c r="G36" s="206"/>
-      <c r="H36" s="126"/>
+        <v>532</v>
+      </c>
+      <c r="B36" s="123"/>
+      <c r="C36" s="123"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="123"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="204"/>
+      <c r="H36" s="124"/>
       <c r="AMJ36" s="5"/>
     </row>
-    <row r="37" spans="1:1024" ht="90.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1024" ht="90.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="234"/>
-      <c r="B37" s="118" t="s">
+      <c r="B37" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="119"/>
-      <c r="D37" s="118" t="s">
-        <v>212</v>
-      </c>
-      <c r="E37" s="119"/>
-      <c r="F37" s="118" t="s">
-        <v>265</v>
-      </c>
-      <c r="G37" s="203"/>
-      <c r="H37" s="120"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="116" t="s">
+        <v>211</v>
+      </c>
+      <c r="E37" s="117"/>
+      <c r="F37" s="116" t="s">
+        <v>264</v>
+      </c>
+      <c r="G37" s="201"/>
+      <c r="H37" s="118"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" insertRows="0" deleteRows="0"/>
@@ -33275,32 +33234,32 @@
       <selection pane="bottomRight" activeCell="A34" sqref="A34:A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="5" customWidth="1"/>
-    <col min="3" max="4" width="20.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="207" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="20.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="205" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="5" customWidth="1"/>
     <col min="9" max="1024" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="1025" max="16384" width="9.140625" hidden="1"/>
+    <col min="1025" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="219" t="s">
-        <v>524</v>
-      </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="220"/>
+    <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="238" t="s">
+        <v>520</v>
+      </c>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="239"/>
     </row>
-    <row r="2" spans="1:1024" s="16" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1024" s="16" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
@@ -34342,17 +34301,17 @@
       <c r="AMI2" s="17"/>
       <c r="AMJ2" s="17"/>
     </row>
-    <row r="3" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="242" t="s">
-        <v>537</v>
-      </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="127"/>
+    <row r="3" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="248" t="s">
+        <v>533</v>
+      </c>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -34367,138 +34326,138 @@
       <c r="T3" s="7"/>
       <c r="AMJ3" s="5"/>
     </row>
-    <row r="4" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="243"/>
-      <c r="B4" s="107" t="s">
+    <row r="4" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="249"/>
+      <c r="B4" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="106"/>
+      <c r="D4" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="106" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="107" t="s">
+      <c r="F4" s="105" t="s">
+        <v>313</v>
+      </c>
+      <c r="G4" s="197" t="s">
+        <v>530</v>
+      </c>
+      <c r="H4" s="126"/>
+    </row>
+    <row r="5" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="249"/>
+      <c r="B5" s="105" t="s">
+        <v>314</v>
+      </c>
+      <c r="C5" s="106"/>
+      <c r="D5" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="108" t="s">
-        <v>209</v>
-      </c>
-      <c r="F4" s="107" t="s">
-        <v>314</v>
-      </c>
-      <c r="G4" s="199" t="s">
-        <v>534</v>
-      </c>
-      <c r="H4" s="128"/>
+      <c r="E5" s="106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5" s="105" t="s">
+        <v>315</v>
+      </c>
+      <c r="G5" s="197" t="s">
+        <v>530</v>
+      </c>
+      <c r="H5" s="126"/>
     </row>
-    <row r="5" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="243"/>
-      <c r="B5" s="107" t="s">
-        <v>315</v>
-      </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="107" t="s">
+    <row r="6" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="249"/>
+      <c r="B6" s="105" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6" s="106"/>
+      <c r="D6" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="108" t="s">
-        <v>209</v>
-      </c>
-      <c r="F5" s="107" t="s">
-        <v>316</v>
-      </c>
-      <c r="G5" s="199" t="s">
-        <v>534</v>
-      </c>
-      <c r="H5" s="128"/>
+      <c r="E6" s="106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="105" t="s">
+        <v>317</v>
+      </c>
+      <c r="G6" s="197" t="s">
+        <v>530</v>
+      </c>
+      <c r="H6" s="126"/>
     </row>
-    <row r="6" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="243"/>
-      <c r="B6" s="107" t="s">
-        <v>317</v>
-      </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="107" t="s">
+    <row r="7" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="249"/>
+      <c r="B7" s="105" t="s">
+        <v>318</v>
+      </c>
+      <c r="C7" s="106"/>
+      <c r="D7" s="105" t="s">
+        <v>319</v>
+      </c>
+      <c r="E7" s="106" t="s">
+        <v>492</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>320</v>
+      </c>
+      <c r="G7" s="197" t="s">
+        <v>530</v>
+      </c>
+      <c r="H7" s="126"/>
+    </row>
+    <row r="8" spans="1:1024" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="250"/>
+      <c r="B8" s="108" t="s">
+        <v>321</v>
+      </c>
+      <c r="C8" s="109"/>
+      <c r="D8" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="108" t="s">
-        <v>209</v>
-      </c>
-      <c r="F6" s="107" t="s">
-        <v>318</v>
-      </c>
-      <c r="G6" s="199" t="s">
-        <v>534</v>
-      </c>
-      <c r="H6" s="128"/>
+      <c r="E8" s="109" t="s">
+        <v>493</v>
+      </c>
+      <c r="F8" s="108" t="s">
+        <v>322</v>
+      </c>
+      <c r="G8" s="198" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="127"/>
     </row>
-    <row r="7" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="243"/>
-      <c r="B7" s="107" t="s">
-        <v>319</v>
-      </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="107" t="s">
-        <v>320</v>
-      </c>
-      <c r="E7" s="108" t="s">
-        <v>496</v>
-      </c>
-      <c r="F7" s="107" t="s">
-        <v>321</v>
-      </c>
-      <c r="G7" s="199" t="s">
-        <v>534</v>
-      </c>
-      <c r="H7" s="128"/>
-    </row>
-    <row r="8" spans="1:1024" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="244"/>
-      <c r="B8" s="110" t="s">
-        <v>322</v>
-      </c>
-      <c r="C8" s="111"/>
-      <c r="D8" s="110" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="111" t="s">
-        <v>497</v>
-      </c>
-      <c r="F8" s="110" t="s">
-        <v>323</v>
-      </c>
-      <c r="G8" s="200" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="129"/>
-    </row>
-    <row r="9" spans="1:1024" s="7" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="245" t="s">
+    <row r="9" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="251" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="125"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="206"/>
-      <c r="H9" s="130"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="204"/>
+      <c r="H9" s="128"/>
       <c r="AMJ9" s="5"/>
     </row>
-    <row r="10" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="246"/>
-      <c r="B10" s="115" t="s">
+    <row r="10" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="253"/>
+      <c r="B10" s="113" t="s">
+        <v>323</v>
+      </c>
+      <c r="C10" s="114"/>
+      <c r="D10" s="113" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="114" t="s">
+        <v>494</v>
+      </c>
+      <c r="F10" s="113" t="s">
         <v>324</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="115" t="s">
-        <v>212</v>
-      </c>
-      <c r="E10" s="116" t="s">
-        <v>498</v>
-      </c>
-      <c r="F10" s="115" t="s">
-        <v>325</v>
-      </c>
-      <c r="G10" s="208" t="s">
+      <c r="G10" s="206" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="131"/>
+      <c r="H10" s="129"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -35516,25 +35475,25 @@
       <c r="AMI10" s="8"/>
       <c r="AMJ10" s="8"/>
     </row>
-    <row r="11" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="246"/>
-      <c r="B11" s="115" t="s">
-        <v>326</v>
-      </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="115" t="s">
-        <v>212</v>
-      </c>
-      <c r="E11" s="116" t="s">
-        <v>501</v>
-      </c>
-      <c r="F11" s="115" t="s">
-        <v>517</v>
-      </c>
-      <c r="G11" s="202" t="s">
+    <row r="11" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="253"/>
+      <c r="B11" s="113" t="s">
+        <v>325</v>
+      </c>
+      <c r="C11" s="114"/>
+      <c r="D11" s="113" t="s">
+        <v>211</v>
+      </c>
+      <c r="E11" s="114" t="s">
+        <v>497</v>
+      </c>
+      <c r="F11" s="113" t="s">
+        <v>513</v>
+      </c>
+      <c r="G11" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="131"/>
+      <c r="H11" s="129"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -36552,25 +36511,25 @@
       <c r="AMI11" s="8"/>
       <c r="AMJ11" s="8"/>
     </row>
-    <row r="12" spans="1:1024" s="10" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A12" s="246"/>
-      <c r="B12" s="115" t="s">
+    <row r="12" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="253"/>
+      <c r="B12" s="113" t="s">
+        <v>326</v>
+      </c>
+      <c r="C12" s="114"/>
+      <c r="D12" s="113" t="s">
         <v>327</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="115" t="s">
+      <c r="E12" s="114" t="s">
+        <v>498</v>
+      </c>
+      <c r="F12" s="113" t="s">
         <v>328</v>
       </c>
-      <c r="E12" s="116" t="s">
-        <v>502</v>
-      </c>
-      <c r="F12" s="115" t="s">
-        <v>329</v>
-      </c>
-      <c r="G12" s="202" t="s">
+      <c r="G12" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="131"/>
+      <c r="H12" s="129"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -37588,25 +37547,25 @@
       <c r="AMI12" s="8"/>
       <c r="AMJ12" s="8"/>
     </row>
-    <row r="13" spans="1:1024" s="10" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="246"/>
-      <c r="B13" s="115" t="s">
+    <row r="13" spans="1:1024" s="10" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A13" s="253"/>
+      <c r="B13" s="113" t="s">
+        <v>329</v>
+      </c>
+      <c r="C13" s="114"/>
+      <c r="D13" s="113" t="s">
+        <v>211</v>
+      </c>
+      <c r="E13" s="114" t="s">
+        <v>499</v>
+      </c>
+      <c r="F13" s="113" t="s">
         <v>330</v>
       </c>
-      <c r="C13" s="116"/>
-      <c r="D13" s="115" t="s">
-        <v>212</v>
-      </c>
-      <c r="E13" s="116" t="s">
-        <v>503</v>
-      </c>
-      <c r="F13" s="115" t="s">
-        <v>331</v>
-      </c>
-      <c r="G13" s="208" t="s">
+      <c r="G13" s="206" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="131"/>
+      <c r="H13" s="129"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -38624,25 +38583,25 @@
       <c r="AMI13" s="8"/>
       <c r="AMJ13" s="8"/>
     </row>
-    <row r="14" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="246"/>
-      <c r="B14" s="115" t="s">
+    <row r="14" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="253"/>
+      <c r="B14" s="113" t="s">
+        <v>331</v>
+      </c>
+      <c r="C14" s="114"/>
+      <c r="D14" s="113" t="s">
+        <v>211</v>
+      </c>
+      <c r="E14" s="114" t="s">
+        <v>509</v>
+      </c>
+      <c r="F14" s="113" t="s">
         <v>332</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="115" t="s">
-        <v>212</v>
-      </c>
-      <c r="E14" s="116" t="s">
-        <v>513</v>
-      </c>
-      <c r="F14" s="115" t="s">
-        <v>333</v>
-      </c>
-      <c r="G14" s="202" t="s">
+      <c r="G14" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="131"/>
+      <c r="H14" s="129"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -39660,23 +39619,23 @@
       <c r="AMI14" s="8"/>
       <c r="AMJ14" s="8"/>
     </row>
-    <row r="15" spans="1:1024" s="16" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="247"/>
-      <c r="B15" s="118" t="s">
+    <row r="15" spans="1:1024" s="16" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="252"/>
+      <c r="B15" s="116" t="s">
+        <v>333</v>
+      </c>
+      <c r="C15" s="117"/>
+      <c r="D15" s="116" t="s">
         <v>334</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="118" t="s">
+      <c r="E15" s="117" t="s">
+        <v>510</v>
+      </c>
+      <c r="F15" s="116" t="s">
         <v>335</v>
       </c>
-      <c r="E15" s="119" t="s">
-        <v>514</v>
-      </c>
-      <c r="F15" s="118" t="s">
-        <v>336</v>
-      </c>
-      <c r="G15" s="203"/>
-      <c r="H15" s="132"/>
+      <c r="G15" s="201"/>
+      <c r="H15" s="130"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
@@ -40694,17 +40653,17 @@
       <c r="AMI15" s="17"/>
       <c r="AMJ15" s="17"/>
     </row>
-    <row r="16" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="242" t="s">
-        <v>538</v>
-      </c>
-      <c r="B16" s="123"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="209"/>
-      <c r="H16" s="133"/>
+    <row r="16" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="248" t="s">
+        <v>534</v>
+      </c>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="207"/>
+      <c r="H16" s="131"/>
       <c r="I16" s="7"/>
       <c r="J16" s="5"/>
       <c r="K16" s="7"/>
@@ -40715,25 +40674,25 @@
       <c r="P16" s="7"/>
       <c r="AMJ16" s="5"/>
     </row>
-    <row r="17" spans="1:1024" s="16" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="244"/>
-      <c r="B17" s="110" t="s">
+    <row r="17" spans="1:1024" s="16" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="250"/>
+      <c r="B17" s="108" t="s">
+        <v>336</v>
+      </c>
+      <c r="C17" s="109"/>
+      <c r="D17" s="108" t="s">
         <v>337</v>
       </c>
-      <c r="C17" s="111"/>
-      <c r="D17" s="110" t="s">
+      <c r="E17" s="109" t="s">
+        <v>511</v>
+      </c>
+      <c r="F17" s="108" t="s">
         <v>338</v>
       </c>
-      <c r="E17" s="111" t="s">
-        <v>515</v>
-      </c>
-      <c r="F17" s="110" t="s">
-        <v>339</v>
-      </c>
-      <c r="G17" s="200" t="s">
+      <c r="G17" s="198" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="129"/>
+      <c r="H17" s="127"/>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
@@ -41751,17 +41710,17 @@
       <c r="AMI17" s="17"/>
       <c r="AMJ17" s="17"/>
     </row>
-    <row r="18" spans="1:1024" s="40" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="245" t="s">
-        <v>340</v>
-      </c>
-      <c r="B18" s="113"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="201"/>
-      <c r="H18" s="113"/>
+    <row r="18" spans="1:1024" s="40" customFormat="1" ht="18.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="251" t="s">
+        <v>339</v>
+      </c>
+      <c r="B18" s="111"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="111"/>
       <c r="I18" s="39"/>
       <c r="J18" s="39"/>
       <c r="K18" s="39"/>
@@ -42779,77 +42738,77 @@
       <c r="AMI18" s="39"/>
       <c r="AMJ18" s="39"/>
     </row>
-    <row r="19" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="246"/>
-      <c r="B19" s="115" t="s">
+    <row r="19" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="253"/>
+      <c r="B19" s="113" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="116"/>
-      <c r="D19" s="115" t="s">
-        <v>225</v>
-      </c>
-      <c r="E19" s="116" t="s">
-        <v>499</v>
-      </c>
-      <c r="F19" s="115" t="s">
+      <c r="C19" s="114"/>
+      <c r="D19" s="113" t="s">
+        <v>224</v>
+      </c>
+      <c r="E19" s="114" t="s">
+        <v>495</v>
+      </c>
+      <c r="F19" s="113" t="s">
+        <v>340</v>
+      </c>
+      <c r="G19" s="206" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="129"/>
+    </row>
+    <row r="20" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="253"/>
+      <c r="B20" s="113" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="114"/>
+      <c r="D20" s="113" t="s">
+        <v>224</v>
+      </c>
+      <c r="E20" s="114" t="s">
+        <v>496</v>
+      </c>
+      <c r="F20" s="113" t="s">
         <v>341</v>
       </c>
-      <c r="G19" s="208" t="s">
+      <c r="G20" s="206" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="131"/>
+      <c r="H20" s="129"/>
     </row>
-    <row r="20" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="246"/>
-      <c r="B20" s="115" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="116"/>
-      <c r="D20" s="115" t="s">
-        <v>225</v>
-      </c>
-      <c r="E20" s="116" t="s">
+    <row r="21" spans="1:1024" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="252"/>
+      <c r="B21" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="117"/>
+      <c r="D21" s="116" t="s">
+        <v>337</v>
+      </c>
+      <c r="E21" s="117" t="s">
         <v>500</v>
       </c>
-      <c r="F20" s="115" t="s">
+      <c r="F21" s="116" t="s">
         <v>342</v>
       </c>
-      <c r="G20" s="208" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="131"/>
+      <c r="G21" s="201" t="s">
+        <v>343</v>
+      </c>
+      <c r="H21" s="130"/>
     </row>
-    <row r="21" spans="1:1024" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="247"/>
-      <c r="B21" s="118" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" s="119"/>
-      <c r="D21" s="118" t="s">
-        <v>338</v>
-      </c>
-      <c r="E21" s="119" t="s">
-        <v>504</v>
-      </c>
-      <c r="F21" s="118" t="s">
-        <v>343</v>
-      </c>
-      <c r="G21" s="203" t="s">
+    <row r="22" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="248" t="s">
         <v>344</v>
       </c>
-      <c r="H21" s="132"/>
-    </row>
-    <row r="22" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="242" t="s">
-        <v>345</v>
-      </c>
-      <c r="B22" s="123"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="209"/>
-      <c r="H22" s="133"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="207"/>
+      <c r="H22" s="131"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
@@ -42859,108 +42818,108 @@
       <c r="O22" s="7"/>
       <c r="AMJ22" s="5"/>
     </row>
-    <row r="23" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="243"/>
-      <c r="B23" s="107" t="s">
+    <row r="23" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="249"/>
+      <c r="B23" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="108"/>
-      <c r="D23" s="107" t="s">
-        <v>212</v>
-      </c>
-      <c r="E23" s="108" t="s">
-        <v>516</v>
-      </c>
-      <c r="F23" s="107" t="s">
+      <c r="C23" s="106"/>
+      <c r="D23" s="105" t="s">
+        <v>211</v>
+      </c>
+      <c r="E23" s="106" t="s">
+        <v>512</v>
+      </c>
+      <c r="F23" s="105" t="s">
+        <v>345</v>
+      </c>
+      <c r="G23" s="197" t="s">
         <v>346</v>
       </c>
-      <c r="G23" s="199" t="s">
+      <c r="H23" s="126"/>
+    </row>
+    <row r="24" spans="1:1024" ht="146.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="249"/>
+      <c r="B24" s="105" t="s">
         <v>347</v>
       </c>
-      <c r="H23" s="128"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="105" t="s">
+        <v>231</v>
+      </c>
+      <c r="E24" s="106" t="s">
+        <v>514</v>
+      </c>
+      <c r="F24" s="105" t="s">
+        <v>508</v>
+      </c>
+      <c r="G24" s="197" t="s">
+        <v>348</v>
+      </c>
+      <c r="H24" s="126"/>
     </row>
-    <row r="24" spans="1:1024" ht="146.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="243"/>
-      <c r="B24" s="107" t="s">
-        <v>348</v>
-      </c>
-      <c r="C24" s="108"/>
-      <c r="D24" s="107" t="s">
-        <v>232</v>
-      </c>
-      <c r="E24" s="108" t="s">
-        <v>518</v>
-      </c>
-      <c r="F24" s="107" t="s">
-        <v>512</v>
-      </c>
-      <c r="G24" s="199" t="s">
+    <row r="25" spans="1:1024" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="250"/>
+      <c r="B25" s="108" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="109"/>
+      <c r="D25" s="108" t="s">
         <v>349</v>
       </c>
-      <c r="H24" s="128"/>
+      <c r="E25" s="109" t="s">
+        <v>507</v>
+      </c>
+      <c r="F25" s="108" t="s">
+        <v>350</v>
+      </c>
+      <c r="G25" s="198" t="s">
+        <v>343</v>
+      </c>
+      <c r="H25" s="127"/>
     </row>
-    <row r="25" spans="1:1024" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="244"/>
-      <c r="B25" s="110" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="111"/>
-      <c r="D25" s="110" t="s">
-        <v>350</v>
-      </c>
-      <c r="E25" s="111" t="s">
-        <v>511</v>
-      </c>
-      <c r="F25" s="110" t="s">
-        <v>351</v>
-      </c>
-      <c r="G25" s="200" t="s">
-        <v>344</v>
-      </c>
-      <c r="H25" s="129"/>
-    </row>
-    <row r="26" spans="1:1024" s="7" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="245" t="s">
-        <v>539</v>
-      </c>
-      <c r="B26" s="134"/>
-      <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="210"/>
-      <c r="H26" s="135"/>
+    <row r="26" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="251" t="s">
+        <v>535</v>
+      </c>
+      <c r="B26" s="132"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="208"/>
+      <c r="H26" s="133"/>
       <c r="AMJ26" s="5"/>
     </row>
-    <row r="27" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="247"/>
-      <c r="B27" s="118" t="s">
+    <row r="27" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="252"/>
+      <c r="B27" s="116" t="s">
+        <v>351</v>
+      </c>
+      <c r="C27" s="117"/>
+      <c r="D27" s="116" t="s">
         <v>352</v>
       </c>
-      <c r="C27" s="119"/>
-      <c r="D27" s="118" t="s">
+      <c r="E27" s="117"/>
+      <c r="F27" s="116" t="s">
         <v>353</v>
       </c>
-      <c r="E27" s="119"/>
-      <c r="F27" s="118" t="s">
+      <c r="G27" s="201" t="s">
+        <v>531</v>
+      </c>
+      <c r="H27" s="130"/>
+    </row>
+    <row r="28" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="248" t="s">
         <v>354</v>
       </c>
-      <c r="G27" s="203" t="s">
-        <v>535</v>
-      </c>
-      <c r="H27" s="132"/>
-    </row>
-    <row r="28" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="242" t="s">
-        <v>355</v>
-      </c>
-      <c r="B28" s="123"/>
-      <c r="C28" s="123"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="209"/>
-      <c r="H28" s="133"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="207"/>
+      <c r="H28" s="131"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
@@ -42970,156 +42929,156 @@
       <c r="O28" s="7"/>
       <c r="AMJ28" s="5"/>
     </row>
-    <row r="29" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
-      <c r="A29" s="243"/>
-      <c r="B29" s="107" t="s">
+    <row r="29" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" s="249"/>
+      <c r="B29" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="108"/>
-      <c r="D29" s="107" t="s">
-        <v>212</v>
-      </c>
-      <c r="E29" s="108" t="s">
-        <v>509</v>
-      </c>
-      <c r="F29" s="107" t="s">
+      <c r="C29" s="106"/>
+      <c r="D29" s="105" t="s">
+        <v>211</v>
+      </c>
+      <c r="E29" s="106" t="s">
+        <v>505</v>
+      </c>
+      <c r="F29" s="105" t="s">
+        <v>355</v>
+      </c>
+      <c r="G29" s="197" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="126"/>
+    </row>
+    <row r="30" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="249"/>
+      <c r="B30" s="105" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="106"/>
+      <c r="D30" s="105" t="s">
+        <v>211</v>
+      </c>
+      <c r="E30" s="106" t="s">
+        <v>504</v>
+      </c>
+      <c r="F30" s="105" t="s">
         <v>356</v>
       </c>
-      <c r="G29" s="199" t="s">
+      <c r="G30" s="197" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="128"/>
+      <c r="H30" s="126"/>
     </row>
-    <row r="30" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="243"/>
-      <c r="B30" s="107" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="108"/>
-      <c r="D30" s="107" t="s">
-        <v>212</v>
-      </c>
-      <c r="E30" s="108" t="s">
-        <v>508</v>
-      </c>
-      <c r="F30" s="107" t="s">
+    <row r="31" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="249"/>
+      <c r="B31" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="106"/>
+      <c r="D31" s="105" t="s">
+        <v>211</v>
+      </c>
+      <c r="E31" s="106" t="s">
+        <v>502</v>
+      </c>
+      <c r="F31" s="105" t="s">
         <v>357</v>
       </c>
-      <c r="G30" s="199" t="s">
+      <c r="G31" s="197" t="s">
         <v>43</v>
       </c>
-      <c r="H30" s="128"/>
+      <c r="H31" s="126"/>
     </row>
-    <row r="31" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="243"/>
-      <c r="B31" s="107" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="108"/>
-      <c r="D31" s="107" t="s">
-        <v>212</v>
-      </c>
-      <c r="E31" s="108" t="s">
-        <v>506</v>
-      </c>
-      <c r="F31" s="107" t="s">
+    <row r="32" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="249"/>
+      <c r="B32" s="105" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="106"/>
+      <c r="D32" s="105" t="s">
+        <v>211</v>
+      </c>
+      <c r="E32" s="106" t="s">
+        <v>501</v>
+      </c>
+      <c r="F32" s="105" t="s">
         <v>358</v>
       </c>
-      <c r="G31" s="199" t="s">
+      <c r="G32" s="197" t="s">
         <v>43</v>
       </c>
-      <c r="H31" s="128"/>
+      <c r="H32" s="126"/>
     </row>
-    <row r="32" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="243"/>
-      <c r="B32" s="107" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" s="108"/>
-      <c r="D32" s="107" t="s">
-        <v>212</v>
-      </c>
-      <c r="E32" s="108" t="s">
-        <v>505</v>
-      </c>
-      <c r="F32" s="107" t="s">
+    <row r="33" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="250"/>
+      <c r="B33" s="108" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="109"/>
+      <c r="D33" s="108" t="s">
+        <v>211</v>
+      </c>
+      <c r="E33" s="109" t="s">
+        <v>503</v>
+      </c>
+      <c r="F33" s="108" t="s">
         <v>359</v>
       </c>
-      <c r="G32" s="199" t="s">
+      <c r="G33" s="198" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="128"/>
+      <c r="H33" s="127"/>
     </row>
-    <row r="33" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="244"/>
-      <c r="B33" s="110" t="s">
-        <v>130</v>
-      </c>
-      <c r="C33" s="111"/>
-      <c r="D33" s="110" t="s">
-        <v>212</v>
-      </c>
-      <c r="E33" s="111" t="s">
-        <v>507</v>
-      </c>
-      <c r="F33" s="110" t="s">
+    <row r="34" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="251" t="s">
         <v>360</v>
       </c>
-      <c r="G33" s="200" t="s">
-        <v>43</v>
-      </c>
-      <c r="H33" s="129"/>
-    </row>
-    <row r="34" spans="1:1024" s="7" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="245" t="s">
-        <v>361</v>
-      </c>
-      <c r="B34" s="125"/>
-      <c r="C34" s="125"/>
-      <c r="D34" s="125"/>
-      <c r="E34" s="125"/>
-      <c r="F34" s="125"/>
-      <c r="G34" s="206"/>
-      <c r="H34" s="130"/>
+      <c r="B34" s="123"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="204"/>
+      <c r="H34" s="128"/>
       <c r="AMJ34" s="5"/>
     </row>
-    <row r="35" spans="1:1024" ht="89.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="246"/>
-      <c r="B35" s="115" t="s">
+    <row r="35" spans="1:1024" ht="89.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="253"/>
+      <c r="B35" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="116"/>
-      <c r="D35" s="115" t="s">
-        <v>212</v>
-      </c>
-      <c r="E35" s="116" t="s">
-        <v>510</v>
-      </c>
-      <c r="F35" s="115" t="s">
-        <v>519</v>
-      </c>
-      <c r="G35" s="202" t="s">
+      <c r="C35" s="114"/>
+      <c r="D35" s="113" t="s">
+        <v>211</v>
+      </c>
+      <c r="E35" s="114" t="s">
+        <v>506</v>
+      </c>
+      <c r="F35" s="113" t="s">
+        <v>515</v>
+      </c>
+      <c r="G35" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="131"/>
+      <c r="H35" s="129"/>
     </row>
-    <row r="36" spans="1:1024" ht="44.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="247"/>
-      <c r="B36" s="118" t="s">
+    <row r="36" spans="1:1024" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="252"/>
+      <c r="B36" s="116" t="s">
+        <v>361</v>
+      </c>
+      <c r="C36" s="117"/>
+      <c r="D36" s="116" t="s">
+        <v>211</v>
+      </c>
+      <c r="E36" s="117"/>
+      <c r="F36" s="116" t="s">
         <v>362</v>
       </c>
-      <c r="C36" s="119"/>
-      <c r="D36" s="118" t="s">
-        <v>212</v>
-      </c>
-      <c r="E36" s="119"/>
-      <c r="F36" s="118" t="s">
-        <v>363</v>
-      </c>
-      <c r="G36" s="203" t="s">
+      <c r="G36" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="H36" s="132"/>
+      <c r="H36" s="130"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" insertRows="0" deleteRows="0"/>
@@ -43156,33 +43115,33 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="136" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="136" customWidth="1"/>
-    <col min="3" max="4" width="20.7109375" style="136" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" style="136" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" style="136" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="211" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="136" customWidth="1"/>
-    <col min="9" max="67" width="10.42578125" style="136" hidden="1" customWidth="1"/>
-    <col min="68" max="1024" width="0" style="136" hidden="1" customWidth="1"/>
-    <col min="1025" max="16384" width="9.140625" style="137" hidden="1"/>
+    <col min="1" max="1" width="30.6640625" style="134" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="134" customWidth="1"/>
+    <col min="3" max="4" width="20.6640625" style="134" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" style="134" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" style="134" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="209" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="134" customWidth="1"/>
+    <col min="9" max="67" width="10.5" style="134" hidden="1" customWidth="1"/>
+    <col min="68" max="1024" width="0" style="134" hidden="1" customWidth="1"/>
+    <col min="1025" max="16384" width="9.1640625" style="135" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="219" t="s">
-        <v>525</v>
-      </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="220"/>
+    <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="238" t="s">
+        <v>521</v>
+      </c>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="239"/>
     </row>
-    <row r="2" spans="1:1024" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1024" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -43208,9 +43167,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1024" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="229" t="s">
-        <v>540</v>
+    <row r="3" spans="1:1024" s="11" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="235" t="s">
+        <v>536</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -43233,293 +43192,293 @@
       <c r="T3" s="12"/>
       <c r="U3" s="12"/>
       <c r="V3" s="12"/>
-      <c r="AMJ3" s="136"/>
+      <c r="AMJ3" s="134"/>
     </row>
-    <row r="4" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="230"/>
-      <c r="B4" s="108" t="s">
+    <row r="4" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="236"/>
+      <c r="B4" s="106" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="106"/>
+      <c r="D4" s="136" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="138" t="s">
-        <v>209</v>
-      </c>
-      <c r="E4" s="108" t="s">
-        <v>267</v>
-      </c>
-      <c r="F4" s="138" t="s">
+      <c r="E4" s="106" t="s">
+        <v>266</v>
+      </c>
+      <c r="F4" s="136" t="s">
+        <v>363</v>
+      </c>
+      <c r="G4" s="197" t="s">
+        <v>530</v>
+      </c>
+      <c r="H4" s="137"/>
+    </row>
+    <row r="5" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="236"/>
+      <c r="B5" s="106" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" s="106"/>
+      <c r="D5" s="136" t="s">
+        <v>269</v>
+      </c>
+      <c r="E5" s="106" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" s="136" t="s">
+        <v>271</v>
+      </c>
+      <c r="G5" s="197" t="s">
+        <v>530</v>
+      </c>
+      <c r="H5" s="137"/>
+    </row>
+    <row r="6" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="236"/>
+      <c r="B6" s="106" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="106"/>
+      <c r="D6" s="136" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="106">
+        <v>21</v>
+      </c>
+      <c r="F6" s="136" t="s">
         <v>364</v>
       </c>
-      <c r="G4" s="199" t="s">
-        <v>534</v>
-      </c>
-      <c r="H4" s="139"/>
+      <c r="G6" s="197"/>
+      <c r="H6" s="137"/>
     </row>
-    <row r="5" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="230"/>
-      <c r="B5" s="108" t="s">
-        <v>269</v>
-      </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="138" t="s">
-        <v>270</v>
-      </c>
-      <c r="E5" s="108" t="s">
-        <v>271</v>
-      </c>
-      <c r="F5" s="138" t="s">
-        <v>272</v>
-      </c>
-      <c r="G5" s="199" t="s">
-        <v>534</v>
-      </c>
-      <c r="H5" s="139"/>
+    <row r="7" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="236"/>
+      <c r="B7" s="106" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="106"/>
+      <c r="D7" s="136" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" s="106" t="s">
+        <v>275</v>
+      </c>
+      <c r="F7" s="136" t="s">
+        <v>276</v>
+      </c>
+      <c r="G7" s="197" t="s">
+        <v>530</v>
+      </c>
+      <c r="H7" s="137"/>
     </row>
-    <row r="6" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="230"/>
-      <c r="B6" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="138" t="s">
+    <row r="8" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="236"/>
+      <c r="B8" s="106" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="106"/>
+      <c r="D8" s="136" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" s="106" t="s">
+        <v>278</v>
+      </c>
+      <c r="F8" s="136" t="s">
+        <v>365</v>
+      </c>
+      <c r="G8" s="197" t="s">
+        <v>530</v>
+      </c>
+      <c r="H8" s="137"/>
+    </row>
+    <row r="9" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="236"/>
+      <c r="B9" s="106" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="106"/>
+      <c r="D9" s="136" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9" s="106" t="s">
+        <v>366</v>
+      </c>
+      <c r="F9" s="136" t="s">
+        <v>283</v>
+      </c>
+      <c r="G9" s="197" t="s">
+        <v>530</v>
+      </c>
+      <c r="H9" s="137"/>
+    </row>
+    <row r="10" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="236"/>
+      <c r="B10" s="106" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="106"/>
+      <c r="D10" s="136" t="s">
+        <v>284</v>
+      </c>
+      <c r="E10" s="106" t="s">
+        <v>367</v>
+      </c>
+      <c r="F10" s="136" t="s">
+        <v>368</v>
+      </c>
+      <c r="G10" s="197"/>
+      <c r="H10" s="137"/>
+    </row>
+    <row r="11" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="236"/>
+      <c r="B11" s="106" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106" t="s">
+        <v>284</v>
+      </c>
+      <c r="E11" s="106" t="s">
+        <v>288</v>
+      </c>
+      <c r="F11" s="136" t="s">
+        <v>369</v>
+      </c>
+      <c r="G11" s="197"/>
+      <c r="H11" s="137"/>
+    </row>
+    <row r="12" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="236"/>
+      <c r="B12" s="106" t="s">
+        <v>370</v>
+      </c>
+      <c r="C12" s="106"/>
+      <c r="D12" s="136" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" s="106" t="s">
+        <v>371</v>
+      </c>
+      <c r="F12" s="136" t="s">
+        <v>372</v>
+      </c>
+      <c r="G12" s="197"/>
+      <c r="H12" s="137"/>
+    </row>
+    <row r="13" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="236"/>
+      <c r="B13" s="106" t="s">
+        <v>293</v>
+      </c>
+      <c r="C13" s="106"/>
+      <c r="D13" s="136" t="s">
+        <v>373</v>
+      </c>
+      <c r="E13" s="106" t="s">
+        <v>295</v>
+      </c>
+      <c r="F13" s="136" t="s">
+        <v>296</v>
+      </c>
+      <c r="G13" s="197"/>
+      <c r="H13" s="137"/>
+    </row>
+    <row r="14" spans="1:1024" ht="85" x14ac:dyDescent="0.2">
+      <c r="A14" s="236"/>
+      <c r="B14" s="106" t="s">
+        <v>374</v>
+      </c>
+      <c r="C14" s="106"/>
+      <c r="D14" s="136" t="s">
+        <v>208</v>
+      </c>
+      <c r="E14" s="136" t="s">
+        <v>375</v>
+      </c>
+      <c r="F14" s="136" t="s">
+        <v>376</v>
+      </c>
+      <c r="G14" s="197"/>
+      <c r="H14" s="137"/>
+    </row>
+    <row r="15" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="236"/>
+      <c r="B15" s="106" t="s">
+        <v>377</v>
+      </c>
+      <c r="C15" s="106"/>
+      <c r="D15" s="136" t="s">
+        <v>208</v>
+      </c>
+      <c r="E15" s="136" t="s">
+        <v>378</v>
+      </c>
+      <c r="F15" s="136" t="s">
+        <v>379</v>
+      </c>
+      <c r="G15" s="197"/>
+      <c r="H15" s="137"/>
+    </row>
+    <row r="16" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="236"/>
+      <c r="B16" s="106" t="s">
+        <v>380</v>
+      </c>
+      <c r="C16" s="106"/>
+      <c r="D16" s="136" t="s">
+        <v>381</v>
+      </c>
+      <c r="E16" s="136" t="s">
+        <v>382</v>
+      </c>
+      <c r="F16" s="136" t="s">
+        <v>383</v>
+      </c>
+      <c r="G16" s="197"/>
+      <c r="H16" s="137"/>
+    </row>
+    <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="236"/>
+      <c r="B17" s="106" t="s">
+        <v>384</v>
+      </c>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106" t="s">
         <v>163</v>
       </c>
-      <c r="E6" s="108">
-        <v>21</v>
-      </c>
-      <c r="F6" s="138" t="s">
-        <v>365</v>
-      </c>
-      <c r="G6" s="199"/>
-      <c r="H6" s="139"/>
+      <c r="E17" s="106">
+        <v>12</v>
+      </c>
+      <c r="F17" s="136" t="s">
+        <v>385</v>
+      </c>
+      <c r="G17" s="197"/>
+      <c r="H17" s="137"/>
     </row>
-    <row r="7" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="230"/>
-      <c r="B7" s="108" t="s">
-        <v>275</v>
-      </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="138" t="s">
-        <v>209</v>
-      </c>
-      <c r="E7" s="108" t="s">
-        <v>276</v>
-      </c>
-      <c r="F7" s="138" t="s">
-        <v>277</v>
-      </c>
-      <c r="G7" s="199" t="s">
-        <v>534</v>
-      </c>
-      <c r="H7" s="139"/>
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="237"/>
+      <c r="B18" s="109" t="s">
+        <v>310</v>
+      </c>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="109" t="s">
+        <v>386</v>
+      </c>
+      <c r="F18" s="138" t="s">
+        <v>312</v>
+      </c>
+      <c r="G18" s="198"/>
+      <c r="H18" s="139"/>
     </row>
-    <row r="8" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="230"/>
-      <c r="B8" s="108" t="s">
-        <v>278</v>
-      </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="138" t="s">
-        <v>209</v>
-      </c>
-      <c r="E8" s="108" t="s">
-        <v>279</v>
-      </c>
-      <c r="F8" s="138" t="s">
-        <v>366</v>
-      </c>
-      <c r="G8" s="199" t="s">
-        <v>534</v>
-      </c>
-      <c r="H8" s="139"/>
+    <row r="20" spans="1:8" ht="23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="140"/>
     </row>
-    <row r="9" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="230"/>
-      <c r="B9" s="108" t="s">
-        <v>281</v>
-      </c>
-      <c r="C9" s="108"/>
-      <c r="D9" s="138" t="s">
-        <v>209</v>
-      </c>
-      <c r="E9" s="108" t="s">
-        <v>367</v>
-      </c>
-      <c r="F9" s="138" t="s">
-        <v>284</v>
-      </c>
-      <c r="G9" s="199" t="s">
-        <v>534</v>
-      </c>
-      <c r="H9" s="139"/>
-    </row>
-    <row r="10" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="230"/>
-      <c r="B10" s="108" t="s">
-        <v>211</v>
-      </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="138" t="s">
-        <v>285</v>
-      </c>
-      <c r="E10" s="108" t="s">
-        <v>368</v>
-      </c>
-      <c r="F10" s="138" t="s">
-        <v>369</v>
-      </c>
-      <c r="G10" s="199"/>
-      <c r="H10" s="139"/>
-    </row>
-    <row r="11" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="230"/>
-      <c r="B11" s="108" t="s">
-        <v>288</v>
-      </c>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108" t="s">
-        <v>285</v>
-      </c>
-      <c r="E11" s="108" t="s">
-        <v>289</v>
-      </c>
-      <c r="F11" s="138" t="s">
-        <v>370</v>
-      </c>
-      <c r="G11" s="199"/>
-      <c r="H11" s="139"/>
-    </row>
-    <row r="12" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="230"/>
-      <c r="B12" s="108" t="s">
-        <v>371</v>
-      </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="138" t="s">
-        <v>209</v>
-      </c>
-      <c r="E12" s="108" t="s">
-        <v>372</v>
-      </c>
-      <c r="F12" s="138" t="s">
-        <v>373</v>
-      </c>
-      <c r="G12" s="199"/>
-      <c r="H12" s="139"/>
-    </row>
-    <row r="13" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="230"/>
-      <c r="B13" s="108" t="s">
-        <v>294</v>
-      </c>
-      <c r="C13" s="108"/>
-      <c r="D13" s="138" t="s">
-        <v>374</v>
-      </c>
-      <c r="E13" s="108" t="s">
-        <v>296</v>
-      </c>
-      <c r="F13" s="138" t="s">
-        <v>297</v>
-      </c>
-      <c r="G13" s="199"/>
-      <c r="H13" s="139"/>
-    </row>
-    <row r="14" spans="1:1024" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="230"/>
-      <c r="B14" s="108" t="s">
-        <v>375</v>
-      </c>
-      <c r="C14" s="108"/>
-      <c r="D14" s="138" t="s">
-        <v>209</v>
-      </c>
-      <c r="E14" s="138" t="s">
-        <v>376</v>
-      </c>
-      <c r="F14" s="138" t="s">
-        <v>377</v>
-      </c>
-      <c r="G14" s="199"/>
-      <c r="H14" s="139"/>
-    </row>
-    <row r="15" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="230"/>
-      <c r="B15" s="108" t="s">
-        <v>378</v>
-      </c>
-      <c r="C15" s="108"/>
-      <c r="D15" s="138" t="s">
-        <v>209</v>
-      </c>
-      <c r="E15" s="138" t="s">
-        <v>379</v>
-      </c>
-      <c r="F15" s="138" t="s">
-        <v>380</v>
-      </c>
-      <c r="G15" s="199"/>
-      <c r="H15" s="139"/>
-    </row>
-    <row r="16" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="230"/>
-      <c r="B16" s="108" t="s">
-        <v>381</v>
-      </c>
-      <c r="C16" s="108"/>
-      <c r="D16" s="138" t="s">
-        <v>382</v>
-      </c>
-      <c r="E16" s="138" t="s">
-        <v>383</v>
-      </c>
-      <c r="F16" s="138" t="s">
-        <v>384</v>
-      </c>
-      <c r="G16" s="199"/>
-      <c r="H16" s="139"/>
-    </row>
-    <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="230"/>
-      <c r="B17" s="108" t="s">
-        <v>385</v>
-      </c>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108" t="s">
-        <v>163</v>
-      </c>
-      <c r="E17" s="108">
-        <v>12</v>
-      </c>
-      <c r="F17" s="138" t="s">
-        <v>386</v>
-      </c>
-      <c r="G17" s="199"/>
-      <c r="H17" s="139"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="231"/>
-      <c r="B18" s="111" t="s">
-        <v>311</v>
-      </c>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="111" t="s">
-        <v>387</v>
-      </c>
-      <c r="F18" s="140" t="s">
-        <v>313</v>
-      </c>
-      <c r="G18" s="200"/>
-      <c r="H18" s="141"/>
-    </row>
-    <row r="20" spans="1:8" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="142"/>
-    </row>
-    <row r="28" spans="1:8" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="143"/>
+    <row r="28" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="141"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" insertRows="0" deleteRows="0"/>
@@ -43545,32 +43504,32 @@
       <selection pane="bottomRight" activeCell="A3" sqref="A3:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="137" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="137" customWidth="1"/>
-    <col min="3" max="4" width="20.7109375" style="137" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" style="137" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" style="137" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="213" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="137" customWidth="1"/>
-    <col min="9" max="62" width="10.42578125" style="137" hidden="1" customWidth="1"/>
-    <col min="63" max="16384" width="0" style="137" hidden="1"/>
+    <col min="1" max="1" width="30.6640625" style="135" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="135" customWidth="1"/>
+    <col min="3" max="4" width="20.6640625" style="135" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" style="135" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" style="135" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="211" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="135" customWidth="1"/>
+    <col min="9" max="62" width="10.5" style="135" hidden="1" customWidth="1"/>
+    <col min="63" max="16384" width="0" style="135" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="219" t="s">
-        <v>526</v>
-      </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="220"/>
+    <row r="1" spans="1:17" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="238" t="s">
+        <v>522</v>
+      </c>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="239"/>
     </row>
-    <row r="2" spans="1:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -43596,438 +43555,438 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="146" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="248" t="s">
-        <v>540</v>
-      </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="212"/>
-      <c r="H3" s="145"/>
+    <row r="3" spans="1:17" s="144" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="254" t="s">
+        <v>536</v>
+      </c>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="143"/>
     </row>
-    <row r="4" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="249"/>
-      <c r="B4" s="108" t="s">
-        <v>208</v>
-      </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="107" t="s">
+    <row r="4" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="255"/>
+      <c r="B4" s="106" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="106"/>
+      <c r="D4" s="105" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" s="136" t="s">
         <v>266</v>
       </c>
-      <c r="E4" s="138" t="s">
+      <c r="F4" s="105" t="s">
         <v>267</v>
       </c>
-      <c r="F4" s="107" t="s">
+      <c r="G4" s="197" t="s">
+        <v>530</v>
+      </c>
+      <c r="H4" s="145"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="146"/>
+      <c r="O4" s="147"/>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="144"/>
+    </row>
+    <row r="5" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="255"/>
+      <c r="B5" s="106" t="s">
         <v>268</v>
       </c>
-      <c r="G4" s="199" t="s">
-        <v>534</v>
-      </c>
-      <c r="H4" s="147"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="148"/>
-      <c r="O4" s="149"/>
-      <c r="P4" s="146"/>
-      <c r="Q4" s="146"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="105" t="s">
+        <v>269</v>
+      </c>
+      <c r="E5" s="136" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" s="106" t="s">
+        <v>271</v>
+      </c>
+      <c r="G5" s="197" t="s">
+        <v>530</v>
+      </c>
+      <c r="H5" s="145"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="147"/>
+      <c r="L5" s="144"/>
+      <c r="M5" s="144"/>
+      <c r="N5" s="146"/>
+      <c r="O5" s="147"/>
+      <c r="P5" s="144"/>
+      <c r="Q5" s="144"/>
     </row>
-    <row r="5" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="249"/>
-      <c r="B5" s="108" t="s">
-        <v>269</v>
-      </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="107" t="s">
-        <v>270</v>
-      </c>
-      <c r="E5" s="138" t="s">
-        <v>271</v>
-      </c>
-      <c r="F5" s="108" t="s">
+    <row r="6" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="255"/>
+      <c r="B6" s="106" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="106"/>
+      <c r="D6" s="105" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="136" t="s">
         <v>272</v>
       </c>
-      <c r="G5" s="199" t="s">
-        <v>534</v>
-      </c>
-      <c r="H5" s="147"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="148"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="146"/>
-      <c r="M5" s="146"/>
-      <c r="N5" s="148"/>
-      <c r="O5" s="149"/>
-      <c r="P5" s="146"/>
-      <c r="Q5" s="146"/>
+      <c r="F6" s="106" t="s">
+        <v>273</v>
+      </c>
+      <c r="G6" s="197"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="146"/>
+      <c r="O6" s="147"/>
+      <c r="P6" s="144"/>
+      <c r="Q6" s="144"/>
     </row>
-    <row r="6" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="249"/>
-      <c r="B6" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="107" t="s">
-        <v>163</v>
-      </c>
-      <c r="E6" s="138" t="s">
-        <v>273</v>
-      </c>
-      <c r="F6" s="108" t="s">
+    <row r="7" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="255"/>
+      <c r="B7" s="106" t="s">
         <v>274</v>
       </c>
-      <c r="G6" s="199"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="148"/>
-      <c r="K6" s="149"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="146"/>
-      <c r="N6" s="148"/>
-      <c r="O6" s="149"/>
-      <c r="P6" s="146"/>
-      <c r="Q6" s="146"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="105" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" s="136" t="s">
+        <v>275</v>
+      </c>
+      <c r="F7" s="106" t="s">
+        <v>276</v>
+      </c>
+      <c r="G7" s="197" t="s">
+        <v>530</v>
+      </c>
+      <c r="H7" s="145"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="144"/>
+      <c r="N7" s="146"/>
+      <c r="O7" s="147"/>
+      <c r="P7" s="144"/>
+      <c r="Q7" s="144"/>
     </row>
-    <row r="7" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="249"/>
-      <c r="B7" s="108" t="s">
-        <v>275</v>
-      </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="107" t="s">
-        <v>266</v>
-      </c>
-      <c r="E7" s="138" t="s">
-        <v>276</v>
-      </c>
-      <c r="F7" s="108" t="s">
+    <row r="8" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="255"/>
+      <c r="B8" s="106" t="s">
         <v>277</v>
       </c>
-      <c r="G7" s="199" t="s">
-        <v>534</v>
-      </c>
-      <c r="H7" s="147"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="148"/>
-      <c r="K7" s="149"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="146"/>
-      <c r="N7" s="148"/>
-      <c r="O7" s="149"/>
-      <c r="P7" s="146"/>
-      <c r="Q7" s="146"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="105" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="136" t="s">
+        <v>278</v>
+      </c>
+      <c r="F8" s="106" t="s">
+        <v>279</v>
+      </c>
+      <c r="G8" s="197" t="s">
+        <v>530</v>
+      </c>
+      <c r="H8" s="145"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="147"/>
+      <c r="L8" s="144"/>
+      <c r="M8" s="144"/>
+      <c r="N8" s="146"/>
+      <c r="O8" s="147"/>
+      <c r="P8" s="144"/>
+      <c r="Q8" s="144"/>
     </row>
-    <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="249"/>
-      <c r="B8" s="108" t="s">
-        <v>278</v>
-      </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="107" t="s">
-        <v>266</v>
-      </c>
-      <c r="E8" s="138" t="s">
-        <v>279</v>
-      </c>
-      <c r="F8" s="108" t="s">
+    <row r="9" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="255"/>
+      <c r="B9" s="106" t="s">
         <v>280</v>
       </c>
-      <c r="G8" s="199" t="s">
-        <v>534</v>
-      </c>
-      <c r="H8" s="147"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="148"/>
-      <c r="K8" s="149"/>
-      <c r="L8" s="146"/>
-      <c r="M8" s="146"/>
-      <c r="N8" s="148"/>
-      <c r="O8" s="149"/>
-      <c r="P8" s="146"/>
-      <c r="Q8" s="146"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="105" t="s">
+        <v>281</v>
+      </c>
+      <c r="E9" s="148" t="s">
+        <v>282</v>
+      </c>
+      <c r="F9" s="106" t="s">
+        <v>283</v>
+      </c>
+      <c r="G9" s="197" t="s">
+        <v>530</v>
+      </c>
+      <c r="H9" s="149"/>
+      <c r="I9" s="144"/>
+      <c r="J9" s="146"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="144"/>
+      <c r="M9" s="144"/>
+      <c r="N9" s="146"/>
+      <c r="O9" s="150"/>
+      <c r="P9" s="144"/>
+      <c r="Q9" s="144"/>
     </row>
-    <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="249"/>
-      <c r="B9" s="108" t="s">
+    <row r="10" spans="1:17" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="255"/>
+      <c r="B10" s="106" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="106"/>
+      <c r="D10" s="105" t="s">
+        <v>284</v>
+      </c>
+      <c r="E10" s="136" t="s">
+        <v>285</v>
+      </c>
+      <c r="F10" s="106" t="s">
+        <v>286</v>
+      </c>
+      <c r="G10" s="197"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="144"/>
+      <c r="J10" s="146"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="144"/>
+      <c r="M10" s="144"/>
+      <c r="N10" s="146"/>
+      <c r="O10" s="147"/>
+      <c r="P10" s="144"/>
+      <c r="Q10" s="144"/>
+    </row>
+    <row r="11" spans="1:17" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="255"/>
+      <c r="B11" s="106" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" s="106"/>
+      <c r="D11" s="105" t="s">
+        <v>284</v>
+      </c>
+      <c r="E11" s="136" t="s">
+        <v>288</v>
+      </c>
+      <c r="F11" s="106" t="s">
+        <v>289</v>
+      </c>
+      <c r="G11" s="197"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="144"/>
+      <c r="J11" s="146"/>
+      <c r="K11" s="147"/>
+      <c r="L11" s="144"/>
+      <c r="M11" s="144"/>
+      <c r="N11" s="146"/>
+      <c r="O11" s="147"/>
+      <c r="P11" s="144"/>
+      <c r="Q11" s="144"/>
+    </row>
+    <row r="12" spans="1:17" s="151" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="255"/>
+      <c r="B12" s="106" t="s">
+        <v>290</v>
+      </c>
+      <c r="C12" s="106"/>
+      <c r="D12" s="105" t="s">
+        <v>265</v>
+      </c>
+      <c r="E12" s="136" t="s">
+        <v>291</v>
+      </c>
+      <c r="F12" s="106" t="s">
+        <v>292</v>
+      </c>
+      <c r="G12" s="197"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="144"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="147"/>
+      <c r="L12" s="144"/>
+      <c r="M12" s="144"/>
+      <c r="N12" s="146"/>
+      <c r="O12" s="147"/>
+      <c r="P12" s="144"/>
+      <c r="Q12" s="144"/>
+    </row>
+    <row r="13" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="255"/>
+      <c r="B13" s="106" t="s">
+        <v>293</v>
+      </c>
+      <c r="C13" s="106"/>
+      <c r="D13" s="105" t="s">
+        <v>294</v>
+      </c>
+      <c r="E13" s="136" t="s">
+        <v>295</v>
+      </c>
+      <c r="F13" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="G13" s="197"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="146"/>
+      <c r="K13" s="147"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="144"/>
+      <c r="N13" s="146"/>
+      <c r="O13" s="147"/>
+      <c r="P13" s="144"/>
+      <c r="Q13" s="144"/>
+    </row>
+    <row r="14" spans="1:17" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="255"/>
+      <c r="B14" s="106" t="s">
+        <v>297</v>
+      </c>
+      <c r="C14" s="106"/>
+      <c r="D14" s="105" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="136" t="s">
+        <v>298</v>
+      </c>
+      <c r="F14" s="106" t="s">
+        <v>299</v>
+      </c>
+      <c r="G14" s="197"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="146"/>
+      <c r="K14" s="147"/>
+      <c r="L14" s="144"/>
+      <c r="M14" s="144"/>
+      <c r="N14" s="146"/>
+      <c r="O14" s="147"/>
+      <c r="P14" s="144"/>
+      <c r="Q14" s="144"/>
+    </row>
+    <row r="15" spans="1:17" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="255"/>
+      <c r="B15" s="106" t="s">
+        <v>300</v>
+      </c>
+      <c r="C15" s="106"/>
+      <c r="D15" s="105" t="s">
         <v>281</v>
       </c>
-      <c r="C9" s="108"/>
-      <c r="D9" s="107" t="s">
-        <v>282</v>
-      </c>
-      <c r="E9" s="150" t="s">
-        <v>283</v>
-      </c>
-      <c r="F9" s="108" t="s">
-        <v>284</v>
-      </c>
-      <c r="G9" s="199" t="s">
-        <v>534</v>
-      </c>
-      <c r="H9" s="151"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="148"/>
-      <c r="K9" s="152"/>
-      <c r="L9" s="146"/>
-      <c r="M9" s="146"/>
-      <c r="N9" s="148"/>
-      <c r="O9" s="152"/>
-      <c r="P9" s="146"/>
-      <c r="Q9" s="146"/>
+      <c r="E15" s="136" t="s">
+        <v>301</v>
+      </c>
+      <c r="F15" s="106" t="s">
+        <v>302</v>
+      </c>
+      <c r="G15" s="197"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="146"/>
+      <c r="K15" s="147"/>
+      <c r="L15" s="144"/>
+      <c r="M15" s="144"/>
+      <c r="N15" s="146"/>
+      <c r="O15" s="147"/>
+      <c r="P15" s="144"/>
+      <c r="Q15" s="144"/>
     </row>
-    <row r="10" spans="1:17" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="249"/>
-      <c r="B10" s="108" t="s">
-        <v>211</v>
-      </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="107" t="s">
-        <v>285</v>
-      </c>
-      <c r="E10" s="138" t="s">
-        <v>286</v>
-      </c>
-      <c r="F10" s="108" t="s">
-        <v>287</v>
-      </c>
-      <c r="G10" s="199"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="148"/>
-      <c r="K10" s="149"/>
-      <c r="L10" s="146"/>
-      <c r="M10" s="146"/>
-      <c r="N10" s="148"/>
-      <c r="O10" s="149"/>
-      <c r="P10" s="146"/>
-      <c r="Q10" s="146"/>
+    <row r="16" spans="1:17" ht="85" x14ac:dyDescent="0.2">
+      <c r="A16" s="255"/>
+      <c r="B16" s="106" t="s">
+        <v>303</v>
+      </c>
+      <c r="C16" s="106"/>
+      <c r="D16" s="105" t="s">
+        <v>474</v>
+      </c>
+      <c r="E16" s="136" t="s">
+        <v>304</v>
+      </c>
+      <c r="F16" s="106" t="s">
+        <v>305</v>
+      </c>
+      <c r="G16" s="197"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="146"/>
+      <c r="K16" s="147"/>
+      <c r="L16" s="144"/>
+      <c r="M16" s="144"/>
+      <c r="N16" s="146"/>
+      <c r="O16" s="147"/>
+      <c r="P16" s="144"/>
+      <c r="Q16" s="144"/>
     </row>
-    <row r="11" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="249"/>
-      <c r="B11" s="108" t="s">
-        <v>288</v>
-      </c>
-      <c r="C11" s="108"/>
-      <c r="D11" s="107" t="s">
-        <v>285</v>
-      </c>
-      <c r="E11" s="138" t="s">
-        <v>289</v>
-      </c>
-      <c r="F11" s="108" t="s">
-        <v>290</v>
-      </c>
-      <c r="G11" s="199"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="148"/>
-      <c r="K11" s="149"/>
-      <c r="L11" s="146"/>
-      <c r="M11" s="146"/>
-      <c r="N11" s="148"/>
-      <c r="O11" s="149"/>
-      <c r="P11" s="146"/>
-      <c r="Q11" s="146"/>
+    <row r="17" spans="1:17" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="255"/>
+      <c r="B17" s="106" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106" t="s">
+        <v>307</v>
+      </c>
+      <c r="E17" s="106" t="s">
+        <v>308</v>
+      </c>
+      <c r="F17" s="106" t="s">
+        <v>309</v>
+      </c>
+      <c r="G17" s="197"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="144"/>
+      <c r="L17" s="144"/>
+      <c r="M17" s="144"/>
+      <c r="N17" s="144"/>
+      <c r="O17" s="144"/>
+      <c r="P17" s="144"/>
+      <c r="Q17" s="144"/>
     </row>
-    <row r="12" spans="1:17" s="153" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="249"/>
-      <c r="B12" s="108" t="s">
-        <v>291</v>
-      </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="107" t="s">
-        <v>266</v>
-      </c>
-      <c r="E12" s="138" t="s">
-        <v>292</v>
-      </c>
-      <c r="F12" s="108" t="s">
-        <v>293</v>
-      </c>
-      <c r="G12" s="199"/>
-      <c r="H12" s="147"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="148"/>
-      <c r="K12" s="149"/>
-      <c r="L12" s="146"/>
-      <c r="M12" s="146"/>
-      <c r="N12" s="148"/>
-      <c r="O12" s="149"/>
-      <c r="P12" s="146"/>
-      <c r="Q12" s="146"/>
+    <row r="18" spans="1:17" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="256"/>
+      <c r="B18" s="109" t="s">
+        <v>310</v>
+      </c>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="109" t="s">
+        <v>311</v>
+      </c>
+      <c r="F18" s="109" t="s">
+        <v>312</v>
+      </c>
+      <c r="G18" s="198"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="144"/>
+      <c r="K18" s="144"/>
+      <c r="L18" s="144"/>
+      <c r="M18" s="144"/>
+      <c r="N18" s="144"/>
+      <c r="O18" s="144"/>
+      <c r="P18" s="144"/>
+      <c r="Q18" s="144"/>
     </row>
-    <row r="13" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="249"/>
-      <c r="B13" s="108" t="s">
-        <v>294</v>
-      </c>
-      <c r="C13" s="108"/>
-      <c r="D13" s="107" t="s">
-        <v>295</v>
-      </c>
-      <c r="E13" s="138" t="s">
-        <v>296</v>
-      </c>
-      <c r="F13" s="108" t="s">
-        <v>297</v>
-      </c>
-      <c r="G13" s="199"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="148"/>
-      <c r="K13" s="149"/>
-      <c r="L13" s="146"/>
-      <c r="M13" s="146"/>
-      <c r="N13" s="148"/>
-      <c r="O13" s="149"/>
-      <c r="P13" s="146"/>
-      <c r="Q13" s="146"/>
-    </row>
-    <row r="14" spans="1:17" ht="37.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="249"/>
-      <c r="B14" s="108" t="s">
-        <v>298</v>
-      </c>
-      <c r="C14" s="108"/>
-      <c r="D14" s="107" t="s">
-        <v>266</v>
-      </c>
-      <c r="E14" s="138" t="s">
-        <v>299</v>
-      </c>
-      <c r="F14" s="108" t="s">
-        <v>300</v>
-      </c>
-      <c r="G14" s="199"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="148"/>
-      <c r="K14" s="149"/>
-      <c r="L14" s="146"/>
-      <c r="M14" s="146"/>
-      <c r="N14" s="148"/>
-      <c r="O14" s="149"/>
-      <c r="P14" s="146"/>
-      <c r="Q14" s="146"/>
-    </row>
-    <row r="15" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="249"/>
-      <c r="B15" s="108" t="s">
-        <v>301</v>
-      </c>
-      <c r="C15" s="108"/>
-      <c r="D15" s="107" t="s">
-        <v>282</v>
-      </c>
-      <c r="E15" s="138" t="s">
-        <v>302</v>
-      </c>
-      <c r="F15" s="108" t="s">
-        <v>303</v>
-      </c>
-      <c r="G15" s="199"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="148"/>
-      <c r="K15" s="149"/>
-      <c r="L15" s="146"/>
-      <c r="M15" s="146"/>
-      <c r="N15" s="148"/>
-      <c r="O15" s="149"/>
-      <c r="P15" s="146"/>
-      <c r="Q15" s="146"/>
-    </row>
-    <row r="16" spans="1:17" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="249"/>
-      <c r="B16" s="108" t="s">
-        <v>304</v>
-      </c>
-      <c r="C16" s="108"/>
-      <c r="D16" s="107" t="s">
-        <v>477</v>
-      </c>
-      <c r="E16" s="138" t="s">
-        <v>305</v>
-      </c>
-      <c r="F16" s="108" t="s">
-        <v>306</v>
-      </c>
-      <c r="G16" s="199"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="148"/>
-      <c r="K16" s="149"/>
-      <c r="L16" s="146"/>
-      <c r="M16" s="146"/>
-      <c r="N16" s="148"/>
-      <c r="O16" s="149"/>
-      <c r="P16" s="146"/>
-      <c r="Q16" s="146"/>
-    </row>
-    <row r="17" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="249"/>
-      <c r="B17" s="108" t="s">
-        <v>307</v>
-      </c>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108" t="s">
-        <v>308</v>
-      </c>
-      <c r="E17" s="108" t="s">
-        <v>309</v>
-      </c>
-      <c r="F17" s="108" t="s">
-        <v>310</v>
-      </c>
-      <c r="G17" s="199"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="146"/>
-      <c r="K17" s="146"/>
-      <c r="L17" s="146"/>
-      <c r="M17" s="146"/>
-      <c r="N17" s="146"/>
-      <c r="O17" s="146"/>
-      <c r="P17" s="146"/>
-      <c r="Q17" s="146"/>
-    </row>
-    <row r="18" spans="1:17" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="250"/>
-      <c r="B18" s="111" t="s">
-        <v>311</v>
-      </c>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="111" t="s">
-        <v>312</v>
-      </c>
-      <c r="F18" s="111" t="s">
-        <v>313</v>
-      </c>
-      <c r="G18" s="200"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="146"/>
-      <c r="L18" s="146"/>
-      <c r="M18" s="146"/>
-      <c r="N18" s="146"/>
-      <c r="O18" s="146"/>
-      <c r="P18" s="146"/>
-      <c r="Q18" s="146"/>
-    </row>
-    <row r="22" spans="1:17" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
-      <c r="F22" s="154"/>
+    <row r="22" spans="1:17" ht="23" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="152"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" deleteRows="0"/>
+  <sheetProtection sheet="1" objects="1" insertRows="0" deleteRows="0"/>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:A18"/>
@@ -44050,33 +44009,33 @@
       <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="172" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="172" customWidth="1"/>
-    <col min="3" max="4" width="20.7109375" style="173" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" style="173" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" style="173" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="218" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="137" customWidth="1"/>
-    <col min="9" max="1023" width="10.42578125" style="137" hidden="1" customWidth="1"/>
-    <col min="1024" max="1024" width="9.140625" style="137" hidden="1" customWidth="1"/>
-    <col min="1025" max="16384" width="10.42578125" style="137" hidden="1"/>
+    <col min="1" max="1" width="30.6640625" style="170" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="170" customWidth="1"/>
+    <col min="3" max="4" width="20.6640625" style="171" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" style="171" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" style="171" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="216" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="135" customWidth="1"/>
+    <col min="9" max="1023" width="10.5" style="135" hidden="1" customWidth="1"/>
+    <col min="1024" max="1024" width="9.1640625" style="135" hidden="1" customWidth="1"/>
+    <col min="1025" max="16384" width="10.5" style="135" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="219" t="s">
-        <v>527</v>
-      </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="220"/>
+    <row r="1" spans="1:20" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="238" t="s">
+        <v>523</v>
+      </c>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="239"/>
     </row>
-    <row r="2" spans="1:20" s="155" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" s="153" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
@@ -44102,342 +44061,342 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="159" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="229" t="s">
+    <row r="3" spans="1:20" s="157" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="235" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="214"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="158"/>
-      <c r="Q3" s="158"/>
-      <c r="R3" s="158"/>
-      <c r="S3" s="158"/>
-      <c r="T3" s="158"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="156"/>
+      <c r="P3" s="156"/>
+      <c r="Q3" s="156"/>
+      <c r="R3" s="156"/>
+      <c r="S3" s="156"/>
+      <c r="T3" s="156"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="230"/>
-      <c r="B4" s="160" t="s">
+    <row r="4" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="236"/>
+      <c r="B4" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160" t="s">
-        <v>209</v>
-      </c>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160" t="s">
+      <c r="C4" s="158"/>
+      <c r="D4" s="158" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158" t="s">
+        <v>387</v>
+      </c>
+      <c r="G4" s="183" t="s">
+        <v>530</v>
+      </c>
+      <c r="H4" s="159"/>
+    </row>
+    <row r="5" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="236"/>
+      <c r="B5" s="158" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158" t="s">
         <v>388</v>
       </c>
-      <c r="G4" s="185" t="s">
-        <v>534</v>
-      </c>
-      <c r="H4" s="161"/>
+      <c r="G5" s="183" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="159"/>
     </row>
-    <row r="5" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="230"/>
-      <c r="B5" s="160" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160" t="s">
+    <row r="6" spans="1:20" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="236"/>
+      <c r="B6" s="158" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160" t="s">
+      <c r="E6" s="158"/>
+      <c r="F6" s="158" t="s">
         <v>389</v>
       </c>
-      <c r="G5" s="185" t="s">
+      <c r="G6" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="161"/>
+      <c r="H6" s="159"/>
     </row>
-    <row r="6" spans="1:20" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="230"/>
-      <c r="B6" s="160" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160" t="s">
+    <row r="7" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="237"/>
+      <c r="B7" s="160" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="160"/>
+      <c r="D7" s="160" t="s">
+        <v>516</v>
+      </c>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160" t="s">
         <v>390</v>
       </c>
-      <c r="G6" s="185" t="s">
+      <c r="G7" s="184" t="s">
+        <v>530</v>
+      </c>
+      <c r="H7" s="161"/>
+    </row>
+    <row r="8" spans="1:20" s="156" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="232" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" s="162"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="163"/>
+    </row>
+    <row r="9" spans="1:20" ht="18.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="233"/>
+      <c r="B9" s="164" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="164"/>
+      <c r="D9" s="164" t="s">
+        <v>391</v>
+      </c>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164" t="s">
+        <v>392</v>
+      </c>
+      <c r="G9" s="214" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="161"/>
+      <c r="H9" s="165"/>
     </row>
-    <row r="7" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="231"/>
-      <c r="B7" s="162" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="162"/>
-      <c r="D7" s="162" t="s">
-        <v>520</v>
-      </c>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162" t="s">
-        <v>391</v>
-      </c>
-      <c r="G7" s="186" t="s">
-        <v>534</v>
-      </c>
-      <c r="H7" s="163"/>
+    <row r="10" spans="1:20" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="233"/>
+      <c r="B10" s="164" t="s">
+        <v>393</v>
+      </c>
+      <c r="C10" s="164"/>
+      <c r="D10" s="164" t="s">
+        <v>394</v>
+      </c>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="165"/>
     </row>
-    <row r="8" spans="1:20" s="158" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="232" t="s">
-        <v>304</v>
-      </c>
-      <c r="B8" s="164"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="215"/>
-      <c r="H8" s="165"/>
+    <row r="11" spans="1:20" ht="40.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="233"/>
+      <c r="B11" s="164"/>
+      <c r="C11" s="164" t="s">
+        <v>395</v>
+      </c>
+      <c r="D11" s="164" t="s">
+        <v>208</v>
+      </c>
+      <c r="E11" s="164"/>
+      <c r="F11" s="164" t="s">
+        <v>526</v>
+      </c>
+      <c r="G11" s="186"/>
+      <c r="H11" s="165"/>
     </row>
-    <row r="9" spans="1:20" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="233"/>
-      <c r="B9" s="166" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="166"/>
-      <c r="D9" s="166" t="s">
-        <v>392</v>
-      </c>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166" t="s">
-        <v>393</v>
-      </c>
-      <c r="G9" s="216" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="167"/>
+    <row r="12" spans="1:20" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="233"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="164" t="s">
+        <v>396</v>
+      </c>
+      <c r="D12" s="164" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164" t="s">
+        <v>527</v>
+      </c>
+      <c r="G12" s="186"/>
+      <c r="H12" s="165"/>
     </row>
-    <row r="10" spans="1:20" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="233"/>
-      <c r="B10" s="166" t="s">
+    <row r="13" spans="1:20" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="233"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="164" t="s">
+        <v>397</v>
+      </c>
+      <c r="D13" s="164" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" s="164"/>
+      <c r="F13" s="164" t="s">
+        <v>528</v>
+      </c>
+      <c r="G13" s="186"/>
+      <c r="H13" s="165"/>
+    </row>
+    <row r="14" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="233"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="164" t="s">
+        <v>398</v>
+      </c>
+      <c r="D14" s="164" t="s">
+        <v>529</v>
+      </c>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164" t="s">
+        <v>399</v>
+      </c>
+      <c r="G14" s="186"/>
+      <c r="H14" s="165"/>
+    </row>
+    <row r="15" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="233"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="164" t="s">
+        <v>400</v>
+      </c>
+      <c r="D15" s="164" t="s">
+        <v>334</v>
+      </c>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164" t="s">
+        <v>401</v>
+      </c>
+      <c r="G15" s="186"/>
+      <c r="H15" s="165"/>
+    </row>
+    <row r="16" spans="1:20" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="233"/>
+      <c r="B16" s="164" t="s">
+        <v>402</v>
+      </c>
+      <c r="C16" s="164"/>
+      <c r="D16" s="164" t="s">
         <v>394</v>
       </c>
-      <c r="C10" s="166"/>
-      <c r="D10" s="166" t="s">
-        <v>395</v>
-      </c>
-      <c r="E10" s="166"/>
-      <c r="F10" s="166"/>
-      <c r="G10" s="188"/>
-      <c r="H10" s="167"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="186"/>
+      <c r="H16" s="165"/>
     </row>
-    <row r="11" spans="1:20" ht="40.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="233"/>
-      <c r="B11" s="166"/>
-      <c r="C11" s="166" t="s">
-        <v>396</v>
-      </c>
-      <c r="D11" s="166" t="s">
-        <v>209</v>
-      </c>
-      <c r="E11" s="166"/>
-      <c r="F11" s="166" t="s">
-        <v>530</v>
-      </c>
-      <c r="G11" s="188"/>
-      <c r="H11" s="167"/>
+    <row r="17" spans="1:19" ht="18.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="234"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="166" t="s">
+        <v>400</v>
+      </c>
+      <c r="D17" s="166" t="s">
+        <v>334</v>
+      </c>
+      <c r="E17" s="166"/>
+      <c r="F17" s="166" t="s">
+        <v>403</v>
+      </c>
+      <c r="G17" s="187"/>
+      <c r="H17" s="167"/>
     </row>
-    <row r="12" spans="1:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="233"/>
-      <c r="B12" s="166"/>
-      <c r="C12" s="166" t="s">
-        <v>397</v>
-      </c>
-      <c r="D12" s="166" t="s">
-        <v>209</v>
-      </c>
-      <c r="E12" s="166"/>
-      <c r="F12" s="166" t="s">
-        <v>531</v>
-      </c>
-      <c r="G12" s="188"/>
-      <c r="H12" s="167"/>
+    <row r="18" spans="1:19" s="157" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="235" t="s">
+        <v>404</v>
+      </c>
+      <c r="B18" s="168"/>
+      <c r="C18" s="168"/>
+      <c r="D18" s="168"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="215"/>
+      <c r="H18" s="169"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="156"/>
+      <c r="K18" s="156"/>
+      <c r="L18" s="156"/>
+      <c r="M18" s="156"/>
+      <c r="N18" s="156"/>
+      <c r="O18" s="156"/>
+      <c r="P18" s="156"/>
+      <c r="Q18" s="156"/>
+      <c r="R18" s="156"/>
+      <c r="S18" s="156"/>
     </row>
-    <row r="13" spans="1:20" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="233"/>
-      <c r="B13" s="166"/>
-      <c r="C13" s="166" t="s">
-        <v>398</v>
-      </c>
-      <c r="D13" s="166" t="s">
-        <v>209</v>
-      </c>
-      <c r="E13" s="166"/>
-      <c r="F13" s="166" t="s">
-        <v>532</v>
-      </c>
-      <c r="G13" s="188"/>
-      <c r="H13" s="167"/>
+    <row r="19" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="236"/>
+      <c r="B19" s="158" t="s">
+        <v>405</v>
+      </c>
+      <c r="C19" s="158"/>
+      <c r="D19" s="158" t="s">
+        <v>394</v>
+      </c>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="183" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="159"/>
     </row>
-    <row r="14" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="233"/>
-      <c r="B14" s="166"/>
-      <c r="C14" s="166" t="s">
-        <v>399</v>
-      </c>
-      <c r="D14" s="166" t="s">
-        <v>533</v>
-      </c>
-      <c r="E14" s="166"/>
-      <c r="F14" s="166" t="s">
-        <v>400</v>
-      </c>
-      <c r="G14" s="188"/>
-      <c r="H14" s="167"/>
+    <row r="20" spans="1:19" ht="41.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="236"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="158" t="s">
+        <v>406</v>
+      </c>
+      <c r="D20" s="158" t="s">
+        <v>407</v>
+      </c>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158" t="s">
+        <v>408</v>
+      </c>
+      <c r="G20" s="183"/>
+      <c r="H20" s="159"/>
     </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="233"/>
-      <c r="B15" s="166"/>
-      <c r="C15" s="166" t="s">
-        <v>401</v>
-      </c>
-      <c r="D15" s="166" t="s">
-        <v>335</v>
-      </c>
-      <c r="E15" s="166"/>
-      <c r="F15" s="166" t="s">
-        <v>402</v>
-      </c>
-      <c r="G15" s="188"/>
-      <c r="H15" s="167"/>
+    <row r="21" spans="1:19" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="236"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="158" t="s">
+        <v>409</v>
+      </c>
+      <c r="D21" s="158" t="s">
+        <v>407</v>
+      </c>
+      <c r="E21" s="158"/>
+      <c r="F21" s="158" t="s">
+        <v>410</v>
+      </c>
+      <c r="G21" s="183"/>
+      <c r="H21" s="159"/>
     </row>
-    <row r="16" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="233"/>
-      <c r="B16" s="166" t="s">
-        <v>403</v>
-      </c>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166" t="s">
-        <v>395</v>
-      </c>
-      <c r="E16" s="166"/>
-      <c r="F16" s="166"/>
-      <c r="G16" s="188"/>
-      <c r="H16" s="167"/>
-    </row>
-    <row r="17" spans="1:19" ht="18.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="234"/>
-      <c r="B17" s="168"/>
-      <c r="C17" s="168" t="s">
-        <v>401</v>
-      </c>
-      <c r="D17" s="168" t="s">
-        <v>335</v>
-      </c>
-      <c r="E17" s="168"/>
-      <c r="F17" s="168" t="s">
-        <v>404</v>
-      </c>
-      <c r="G17" s="189"/>
-      <c r="H17" s="169"/>
-    </row>
-    <row r="18" spans="1:19" s="159" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="229" t="s">
-        <v>405</v>
-      </c>
-      <c r="B18" s="170"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="170"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="217"/>
-      <c r="H18" s="171"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="158"/>
-      <c r="K18" s="158"/>
-      <c r="L18" s="158"/>
-      <c r="M18" s="158"/>
-      <c r="N18" s="158"/>
-      <c r="O18" s="158"/>
-      <c r="P18" s="158"/>
-      <c r="Q18" s="158"/>
-      <c r="R18" s="158"/>
-      <c r="S18" s="158"/>
-    </row>
-    <row r="19" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="230"/>
-      <c r="B19" s="160" t="s">
-        <v>406</v>
-      </c>
-      <c r="C19" s="160"/>
-      <c r="D19" s="160" t="s">
-        <v>395</v>
-      </c>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="185" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="161"/>
-    </row>
-    <row r="20" spans="1:19" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="230"/>
-      <c r="B20" s="160"/>
-      <c r="C20" s="160" t="s">
+    <row r="22" spans="1:19" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="237"/>
+      <c r="B22" s="160"/>
+      <c r="C22" s="160" t="s">
+        <v>411</v>
+      </c>
+      <c r="D22" s="160" t="s">
         <v>407</v>
       </c>
-      <c r="D20" s="160" t="s">
-        <v>408</v>
-      </c>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160" t="s">
-        <v>409</v>
-      </c>
-      <c r="G20" s="185"/>
-      <c r="H20" s="161"/>
-    </row>
-    <row r="21" spans="1:19" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="230"/>
-      <c r="B21" s="160"/>
-      <c r="C21" s="160" t="s">
-        <v>410</v>
-      </c>
-      <c r="D21" s="160" t="s">
-        <v>408</v>
-      </c>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160" t="s">
-        <v>411</v>
-      </c>
-      <c r="G21" s="185"/>
-      <c r="H21" s="161"/>
-    </row>
-    <row r="22" spans="1:19" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="231"/>
-      <c r="B22" s="162"/>
-      <c r="C22" s="162" t="s">
+      <c r="E22" s="160"/>
+      <c r="F22" s="160" t="s">
         <v>412</v>
       </c>
-      <c r="D22" s="162" t="s">
-        <v>408</v>
-      </c>
-      <c r="E22" s="162"/>
-      <c r="F22" s="162" t="s">
-        <v>413</v>
-      </c>
-      <c r="G22" s="186"/>
-      <c r="H22" s="163"/>
+      <c r="G22" s="184"/>
+      <c r="H22" s="161"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" insertRows="0" deleteRows="0"/>
@@ -44468,32 +44427,32 @@
       <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="21" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="21" customWidth="1"/>
-    <col min="3" max="4" width="20.7109375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" style="21" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" style="21" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="21" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="21" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="21" customWidth="1"/>
+    <col min="3" max="4" width="20.6640625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="21" customWidth="1"/>
     <col min="9" max="1024" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="1025" max="16384" width="9.140625" style="22" hidden="1"/>
+    <col min="1025" max="16384" width="9.1640625" style="22" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="219" t="s">
-        <v>528</v>
-      </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="220"/>
+    <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="238" t="s">
+        <v>524</v>
+      </c>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="239"/>
     </row>
-    <row r="2" spans="1:1024" s="42" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1024" s="42" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
@@ -45535,33 +45494,33 @@
       <c r="AMI2" s="41"/>
       <c r="AMJ2" s="41"/>
     </row>
-    <row r="3" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="229" t="s">
+    <row r="3" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="235" t="s">
+        <v>413</v>
+      </c>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="173"/>
+    </row>
+    <row r="4" spans="1:1024" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="236"/>
+      <c r="B4" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="158"/>
+      <c r="D4" s="47" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" s="47"/>
+      <c r="F4" s="158" t="s">
         <v>414</v>
       </c>
-      <c r="B3" s="174"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="175"/>
-    </row>
-    <row r="4" spans="1:1024" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="230"/>
-      <c r="B4" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="C4" s="160"/>
-      <c r="D4" s="47" t="s">
-        <v>266</v>
-      </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="160" t="s">
-        <v>415</v>
-      </c>
       <c r="G4" s="47"/>
-      <c r="H4" s="161"/>
+      <c r="H4" s="159"/>
       <c r="I4" s="23"/>
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
@@ -46579,21 +46538,21 @@
       <c r="AMI4" s="23"/>
       <c r="AMJ4" s="23"/>
     </row>
-    <row r="5" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="230"/>
+    <row r="5" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="236"/>
       <c r="B5" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" s="158"/>
+      <c r="D5" s="47" t="s">
         <v>269</v>
       </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="47" t="s">
-        <v>270</v>
-      </c>
       <c r="E5" s="47"/>
-      <c r="F5" s="160" t="s">
-        <v>272</v>
+      <c r="F5" s="158" t="s">
+        <v>271</v>
       </c>
       <c r="G5" s="47"/>
-      <c r="H5" s="161"/>
+      <c r="H5" s="159"/>
       <c r="I5" s="23"/>
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
@@ -47611,21 +47570,21 @@
       <c r="AMI5" s="23"/>
       <c r="AMJ5" s="23"/>
     </row>
-    <row r="6" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="230"/>
+    <row r="6" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="236"/>
       <c r="B6" s="47" t="s">
-        <v>214</v>
-      </c>
-      <c r="C6" s="160"/>
+        <v>213</v>
+      </c>
+      <c r="C6" s="158"/>
       <c r="D6" s="47" t="s">
         <v>163</v>
       </c>
       <c r="E6" s="47"/>
-      <c r="F6" s="160" t="s">
-        <v>416</v>
+      <c r="F6" s="158" t="s">
+        <v>415</v>
       </c>
       <c r="G6" s="47"/>
-      <c r="H6" s="176"/>
+      <c r="H6" s="174"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
@@ -48643,21 +48602,21 @@
       <c r="AMI6" s="23"/>
       <c r="AMJ6" s="23"/>
     </row>
-    <row r="7" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="230"/>
+    <row r="7" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="236"/>
       <c r="B7" s="47" t="s">
+        <v>416</v>
+      </c>
+      <c r="C7" s="158"/>
+      <c r="D7" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="158" t="s">
         <v>417</v>
       </c>
-      <c r="C7" s="160"/>
-      <c r="D7" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="160" t="s">
-        <v>418</v>
-      </c>
       <c r="G7" s="47"/>
-      <c r="H7" s="161"/>
+      <c r="H7" s="159"/>
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
@@ -49675,21 +49634,21 @@
       <c r="AMI7" s="23"/>
       <c r="AMJ7" s="23"/>
     </row>
-    <row r="8" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="230"/>
+    <row r="8" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="236"/>
       <c r="B8" s="47" t="s">
+        <v>418</v>
+      </c>
+      <c r="C8" s="158"/>
+      <c r="D8" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="E8" s="47"/>
+      <c r="F8" s="158" t="s">
         <v>419</v>
       </c>
-      <c r="C8" s="160"/>
-      <c r="D8" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="160" t="s">
-        <v>420</v>
-      </c>
       <c r="G8" s="47"/>
-      <c r="H8" s="161"/>
+      <c r="H8" s="159"/>
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
@@ -50707,21 +50666,21 @@
       <c r="AMI8" s="23"/>
       <c r="AMJ8" s="23"/>
     </row>
-    <row r="9" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="230"/>
+    <row r="9" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="236"/>
       <c r="B9" s="47" t="s">
+        <v>420</v>
+      </c>
+      <c r="C9" s="158"/>
+      <c r="D9" s="47" t="s">
+        <v>420</v>
+      </c>
+      <c r="E9" s="47"/>
+      <c r="F9" s="158" t="s">
         <v>421</v>
       </c>
-      <c r="C9" s="160"/>
-      <c r="D9" s="47" t="s">
-        <v>421</v>
-      </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="160" t="s">
-        <v>422</v>
-      </c>
       <c r="G9" s="47"/>
-      <c r="H9" s="161"/>
+      <c r="H9" s="159"/>
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
@@ -51739,21 +51698,21 @@
       <c r="AMI9" s="23"/>
       <c r="AMJ9" s="23"/>
     </row>
-    <row r="10" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="230"/>
+    <row r="10" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="236"/>
       <c r="B10" s="47" t="s">
+        <v>422</v>
+      </c>
+      <c r="C10" s="158"/>
+      <c r="D10" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="E10" s="47"/>
+      <c r="F10" s="158" t="s">
         <v>423</v>
       </c>
-      <c r="C10" s="160"/>
-      <c r="D10" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="160" t="s">
-        <v>424</v>
-      </c>
       <c r="G10" s="47"/>
-      <c r="H10" s="161"/>
+      <c r="H10" s="159"/>
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
@@ -52771,21 +52730,21 @@
       <c r="AMI10" s="23"/>
       <c r="AMJ10" s="23"/>
     </row>
-    <row r="11" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="230"/>
+    <row r="11" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="236"/>
       <c r="B11" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="C11" s="158"/>
+      <c r="D11" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="E11" s="47"/>
+      <c r="F11" s="158" t="s">
         <v>425</v>
       </c>
-      <c r="C11" s="160"/>
-      <c r="D11" s="47" t="s">
-        <v>425</v>
-      </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="160" t="s">
-        <v>426</v>
-      </c>
       <c r="G11" s="47"/>
-      <c r="H11" s="161"/>
+      <c r="H11" s="159"/>
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
@@ -53803,21 +53762,21 @@
       <c r="AMI11" s="23"/>
       <c r="AMJ11" s="23"/>
     </row>
-    <row r="12" spans="1:1024" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="231"/>
+    <row r="12" spans="1:1024" s="26" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="237"/>
       <c r="B12" s="51" t="s">
+        <v>426</v>
+      </c>
+      <c r="C12" s="160"/>
+      <c r="D12" s="51" t="s">
+        <v>265</v>
+      </c>
+      <c r="E12" s="51"/>
+      <c r="F12" s="160" t="s">
         <v>427</v>
       </c>
-      <c r="C12" s="162"/>
-      <c r="D12" s="51" t="s">
-        <v>266</v>
-      </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="162" t="s">
-        <v>428</v>
-      </c>
       <c r="G12" s="51"/>
-      <c r="H12" s="163"/>
+      <c r="H12" s="161"/>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
@@ -54835,55 +54794,55 @@
       <c r="AMI12" s="25"/>
       <c r="AMJ12" s="25"/>
     </row>
-    <row r="13" spans="1:1024" s="20" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1024" s="20" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="232" t="s">
-        <v>429</v>
-      </c>
-      <c r="B13" s="177"/>
-      <c r="C13" s="177"/>
-      <c r="D13" s="177"/>
-      <c r="E13" s="177"/>
-      <c r="F13" s="177"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="178"/>
+        <v>428</v>
+      </c>
+      <c r="B13" s="175"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="175"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="175"/>
+      <c r="H13" s="176"/>
       <c r="AMJ13" s="21"/>
     </row>
-    <row r="14" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="233"/>
       <c r="B14" s="69" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C14" s="69"/>
       <c r="D14" s="69" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E14" s="69"/>
       <c r="F14" s="69" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G14" s="69"/>
-      <c r="H14" s="179"/>
+      <c r="H14" s="177"/>
     </row>
-    <row r="15" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="233"/>
       <c r="B15" s="69" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C15" s="69"/>
       <c r="D15" s="69" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E15" s="69"/>
       <c r="F15" s="69" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G15" s="69"/>
-      <c r="H15" s="179"/>
+      <c r="H15" s="177"/>
     </row>
-    <row r="16" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="233"/>
       <c r="B16" s="69" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C16" s="69"/>
       <c r="D16" s="69" t="s">
@@ -54891,111 +54850,111 @@
       </c>
       <c r="E16" s="69"/>
       <c r="F16" s="69" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G16" s="69"/>
-      <c r="H16" s="179"/>
+      <c r="H16" s="177"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="233"/>
       <c r="B17" s="69" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C17" s="69"/>
       <c r="D17" s="69" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E17" s="69"/>
       <c r="F17" s="69" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G17" s="69"/>
-      <c r="H17" s="179"/>
+      <c r="H17" s="177"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="233"/>
       <c r="B18" s="69" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C18" s="69"/>
       <c r="D18" s="69" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E18" s="69"/>
       <c r="F18" s="69" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G18" s="69"/>
-      <c r="H18" s="179"/>
+      <c r="H18" s="177"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="233"/>
       <c r="B19" s="69" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="69"/>
       <c r="D19" s="69" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E19" s="69"/>
       <c r="F19" s="69" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G19" s="69"/>
-      <c r="H19" s="179"/>
+      <c r="H19" s="177"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="233"/>
       <c r="B20" s="69" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C20" s="69"/>
       <c r="D20" s="69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E20" s="69"/>
       <c r="F20" s="69" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G20" s="69"/>
-      <c r="H20" s="179"/>
+      <c r="H20" s="177"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="233"/>
       <c r="B21" s="69" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C21" s="69"/>
       <c r="D21" s="69" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E21" s="69"/>
       <c r="F21" s="69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G21" s="69"/>
-      <c r="H21" s="179"/>
+      <c r="H21" s="177"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="233"/>
       <c r="B22" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C22" s="69"/>
       <c r="D22" s="69" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E22" s="69"/>
       <c r="F22" s="69" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G22" s="69"/>
-      <c r="H22" s="179"/>
+      <c r="H22" s="177"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="233"/>
       <c r="B23" s="69" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C23" s="69"/>
       <c r="D23" s="69" t="s">
@@ -55003,15 +54962,15 @@
       </c>
       <c r="E23" s="69"/>
       <c r="F23" s="69" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G23" s="69"/>
-      <c r="H23" s="179"/>
+      <c r="H23" s="177"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="234"/>
       <c r="B24" s="73" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C24" s="73"/>
       <c r="D24" s="73" t="s">
@@ -55019,59 +54978,59 @@
       </c>
       <c r="E24" s="73"/>
       <c r="F24" s="73" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G24" s="73"/>
-      <c r="H24" s="180"/>
+      <c r="H24" s="178"/>
     </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="229" t="s">
-        <v>371</v>
-      </c>
-      <c r="B25" s="181"/>
-      <c r="C25" s="181"/>
-      <c r="D25" s="181"/>
-      <c r="E25" s="181"/>
-      <c r="F25" s="181"/>
-      <c r="G25" s="181"/>
-      <c r="H25" s="182"/>
+    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="235" t="s">
+        <v>370</v>
+      </c>
+      <c r="B25" s="179"/>
+      <c r="C25" s="179"/>
+      <c r="D25" s="179"/>
+      <c r="E25" s="179"/>
+      <c r="F25" s="179"/>
+      <c r="G25" s="179"/>
+      <c r="H25" s="180"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="230"/>
+    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="236"/>
       <c r="B26" s="47" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C26" s="47"/>
       <c r="D26" s="47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E26" s="47"/>
       <c r="F26" s="47" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G26" s="47"/>
-      <c r="H26" s="176"/>
+      <c r="H26" s="174"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="230"/>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="236"/>
       <c r="B27" s="47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C27" s="47"/>
       <c r="D27" s="47" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E27" s="47"/>
       <c r="F27" s="47" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G27" s="47"/>
-      <c r="H27" s="176"/>
+      <c r="H27" s="174"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="230"/>
+    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="236"/>
       <c r="B28" s="47" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C28" s="47"/>
       <c r="D28" s="47" t="s">
@@ -55079,188 +55038,188 @@
       </c>
       <c r="E28" s="47"/>
       <c r="F28" s="47" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G28" s="47"/>
-      <c r="H28" s="176"/>
+      <c r="H28" s="174"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="230"/>
+    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="236"/>
       <c r="B29" s="47" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C29" s="47"/>
       <c r="D29" s="47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E29" s="47"/>
       <c r="F29" s="47" t="s">
+        <v>445</v>
+      </c>
+      <c r="G29" s="47"/>
+      <c r="H29" s="174"/>
+    </row>
+    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="236"/>
+      <c r="B30" s="47" t="s">
         <v>446</v>
-      </c>
-      <c r="G29" s="47"/>
-      <c r="H29" s="176"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="230"/>
-      <c r="B30" s="47" t="s">
-        <v>447</v>
       </c>
       <c r="C30" s="47"/>
       <c r="D30" s="47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E30" s="47"/>
       <c r="F30" s="47" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G30" s="47"/>
-      <c r="H30" s="176"/>
+      <c r="H30" s="174"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="230"/>
+    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="236"/>
       <c r="B31" s="47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C31" s="47"/>
       <c r="D31" s="47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E31" s="47"/>
       <c r="F31" s="47" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G31" s="47"/>
-      <c r="H31" s="176"/>
+      <c r="H31" s="174"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="230"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="236"/>
       <c r="B32" s="47" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C32" s="47"/>
       <c r="D32" s="47" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E32" s="47"/>
       <c r="F32" s="47" t="s">
+        <v>449</v>
+      </c>
+      <c r="G32" s="47"/>
+      <c r="H32" s="174"/>
+    </row>
+    <row r="33" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="236"/>
+      <c r="B33" s="47" t="s">
         <v>450</v>
-      </c>
-      <c r="G32" s="47"/>
-      <c r="H32" s="176"/>
-    </row>
-    <row r="33" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="230"/>
-      <c r="B33" s="47" t="s">
-        <v>451</v>
       </c>
       <c r="C33" s="47"/>
       <c r="D33" s="47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E33" s="47"/>
       <c r="F33" s="47" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G33" s="47"/>
-      <c r="H33" s="176"/>
+      <c r="H33" s="174"/>
     </row>
-    <row r="34" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="230"/>
+    <row r="34" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="236"/>
       <c r="B34" s="47" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="47"/>
       <c r="D34" s="47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E34" s="47"/>
       <c r="F34" s="47" t="s">
+        <v>452</v>
+      </c>
+      <c r="G34" s="47"/>
+      <c r="H34" s="174"/>
+    </row>
+    <row r="35" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="236"/>
+      <c r="B35" s="47" t="s">
         <v>453</v>
-      </c>
-      <c r="G34" s="47"/>
-      <c r="H34" s="176"/>
-    </row>
-    <row r="35" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="230"/>
-      <c r="B35" s="47" t="s">
-        <v>454</v>
       </c>
       <c r="C35" s="47"/>
       <c r="D35" s="47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E35" s="47"/>
       <c r="F35" s="47" t="s">
+        <v>454</v>
+      </c>
+      <c r="G35" s="47"/>
+      <c r="H35" s="174"/>
+    </row>
+    <row r="36" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="237"/>
+      <c r="B36" s="51" t="s">
         <v>455</v>
-      </c>
-      <c r="G35" s="47"/>
-      <c r="H35" s="176"/>
-    </row>
-    <row r="36" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="231"/>
-      <c r="B36" s="51" t="s">
-        <v>456</v>
       </c>
       <c r="C36" s="51"/>
       <c r="D36" s="51" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E36" s="51"/>
       <c r="F36" s="51" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G36" s="51"/>
-      <c r="H36" s="183"/>
+      <c r="H36" s="181"/>
     </row>
-    <row r="37" spans="1:1024" s="20" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1024" s="20" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="232" t="s">
-        <v>291</v>
-      </c>
-      <c r="B37" s="177"/>
-      <c r="C37" s="177"/>
-      <c r="D37" s="177"/>
-      <c r="E37" s="177"/>
-      <c r="F37" s="177"/>
-      <c r="G37" s="177"/>
-      <c r="H37" s="178"/>
+        <v>290</v>
+      </c>
+      <c r="B37" s="175"/>
+      <c r="C37" s="175"/>
+      <c r="D37" s="175"/>
+      <c r="E37" s="175"/>
+      <c r="F37" s="175"/>
+      <c r="G37" s="175"/>
+      <c r="H37" s="176"/>
       <c r="AMJ37" s="21"/>
     </row>
-    <row r="38" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="233"/>
       <c r="B38" s="69" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C38" s="69"/>
       <c r="D38" s="69" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E38" s="69"/>
       <c r="F38" s="69" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G38" s="69"/>
-      <c r="H38" s="179"/>
+      <c r="H38" s="177"/>
     </row>
-    <row r="39" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="233"/>
       <c r="B39" s="69" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C39" s="69"/>
       <c r="D39" s="69" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E39" s="69"/>
       <c r="F39" s="69" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G39" s="69"/>
-      <c r="H39" s="179"/>
+      <c r="H39" s="177"/>
     </row>
-    <row r="40" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="233"/>
       <c r="B40" s="69" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C40" s="69"/>
       <c r="D40" s="69" t="s">
@@ -55268,138 +55227,138 @@
       </c>
       <c r="E40" s="69"/>
       <c r="F40" s="69" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G40" s="69"/>
-      <c r="H40" s="179"/>
+      <c r="H40" s="177"/>
     </row>
-    <row r="41" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="233"/>
       <c r="B41" s="69" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C41" s="69"/>
       <c r="D41" s="69" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E41" s="69"/>
       <c r="F41" s="69" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G41" s="69"/>
-      <c r="H41" s="179"/>
+      <c r="H41" s="177"/>
     </row>
-    <row r="42" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="233"/>
       <c r="B42" s="69" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C42" s="69"/>
       <c r="D42" s="69" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E42" s="69"/>
       <c r="F42" s="69" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G42" s="69"/>
-      <c r="H42" s="179"/>
+      <c r="H42" s="177"/>
     </row>
-    <row r="43" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="233"/>
       <c r="B43" s="69" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C43" s="69"/>
       <c r="D43" s="69" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E43" s="69"/>
       <c r="F43" s="69" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G43" s="69"/>
-      <c r="H43" s="179"/>
+      <c r="H43" s="177"/>
     </row>
-    <row r="44" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="233"/>
       <c r="B44" s="69" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C44" s="69"/>
       <c r="D44" s="69" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E44" s="69"/>
       <c r="F44" s="69" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G44" s="69"/>
-      <c r="H44" s="179"/>
+      <c r="H44" s="177"/>
     </row>
-    <row r="45" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="233"/>
       <c r="B45" s="69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C45" s="69"/>
       <c r="D45" s="69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E45" s="69"/>
       <c r="F45" s="69" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G45" s="69"/>
-      <c r="H45" s="179"/>
+      <c r="H45" s="177"/>
     </row>
-    <row r="46" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="233"/>
       <c r="B46" s="69" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C46" s="69"/>
       <c r="D46" s="69" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E46" s="69"/>
       <c r="F46" s="69" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G46" s="69"/>
-      <c r="H46" s="179"/>
+      <c r="H46" s="177"/>
     </row>
-    <row r="47" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="233"/>
       <c r="B47" s="69" t="s">
         <v>5</v>
       </c>
       <c r="C47" s="69"/>
       <c r="D47" s="69" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E47" s="69"/>
       <c r="F47" s="69" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G47" s="69"/>
-      <c r="H47" s="179"/>
+      <c r="H47" s="177"/>
     </row>
-    <row r="48" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="234"/>
       <c r="B48" s="73" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C48" s="73"/>
       <c r="D48" s="73" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E48" s="73"/>
       <c r="F48" s="73" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G48" s="73"/>
-      <c r="H48" s="180"/>
+      <c r="H48" s="178"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" insertRows="0" deleteRows="0"/>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deslauj/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deslauj/CODE/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D26D19-9A06-4A45-A0CE-D38021DEB90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322FC021-DC11-4148-A54C-06C6F5DE9075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Microservice" sheetId="1" r:id="rId1"/>
@@ -3104,60 +3104,20 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3182,6 +3142,46 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4066,7 +4066,7 @@
       <selection activeCell="E10" sqref="E10"/>
       <selection pane="topRight" activeCell="E10" sqref="E10"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
-      <selection pane="bottomRight" activeCell="A105" sqref="A105:XFD105"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -4083,16 +4083,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="226" t="s">
         <v>517</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="239"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="227"/>
     </row>
     <row r="2" spans="1:1024" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -4111,7 +4111,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>5</v>
+        <v>190</v>
       </c>
       <c r="G2" s="33" t="s">
         <v>6</v>
@@ -4121,7 +4121,7 @@
       </c>
     </row>
     <row r="3" spans="1:1024" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="230" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="27"/>
@@ -4133,7 +4133,7 @@
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="241"/>
+      <c r="A4" s="231"/>
       <c r="B4" s="47" t="s">
         <v>8</v>
       </c>
@@ -4153,7 +4153,7 @@
       <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="241"/>
+      <c r="A5" s="231"/>
       <c r="B5" s="47" t="s">
         <v>13</v>
       </c>
@@ -4173,7 +4173,7 @@
       <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="241"/>
+      <c r="A6" s="231"/>
       <c r="B6" s="47" t="s">
         <v>16</v>
       </c>
@@ -4193,7 +4193,7 @@
       <c r="H6" s="50"/>
     </row>
     <row r="7" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="241"/>
+      <c r="A7" s="231"/>
       <c r="B7" s="47" t="s">
         <v>19</v>
       </c>
@@ -4213,7 +4213,7 @@
       <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="241"/>
+      <c r="A8" s="231"/>
       <c r="B8" s="47" t="s">
         <v>22</v>
       </c>
@@ -4233,7 +4233,7 @@
       <c r="H8" s="50"/>
     </row>
     <row r="9" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="241"/>
+      <c r="A9" s="231"/>
       <c r="B9" s="47" t="s">
         <v>25</v>
       </c>
@@ -4253,7 +4253,7 @@
       <c r="H9" s="50"/>
     </row>
     <row r="10" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="241"/>
+      <c r="A10" s="231"/>
       <c r="B10" s="47" t="s">
         <v>26</v>
       </c>
@@ -4273,7 +4273,7 @@
       <c r="H10" s="50"/>
     </row>
     <row r="11" spans="1:1024" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="242"/>
+      <c r="A11" s="232"/>
       <c r="B11" s="51" t="s">
         <v>30</v>
       </c>
@@ -4293,7 +4293,7 @@
       <c r="H11" s="54"/>
     </row>
     <row r="12" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="243" t="s">
+      <c r="A12" s="233" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="217"/>
@@ -4305,7 +4305,7 @@
       <c r="H12" s="220"/>
     </row>
     <row r="13" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="244"/>
+      <c r="A13" s="234"/>
       <c r="B13" s="55" t="s">
         <v>35</v>
       </c>
@@ -4325,7 +4325,7 @@
       <c r="H13" s="58"/>
     </row>
     <row r="14" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="244"/>
+      <c r="A14" s="234"/>
       <c r="B14" s="55" t="s">
         <v>38</v>
       </c>
@@ -4345,7 +4345,7 @@
       <c r="H14" s="58"/>
     </row>
     <row r="15" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="244"/>
+      <c r="A15" s="234"/>
       <c r="B15" s="55" t="s">
         <v>482</v>
       </c>
@@ -5381,7 +5381,7 @@
       <c r="AMJ15" s="4"/>
     </row>
     <row r="16" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="244"/>
+      <c r="A16" s="234"/>
       <c r="B16" s="55" t="s">
         <v>475</v>
       </c>
@@ -6417,7 +6417,7 @@
       <c r="AMJ16" s="4"/>
     </row>
     <row r="17" spans="1:1024" s="10" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="245"/>
+      <c r="A17" s="235"/>
       <c r="B17" s="221" t="s">
         <v>476</v>
       </c>
@@ -7705,7 +7705,7 @@
       <c r="H30" s="54"/>
     </row>
     <row r="31" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="232" t="s">
+      <c r="A31" s="238" t="s">
         <v>72</v>
       </c>
       <c r="B31" s="62"/>
@@ -7717,7 +7717,7 @@
       <c r="H31" s="64"/>
     </row>
     <row r="32" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="233"/>
+      <c r="A32" s="239"/>
       <c r="B32" s="65" t="s">
         <v>73</v>
       </c>
@@ -7737,7 +7737,7 @@
       <c r="H32" s="68"/>
     </row>
     <row r="33" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="233"/>
+      <c r="A33" s="239"/>
       <c r="B33" s="69" t="s">
         <v>76</v>
       </c>
@@ -7757,7 +7757,7 @@
       <c r="H33" s="72"/>
     </row>
     <row r="34" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="233"/>
+      <c r="A34" s="239"/>
       <c r="B34" s="69" t="s">
         <v>79</v>
       </c>
@@ -7777,7 +7777,7 @@
       <c r="H34" s="72"/>
     </row>
     <row r="35" spans="1:1024" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="234"/>
+      <c r="A35" s="240"/>
       <c r="B35" s="73" t="s">
         <v>82</v>
       </c>
@@ -7797,7 +7797,7 @@
       <c r="H35" s="76"/>
     </row>
     <row r="36" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="235" t="s">
+      <c r="A36" s="241" t="s">
         <v>85</v>
       </c>
       <c r="B36" s="59"/>
@@ -8846,7 +8846,7 @@
     </row>
     <row r="38" spans="1:1024" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="236"/>
-      <c r="B38" s="226" t="s">
+      <c r="B38" s="228" t="s">
         <v>90</v>
       </c>
       <c r="C38" s="47" t="s">
@@ -9884,7 +9884,7 @@
     </row>
     <row r="39" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="236"/>
-      <c r="B39" s="226"/>
+      <c r="B39" s="228"/>
       <c r="C39" s="47" t="s">
         <v>94</v>
       </c>
@@ -10920,7 +10920,7 @@
     </row>
     <row r="40" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="236"/>
-      <c r="B40" s="226"/>
+      <c r="B40" s="228"/>
       <c r="C40" s="47" t="s">
         <v>98</v>
       </c>
@@ -11956,7 +11956,7 @@
     </row>
     <row r="41" spans="1:1024" s="10" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A41" s="236"/>
-      <c r="B41" s="226"/>
+      <c r="B41" s="228"/>
       <c r="C41" s="47" t="s">
         <v>102</v>
       </c>
@@ -12992,7 +12992,7 @@
     </row>
     <row r="42" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="236"/>
-      <c r="B42" s="226"/>
+      <c r="B42" s="228"/>
       <c r="C42" s="47" t="s">
         <v>106</v>
       </c>
@@ -14028,7 +14028,7 @@
     </row>
     <row r="43" spans="1:1024" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="236"/>
-      <c r="B43" s="226"/>
+      <c r="B43" s="228"/>
       <c r="C43" s="47" t="s">
         <v>110</v>
       </c>
@@ -15064,7 +15064,7 @@
     </row>
     <row r="44" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="236"/>
-      <c r="B44" s="226"/>
+      <c r="B44" s="228"/>
       <c r="C44" s="47" t="s">
         <v>114</v>
       </c>
@@ -16100,7 +16100,7 @@
     </row>
     <row r="45" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="236"/>
-      <c r="B45" s="226"/>
+      <c r="B45" s="228"/>
       <c r="C45" s="47" t="s">
         <v>118</v>
       </c>
@@ -17136,7 +17136,7 @@
     </row>
     <row r="46" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="236"/>
-      <c r="B46" s="226"/>
+      <c r="B46" s="228"/>
       <c r="C46" s="47" t="s">
         <v>122</v>
       </c>
@@ -18172,7 +18172,7 @@
     </row>
     <row r="47" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="236"/>
-      <c r="B47" s="226"/>
+      <c r="B47" s="228"/>
       <c r="C47" s="47" t="s">
         <v>126</v>
       </c>
@@ -19208,7 +19208,7 @@
     </row>
     <row r="48" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="236"/>
-      <c r="B48" s="226"/>
+      <c r="B48" s="228"/>
       <c r="C48" s="47" t="s">
         <v>130</v>
       </c>
@@ -20244,7 +20244,7 @@
     </row>
     <row r="49" spans="1:1024" s="16" customFormat="1" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="237"/>
-      <c r="B49" s="227"/>
+      <c r="B49" s="229"/>
       <c r="C49" s="51" t="s">
         <v>134</v>
       </c>
@@ -21279,7 +21279,7 @@
       <c r="AMJ49" s="15"/>
     </row>
     <row r="50" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="232" t="s">
+      <c r="A50" s="238" t="s">
         <v>137</v>
       </c>
       <c r="B50" s="77"/>
@@ -21291,7 +21291,7 @@
       <c r="H50" s="79"/>
     </row>
     <row r="51" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="233"/>
+      <c r="A51" s="239"/>
       <c r="B51" s="80" t="s">
         <v>138</v>
       </c>
@@ -21311,8 +21311,8 @@
       <c r="H51" s="83"/>
     </row>
     <row r="52" spans="1:1024" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="233"/>
-      <c r="B52" s="228" t="s">
+      <c r="A52" s="239"/>
+      <c r="B52" s="242" t="s">
         <v>90</v>
       </c>
       <c r="C52" s="84" t="s">
@@ -21333,8 +21333,8 @@
       <c r="H52" s="83"/>
     </row>
     <row r="53" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A53" s="233"/>
-      <c r="B53" s="228"/>
+      <c r="A53" s="239"/>
+      <c r="B53" s="242"/>
       <c r="C53" s="80" t="s">
         <v>94</v>
       </c>
@@ -21353,8 +21353,8 @@
       <c r="H53" s="83"/>
     </row>
     <row r="54" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A54" s="233"/>
-      <c r="B54" s="228"/>
+      <c r="A54" s="239"/>
+      <c r="B54" s="242"/>
       <c r="C54" s="80" t="s">
         <v>98</v>
       </c>
@@ -21373,8 +21373,8 @@
       <c r="H54" s="83"/>
     </row>
     <row r="55" spans="1:1024" ht="85" x14ac:dyDescent="0.2">
-      <c r="A55" s="233"/>
-      <c r="B55" s="228"/>
+      <c r="A55" s="239"/>
+      <c r="B55" s="242"/>
       <c r="C55" s="80" t="s">
         <v>102</v>
       </c>
@@ -21393,8 +21393,8 @@
       <c r="H55" s="83"/>
     </row>
     <row r="56" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A56" s="233"/>
-      <c r="B56" s="228"/>
+      <c r="A56" s="239"/>
+      <c r="B56" s="242"/>
       <c r="C56" s="80" t="s">
         <v>106</v>
       </c>
@@ -21413,8 +21413,8 @@
       <c r="H56" s="83"/>
     </row>
     <row r="57" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="233"/>
-      <c r="B57" s="228"/>
+      <c r="A57" s="239"/>
+      <c r="B57" s="242"/>
       <c r="C57" s="80" t="s">
         <v>110</v>
       </c>
@@ -21433,8 +21433,8 @@
       <c r="H57" s="83"/>
     </row>
     <row r="58" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A58" s="233"/>
-      <c r="B58" s="228"/>
+      <c r="A58" s="239"/>
+      <c r="B58" s="242"/>
       <c r="C58" s="80" t="s">
         <v>114</v>
       </c>
@@ -21453,8 +21453,8 @@
       <c r="H58" s="83"/>
     </row>
     <row r="59" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A59" s="233"/>
-      <c r="B59" s="228"/>
+      <c r="A59" s="239"/>
+      <c r="B59" s="242"/>
       <c r="C59" s="80" t="s">
         <v>118</v>
       </c>
@@ -21473,8 +21473,8 @@
       <c r="H59" s="83"/>
     </row>
     <row r="60" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A60" s="233"/>
-      <c r="B60" s="228"/>
+      <c r="A60" s="239"/>
+      <c r="B60" s="242"/>
       <c r="C60" s="80" t="s">
         <v>122</v>
       </c>
@@ -21493,8 +21493,8 @@
       <c r="H60" s="83"/>
     </row>
     <row r="61" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A61" s="233"/>
-      <c r="B61" s="228"/>
+      <c r="A61" s="239"/>
+      <c r="B61" s="242"/>
       <c r="C61" s="80" t="s">
         <v>126</v>
       </c>
@@ -21513,8 +21513,8 @@
       <c r="H61" s="83"/>
     </row>
     <row r="62" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A62" s="233"/>
-      <c r="B62" s="228"/>
+      <c r="A62" s="239"/>
+      <c r="B62" s="242"/>
       <c r="C62" s="80" t="s">
         <v>130</v>
       </c>
@@ -21533,8 +21533,8 @@
       <c r="H62" s="83"/>
     </row>
     <row r="63" spans="1:1024" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="234"/>
-      <c r="B63" s="229"/>
+      <c r="A63" s="240"/>
+      <c r="B63" s="243"/>
       <c r="C63" s="85" t="s">
         <v>134</v>
       </c>
@@ -21553,7 +21553,7 @@
       <c r="H63" s="87"/>
     </row>
     <row r="64" spans="1:1024" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="235" t="s">
+      <c r="A64" s="241" t="s">
         <v>145</v>
       </c>
       <c r="B64" s="59"/>
@@ -24653,7 +24653,7 @@
       <c r="AMJ66" s="13"/>
     </row>
     <row r="67" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="232" t="s">
+      <c r="A67" s="238" t="s">
         <v>154</v>
       </c>
       <c r="B67" s="29"/>
@@ -24665,7 +24665,7 @@
       <c r="H67" s="64"/>
     </row>
     <row r="68" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A68" s="233"/>
+      <c r="A68" s="239"/>
       <c r="B68" s="69" t="s">
         <v>155</v>
       </c>
@@ -24683,8 +24683,8 @@
       <c r="H68" s="72"/>
     </row>
     <row r="69" spans="1:1024" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="233"/>
-      <c r="B69" s="230" t="s">
+      <c r="A69" s="239"/>
+      <c r="B69" s="244" t="s">
         <v>158</v>
       </c>
       <c r="C69" s="69" t="s">
@@ -24705,8 +24705,8 @@
       <c r="H69" s="72"/>
     </row>
     <row r="70" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A70" s="233"/>
-      <c r="B70" s="230"/>
+      <c r="A70" s="239"/>
+      <c r="B70" s="244"/>
       <c r="C70" s="69" t="s">
         <v>30</v>
       </c>
@@ -24725,8 +24725,8 @@
       <c r="H70" s="72"/>
     </row>
     <row r="71" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="233"/>
-      <c r="B71" s="230"/>
+      <c r="A71" s="239"/>
+      <c r="B71" s="244"/>
       <c r="C71" s="69" t="s">
         <v>12</v>
       </c>
@@ -24745,8 +24745,8 @@
       <c r="H71" s="72"/>
     </row>
     <row r="72" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A72" s="233"/>
-      <c r="B72" s="230"/>
+      <c r="A72" s="239"/>
+      <c r="B72" s="244"/>
       <c r="C72" s="69" t="s">
         <v>167</v>
       </c>
@@ -24765,8 +24765,8 @@
       <c r="H72" s="72"/>
     </row>
     <row r="73" spans="1:1024" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="234"/>
-      <c r="B73" s="231"/>
+      <c r="A73" s="240"/>
+      <c r="B73" s="245"/>
       <c r="C73" s="73" t="s">
         <v>25</v>
       </c>
@@ -24785,7 +24785,7 @@
       <c r="H73" s="76"/>
     </row>
     <row r="74" spans="1:1024" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="235" t="s">
+      <c r="A74" s="241" t="s">
         <v>172</v>
       </c>
       <c r="B74" s="31"/>
@@ -26848,7 +26848,7 @@
     </row>
     <row r="76" spans="1:1024" s="14" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="236"/>
-      <c r="B76" s="226" t="s">
+      <c r="B76" s="228" t="s">
         <v>176</v>
       </c>
       <c r="C76" s="47" t="s">
@@ -27886,7 +27886,7 @@
     </row>
     <row r="77" spans="1:1024" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="236"/>
-      <c r="B77" s="226"/>
+      <c r="B77" s="228"/>
       <c r="C77" s="47" t="s">
         <v>179</v>
       </c>
@@ -28922,7 +28922,7 @@
     </row>
     <row r="78" spans="1:1024" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="236"/>
-      <c r="B78" s="226"/>
+      <c r="B78" s="228"/>
       <c r="C78" s="47" t="s">
         <v>182</v>
       </c>
@@ -29958,7 +29958,7 @@
     </row>
     <row r="79" spans="1:1024" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="236"/>
-      <c r="B79" s="226"/>
+      <c r="B79" s="228"/>
       <c r="C79" s="47" t="s">
         <v>185</v>
       </c>
@@ -30994,7 +30994,7 @@
     </row>
     <row r="80" spans="1:1024" s="14" customFormat="1" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="237"/>
-      <c r="B80" s="227"/>
+      <c r="B80" s="229"/>
       <c r="C80" s="51" t="s">
         <v>25</v>
       </c>
@@ -32103,6 +32103,13 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" insertRows="0" deleteRows="0"/>
   <mergeCells count="14">
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="B52:B63"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A50:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A67:A73"/>
+    <mergeCell ref="A74:A80"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B38:B49"/>
     <mergeCell ref="A3:A11"/>
@@ -32110,13 +32117,6 @@
     <mergeCell ref="A18:A30"/>
     <mergeCell ref="A31:A35"/>
     <mergeCell ref="A36:A49"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="B52:B63"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A50:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:A73"/>
-    <mergeCell ref="A74:A80"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -32156,16 +32156,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="226" t="s">
         <v>518</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="239"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="227"/>
     </row>
     <row r="2" spans="1:8" s="35" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -32194,7 +32194,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="230" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="27"/>
@@ -32206,7 +32206,7 @@
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="241"/>
+      <c r="A4" s="231"/>
       <c r="B4" s="47" t="s">
         <v>8</v>
       </c>
@@ -32226,7 +32226,7 @@
       <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="241"/>
+      <c r="A5" s="231"/>
       <c r="B5" s="47" t="s">
         <v>13</v>
       </c>
@@ -32246,7 +32246,7 @@
       <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="241"/>
+      <c r="A6" s="231"/>
       <c r="B6" s="47" t="s">
         <v>25</v>
       </c>
@@ -32266,7 +32266,7 @@
       <c r="H6" s="50"/>
     </row>
     <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="241"/>
+      <c r="A7" s="231"/>
       <c r="B7" s="47" t="s">
         <v>26</v>
       </c>
@@ -32286,7 +32286,7 @@
       <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="241"/>
+      <c r="A8" s="231"/>
       <c r="B8" s="47" t="s">
         <v>30</v>
       </c>
@@ -32306,7 +32306,7 @@
       <c r="H8" s="50"/>
     </row>
     <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="241"/>
+      <c r="A9" s="231"/>
       <c r="B9" s="47" t="s">
         <v>16</v>
       </c>
@@ -32326,7 +32326,7 @@
       <c r="H9" s="50"/>
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="241"/>
+      <c r="A10" s="231"/>
       <c r="B10" s="47" t="s">
         <v>19</v>
       </c>
@@ -32346,7 +32346,7 @@
       <c r="H10" s="50"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="242"/>
+      <c r="A11" s="232"/>
       <c r="B11" s="51" t="s">
         <v>22</v>
       </c>
@@ -32456,16 +32456,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="226" t="s">
         <v>519</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="239"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="227"/>
     </row>
     <row r="2" spans="1:1024" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -32494,7 +32494,7 @@
       </c>
     </row>
     <row r="3" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="230" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="37"/>
@@ -32544,7 +32544,7 @@
       <c r="AMJ3" s="5"/>
     </row>
     <row r="4" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="241"/>
+      <c r="A4" s="231"/>
       <c r="B4" s="105" t="s">
         <v>207</v>
       </c>
@@ -32562,7 +32562,7 @@
       <c r="H4" s="107"/>
     </row>
     <row r="5" spans="1:1024" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="241"/>
+      <c r="A5" s="231"/>
       <c r="B5" s="105" t="s">
         <v>210</v>
       </c>
@@ -32578,7 +32578,7 @@
       <c r="H5" s="107"/>
     </row>
     <row r="6" spans="1:1024" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="241"/>
+      <c r="A6" s="231"/>
       <c r="B6" s="105" t="s">
         <v>213</v>
       </c>
@@ -32594,7 +32594,7 @@
       <c r="H6" s="107"/>
     </row>
     <row r="7" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="241"/>
+      <c r="A7" s="231"/>
       <c r="B7" s="105" t="s">
         <v>216</v>
       </c>
@@ -32610,7 +32610,7 @@
       <c r="H7" s="107"/>
     </row>
     <row r="8" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="241"/>
+      <c r="A8" s="231"/>
       <c r="B8" s="105" t="s">
         <v>218</v>
       </c>
@@ -32626,7 +32626,7 @@
       <c r="H8" s="107"/>
     </row>
     <row r="9" spans="1:1024" ht="90.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="241"/>
+      <c r="A9" s="231"/>
       <c r="B9" s="105" t="s">
         <v>220</v>
       </c>
@@ -32642,7 +32642,7 @@
       <c r="H9" s="107"/>
     </row>
     <row r="10" spans="1:1024" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="241"/>
+      <c r="A10" s="231"/>
       <c r="B10" s="105" t="s">
         <v>223</v>
       </c>
@@ -32671,7 +32671,7 @@
       <c r="AMJ10" s="5"/>
     </row>
     <row r="11" spans="1:1024" ht="116" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="241"/>
+      <c r="A11" s="231"/>
       <c r="B11" s="105" t="s">
         <v>3</v>
       </c>
@@ -32687,7 +32687,7 @@
       <c r="H11" s="107"/>
     </row>
     <row r="12" spans="1:1024" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="241"/>
+      <c r="A12" s="231"/>
       <c r="B12" s="105" t="s">
         <v>227</v>
       </c>
@@ -32703,7 +32703,7 @@
       <c r="H12" s="107"/>
     </row>
     <row r="13" spans="1:1024" ht="68" x14ac:dyDescent="0.2">
-      <c r="A13" s="241"/>
+      <c r="A13" s="231"/>
       <c r="B13" s="105" t="s">
         <v>230</v>
       </c>
@@ -32721,7 +32721,7 @@
       <c r="H13" s="107"/>
     </row>
     <row r="14" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="241"/>
+      <c r="A14" s="231"/>
       <c r="B14" s="105" t="s">
         <v>485</v>
       </c>
@@ -32739,7 +32739,7 @@
       <c r="H14" s="107"/>
     </row>
     <row r="15" spans="1:1024" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="242"/>
+      <c r="A15" s="232"/>
       <c r="B15" s="108" t="s">
         <v>234</v>
       </c>
@@ -32755,7 +32755,7 @@
       <c r="H15" s="110"/>
     </row>
     <row r="16" spans="1:1024" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A16" s="232" t="s">
+      <c r="A16" s="238" t="s">
         <v>154</v>
       </c>
       <c r="B16" s="111"/>
@@ -32768,7 +32768,7 @@
       <c r="AMJ16" s="5"/>
     </row>
     <row r="17" spans="1:1024" ht="127" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="233"/>
+      <c r="A17" s="239"/>
       <c r="B17" s="113" t="s">
         <v>237</v>
       </c>
@@ -32784,7 +32784,7 @@
       <c r="H17" s="115"/>
     </row>
     <row r="18" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="233"/>
+      <c r="A18" s="239"/>
       <c r="B18" s="113" t="s">
         <v>240</v>
       </c>
@@ -32798,7 +32798,7 @@
       <c r="H18" s="115"/>
     </row>
     <row r="19" spans="1:1024" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="234"/>
+      <c r="A19" s="240"/>
       <c r="B19" s="116" t="s">
         <v>242</v>
       </c>
@@ -32814,7 +32814,7 @@
       <c r="H19" s="118"/>
     </row>
     <row r="20" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="235" t="s">
+      <c r="A20" s="241" t="s">
         <v>245</v>
       </c>
       <c r="B20" s="119"/>
@@ -32899,7 +32899,7 @@
       <c r="AMJ21" s="5"/>
     </row>
     <row r="22" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="232" t="s">
+      <c r="A22" s="238" t="s">
         <v>72</v>
       </c>
       <c r="B22" s="111"/>
@@ -32912,7 +32912,7 @@
       <c r="AMJ22" s="5"/>
     </row>
     <row r="23" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="233"/>
+      <c r="A23" s="239"/>
       <c r="B23" s="113" t="s">
         <v>73</v>
       </c>
@@ -32928,7 +32928,7 @@
       <c r="H23" s="115"/>
     </row>
     <row r="24" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="233"/>
+      <c r="A24" s="239"/>
       <c r="B24" s="113" t="s">
         <v>76</v>
       </c>
@@ -32944,7 +32944,7 @@
       <c r="H24" s="115"/>
     </row>
     <row r="25" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="234"/>
+      <c r="A25" s="240"/>
       <c r="B25" s="116" t="s">
         <v>79</v>
       </c>
@@ -32960,7 +32960,7 @@
       <c r="H25" s="118"/>
     </row>
     <row r="26" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="235" t="s">
+      <c r="A26" s="241" t="s">
         <v>252</v>
       </c>
       <c r="B26" s="121"/>
@@ -33173,7 +33173,7 @@
       <c r="H35" s="110"/>
     </row>
     <row r="36" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="232" t="s">
+      <c r="A36" s="238" t="s">
         <v>532</v>
       </c>
       <c r="B36" s="123"/>
@@ -33186,7 +33186,7 @@
       <c r="AMJ36" s="5"/>
     </row>
     <row r="37" spans="1:1024" ht="90.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="234"/>
+      <c r="A37" s="240"/>
       <c r="B37" s="116" t="s">
         <v>5</v>
       </c>
@@ -33248,16 +33248,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="226" t="s">
         <v>520</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="239"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="227"/>
     </row>
     <row r="2" spans="1:1024" s="16" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
@@ -43130,16 +43130,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="226" t="s">
         <v>521</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="239"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="227"/>
     </row>
     <row r="2" spans="1:1024" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -43168,7 +43168,7 @@
       </c>
     </row>
     <row r="3" spans="1:1024" s="11" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="241" t="s">
         <v>536</v>
       </c>
       <c r="B3" s="18"/>
@@ -43518,16 +43518,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="226" t="s">
         <v>522</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="239"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="227"/>
     </row>
     <row r="2" spans="1:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -44024,16 +44024,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="226" t="s">
         <v>523</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="239"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="227"/>
     </row>
     <row r="2" spans="1:20" s="153" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
@@ -44062,7 +44062,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" s="157" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="241" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="154"/>
@@ -44158,7 +44158,7 @@
       <c r="H7" s="161"/>
     </row>
     <row r="8" spans="1:20" s="156" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="232" t="s">
+      <c r="A8" s="238" t="s">
         <v>303</v>
       </c>
       <c r="B8" s="162"/>
@@ -44170,7 +44170,7 @@
       <c r="H8" s="163"/>
     </row>
     <row r="9" spans="1:20" ht="18.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="233"/>
+      <c r="A9" s="239"/>
       <c r="B9" s="164" t="s">
         <v>30</v>
       </c>
@@ -44188,7 +44188,7 @@
       <c r="H9" s="165"/>
     </row>
     <row r="10" spans="1:20" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="233"/>
+      <c r="A10" s="239"/>
       <c r="B10" s="164" t="s">
         <v>393</v>
       </c>
@@ -44202,7 +44202,7 @@
       <c r="H10" s="165"/>
     </row>
     <row r="11" spans="1:20" ht="40.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="233"/>
+      <c r="A11" s="239"/>
       <c r="B11" s="164"/>
       <c r="C11" s="164" t="s">
         <v>395</v>
@@ -44218,7 +44218,7 @@
       <c r="H11" s="165"/>
     </row>
     <row r="12" spans="1:20" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="233"/>
+      <c r="A12" s="239"/>
       <c r="B12" s="164"/>
       <c r="C12" s="164" t="s">
         <v>396</v>
@@ -44234,7 +44234,7 @@
       <c r="H12" s="165"/>
     </row>
     <row r="13" spans="1:20" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="233"/>
+      <c r="A13" s="239"/>
       <c r="B13" s="164"/>
       <c r="C13" s="164" t="s">
         <v>397</v>
@@ -44250,7 +44250,7 @@
       <c r="H13" s="165"/>
     </row>
     <row r="14" spans="1:20" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="233"/>
+      <c r="A14" s="239"/>
       <c r="B14" s="164"/>
       <c r="C14" s="164" t="s">
         <v>398</v>
@@ -44266,7 +44266,7 @@
       <c r="H14" s="165"/>
     </row>
     <row r="15" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="233"/>
+      <c r="A15" s="239"/>
       <c r="B15" s="164"/>
       <c r="C15" s="164" t="s">
         <v>400</v>
@@ -44282,7 +44282,7 @@
       <c r="H15" s="165"/>
     </row>
     <row r="16" spans="1:20" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="233"/>
+      <c r="A16" s="239"/>
       <c r="B16" s="164" t="s">
         <v>402</v>
       </c>
@@ -44296,7 +44296,7 @@
       <c r="H16" s="165"/>
     </row>
     <row r="17" spans="1:19" ht="18.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="234"/>
+      <c r="A17" s="240"/>
       <c r="B17" s="166"/>
       <c r="C17" s="166" t="s">
         <v>400</v>
@@ -44312,7 +44312,7 @@
       <c r="H17" s="167"/>
     </row>
     <row r="18" spans="1:19" s="157" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="235" t="s">
+      <c r="A18" s="241" t="s">
         <v>404</v>
       </c>
       <c r="B18" s="168"/>
@@ -44441,16 +44441,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="226" t="s">
         <v>524</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="239"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="227"/>
     </row>
     <row r="2" spans="1:1024" s="42" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
@@ -45495,7 +45495,7 @@
       <c r="AMJ2" s="41"/>
     </row>
     <row r="3" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="241" t="s">
         <v>413</v>
       </c>
       <c r="B3" s="172"/>
@@ -54795,7 +54795,7 @@
       <c r="AMJ12" s="25"/>
     </row>
     <row r="13" spans="1:1024" s="20" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="232" t="s">
+      <c r="A13" s="238" t="s">
         <v>428</v>
       </c>
       <c r="B13" s="175"/>
@@ -54808,7 +54808,7 @@
       <c r="AMJ13" s="21"/>
     </row>
     <row r="14" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="233"/>
+      <c r="A14" s="239"/>
       <c r="B14" s="69" t="s">
         <v>207</v>
       </c>
@@ -54824,7 +54824,7 @@
       <c r="H14" s="177"/>
     </row>
     <row r="15" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="233"/>
+      <c r="A15" s="239"/>
       <c r="B15" s="69" t="s">
         <v>268</v>
       </c>
@@ -54840,7 +54840,7 @@
       <c r="H15" s="177"/>
     </row>
     <row r="16" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="233"/>
+      <c r="A16" s="239"/>
       <c r="B16" s="69" t="s">
         <v>213</v>
       </c>
@@ -54856,7 +54856,7 @@
       <c r="H16" s="177"/>
     </row>
     <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="233"/>
+      <c r="A17" s="239"/>
       <c r="B17" s="69" t="s">
         <v>274</v>
       </c>
@@ -54872,7 +54872,7 @@
       <c r="H17" s="177"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="233"/>
+      <c r="A18" s="239"/>
       <c r="B18" s="69" t="s">
         <v>210</v>
       </c>
@@ -54888,7 +54888,7 @@
       <c r="H18" s="177"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="233"/>
+      <c r="A19" s="239"/>
       <c r="B19" s="69" t="s">
         <v>5</v>
       </c>
@@ -54904,7 +54904,7 @@
       <c r="H19" s="177"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="233"/>
+      <c r="A20" s="239"/>
       <c r="B20" s="69" t="s">
         <v>434</v>
       </c>
@@ -54920,7 +54920,7 @@
       <c r="H20" s="177"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="233"/>
+      <c r="A21" s="239"/>
       <c r="B21" s="69" t="s">
         <v>334</v>
       </c>
@@ -54936,7 +54936,7 @@
       <c r="H21" s="177"/>
     </row>
     <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="233"/>
+      <c r="A22" s="239"/>
       <c r="B22" s="69" t="s">
         <v>437</v>
       </c>
@@ -54952,7 +54952,7 @@
       <c r="H22" s="177"/>
     </row>
     <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="233"/>
+      <c r="A23" s="239"/>
       <c r="B23" s="69" t="s">
         <v>439</v>
       </c>
@@ -54968,7 +54968,7 @@
       <c r="H23" s="177"/>
     </row>
     <row r="24" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="234"/>
+      <c r="A24" s="240"/>
       <c r="B24" s="73" t="s">
         <v>441</v>
       </c>
@@ -54984,7 +54984,7 @@
       <c r="H24" s="178"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="235" t="s">
+      <c r="A25" s="241" t="s">
         <v>370</v>
       </c>
       <c r="B25" s="179"/>
@@ -55172,7 +55172,7 @@
       <c r="H36" s="181"/>
     </row>
     <row r="37" spans="1:1024" s="20" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="232" t="s">
+      <c r="A37" s="238" t="s">
         <v>290</v>
       </c>
       <c r="B37" s="175"/>
@@ -55185,7 +55185,7 @@
       <c r="AMJ37" s="21"/>
     </row>
     <row r="38" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="233"/>
+      <c r="A38" s="239"/>
       <c r="B38" s="69" t="s">
         <v>207</v>
       </c>
@@ -55201,7 +55201,7 @@
       <c r="H38" s="177"/>
     </row>
     <row r="39" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="233"/>
+      <c r="A39" s="239"/>
       <c r="B39" s="69" t="s">
         <v>268</v>
       </c>
@@ -55217,7 +55217,7 @@
       <c r="H39" s="177"/>
     </row>
     <row r="40" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="233"/>
+      <c r="A40" s="239"/>
       <c r="B40" s="69" t="s">
         <v>213</v>
       </c>
@@ -55233,7 +55233,7 @@
       <c r="H40" s="177"/>
     </row>
     <row r="41" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="233"/>
+      <c r="A41" s="239"/>
       <c r="B41" s="69" t="s">
         <v>274</v>
       </c>
@@ -55249,7 +55249,7 @@
       <c r="H41" s="177"/>
     </row>
     <row r="42" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="233"/>
+      <c r="A42" s="239"/>
       <c r="B42" s="69" t="s">
         <v>460</v>
       </c>
@@ -55265,7 +55265,7 @@
       <c r="H42" s="177"/>
     </row>
     <row r="43" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="233"/>
+      <c r="A43" s="239"/>
       <c r="B43" s="69" t="s">
         <v>370</v>
       </c>
@@ -55281,7 +55281,7 @@
       <c r="H43" s="177"/>
     </row>
     <row r="44" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="233"/>
+      <c r="A44" s="239"/>
       <c r="B44" s="69" t="s">
         <v>210</v>
       </c>
@@ -55297,7 +55297,7 @@
       <c r="H44" s="177"/>
     </row>
     <row r="45" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="233"/>
+      <c r="A45" s="239"/>
       <c r="B45" s="69" t="s">
         <v>424</v>
       </c>
@@ -55313,7 +55313,7 @@
       <c r="H45" s="177"/>
     </row>
     <row r="46" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="233"/>
+      <c r="A46" s="239"/>
       <c r="B46" s="69" t="s">
         <v>465</v>
       </c>
@@ -55329,7 +55329,7 @@
       <c r="H46" s="177"/>
     </row>
     <row r="47" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="233"/>
+      <c r="A47" s="239"/>
       <c r="B47" s="69" t="s">
         <v>5</v>
       </c>
@@ -55345,7 +55345,7 @@
       <c r="H47" s="177"/>
     </row>
     <row r="48" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="234"/>
+      <c r="A48" s="240"/>
       <c r="B48" s="73" t="s">
         <v>437</v>
       </c>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deslauj/CODE/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322FC021-DC11-4148-A54C-06C6F5DE9075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9726931A-D7FF-1846-A5EC-8E737B771F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14020" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Microservice" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="541">
   <si>
     <t>Concept</t>
   </si>
@@ -1741,6 +1741,15 @@
   <si>
     <t>a mapping specifying which microservice should run on which host. By default each microservice is assigned a respective host, but this behaviour is not always ideal (eg. when two or more Microservices may need to run on the same host)</t>
   </si>
+  <si>
+    <t>Configuration data for a CloudBroker instance</t>
+  </si>
+  <si>
+    <t>Connection data for a bring-your-own edge</t>
+  </si>
+  <si>
+    <t>Mapping Microservices to Data assets, as available in the DMA Tuple</t>
+  </si>
 </sst>
 </file>
 
@@ -3104,20 +3113,60 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3142,46 +3191,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4061,7 +4070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E10" sqref="E10"/>
       <selection pane="topRight" activeCell="E10" sqref="E10"/>
@@ -4083,16 +4092,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="238" t="s">
         <v>517</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="227"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="239"/>
     </row>
     <row r="2" spans="1:1024" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -4121,7 +4130,7 @@
       </c>
     </row>
     <row r="3" spans="1:1024" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="230" t="s">
+      <c r="A3" s="240" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="27"/>
@@ -4133,7 +4142,7 @@
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="231"/>
+      <c r="A4" s="241"/>
       <c r="B4" s="47" t="s">
         <v>8</v>
       </c>
@@ -4153,7 +4162,7 @@
       <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="231"/>
+      <c r="A5" s="241"/>
       <c r="B5" s="47" t="s">
         <v>13</v>
       </c>
@@ -4173,7 +4182,7 @@
       <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="231"/>
+      <c r="A6" s="241"/>
       <c r="B6" s="47" t="s">
         <v>16</v>
       </c>
@@ -4193,7 +4202,7 @@
       <c r="H6" s="50"/>
     </row>
     <row r="7" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="231"/>
+      <c r="A7" s="241"/>
       <c r="B7" s="47" t="s">
         <v>19</v>
       </c>
@@ -4213,7 +4222,7 @@
       <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="231"/>
+      <c r="A8" s="241"/>
       <c r="B8" s="47" t="s">
         <v>22</v>
       </c>
@@ -4233,7 +4242,7 @@
       <c r="H8" s="50"/>
     </row>
     <row r="9" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="231"/>
+      <c r="A9" s="241"/>
       <c r="B9" s="47" t="s">
         <v>25</v>
       </c>
@@ -4253,7 +4262,7 @@
       <c r="H9" s="50"/>
     </row>
     <row r="10" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="231"/>
+      <c r="A10" s="241"/>
       <c r="B10" s="47" t="s">
         <v>26</v>
       </c>
@@ -4273,7 +4282,7 @@
       <c r="H10" s="50"/>
     </row>
     <row r="11" spans="1:1024" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="232"/>
+      <c r="A11" s="242"/>
       <c r="B11" s="51" t="s">
         <v>30</v>
       </c>
@@ -4293,7 +4302,7 @@
       <c r="H11" s="54"/>
     </row>
     <row r="12" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="233" t="s">
+      <c r="A12" s="243" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="217"/>
@@ -4305,7 +4314,7 @@
       <c r="H12" s="220"/>
     </row>
     <row r="13" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="234"/>
+      <c r="A13" s="244"/>
       <c r="B13" s="55" t="s">
         <v>35</v>
       </c>
@@ -4325,7 +4334,7 @@
       <c r="H13" s="58"/>
     </row>
     <row r="14" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="234"/>
+      <c r="A14" s="244"/>
       <c r="B14" s="55" t="s">
         <v>38</v>
       </c>
@@ -4345,7 +4354,7 @@
       <c r="H14" s="58"/>
     </row>
     <row r="15" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="234"/>
+      <c r="A15" s="244"/>
       <c r="B15" s="55" t="s">
         <v>482</v>
       </c>
@@ -5381,7 +5390,7 @@
       <c r="AMJ15" s="4"/>
     </row>
     <row r="16" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="234"/>
+      <c r="A16" s="244"/>
       <c r="B16" s="55" t="s">
         <v>475</v>
       </c>
@@ -6417,7 +6426,7 @@
       <c r="AMJ16" s="4"/>
     </row>
     <row r="17" spans="1:1024" s="10" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="235"/>
+      <c r="A17" s="245"/>
       <c r="B17" s="221" t="s">
         <v>476</v>
       </c>
@@ -7705,7 +7714,7 @@
       <c r="H30" s="54"/>
     </row>
     <row r="31" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="238" t="s">
+      <c r="A31" s="232" t="s">
         <v>72</v>
       </c>
       <c r="B31" s="62"/>
@@ -7717,7 +7726,7 @@
       <c r="H31" s="64"/>
     </row>
     <row r="32" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="239"/>
+      <c r="A32" s="233"/>
       <c r="B32" s="65" t="s">
         <v>73</v>
       </c>
@@ -7737,7 +7746,7 @@
       <c r="H32" s="68"/>
     </row>
     <row r="33" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="239"/>
+      <c r="A33" s="233"/>
       <c r="B33" s="69" t="s">
         <v>76</v>
       </c>
@@ -7757,7 +7766,7 @@
       <c r="H33" s="72"/>
     </row>
     <row r="34" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="239"/>
+      <c r="A34" s="233"/>
       <c r="B34" s="69" t="s">
         <v>79</v>
       </c>
@@ -7777,7 +7786,7 @@
       <c r="H34" s="72"/>
     </row>
     <row r="35" spans="1:1024" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="240"/>
+      <c r="A35" s="234"/>
       <c r="B35" s="73" t="s">
         <v>82</v>
       </c>
@@ -7797,7 +7806,7 @@
       <c r="H35" s="76"/>
     </row>
     <row r="36" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="241" t="s">
+      <c r="A36" s="235" t="s">
         <v>85</v>
       </c>
       <c r="B36" s="59"/>
@@ -8846,7 +8855,7 @@
     </row>
     <row r="38" spans="1:1024" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="236"/>
-      <c r="B38" s="228" t="s">
+      <c r="B38" s="226" t="s">
         <v>90</v>
       </c>
       <c r="C38" s="47" t="s">
@@ -9884,7 +9893,7 @@
     </row>
     <row r="39" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="236"/>
-      <c r="B39" s="228"/>
+      <c r="B39" s="226"/>
       <c r="C39" s="47" t="s">
         <v>94</v>
       </c>
@@ -10920,7 +10929,7 @@
     </row>
     <row r="40" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="236"/>
-      <c r="B40" s="228"/>
+      <c r="B40" s="226"/>
       <c r="C40" s="47" t="s">
         <v>98</v>
       </c>
@@ -11956,7 +11965,7 @@
     </row>
     <row r="41" spans="1:1024" s="10" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A41" s="236"/>
-      <c r="B41" s="228"/>
+      <c r="B41" s="226"/>
       <c r="C41" s="47" t="s">
         <v>102</v>
       </c>
@@ -12992,7 +13001,7 @@
     </row>
     <row r="42" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="236"/>
-      <c r="B42" s="228"/>
+      <c r="B42" s="226"/>
       <c r="C42" s="47" t="s">
         <v>106</v>
       </c>
@@ -14028,7 +14037,7 @@
     </row>
     <row r="43" spans="1:1024" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="236"/>
-      <c r="B43" s="228"/>
+      <c r="B43" s="226"/>
       <c r="C43" s="47" t="s">
         <v>110</v>
       </c>
@@ -15064,7 +15073,7 @@
     </row>
     <row r="44" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="236"/>
-      <c r="B44" s="228"/>
+      <c r="B44" s="226"/>
       <c r="C44" s="47" t="s">
         <v>114</v>
       </c>
@@ -16100,7 +16109,7 @@
     </row>
     <row r="45" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="236"/>
-      <c r="B45" s="228"/>
+      <c r="B45" s="226"/>
       <c r="C45" s="47" t="s">
         <v>118</v>
       </c>
@@ -17136,7 +17145,7 @@
     </row>
     <row r="46" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="236"/>
-      <c r="B46" s="228"/>
+      <c r="B46" s="226"/>
       <c r="C46" s="47" t="s">
         <v>122</v>
       </c>
@@ -18172,7 +18181,7 @@
     </row>
     <row r="47" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="236"/>
-      <c r="B47" s="228"/>
+      <c r="B47" s="226"/>
       <c r="C47" s="47" t="s">
         <v>126</v>
       </c>
@@ -19208,7 +19217,7 @@
     </row>
     <row r="48" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="236"/>
-      <c r="B48" s="228"/>
+      <c r="B48" s="226"/>
       <c r="C48" s="47" t="s">
         <v>130</v>
       </c>
@@ -20244,7 +20253,7 @@
     </row>
     <row r="49" spans="1:1024" s="16" customFormat="1" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="237"/>
-      <c r="B49" s="229"/>
+      <c r="B49" s="227"/>
       <c r="C49" s="51" t="s">
         <v>134</v>
       </c>
@@ -21279,7 +21288,7 @@
       <c r="AMJ49" s="15"/>
     </row>
     <row r="50" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="238" t="s">
+      <c r="A50" s="232" t="s">
         <v>137</v>
       </c>
       <c r="B50" s="77"/>
@@ -21291,7 +21300,7 @@
       <c r="H50" s="79"/>
     </row>
     <row r="51" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="239"/>
+      <c r="A51" s="233"/>
       <c r="B51" s="80" t="s">
         <v>138</v>
       </c>
@@ -21311,8 +21320,8 @@
       <c r="H51" s="83"/>
     </row>
     <row r="52" spans="1:1024" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="239"/>
-      <c r="B52" s="242" t="s">
+      <c r="A52" s="233"/>
+      <c r="B52" s="228" t="s">
         <v>90</v>
       </c>
       <c r="C52" s="84" t="s">
@@ -21333,8 +21342,8 @@
       <c r="H52" s="83"/>
     </row>
     <row r="53" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A53" s="239"/>
-      <c r="B53" s="242"/>
+      <c r="A53" s="233"/>
+      <c r="B53" s="228"/>
       <c r="C53" s="80" t="s">
         <v>94</v>
       </c>
@@ -21353,8 +21362,8 @@
       <c r="H53" s="83"/>
     </row>
     <row r="54" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A54" s="239"/>
-      <c r="B54" s="242"/>
+      <c r="A54" s="233"/>
+      <c r="B54" s="228"/>
       <c r="C54" s="80" t="s">
         <v>98</v>
       </c>
@@ -21373,8 +21382,8 @@
       <c r="H54" s="83"/>
     </row>
     <row r="55" spans="1:1024" ht="85" x14ac:dyDescent="0.2">
-      <c r="A55" s="239"/>
-      <c r="B55" s="242"/>
+      <c r="A55" s="233"/>
+      <c r="B55" s="228"/>
       <c r="C55" s="80" t="s">
         <v>102</v>
       </c>
@@ -21393,8 +21402,8 @@
       <c r="H55" s="83"/>
     </row>
     <row r="56" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A56" s="239"/>
-      <c r="B56" s="242"/>
+      <c r="A56" s="233"/>
+      <c r="B56" s="228"/>
       <c r="C56" s="80" t="s">
         <v>106</v>
       </c>
@@ -21413,8 +21422,8 @@
       <c r="H56" s="83"/>
     </row>
     <row r="57" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="239"/>
-      <c r="B57" s="242"/>
+      <c r="A57" s="233"/>
+      <c r="B57" s="228"/>
       <c r="C57" s="80" t="s">
         <v>110</v>
       </c>
@@ -21433,8 +21442,8 @@
       <c r="H57" s="83"/>
     </row>
     <row r="58" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A58" s="239"/>
-      <c r="B58" s="242"/>
+      <c r="A58" s="233"/>
+      <c r="B58" s="228"/>
       <c r="C58" s="80" t="s">
         <v>114</v>
       </c>
@@ -21453,8 +21462,8 @@
       <c r="H58" s="83"/>
     </row>
     <row r="59" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A59" s="239"/>
-      <c r="B59" s="242"/>
+      <c r="A59" s="233"/>
+      <c r="B59" s="228"/>
       <c r="C59" s="80" t="s">
         <v>118</v>
       </c>
@@ -21473,8 +21482,8 @@
       <c r="H59" s="83"/>
     </row>
     <row r="60" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A60" s="239"/>
-      <c r="B60" s="242"/>
+      <c r="A60" s="233"/>
+      <c r="B60" s="228"/>
       <c r="C60" s="80" t="s">
         <v>122</v>
       </c>
@@ -21493,8 +21502,8 @@
       <c r="H60" s="83"/>
     </row>
     <row r="61" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A61" s="239"/>
-      <c r="B61" s="242"/>
+      <c r="A61" s="233"/>
+      <c r="B61" s="228"/>
       <c r="C61" s="80" t="s">
         <v>126</v>
       </c>
@@ -21513,8 +21522,8 @@
       <c r="H61" s="83"/>
     </row>
     <row r="62" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A62" s="239"/>
-      <c r="B62" s="242"/>
+      <c r="A62" s="233"/>
+      <c r="B62" s="228"/>
       <c r="C62" s="80" t="s">
         <v>130</v>
       </c>
@@ -21533,8 +21542,8 @@
       <c r="H62" s="83"/>
     </row>
     <row r="63" spans="1:1024" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="240"/>
-      <c r="B63" s="243"/>
+      <c r="A63" s="234"/>
+      <c r="B63" s="229"/>
       <c r="C63" s="85" t="s">
         <v>134</v>
       </c>
@@ -21553,7 +21562,7 @@
       <c r="H63" s="87"/>
     </row>
     <row r="64" spans="1:1024" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="241" t="s">
+      <c r="A64" s="235" t="s">
         <v>145</v>
       </c>
       <c r="B64" s="59"/>
@@ -24653,7 +24662,7 @@
       <c r="AMJ66" s="13"/>
     </row>
     <row r="67" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="238" t="s">
+      <c r="A67" s="232" t="s">
         <v>154</v>
       </c>
       <c r="B67" s="29"/>
@@ -24665,7 +24674,7 @@
       <c r="H67" s="64"/>
     </row>
     <row r="68" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A68" s="239"/>
+      <c r="A68" s="233"/>
       <c r="B68" s="69" t="s">
         <v>155</v>
       </c>
@@ -24683,8 +24692,8 @@
       <c r="H68" s="72"/>
     </row>
     <row r="69" spans="1:1024" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="239"/>
-      <c r="B69" s="244" t="s">
+      <c r="A69" s="233"/>
+      <c r="B69" s="230" t="s">
         <v>158</v>
       </c>
       <c r="C69" s="69" t="s">
@@ -24705,8 +24714,8 @@
       <c r="H69" s="72"/>
     </row>
     <row r="70" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A70" s="239"/>
-      <c r="B70" s="244"/>
+      <c r="A70" s="233"/>
+      <c r="B70" s="230"/>
       <c r="C70" s="69" t="s">
         <v>30</v>
       </c>
@@ -24725,8 +24734,8 @@
       <c r="H70" s="72"/>
     </row>
     <row r="71" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="239"/>
-      <c r="B71" s="244"/>
+      <c r="A71" s="233"/>
+      <c r="B71" s="230"/>
       <c r="C71" s="69" t="s">
         <v>12</v>
       </c>
@@ -24745,8 +24754,8 @@
       <c r="H71" s="72"/>
     </row>
     <row r="72" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A72" s="239"/>
-      <c r="B72" s="244"/>
+      <c r="A72" s="233"/>
+      <c r="B72" s="230"/>
       <c r="C72" s="69" t="s">
         <v>167</v>
       </c>
@@ -24765,8 +24774,8 @@
       <c r="H72" s="72"/>
     </row>
     <row r="73" spans="1:1024" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="240"/>
-      <c r="B73" s="245"/>
+      <c r="A73" s="234"/>
+      <c r="B73" s="231"/>
       <c r="C73" s="73" t="s">
         <v>25</v>
       </c>
@@ -24785,7 +24794,7 @@
       <c r="H73" s="76"/>
     </row>
     <row r="74" spans="1:1024" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="241" t="s">
+      <c r="A74" s="235" t="s">
         <v>172</v>
       </c>
       <c r="B74" s="31"/>
@@ -26848,7 +26857,7 @@
     </row>
     <row r="76" spans="1:1024" s="14" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="236"/>
-      <c r="B76" s="228" t="s">
+      <c r="B76" s="226" t="s">
         <v>176</v>
       </c>
       <c r="C76" s="47" t="s">
@@ -27886,7 +27895,7 @@
     </row>
     <row r="77" spans="1:1024" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="236"/>
-      <c r="B77" s="228"/>
+      <c r="B77" s="226"/>
       <c r="C77" s="47" t="s">
         <v>179</v>
       </c>
@@ -28922,7 +28931,7 @@
     </row>
     <row r="78" spans="1:1024" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="236"/>
-      <c r="B78" s="228"/>
+      <c r="B78" s="226"/>
       <c r="C78" s="47" t="s">
         <v>182</v>
       </c>
@@ -29958,7 +29967,7 @@
     </row>
     <row r="79" spans="1:1024" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="236"/>
-      <c r="B79" s="228"/>
+      <c r="B79" s="226"/>
       <c r="C79" s="47" t="s">
         <v>185</v>
       </c>
@@ -30994,7 +31003,7 @@
     </row>
     <row r="80" spans="1:1024" s="14" customFormat="1" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="237"/>
-      <c r="B80" s="229"/>
+      <c r="B80" s="227"/>
       <c r="C80" s="51" t="s">
         <v>25</v>
       </c>
@@ -32103,6 +32112,13 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" insertRows="0" deleteRows="0"/>
   <mergeCells count="14">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B38:B49"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A18:A30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A36:A49"/>
     <mergeCell ref="B76:B80"/>
     <mergeCell ref="B52:B63"/>
     <mergeCell ref="B69:B73"/>
@@ -32110,13 +32126,6 @@
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="A67:A73"/>
     <mergeCell ref="A74:A80"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B38:B49"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A18:A30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A36:A49"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -32156,16 +32165,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="238" t="s">
         <v>518</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="227"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="239"/>
     </row>
     <row r="2" spans="1:8" s="35" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -32194,7 +32203,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="230" t="s">
+      <c r="A3" s="240" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="27"/>
@@ -32206,7 +32215,7 @@
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="231"/>
+      <c r="A4" s="241"/>
       <c r="B4" s="47" t="s">
         <v>8</v>
       </c>
@@ -32226,7 +32235,7 @@
       <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="231"/>
+      <c r="A5" s="241"/>
       <c r="B5" s="47" t="s">
         <v>13</v>
       </c>
@@ -32246,7 +32255,7 @@
       <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="231"/>
+      <c r="A6" s="241"/>
       <c r="B6" s="47" t="s">
         <v>25</v>
       </c>
@@ -32266,7 +32275,7 @@
       <c r="H6" s="50"/>
     </row>
     <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="231"/>
+      <c r="A7" s="241"/>
       <c r="B7" s="47" t="s">
         <v>26</v>
       </c>
@@ -32286,7 +32295,7 @@
       <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="231"/>
+      <c r="A8" s="241"/>
       <c r="B8" s="47" t="s">
         <v>30</v>
       </c>
@@ -32306,7 +32315,7 @@
       <c r="H8" s="50"/>
     </row>
     <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="231"/>
+      <c r="A9" s="241"/>
       <c r="B9" s="47" t="s">
         <v>16</v>
       </c>
@@ -32326,7 +32335,7 @@
       <c r="H9" s="50"/>
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="231"/>
+      <c r="A10" s="241"/>
       <c r="B10" s="47" t="s">
         <v>19</v>
       </c>
@@ -32346,7 +32355,7 @@
       <c r="H10" s="50"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="232"/>
+      <c r="A11" s="242"/>
       <c r="B11" s="51" t="s">
         <v>22</v>
       </c>
@@ -32456,16 +32465,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="238" t="s">
         <v>519</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="227"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="239"/>
     </row>
     <row r="2" spans="1:1024" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -32494,7 +32503,7 @@
       </c>
     </row>
     <row r="3" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="230" t="s">
+      <c r="A3" s="240" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="37"/>
@@ -32544,7 +32553,7 @@
       <c r="AMJ3" s="5"/>
     </row>
     <row r="4" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="231"/>
+      <c r="A4" s="241"/>
       <c r="B4" s="105" t="s">
         <v>207</v>
       </c>
@@ -32562,7 +32571,7 @@
       <c r="H4" s="107"/>
     </row>
     <row r="5" spans="1:1024" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="231"/>
+      <c r="A5" s="241"/>
       <c r="B5" s="105" t="s">
         <v>210</v>
       </c>
@@ -32578,7 +32587,7 @@
       <c r="H5" s="107"/>
     </row>
     <row r="6" spans="1:1024" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="231"/>
+      <c r="A6" s="241"/>
       <c r="B6" s="105" t="s">
         <v>213</v>
       </c>
@@ -32594,7 +32603,7 @@
       <c r="H6" s="107"/>
     </row>
     <row r="7" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="231"/>
+      <c r="A7" s="241"/>
       <c r="B7" s="105" t="s">
         <v>216</v>
       </c>
@@ -32610,7 +32619,7 @@
       <c r="H7" s="107"/>
     </row>
     <row r="8" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="231"/>
+      <c r="A8" s="241"/>
       <c r="B8" s="105" t="s">
         <v>218</v>
       </c>
@@ -32626,7 +32635,7 @@
       <c r="H8" s="107"/>
     </row>
     <row r="9" spans="1:1024" ht="90.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="231"/>
+      <c r="A9" s="241"/>
       <c r="B9" s="105" t="s">
         <v>220</v>
       </c>
@@ -32642,7 +32651,7 @@
       <c r="H9" s="107"/>
     </row>
     <row r="10" spans="1:1024" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="231"/>
+      <c r="A10" s="241"/>
       <c r="B10" s="105" t="s">
         <v>223</v>
       </c>
@@ -32671,7 +32680,7 @@
       <c r="AMJ10" s="5"/>
     </row>
     <row r="11" spans="1:1024" ht="116" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="231"/>
+      <c r="A11" s="241"/>
       <c r="B11" s="105" t="s">
         <v>3</v>
       </c>
@@ -32687,7 +32696,7 @@
       <c r="H11" s="107"/>
     </row>
     <row r="12" spans="1:1024" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="231"/>
+      <c r="A12" s="241"/>
       <c r="B12" s="105" t="s">
         <v>227</v>
       </c>
@@ -32703,7 +32712,7 @@
       <c r="H12" s="107"/>
     </row>
     <row r="13" spans="1:1024" ht="68" x14ac:dyDescent="0.2">
-      <c r="A13" s="231"/>
+      <c r="A13" s="241"/>
       <c r="B13" s="105" t="s">
         <v>230</v>
       </c>
@@ -32721,7 +32730,7 @@
       <c r="H13" s="107"/>
     </row>
     <row r="14" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="231"/>
+      <c r="A14" s="241"/>
       <c r="B14" s="105" t="s">
         <v>485</v>
       </c>
@@ -32739,7 +32748,7 @@
       <c r="H14" s="107"/>
     </row>
     <row r="15" spans="1:1024" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="232"/>
+      <c r="A15" s="242"/>
       <c r="B15" s="108" t="s">
         <v>234</v>
       </c>
@@ -32755,7 +32764,7 @@
       <c r="H15" s="110"/>
     </row>
     <row r="16" spans="1:1024" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A16" s="238" t="s">
+      <c r="A16" s="232" t="s">
         <v>154</v>
       </c>
       <c r="B16" s="111"/>
@@ -32768,7 +32777,7 @@
       <c r="AMJ16" s="5"/>
     </row>
     <row r="17" spans="1:1024" ht="127" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="239"/>
+      <c r="A17" s="233"/>
       <c r="B17" s="113" t="s">
         <v>237</v>
       </c>
@@ -32784,7 +32793,7 @@
       <c r="H17" s="115"/>
     </row>
     <row r="18" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="239"/>
+      <c r="A18" s="233"/>
       <c r="B18" s="113" t="s">
         <v>240</v>
       </c>
@@ -32798,7 +32807,7 @@
       <c r="H18" s="115"/>
     </row>
     <row r="19" spans="1:1024" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="240"/>
+      <c r="A19" s="234"/>
       <c r="B19" s="116" t="s">
         <v>242</v>
       </c>
@@ -32814,7 +32823,7 @@
       <c r="H19" s="118"/>
     </row>
     <row r="20" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="241" t="s">
+      <c r="A20" s="235" t="s">
         <v>245</v>
       </c>
       <c r="B20" s="119"/>
@@ -32899,7 +32908,7 @@
       <c r="AMJ21" s="5"/>
     </row>
     <row r="22" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="238" t="s">
+      <c r="A22" s="232" t="s">
         <v>72</v>
       </c>
       <c r="B22" s="111"/>
@@ -32912,7 +32921,7 @@
       <c r="AMJ22" s="5"/>
     </row>
     <row r="23" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="239"/>
+      <c r="A23" s="233"/>
       <c r="B23" s="113" t="s">
         <v>73</v>
       </c>
@@ -32928,7 +32937,7 @@
       <c r="H23" s="115"/>
     </row>
     <row r="24" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="239"/>
+      <c r="A24" s="233"/>
       <c r="B24" s="113" t="s">
         <v>76</v>
       </c>
@@ -32944,7 +32953,7 @@
       <c r="H24" s="115"/>
     </row>
     <row r="25" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="240"/>
+      <c r="A25" s="234"/>
       <c r="B25" s="116" t="s">
         <v>79</v>
       </c>
@@ -32960,7 +32969,7 @@
       <c r="H25" s="118"/>
     </row>
     <row r="26" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="241" t="s">
+      <c r="A26" s="235" t="s">
         <v>252</v>
       </c>
       <c r="B26" s="121"/>
@@ -33173,7 +33182,7 @@
       <c r="H35" s="110"/>
     </row>
     <row r="36" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="238" t="s">
+      <c r="A36" s="232" t="s">
         <v>532</v>
       </c>
       <c r="B36" s="123"/>
@@ -33186,7 +33195,7 @@
       <c r="AMJ36" s="5"/>
     </row>
     <row r="37" spans="1:1024" ht="90.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="240"/>
+      <c r="A37" s="234"/>
       <c r="B37" s="116" t="s">
         <v>5</v>
       </c>
@@ -33248,16 +33257,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="238" t="s">
         <v>520</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="227"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="239"/>
     </row>
     <row r="2" spans="1:1024" s="16" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
@@ -43130,16 +43139,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="238" t="s">
         <v>521</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="227"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="239"/>
     </row>
     <row r="2" spans="1:1024" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -43168,7 +43177,7 @@
       </c>
     </row>
     <row r="3" spans="1:1024" s="11" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="241" t="s">
+      <c r="A3" s="235" t="s">
         <v>536</v>
       </c>
       <c r="B3" s="18"/>
@@ -43518,16 +43527,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="238" t="s">
         <v>522</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="227"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="239"/>
     </row>
     <row r="2" spans="1:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -44001,12 +44010,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMJ22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E10" sqref="E10"/>
       <selection pane="topRight" activeCell="E10" sqref="E10"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -44024,16 +44033,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="238" t="s">
         <v>523</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="227"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="239"/>
     </row>
     <row r="2" spans="1:20" s="153" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
@@ -44062,7 +44071,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" s="157" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="241" t="s">
+      <c r="A3" s="235" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="154"/>
@@ -44158,7 +44167,7 @@
       <c r="H7" s="161"/>
     </row>
     <row r="8" spans="1:20" s="156" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="238" t="s">
+      <c r="A8" s="232" t="s">
         <v>303</v>
       </c>
       <c r="B8" s="162"/>
@@ -44170,7 +44179,7 @@
       <c r="H8" s="163"/>
     </row>
     <row r="9" spans="1:20" ht="18.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="239"/>
+      <c r="A9" s="233"/>
       <c r="B9" s="164" t="s">
         <v>30</v>
       </c>
@@ -44188,7 +44197,7 @@
       <c r="H9" s="165"/>
     </row>
     <row r="10" spans="1:20" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="239"/>
+      <c r="A10" s="233"/>
       <c r="B10" s="164" t="s">
         <v>393</v>
       </c>
@@ -44197,12 +44206,14 @@
         <v>394</v>
       </c>
       <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
+      <c r="F10" s="164" t="s">
+        <v>538</v>
+      </c>
       <c r="G10" s="186"/>
       <c r="H10" s="165"/>
     </row>
     <row r="11" spans="1:20" ht="40.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="239"/>
+      <c r="A11" s="233"/>
       <c r="B11" s="164"/>
       <c r="C11" s="164" t="s">
         <v>395</v>
@@ -44218,7 +44229,7 @@
       <c r="H11" s="165"/>
     </row>
     <row r="12" spans="1:20" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="239"/>
+      <c r="A12" s="233"/>
       <c r="B12" s="164"/>
       <c r="C12" s="164" t="s">
         <v>396</v>
@@ -44234,7 +44245,7 @@
       <c r="H12" s="165"/>
     </row>
     <row r="13" spans="1:20" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="239"/>
+      <c r="A13" s="233"/>
       <c r="B13" s="164"/>
       <c r="C13" s="164" t="s">
         <v>397</v>
@@ -44250,7 +44261,7 @@
       <c r="H13" s="165"/>
     </row>
     <row r="14" spans="1:20" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="239"/>
+      <c r="A14" s="233"/>
       <c r="B14" s="164"/>
       <c r="C14" s="164" t="s">
         <v>398</v>
@@ -44266,7 +44277,7 @@
       <c r="H14" s="165"/>
     </row>
     <row r="15" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="239"/>
+      <c r="A15" s="233"/>
       <c r="B15" s="164"/>
       <c r="C15" s="164" t="s">
         <v>400</v>
@@ -44282,7 +44293,7 @@
       <c r="H15" s="165"/>
     </row>
     <row r="16" spans="1:20" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="239"/>
+      <c r="A16" s="233"/>
       <c r="B16" s="164" t="s">
         <v>402</v>
       </c>
@@ -44291,12 +44302,14 @@
         <v>394</v>
       </c>
       <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
+      <c r="F16" s="164" t="s">
+        <v>539</v>
+      </c>
       <c r="G16" s="186"/>
       <c r="H16" s="165"/>
     </row>
     <row r="17" spans="1:19" ht="18.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="240"/>
+      <c r="A17" s="234"/>
       <c r="B17" s="166"/>
       <c r="C17" s="166" t="s">
         <v>400</v>
@@ -44312,7 +44325,7 @@
       <c r="H17" s="167"/>
     </row>
     <row r="18" spans="1:19" s="157" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="241" t="s">
+      <c r="A18" s="235" t="s">
         <v>404</v>
       </c>
       <c r="B18" s="168"/>
@@ -44344,7 +44357,9 @@
         <v>394</v>
       </c>
       <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
+      <c r="F19" s="158" t="s">
+        <v>540</v>
+      </c>
       <c r="G19" s="183" t="s">
         <v>43</v>
       </c>
@@ -44441,16 +44456,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="238" t="s">
         <v>524</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="227"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="239"/>
     </row>
     <row r="2" spans="1:1024" s="42" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
@@ -45495,7 +45510,7 @@
       <c r="AMJ2" s="41"/>
     </row>
     <row r="3" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="241" t="s">
+      <c r="A3" s="235" t="s">
         <v>413</v>
       </c>
       <c r="B3" s="172"/>
@@ -54795,7 +54810,7 @@
       <c r="AMJ12" s="25"/>
     </row>
     <row r="13" spans="1:1024" s="20" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="238" t="s">
+      <c r="A13" s="232" t="s">
         <v>428</v>
       </c>
       <c r="B13" s="175"/>
@@ -54808,7 +54823,7 @@
       <c r="AMJ13" s="21"/>
     </row>
     <row r="14" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="239"/>
+      <c r="A14" s="233"/>
       <c r="B14" s="69" t="s">
         <v>207</v>
       </c>
@@ -54824,7 +54839,7 @@
       <c r="H14" s="177"/>
     </row>
     <row r="15" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="239"/>
+      <c r="A15" s="233"/>
       <c r="B15" s="69" t="s">
         <v>268</v>
       </c>
@@ -54840,7 +54855,7 @@
       <c r="H15" s="177"/>
     </row>
     <row r="16" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="239"/>
+      <c r="A16" s="233"/>
       <c r="B16" s="69" t="s">
         <v>213</v>
       </c>
@@ -54856,7 +54871,7 @@
       <c r="H16" s="177"/>
     </row>
     <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="239"/>
+      <c r="A17" s="233"/>
       <c r="B17" s="69" t="s">
         <v>274</v>
       </c>
@@ -54872,7 +54887,7 @@
       <c r="H17" s="177"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="239"/>
+      <c r="A18" s="233"/>
       <c r="B18" s="69" t="s">
         <v>210</v>
       </c>
@@ -54888,7 +54903,7 @@
       <c r="H18" s="177"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="239"/>
+      <c r="A19" s="233"/>
       <c r="B19" s="69" t="s">
         <v>5</v>
       </c>
@@ -54904,7 +54919,7 @@
       <c r="H19" s="177"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="239"/>
+      <c r="A20" s="233"/>
       <c r="B20" s="69" t="s">
         <v>434</v>
       </c>
@@ -54920,7 +54935,7 @@
       <c r="H20" s="177"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="239"/>
+      <c r="A21" s="233"/>
       <c r="B21" s="69" t="s">
         <v>334</v>
       </c>
@@ -54936,7 +54951,7 @@
       <c r="H21" s="177"/>
     </row>
     <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="239"/>
+      <c r="A22" s="233"/>
       <c r="B22" s="69" t="s">
         <v>437</v>
       </c>
@@ -54952,7 +54967,7 @@
       <c r="H22" s="177"/>
     </row>
     <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="239"/>
+      <c r="A23" s="233"/>
       <c r="B23" s="69" t="s">
         <v>439</v>
       </c>
@@ -54968,7 +54983,7 @@
       <c r="H23" s="177"/>
     </row>
     <row r="24" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="240"/>
+      <c r="A24" s="234"/>
       <c r="B24" s="73" t="s">
         <v>441</v>
       </c>
@@ -54984,7 +54999,7 @@
       <c r="H24" s="178"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="241" t="s">
+      <c r="A25" s="235" t="s">
         <v>370</v>
       </c>
       <c r="B25" s="179"/>
@@ -55172,7 +55187,7 @@
       <c r="H36" s="181"/>
     </row>
     <row r="37" spans="1:1024" s="20" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="238" t="s">
+      <c r="A37" s="232" t="s">
         <v>290</v>
       </c>
       <c r="B37" s="175"/>
@@ -55185,7 +55200,7 @@
       <c r="AMJ37" s="21"/>
     </row>
     <row r="38" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="239"/>
+      <c r="A38" s="233"/>
       <c r="B38" s="69" t="s">
         <v>207</v>
       </c>
@@ -55201,7 +55216,7 @@
       <c r="H38" s="177"/>
     </row>
     <row r="39" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="239"/>
+      <c r="A39" s="233"/>
       <c r="B39" s="69" t="s">
         <v>268</v>
       </c>
@@ -55217,7 +55232,7 @@
       <c r="H39" s="177"/>
     </row>
     <row r="40" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="239"/>
+      <c r="A40" s="233"/>
       <c r="B40" s="69" t="s">
         <v>213</v>
       </c>
@@ -55233,7 +55248,7 @@
       <c r="H40" s="177"/>
     </row>
     <row r="41" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="239"/>
+      <c r="A41" s="233"/>
       <c r="B41" s="69" t="s">
         <v>274</v>
       </c>
@@ -55249,7 +55264,7 @@
       <c r="H41" s="177"/>
     </row>
     <row r="42" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="239"/>
+      <c r="A42" s="233"/>
       <c r="B42" s="69" t="s">
         <v>460</v>
       </c>
@@ -55265,7 +55280,7 @@
       <c r="H42" s="177"/>
     </row>
     <row r="43" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="239"/>
+      <c r="A43" s="233"/>
       <c r="B43" s="69" t="s">
         <v>370</v>
       </c>
@@ -55281,7 +55296,7 @@
       <c r="H43" s="177"/>
     </row>
     <row r="44" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="239"/>
+      <c r="A44" s="233"/>
       <c r="B44" s="69" t="s">
         <v>210</v>
       </c>
@@ -55297,7 +55312,7 @@
       <c r="H44" s="177"/>
     </row>
     <row r="45" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="239"/>
+      <c r="A45" s="233"/>
       <c r="B45" s="69" t="s">
         <v>424</v>
       </c>
@@ -55313,7 +55328,7 @@
       <c r="H45" s="177"/>
     </row>
     <row r="46" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="239"/>
+      <c r="A46" s="233"/>
       <c r="B46" s="69" t="s">
         <v>465</v>
       </c>
@@ -55329,7 +55344,7 @@
       <c r="H46" s="177"/>
     </row>
     <row r="47" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="239"/>
+      <c r="A47" s="233"/>
       <c r="B47" s="69" t="s">
         <v>5</v>
       </c>
@@ -55345,7 +55360,7 @@
       <c r="H47" s="177"/>
     </row>
     <row r="48" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="240"/>
+      <c r="A48" s="234"/>
       <c r="B48" s="73" t="s">
         <v>437</v>
       </c>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deslauj/CODE/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9726931A-D7FF-1846-A5EC-8E737B771F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160631FC-A58C-674F-8CB0-99B04631CC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14020" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2380" yWindow="460" windowWidth="25600" windowHeight="14020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Microservice" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="536">
   <si>
     <t>Concept</t>
   </si>
@@ -1012,9 +1012,6 @@
     <t>Unique identifier of the user who created this record</t>
   </si>
   <si>
-    <t>DATA_PROVIDER</t>
-  </si>
-  <si>
     <t>Legal entity who provides the data resource (owner). It is the affiliation of the author by default.</t>
   </si>
   <si>
@@ -1027,19 +1024,10 @@
     <t>Date of data resource registration.</t>
   </si>
   <si>
-    <t>PARENT</t>
-  </si>
-  <si>
-    <t>Refercing a parent record. All fields of parent are inherited by this record, fields filled here will override parent field values (?).</t>
-  </si>
-  <si>
     <t>DATA_NAME</t>
   </si>
   <si>
     <t>Name of the data resource. (The directory hierarchy in Nexus provides a fully qualified (FQ) name, which is unique.)</t>
-  </si>
-  <si>
-    <t>VERSION</t>
   </si>
   <si>
     <t>DATA_SIZE</t>
@@ -1051,19 +1039,10 @@
     <t>Estimated/exact size of data (e.g. file size, volume size, or message size); might be used to assess HW requirements (RAM, CPU) . In bytes (k - kilo, m - mega, t - tera, p - peta)</t>
   </si>
   <si>
-    <t>DATA_CONTACT</t>
-  </si>
-  <si>
-    <t>Data provider contact point, e.g. email address, to get access to these data (ask permissions/credentials to use these data). Optional if it corresponds to DATA_PROVIDER (email) details.</t>
-  </si>
-  <si>
     <t>DATA_DESC</t>
   </si>
   <si>
     <t>Human readable description of the data resource.</t>
-  </si>
-  <si>
-    <t>DATA_SPECS_DOC</t>
   </si>
   <si>
     <t>URL</t>
@@ -1543,13 +1522,7 @@
     <t>10:45:13 CET 21/03/2021</t>
   </si>
   <si>
-    <t>inherit legal entity, contact details from a parent record.</t>
-  </si>
-  <si>
     <t>CNSPiezoBolt#1 (in directory: factory 1 , machine1 , piezobolts)</t>
-  </si>
-  <si>
-    <t>FILE , DIRECTORY , DATABASE , STREAM</t>
   </si>
   <si>
     <t>SOURCE , SINK , BIDIRECTIONAL</t>
@@ -1559,9 +1532,6 @@
   </si>
   <si>
     <t>112m</t>
-  </si>
-  <si>
-    <t>info@company.com</t>
   </si>
   <si>
     <t xml:space="preserve">[ { application/json , text/plain , application/octet-stream , application/zip } ] </t>
@@ -1749,6 +1719,21 @@
   </si>
   <si>
     <t>Mapping Microservices to Data assets, as available in the DMA Tuple</t>
+  </si>
+  <si>
+    <t>PROVIDER</t>
+  </si>
+  <si>
+    <t>DATA_VERSION</t>
+  </si>
+  <si>
+    <t>DATA_DESC_URL</t>
+  </si>
+  <si>
+    <t>FILE , DATABASE , STREAM</t>
+  </si>
+  <si>
+    <t>DATA_AUTH</t>
   </si>
 </sst>
 </file>
@@ -4070,7 +4055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ104"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E10" sqref="E10"/>
       <selection pane="topRight" activeCell="E10" sqref="E10"/>
@@ -4093,7 +4078,7 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="238" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="B1" s="238"/>
       <c r="C1" s="238"/>
@@ -4157,7 +4142,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="183" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="H4" s="50"/>
     </row>
@@ -4208,7 +4193,7 @@
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="47" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="E7" s="49" t="s">
         <v>20</v>
@@ -4217,7 +4202,7 @@
         <v>21</v>
       </c>
       <c r="G7" s="183" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="H7" s="50"/>
     </row>
@@ -4251,10 +4236,10 @@
         <v>9</v>
       </c>
       <c r="E9" s="49" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G9" s="183" t="s">
         <v>12</v>
@@ -4323,7 +4308,7 @@
         <v>36</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F13" s="55" t="s">
         <v>37</v>
@@ -4340,13 +4325,13 @@
       </c>
       <c r="C14" s="56"/>
       <c r="D14" s="55" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F14" s="55" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="G14" s="188" t="s">
         <v>12</v>
@@ -4356,17 +4341,17 @@
     <row r="15" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="244"/>
       <c r="B15" s="55" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C15" s="56"/>
       <c r="D15" s="55" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="F15" s="55" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="G15" s="188" t="s">
         <v>43</v>
@@ -5392,17 +5377,17 @@
     <row r="16" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="244"/>
       <c r="B16" s="55" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="C16" s="56"/>
       <c r="D16" s="55" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="F16" s="55" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G16" s="188" t="s">
         <v>43</v>
@@ -6428,17 +6413,17 @@
     <row r="17" spans="1:1024" s="10" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="245"/>
       <c r="B17" s="221" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="C17" s="222"/>
       <c r="D17" s="221" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="E17" s="223" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F17" s="221" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="G17" s="224" t="s">
         <v>43</v>
@@ -20264,7 +20249,7 @@
         <v>136</v>
       </c>
       <c r="F49" s="51" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="G49" s="184" t="s">
         <v>43</v>
@@ -21554,7 +21539,7 @@
         <v>136</v>
       </c>
       <c r="F63" s="85" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="G63" s="187" t="s">
         <v>43</v>
@@ -32166,7 +32151,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="238" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="B1" s="238"/>
       <c r="C1" s="238"/>
@@ -32230,7 +32215,7 @@
         <v>192</v>
       </c>
       <c r="G4" s="183" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="H4" s="50"/>
     </row>
@@ -32341,7 +32326,7 @@
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="47" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="E10" s="49" t="s">
         <v>20</v>
@@ -32350,7 +32335,7 @@
         <v>201</v>
       </c>
       <c r="G10" s="183" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="H10" s="50"/>
     </row>
@@ -32409,17 +32394,17 @@
     <row r="14" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="247"/>
       <c r="B14" s="103" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C14" s="103"/>
       <c r="D14" s="103" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="E14" s="104" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="F14" s="103" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="G14" s="186" t="s">
         <v>12</v>
@@ -32466,7 +32451,7 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="238" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B1" s="238"/>
       <c r="C1" s="238"/>
@@ -32566,7 +32551,7 @@
         <v>209</v>
       </c>
       <c r="G4" s="197" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="H4" s="107"/>
     </row>
@@ -32609,7 +32594,7 @@
       </c>
       <c r="C7" s="106"/>
       <c r="D7" s="105" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="E7" s="106"/>
       <c r="F7" s="105" t="s">
@@ -32732,7 +32717,7 @@
     <row r="14" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="241"/>
       <c r="B14" s="105" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="C14" s="106"/>
       <c r="D14" s="105" t="s">
@@ -32740,7 +32725,7 @@
       </c>
       <c r="E14" s="106"/>
       <c r="F14" s="105" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G14" s="197" t="s">
         <v>43</v>
@@ -33183,7 +33168,7 @@
     </row>
     <row r="36" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="232" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="B36" s="123"/>
       <c r="C36" s="123"/>
@@ -33240,7 +33225,7 @@
       <selection activeCell="E10" sqref="E10"/>
       <selection pane="topRight" activeCell="E10" sqref="E10"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
-      <selection pane="bottomRight" activeCell="A34" sqref="A34:A36"/>
+      <selection pane="bottomRight" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -33258,7 +33243,7 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="238" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="B1" s="238"/>
       <c r="C1" s="238"/>
@@ -34312,7 +34297,7 @@
     </row>
     <row r="3" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="248" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="B3" s="121"/>
       <c r="C3" s="121"/>
@@ -34351,7 +34336,7 @@
         <v>313</v>
       </c>
       <c r="G4" s="197" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="H4" s="126"/>
     </row>
@@ -34371,14 +34356,14 @@
         <v>315</v>
       </c>
       <c r="G5" s="197" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="H5" s="126"/>
     </row>
     <row r="6" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="249"/>
       <c r="B6" s="105" t="s">
-        <v>316</v>
+        <v>531</v>
       </c>
       <c r="C6" s="106"/>
       <c r="D6" s="105" t="s">
@@ -34388,83 +34373,1099 @@
         <v>208</v>
       </c>
       <c r="F6" s="105" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G6" s="197" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="H6" s="126"/>
     </row>
-    <row r="7" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="249"/>
       <c r="B7" s="105" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C7" s="106"/>
       <c r="D7" s="105" t="s">
+        <v>318</v>
+      </c>
+      <c r="E7" s="106" t="s">
+        <v>485</v>
+      </c>
+      <c r="F7" s="105" t="s">
         <v>319</v>
       </c>
-      <c r="E7" s="106" t="s">
-        <v>492</v>
-      </c>
-      <c r="F7" s="105" t="s">
-        <v>320</v>
-      </c>
       <c r="G7" s="197" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="H7" s="126"/>
     </row>
-    <row r="8" spans="1:1024" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="250"/>
-      <c r="B8" s="108" t="s">
+    <row r="8" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="251" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="123"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="204"/>
+      <c r="H8" s="128"/>
+      <c r="AMJ8" s="5"/>
+    </row>
+    <row r="9" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="253"/>
+      <c r="B9" s="113" t="s">
+        <v>320</v>
+      </c>
+      <c r="C9" s="114"/>
+      <c r="D9" s="113" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" s="114" t="s">
+        <v>486</v>
+      </c>
+      <c r="F9" s="113" t="s">
         <v>321</v>
       </c>
-      <c r="C8" s="109"/>
-      <c r="D8" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="109" t="s">
-        <v>493</v>
-      </c>
-      <c r="F8" s="108" t="s">
-        <v>322</v>
-      </c>
-      <c r="G8" s="198" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="127"/>
+      <c r="G9" s="206" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="129"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="8"/>
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="8"/>
+      <c r="AU9" s="8"/>
+      <c r="AV9" s="8"/>
+      <c r="AW9" s="8"/>
+      <c r="AX9" s="8"/>
+      <c r="AY9" s="8"/>
+      <c r="AZ9" s="8"/>
+      <c r="BA9" s="8"/>
+      <c r="BB9" s="8"/>
+      <c r="BC9" s="8"/>
+      <c r="BD9" s="8"/>
+      <c r="BE9" s="8"/>
+      <c r="BF9" s="8"/>
+      <c r="BG9" s="8"/>
+      <c r="BH9" s="8"/>
+      <c r="BI9" s="8"/>
+      <c r="BJ9" s="8"/>
+      <c r="BK9" s="8"/>
+      <c r="BL9" s="8"/>
+      <c r="BM9" s="8"/>
+      <c r="BN9" s="8"/>
+      <c r="BO9" s="8"/>
+      <c r="BP9" s="8"/>
+      <c r="BQ9" s="8"/>
+      <c r="BR9" s="8"/>
+      <c r="BS9" s="8"/>
+      <c r="BT9" s="8"/>
+      <c r="BU9" s="8"/>
+      <c r="BV9" s="8"/>
+      <c r="BW9" s="8"/>
+      <c r="BX9" s="8"/>
+      <c r="BY9" s="8"/>
+      <c r="BZ9" s="8"/>
+      <c r="CA9" s="8"/>
+      <c r="CB9" s="8"/>
+      <c r="CC9" s="8"/>
+      <c r="CD9" s="8"/>
+      <c r="CE9" s="8"/>
+      <c r="CF9" s="8"/>
+      <c r="CG9" s="8"/>
+      <c r="CH9" s="8"/>
+      <c r="CI9" s="8"/>
+      <c r="CJ9" s="8"/>
+      <c r="CK9" s="8"/>
+      <c r="CL9" s="8"/>
+      <c r="CM9" s="8"/>
+      <c r="CN9" s="8"/>
+      <c r="CO9" s="8"/>
+      <c r="CP9" s="8"/>
+      <c r="CQ9" s="8"/>
+      <c r="CR9" s="8"/>
+      <c r="CS9" s="8"/>
+      <c r="CT9" s="8"/>
+      <c r="CU9" s="8"/>
+      <c r="CV9" s="8"/>
+      <c r="CW9" s="8"/>
+      <c r="CX9" s="8"/>
+      <c r="CY9" s="8"/>
+      <c r="CZ9" s="8"/>
+      <c r="DA9" s="8"/>
+      <c r="DB9" s="8"/>
+      <c r="DC9" s="8"/>
+      <c r="DD9" s="8"/>
+      <c r="DE9" s="8"/>
+      <c r="DF9" s="8"/>
+      <c r="DG9" s="8"/>
+      <c r="DH9" s="8"/>
+      <c r="DI9" s="8"/>
+      <c r="DJ9" s="8"/>
+      <c r="DK9" s="8"/>
+      <c r="DL9" s="8"/>
+      <c r="DM9" s="8"/>
+      <c r="DN9" s="8"/>
+      <c r="DO9" s="8"/>
+      <c r="DP9" s="8"/>
+      <c r="DQ9" s="8"/>
+      <c r="DR9" s="8"/>
+      <c r="DS9" s="8"/>
+      <c r="DT9" s="8"/>
+      <c r="DU9" s="8"/>
+      <c r="DV9" s="8"/>
+      <c r="DW9" s="8"/>
+      <c r="DX9" s="8"/>
+      <c r="DY9" s="8"/>
+      <c r="DZ9" s="8"/>
+      <c r="EA9" s="8"/>
+      <c r="EB9" s="8"/>
+      <c r="EC9" s="8"/>
+      <c r="ED9" s="8"/>
+      <c r="EE9" s="8"/>
+      <c r="EF9" s="8"/>
+      <c r="EG9" s="8"/>
+      <c r="EH9" s="8"/>
+      <c r="EI9" s="8"/>
+      <c r="EJ9" s="8"/>
+      <c r="EK9" s="8"/>
+      <c r="EL9" s="8"/>
+      <c r="EM9" s="8"/>
+      <c r="EN9" s="8"/>
+      <c r="EO9" s="8"/>
+      <c r="EP9" s="8"/>
+      <c r="EQ9" s="8"/>
+      <c r="ER9" s="8"/>
+      <c r="ES9" s="8"/>
+      <c r="ET9" s="8"/>
+      <c r="EU9" s="8"/>
+      <c r="EV9" s="8"/>
+      <c r="EW9" s="8"/>
+      <c r="EX9" s="8"/>
+      <c r="EY9" s="8"/>
+      <c r="EZ9" s="8"/>
+      <c r="FA9" s="8"/>
+      <c r="FB9" s="8"/>
+      <c r="FC9" s="8"/>
+      <c r="FD9" s="8"/>
+      <c r="FE9" s="8"/>
+      <c r="FF9" s="8"/>
+      <c r="FG9" s="8"/>
+      <c r="FH9" s="8"/>
+      <c r="FI9" s="8"/>
+      <c r="FJ9" s="8"/>
+      <c r="FK9" s="8"/>
+      <c r="FL9" s="8"/>
+      <c r="FM9" s="8"/>
+      <c r="FN9" s="8"/>
+      <c r="FO9" s="8"/>
+      <c r="FP9" s="8"/>
+      <c r="FQ9" s="8"/>
+      <c r="FR9" s="8"/>
+      <c r="FS9" s="8"/>
+      <c r="FT9" s="8"/>
+      <c r="FU9" s="8"/>
+      <c r="FV9" s="8"/>
+      <c r="FW9" s="8"/>
+      <c r="FX9" s="8"/>
+      <c r="FY9" s="8"/>
+      <c r="FZ9" s="8"/>
+      <c r="GA9" s="8"/>
+      <c r="GB9" s="8"/>
+      <c r="GC9" s="8"/>
+      <c r="GD9" s="8"/>
+      <c r="GE9" s="8"/>
+      <c r="GF9" s="8"/>
+      <c r="GG9" s="8"/>
+      <c r="GH9" s="8"/>
+      <c r="GI9" s="8"/>
+      <c r="GJ9" s="8"/>
+      <c r="GK9" s="8"/>
+      <c r="GL9" s="8"/>
+      <c r="GM9" s="8"/>
+      <c r="GN9" s="8"/>
+      <c r="GO9" s="8"/>
+      <c r="GP9" s="8"/>
+      <c r="GQ9" s="8"/>
+      <c r="GR9" s="8"/>
+      <c r="GS9" s="8"/>
+      <c r="GT9" s="8"/>
+      <c r="GU9" s="8"/>
+      <c r="GV9" s="8"/>
+      <c r="GW9" s="8"/>
+      <c r="GX9" s="8"/>
+      <c r="GY9" s="8"/>
+      <c r="GZ9" s="8"/>
+      <c r="HA9" s="8"/>
+      <c r="HB9" s="8"/>
+      <c r="HC9" s="8"/>
+      <c r="HD9" s="8"/>
+      <c r="HE9" s="8"/>
+      <c r="HF9" s="8"/>
+      <c r="HG9" s="8"/>
+      <c r="HH9" s="8"/>
+      <c r="HI9" s="8"/>
+      <c r="HJ9" s="8"/>
+      <c r="HK9" s="8"/>
+      <c r="HL9" s="8"/>
+      <c r="HM9" s="8"/>
+      <c r="HN9" s="8"/>
+      <c r="HO9" s="8"/>
+      <c r="HP9" s="8"/>
+      <c r="HQ9" s="8"/>
+      <c r="HR9" s="8"/>
+      <c r="HS9" s="8"/>
+      <c r="HT9" s="8"/>
+      <c r="HU9" s="8"/>
+      <c r="HV9" s="8"/>
+      <c r="HW9" s="8"/>
+      <c r="HX9" s="8"/>
+      <c r="HY9" s="8"/>
+      <c r="HZ9" s="8"/>
+      <c r="IA9" s="8"/>
+      <c r="IB9" s="8"/>
+      <c r="IC9" s="8"/>
+      <c r="ID9" s="8"/>
+      <c r="IE9" s="8"/>
+      <c r="IF9" s="8"/>
+      <c r="IG9" s="8"/>
+      <c r="IH9" s="8"/>
+      <c r="II9" s="8"/>
+      <c r="IJ9" s="8"/>
+      <c r="IK9" s="8"/>
+      <c r="IL9" s="8"/>
+      <c r="IM9" s="8"/>
+      <c r="IN9" s="8"/>
+      <c r="IO9" s="8"/>
+      <c r="IP9" s="8"/>
+      <c r="IQ9" s="8"/>
+      <c r="IR9" s="8"/>
+      <c r="IS9" s="8"/>
+      <c r="IT9" s="8"/>
+      <c r="IU9" s="8"/>
+      <c r="IV9" s="8"/>
+      <c r="IW9" s="8"/>
+      <c r="IX9" s="8"/>
+      <c r="IY9" s="8"/>
+      <c r="IZ9" s="8"/>
+      <c r="JA9" s="8"/>
+      <c r="JB9" s="8"/>
+      <c r="JC9" s="8"/>
+      <c r="JD9" s="8"/>
+      <c r="JE9" s="8"/>
+      <c r="JF9" s="8"/>
+      <c r="JG9" s="8"/>
+      <c r="JH9" s="8"/>
+      <c r="JI9" s="8"/>
+      <c r="JJ9" s="8"/>
+      <c r="JK9" s="8"/>
+      <c r="JL9" s="8"/>
+      <c r="JM9" s="8"/>
+      <c r="JN9" s="8"/>
+      <c r="JO9" s="8"/>
+      <c r="JP9" s="8"/>
+      <c r="JQ9" s="8"/>
+      <c r="JR9" s="8"/>
+      <c r="JS9" s="8"/>
+      <c r="JT9" s="8"/>
+      <c r="JU9" s="8"/>
+      <c r="JV9" s="8"/>
+      <c r="JW9" s="8"/>
+      <c r="JX9" s="8"/>
+      <c r="JY9" s="8"/>
+      <c r="JZ9" s="8"/>
+      <c r="KA9" s="8"/>
+      <c r="KB9" s="8"/>
+      <c r="KC9" s="8"/>
+      <c r="KD9" s="8"/>
+      <c r="KE9" s="8"/>
+      <c r="KF9" s="8"/>
+      <c r="KG9" s="8"/>
+      <c r="KH9" s="8"/>
+      <c r="KI9" s="8"/>
+      <c r="KJ9" s="8"/>
+      <c r="KK9" s="8"/>
+      <c r="KL9" s="8"/>
+      <c r="KM9" s="8"/>
+      <c r="KN9" s="8"/>
+      <c r="KO9" s="8"/>
+      <c r="KP9" s="8"/>
+      <c r="KQ9" s="8"/>
+      <c r="KR9" s="8"/>
+      <c r="KS9" s="8"/>
+      <c r="KT9" s="8"/>
+      <c r="KU9" s="8"/>
+      <c r="KV9" s="8"/>
+      <c r="KW9" s="8"/>
+      <c r="KX9" s="8"/>
+      <c r="KY9" s="8"/>
+      <c r="KZ9" s="8"/>
+      <c r="LA9" s="8"/>
+      <c r="LB9" s="8"/>
+      <c r="LC9" s="8"/>
+      <c r="LD9" s="8"/>
+      <c r="LE9" s="8"/>
+      <c r="LF9" s="8"/>
+      <c r="LG9" s="8"/>
+      <c r="LH9" s="8"/>
+      <c r="LI9" s="8"/>
+      <c r="LJ9" s="8"/>
+      <c r="LK9" s="8"/>
+      <c r="LL9" s="8"/>
+      <c r="LM9" s="8"/>
+      <c r="LN9" s="8"/>
+      <c r="LO9" s="8"/>
+      <c r="LP9" s="8"/>
+      <c r="LQ9" s="8"/>
+      <c r="LR9" s="8"/>
+      <c r="LS9" s="8"/>
+      <c r="LT9" s="8"/>
+      <c r="LU9" s="8"/>
+      <c r="LV9" s="8"/>
+      <c r="LW9" s="8"/>
+      <c r="LX9" s="8"/>
+      <c r="LY9" s="8"/>
+      <c r="LZ9" s="8"/>
+      <c r="MA9" s="8"/>
+      <c r="MB9" s="8"/>
+      <c r="MC9" s="8"/>
+      <c r="MD9" s="8"/>
+      <c r="ME9" s="8"/>
+      <c r="MF9" s="8"/>
+      <c r="MG9" s="8"/>
+      <c r="MH9" s="8"/>
+      <c r="MI9" s="8"/>
+      <c r="MJ9" s="8"/>
+      <c r="MK9" s="8"/>
+      <c r="ML9" s="8"/>
+      <c r="MM9" s="8"/>
+      <c r="MN9" s="8"/>
+      <c r="MO9" s="8"/>
+      <c r="MP9" s="8"/>
+      <c r="MQ9" s="8"/>
+      <c r="MR9" s="8"/>
+      <c r="MS9" s="8"/>
+      <c r="MT9" s="8"/>
+      <c r="MU9" s="8"/>
+      <c r="MV9" s="8"/>
+      <c r="MW9" s="8"/>
+      <c r="MX9" s="8"/>
+      <c r="MY9" s="8"/>
+      <c r="MZ9" s="8"/>
+      <c r="NA9" s="8"/>
+      <c r="NB9" s="8"/>
+      <c r="NC9" s="8"/>
+      <c r="ND9" s="8"/>
+      <c r="NE9" s="8"/>
+      <c r="NF9" s="8"/>
+      <c r="NG9" s="8"/>
+      <c r="NH9" s="8"/>
+      <c r="NI9" s="8"/>
+      <c r="NJ9" s="8"/>
+      <c r="NK9" s="8"/>
+      <c r="NL9" s="8"/>
+      <c r="NM9" s="8"/>
+      <c r="NN9" s="8"/>
+      <c r="NO9" s="8"/>
+      <c r="NP9" s="8"/>
+      <c r="NQ9" s="8"/>
+      <c r="NR9" s="8"/>
+      <c r="NS9" s="8"/>
+      <c r="NT9" s="8"/>
+      <c r="NU9" s="8"/>
+      <c r="NV9" s="8"/>
+      <c r="NW9" s="8"/>
+      <c r="NX9" s="8"/>
+      <c r="NY9" s="8"/>
+      <c r="NZ9" s="8"/>
+      <c r="OA9" s="8"/>
+      <c r="OB9" s="8"/>
+      <c r="OC9" s="8"/>
+      <c r="OD9" s="8"/>
+      <c r="OE9" s="8"/>
+      <c r="OF9" s="8"/>
+      <c r="OG9" s="8"/>
+      <c r="OH9" s="8"/>
+      <c r="OI9" s="8"/>
+      <c r="OJ9" s="8"/>
+      <c r="OK9" s="8"/>
+      <c r="OL9" s="8"/>
+      <c r="OM9" s="8"/>
+      <c r="ON9" s="8"/>
+      <c r="OO9" s="8"/>
+      <c r="OP9" s="8"/>
+      <c r="OQ9" s="8"/>
+      <c r="OR9" s="8"/>
+      <c r="OS9" s="8"/>
+      <c r="OT9" s="8"/>
+      <c r="OU9" s="8"/>
+      <c r="OV9" s="8"/>
+      <c r="OW9" s="8"/>
+      <c r="OX9" s="8"/>
+      <c r="OY9" s="8"/>
+      <c r="OZ9" s="8"/>
+      <c r="PA9" s="8"/>
+      <c r="PB9" s="8"/>
+      <c r="PC9" s="8"/>
+      <c r="PD9" s="8"/>
+      <c r="PE9" s="8"/>
+      <c r="PF9" s="8"/>
+      <c r="PG9" s="8"/>
+      <c r="PH9" s="8"/>
+      <c r="PI9" s="8"/>
+      <c r="PJ9" s="8"/>
+      <c r="PK9" s="8"/>
+      <c r="PL9" s="8"/>
+      <c r="PM9" s="8"/>
+      <c r="PN9" s="8"/>
+      <c r="PO9" s="8"/>
+      <c r="PP9" s="8"/>
+      <c r="PQ9" s="8"/>
+      <c r="PR9" s="8"/>
+      <c r="PS9" s="8"/>
+      <c r="PT9" s="8"/>
+      <c r="PU9" s="8"/>
+      <c r="PV9" s="8"/>
+      <c r="PW9" s="8"/>
+      <c r="PX9" s="8"/>
+      <c r="PY9" s="8"/>
+      <c r="PZ9" s="8"/>
+      <c r="QA9" s="8"/>
+      <c r="QB9" s="8"/>
+      <c r="QC9" s="8"/>
+      <c r="QD9" s="8"/>
+      <c r="QE9" s="8"/>
+      <c r="QF9" s="8"/>
+      <c r="QG9" s="8"/>
+      <c r="QH9" s="8"/>
+      <c r="QI9" s="8"/>
+      <c r="QJ9" s="8"/>
+      <c r="QK9" s="8"/>
+      <c r="QL9" s="8"/>
+      <c r="QM9" s="8"/>
+      <c r="QN9" s="8"/>
+      <c r="QO9" s="8"/>
+      <c r="QP9" s="8"/>
+      <c r="QQ9" s="8"/>
+      <c r="QR9" s="8"/>
+      <c r="QS9" s="8"/>
+      <c r="QT9" s="8"/>
+      <c r="QU9" s="8"/>
+      <c r="QV9" s="8"/>
+      <c r="QW9" s="8"/>
+      <c r="QX9" s="8"/>
+      <c r="QY9" s="8"/>
+      <c r="QZ9" s="8"/>
+      <c r="RA9" s="8"/>
+      <c r="RB9" s="8"/>
+      <c r="RC9" s="8"/>
+      <c r="RD9" s="8"/>
+      <c r="RE9" s="8"/>
+      <c r="RF9" s="8"/>
+      <c r="RG9" s="8"/>
+      <c r="RH9" s="8"/>
+      <c r="RI9" s="8"/>
+      <c r="RJ9" s="8"/>
+      <c r="RK9" s="8"/>
+      <c r="RL9" s="8"/>
+      <c r="RM9" s="8"/>
+      <c r="RN9" s="8"/>
+      <c r="RO9" s="8"/>
+      <c r="RP9" s="8"/>
+      <c r="RQ9" s="8"/>
+      <c r="RR9" s="8"/>
+      <c r="RS9" s="8"/>
+      <c r="RT9" s="8"/>
+      <c r="RU9" s="8"/>
+      <c r="RV9" s="8"/>
+      <c r="RW9" s="8"/>
+      <c r="RX9" s="8"/>
+      <c r="RY9" s="8"/>
+      <c r="RZ9" s="8"/>
+      <c r="SA9" s="8"/>
+      <c r="SB9" s="8"/>
+      <c r="SC9" s="8"/>
+      <c r="SD9" s="8"/>
+      <c r="SE9" s="8"/>
+      <c r="SF9" s="8"/>
+      <c r="SG9" s="8"/>
+      <c r="SH9" s="8"/>
+      <c r="SI9" s="8"/>
+      <c r="SJ9" s="8"/>
+      <c r="SK9" s="8"/>
+      <c r="SL9" s="8"/>
+      <c r="SM9" s="8"/>
+      <c r="SN9" s="8"/>
+      <c r="SO9" s="8"/>
+      <c r="SP9" s="8"/>
+      <c r="SQ9" s="8"/>
+      <c r="SR9" s="8"/>
+      <c r="SS9" s="8"/>
+      <c r="ST9" s="8"/>
+      <c r="SU9" s="8"/>
+      <c r="SV9" s="8"/>
+      <c r="SW9" s="8"/>
+      <c r="SX9" s="8"/>
+      <c r="SY9" s="8"/>
+      <c r="SZ9" s="8"/>
+      <c r="TA9" s="8"/>
+      <c r="TB9" s="8"/>
+      <c r="TC9" s="8"/>
+      <c r="TD9" s="8"/>
+      <c r="TE9" s="8"/>
+      <c r="TF9" s="8"/>
+      <c r="TG9" s="8"/>
+      <c r="TH9" s="8"/>
+      <c r="TI9" s="8"/>
+      <c r="TJ9" s="8"/>
+      <c r="TK9" s="8"/>
+      <c r="TL9" s="8"/>
+      <c r="TM9" s="8"/>
+      <c r="TN9" s="8"/>
+      <c r="TO9" s="8"/>
+      <c r="TP9" s="8"/>
+      <c r="TQ9" s="8"/>
+      <c r="TR9" s="8"/>
+      <c r="TS9" s="8"/>
+      <c r="TT9" s="8"/>
+      <c r="TU9" s="8"/>
+      <c r="TV9" s="8"/>
+      <c r="TW9" s="8"/>
+      <c r="TX9" s="8"/>
+      <c r="TY9" s="8"/>
+      <c r="TZ9" s="8"/>
+      <c r="UA9" s="8"/>
+      <c r="UB9" s="8"/>
+      <c r="UC9" s="8"/>
+      <c r="UD9" s="8"/>
+      <c r="UE9" s="8"/>
+      <c r="UF9" s="8"/>
+      <c r="UG9" s="8"/>
+      <c r="UH9" s="8"/>
+      <c r="UI9" s="8"/>
+      <c r="UJ9" s="8"/>
+      <c r="UK9" s="8"/>
+      <c r="UL9" s="8"/>
+      <c r="UM9" s="8"/>
+      <c r="UN9" s="8"/>
+      <c r="UO9" s="8"/>
+      <c r="UP9" s="8"/>
+      <c r="UQ9" s="8"/>
+      <c r="UR9" s="8"/>
+      <c r="US9" s="8"/>
+      <c r="UT9" s="8"/>
+      <c r="UU9" s="8"/>
+      <c r="UV9" s="8"/>
+      <c r="UW9" s="8"/>
+      <c r="UX9" s="8"/>
+      <c r="UY9" s="8"/>
+      <c r="UZ9" s="8"/>
+      <c r="VA9" s="8"/>
+      <c r="VB9" s="8"/>
+      <c r="VC9" s="8"/>
+      <c r="VD9" s="8"/>
+      <c r="VE9" s="8"/>
+      <c r="VF9" s="8"/>
+      <c r="VG9" s="8"/>
+      <c r="VH9" s="8"/>
+      <c r="VI9" s="8"/>
+      <c r="VJ9" s="8"/>
+      <c r="VK9" s="8"/>
+      <c r="VL9" s="8"/>
+      <c r="VM9" s="8"/>
+      <c r="VN9" s="8"/>
+      <c r="VO9" s="8"/>
+      <c r="VP9" s="8"/>
+      <c r="VQ9" s="8"/>
+      <c r="VR9" s="8"/>
+      <c r="VS9" s="8"/>
+      <c r="VT9" s="8"/>
+      <c r="VU9" s="8"/>
+      <c r="VV9" s="8"/>
+      <c r="VW9" s="8"/>
+      <c r="VX9" s="8"/>
+      <c r="VY9" s="8"/>
+      <c r="VZ9" s="8"/>
+      <c r="WA9" s="8"/>
+      <c r="WB9" s="8"/>
+      <c r="WC9" s="8"/>
+      <c r="WD9" s="8"/>
+      <c r="WE9" s="8"/>
+      <c r="WF9" s="8"/>
+      <c r="WG9" s="8"/>
+      <c r="WH9" s="8"/>
+      <c r="WI9" s="8"/>
+      <c r="WJ9" s="8"/>
+      <c r="WK9" s="8"/>
+      <c r="WL9" s="8"/>
+      <c r="WM9" s="8"/>
+      <c r="WN9" s="8"/>
+      <c r="WO9" s="8"/>
+      <c r="WP9" s="8"/>
+      <c r="WQ9" s="8"/>
+      <c r="WR9" s="8"/>
+      <c r="WS9" s="8"/>
+      <c r="WT9" s="8"/>
+      <c r="WU9" s="8"/>
+      <c r="WV9" s="8"/>
+      <c r="WW9" s="8"/>
+      <c r="WX9" s="8"/>
+      <c r="WY9" s="8"/>
+      <c r="WZ9" s="8"/>
+      <c r="XA9" s="8"/>
+      <c r="XB9" s="8"/>
+      <c r="XC9" s="8"/>
+      <c r="XD9" s="8"/>
+      <c r="XE9" s="8"/>
+      <c r="XF9" s="8"/>
+      <c r="XG9" s="8"/>
+      <c r="XH9" s="8"/>
+      <c r="XI9" s="8"/>
+      <c r="XJ9" s="8"/>
+      <c r="XK9" s="8"/>
+      <c r="XL9" s="8"/>
+      <c r="XM9" s="8"/>
+      <c r="XN9" s="8"/>
+      <c r="XO9" s="8"/>
+      <c r="XP9" s="8"/>
+      <c r="XQ9" s="8"/>
+      <c r="XR9" s="8"/>
+      <c r="XS9" s="8"/>
+      <c r="XT9" s="8"/>
+      <c r="XU9" s="8"/>
+      <c r="XV9" s="8"/>
+      <c r="XW9" s="8"/>
+      <c r="XX9" s="8"/>
+      <c r="XY9" s="8"/>
+      <c r="XZ9" s="8"/>
+      <c r="YA9" s="8"/>
+      <c r="YB9" s="8"/>
+      <c r="YC9" s="8"/>
+      <c r="YD9" s="8"/>
+      <c r="YE9" s="8"/>
+      <c r="YF9" s="8"/>
+      <c r="YG9" s="8"/>
+      <c r="YH9" s="8"/>
+      <c r="YI9" s="8"/>
+      <c r="YJ9" s="8"/>
+      <c r="YK9" s="8"/>
+      <c r="YL9" s="8"/>
+      <c r="YM9" s="8"/>
+      <c r="YN9" s="8"/>
+      <c r="YO9" s="8"/>
+      <c r="YP9" s="8"/>
+      <c r="YQ9" s="8"/>
+      <c r="YR9" s="8"/>
+      <c r="YS9" s="8"/>
+      <c r="YT9" s="8"/>
+      <c r="YU9" s="8"/>
+      <c r="YV9" s="8"/>
+      <c r="YW9" s="8"/>
+      <c r="YX9" s="8"/>
+      <c r="YY9" s="8"/>
+      <c r="YZ9" s="8"/>
+      <c r="ZA9" s="8"/>
+      <c r="ZB9" s="8"/>
+      <c r="ZC9" s="8"/>
+      <c r="ZD9" s="8"/>
+      <c r="ZE9" s="8"/>
+      <c r="ZF9" s="8"/>
+      <c r="ZG9" s="8"/>
+      <c r="ZH9" s="8"/>
+      <c r="ZI9" s="8"/>
+      <c r="ZJ9" s="8"/>
+      <c r="ZK9" s="8"/>
+      <c r="ZL9" s="8"/>
+      <c r="ZM9" s="8"/>
+      <c r="ZN9" s="8"/>
+      <c r="ZO9" s="8"/>
+      <c r="ZP9" s="8"/>
+      <c r="ZQ9" s="8"/>
+      <c r="ZR9" s="8"/>
+      <c r="ZS9" s="8"/>
+      <c r="ZT9" s="8"/>
+      <c r="ZU9" s="8"/>
+      <c r="ZV9" s="8"/>
+      <c r="ZW9" s="8"/>
+      <c r="ZX9" s="8"/>
+      <c r="ZY9" s="8"/>
+      <c r="ZZ9" s="8"/>
+      <c r="AAA9" s="8"/>
+      <c r="AAB9" s="8"/>
+      <c r="AAC9" s="8"/>
+      <c r="AAD9" s="8"/>
+      <c r="AAE9" s="8"/>
+      <c r="AAF9" s="8"/>
+      <c r="AAG9" s="8"/>
+      <c r="AAH9" s="8"/>
+      <c r="AAI9" s="8"/>
+      <c r="AAJ9" s="8"/>
+      <c r="AAK9" s="8"/>
+      <c r="AAL9" s="8"/>
+      <c r="AAM9" s="8"/>
+      <c r="AAN9" s="8"/>
+      <c r="AAO9" s="8"/>
+      <c r="AAP9" s="8"/>
+      <c r="AAQ9" s="8"/>
+      <c r="AAR9" s="8"/>
+      <c r="AAS9" s="8"/>
+      <c r="AAT9" s="8"/>
+      <c r="AAU9" s="8"/>
+      <c r="AAV9" s="8"/>
+      <c r="AAW9" s="8"/>
+      <c r="AAX9" s="8"/>
+      <c r="AAY9" s="8"/>
+      <c r="AAZ9" s="8"/>
+      <c r="ABA9" s="8"/>
+      <c r="ABB9" s="8"/>
+      <c r="ABC9" s="8"/>
+      <c r="ABD9" s="8"/>
+      <c r="ABE9" s="8"/>
+      <c r="ABF9" s="8"/>
+      <c r="ABG9" s="8"/>
+      <c r="ABH9" s="8"/>
+      <c r="ABI9" s="8"/>
+      <c r="ABJ9" s="8"/>
+      <c r="ABK9" s="8"/>
+      <c r="ABL9" s="8"/>
+      <c r="ABM9" s="8"/>
+      <c r="ABN9" s="8"/>
+      <c r="ABO9" s="8"/>
+      <c r="ABP9" s="8"/>
+      <c r="ABQ9" s="8"/>
+      <c r="ABR9" s="8"/>
+      <c r="ABS9" s="8"/>
+      <c r="ABT9" s="8"/>
+      <c r="ABU9" s="8"/>
+      <c r="ABV9" s="8"/>
+      <c r="ABW9" s="8"/>
+      <c r="ABX9" s="8"/>
+      <c r="ABY9" s="8"/>
+      <c r="ABZ9" s="8"/>
+      <c r="ACA9" s="8"/>
+      <c r="ACB9" s="8"/>
+      <c r="ACC9" s="8"/>
+      <c r="ACD9" s="8"/>
+      <c r="ACE9" s="8"/>
+      <c r="ACF9" s="8"/>
+      <c r="ACG9" s="8"/>
+      <c r="ACH9" s="8"/>
+      <c r="ACI9" s="8"/>
+      <c r="ACJ9" s="8"/>
+      <c r="ACK9" s="8"/>
+      <c r="ACL9" s="8"/>
+      <c r="ACM9" s="8"/>
+      <c r="ACN9" s="8"/>
+      <c r="ACO9" s="8"/>
+      <c r="ACP9" s="8"/>
+      <c r="ACQ9" s="8"/>
+      <c r="ACR9" s="8"/>
+      <c r="ACS9" s="8"/>
+      <c r="ACT9" s="8"/>
+      <c r="ACU9" s="8"/>
+      <c r="ACV9" s="8"/>
+      <c r="ACW9" s="8"/>
+      <c r="ACX9" s="8"/>
+      <c r="ACY9" s="8"/>
+      <c r="ACZ9" s="8"/>
+      <c r="ADA9" s="8"/>
+      <c r="ADB9" s="8"/>
+      <c r="ADC9" s="8"/>
+      <c r="ADD9" s="8"/>
+      <c r="ADE9" s="8"/>
+      <c r="ADF9" s="8"/>
+      <c r="ADG9" s="8"/>
+      <c r="ADH9" s="8"/>
+      <c r="ADI9" s="8"/>
+      <c r="ADJ9" s="8"/>
+      <c r="ADK9" s="8"/>
+      <c r="ADL9" s="8"/>
+      <c r="ADM9" s="8"/>
+      <c r="ADN9" s="8"/>
+      <c r="ADO9" s="8"/>
+      <c r="ADP9" s="8"/>
+      <c r="ADQ9" s="8"/>
+      <c r="ADR9" s="8"/>
+      <c r="ADS9" s="8"/>
+      <c r="ADT9" s="8"/>
+      <c r="ADU9" s="8"/>
+      <c r="ADV9" s="8"/>
+      <c r="ADW9" s="8"/>
+      <c r="ADX9" s="8"/>
+      <c r="ADY9" s="8"/>
+      <c r="ADZ9" s="8"/>
+      <c r="AEA9" s="8"/>
+      <c r="AEB9" s="8"/>
+      <c r="AEC9" s="8"/>
+      <c r="AED9" s="8"/>
+      <c r="AEE9" s="8"/>
+      <c r="AEF9" s="8"/>
+      <c r="AEG9" s="8"/>
+      <c r="AEH9" s="8"/>
+      <c r="AEI9" s="8"/>
+      <c r="AEJ9" s="8"/>
+      <c r="AEK9" s="8"/>
+      <c r="AEL9" s="8"/>
+      <c r="AEM9" s="8"/>
+      <c r="AEN9" s="8"/>
+      <c r="AEO9" s="8"/>
+      <c r="AEP9" s="8"/>
+      <c r="AEQ9" s="8"/>
+      <c r="AER9" s="8"/>
+      <c r="AES9" s="8"/>
+      <c r="AET9" s="8"/>
+      <c r="AEU9" s="8"/>
+      <c r="AEV9" s="8"/>
+      <c r="AEW9" s="8"/>
+      <c r="AEX9" s="8"/>
+      <c r="AEY9" s="8"/>
+      <c r="AEZ9" s="8"/>
+      <c r="AFA9" s="8"/>
+      <c r="AFB9" s="8"/>
+      <c r="AFC9" s="8"/>
+      <c r="AFD9" s="8"/>
+      <c r="AFE9" s="8"/>
+      <c r="AFF9" s="8"/>
+      <c r="AFG9" s="8"/>
+      <c r="AFH9" s="8"/>
+      <c r="AFI9" s="8"/>
+      <c r="AFJ9" s="8"/>
+      <c r="AFK9" s="8"/>
+      <c r="AFL9" s="8"/>
+      <c r="AFM9" s="8"/>
+      <c r="AFN9" s="8"/>
+      <c r="AFO9" s="8"/>
+      <c r="AFP9" s="8"/>
+      <c r="AFQ9" s="8"/>
+      <c r="AFR9" s="8"/>
+      <c r="AFS9" s="8"/>
+      <c r="AFT9" s="8"/>
+      <c r="AFU9" s="8"/>
+      <c r="AFV9" s="8"/>
+      <c r="AFW9" s="8"/>
+      <c r="AFX9" s="8"/>
+      <c r="AFY9" s="8"/>
+      <c r="AFZ9" s="8"/>
+      <c r="AGA9" s="8"/>
+      <c r="AGB9" s="8"/>
+      <c r="AGC9" s="8"/>
+      <c r="AGD9" s="8"/>
+      <c r="AGE9" s="8"/>
+      <c r="AGF9" s="8"/>
+      <c r="AGG9" s="8"/>
+      <c r="AGH9" s="8"/>
+      <c r="AGI9" s="8"/>
+      <c r="AGJ9" s="8"/>
+      <c r="AGK9" s="8"/>
+      <c r="AGL9" s="8"/>
+      <c r="AGM9" s="8"/>
+      <c r="AGN9" s="8"/>
+      <c r="AGO9" s="8"/>
+      <c r="AGP9" s="8"/>
+      <c r="AGQ9" s="8"/>
+      <c r="AGR9" s="8"/>
+      <c r="AGS9" s="8"/>
+      <c r="AGT9" s="8"/>
+      <c r="AGU9" s="8"/>
+      <c r="AGV9" s="8"/>
+      <c r="AGW9" s="8"/>
+      <c r="AGX9" s="8"/>
+      <c r="AGY9" s="8"/>
+      <c r="AGZ9" s="8"/>
+      <c r="AHA9" s="8"/>
+      <c r="AHB9" s="8"/>
+      <c r="AHC9" s="8"/>
+      <c r="AHD9" s="8"/>
+      <c r="AHE9" s="8"/>
+      <c r="AHF9" s="8"/>
+      <c r="AHG9" s="8"/>
+      <c r="AHH9" s="8"/>
+      <c r="AHI9" s="8"/>
+      <c r="AHJ9" s="8"/>
+      <c r="AHK9" s="8"/>
+      <c r="AHL9" s="8"/>
+      <c r="AHM9" s="8"/>
+      <c r="AHN9" s="8"/>
+      <c r="AHO9" s="8"/>
+      <c r="AHP9" s="8"/>
+      <c r="AHQ9" s="8"/>
+      <c r="AHR9" s="8"/>
+      <c r="AHS9" s="8"/>
+      <c r="AHT9" s="8"/>
+      <c r="AHU9" s="8"/>
+      <c r="AHV9" s="8"/>
+      <c r="AHW9" s="8"/>
+      <c r="AHX9" s="8"/>
+      <c r="AHY9" s="8"/>
+      <c r="AHZ9" s="8"/>
+      <c r="AIA9" s="8"/>
+      <c r="AIB9" s="8"/>
+      <c r="AIC9" s="8"/>
+      <c r="AID9" s="8"/>
+      <c r="AIE9" s="8"/>
+      <c r="AIF9" s="8"/>
+      <c r="AIG9" s="8"/>
+      <c r="AIH9" s="8"/>
+      <c r="AII9" s="8"/>
+      <c r="AIJ9" s="8"/>
+      <c r="AIK9" s="8"/>
+      <c r="AIL9" s="8"/>
+      <c r="AIM9" s="8"/>
+      <c r="AIN9" s="8"/>
+      <c r="AIO9" s="8"/>
+      <c r="AIP9" s="8"/>
+      <c r="AIQ9" s="8"/>
+      <c r="AIR9" s="8"/>
+      <c r="AIS9" s="8"/>
+      <c r="AIT9" s="8"/>
+      <c r="AIU9" s="8"/>
+      <c r="AIV9" s="8"/>
+      <c r="AIW9" s="8"/>
+      <c r="AIX9" s="8"/>
+      <c r="AIY9" s="8"/>
+      <c r="AIZ9" s="8"/>
+      <c r="AJA9" s="8"/>
+      <c r="AJB9" s="8"/>
+      <c r="AJC9" s="8"/>
+      <c r="AJD9" s="8"/>
+      <c r="AJE9" s="8"/>
+      <c r="AJF9" s="8"/>
+      <c r="AJG9" s="8"/>
+      <c r="AJH9" s="8"/>
+      <c r="AJI9" s="8"/>
+      <c r="AJJ9" s="8"/>
+      <c r="AJK9" s="8"/>
+      <c r="AJL9" s="8"/>
+      <c r="AJM9" s="8"/>
+      <c r="AJN9" s="8"/>
+      <c r="AJO9" s="8"/>
+      <c r="AJP9" s="8"/>
+      <c r="AJQ9" s="8"/>
+      <c r="AJR9" s="8"/>
+      <c r="AJS9" s="8"/>
+      <c r="AJT9" s="8"/>
+      <c r="AJU9" s="8"/>
+      <c r="AJV9" s="8"/>
+      <c r="AJW9" s="8"/>
+      <c r="AJX9" s="8"/>
+      <c r="AJY9" s="8"/>
+      <c r="AJZ9" s="8"/>
+      <c r="AKA9" s="8"/>
+      <c r="AKB9" s="8"/>
+      <c r="AKC9" s="8"/>
+      <c r="AKD9" s="8"/>
+      <c r="AKE9" s="8"/>
+      <c r="AKF9" s="8"/>
+      <c r="AKG9" s="8"/>
+      <c r="AKH9" s="8"/>
+      <c r="AKI9" s="8"/>
+      <c r="AKJ9" s="8"/>
+      <c r="AKK9" s="8"/>
+      <c r="AKL9" s="8"/>
+      <c r="AKM9" s="8"/>
+      <c r="AKN9" s="8"/>
+      <c r="AKO9" s="8"/>
+      <c r="AKP9" s="8"/>
+      <c r="AKQ9" s="8"/>
+      <c r="AKR9" s="8"/>
+      <c r="AKS9" s="8"/>
+      <c r="AKT9" s="8"/>
+      <c r="AKU9" s="8"/>
+      <c r="AKV9" s="8"/>
+      <c r="AKW9" s="8"/>
+      <c r="AKX9" s="8"/>
+      <c r="AKY9" s="8"/>
+      <c r="AKZ9" s="8"/>
+      <c r="ALA9" s="8"/>
+      <c r="ALB9" s="8"/>
+      <c r="ALC9" s="8"/>
+      <c r="ALD9" s="8"/>
+      <c r="ALE9" s="8"/>
+      <c r="ALF9" s="8"/>
+      <c r="ALG9" s="8"/>
+      <c r="ALH9" s="8"/>
+      <c r="ALI9" s="8"/>
+      <c r="ALJ9" s="8"/>
+      <c r="ALK9" s="8"/>
+      <c r="ALL9" s="8"/>
+      <c r="ALM9" s="8"/>
+      <c r="ALN9" s="8"/>
+      <c r="ALO9" s="8"/>
+      <c r="ALP9" s="8"/>
+      <c r="ALQ9" s="8"/>
+      <c r="ALR9" s="8"/>
+      <c r="ALS9" s="8"/>
+      <c r="ALT9" s="8"/>
+      <c r="ALU9" s="8"/>
+      <c r="ALV9" s="8"/>
+      <c r="ALW9" s="8"/>
+      <c r="ALX9" s="8"/>
+      <c r="ALY9" s="8"/>
+      <c r="ALZ9" s="8"/>
+      <c r="AMA9" s="8"/>
+      <c r="AMB9" s="8"/>
+      <c r="AMC9" s="8"/>
+      <c r="AMD9" s="8"/>
+      <c r="AME9" s="8"/>
+      <c r="AMF9" s="8"/>
+      <c r="AMG9" s="8"/>
+      <c r="AMH9" s="8"/>
+      <c r="AMI9" s="8"/>
+      <c r="AMJ9" s="8"/>
     </row>
-    <row r="9" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="251" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="123"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="204"/>
-      <c r="H9" s="128"/>
-      <c r="AMJ9" s="5"/>
-    </row>
-    <row r="10" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="253"/>
       <c r="B10" s="113" t="s">
-        <v>323</v>
+        <v>532</v>
       </c>
       <c r="C10" s="114"/>
       <c r="D10" s="113" t="s">
         <v>211</v>
       </c>
       <c r="E10" s="114" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F10" s="113" t="s">
-        <v>324</v>
-      </c>
-      <c r="G10" s="206" t="s">
-        <v>12</v>
+        <v>503</v>
+      </c>
+      <c r="G10" s="200" t="s">
+        <v>43</v>
       </c>
       <c r="H10" s="129"/>
       <c r="I10" s="8"/>
@@ -35484,7 +36485,7 @@
       <c r="AMI10" s="8"/>
       <c r="AMJ10" s="8"/>
     </row>
-    <row r="11" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="253"/>
       <c r="B11" s="113" t="s">
         <v>325</v>
@@ -35494,10 +36495,10 @@
         <v>211</v>
       </c>
       <c r="E11" s="114" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F11" s="113" t="s">
-        <v>513</v>
+        <v>326</v>
       </c>
       <c r="G11" s="200" t="s">
         <v>43</v>
@@ -36520,19 +37521,19 @@
       <c r="AMI11" s="8"/>
       <c r="AMJ11" s="8"/>
     </row>
-    <row r="12" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1024" s="10" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="253"/>
       <c r="B12" s="113" t="s">
-        <v>326</v>
+        <v>533</v>
       </c>
       <c r="C12" s="114"/>
       <c r="D12" s="113" t="s">
         <v>327</v>
       </c>
-      <c r="E12" s="114" t="s">
-        <v>498</v>
-      </c>
-      <c r="F12" s="113" t="s">
+      <c r="E12" s="117" t="s">
+        <v>500</v>
+      </c>
+      <c r="F12" s="116" t="s">
         <v>328</v>
       </c>
       <c r="G12" s="200" t="s">
@@ -37556,23 +38557,23 @@
       <c r="AMI12" s="8"/>
       <c r="AMJ12" s="8"/>
     </row>
-    <row r="13" spans="1:1024" s="10" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1024" s="10" customFormat="1" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="253"/>
       <c r="B13" s="113" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C13" s="114"/>
       <c r="D13" s="113" t="s">
-        <v>211</v>
+        <v>323</v>
       </c>
       <c r="E13" s="114" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="F13" s="113" t="s">
-        <v>330</v>
-      </c>
-      <c r="G13" s="206" t="s">
-        <v>12</v>
+        <v>324</v>
+      </c>
+      <c r="G13" s="200" t="s">
+        <v>43</v>
       </c>
       <c r="H13" s="129"/>
       <c r="I13" s="8"/>
@@ -38592,1059 +39593,46 @@
       <c r="AMI13" s="8"/>
       <c r="AMJ13" s="8"/>
     </row>
-    <row r="14" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="253"/>
-      <c r="B14" s="113" t="s">
-        <v>331</v>
-      </c>
-      <c r="C14" s="114"/>
-      <c r="D14" s="113" t="s">
-        <v>211</v>
-      </c>
-      <c r="E14" s="114" t="s">
-        <v>509</v>
-      </c>
-      <c r="F14" s="113" t="s">
-        <v>332</v>
-      </c>
-      <c r="G14" s="200" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="129"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="8"/>
-      <c r="AG14" s="8"/>
-      <c r="AH14" s="8"/>
-      <c r="AI14" s="8"/>
-      <c r="AJ14" s="8"/>
-      <c r="AK14" s="8"/>
-      <c r="AL14" s="8"/>
-      <c r="AM14" s="8"/>
-      <c r="AN14" s="8"/>
-      <c r="AO14" s="8"/>
-      <c r="AP14" s="8"/>
-      <c r="AQ14" s="8"/>
-      <c r="AR14" s="8"/>
-      <c r="AS14" s="8"/>
-      <c r="AT14" s="8"/>
-      <c r="AU14" s="8"/>
-      <c r="AV14" s="8"/>
-      <c r="AW14" s="8"/>
-      <c r="AX14" s="8"/>
-      <c r="AY14" s="8"/>
-      <c r="AZ14" s="8"/>
-      <c r="BA14" s="8"/>
-      <c r="BB14" s="8"/>
-      <c r="BC14" s="8"/>
-      <c r="BD14" s="8"/>
-      <c r="BE14" s="8"/>
-      <c r="BF14" s="8"/>
-      <c r="BG14" s="8"/>
-      <c r="BH14" s="8"/>
-      <c r="BI14" s="8"/>
-      <c r="BJ14" s="8"/>
-      <c r="BK14" s="8"/>
-      <c r="BL14" s="8"/>
-      <c r="BM14" s="8"/>
-      <c r="BN14" s="8"/>
-      <c r="BO14" s="8"/>
-      <c r="BP14" s="8"/>
-      <c r="BQ14" s="8"/>
-      <c r="BR14" s="8"/>
-      <c r="BS14" s="8"/>
-      <c r="BT14" s="8"/>
-      <c r="BU14" s="8"/>
-      <c r="BV14" s="8"/>
-      <c r="BW14" s="8"/>
-      <c r="BX14" s="8"/>
-      <c r="BY14" s="8"/>
-      <c r="BZ14" s="8"/>
-      <c r="CA14" s="8"/>
-      <c r="CB14" s="8"/>
-      <c r="CC14" s="8"/>
-      <c r="CD14" s="8"/>
-      <c r="CE14" s="8"/>
-      <c r="CF14" s="8"/>
-      <c r="CG14" s="8"/>
-      <c r="CH14" s="8"/>
-      <c r="CI14" s="8"/>
-      <c r="CJ14" s="8"/>
-      <c r="CK14" s="8"/>
-      <c r="CL14" s="8"/>
-      <c r="CM14" s="8"/>
-      <c r="CN14" s="8"/>
-      <c r="CO14" s="8"/>
-      <c r="CP14" s="8"/>
-      <c r="CQ14" s="8"/>
-      <c r="CR14" s="8"/>
-      <c r="CS14" s="8"/>
-      <c r="CT14" s="8"/>
-      <c r="CU14" s="8"/>
-      <c r="CV14" s="8"/>
-      <c r="CW14" s="8"/>
-      <c r="CX14" s="8"/>
-      <c r="CY14" s="8"/>
-      <c r="CZ14" s="8"/>
-      <c r="DA14" s="8"/>
-      <c r="DB14" s="8"/>
-      <c r="DC14" s="8"/>
-      <c r="DD14" s="8"/>
-      <c r="DE14" s="8"/>
-      <c r="DF14" s="8"/>
-      <c r="DG14" s="8"/>
-      <c r="DH14" s="8"/>
-      <c r="DI14" s="8"/>
-      <c r="DJ14" s="8"/>
-      <c r="DK14" s="8"/>
-      <c r="DL14" s="8"/>
-      <c r="DM14" s="8"/>
-      <c r="DN14" s="8"/>
-      <c r="DO14" s="8"/>
-      <c r="DP14" s="8"/>
-      <c r="DQ14" s="8"/>
-      <c r="DR14" s="8"/>
-      <c r="DS14" s="8"/>
-      <c r="DT14" s="8"/>
-      <c r="DU14" s="8"/>
-      <c r="DV14" s="8"/>
-      <c r="DW14" s="8"/>
-      <c r="DX14" s="8"/>
-      <c r="DY14" s="8"/>
-      <c r="DZ14" s="8"/>
-      <c r="EA14" s="8"/>
-      <c r="EB14" s="8"/>
-      <c r="EC14" s="8"/>
-      <c r="ED14" s="8"/>
-      <c r="EE14" s="8"/>
-      <c r="EF14" s="8"/>
-      <c r="EG14" s="8"/>
-      <c r="EH14" s="8"/>
-      <c r="EI14" s="8"/>
-      <c r="EJ14" s="8"/>
-      <c r="EK14" s="8"/>
-      <c r="EL14" s="8"/>
-      <c r="EM14" s="8"/>
-      <c r="EN14" s="8"/>
-      <c r="EO14" s="8"/>
-      <c r="EP14" s="8"/>
-      <c r="EQ14" s="8"/>
-      <c r="ER14" s="8"/>
-      <c r="ES14" s="8"/>
-      <c r="ET14" s="8"/>
-      <c r="EU14" s="8"/>
-      <c r="EV14" s="8"/>
-      <c r="EW14" s="8"/>
-      <c r="EX14" s="8"/>
-      <c r="EY14" s="8"/>
-      <c r="EZ14" s="8"/>
-      <c r="FA14" s="8"/>
-      <c r="FB14" s="8"/>
-      <c r="FC14" s="8"/>
-      <c r="FD14" s="8"/>
-      <c r="FE14" s="8"/>
-      <c r="FF14" s="8"/>
-      <c r="FG14" s="8"/>
-      <c r="FH14" s="8"/>
-      <c r="FI14" s="8"/>
-      <c r="FJ14" s="8"/>
-      <c r="FK14" s="8"/>
-      <c r="FL14" s="8"/>
-      <c r="FM14" s="8"/>
-      <c r="FN14" s="8"/>
-      <c r="FO14" s="8"/>
-      <c r="FP14" s="8"/>
-      <c r="FQ14" s="8"/>
-      <c r="FR14" s="8"/>
-      <c r="FS14" s="8"/>
-      <c r="FT14" s="8"/>
-      <c r="FU14" s="8"/>
-      <c r="FV14" s="8"/>
-      <c r="FW14" s="8"/>
-      <c r="FX14" s="8"/>
-      <c r="FY14" s="8"/>
-      <c r="FZ14" s="8"/>
-      <c r="GA14" s="8"/>
-      <c r="GB14" s="8"/>
-      <c r="GC14" s="8"/>
-      <c r="GD14" s="8"/>
-      <c r="GE14" s="8"/>
-      <c r="GF14" s="8"/>
-      <c r="GG14" s="8"/>
-      <c r="GH14" s="8"/>
-      <c r="GI14" s="8"/>
-      <c r="GJ14" s="8"/>
-      <c r="GK14" s="8"/>
-      <c r="GL14" s="8"/>
-      <c r="GM14" s="8"/>
-      <c r="GN14" s="8"/>
-      <c r="GO14" s="8"/>
-      <c r="GP14" s="8"/>
-      <c r="GQ14" s="8"/>
-      <c r="GR14" s="8"/>
-      <c r="GS14" s="8"/>
-      <c r="GT14" s="8"/>
-      <c r="GU14" s="8"/>
-      <c r="GV14" s="8"/>
-      <c r="GW14" s="8"/>
-      <c r="GX14" s="8"/>
-      <c r="GY14" s="8"/>
-      <c r="GZ14" s="8"/>
-      <c r="HA14" s="8"/>
-      <c r="HB14" s="8"/>
-      <c r="HC14" s="8"/>
-      <c r="HD14" s="8"/>
-      <c r="HE14" s="8"/>
-      <c r="HF14" s="8"/>
-      <c r="HG14" s="8"/>
-      <c r="HH14" s="8"/>
-      <c r="HI14" s="8"/>
-      <c r="HJ14" s="8"/>
-      <c r="HK14" s="8"/>
-      <c r="HL14" s="8"/>
-      <c r="HM14" s="8"/>
-      <c r="HN14" s="8"/>
-      <c r="HO14" s="8"/>
-      <c r="HP14" s="8"/>
-      <c r="HQ14" s="8"/>
-      <c r="HR14" s="8"/>
-      <c r="HS14" s="8"/>
-      <c r="HT14" s="8"/>
-      <c r="HU14" s="8"/>
-      <c r="HV14" s="8"/>
-      <c r="HW14" s="8"/>
-      <c r="HX14" s="8"/>
-      <c r="HY14" s="8"/>
-      <c r="HZ14" s="8"/>
-      <c r="IA14" s="8"/>
-      <c r="IB14" s="8"/>
-      <c r="IC14" s="8"/>
-      <c r="ID14" s="8"/>
-      <c r="IE14" s="8"/>
-      <c r="IF14" s="8"/>
-      <c r="IG14" s="8"/>
-      <c r="IH14" s="8"/>
-      <c r="II14" s="8"/>
-      <c r="IJ14" s="8"/>
-      <c r="IK14" s="8"/>
-      <c r="IL14" s="8"/>
-      <c r="IM14" s="8"/>
-      <c r="IN14" s="8"/>
-      <c r="IO14" s="8"/>
-      <c r="IP14" s="8"/>
-      <c r="IQ14" s="8"/>
-      <c r="IR14" s="8"/>
-      <c r="IS14" s="8"/>
-      <c r="IT14" s="8"/>
-      <c r="IU14" s="8"/>
-      <c r="IV14" s="8"/>
-      <c r="IW14" s="8"/>
-      <c r="IX14" s="8"/>
-      <c r="IY14" s="8"/>
-      <c r="IZ14" s="8"/>
-      <c r="JA14" s="8"/>
-      <c r="JB14" s="8"/>
-      <c r="JC14" s="8"/>
-      <c r="JD14" s="8"/>
-      <c r="JE14" s="8"/>
-      <c r="JF14" s="8"/>
-      <c r="JG14" s="8"/>
-      <c r="JH14" s="8"/>
-      <c r="JI14" s="8"/>
-      <c r="JJ14" s="8"/>
-      <c r="JK14" s="8"/>
-      <c r="JL14" s="8"/>
-      <c r="JM14" s="8"/>
-      <c r="JN14" s="8"/>
-      <c r="JO14" s="8"/>
-      <c r="JP14" s="8"/>
-      <c r="JQ14" s="8"/>
-      <c r="JR14" s="8"/>
-      <c r="JS14" s="8"/>
-      <c r="JT14" s="8"/>
-      <c r="JU14" s="8"/>
-      <c r="JV14" s="8"/>
-      <c r="JW14" s="8"/>
-      <c r="JX14" s="8"/>
-      <c r="JY14" s="8"/>
-      <c r="JZ14" s="8"/>
-      <c r="KA14" s="8"/>
-      <c r="KB14" s="8"/>
-      <c r="KC14" s="8"/>
-      <c r="KD14" s="8"/>
-      <c r="KE14" s="8"/>
-      <c r="KF14" s="8"/>
-      <c r="KG14" s="8"/>
-      <c r="KH14" s="8"/>
-      <c r="KI14" s="8"/>
-      <c r="KJ14" s="8"/>
-      <c r="KK14" s="8"/>
-      <c r="KL14" s="8"/>
-      <c r="KM14" s="8"/>
-      <c r="KN14" s="8"/>
-      <c r="KO14" s="8"/>
-      <c r="KP14" s="8"/>
-      <c r="KQ14" s="8"/>
-      <c r="KR14" s="8"/>
-      <c r="KS14" s="8"/>
-      <c r="KT14" s="8"/>
-      <c r="KU14" s="8"/>
-      <c r="KV14" s="8"/>
-      <c r="KW14" s="8"/>
-      <c r="KX14" s="8"/>
-      <c r="KY14" s="8"/>
-      <c r="KZ14" s="8"/>
-      <c r="LA14" s="8"/>
-      <c r="LB14" s="8"/>
-      <c r="LC14" s="8"/>
-      <c r="LD14" s="8"/>
-      <c r="LE14" s="8"/>
-      <c r="LF14" s="8"/>
-      <c r="LG14" s="8"/>
-      <c r="LH14" s="8"/>
-      <c r="LI14" s="8"/>
-      <c r="LJ14" s="8"/>
-      <c r="LK14" s="8"/>
-      <c r="LL14" s="8"/>
-      <c r="LM14" s="8"/>
-      <c r="LN14" s="8"/>
-      <c r="LO14" s="8"/>
-      <c r="LP14" s="8"/>
-      <c r="LQ14" s="8"/>
-      <c r="LR14" s="8"/>
-      <c r="LS14" s="8"/>
-      <c r="LT14" s="8"/>
-      <c r="LU14" s="8"/>
-      <c r="LV14" s="8"/>
-      <c r="LW14" s="8"/>
-      <c r="LX14" s="8"/>
-      <c r="LY14" s="8"/>
-      <c r="LZ14" s="8"/>
-      <c r="MA14" s="8"/>
-      <c r="MB14" s="8"/>
-      <c r="MC14" s="8"/>
-      <c r="MD14" s="8"/>
-      <c r="ME14" s="8"/>
-      <c r="MF14" s="8"/>
-      <c r="MG14" s="8"/>
-      <c r="MH14" s="8"/>
-      <c r="MI14" s="8"/>
-      <c r="MJ14" s="8"/>
-      <c r="MK14" s="8"/>
-      <c r="ML14" s="8"/>
-      <c r="MM14" s="8"/>
-      <c r="MN14" s="8"/>
-      <c r="MO14" s="8"/>
-      <c r="MP14" s="8"/>
-      <c r="MQ14" s="8"/>
-      <c r="MR14" s="8"/>
-      <c r="MS14" s="8"/>
-      <c r="MT14" s="8"/>
-      <c r="MU14" s="8"/>
-      <c r="MV14" s="8"/>
-      <c r="MW14" s="8"/>
-      <c r="MX14" s="8"/>
-      <c r="MY14" s="8"/>
-      <c r="MZ14" s="8"/>
-      <c r="NA14" s="8"/>
-      <c r="NB14" s="8"/>
-      <c r="NC14" s="8"/>
-      <c r="ND14" s="8"/>
-      <c r="NE14" s="8"/>
-      <c r="NF14" s="8"/>
-      <c r="NG14" s="8"/>
-      <c r="NH14" s="8"/>
-      <c r="NI14" s="8"/>
-      <c r="NJ14" s="8"/>
-      <c r="NK14" s="8"/>
-      <c r="NL14" s="8"/>
-      <c r="NM14" s="8"/>
-      <c r="NN14" s="8"/>
-      <c r="NO14" s="8"/>
-      <c r="NP14" s="8"/>
-      <c r="NQ14" s="8"/>
-      <c r="NR14" s="8"/>
-      <c r="NS14" s="8"/>
-      <c r="NT14" s="8"/>
-      <c r="NU14" s="8"/>
-      <c r="NV14" s="8"/>
-      <c r="NW14" s="8"/>
-      <c r="NX14" s="8"/>
-      <c r="NY14" s="8"/>
-      <c r="NZ14" s="8"/>
-      <c r="OA14" s="8"/>
-      <c r="OB14" s="8"/>
-      <c r="OC14" s="8"/>
-      <c r="OD14" s="8"/>
-      <c r="OE14" s="8"/>
-      <c r="OF14" s="8"/>
-      <c r="OG14" s="8"/>
-      <c r="OH14" s="8"/>
-      <c r="OI14" s="8"/>
-      <c r="OJ14" s="8"/>
-      <c r="OK14" s="8"/>
-      <c r="OL14" s="8"/>
-      <c r="OM14" s="8"/>
-      <c r="ON14" s="8"/>
-      <c r="OO14" s="8"/>
-      <c r="OP14" s="8"/>
-      <c r="OQ14" s="8"/>
-      <c r="OR14" s="8"/>
-      <c r="OS14" s="8"/>
-      <c r="OT14" s="8"/>
-      <c r="OU14" s="8"/>
-      <c r="OV14" s="8"/>
-      <c r="OW14" s="8"/>
-      <c r="OX14" s="8"/>
-      <c r="OY14" s="8"/>
-      <c r="OZ14" s="8"/>
-      <c r="PA14" s="8"/>
-      <c r="PB14" s="8"/>
-      <c r="PC14" s="8"/>
-      <c r="PD14" s="8"/>
-      <c r="PE14" s="8"/>
-      <c r="PF14" s="8"/>
-      <c r="PG14" s="8"/>
-      <c r="PH14" s="8"/>
-      <c r="PI14" s="8"/>
-      <c r="PJ14" s="8"/>
-      <c r="PK14" s="8"/>
-      <c r="PL14" s="8"/>
-      <c r="PM14" s="8"/>
-      <c r="PN14" s="8"/>
-      <c r="PO14" s="8"/>
-      <c r="PP14" s="8"/>
-      <c r="PQ14" s="8"/>
-      <c r="PR14" s="8"/>
-      <c r="PS14" s="8"/>
-      <c r="PT14" s="8"/>
-      <c r="PU14" s="8"/>
-      <c r="PV14" s="8"/>
-      <c r="PW14" s="8"/>
-      <c r="PX14" s="8"/>
-      <c r="PY14" s="8"/>
-      <c r="PZ14" s="8"/>
-      <c r="QA14" s="8"/>
-      <c r="QB14" s="8"/>
-      <c r="QC14" s="8"/>
-      <c r="QD14" s="8"/>
-      <c r="QE14" s="8"/>
-      <c r="QF14" s="8"/>
-      <c r="QG14" s="8"/>
-      <c r="QH14" s="8"/>
-      <c r="QI14" s="8"/>
-      <c r="QJ14" s="8"/>
-      <c r="QK14" s="8"/>
-      <c r="QL14" s="8"/>
-      <c r="QM14" s="8"/>
-      <c r="QN14" s="8"/>
-      <c r="QO14" s="8"/>
-      <c r="QP14" s="8"/>
-      <c r="QQ14" s="8"/>
-      <c r="QR14" s="8"/>
-      <c r="QS14" s="8"/>
-      <c r="QT14" s="8"/>
-      <c r="QU14" s="8"/>
-      <c r="QV14" s="8"/>
-      <c r="QW14" s="8"/>
-      <c r="QX14" s="8"/>
-      <c r="QY14" s="8"/>
-      <c r="QZ14" s="8"/>
-      <c r="RA14" s="8"/>
-      <c r="RB14" s="8"/>
-      <c r="RC14" s="8"/>
-      <c r="RD14" s="8"/>
-      <c r="RE14" s="8"/>
-      <c r="RF14" s="8"/>
-      <c r="RG14" s="8"/>
-      <c r="RH14" s="8"/>
-      <c r="RI14" s="8"/>
-      <c r="RJ14" s="8"/>
-      <c r="RK14" s="8"/>
-      <c r="RL14" s="8"/>
-      <c r="RM14" s="8"/>
-      <c r="RN14" s="8"/>
-      <c r="RO14" s="8"/>
-      <c r="RP14" s="8"/>
-      <c r="RQ14" s="8"/>
-      <c r="RR14" s="8"/>
-      <c r="RS14" s="8"/>
-      <c r="RT14" s="8"/>
-      <c r="RU14" s="8"/>
-      <c r="RV14" s="8"/>
-      <c r="RW14" s="8"/>
-      <c r="RX14" s="8"/>
-      <c r="RY14" s="8"/>
-      <c r="RZ14" s="8"/>
-      <c r="SA14" s="8"/>
-      <c r="SB14" s="8"/>
-      <c r="SC14" s="8"/>
-      <c r="SD14" s="8"/>
-      <c r="SE14" s="8"/>
-      <c r="SF14" s="8"/>
-      <c r="SG14" s="8"/>
-      <c r="SH14" s="8"/>
-      <c r="SI14" s="8"/>
-      <c r="SJ14" s="8"/>
-      <c r="SK14" s="8"/>
-      <c r="SL14" s="8"/>
-      <c r="SM14" s="8"/>
-      <c r="SN14" s="8"/>
-      <c r="SO14" s="8"/>
-      <c r="SP14" s="8"/>
-      <c r="SQ14" s="8"/>
-      <c r="SR14" s="8"/>
-      <c r="SS14" s="8"/>
-      <c r="ST14" s="8"/>
-      <c r="SU14" s="8"/>
-      <c r="SV14" s="8"/>
-      <c r="SW14" s="8"/>
-      <c r="SX14" s="8"/>
-      <c r="SY14" s="8"/>
-      <c r="SZ14" s="8"/>
-      <c r="TA14" s="8"/>
-      <c r="TB14" s="8"/>
-      <c r="TC14" s="8"/>
-      <c r="TD14" s="8"/>
-      <c r="TE14" s="8"/>
-      <c r="TF14" s="8"/>
-      <c r="TG14" s="8"/>
-      <c r="TH14" s="8"/>
-      <c r="TI14" s="8"/>
-      <c r="TJ14" s="8"/>
-      <c r="TK14" s="8"/>
-      <c r="TL14" s="8"/>
-      <c r="TM14" s="8"/>
-      <c r="TN14" s="8"/>
-      <c r="TO14" s="8"/>
-      <c r="TP14" s="8"/>
-      <c r="TQ14" s="8"/>
-      <c r="TR14" s="8"/>
-      <c r="TS14" s="8"/>
-      <c r="TT14" s="8"/>
-      <c r="TU14" s="8"/>
-      <c r="TV14" s="8"/>
-      <c r="TW14" s="8"/>
-      <c r="TX14" s="8"/>
-      <c r="TY14" s="8"/>
-      <c r="TZ14" s="8"/>
-      <c r="UA14" s="8"/>
-      <c r="UB14" s="8"/>
-      <c r="UC14" s="8"/>
-      <c r="UD14" s="8"/>
-      <c r="UE14" s="8"/>
-      <c r="UF14" s="8"/>
-      <c r="UG14" s="8"/>
-      <c r="UH14" s="8"/>
-      <c r="UI14" s="8"/>
-      <c r="UJ14" s="8"/>
-      <c r="UK14" s="8"/>
-      <c r="UL14" s="8"/>
-      <c r="UM14" s="8"/>
-      <c r="UN14" s="8"/>
-      <c r="UO14" s="8"/>
-      <c r="UP14" s="8"/>
-      <c r="UQ14" s="8"/>
-      <c r="UR14" s="8"/>
-      <c r="US14" s="8"/>
-      <c r="UT14" s="8"/>
-      <c r="UU14" s="8"/>
-      <c r="UV14" s="8"/>
-      <c r="UW14" s="8"/>
-      <c r="UX14" s="8"/>
-      <c r="UY14" s="8"/>
-      <c r="UZ14" s="8"/>
-      <c r="VA14" s="8"/>
-      <c r="VB14" s="8"/>
-      <c r="VC14" s="8"/>
-      <c r="VD14" s="8"/>
-      <c r="VE14" s="8"/>
-      <c r="VF14" s="8"/>
-      <c r="VG14" s="8"/>
-      <c r="VH14" s="8"/>
-      <c r="VI14" s="8"/>
-      <c r="VJ14" s="8"/>
-      <c r="VK14" s="8"/>
-      <c r="VL14" s="8"/>
-      <c r="VM14" s="8"/>
-      <c r="VN14" s="8"/>
-      <c r="VO14" s="8"/>
-      <c r="VP14" s="8"/>
-      <c r="VQ14" s="8"/>
-      <c r="VR14" s="8"/>
-      <c r="VS14" s="8"/>
-      <c r="VT14" s="8"/>
-      <c r="VU14" s="8"/>
-      <c r="VV14" s="8"/>
-      <c r="VW14" s="8"/>
-      <c r="VX14" s="8"/>
-      <c r="VY14" s="8"/>
-      <c r="VZ14" s="8"/>
-      <c r="WA14" s="8"/>
-      <c r="WB14" s="8"/>
-      <c r="WC14" s="8"/>
-      <c r="WD14" s="8"/>
-      <c r="WE14" s="8"/>
-      <c r="WF14" s="8"/>
-      <c r="WG14" s="8"/>
-      <c r="WH14" s="8"/>
-      <c r="WI14" s="8"/>
-      <c r="WJ14" s="8"/>
-      <c r="WK14" s="8"/>
-      <c r="WL14" s="8"/>
-      <c r="WM14" s="8"/>
-      <c r="WN14" s="8"/>
-      <c r="WO14" s="8"/>
-      <c r="WP14" s="8"/>
-      <c r="WQ14" s="8"/>
-      <c r="WR14" s="8"/>
-      <c r="WS14" s="8"/>
-      <c r="WT14" s="8"/>
-      <c r="WU14" s="8"/>
-      <c r="WV14" s="8"/>
-      <c r="WW14" s="8"/>
-      <c r="WX14" s="8"/>
-      <c r="WY14" s="8"/>
-      <c r="WZ14" s="8"/>
-      <c r="XA14" s="8"/>
-      <c r="XB14" s="8"/>
-      <c r="XC14" s="8"/>
-      <c r="XD14" s="8"/>
-      <c r="XE14" s="8"/>
-      <c r="XF14" s="8"/>
-      <c r="XG14" s="8"/>
-      <c r="XH14" s="8"/>
-      <c r="XI14" s="8"/>
-      <c r="XJ14" s="8"/>
-      <c r="XK14" s="8"/>
-      <c r="XL14" s="8"/>
-      <c r="XM14" s="8"/>
-      <c r="XN14" s="8"/>
-      <c r="XO14" s="8"/>
-      <c r="XP14" s="8"/>
-      <c r="XQ14" s="8"/>
-      <c r="XR14" s="8"/>
-      <c r="XS14" s="8"/>
-      <c r="XT14" s="8"/>
-      <c r="XU14" s="8"/>
-      <c r="XV14" s="8"/>
-      <c r="XW14" s="8"/>
-      <c r="XX14" s="8"/>
-      <c r="XY14" s="8"/>
-      <c r="XZ14" s="8"/>
-      <c r="YA14" s="8"/>
-      <c r="YB14" s="8"/>
-      <c r="YC14" s="8"/>
-      <c r="YD14" s="8"/>
-      <c r="YE14" s="8"/>
-      <c r="YF14" s="8"/>
-      <c r="YG14" s="8"/>
-      <c r="YH14" s="8"/>
-      <c r="YI14" s="8"/>
-      <c r="YJ14" s="8"/>
-      <c r="YK14" s="8"/>
-      <c r="YL14" s="8"/>
-      <c r="YM14" s="8"/>
-      <c r="YN14" s="8"/>
-      <c r="YO14" s="8"/>
-      <c r="YP14" s="8"/>
-      <c r="YQ14" s="8"/>
-      <c r="YR14" s="8"/>
-      <c r="YS14" s="8"/>
-      <c r="YT14" s="8"/>
-      <c r="YU14" s="8"/>
-      <c r="YV14" s="8"/>
-      <c r="YW14" s="8"/>
-      <c r="YX14" s="8"/>
-      <c r="YY14" s="8"/>
-      <c r="YZ14" s="8"/>
-      <c r="ZA14" s="8"/>
-      <c r="ZB14" s="8"/>
-      <c r="ZC14" s="8"/>
-      <c r="ZD14" s="8"/>
-      <c r="ZE14" s="8"/>
-      <c r="ZF14" s="8"/>
-      <c r="ZG14" s="8"/>
-      <c r="ZH14" s="8"/>
-      <c r="ZI14" s="8"/>
-      <c r="ZJ14" s="8"/>
-      <c r="ZK14" s="8"/>
-      <c r="ZL14" s="8"/>
-      <c r="ZM14" s="8"/>
-      <c r="ZN14" s="8"/>
-      <c r="ZO14" s="8"/>
-      <c r="ZP14" s="8"/>
-      <c r="ZQ14" s="8"/>
-      <c r="ZR14" s="8"/>
-      <c r="ZS14" s="8"/>
-      <c r="ZT14" s="8"/>
-      <c r="ZU14" s="8"/>
-      <c r="ZV14" s="8"/>
-      <c r="ZW14" s="8"/>
-      <c r="ZX14" s="8"/>
-      <c r="ZY14" s="8"/>
-      <c r="ZZ14" s="8"/>
-      <c r="AAA14" s="8"/>
-      <c r="AAB14" s="8"/>
-      <c r="AAC14" s="8"/>
-      <c r="AAD14" s="8"/>
-      <c r="AAE14" s="8"/>
-      <c r="AAF14" s="8"/>
-      <c r="AAG14" s="8"/>
-      <c r="AAH14" s="8"/>
-      <c r="AAI14" s="8"/>
-      <c r="AAJ14" s="8"/>
-      <c r="AAK14" s="8"/>
-      <c r="AAL14" s="8"/>
-      <c r="AAM14" s="8"/>
-      <c r="AAN14" s="8"/>
-      <c r="AAO14" s="8"/>
-      <c r="AAP14" s="8"/>
-      <c r="AAQ14" s="8"/>
-      <c r="AAR14" s="8"/>
-      <c r="AAS14" s="8"/>
-      <c r="AAT14" s="8"/>
-      <c r="AAU14" s="8"/>
-      <c r="AAV14" s="8"/>
-      <c r="AAW14" s="8"/>
-      <c r="AAX14" s="8"/>
-      <c r="AAY14" s="8"/>
-      <c r="AAZ14" s="8"/>
-      <c r="ABA14" s="8"/>
-      <c r="ABB14" s="8"/>
-      <c r="ABC14" s="8"/>
-      <c r="ABD14" s="8"/>
-      <c r="ABE14" s="8"/>
-      <c r="ABF14" s="8"/>
-      <c r="ABG14" s="8"/>
-      <c r="ABH14" s="8"/>
-      <c r="ABI14" s="8"/>
-      <c r="ABJ14" s="8"/>
-      <c r="ABK14" s="8"/>
-      <c r="ABL14" s="8"/>
-      <c r="ABM14" s="8"/>
-      <c r="ABN14" s="8"/>
-      <c r="ABO14" s="8"/>
-      <c r="ABP14" s="8"/>
-      <c r="ABQ14" s="8"/>
-      <c r="ABR14" s="8"/>
-      <c r="ABS14" s="8"/>
-      <c r="ABT14" s="8"/>
-      <c r="ABU14" s="8"/>
-      <c r="ABV14" s="8"/>
-      <c r="ABW14" s="8"/>
-      <c r="ABX14" s="8"/>
-      <c r="ABY14" s="8"/>
-      <c r="ABZ14" s="8"/>
-      <c r="ACA14" s="8"/>
-      <c r="ACB14" s="8"/>
-      <c r="ACC14" s="8"/>
-      <c r="ACD14" s="8"/>
-      <c r="ACE14" s="8"/>
-      <c r="ACF14" s="8"/>
-      <c r="ACG14" s="8"/>
-      <c r="ACH14" s="8"/>
-      <c r="ACI14" s="8"/>
-      <c r="ACJ14" s="8"/>
-      <c r="ACK14" s="8"/>
-      <c r="ACL14" s="8"/>
-      <c r="ACM14" s="8"/>
-      <c r="ACN14" s="8"/>
-      <c r="ACO14" s="8"/>
-      <c r="ACP14" s="8"/>
-      <c r="ACQ14" s="8"/>
-      <c r="ACR14" s="8"/>
-      <c r="ACS14" s="8"/>
-      <c r="ACT14" s="8"/>
-      <c r="ACU14" s="8"/>
-      <c r="ACV14" s="8"/>
-      <c r="ACW14" s="8"/>
-      <c r="ACX14" s="8"/>
-      <c r="ACY14" s="8"/>
-      <c r="ACZ14" s="8"/>
-      <c r="ADA14" s="8"/>
-      <c r="ADB14" s="8"/>
-      <c r="ADC14" s="8"/>
-      <c r="ADD14" s="8"/>
-      <c r="ADE14" s="8"/>
-      <c r="ADF14" s="8"/>
-      <c r="ADG14" s="8"/>
-      <c r="ADH14" s="8"/>
-      <c r="ADI14" s="8"/>
-      <c r="ADJ14" s="8"/>
-      <c r="ADK14" s="8"/>
-      <c r="ADL14" s="8"/>
-      <c r="ADM14" s="8"/>
-      <c r="ADN14" s="8"/>
-      <c r="ADO14" s="8"/>
-      <c r="ADP14" s="8"/>
-      <c r="ADQ14" s="8"/>
-      <c r="ADR14" s="8"/>
-      <c r="ADS14" s="8"/>
-      <c r="ADT14" s="8"/>
-      <c r="ADU14" s="8"/>
-      <c r="ADV14" s="8"/>
-      <c r="ADW14" s="8"/>
-      <c r="ADX14" s="8"/>
-      <c r="ADY14" s="8"/>
-      <c r="ADZ14" s="8"/>
-      <c r="AEA14" s="8"/>
-      <c r="AEB14" s="8"/>
-      <c r="AEC14" s="8"/>
-      <c r="AED14" s="8"/>
-      <c r="AEE14" s="8"/>
-      <c r="AEF14" s="8"/>
-      <c r="AEG14" s="8"/>
-      <c r="AEH14" s="8"/>
-      <c r="AEI14" s="8"/>
-      <c r="AEJ14" s="8"/>
-      <c r="AEK14" s="8"/>
-      <c r="AEL14" s="8"/>
-      <c r="AEM14" s="8"/>
-      <c r="AEN14" s="8"/>
-      <c r="AEO14" s="8"/>
-      <c r="AEP14" s="8"/>
-      <c r="AEQ14" s="8"/>
-      <c r="AER14" s="8"/>
-      <c r="AES14" s="8"/>
-      <c r="AET14" s="8"/>
-      <c r="AEU14" s="8"/>
-      <c r="AEV14" s="8"/>
-      <c r="AEW14" s="8"/>
-      <c r="AEX14" s="8"/>
-      <c r="AEY14" s="8"/>
-      <c r="AEZ14" s="8"/>
-      <c r="AFA14" s="8"/>
-      <c r="AFB14" s="8"/>
-      <c r="AFC14" s="8"/>
-      <c r="AFD14" s="8"/>
-      <c r="AFE14" s="8"/>
-      <c r="AFF14" s="8"/>
-      <c r="AFG14" s="8"/>
-      <c r="AFH14" s="8"/>
-      <c r="AFI14" s="8"/>
-      <c r="AFJ14" s="8"/>
-      <c r="AFK14" s="8"/>
-      <c r="AFL14" s="8"/>
-      <c r="AFM14" s="8"/>
-      <c r="AFN14" s="8"/>
-      <c r="AFO14" s="8"/>
-      <c r="AFP14" s="8"/>
-      <c r="AFQ14" s="8"/>
-      <c r="AFR14" s="8"/>
-      <c r="AFS14" s="8"/>
-      <c r="AFT14" s="8"/>
-      <c r="AFU14" s="8"/>
-      <c r="AFV14" s="8"/>
-      <c r="AFW14" s="8"/>
-      <c r="AFX14" s="8"/>
-      <c r="AFY14" s="8"/>
-      <c r="AFZ14" s="8"/>
-      <c r="AGA14" s="8"/>
-      <c r="AGB14" s="8"/>
-      <c r="AGC14" s="8"/>
-      <c r="AGD14" s="8"/>
-      <c r="AGE14" s="8"/>
-      <c r="AGF14" s="8"/>
-      <c r="AGG14" s="8"/>
-      <c r="AGH14" s="8"/>
-      <c r="AGI14" s="8"/>
-      <c r="AGJ14" s="8"/>
-      <c r="AGK14" s="8"/>
-      <c r="AGL14" s="8"/>
-      <c r="AGM14" s="8"/>
-      <c r="AGN14" s="8"/>
-      <c r="AGO14" s="8"/>
-      <c r="AGP14" s="8"/>
-      <c r="AGQ14" s="8"/>
-      <c r="AGR14" s="8"/>
-      <c r="AGS14" s="8"/>
-      <c r="AGT14" s="8"/>
-      <c r="AGU14" s="8"/>
-      <c r="AGV14" s="8"/>
-      <c r="AGW14" s="8"/>
-      <c r="AGX14" s="8"/>
-      <c r="AGY14" s="8"/>
-      <c r="AGZ14" s="8"/>
-      <c r="AHA14" s="8"/>
-      <c r="AHB14" s="8"/>
-      <c r="AHC14" s="8"/>
-      <c r="AHD14" s="8"/>
-      <c r="AHE14" s="8"/>
-      <c r="AHF14" s="8"/>
-      <c r="AHG14" s="8"/>
-      <c r="AHH14" s="8"/>
-      <c r="AHI14" s="8"/>
-      <c r="AHJ14" s="8"/>
-      <c r="AHK14" s="8"/>
-      <c r="AHL14" s="8"/>
-      <c r="AHM14" s="8"/>
-      <c r="AHN14" s="8"/>
-      <c r="AHO14" s="8"/>
-      <c r="AHP14" s="8"/>
-      <c r="AHQ14" s="8"/>
-      <c r="AHR14" s="8"/>
-      <c r="AHS14" s="8"/>
-      <c r="AHT14" s="8"/>
-      <c r="AHU14" s="8"/>
-      <c r="AHV14" s="8"/>
-      <c r="AHW14" s="8"/>
-      <c r="AHX14" s="8"/>
-      <c r="AHY14" s="8"/>
-      <c r="AHZ14" s="8"/>
-      <c r="AIA14" s="8"/>
-      <c r="AIB14" s="8"/>
-      <c r="AIC14" s="8"/>
-      <c r="AID14" s="8"/>
-      <c r="AIE14" s="8"/>
-      <c r="AIF14" s="8"/>
-      <c r="AIG14" s="8"/>
-      <c r="AIH14" s="8"/>
-      <c r="AII14" s="8"/>
-      <c r="AIJ14" s="8"/>
-      <c r="AIK14" s="8"/>
-      <c r="AIL14" s="8"/>
-      <c r="AIM14" s="8"/>
-      <c r="AIN14" s="8"/>
-      <c r="AIO14" s="8"/>
-      <c r="AIP14" s="8"/>
-      <c r="AIQ14" s="8"/>
-      <c r="AIR14" s="8"/>
-      <c r="AIS14" s="8"/>
-      <c r="AIT14" s="8"/>
-      <c r="AIU14" s="8"/>
-      <c r="AIV14" s="8"/>
-      <c r="AIW14" s="8"/>
-      <c r="AIX14" s="8"/>
-      <c r="AIY14" s="8"/>
-      <c r="AIZ14" s="8"/>
-      <c r="AJA14" s="8"/>
-      <c r="AJB14" s="8"/>
-      <c r="AJC14" s="8"/>
-      <c r="AJD14" s="8"/>
-      <c r="AJE14" s="8"/>
-      <c r="AJF14" s="8"/>
-      <c r="AJG14" s="8"/>
-      <c r="AJH14" s="8"/>
-      <c r="AJI14" s="8"/>
-      <c r="AJJ14" s="8"/>
-      <c r="AJK14" s="8"/>
-      <c r="AJL14" s="8"/>
-      <c r="AJM14" s="8"/>
-      <c r="AJN14" s="8"/>
-      <c r="AJO14" s="8"/>
-      <c r="AJP14" s="8"/>
-      <c r="AJQ14" s="8"/>
-      <c r="AJR14" s="8"/>
-      <c r="AJS14" s="8"/>
-      <c r="AJT14" s="8"/>
-      <c r="AJU14" s="8"/>
-      <c r="AJV14" s="8"/>
-      <c r="AJW14" s="8"/>
-      <c r="AJX14" s="8"/>
-      <c r="AJY14" s="8"/>
-      <c r="AJZ14" s="8"/>
-      <c r="AKA14" s="8"/>
-      <c r="AKB14" s="8"/>
-      <c r="AKC14" s="8"/>
-      <c r="AKD14" s="8"/>
-      <c r="AKE14" s="8"/>
-      <c r="AKF14" s="8"/>
-      <c r="AKG14" s="8"/>
-      <c r="AKH14" s="8"/>
-      <c r="AKI14" s="8"/>
-      <c r="AKJ14" s="8"/>
-      <c r="AKK14" s="8"/>
-      <c r="AKL14" s="8"/>
-      <c r="AKM14" s="8"/>
-      <c r="AKN14" s="8"/>
-      <c r="AKO14" s="8"/>
-      <c r="AKP14" s="8"/>
-      <c r="AKQ14" s="8"/>
-      <c r="AKR14" s="8"/>
-      <c r="AKS14" s="8"/>
-      <c r="AKT14" s="8"/>
-      <c r="AKU14" s="8"/>
-      <c r="AKV14" s="8"/>
-      <c r="AKW14" s="8"/>
-      <c r="AKX14" s="8"/>
-      <c r="AKY14" s="8"/>
-      <c r="AKZ14" s="8"/>
-      <c r="ALA14" s="8"/>
-      <c r="ALB14" s="8"/>
-      <c r="ALC14" s="8"/>
-      <c r="ALD14" s="8"/>
-      <c r="ALE14" s="8"/>
-      <c r="ALF14" s="8"/>
-      <c r="ALG14" s="8"/>
-      <c r="ALH14" s="8"/>
-      <c r="ALI14" s="8"/>
-      <c r="ALJ14" s="8"/>
-      <c r="ALK14" s="8"/>
-      <c r="ALL14" s="8"/>
-      <c r="ALM14" s="8"/>
-      <c r="ALN14" s="8"/>
-      <c r="ALO14" s="8"/>
-      <c r="ALP14" s="8"/>
-      <c r="ALQ14" s="8"/>
-      <c r="ALR14" s="8"/>
-      <c r="ALS14" s="8"/>
-      <c r="ALT14" s="8"/>
-      <c r="ALU14" s="8"/>
-      <c r="ALV14" s="8"/>
-      <c r="ALW14" s="8"/>
-      <c r="ALX14" s="8"/>
-      <c r="ALY14" s="8"/>
-      <c r="ALZ14" s="8"/>
-      <c r="AMA14" s="8"/>
-      <c r="AMB14" s="8"/>
-      <c r="AMC14" s="8"/>
-      <c r="AMD14" s="8"/>
-      <c r="AME14" s="8"/>
-      <c r="AMF14" s="8"/>
-      <c r="AMG14" s="8"/>
-      <c r="AMH14" s="8"/>
-      <c r="AMI14" s="8"/>
-      <c r="AMJ14" s="8"/>
+    <row r="14" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="248" t="s">
+        <v>524</v>
+      </c>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="207"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="AMJ14" s="5"/>
     </row>
     <row r="15" spans="1:1024" s="16" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="252"/>
-      <c r="B15" s="116" t="s">
-        <v>333</v>
-      </c>
-      <c r="C15" s="117"/>
-      <c r="D15" s="116" t="s">
-        <v>334</v>
-      </c>
-      <c r="E15" s="117" t="s">
-        <v>510</v>
-      </c>
-      <c r="F15" s="116" t="s">
-        <v>335</v>
-      </c>
-      <c r="G15" s="201"/>
-      <c r="H15" s="130"/>
+      <c r="A15" s="250"/>
+      <c r="B15" s="108" t="s">
+        <v>329</v>
+      </c>
+      <c r="C15" s="109"/>
+      <c r="D15" s="108" t="s">
+        <v>330</v>
+      </c>
+      <c r="E15" s="109" t="s">
+        <v>501</v>
+      </c>
+      <c r="F15" s="108" t="s">
+        <v>331</v>
+      </c>
+      <c r="G15" s="198" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="127"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
@@ -40662,2296 +40650,1279 @@
       <c r="AMI15" s="17"/>
       <c r="AMJ15" s="17"/>
     </row>
-    <row r="16" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="248" t="s">
+    <row r="16" spans="1:1024" s="40" customFormat="1" ht="18.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="251" t="s">
+        <v>332</v>
+      </c>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
+      <c r="AA16" s="39"/>
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="39"/>
+      <c r="AE16" s="39"/>
+      <c r="AF16" s="39"/>
+      <c r="AG16" s="39"/>
+      <c r="AH16" s="39"/>
+      <c r="AI16" s="39"/>
+      <c r="AJ16" s="39"/>
+      <c r="AK16" s="39"/>
+      <c r="AL16" s="39"/>
+      <c r="AM16" s="39"/>
+      <c r="AN16" s="39"/>
+      <c r="AO16" s="39"/>
+      <c r="AP16" s="39"/>
+      <c r="AQ16" s="39"/>
+      <c r="AR16" s="39"/>
+      <c r="AS16" s="39"/>
+      <c r="AT16" s="39"/>
+      <c r="AU16" s="39"/>
+      <c r="AV16" s="39"/>
+      <c r="AW16" s="39"/>
+      <c r="AX16" s="39"/>
+      <c r="AY16" s="39"/>
+      <c r="AZ16" s="39"/>
+      <c r="BA16" s="39"/>
+      <c r="BB16" s="39"/>
+      <c r="BC16" s="39"/>
+      <c r="BD16" s="39"/>
+      <c r="BE16" s="39"/>
+      <c r="BF16" s="39"/>
+      <c r="BG16" s="39"/>
+      <c r="BH16" s="39"/>
+      <c r="BI16" s="39"/>
+      <c r="BJ16" s="39"/>
+      <c r="BK16" s="39"/>
+      <c r="BL16" s="39"/>
+      <c r="BM16" s="39"/>
+      <c r="BN16" s="39"/>
+      <c r="BO16" s="39"/>
+      <c r="BP16" s="39"/>
+      <c r="BQ16" s="39"/>
+      <c r="BR16" s="39"/>
+      <c r="BS16" s="39"/>
+      <c r="BT16" s="39"/>
+      <c r="BU16" s="39"/>
+      <c r="BV16" s="39"/>
+      <c r="BW16" s="39"/>
+      <c r="BX16" s="39"/>
+      <c r="BY16" s="39"/>
+      <c r="BZ16" s="39"/>
+      <c r="CA16" s="39"/>
+      <c r="CB16" s="39"/>
+      <c r="CC16" s="39"/>
+      <c r="CD16" s="39"/>
+      <c r="CE16" s="39"/>
+      <c r="CF16" s="39"/>
+      <c r="CG16" s="39"/>
+      <c r="CH16" s="39"/>
+      <c r="CI16" s="39"/>
+      <c r="CJ16" s="39"/>
+      <c r="CK16" s="39"/>
+      <c r="CL16" s="39"/>
+      <c r="CM16" s="39"/>
+      <c r="CN16" s="39"/>
+      <c r="CO16" s="39"/>
+      <c r="CP16" s="39"/>
+      <c r="CQ16" s="39"/>
+      <c r="CR16" s="39"/>
+      <c r="CS16" s="39"/>
+      <c r="CT16" s="39"/>
+      <c r="CU16" s="39"/>
+      <c r="CV16" s="39"/>
+      <c r="CW16" s="39"/>
+      <c r="CX16" s="39"/>
+      <c r="CY16" s="39"/>
+      <c r="CZ16" s="39"/>
+      <c r="DA16" s="39"/>
+      <c r="DB16" s="39"/>
+      <c r="DC16" s="39"/>
+      <c r="DD16" s="39"/>
+      <c r="DE16" s="39"/>
+      <c r="DF16" s="39"/>
+      <c r="DG16" s="39"/>
+      <c r="DH16" s="39"/>
+      <c r="DI16" s="39"/>
+      <c r="DJ16" s="39"/>
+      <c r="DK16" s="39"/>
+      <c r="DL16" s="39"/>
+      <c r="DM16" s="39"/>
+      <c r="DN16" s="39"/>
+      <c r="DO16" s="39"/>
+      <c r="DP16" s="39"/>
+      <c r="DQ16" s="39"/>
+      <c r="DR16" s="39"/>
+      <c r="DS16" s="39"/>
+      <c r="DT16" s="39"/>
+      <c r="DU16" s="39"/>
+      <c r="DV16" s="39"/>
+      <c r="DW16" s="39"/>
+      <c r="DX16" s="39"/>
+      <c r="DY16" s="39"/>
+      <c r="DZ16" s="39"/>
+      <c r="EA16" s="39"/>
+      <c r="EB16" s="39"/>
+      <c r="EC16" s="39"/>
+      <c r="ED16" s="39"/>
+      <c r="EE16" s="39"/>
+      <c r="EF16" s="39"/>
+      <c r="EG16" s="39"/>
+      <c r="EH16" s="39"/>
+      <c r="EI16" s="39"/>
+      <c r="EJ16" s="39"/>
+      <c r="EK16" s="39"/>
+      <c r="EL16" s="39"/>
+      <c r="EM16" s="39"/>
+      <c r="EN16" s="39"/>
+      <c r="EO16" s="39"/>
+      <c r="EP16" s="39"/>
+      <c r="EQ16" s="39"/>
+      <c r="ER16" s="39"/>
+      <c r="ES16" s="39"/>
+      <c r="ET16" s="39"/>
+      <c r="EU16" s="39"/>
+      <c r="EV16" s="39"/>
+      <c r="EW16" s="39"/>
+      <c r="EX16" s="39"/>
+      <c r="EY16" s="39"/>
+      <c r="EZ16" s="39"/>
+      <c r="FA16" s="39"/>
+      <c r="FB16" s="39"/>
+      <c r="FC16" s="39"/>
+      <c r="FD16" s="39"/>
+      <c r="FE16" s="39"/>
+      <c r="FF16" s="39"/>
+      <c r="FG16" s="39"/>
+      <c r="FH16" s="39"/>
+      <c r="FI16" s="39"/>
+      <c r="FJ16" s="39"/>
+      <c r="FK16" s="39"/>
+      <c r="FL16" s="39"/>
+      <c r="FM16" s="39"/>
+      <c r="FN16" s="39"/>
+      <c r="FO16" s="39"/>
+      <c r="FP16" s="39"/>
+      <c r="FQ16" s="39"/>
+      <c r="FR16" s="39"/>
+      <c r="FS16" s="39"/>
+      <c r="FT16" s="39"/>
+      <c r="FU16" s="39"/>
+      <c r="FV16" s="39"/>
+      <c r="FW16" s="39"/>
+      <c r="FX16" s="39"/>
+      <c r="FY16" s="39"/>
+      <c r="FZ16" s="39"/>
+      <c r="GA16" s="39"/>
+      <c r="GB16" s="39"/>
+      <c r="GC16" s="39"/>
+      <c r="GD16" s="39"/>
+      <c r="GE16" s="39"/>
+      <c r="GF16" s="39"/>
+      <c r="GG16" s="39"/>
+      <c r="GH16" s="39"/>
+      <c r="GI16" s="39"/>
+      <c r="GJ16" s="39"/>
+      <c r="GK16" s="39"/>
+      <c r="GL16" s="39"/>
+      <c r="GM16" s="39"/>
+      <c r="GN16" s="39"/>
+      <c r="GO16" s="39"/>
+      <c r="GP16" s="39"/>
+      <c r="GQ16" s="39"/>
+      <c r="GR16" s="39"/>
+      <c r="GS16" s="39"/>
+      <c r="GT16" s="39"/>
+      <c r="GU16" s="39"/>
+      <c r="GV16" s="39"/>
+      <c r="GW16" s="39"/>
+      <c r="GX16" s="39"/>
+      <c r="GY16" s="39"/>
+      <c r="GZ16" s="39"/>
+      <c r="HA16" s="39"/>
+      <c r="HB16" s="39"/>
+      <c r="HC16" s="39"/>
+      <c r="HD16" s="39"/>
+      <c r="HE16" s="39"/>
+      <c r="HF16" s="39"/>
+      <c r="HG16" s="39"/>
+      <c r="HH16" s="39"/>
+      <c r="HI16" s="39"/>
+      <c r="HJ16" s="39"/>
+      <c r="HK16" s="39"/>
+      <c r="HL16" s="39"/>
+      <c r="HM16" s="39"/>
+      <c r="HN16" s="39"/>
+      <c r="HO16" s="39"/>
+      <c r="HP16" s="39"/>
+      <c r="HQ16" s="39"/>
+      <c r="HR16" s="39"/>
+      <c r="HS16" s="39"/>
+      <c r="HT16" s="39"/>
+      <c r="HU16" s="39"/>
+      <c r="HV16" s="39"/>
+      <c r="HW16" s="39"/>
+      <c r="HX16" s="39"/>
+      <c r="HY16" s="39"/>
+      <c r="HZ16" s="39"/>
+      <c r="IA16" s="39"/>
+      <c r="IB16" s="39"/>
+      <c r="IC16" s="39"/>
+      <c r="ID16" s="39"/>
+      <c r="IE16" s="39"/>
+      <c r="IF16" s="39"/>
+      <c r="IG16" s="39"/>
+      <c r="IH16" s="39"/>
+      <c r="II16" s="39"/>
+      <c r="IJ16" s="39"/>
+      <c r="IK16" s="39"/>
+      <c r="IL16" s="39"/>
+      <c r="IM16" s="39"/>
+      <c r="IN16" s="39"/>
+      <c r="IO16" s="39"/>
+      <c r="IP16" s="39"/>
+      <c r="IQ16" s="39"/>
+      <c r="IR16" s="39"/>
+      <c r="IS16" s="39"/>
+      <c r="IT16" s="39"/>
+      <c r="IU16" s="39"/>
+      <c r="IV16" s="39"/>
+      <c r="IW16" s="39"/>
+      <c r="IX16" s="39"/>
+      <c r="IY16" s="39"/>
+      <c r="IZ16" s="39"/>
+      <c r="JA16" s="39"/>
+      <c r="JB16" s="39"/>
+      <c r="JC16" s="39"/>
+      <c r="JD16" s="39"/>
+      <c r="JE16" s="39"/>
+      <c r="JF16" s="39"/>
+      <c r="JG16" s="39"/>
+      <c r="JH16" s="39"/>
+      <c r="JI16" s="39"/>
+      <c r="JJ16" s="39"/>
+      <c r="JK16" s="39"/>
+      <c r="JL16" s="39"/>
+      <c r="JM16" s="39"/>
+      <c r="JN16" s="39"/>
+      <c r="JO16" s="39"/>
+      <c r="JP16" s="39"/>
+      <c r="JQ16" s="39"/>
+      <c r="JR16" s="39"/>
+      <c r="JS16" s="39"/>
+      <c r="JT16" s="39"/>
+      <c r="JU16" s="39"/>
+      <c r="JV16" s="39"/>
+      <c r="JW16" s="39"/>
+      <c r="JX16" s="39"/>
+      <c r="JY16" s="39"/>
+      <c r="JZ16" s="39"/>
+      <c r="KA16" s="39"/>
+      <c r="KB16" s="39"/>
+      <c r="KC16" s="39"/>
+      <c r="KD16" s="39"/>
+      <c r="KE16" s="39"/>
+      <c r="KF16" s="39"/>
+      <c r="KG16" s="39"/>
+      <c r="KH16" s="39"/>
+      <c r="KI16" s="39"/>
+      <c r="KJ16" s="39"/>
+      <c r="KK16" s="39"/>
+      <c r="KL16" s="39"/>
+      <c r="KM16" s="39"/>
+      <c r="KN16" s="39"/>
+      <c r="KO16" s="39"/>
+      <c r="KP16" s="39"/>
+      <c r="KQ16" s="39"/>
+      <c r="KR16" s="39"/>
+      <c r="KS16" s="39"/>
+      <c r="KT16" s="39"/>
+      <c r="KU16" s="39"/>
+      <c r="KV16" s="39"/>
+      <c r="KW16" s="39"/>
+      <c r="KX16" s="39"/>
+      <c r="KY16" s="39"/>
+      <c r="KZ16" s="39"/>
+      <c r="LA16" s="39"/>
+      <c r="LB16" s="39"/>
+      <c r="LC16" s="39"/>
+      <c r="LD16" s="39"/>
+      <c r="LE16" s="39"/>
+      <c r="LF16" s="39"/>
+      <c r="LG16" s="39"/>
+      <c r="LH16" s="39"/>
+      <c r="LI16" s="39"/>
+      <c r="LJ16" s="39"/>
+      <c r="LK16" s="39"/>
+      <c r="LL16" s="39"/>
+      <c r="LM16" s="39"/>
+      <c r="LN16" s="39"/>
+      <c r="LO16" s="39"/>
+      <c r="LP16" s="39"/>
+      <c r="LQ16" s="39"/>
+      <c r="LR16" s="39"/>
+      <c r="LS16" s="39"/>
+      <c r="LT16" s="39"/>
+      <c r="LU16" s="39"/>
+      <c r="LV16" s="39"/>
+      <c r="LW16" s="39"/>
+      <c r="LX16" s="39"/>
+      <c r="LY16" s="39"/>
+      <c r="LZ16" s="39"/>
+      <c r="MA16" s="39"/>
+      <c r="MB16" s="39"/>
+      <c r="MC16" s="39"/>
+      <c r="MD16" s="39"/>
+      <c r="ME16" s="39"/>
+      <c r="MF16" s="39"/>
+      <c r="MG16" s="39"/>
+      <c r="MH16" s="39"/>
+      <c r="MI16" s="39"/>
+      <c r="MJ16" s="39"/>
+      <c r="MK16" s="39"/>
+      <c r="ML16" s="39"/>
+      <c r="MM16" s="39"/>
+      <c r="MN16" s="39"/>
+      <c r="MO16" s="39"/>
+      <c r="MP16" s="39"/>
+      <c r="MQ16" s="39"/>
+      <c r="MR16" s="39"/>
+      <c r="MS16" s="39"/>
+      <c r="MT16" s="39"/>
+      <c r="MU16" s="39"/>
+      <c r="MV16" s="39"/>
+      <c r="MW16" s="39"/>
+      <c r="MX16" s="39"/>
+      <c r="MY16" s="39"/>
+      <c r="MZ16" s="39"/>
+      <c r="NA16" s="39"/>
+      <c r="NB16" s="39"/>
+      <c r="NC16" s="39"/>
+      <c r="ND16" s="39"/>
+      <c r="NE16" s="39"/>
+      <c r="NF16" s="39"/>
+      <c r="NG16" s="39"/>
+      <c r="NH16" s="39"/>
+      <c r="NI16" s="39"/>
+      <c r="NJ16" s="39"/>
+      <c r="NK16" s="39"/>
+      <c r="NL16" s="39"/>
+      <c r="NM16" s="39"/>
+      <c r="NN16" s="39"/>
+      <c r="NO16" s="39"/>
+      <c r="NP16" s="39"/>
+      <c r="NQ16" s="39"/>
+      <c r="NR16" s="39"/>
+      <c r="NS16" s="39"/>
+      <c r="NT16" s="39"/>
+      <c r="NU16" s="39"/>
+      <c r="NV16" s="39"/>
+      <c r="NW16" s="39"/>
+      <c r="NX16" s="39"/>
+      <c r="NY16" s="39"/>
+      <c r="NZ16" s="39"/>
+      <c r="OA16" s="39"/>
+      <c r="OB16" s="39"/>
+      <c r="OC16" s="39"/>
+      <c r="OD16" s="39"/>
+      <c r="OE16" s="39"/>
+      <c r="OF16" s="39"/>
+      <c r="OG16" s="39"/>
+      <c r="OH16" s="39"/>
+      <c r="OI16" s="39"/>
+      <c r="OJ16" s="39"/>
+      <c r="OK16" s="39"/>
+      <c r="OL16" s="39"/>
+      <c r="OM16" s="39"/>
+      <c r="ON16" s="39"/>
+      <c r="OO16" s="39"/>
+      <c r="OP16" s="39"/>
+      <c r="OQ16" s="39"/>
+      <c r="OR16" s="39"/>
+      <c r="OS16" s="39"/>
+      <c r="OT16" s="39"/>
+      <c r="OU16" s="39"/>
+      <c r="OV16" s="39"/>
+      <c r="OW16" s="39"/>
+      <c r="OX16" s="39"/>
+      <c r="OY16" s="39"/>
+      <c r="OZ16" s="39"/>
+      <c r="PA16" s="39"/>
+      <c r="PB16" s="39"/>
+      <c r="PC16" s="39"/>
+      <c r="PD16" s="39"/>
+      <c r="PE16" s="39"/>
+      <c r="PF16" s="39"/>
+      <c r="PG16" s="39"/>
+      <c r="PH16" s="39"/>
+      <c r="PI16" s="39"/>
+      <c r="PJ16" s="39"/>
+      <c r="PK16" s="39"/>
+      <c r="PL16" s="39"/>
+      <c r="PM16" s="39"/>
+      <c r="PN16" s="39"/>
+      <c r="PO16" s="39"/>
+      <c r="PP16" s="39"/>
+      <c r="PQ16" s="39"/>
+      <c r="PR16" s="39"/>
+      <c r="PS16" s="39"/>
+      <c r="PT16" s="39"/>
+      <c r="PU16" s="39"/>
+      <c r="PV16" s="39"/>
+      <c r="PW16" s="39"/>
+      <c r="PX16" s="39"/>
+      <c r="PY16" s="39"/>
+      <c r="PZ16" s="39"/>
+      <c r="QA16" s="39"/>
+      <c r="QB16" s="39"/>
+      <c r="QC16" s="39"/>
+      <c r="QD16" s="39"/>
+      <c r="QE16" s="39"/>
+      <c r="QF16" s="39"/>
+      <c r="QG16" s="39"/>
+      <c r="QH16" s="39"/>
+      <c r="QI16" s="39"/>
+      <c r="QJ16" s="39"/>
+      <c r="QK16" s="39"/>
+      <c r="QL16" s="39"/>
+      <c r="QM16" s="39"/>
+      <c r="QN16" s="39"/>
+      <c r="QO16" s="39"/>
+      <c r="QP16" s="39"/>
+      <c r="QQ16" s="39"/>
+      <c r="QR16" s="39"/>
+      <c r="QS16" s="39"/>
+      <c r="QT16" s="39"/>
+      <c r="QU16" s="39"/>
+      <c r="QV16" s="39"/>
+      <c r="QW16" s="39"/>
+      <c r="QX16" s="39"/>
+      <c r="QY16" s="39"/>
+      <c r="QZ16" s="39"/>
+      <c r="RA16" s="39"/>
+      <c r="RB16" s="39"/>
+      <c r="RC16" s="39"/>
+      <c r="RD16" s="39"/>
+      <c r="RE16" s="39"/>
+      <c r="RF16" s="39"/>
+      <c r="RG16" s="39"/>
+      <c r="RH16" s="39"/>
+      <c r="RI16" s="39"/>
+      <c r="RJ16" s="39"/>
+      <c r="RK16" s="39"/>
+      <c r="RL16" s="39"/>
+      <c r="RM16" s="39"/>
+      <c r="RN16" s="39"/>
+      <c r="RO16" s="39"/>
+      <c r="RP16" s="39"/>
+      <c r="RQ16" s="39"/>
+      <c r="RR16" s="39"/>
+      <c r="RS16" s="39"/>
+      <c r="RT16" s="39"/>
+      <c r="RU16" s="39"/>
+      <c r="RV16" s="39"/>
+      <c r="RW16" s="39"/>
+      <c r="RX16" s="39"/>
+      <c r="RY16" s="39"/>
+      <c r="RZ16" s="39"/>
+      <c r="SA16" s="39"/>
+      <c r="SB16" s="39"/>
+      <c r="SC16" s="39"/>
+      <c r="SD16" s="39"/>
+      <c r="SE16" s="39"/>
+      <c r="SF16" s="39"/>
+      <c r="SG16" s="39"/>
+      <c r="SH16" s="39"/>
+      <c r="SI16" s="39"/>
+      <c r="SJ16" s="39"/>
+      <c r="SK16" s="39"/>
+      <c r="SL16" s="39"/>
+      <c r="SM16" s="39"/>
+      <c r="SN16" s="39"/>
+      <c r="SO16" s="39"/>
+      <c r="SP16" s="39"/>
+      <c r="SQ16" s="39"/>
+      <c r="SR16" s="39"/>
+      <c r="SS16" s="39"/>
+      <c r="ST16" s="39"/>
+      <c r="SU16" s="39"/>
+      <c r="SV16" s="39"/>
+      <c r="SW16" s="39"/>
+      <c r="SX16" s="39"/>
+      <c r="SY16" s="39"/>
+      <c r="SZ16" s="39"/>
+      <c r="TA16" s="39"/>
+      <c r="TB16" s="39"/>
+      <c r="TC16" s="39"/>
+      <c r="TD16" s="39"/>
+      <c r="TE16" s="39"/>
+      <c r="TF16" s="39"/>
+      <c r="TG16" s="39"/>
+      <c r="TH16" s="39"/>
+      <c r="TI16" s="39"/>
+      <c r="TJ16" s="39"/>
+      <c r="TK16" s="39"/>
+      <c r="TL16" s="39"/>
+      <c r="TM16" s="39"/>
+      <c r="TN16" s="39"/>
+      <c r="TO16" s="39"/>
+      <c r="TP16" s="39"/>
+      <c r="TQ16" s="39"/>
+      <c r="TR16" s="39"/>
+      <c r="TS16" s="39"/>
+      <c r="TT16" s="39"/>
+      <c r="TU16" s="39"/>
+      <c r="TV16" s="39"/>
+      <c r="TW16" s="39"/>
+      <c r="TX16" s="39"/>
+      <c r="TY16" s="39"/>
+      <c r="TZ16" s="39"/>
+      <c r="UA16" s="39"/>
+      <c r="UB16" s="39"/>
+      <c r="UC16" s="39"/>
+      <c r="UD16" s="39"/>
+      <c r="UE16" s="39"/>
+      <c r="UF16" s="39"/>
+      <c r="UG16" s="39"/>
+      <c r="UH16" s="39"/>
+      <c r="UI16" s="39"/>
+      <c r="UJ16" s="39"/>
+      <c r="UK16" s="39"/>
+      <c r="UL16" s="39"/>
+      <c r="UM16" s="39"/>
+      <c r="UN16" s="39"/>
+      <c r="UO16" s="39"/>
+      <c r="UP16" s="39"/>
+      <c r="UQ16" s="39"/>
+      <c r="UR16" s="39"/>
+      <c r="US16" s="39"/>
+      <c r="UT16" s="39"/>
+      <c r="UU16" s="39"/>
+      <c r="UV16" s="39"/>
+      <c r="UW16" s="39"/>
+      <c r="UX16" s="39"/>
+      <c r="UY16" s="39"/>
+      <c r="UZ16" s="39"/>
+      <c r="VA16" s="39"/>
+      <c r="VB16" s="39"/>
+      <c r="VC16" s="39"/>
+      <c r="VD16" s="39"/>
+      <c r="VE16" s="39"/>
+      <c r="VF16" s="39"/>
+      <c r="VG16" s="39"/>
+      <c r="VH16" s="39"/>
+      <c r="VI16" s="39"/>
+      <c r="VJ16" s="39"/>
+      <c r="VK16" s="39"/>
+      <c r="VL16" s="39"/>
+      <c r="VM16" s="39"/>
+      <c r="VN16" s="39"/>
+      <c r="VO16" s="39"/>
+      <c r="VP16" s="39"/>
+      <c r="VQ16" s="39"/>
+      <c r="VR16" s="39"/>
+      <c r="VS16" s="39"/>
+      <c r="VT16" s="39"/>
+      <c r="VU16" s="39"/>
+      <c r="VV16" s="39"/>
+      <c r="VW16" s="39"/>
+      <c r="VX16" s="39"/>
+      <c r="VY16" s="39"/>
+      <c r="VZ16" s="39"/>
+      <c r="WA16" s="39"/>
+      <c r="WB16" s="39"/>
+      <c r="WC16" s="39"/>
+      <c r="WD16" s="39"/>
+      <c r="WE16" s="39"/>
+      <c r="WF16" s="39"/>
+      <c r="WG16" s="39"/>
+      <c r="WH16" s="39"/>
+      <c r="WI16" s="39"/>
+      <c r="WJ16" s="39"/>
+      <c r="WK16" s="39"/>
+      <c r="WL16" s="39"/>
+      <c r="WM16" s="39"/>
+      <c r="WN16" s="39"/>
+      <c r="WO16" s="39"/>
+      <c r="WP16" s="39"/>
+      <c r="WQ16" s="39"/>
+      <c r="WR16" s="39"/>
+      <c r="WS16" s="39"/>
+      <c r="WT16" s="39"/>
+      <c r="WU16" s="39"/>
+      <c r="WV16" s="39"/>
+      <c r="WW16" s="39"/>
+      <c r="WX16" s="39"/>
+      <c r="WY16" s="39"/>
+      <c r="WZ16" s="39"/>
+      <c r="XA16" s="39"/>
+      <c r="XB16" s="39"/>
+      <c r="XC16" s="39"/>
+      <c r="XD16" s="39"/>
+      <c r="XE16" s="39"/>
+      <c r="XF16" s="39"/>
+      <c r="XG16" s="39"/>
+      <c r="XH16" s="39"/>
+      <c r="XI16" s="39"/>
+      <c r="XJ16" s="39"/>
+      <c r="XK16" s="39"/>
+      <c r="XL16" s="39"/>
+      <c r="XM16" s="39"/>
+      <c r="XN16" s="39"/>
+      <c r="XO16" s="39"/>
+      <c r="XP16" s="39"/>
+      <c r="XQ16" s="39"/>
+      <c r="XR16" s="39"/>
+      <c r="XS16" s="39"/>
+      <c r="XT16" s="39"/>
+      <c r="XU16" s="39"/>
+      <c r="XV16" s="39"/>
+      <c r="XW16" s="39"/>
+      <c r="XX16" s="39"/>
+      <c r="XY16" s="39"/>
+      <c r="XZ16" s="39"/>
+      <c r="YA16" s="39"/>
+      <c r="YB16" s="39"/>
+      <c r="YC16" s="39"/>
+      <c r="YD16" s="39"/>
+      <c r="YE16" s="39"/>
+      <c r="YF16" s="39"/>
+      <c r="YG16" s="39"/>
+      <c r="YH16" s="39"/>
+      <c r="YI16" s="39"/>
+      <c r="YJ16" s="39"/>
+      <c r="YK16" s="39"/>
+      <c r="YL16" s="39"/>
+      <c r="YM16" s="39"/>
+      <c r="YN16" s="39"/>
+      <c r="YO16" s="39"/>
+      <c r="YP16" s="39"/>
+      <c r="YQ16" s="39"/>
+      <c r="YR16" s="39"/>
+      <c r="YS16" s="39"/>
+      <c r="YT16" s="39"/>
+      <c r="YU16" s="39"/>
+      <c r="YV16" s="39"/>
+      <c r="YW16" s="39"/>
+      <c r="YX16" s="39"/>
+      <c r="YY16" s="39"/>
+      <c r="YZ16" s="39"/>
+      <c r="ZA16" s="39"/>
+      <c r="ZB16" s="39"/>
+      <c r="ZC16" s="39"/>
+      <c r="ZD16" s="39"/>
+      <c r="ZE16" s="39"/>
+      <c r="ZF16" s="39"/>
+      <c r="ZG16" s="39"/>
+      <c r="ZH16" s="39"/>
+      <c r="ZI16" s="39"/>
+      <c r="ZJ16" s="39"/>
+      <c r="ZK16" s="39"/>
+      <c r="ZL16" s="39"/>
+      <c r="ZM16" s="39"/>
+      <c r="ZN16" s="39"/>
+      <c r="ZO16" s="39"/>
+      <c r="ZP16" s="39"/>
+      <c r="ZQ16" s="39"/>
+      <c r="ZR16" s="39"/>
+      <c r="ZS16" s="39"/>
+      <c r="ZT16" s="39"/>
+      <c r="ZU16" s="39"/>
+      <c r="ZV16" s="39"/>
+      <c r="ZW16" s="39"/>
+      <c r="ZX16" s="39"/>
+      <c r="ZY16" s="39"/>
+      <c r="ZZ16" s="39"/>
+      <c r="AAA16" s="39"/>
+      <c r="AAB16" s="39"/>
+      <c r="AAC16" s="39"/>
+      <c r="AAD16" s="39"/>
+      <c r="AAE16" s="39"/>
+      <c r="AAF16" s="39"/>
+      <c r="AAG16" s="39"/>
+      <c r="AAH16" s="39"/>
+      <c r="AAI16" s="39"/>
+      <c r="AAJ16" s="39"/>
+      <c r="AAK16" s="39"/>
+      <c r="AAL16" s="39"/>
+      <c r="AAM16" s="39"/>
+      <c r="AAN16" s="39"/>
+      <c r="AAO16" s="39"/>
+      <c r="AAP16" s="39"/>
+      <c r="AAQ16" s="39"/>
+      <c r="AAR16" s="39"/>
+      <c r="AAS16" s="39"/>
+      <c r="AAT16" s="39"/>
+      <c r="AAU16" s="39"/>
+      <c r="AAV16" s="39"/>
+      <c r="AAW16" s="39"/>
+      <c r="AAX16" s="39"/>
+      <c r="AAY16" s="39"/>
+      <c r="AAZ16" s="39"/>
+      <c r="ABA16" s="39"/>
+      <c r="ABB16" s="39"/>
+      <c r="ABC16" s="39"/>
+      <c r="ABD16" s="39"/>
+      <c r="ABE16" s="39"/>
+      <c r="ABF16" s="39"/>
+      <c r="ABG16" s="39"/>
+      <c r="ABH16" s="39"/>
+      <c r="ABI16" s="39"/>
+      <c r="ABJ16" s="39"/>
+      <c r="ABK16" s="39"/>
+      <c r="ABL16" s="39"/>
+      <c r="ABM16" s="39"/>
+      <c r="ABN16" s="39"/>
+      <c r="ABO16" s="39"/>
+      <c r="ABP16" s="39"/>
+      <c r="ABQ16" s="39"/>
+      <c r="ABR16" s="39"/>
+      <c r="ABS16" s="39"/>
+      <c r="ABT16" s="39"/>
+      <c r="ABU16" s="39"/>
+      <c r="ABV16" s="39"/>
+      <c r="ABW16" s="39"/>
+      <c r="ABX16" s="39"/>
+      <c r="ABY16" s="39"/>
+      <c r="ABZ16" s="39"/>
+      <c r="ACA16" s="39"/>
+      <c r="ACB16" s="39"/>
+      <c r="ACC16" s="39"/>
+      <c r="ACD16" s="39"/>
+      <c r="ACE16" s="39"/>
+      <c r="ACF16" s="39"/>
+      <c r="ACG16" s="39"/>
+      <c r="ACH16" s="39"/>
+      <c r="ACI16" s="39"/>
+      <c r="ACJ16" s="39"/>
+      <c r="ACK16" s="39"/>
+      <c r="ACL16" s="39"/>
+      <c r="ACM16" s="39"/>
+      <c r="ACN16" s="39"/>
+      <c r="ACO16" s="39"/>
+      <c r="ACP16" s="39"/>
+      <c r="ACQ16" s="39"/>
+      <c r="ACR16" s="39"/>
+      <c r="ACS16" s="39"/>
+      <c r="ACT16" s="39"/>
+      <c r="ACU16" s="39"/>
+      <c r="ACV16" s="39"/>
+      <c r="ACW16" s="39"/>
+      <c r="ACX16" s="39"/>
+      <c r="ACY16" s="39"/>
+      <c r="ACZ16" s="39"/>
+      <c r="ADA16" s="39"/>
+      <c r="ADB16" s="39"/>
+      <c r="ADC16" s="39"/>
+      <c r="ADD16" s="39"/>
+      <c r="ADE16" s="39"/>
+      <c r="ADF16" s="39"/>
+      <c r="ADG16" s="39"/>
+      <c r="ADH16" s="39"/>
+      <c r="ADI16" s="39"/>
+      <c r="ADJ16" s="39"/>
+      <c r="ADK16" s="39"/>
+      <c r="ADL16" s="39"/>
+      <c r="ADM16" s="39"/>
+      <c r="ADN16" s="39"/>
+      <c r="ADO16" s="39"/>
+      <c r="ADP16" s="39"/>
+      <c r="ADQ16" s="39"/>
+      <c r="ADR16" s="39"/>
+      <c r="ADS16" s="39"/>
+      <c r="ADT16" s="39"/>
+      <c r="ADU16" s="39"/>
+      <c r="ADV16" s="39"/>
+      <c r="ADW16" s="39"/>
+      <c r="ADX16" s="39"/>
+      <c r="ADY16" s="39"/>
+      <c r="ADZ16" s="39"/>
+      <c r="AEA16" s="39"/>
+      <c r="AEB16" s="39"/>
+      <c r="AEC16" s="39"/>
+      <c r="AED16" s="39"/>
+      <c r="AEE16" s="39"/>
+      <c r="AEF16" s="39"/>
+      <c r="AEG16" s="39"/>
+      <c r="AEH16" s="39"/>
+      <c r="AEI16" s="39"/>
+      <c r="AEJ16" s="39"/>
+      <c r="AEK16" s="39"/>
+      <c r="AEL16" s="39"/>
+      <c r="AEM16" s="39"/>
+      <c r="AEN16" s="39"/>
+      <c r="AEO16" s="39"/>
+      <c r="AEP16" s="39"/>
+      <c r="AEQ16" s="39"/>
+      <c r="AER16" s="39"/>
+      <c r="AES16" s="39"/>
+      <c r="AET16" s="39"/>
+      <c r="AEU16" s="39"/>
+      <c r="AEV16" s="39"/>
+      <c r="AEW16" s="39"/>
+      <c r="AEX16" s="39"/>
+      <c r="AEY16" s="39"/>
+      <c r="AEZ16" s="39"/>
+      <c r="AFA16" s="39"/>
+      <c r="AFB16" s="39"/>
+      <c r="AFC16" s="39"/>
+      <c r="AFD16" s="39"/>
+      <c r="AFE16" s="39"/>
+      <c r="AFF16" s="39"/>
+      <c r="AFG16" s="39"/>
+      <c r="AFH16" s="39"/>
+      <c r="AFI16" s="39"/>
+      <c r="AFJ16" s="39"/>
+      <c r="AFK16" s="39"/>
+      <c r="AFL16" s="39"/>
+      <c r="AFM16" s="39"/>
+      <c r="AFN16" s="39"/>
+      <c r="AFO16" s="39"/>
+      <c r="AFP16" s="39"/>
+      <c r="AFQ16" s="39"/>
+      <c r="AFR16" s="39"/>
+      <c r="AFS16" s="39"/>
+      <c r="AFT16" s="39"/>
+      <c r="AFU16" s="39"/>
+      <c r="AFV16" s="39"/>
+      <c r="AFW16" s="39"/>
+      <c r="AFX16" s="39"/>
+      <c r="AFY16" s="39"/>
+      <c r="AFZ16" s="39"/>
+      <c r="AGA16" s="39"/>
+      <c r="AGB16" s="39"/>
+      <c r="AGC16" s="39"/>
+      <c r="AGD16" s="39"/>
+      <c r="AGE16" s="39"/>
+      <c r="AGF16" s="39"/>
+      <c r="AGG16" s="39"/>
+      <c r="AGH16" s="39"/>
+      <c r="AGI16" s="39"/>
+      <c r="AGJ16" s="39"/>
+      <c r="AGK16" s="39"/>
+      <c r="AGL16" s="39"/>
+      <c r="AGM16" s="39"/>
+      <c r="AGN16" s="39"/>
+      <c r="AGO16" s="39"/>
+      <c r="AGP16" s="39"/>
+      <c r="AGQ16" s="39"/>
+      <c r="AGR16" s="39"/>
+      <c r="AGS16" s="39"/>
+      <c r="AGT16" s="39"/>
+      <c r="AGU16" s="39"/>
+      <c r="AGV16" s="39"/>
+      <c r="AGW16" s="39"/>
+      <c r="AGX16" s="39"/>
+      <c r="AGY16" s="39"/>
+      <c r="AGZ16" s="39"/>
+      <c r="AHA16" s="39"/>
+      <c r="AHB16" s="39"/>
+      <c r="AHC16" s="39"/>
+      <c r="AHD16" s="39"/>
+      <c r="AHE16" s="39"/>
+      <c r="AHF16" s="39"/>
+      <c r="AHG16" s="39"/>
+      <c r="AHH16" s="39"/>
+      <c r="AHI16" s="39"/>
+      <c r="AHJ16" s="39"/>
+      <c r="AHK16" s="39"/>
+      <c r="AHL16" s="39"/>
+      <c r="AHM16" s="39"/>
+      <c r="AHN16" s="39"/>
+      <c r="AHO16" s="39"/>
+      <c r="AHP16" s="39"/>
+      <c r="AHQ16" s="39"/>
+      <c r="AHR16" s="39"/>
+      <c r="AHS16" s="39"/>
+      <c r="AHT16" s="39"/>
+      <c r="AHU16" s="39"/>
+      <c r="AHV16" s="39"/>
+      <c r="AHW16" s="39"/>
+      <c r="AHX16" s="39"/>
+      <c r="AHY16" s="39"/>
+      <c r="AHZ16" s="39"/>
+      <c r="AIA16" s="39"/>
+      <c r="AIB16" s="39"/>
+      <c r="AIC16" s="39"/>
+      <c r="AID16" s="39"/>
+      <c r="AIE16" s="39"/>
+      <c r="AIF16" s="39"/>
+      <c r="AIG16" s="39"/>
+      <c r="AIH16" s="39"/>
+      <c r="AII16" s="39"/>
+      <c r="AIJ16" s="39"/>
+      <c r="AIK16" s="39"/>
+      <c r="AIL16" s="39"/>
+      <c r="AIM16" s="39"/>
+      <c r="AIN16" s="39"/>
+      <c r="AIO16" s="39"/>
+      <c r="AIP16" s="39"/>
+      <c r="AIQ16" s="39"/>
+      <c r="AIR16" s="39"/>
+      <c r="AIS16" s="39"/>
+      <c r="AIT16" s="39"/>
+      <c r="AIU16" s="39"/>
+      <c r="AIV16" s="39"/>
+      <c r="AIW16" s="39"/>
+      <c r="AIX16" s="39"/>
+      <c r="AIY16" s="39"/>
+      <c r="AIZ16" s="39"/>
+      <c r="AJA16" s="39"/>
+      <c r="AJB16" s="39"/>
+      <c r="AJC16" s="39"/>
+      <c r="AJD16" s="39"/>
+      <c r="AJE16" s="39"/>
+      <c r="AJF16" s="39"/>
+      <c r="AJG16" s="39"/>
+      <c r="AJH16" s="39"/>
+      <c r="AJI16" s="39"/>
+      <c r="AJJ16" s="39"/>
+      <c r="AJK16" s="39"/>
+      <c r="AJL16" s="39"/>
+      <c r="AJM16" s="39"/>
+      <c r="AJN16" s="39"/>
+      <c r="AJO16" s="39"/>
+      <c r="AJP16" s="39"/>
+      <c r="AJQ16" s="39"/>
+      <c r="AJR16" s="39"/>
+      <c r="AJS16" s="39"/>
+      <c r="AJT16" s="39"/>
+      <c r="AJU16" s="39"/>
+      <c r="AJV16" s="39"/>
+      <c r="AJW16" s="39"/>
+      <c r="AJX16" s="39"/>
+      <c r="AJY16" s="39"/>
+      <c r="AJZ16" s="39"/>
+      <c r="AKA16" s="39"/>
+      <c r="AKB16" s="39"/>
+      <c r="AKC16" s="39"/>
+      <c r="AKD16" s="39"/>
+      <c r="AKE16" s="39"/>
+      <c r="AKF16" s="39"/>
+      <c r="AKG16" s="39"/>
+      <c r="AKH16" s="39"/>
+      <c r="AKI16" s="39"/>
+      <c r="AKJ16" s="39"/>
+      <c r="AKK16" s="39"/>
+      <c r="AKL16" s="39"/>
+      <c r="AKM16" s="39"/>
+      <c r="AKN16" s="39"/>
+      <c r="AKO16" s="39"/>
+      <c r="AKP16" s="39"/>
+      <c r="AKQ16" s="39"/>
+      <c r="AKR16" s="39"/>
+      <c r="AKS16" s="39"/>
+      <c r="AKT16" s="39"/>
+      <c r="AKU16" s="39"/>
+      <c r="AKV16" s="39"/>
+      <c r="AKW16" s="39"/>
+      <c r="AKX16" s="39"/>
+      <c r="AKY16" s="39"/>
+      <c r="AKZ16" s="39"/>
+      <c r="ALA16" s="39"/>
+      <c r="ALB16" s="39"/>
+      <c r="ALC16" s="39"/>
+      <c r="ALD16" s="39"/>
+      <c r="ALE16" s="39"/>
+      <c r="ALF16" s="39"/>
+      <c r="ALG16" s="39"/>
+      <c r="ALH16" s="39"/>
+      <c r="ALI16" s="39"/>
+      <c r="ALJ16" s="39"/>
+      <c r="ALK16" s="39"/>
+      <c r="ALL16" s="39"/>
+      <c r="ALM16" s="39"/>
+      <c r="ALN16" s="39"/>
+      <c r="ALO16" s="39"/>
+      <c r="ALP16" s="39"/>
+      <c r="ALQ16" s="39"/>
+      <c r="ALR16" s="39"/>
+      <c r="ALS16" s="39"/>
+      <c r="ALT16" s="39"/>
+      <c r="ALU16" s="39"/>
+      <c r="ALV16" s="39"/>
+      <c r="ALW16" s="39"/>
+      <c r="ALX16" s="39"/>
+      <c r="ALY16" s="39"/>
+      <c r="ALZ16" s="39"/>
+      <c r="AMA16" s="39"/>
+      <c r="AMB16" s="39"/>
+      <c r="AMC16" s="39"/>
+      <c r="AMD16" s="39"/>
+      <c r="AME16" s="39"/>
+      <c r="AMF16" s="39"/>
+      <c r="AMG16" s="39"/>
+      <c r="AMH16" s="39"/>
+      <c r="AMI16" s="39"/>
+      <c r="AMJ16" s="39"/>
+    </row>
+    <row r="17" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="253"/>
+      <c r="B17" s="113" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="114"/>
+      <c r="D17" s="113" t="s">
+        <v>224</v>
+      </c>
+      <c r="E17" s="114" t="s">
         <v>534</v>
       </c>
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="207"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="AMJ16" s="5"/>
+      <c r="F17" s="113" t="s">
+        <v>333</v>
+      </c>
+      <c r="G17" s="206" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="129"/>
     </row>
-    <row r="17" spans="1:1024" s="16" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="250"/>
-      <c r="B17" s="108" t="s">
+    <row r="18" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="253"/>
+      <c r="B18" s="113" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="114"/>
+      <c r="D18" s="113" t="s">
+        <v>224</v>
+      </c>
+      <c r="E18" s="114" t="s">
+        <v>487</v>
+      </c>
+      <c r="F18" s="113" t="s">
+        <v>334</v>
+      </c>
+      <c r="G18" s="206" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="129"/>
+    </row>
+    <row r="19" spans="1:1024" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="252"/>
+      <c r="B19" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="117"/>
+      <c r="D19" s="116" t="s">
+        <v>330</v>
+      </c>
+      <c r="E19" s="117" t="s">
+        <v>490</v>
+      </c>
+      <c r="F19" s="116" t="s">
+        <v>335</v>
+      </c>
+      <c r="G19" s="201" t="s">
         <v>336</v>
       </c>
-      <c r="C17" s="109"/>
-      <c r="D17" s="108" t="s">
+      <c r="H19" s="130"/>
+    </row>
+    <row r="20" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="248" t="s">
         <v>337</v>
       </c>
-      <c r="E17" s="109" t="s">
-        <v>511</v>
-      </c>
-      <c r="F17" s="108" t="s">
+      <c r="B20" s="121"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="207"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="AMJ20" s="5"/>
+    </row>
+    <row r="21" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="249"/>
+      <c r="B21" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="106"/>
+      <c r="D21" s="105" t="s">
+        <v>211</v>
+      </c>
+      <c r="E21" s="106" t="s">
+        <v>502</v>
+      </c>
+      <c r="F21" s="105" t="s">
         <v>338</v>
       </c>
-      <c r="G17" s="198" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="127"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="17"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="17"/>
-      <c r="AK17" s="17"/>
-      <c r="AL17" s="17"/>
-      <c r="AM17" s="17"/>
-      <c r="AN17" s="17"/>
-      <c r="AO17" s="17"/>
-      <c r="AP17" s="17"/>
-      <c r="AQ17" s="17"/>
-      <c r="AR17" s="17"/>
-      <c r="AS17" s="17"/>
-      <c r="AT17" s="17"/>
-      <c r="AU17" s="17"/>
-      <c r="AV17" s="17"/>
-      <c r="AW17" s="17"/>
-      <c r="AX17" s="17"/>
-      <c r="AY17" s="17"/>
-      <c r="AZ17" s="17"/>
-      <c r="BA17" s="17"/>
-      <c r="BB17" s="17"/>
-      <c r="BC17" s="17"/>
-      <c r="BD17" s="17"/>
-      <c r="BE17" s="17"/>
-      <c r="BF17" s="17"/>
-      <c r="BG17" s="17"/>
-      <c r="BH17" s="17"/>
-      <c r="BI17" s="17"/>
-      <c r="BJ17" s="17"/>
-      <c r="BK17" s="17"/>
-      <c r="BL17" s="17"/>
-      <c r="BM17" s="17"/>
-      <c r="BN17" s="17"/>
-      <c r="BO17" s="17"/>
-      <c r="BP17" s="17"/>
-      <c r="BQ17" s="17"/>
-      <c r="BR17" s="17"/>
-      <c r="BS17" s="17"/>
-      <c r="BT17" s="17"/>
-      <c r="BU17" s="17"/>
-      <c r="BV17" s="17"/>
-      <c r="BW17" s="17"/>
-      <c r="BX17" s="17"/>
-      <c r="BY17" s="17"/>
-      <c r="BZ17" s="17"/>
-      <c r="CA17" s="17"/>
-      <c r="CB17" s="17"/>
-      <c r="CC17" s="17"/>
-      <c r="CD17" s="17"/>
-      <c r="CE17" s="17"/>
-      <c r="CF17" s="17"/>
-      <c r="CG17" s="17"/>
-      <c r="CH17" s="17"/>
-      <c r="CI17" s="17"/>
-      <c r="CJ17" s="17"/>
-      <c r="CK17" s="17"/>
-      <c r="CL17" s="17"/>
-      <c r="CM17" s="17"/>
-      <c r="CN17" s="17"/>
-      <c r="CO17" s="17"/>
-      <c r="CP17" s="17"/>
-      <c r="CQ17" s="17"/>
-      <c r="CR17" s="17"/>
-      <c r="CS17" s="17"/>
-      <c r="CT17" s="17"/>
-      <c r="CU17" s="17"/>
-      <c r="CV17" s="17"/>
-      <c r="CW17" s="17"/>
-      <c r="CX17" s="17"/>
-      <c r="CY17" s="17"/>
-      <c r="CZ17" s="17"/>
-      <c r="DA17" s="17"/>
-      <c r="DB17" s="17"/>
-      <c r="DC17" s="17"/>
-      <c r="DD17" s="17"/>
-      <c r="DE17" s="17"/>
-      <c r="DF17" s="17"/>
-      <c r="DG17" s="17"/>
-      <c r="DH17" s="17"/>
-      <c r="DI17" s="17"/>
-      <c r="DJ17" s="17"/>
-      <c r="DK17" s="17"/>
-      <c r="DL17" s="17"/>
-      <c r="DM17" s="17"/>
-      <c r="DN17" s="17"/>
-      <c r="DO17" s="17"/>
-      <c r="DP17" s="17"/>
-      <c r="DQ17" s="17"/>
-      <c r="DR17" s="17"/>
-      <c r="DS17" s="17"/>
-      <c r="DT17" s="17"/>
-      <c r="DU17" s="17"/>
-      <c r="DV17" s="17"/>
-      <c r="DW17" s="17"/>
-      <c r="DX17" s="17"/>
-      <c r="DY17" s="17"/>
-      <c r="DZ17" s="17"/>
-      <c r="EA17" s="17"/>
-      <c r="EB17" s="17"/>
-      <c r="EC17" s="17"/>
-      <c r="ED17" s="17"/>
-      <c r="EE17" s="17"/>
-      <c r="EF17" s="17"/>
-      <c r="EG17" s="17"/>
-      <c r="EH17" s="17"/>
-      <c r="EI17" s="17"/>
-      <c r="EJ17" s="17"/>
-      <c r="EK17" s="17"/>
-      <c r="EL17" s="17"/>
-      <c r="EM17" s="17"/>
-      <c r="EN17" s="17"/>
-      <c r="EO17" s="17"/>
-      <c r="EP17" s="17"/>
-      <c r="EQ17" s="17"/>
-      <c r="ER17" s="17"/>
-      <c r="ES17" s="17"/>
-      <c r="ET17" s="17"/>
-      <c r="EU17" s="17"/>
-      <c r="EV17" s="17"/>
-      <c r="EW17" s="17"/>
-      <c r="EX17" s="17"/>
-      <c r="EY17" s="17"/>
-      <c r="EZ17" s="17"/>
-      <c r="FA17" s="17"/>
-      <c r="FB17" s="17"/>
-      <c r="FC17" s="17"/>
-      <c r="FD17" s="17"/>
-      <c r="FE17" s="17"/>
-      <c r="FF17" s="17"/>
-      <c r="FG17" s="17"/>
-      <c r="FH17" s="17"/>
-      <c r="FI17" s="17"/>
-      <c r="FJ17" s="17"/>
-      <c r="FK17" s="17"/>
-      <c r="FL17" s="17"/>
-      <c r="FM17" s="17"/>
-      <c r="FN17" s="17"/>
-      <c r="FO17" s="17"/>
-      <c r="FP17" s="17"/>
-      <c r="FQ17" s="17"/>
-      <c r="FR17" s="17"/>
-      <c r="FS17" s="17"/>
-      <c r="FT17" s="17"/>
-      <c r="FU17" s="17"/>
-      <c r="FV17" s="17"/>
-      <c r="FW17" s="17"/>
-      <c r="FX17" s="17"/>
-      <c r="FY17" s="17"/>
-      <c r="FZ17" s="17"/>
-      <c r="GA17" s="17"/>
-      <c r="GB17" s="17"/>
-      <c r="GC17" s="17"/>
-      <c r="GD17" s="17"/>
-      <c r="GE17" s="17"/>
-      <c r="GF17" s="17"/>
-      <c r="GG17" s="17"/>
-      <c r="GH17" s="17"/>
-      <c r="GI17" s="17"/>
-      <c r="GJ17" s="17"/>
-      <c r="GK17" s="17"/>
-      <c r="GL17" s="17"/>
-      <c r="GM17" s="17"/>
-      <c r="GN17" s="17"/>
-      <c r="GO17" s="17"/>
-      <c r="GP17" s="17"/>
-      <c r="GQ17" s="17"/>
-      <c r="GR17" s="17"/>
-      <c r="GS17" s="17"/>
-      <c r="GT17" s="17"/>
-      <c r="GU17" s="17"/>
-      <c r="GV17" s="17"/>
-      <c r="GW17" s="17"/>
-      <c r="GX17" s="17"/>
-      <c r="GY17" s="17"/>
-      <c r="GZ17" s="17"/>
-      <c r="HA17" s="17"/>
-      <c r="HB17" s="17"/>
-      <c r="HC17" s="17"/>
-      <c r="HD17" s="17"/>
-      <c r="HE17" s="17"/>
-      <c r="HF17" s="17"/>
-      <c r="HG17" s="17"/>
-      <c r="HH17" s="17"/>
-      <c r="HI17" s="17"/>
-      <c r="HJ17" s="17"/>
-      <c r="HK17" s="17"/>
-      <c r="HL17" s="17"/>
-      <c r="HM17" s="17"/>
-      <c r="HN17" s="17"/>
-      <c r="HO17" s="17"/>
-      <c r="HP17" s="17"/>
-      <c r="HQ17" s="17"/>
-      <c r="HR17" s="17"/>
-      <c r="HS17" s="17"/>
-      <c r="HT17" s="17"/>
-      <c r="HU17" s="17"/>
-      <c r="HV17" s="17"/>
-      <c r="HW17" s="17"/>
-      <c r="HX17" s="17"/>
-      <c r="HY17" s="17"/>
-      <c r="HZ17" s="17"/>
-      <c r="IA17" s="17"/>
-      <c r="IB17" s="17"/>
-      <c r="IC17" s="17"/>
-      <c r="ID17" s="17"/>
-      <c r="IE17" s="17"/>
-      <c r="IF17" s="17"/>
-      <c r="IG17" s="17"/>
-      <c r="IH17" s="17"/>
-      <c r="II17" s="17"/>
-      <c r="IJ17" s="17"/>
-      <c r="IK17" s="17"/>
-      <c r="IL17" s="17"/>
-      <c r="IM17" s="17"/>
-      <c r="IN17" s="17"/>
-      <c r="IO17" s="17"/>
-      <c r="IP17" s="17"/>
-      <c r="IQ17" s="17"/>
-      <c r="IR17" s="17"/>
-      <c r="IS17" s="17"/>
-      <c r="IT17" s="17"/>
-      <c r="IU17" s="17"/>
-      <c r="IV17" s="17"/>
-      <c r="IW17" s="17"/>
-      <c r="IX17" s="17"/>
-      <c r="IY17" s="17"/>
-      <c r="IZ17" s="17"/>
-      <c r="JA17" s="17"/>
-      <c r="JB17" s="17"/>
-      <c r="JC17" s="17"/>
-      <c r="JD17" s="17"/>
-      <c r="JE17" s="17"/>
-      <c r="JF17" s="17"/>
-      <c r="JG17" s="17"/>
-      <c r="JH17" s="17"/>
-      <c r="JI17" s="17"/>
-      <c r="JJ17" s="17"/>
-      <c r="JK17" s="17"/>
-      <c r="JL17" s="17"/>
-      <c r="JM17" s="17"/>
-      <c r="JN17" s="17"/>
-      <c r="JO17" s="17"/>
-      <c r="JP17" s="17"/>
-      <c r="JQ17" s="17"/>
-      <c r="JR17" s="17"/>
-      <c r="JS17" s="17"/>
-      <c r="JT17" s="17"/>
-      <c r="JU17" s="17"/>
-      <c r="JV17" s="17"/>
-      <c r="JW17" s="17"/>
-      <c r="JX17" s="17"/>
-      <c r="JY17" s="17"/>
-      <c r="JZ17" s="17"/>
-      <c r="KA17" s="17"/>
-      <c r="KB17" s="17"/>
-      <c r="KC17" s="17"/>
-      <c r="KD17" s="17"/>
-      <c r="KE17" s="17"/>
-      <c r="KF17" s="17"/>
-      <c r="KG17" s="17"/>
-      <c r="KH17" s="17"/>
-      <c r="KI17" s="17"/>
-      <c r="KJ17" s="17"/>
-      <c r="KK17" s="17"/>
-      <c r="KL17" s="17"/>
-      <c r="KM17" s="17"/>
-      <c r="KN17" s="17"/>
-      <c r="KO17" s="17"/>
-      <c r="KP17" s="17"/>
-      <c r="KQ17" s="17"/>
-      <c r="KR17" s="17"/>
-      <c r="KS17" s="17"/>
-      <c r="KT17" s="17"/>
-      <c r="KU17" s="17"/>
-      <c r="KV17" s="17"/>
-      <c r="KW17" s="17"/>
-      <c r="KX17" s="17"/>
-      <c r="KY17" s="17"/>
-      <c r="KZ17" s="17"/>
-      <c r="LA17" s="17"/>
-      <c r="LB17" s="17"/>
-      <c r="LC17" s="17"/>
-      <c r="LD17" s="17"/>
-      <c r="LE17" s="17"/>
-      <c r="LF17" s="17"/>
-      <c r="LG17" s="17"/>
-      <c r="LH17" s="17"/>
-      <c r="LI17" s="17"/>
-      <c r="LJ17" s="17"/>
-      <c r="LK17" s="17"/>
-      <c r="LL17" s="17"/>
-      <c r="LM17" s="17"/>
-      <c r="LN17" s="17"/>
-      <c r="LO17" s="17"/>
-      <c r="LP17" s="17"/>
-      <c r="LQ17" s="17"/>
-      <c r="LR17" s="17"/>
-      <c r="LS17" s="17"/>
-      <c r="LT17" s="17"/>
-      <c r="LU17" s="17"/>
-      <c r="LV17" s="17"/>
-      <c r="LW17" s="17"/>
-      <c r="LX17" s="17"/>
-      <c r="LY17" s="17"/>
-      <c r="LZ17" s="17"/>
-      <c r="MA17" s="17"/>
-      <c r="MB17" s="17"/>
-      <c r="MC17" s="17"/>
-      <c r="MD17" s="17"/>
-      <c r="ME17" s="17"/>
-      <c r="MF17" s="17"/>
-      <c r="MG17" s="17"/>
-      <c r="MH17" s="17"/>
-      <c r="MI17" s="17"/>
-      <c r="MJ17" s="17"/>
-      <c r="MK17" s="17"/>
-      <c r="ML17" s="17"/>
-      <c r="MM17" s="17"/>
-      <c r="MN17" s="17"/>
-      <c r="MO17" s="17"/>
-      <c r="MP17" s="17"/>
-      <c r="MQ17" s="17"/>
-      <c r="MR17" s="17"/>
-      <c r="MS17" s="17"/>
-      <c r="MT17" s="17"/>
-      <c r="MU17" s="17"/>
-      <c r="MV17" s="17"/>
-      <c r="MW17" s="17"/>
-      <c r="MX17" s="17"/>
-      <c r="MY17" s="17"/>
-      <c r="MZ17" s="17"/>
-      <c r="NA17" s="17"/>
-      <c r="NB17" s="17"/>
-      <c r="NC17" s="17"/>
-      <c r="ND17" s="17"/>
-      <c r="NE17" s="17"/>
-      <c r="NF17" s="17"/>
-      <c r="NG17" s="17"/>
-      <c r="NH17" s="17"/>
-      <c r="NI17" s="17"/>
-      <c r="NJ17" s="17"/>
-      <c r="NK17" s="17"/>
-      <c r="NL17" s="17"/>
-      <c r="NM17" s="17"/>
-      <c r="NN17" s="17"/>
-      <c r="NO17" s="17"/>
-      <c r="NP17" s="17"/>
-      <c r="NQ17" s="17"/>
-      <c r="NR17" s="17"/>
-      <c r="NS17" s="17"/>
-      <c r="NT17" s="17"/>
-      <c r="NU17" s="17"/>
-      <c r="NV17" s="17"/>
-      <c r="NW17" s="17"/>
-      <c r="NX17" s="17"/>
-      <c r="NY17" s="17"/>
-      <c r="NZ17" s="17"/>
-      <c r="OA17" s="17"/>
-      <c r="OB17" s="17"/>
-      <c r="OC17" s="17"/>
-      <c r="OD17" s="17"/>
-      <c r="OE17" s="17"/>
-      <c r="OF17" s="17"/>
-      <c r="OG17" s="17"/>
-      <c r="OH17" s="17"/>
-      <c r="OI17" s="17"/>
-      <c r="OJ17" s="17"/>
-      <c r="OK17" s="17"/>
-      <c r="OL17" s="17"/>
-      <c r="OM17" s="17"/>
-      <c r="ON17" s="17"/>
-      <c r="OO17" s="17"/>
-      <c r="OP17" s="17"/>
-      <c r="OQ17" s="17"/>
-      <c r="OR17" s="17"/>
-      <c r="OS17" s="17"/>
-      <c r="OT17" s="17"/>
-      <c r="OU17" s="17"/>
-      <c r="OV17" s="17"/>
-      <c r="OW17" s="17"/>
-      <c r="OX17" s="17"/>
-      <c r="OY17" s="17"/>
-      <c r="OZ17" s="17"/>
-      <c r="PA17" s="17"/>
-      <c r="PB17" s="17"/>
-      <c r="PC17" s="17"/>
-      <c r="PD17" s="17"/>
-      <c r="PE17" s="17"/>
-      <c r="PF17" s="17"/>
-      <c r="PG17" s="17"/>
-      <c r="PH17" s="17"/>
-      <c r="PI17" s="17"/>
-      <c r="PJ17" s="17"/>
-      <c r="PK17" s="17"/>
-      <c r="PL17" s="17"/>
-      <c r="PM17" s="17"/>
-      <c r="PN17" s="17"/>
-      <c r="PO17" s="17"/>
-      <c r="PP17" s="17"/>
-      <c r="PQ17" s="17"/>
-      <c r="PR17" s="17"/>
-      <c r="PS17" s="17"/>
-      <c r="PT17" s="17"/>
-      <c r="PU17" s="17"/>
-      <c r="PV17" s="17"/>
-      <c r="PW17" s="17"/>
-      <c r="PX17" s="17"/>
-      <c r="PY17" s="17"/>
-      <c r="PZ17" s="17"/>
-      <c r="QA17" s="17"/>
-      <c r="QB17" s="17"/>
-      <c r="QC17" s="17"/>
-      <c r="QD17" s="17"/>
-      <c r="QE17" s="17"/>
-      <c r="QF17" s="17"/>
-      <c r="QG17" s="17"/>
-      <c r="QH17" s="17"/>
-      <c r="QI17" s="17"/>
-      <c r="QJ17" s="17"/>
-      <c r="QK17" s="17"/>
-      <c r="QL17" s="17"/>
-      <c r="QM17" s="17"/>
-      <c r="QN17" s="17"/>
-      <c r="QO17" s="17"/>
-      <c r="QP17" s="17"/>
-      <c r="QQ17" s="17"/>
-      <c r="QR17" s="17"/>
-      <c r="QS17" s="17"/>
-      <c r="QT17" s="17"/>
-      <c r="QU17" s="17"/>
-      <c r="QV17" s="17"/>
-      <c r="QW17" s="17"/>
-      <c r="QX17" s="17"/>
-      <c r="QY17" s="17"/>
-      <c r="QZ17" s="17"/>
-      <c r="RA17" s="17"/>
-      <c r="RB17" s="17"/>
-      <c r="RC17" s="17"/>
-      <c r="RD17" s="17"/>
-      <c r="RE17" s="17"/>
-      <c r="RF17" s="17"/>
-      <c r="RG17" s="17"/>
-      <c r="RH17" s="17"/>
-      <c r="RI17" s="17"/>
-      <c r="RJ17" s="17"/>
-      <c r="RK17" s="17"/>
-      <c r="RL17" s="17"/>
-      <c r="RM17" s="17"/>
-      <c r="RN17" s="17"/>
-      <c r="RO17" s="17"/>
-      <c r="RP17" s="17"/>
-      <c r="RQ17" s="17"/>
-      <c r="RR17" s="17"/>
-      <c r="RS17" s="17"/>
-      <c r="RT17" s="17"/>
-      <c r="RU17" s="17"/>
-      <c r="RV17" s="17"/>
-      <c r="RW17" s="17"/>
-      <c r="RX17" s="17"/>
-      <c r="RY17" s="17"/>
-      <c r="RZ17" s="17"/>
-      <c r="SA17" s="17"/>
-      <c r="SB17" s="17"/>
-      <c r="SC17" s="17"/>
-      <c r="SD17" s="17"/>
-      <c r="SE17" s="17"/>
-      <c r="SF17" s="17"/>
-      <c r="SG17" s="17"/>
-      <c r="SH17" s="17"/>
-      <c r="SI17" s="17"/>
-      <c r="SJ17" s="17"/>
-      <c r="SK17" s="17"/>
-      <c r="SL17" s="17"/>
-      <c r="SM17" s="17"/>
-      <c r="SN17" s="17"/>
-      <c r="SO17" s="17"/>
-      <c r="SP17" s="17"/>
-      <c r="SQ17" s="17"/>
-      <c r="SR17" s="17"/>
-      <c r="SS17" s="17"/>
-      <c r="ST17" s="17"/>
-      <c r="SU17" s="17"/>
-      <c r="SV17" s="17"/>
-      <c r="SW17" s="17"/>
-      <c r="SX17" s="17"/>
-      <c r="SY17" s="17"/>
-      <c r="SZ17" s="17"/>
-      <c r="TA17" s="17"/>
-      <c r="TB17" s="17"/>
-      <c r="TC17" s="17"/>
-      <c r="TD17" s="17"/>
-      <c r="TE17" s="17"/>
-      <c r="TF17" s="17"/>
-      <c r="TG17" s="17"/>
-      <c r="TH17" s="17"/>
-      <c r="TI17" s="17"/>
-      <c r="TJ17" s="17"/>
-      <c r="TK17" s="17"/>
-      <c r="TL17" s="17"/>
-      <c r="TM17" s="17"/>
-      <c r="TN17" s="17"/>
-      <c r="TO17" s="17"/>
-      <c r="TP17" s="17"/>
-      <c r="TQ17" s="17"/>
-      <c r="TR17" s="17"/>
-      <c r="TS17" s="17"/>
-      <c r="TT17" s="17"/>
-      <c r="TU17" s="17"/>
-      <c r="TV17" s="17"/>
-      <c r="TW17" s="17"/>
-      <c r="TX17" s="17"/>
-      <c r="TY17" s="17"/>
-      <c r="TZ17" s="17"/>
-      <c r="UA17" s="17"/>
-      <c r="UB17" s="17"/>
-      <c r="UC17" s="17"/>
-      <c r="UD17" s="17"/>
-      <c r="UE17" s="17"/>
-      <c r="UF17" s="17"/>
-      <c r="UG17" s="17"/>
-      <c r="UH17" s="17"/>
-      <c r="UI17" s="17"/>
-      <c r="UJ17" s="17"/>
-      <c r="UK17" s="17"/>
-      <c r="UL17" s="17"/>
-      <c r="UM17" s="17"/>
-      <c r="UN17" s="17"/>
-      <c r="UO17" s="17"/>
-      <c r="UP17" s="17"/>
-      <c r="UQ17" s="17"/>
-      <c r="UR17" s="17"/>
-      <c r="US17" s="17"/>
-      <c r="UT17" s="17"/>
-      <c r="UU17" s="17"/>
-      <c r="UV17" s="17"/>
-      <c r="UW17" s="17"/>
-      <c r="UX17" s="17"/>
-      <c r="UY17" s="17"/>
-      <c r="UZ17" s="17"/>
-      <c r="VA17" s="17"/>
-      <c r="VB17" s="17"/>
-      <c r="VC17" s="17"/>
-      <c r="VD17" s="17"/>
-      <c r="VE17" s="17"/>
-      <c r="VF17" s="17"/>
-      <c r="VG17" s="17"/>
-      <c r="VH17" s="17"/>
-      <c r="VI17" s="17"/>
-      <c r="VJ17" s="17"/>
-      <c r="VK17" s="17"/>
-      <c r="VL17" s="17"/>
-      <c r="VM17" s="17"/>
-      <c r="VN17" s="17"/>
-      <c r="VO17" s="17"/>
-      <c r="VP17" s="17"/>
-      <c r="VQ17" s="17"/>
-      <c r="VR17" s="17"/>
-      <c r="VS17" s="17"/>
-      <c r="VT17" s="17"/>
-      <c r="VU17" s="17"/>
-      <c r="VV17" s="17"/>
-      <c r="VW17" s="17"/>
-      <c r="VX17" s="17"/>
-      <c r="VY17" s="17"/>
-      <c r="VZ17" s="17"/>
-      <c r="WA17" s="17"/>
-      <c r="WB17" s="17"/>
-      <c r="WC17" s="17"/>
-      <c r="WD17" s="17"/>
-      <c r="WE17" s="17"/>
-      <c r="WF17" s="17"/>
-      <c r="WG17" s="17"/>
-      <c r="WH17" s="17"/>
-      <c r="WI17" s="17"/>
-      <c r="WJ17" s="17"/>
-      <c r="WK17" s="17"/>
-      <c r="WL17" s="17"/>
-      <c r="WM17" s="17"/>
-      <c r="WN17" s="17"/>
-      <c r="WO17" s="17"/>
-      <c r="WP17" s="17"/>
-      <c r="WQ17" s="17"/>
-      <c r="WR17" s="17"/>
-      <c r="WS17" s="17"/>
-      <c r="WT17" s="17"/>
-      <c r="WU17" s="17"/>
-      <c r="WV17" s="17"/>
-      <c r="WW17" s="17"/>
-      <c r="WX17" s="17"/>
-      <c r="WY17" s="17"/>
-      <c r="WZ17" s="17"/>
-      <c r="XA17" s="17"/>
-      <c r="XB17" s="17"/>
-      <c r="XC17" s="17"/>
-      <c r="XD17" s="17"/>
-      <c r="XE17" s="17"/>
-      <c r="XF17" s="17"/>
-      <c r="XG17" s="17"/>
-      <c r="XH17" s="17"/>
-      <c r="XI17" s="17"/>
-      <c r="XJ17" s="17"/>
-      <c r="XK17" s="17"/>
-      <c r="XL17" s="17"/>
-      <c r="XM17" s="17"/>
-      <c r="XN17" s="17"/>
-      <c r="XO17" s="17"/>
-      <c r="XP17" s="17"/>
-      <c r="XQ17" s="17"/>
-      <c r="XR17" s="17"/>
-      <c r="XS17" s="17"/>
-      <c r="XT17" s="17"/>
-      <c r="XU17" s="17"/>
-      <c r="XV17" s="17"/>
-      <c r="XW17" s="17"/>
-      <c r="XX17" s="17"/>
-      <c r="XY17" s="17"/>
-      <c r="XZ17" s="17"/>
-      <c r="YA17" s="17"/>
-      <c r="YB17" s="17"/>
-      <c r="YC17" s="17"/>
-      <c r="YD17" s="17"/>
-      <c r="YE17" s="17"/>
-      <c r="YF17" s="17"/>
-      <c r="YG17" s="17"/>
-      <c r="YH17" s="17"/>
-      <c r="YI17" s="17"/>
-      <c r="YJ17" s="17"/>
-      <c r="YK17" s="17"/>
-      <c r="YL17" s="17"/>
-      <c r="YM17" s="17"/>
-      <c r="YN17" s="17"/>
-      <c r="YO17" s="17"/>
-      <c r="YP17" s="17"/>
-      <c r="YQ17" s="17"/>
-      <c r="YR17" s="17"/>
-      <c r="YS17" s="17"/>
-      <c r="YT17" s="17"/>
-      <c r="YU17" s="17"/>
-      <c r="YV17" s="17"/>
-      <c r="YW17" s="17"/>
-      <c r="YX17" s="17"/>
-      <c r="YY17" s="17"/>
-      <c r="YZ17" s="17"/>
-      <c r="ZA17" s="17"/>
-      <c r="ZB17" s="17"/>
-      <c r="ZC17" s="17"/>
-      <c r="ZD17" s="17"/>
-      <c r="ZE17" s="17"/>
-      <c r="ZF17" s="17"/>
-      <c r="ZG17" s="17"/>
-      <c r="ZH17" s="17"/>
-      <c r="ZI17" s="17"/>
-      <c r="ZJ17" s="17"/>
-      <c r="ZK17" s="17"/>
-      <c r="ZL17" s="17"/>
-      <c r="ZM17" s="17"/>
-      <c r="ZN17" s="17"/>
-      <c r="ZO17" s="17"/>
-      <c r="ZP17" s="17"/>
-      <c r="ZQ17" s="17"/>
-      <c r="ZR17" s="17"/>
-      <c r="ZS17" s="17"/>
-      <c r="ZT17" s="17"/>
-      <c r="ZU17" s="17"/>
-      <c r="ZV17" s="17"/>
-      <c r="ZW17" s="17"/>
-      <c r="ZX17" s="17"/>
-      <c r="ZY17" s="17"/>
-      <c r="ZZ17" s="17"/>
-      <c r="AAA17" s="17"/>
-      <c r="AAB17" s="17"/>
-      <c r="AAC17" s="17"/>
-      <c r="AAD17" s="17"/>
-      <c r="AAE17" s="17"/>
-      <c r="AAF17" s="17"/>
-      <c r="AAG17" s="17"/>
-      <c r="AAH17" s="17"/>
-      <c r="AAI17" s="17"/>
-      <c r="AAJ17" s="17"/>
-      <c r="AAK17" s="17"/>
-      <c r="AAL17" s="17"/>
-      <c r="AAM17" s="17"/>
-      <c r="AAN17" s="17"/>
-      <c r="AAO17" s="17"/>
-      <c r="AAP17" s="17"/>
-      <c r="AAQ17" s="17"/>
-      <c r="AAR17" s="17"/>
-      <c r="AAS17" s="17"/>
-      <c r="AAT17" s="17"/>
-      <c r="AAU17" s="17"/>
-      <c r="AAV17" s="17"/>
-      <c r="AAW17" s="17"/>
-      <c r="AAX17" s="17"/>
-      <c r="AAY17" s="17"/>
-      <c r="AAZ17" s="17"/>
-      <c r="ABA17" s="17"/>
-      <c r="ABB17" s="17"/>
-      <c r="ABC17" s="17"/>
-      <c r="ABD17" s="17"/>
-      <c r="ABE17" s="17"/>
-      <c r="ABF17" s="17"/>
-      <c r="ABG17" s="17"/>
-      <c r="ABH17" s="17"/>
-      <c r="ABI17" s="17"/>
-      <c r="ABJ17" s="17"/>
-      <c r="ABK17" s="17"/>
-      <c r="ABL17" s="17"/>
-      <c r="ABM17" s="17"/>
-      <c r="ABN17" s="17"/>
-      <c r="ABO17" s="17"/>
-      <c r="ABP17" s="17"/>
-      <c r="ABQ17" s="17"/>
-      <c r="ABR17" s="17"/>
-      <c r="ABS17" s="17"/>
-      <c r="ABT17" s="17"/>
-      <c r="ABU17" s="17"/>
-      <c r="ABV17" s="17"/>
-      <c r="ABW17" s="17"/>
-      <c r="ABX17" s="17"/>
-      <c r="ABY17" s="17"/>
-      <c r="ABZ17" s="17"/>
-      <c r="ACA17" s="17"/>
-      <c r="ACB17" s="17"/>
-      <c r="ACC17" s="17"/>
-      <c r="ACD17" s="17"/>
-      <c r="ACE17" s="17"/>
-      <c r="ACF17" s="17"/>
-      <c r="ACG17" s="17"/>
-      <c r="ACH17" s="17"/>
-      <c r="ACI17" s="17"/>
-      <c r="ACJ17" s="17"/>
-      <c r="ACK17" s="17"/>
-      <c r="ACL17" s="17"/>
-      <c r="ACM17" s="17"/>
-      <c r="ACN17" s="17"/>
-      <c r="ACO17" s="17"/>
-      <c r="ACP17" s="17"/>
-      <c r="ACQ17" s="17"/>
-      <c r="ACR17" s="17"/>
-      <c r="ACS17" s="17"/>
-      <c r="ACT17" s="17"/>
-      <c r="ACU17" s="17"/>
-      <c r="ACV17" s="17"/>
-      <c r="ACW17" s="17"/>
-      <c r="ACX17" s="17"/>
-      <c r="ACY17" s="17"/>
-      <c r="ACZ17" s="17"/>
-      <c r="ADA17" s="17"/>
-      <c r="ADB17" s="17"/>
-      <c r="ADC17" s="17"/>
-      <c r="ADD17" s="17"/>
-      <c r="ADE17" s="17"/>
-      <c r="ADF17" s="17"/>
-      <c r="ADG17" s="17"/>
-      <c r="ADH17" s="17"/>
-      <c r="ADI17" s="17"/>
-      <c r="ADJ17" s="17"/>
-      <c r="ADK17" s="17"/>
-      <c r="ADL17" s="17"/>
-      <c r="ADM17" s="17"/>
-      <c r="ADN17" s="17"/>
-      <c r="ADO17" s="17"/>
-      <c r="ADP17" s="17"/>
-      <c r="ADQ17" s="17"/>
-      <c r="ADR17" s="17"/>
-      <c r="ADS17" s="17"/>
-      <c r="ADT17" s="17"/>
-      <c r="ADU17" s="17"/>
-      <c r="ADV17" s="17"/>
-      <c r="ADW17" s="17"/>
-      <c r="ADX17" s="17"/>
-      <c r="ADY17" s="17"/>
-      <c r="ADZ17" s="17"/>
-      <c r="AEA17" s="17"/>
-      <c r="AEB17" s="17"/>
-      <c r="AEC17" s="17"/>
-      <c r="AED17" s="17"/>
-      <c r="AEE17" s="17"/>
-      <c r="AEF17" s="17"/>
-      <c r="AEG17" s="17"/>
-      <c r="AEH17" s="17"/>
-      <c r="AEI17" s="17"/>
-      <c r="AEJ17" s="17"/>
-      <c r="AEK17" s="17"/>
-      <c r="AEL17" s="17"/>
-      <c r="AEM17" s="17"/>
-      <c r="AEN17" s="17"/>
-      <c r="AEO17" s="17"/>
-      <c r="AEP17" s="17"/>
-      <c r="AEQ17" s="17"/>
-      <c r="AER17" s="17"/>
-      <c r="AES17" s="17"/>
-      <c r="AET17" s="17"/>
-      <c r="AEU17" s="17"/>
-      <c r="AEV17" s="17"/>
-      <c r="AEW17" s="17"/>
-      <c r="AEX17" s="17"/>
-      <c r="AEY17" s="17"/>
-      <c r="AEZ17" s="17"/>
-      <c r="AFA17" s="17"/>
-      <c r="AFB17" s="17"/>
-      <c r="AFC17" s="17"/>
-      <c r="AFD17" s="17"/>
-      <c r="AFE17" s="17"/>
-      <c r="AFF17" s="17"/>
-      <c r="AFG17" s="17"/>
-      <c r="AFH17" s="17"/>
-      <c r="AFI17" s="17"/>
-      <c r="AFJ17" s="17"/>
-      <c r="AFK17" s="17"/>
-      <c r="AFL17" s="17"/>
-      <c r="AFM17" s="17"/>
-      <c r="AFN17" s="17"/>
-      <c r="AFO17" s="17"/>
-      <c r="AFP17" s="17"/>
-      <c r="AFQ17" s="17"/>
-      <c r="AFR17" s="17"/>
-      <c r="AFS17" s="17"/>
-      <c r="AFT17" s="17"/>
-      <c r="AFU17" s="17"/>
-      <c r="AFV17" s="17"/>
-      <c r="AFW17" s="17"/>
-      <c r="AFX17" s="17"/>
-      <c r="AFY17" s="17"/>
-      <c r="AFZ17" s="17"/>
-      <c r="AGA17" s="17"/>
-      <c r="AGB17" s="17"/>
-      <c r="AGC17" s="17"/>
-      <c r="AGD17" s="17"/>
-      <c r="AGE17" s="17"/>
-      <c r="AGF17" s="17"/>
-      <c r="AGG17" s="17"/>
-      <c r="AGH17" s="17"/>
-      <c r="AGI17" s="17"/>
-      <c r="AGJ17" s="17"/>
-      <c r="AGK17" s="17"/>
-      <c r="AGL17" s="17"/>
-      <c r="AGM17" s="17"/>
-      <c r="AGN17" s="17"/>
-      <c r="AGO17" s="17"/>
-      <c r="AGP17" s="17"/>
-      <c r="AGQ17" s="17"/>
-      <c r="AGR17" s="17"/>
-      <c r="AGS17" s="17"/>
-      <c r="AGT17" s="17"/>
-      <c r="AGU17" s="17"/>
-      <c r="AGV17" s="17"/>
-      <c r="AGW17" s="17"/>
-      <c r="AGX17" s="17"/>
-      <c r="AGY17" s="17"/>
-      <c r="AGZ17" s="17"/>
-      <c r="AHA17" s="17"/>
-      <c r="AHB17" s="17"/>
-      <c r="AHC17" s="17"/>
-      <c r="AHD17" s="17"/>
-      <c r="AHE17" s="17"/>
-      <c r="AHF17" s="17"/>
-      <c r="AHG17" s="17"/>
-      <c r="AHH17" s="17"/>
-      <c r="AHI17" s="17"/>
-      <c r="AHJ17" s="17"/>
-      <c r="AHK17" s="17"/>
-      <c r="AHL17" s="17"/>
-      <c r="AHM17" s="17"/>
-      <c r="AHN17" s="17"/>
-      <c r="AHO17" s="17"/>
-      <c r="AHP17" s="17"/>
-      <c r="AHQ17" s="17"/>
-      <c r="AHR17" s="17"/>
-      <c r="AHS17" s="17"/>
-      <c r="AHT17" s="17"/>
-      <c r="AHU17" s="17"/>
-      <c r="AHV17" s="17"/>
-      <c r="AHW17" s="17"/>
-      <c r="AHX17" s="17"/>
-      <c r="AHY17" s="17"/>
-      <c r="AHZ17" s="17"/>
-      <c r="AIA17" s="17"/>
-      <c r="AIB17" s="17"/>
-      <c r="AIC17" s="17"/>
-      <c r="AID17" s="17"/>
-      <c r="AIE17" s="17"/>
-      <c r="AIF17" s="17"/>
-      <c r="AIG17" s="17"/>
-      <c r="AIH17" s="17"/>
-      <c r="AII17" s="17"/>
-      <c r="AIJ17" s="17"/>
-      <c r="AIK17" s="17"/>
-      <c r="AIL17" s="17"/>
-      <c r="AIM17" s="17"/>
-      <c r="AIN17" s="17"/>
-      <c r="AIO17" s="17"/>
-      <c r="AIP17" s="17"/>
-      <c r="AIQ17" s="17"/>
-      <c r="AIR17" s="17"/>
-      <c r="AIS17" s="17"/>
-      <c r="AIT17" s="17"/>
-      <c r="AIU17" s="17"/>
-      <c r="AIV17" s="17"/>
-      <c r="AIW17" s="17"/>
-      <c r="AIX17" s="17"/>
-      <c r="AIY17" s="17"/>
-      <c r="AIZ17" s="17"/>
-      <c r="AJA17" s="17"/>
-      <c r="AJB17" s="17"/>
-      <c r="AJC17" s="17"/>
-      <c r="AJD17" s="17"/>
-      <c r="AJE17" s="17"/>
-      <c r="AJF17" s="17"/>
-      <c r="AJG17" s="17"/>
-      <c r="AJH17" s="17"/>
-      <c r="AJI17" s="17"/>
-      <c r="AJJ17" s="17"/>
-      <c r="AJK17" s="17"/>
-      <c r="AJL17" s="17"/>
-      <c r="AJM17" s="17"/>
-      <c r="AJN17" s="17"/>
-      <c r="AJO17" s="17"/>
-      <c r="AJP17" s="17"/>
-      <c r="AJQ17" s="17"/>
-      <c r="AJR17" s="17"/>
-      <c r="AJS17" s="17"/>
-      <c r="AJT17" s="17"/>
-      <c r="AJU17" s="17"/>
-      <c r="AJV17" s="17"/>
-      <c r="AJW17" s="17"/>
-      <c r="AJX17" s="17"/>
-      <c r="AJY17" s="17"/>
-      <c r="AJZ17" s="17"/>
-      <c r="AKA17" s="17"/>
-      <c r="AKB17" s="17"/>
-      <c r="AKC17" s="17"/>
-      <c r="AKD17" s="17"/>
-      <c r="AKE17" s="17"/>
-      <c r="AKF17" s="17"/>
-      <c r="AKG17" s="17"/>
-      <c r="AKH17" s="17"/>
-      <c r="AKI17" s="17"/>
-      <c r="AKJ17" s="17"/>
-      <c r="AKK17" s="17"/>
-      <c r="AKL17" s="17"/>
-      <c r="AKM17" s="17"/>
-      <c r="AKN17" s="17"/>
-      <c r="AKO17" s="17"/>
-      <c r="AKP17" s="17"/>
-      <c r="AKQ17" s="17"/>
-      <c r="AKR17" s="17"/>
-      <c r="AKS17" s="17"/>
-      <c r="AKT17" s="17"/>
-      <c r="AKU17" s="17"/>
-      <c r="AKV17" s="17"/>
-      <c r="AKW17" s="17"/>
-      <c r="AKX17" s="17"/>
-      <c r="AKY17" s="17"/>
-      <c r="AKZ17" s="17"/>
-      <c r="ALA17" s="17"/>
-      <c r="ALB17" s="17"/>
-      <c r="ALC17" s="17"/>
-      <c r="ALD17" s="17"/>
-      <c r="ALE17" s="17"/>
-      <c r="ALF17" s="17"/>
-      <c r="ALG17" s="17"/>
-      <c r="ALH17" s="17"/>
-      <c r="ALI17" s="17"/>
-      <c r="ALJ17" s="17"/>
-      <c r="ALK17" s="17"/>
-      <c r="ALL17" s="17"/>
-      <c r="ALM17" s="17"/>
-      <c r="ALN17" s="17"/>
-      <c r="ALO17" s="17"/>
-      <c r="ALP17" s="17"/>
-      <c r="ALQ17" s="17"/>
-      <c r="ALR17" s="17"/>
-      <c r="ALS17" s="17"/>
-      <c r="ALT17" s="17"/>
-      <c r="ALU17" s="17"/>
-      <c r="ALV17" s="17"/>
-      <c r="ALW17" s="17"/>
-      <c r="ALX17" s="17"/>
-      <c r="ALY17" s="17"/>
-      <c r="ALZ17" s="17"/>
-      <c r="AMA17" s="17"/>
-      <c r="AMB17" s="17"/>
-      <c r="AMC17" s="17"/>
-      <c r="AMD17" s="17"/>
-      <c r="AME17" s="17"/>
-      <c r="AMF17" s="17"/>
-      <c r="AMG17" s="17"/>
-      <c r="AMH17" s="17"/>
-      <c r="AMI17" s="17"/>
-      <c r="AMJ17" s="17"/>
+      <c r="G21" s="197" t="s">
+        <v>339</v>
+      </c>
+      <c r="H21" s="126"/>
     </row>
-    <row r="18" spans="1:1024" s="40" customFormat="1" ht="18.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="251" t="s">
-        <v>339</v>
-      </c>
-      <c r="B18" s="111"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="199"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="39"/>
-      <c r="AA18" s="39"/>
-      <c r="AB18" s="39"/>
-      <c r="AC18" s="39"/>
-      <c r="AD18" s="39"/>
-      <c r="AE18" s="39"/>
-      <c r="AF18" s="39"/>
-      <c r="AG18" s="39"/>
-      <c r="AH18" s="39"/>
-      <c r="AI18" s="39"/>
-      <c r="AJ18" s="39"/>
-      <c r="AK18" s="39"/>
-      <c r="AL18" s="39"/>
-      <c r="AM18" s="39"/>
-      <c r="AN18" s="39"/>
-      <c r="AO18" s="39"/>
-      <c r="AP18" s="39"/>
-      <c r="AQ18" s="39"/>
-      <c r="AR18" s="39"/>
-      <c r="AS18" s="39"/>
-      <c r="AT18" s="39"/>
-      <c r="AU18" s="39"/>
-      <c r="AV18" s="39"/>
-      <c r="AW18" s="39"/>
-      <c r="AX18" s="39"/>
-      <c r="AY18" s="39"/>
-      <c r="AZ18" s="39"/>
-      <c r="BA18" s="39"/>
-      <c r="BB18" s="39"/>
-      <c r="BC18" s="39"/>
-      <c r="BD18" s="39"/>
-      <c r="BE18" s="39"/>
-      <c r="BF18" s="39"/>
-      <c r="BG18" s="39"/>
-      <c r="BH18" s="39"/>
-      <c r="BI18" s="39"/>
-      <c r="BJ18" s="39"/>
-      <c r="BK18" s="39"/>
-      <c r="BL18" s="39"/>
-      <c r="BM18" s="39"/>
-      <c r="BN18" s="39"/>
-      <c r="BO18" s="39"/>
-      <c r="BP18" s="39"/>
-      <c r="BQ18" s="39"/>
-      <c r="BR18" s="39"/>
-      <c r="BS18" s="39"/>
-      <c r="BT18" s="39"/>
-      <c r="BU18" s="39"/>
-      <c r="BV18" s="39"/>
-      <c r="BW18" s="39"/>
-      <c r="BX18" s="39"/>
-      <c r="BY18" s="39"/>
-      <c r="BZ18" s="39"/>
-      <c r="CA18" s="39"/>
-      <c r="CB18" s="39"/>
-      <c r="CC18" s="39"/>
-      <c r="CD18" s="39"/>
-      <c r="CE18" s="39"/>
-      <c r="CF18" s="39"/>
-      <c r="CG18" s="39"/>
-      <c r="CH18" s="39"/>
-      <c r="CI18" s="39"/>
-      <c r="CJ18" s="39"/>
-      <c r="CK18" s="39"/>
-      <c r="CL18" s="39"/>
-      <c r="CM18" s="39"/>
-      <c r="CN18" s="39"/>
-      <c r="CO18" s="39"/>
-      <c r="CP18" s="39"/>
-      <c r="CQ18" s="39"/>
-      <c r="CR18" s="39"/>
-      <c r="CS18" s="39"/>
-      <c r="CT18" s="39"/>
-      <c r="CU18" s="39"/>
-      <c r="CV18" s="39"/>
-      <c r="CW18" s="39"/>
-      <c r="CX18" s="39"/>
-      <c r="CY18" s="39"/>
-      <c r="CZ18" s="39"/>
-      <c r="DA18" s="39"/>
-      <c r="DB18" s="39"/>
-      <c r="DC18" s="39"/>
-      <c r="DD18" s="39"/>
-      <c r="DE18" s="39"/>
-      <c r="DF18" s="39"/>
-      <c r="DG18" s="39"/>
-      <c r="DH18" s="39"/>
-      <c r="DI18" s="39"/>
-      <c r="DJ18" s="39"/>
-      <c r="DK18" s="39"/>
-      <c r="DL18" s="39"/>
-      <c r="DM18" s="39"/>
-      <c r="DN18" s="39"/>
-      <c r="DO18" s="39"/>
-      <c r="DP18" s="39"/>
-      <c r="DQ18" s="39"/>
-      <c r="DR18" s="39"/>
-      <c r="DS18" s="39"/>
-      <c r="DT18" s="39"/>
-      <c r="DU18" s="39"/>
-      <c r="DV18" s="39"/>
-      <c r="DW18" s="39"/>
-      <c r="DX18" s="39"/>
-      <c r="DY18" s="39"/>
-      <c r="DZ18" s="39"/>
-      <c r="EA18" s="39"/>
-      <c r="EB18" s="39"/>
-      <c r="EC18" s="39"/>
-      <c r="ED18" s="39"/>
-      <c r="EE18" s="39"/>
-      <c r="EF18" s="39"/>
-      <c r="EG18" s="39"/>
-      <c r="EH18" s="39"/>
-      <c r="EI18" s="39"/>
-      <c r="EJ18" s="39"/>
-      <c r="EK18" s="39"/>
-      <c r="EL18" s="39"/>
-      <c r="EM18" s="39"/>
-      <c r="EN18" s="39"/>
-      <c r="EO18" s="39"/>
-      <c r="EP18" s="39"/>
-      <c r="EQ18" s="39"/>
-      <c r="ER18" s="39"/>
-      <c r="ES18" s="39"/>
-      <c r="ET18" s="39"/>
-      <c r="EU18" s="39"/>
-      <c r="EV18" s="39"/>
-      <c r="EW18" s="39"/>
-      <c r="EX18" s="39"/>
-      <c r="EY18" s="39"/>
-      <c r="EZ18" s="39"/>
-      <c r="FA18" s="39"/>
-      <c r="FB18" s="39"/>
-      <c r="FC18" s="39"/>
-      <c r="FD18" s="39"/>
-      <c r="FE18" s="39"/>
-      <c r="FF18" s="39"/>
-      <c r="FG18" s="39"/>
-      <c r="FH18" s="39"/>
-      <c r="FI18" s="39"/>
-      <c r="FJ18" s="39"/>
-      <c r="FK18" s="39"/>
-      <c r="FL18" s="39"/>
-      <c r="FM18" s="39"/>
-      <c r="FN18" s="39"/>
-      <c r="FO18" s="39"/>
-      <c r="FP18" s="39"/>
-      <c r="FQ18" s="39"/>
-      <c r="FR18" s="39"/>
-      <c r="FS18" s="39"/>
-      <c r="FT18" s="39"/>
-      <c r="FU18" s="39"/>
-      <c r="FV18" s="39"/>
-      <c r="FW18" s="39"/>
-      <c r="FX18" s="39"/>
-      <c r="FY18" s="39"/>
-      <c r="FZ18" s="39"/>
-      <c r="GA18" s="39"/>
-      <c r="GB18" s="39"/>
-      <c r="GC18" s="39"/>
-      <c r="GD18" s="39"/>
-      <c r="GE18" s="39"/>
-      <c r="GF18" s="39"/>
-      <c r="GG18" s="39"/>
-      <c r="GH18" s="39"/>
-      <c r="GI18" s="39"/>
-      <c r="GJ18" s="39"/>
-      <c r="GK18" s="39"/>
-      <c r="GL18" s="39"/>
-      <c r="GM18" s="39"/>
-      <c r="GN18" s="39"/>
-      <c r="GO18" s="39"/>
-      <c r="GP18" s="39"/>
-      <c r="GQ18" s="39"/>
-      <c r="GR18" s="39"/>
-      <c r="GS18" s="39"/>
-      <c r="GT18" s="39"/>
-      <c r="GU18" s="39"/>
-      <c r="GV18" s="39"/>
-      <c r="GW18" s="39"/>
-      <c r="GX18" s="39"/>
-      <c r="GY18" s="39"/>
-      <c r="GZ18" s="39"/>
-      <c r="HA18" s="39"/>
-      <c r="HB18" s="39"/>
-      <c r="HC18" s="39"/>
-      <c r="HD18" s="39"/>
-      <c r="HE18" s="39"/>
-      <c r="HF18" s="39"/>
-      <c r="HG18" s="39"/>
-      <c r="HH18" s="39"/>
-      <c r="HI18" s="39"/>
-      <c r="HJ18" s="39"/>
-      <c r="HK18" s="39"/>
-      <c r="HL18" s="39"/>
-      <c r="HM18" s="39"/>
-      <c r="HN18" s="39"/>
-      <c r="HO18" s="39"/>
-      <c r="HP18" s="39"/>
-      <c r="HQ18" s="39"/>
-      <c r="HR18" s="39"/>
-      <c r="HS18" s="39"/>
-      <c r="HT18" s="39"/>
-      <c r="HU18" s="39"/>
-      <c r="HV18" s="39"/>
-      <c r="HW18" s="39"/>
-      <c r="HX18" s="39"/>
-      <c r="HY18" s="39"/>
-      <c r="HZ18" s="39"/>
-      <c r="IA18" s="39"/>
-      <c r="IB18" s="39"/>
-      <c r="IC18" s="39"/>
-      <c r="ID18" s="39"/>
-      <c r="IE18" s="39"/>
-      <c r="IF18" s="39"/>
-      <c r="IG18" s="39"/>
-      <c r="IH18" s="39"/>
-      <c r="II18" s="39"/>
-      <c r="IJ18" s="39"/>
-      <c r="IK18" s="39"/>
-      <c r="IL18" s="39"/>
-      <c r="IM18" s="39"/>
-      <c r="IN18" s="39"/>
-      <c r="IO18" s="39"/>
-      <c r="IP18" s="39"/>
-      <c r="IQ18" s="39"/>
-      <c r="IR18" s="39"/>
-      <c r="IS18" s="39"/>
-      <c r="IT18" s="39"/>
-      <c r="IU18" s="39"/>
-      <c r="IV18" s="39"/>
-      <c r="IW18" s="39"/>
-      <c r="IX18" s="39"/>
-      <c r="IY18" s="39"/>
-      <c r="IZ18" s="39"/>
-      <c r="JA18" s="39"/>
-      <c r="JB18" s="39"/>
-      <c r="JC18" s="39"/>
-      <c r="JD18" s="39"/>
-      <c r="JE18" s="39"/>
-      <c r="JF18" s="39"/>
-      <c r="JG18" s="39"/>
-      <c r="JH18" s="39"/>
-      <c r="JI18" s="39"/>
-      <c r="JJ18" s="39"/>
-      <c r="JK18" s="39"/>
-      <c r="JL18" s="39"/>
-      <c r="JM18" s="39"/>
-      <c r="JN18" s="39"/>
-      <c r="JO18" s="39"/>
-      <c r="JP18" s="39"/>
-      <c r="JQ18" s="39"/>
-      <c r="JR18" s="39"/>
-      <c r="JS18" s="39"/>
-      <c r="JT18" s="39"/>
-      <c r="JU18" s="39"/>
-      <c r="JV18" s="39"/>
-      <c r="JW18" s="39"/>
-      <c r="JX18" s="39"/>
-      <c r="JY18" s="39"/>
-      <c r="JZ18" s="39"/>
-      <c r="KA18" s="39"/>
-      <c r="KB18" s="39"/>
-      <c r="KC18" s="39"/>
-      <c r="KD18" s="39"/>
-      <c r="KE18" s="39"/>
-      <c r="KF18" s="39"/>
-      <c r="KG18" s="39"/>
-      <c r="KH18" s="39"/>
-      <c r="KI18" s="39"/>
-      <c r="KJ18" s="39"/>
-      <c r="KK18" s="39"/>
-      <c r="KL18" s="39"/>
-      <c r="KM18" s="39"/>
-      <c r="KN18" s="39"/>
-      <c r="KO18" s="39"/>
-      <c r="KP18" s="39"/>
-      <c r="KQ18" s="39"/>
-      <c r="KR18" s="39"/>
-      <c r="KS18" s="39"/>
-      <c r="KT18" s="39"/>
-      <c r="KU18" s="39"/>
-      <c r="KV18" s="39"/>
-      <c r="KW18" s="39"/>
-      <c r="KX18" s="39"/>
-      <c r="KY18" s="39"/>
-      <c r="KZ18" s="39"/>
-      <c r="LA18" s="39"/>
-      <c r="LB18" s="39"/>
-      <c r="LC18" s="39"/>
-      <c r="LD18" s="39"/>
-      <c r="LE18" s="39"/>
-      <c r="LF18" s="39"/>
-      <c r="LG18" s="39"/>
-      <c r="LH18" s="39"/>
-      <c r="LI18" s="39"/>
-      <c r="LJ18" s="39"/>
-      <c r="LK18" s="39"/>
-      <c r="LL18" s="39"/>
-      <c r="LM18" s="39"/>
-      <c r="LN18" s="39"/>
-      <c r="LO18" s="39"/>
-      <c r="LP18" s="39"/>
-      <c r="LQ18" s="39"/>
-      <c r="LR18" s="39"/>
-      <c r="LS18" s="39"/>
-      <c r="LT18" s="39"/>
-      <c r="LU18" s="39"/>
-      <c r="LV18" s="39"/>
-      <c r="LW18" s="39"/>
-      <c r="LX18" s="39"/>
-      <c r="LY18" s="39"/>
-      <c r="LZ18" s="39"/>
-      <c r="MA18" s="39"/>
-      <c r="MB18" s="39"/>
-      <c r="MC18" s="39"/>
-      <c r="MD18" s="39"/>
-      <c r="ME18" s="39"/>
-      <c r="MF18" s="39"/>
-      <c r="MG18" s="39"/>
-      <c r="MH18" s="39"/>
-      <c r="MI18" s="39"/>
-      <c r="MJ18" s="39"/>
-      <c r="MK18" s="39"/>
-      <c r="ML18" s="39"/>
-      <c r="MM18" s="39"/>
-      <c r="MN18" s="39"/>
-      <c r="MO18" s="39"/>
-      <c r="MP18" s="39"/>
-      <c r="MQ18" s="39"/>
-      <c r="MR18" s="39"/>
-      <c r="MS18" s="39"/>
-      <c r="MT18" s="39"/>
-      <c r="MU18" s="39"/>
-      <c r="MV18" s="39"/>
-      <c r="MW18" s="39"/>
-      <c r="MX18" s="39"/>
-      <c r="MY18" s="39"/>
-      <c r="MZ18" s="39"/>
-      <c r="NA18" s="39"/>
-      <c r="NB18" s="39"/>
-      <c r="NC18" s="39"/>
-      <c r="ND18" s="39"/>
-      <c r="NE18" s="39"/>
-      <c r="NF18" s="39"/>
-      <c r="NG18" s="39"/>
-      <c r="NH18" s="39"/>
-      <c r="NI18" s="39"/>
-      <c r="NJ18" s="39"/>
-      <c r="NK18" s="39"/>
-      <c r="NL18" s="39"/>
-      <c r="NM18" s="39"/>
-      <c r="NN18" s="39"/>
-      <c r="NO18" s="39"/>
-      <c r="NP18" s="39"/>
-      <c r="NQ18" s="39"/>
-      <c r="NR18" s="39"/>
-      <c r="NS18" s="39"/>
-      <c r="NT18" s="39"/>
-      <c r="NU18" s="39"/>
-      <c r="NV18" s="39"/>
-      <c r="NW18" s="39"/>
-      <c r="NX18" s="39"/>
-      <c r="NY18" s="39"/>
-      <c r="NZ18" s="39"/>
-      <c r="OA18" s="39"/>
-      <c r="OB18" s="39"/>
-      <c r="OC18" s="39"/>
-      <c r="OD18" s="39"/>
-      <c r="OE18" s="39"/>
-      <c r="OF18" s="39"/>
-      <c r="OG18" s="39"/>
-      <c r="OH18" s="39"/>
-      <c r="OI18" s="39"/>
-      <c r="OJ18" s="39"/>
-      <c r="OK18" s="39"/>
-      <c r="OL18" s="39"/>
-      <c r="OM18" s="39"/>
-      <c r="ON18" s="39"/>
-      <c r="OO18" s="39"/>
-      <c r="OP18" s="39"/>
-      <c r="OQ18" s="39"/>
-      <c r="OR18" s="39"/>
-      <c r="OS18" s="39"/>
-      <c r="OT18" s="39"/>
-      <c r="OU18" s="39"/>
-      <c r="OV18" s="39"/>
-      <c r="OW18" s="39"/>
-      <c r="OX18" s="39"/>
-      <c r="OY18" s="39"/>
-      <c r="OZ18" s="39"/>
-      <c r="PA18" s="39"/>
-      <c r="PB18" s="39"/>
-      <c r="PC18" s="39"/>
-      <c r="PD18" s="39"/>
-      <c r="PE18" s="39"/>
-      <c r="PF18" s="39"/>
-      <c r="PG18" s="39"/>
-      <c r="PH18" s="39"/>
-      <c r="PI18" s="39"/>
-      <c r="PJ18" s="39"/>
-      <c r="PK18" s="39"/>
-      <c r="PL18" s="39"/>
-      <c r="PM18" s="39"/>
-      <c r="PN18" s="39"/>
-      <c r="PO18" s="39"/>
-      <c r="PP18" s="39"/>
-      <c r="PQ18" s="39"/>
-      <c r="PR18" s="39"/>
-      <c r="PS18" s="39"/>
-      <c r="PT18" s="39"/>
-      <c r="PU18" s="39"/>
-      <c r="PV18" s="39"/>
-      <c r="PW18" s="39"/>
-      <c r="PX18" s="39"/>
-      <c r="PY18" s="39"/>
-      <c r="PZ18" s="39"/>
-      <c r="QA18" s="39"/>
-      <c r="QB18" s="39"/>
-      <c r="QC18" s="39"/>
-      <c r="QD18" s="39"/>
-      <c r="QE18" s="39"/>
-      <c r="QF18" s="39"/>
-      <c r="QG18" s="39"/>
-      <c r="QH18" s="39"/>
-      <c r="QI18" s="39"/>
-      <c r="QJ18" s="39"/>
-      <c r="QK18" s="39"/>
-      <c r="QL18" s="39"/>
-      <c r="QM18" s="39"/>
-      <c r="QN18" s="39"/>
-      <c r="QO18" s="39"/>
-      <c r="QP18" s="39"/>
-      <c r="QQ18" s="39"/>
-      <c r="QR18" s="39"/>
-      <c r="QS18" s="39"/>
-      <c r="QT18" s="39"/>
-      <c r="QU18" s="39"/>
-      <c r="QV18" s="39"/>
-      <c r="QW18" s="39"/>
-      <c r="QX18" s="39"/>
-      <c r="QY18" s="39"/>
-      <c r="QZ18" s="39"/>
-      <c r="RA18" s="39"/>
-      <c r="RB18" s="39"/>
-      <c r="RC18" s="39"/>
-      <c r="RD18" s="39"/>
-      <c r="RE18" s="39"/>
-      <c r="RF18" s="39"/>
-      <c r="RG18" s="39"/>
-      <c r="RH18" s="39"/>
-      <c r="RI18" s="39"/>
-      <c r="RJ18" s="39"/>
-      <c r="RK18" s="39"/>
-      <c r="RL18" s="39"/>
-      <c r="RM18" s="39"/>
-      <c r="RN18" s="39"/>
-      <c r="RO18" s="39"/>
-      <c r="RP18" s="39"/>
-      <c r="RQ18" s="39"/>
-      <c r="RR18" s="39"/>
-      <c r="RS18" s="39"/>
-      <c r="RT18" s="39"/>
-      <c r="RU18" s="39"/>
-      <c r="RV18" s="39"/>
-      <c r="RW18" s="39"/>
-      <c r="RX18" s="39"/>
-      <c r="RY18" s="39"/>
-      <c r="RZ18" s="39"/>
-      <c r="SA18" s="39"/>
-      <c r="SB18" s="39"/>
-      <c r="SC18" s="39"/>
-      <c r="SD18" s="39"/>
-      <c r="SE18" s="39"/>
-      <c r="SF18" s="39"/>
-      <c r="SG18" s="39"/>
-      <c r="SH18" s="39"/>
-      <c r="SI18" s="39"/>
-      <c r="SJ18" s="39"/>
-      <c r="SK18" s="39"/>
-      <c r="SL18" s="39"/>
-      <c r="SM18" s="39"/>
-      <c r="SN18" s="39"/>
-      <c r="SO18" s="39"/>
-      <c r="SP18" s="39"/>
-      <c r="SQ18" s="39"/>
-      <c r="SR18" s="39"/>
-      <c r="SS18" s="39"/>
-      <c r="ST18" s="39"/>
-      <c r="SU18" s="39"/>
-      <c r="SV18" s="39"/>
-      <c r="SW18" s="39"/>
-      <c r="SX18" s="39"/>
-      <c r="SY18" s="39"/>
-      <c r="SZ18" s="39"/>
-      <c r="TA18" s="39"/>
-      <c r="TB18" s="39"/>
-      <c r="TC18" s="39"/>
-      <c r="TD18" s="39"/>
-      <c r="TE18" s="39"/>
-      <c r="TF18" s="39"/>
-      <c r="TG18" s="39"/>
-      <c r="TH18" s="39"/>
-      <c r="TI18" s="39"/>
-      <c r="TJ18" s="39"/>
-      <c r="TK18" s="39"/>
-      <c r="TL18" s="39"/>
-      <c r="TM18" s="39"/>
-      <c r="TN18" s="39"/>
-      <c r="TO18" s="39"/>
-      <c r="TP18" s="39"/>
-      <c r="TQ18" s="39"/>
-      <c r="TR18" s="39"/>
-      <c r="TS18" s="39"/>
-      <c r="TT18" s="39"/>
-      <c r="TU18" s="39"/>
-      <c r="TV18" s="39"/>
-      <c r="TW18" s="39"/>
-      <c r="TX18" s="39"/>
-      <c r="TY18" s="39"/>
-      <c r="TZ18" s="39"/>
-      <c r="UA18" s="39"/>
-      <c r="UB18" s="39"/>
-      <c r="UC18" s="39"/>
-      <c r="UD18" s="39"/>
-      <c r="UE18" s="39"/>
-      <c r="UF18" s="39"/>
-      <c r="UG18" s="39"/>
-      <c r="UH18" s="39"/>
-      <c r="UI18" s="39"/>
-      <c r="UJ18" s="39"/>
-      <c r="UK18" s="39"/>
-      <c r="UL18" s="39"/>
-      <c r="UM18" s="39"/>
-      <c r="UN18" s="39"/>
-      <c r="UO18" s="39"/>
-      <c r="UP18" s="39"/>
-      <c r="UQ18" s="39"/>
-      <c r="UR18" s="39"/>
-      <c r="US18" s="39"/>
-      <c r="UT18" s="39"/>
-      <c r="UU18" s="39"/>
-      <c r="UV18" s="39"/>
-      <c r="UW18" s="39"/>
-      <c r="UX18" s="39"/>
-      <c r="UY18" s="39"/>
-      <c r="UZ18" s="39"/>
-      <c r="VA18" s="39"/>
-      <c r="VB18" s="39"/>
-      <c r="VC18" s="39"/>
-      <c r="VD18" s="39"/>
-      <c r="VE18" s="39"/>
-      <c r="VF18" s="39"/>
-      <c r="VG18" s="39"/>
-      <c r="VH18" s="39"/>
-      <c r="VI18" s="39"/>
-      <c r="VJ18" s="39"/>
-      <c r="VK18" s="39"/>
-      <c r="VL18" s="39"/>
-      <c r="VM18" s="39"/>
-      <c r="VN18" s="39"/>
-      <c r="VO18" s="39"/>
-      <c r="VP18" s="39"/>
-      <c r="VQ18" s="39"/>
-      <c r="VR18" s="39"/>
-      <c r="VS18" s="39"/>
-      <c r="VT18" s="39"/>
-      <c r="VU18" s="39"/>
-      <c r="VV18" s="39"/>
-      <c r="VW18" s="39"/>
-      <c r="VX18" s="39"/>
-      <c r="VY18" s="39"/>
-      <c r="VZ18" s="39"/>
-      <c r="WA18" s="39"/>
-      <c r="WB18" s="39"/>
-      <c r="WC18" s="39"/>
-      <c r="WD18" s="39"/>
-      <c r="WE18" s="39"/>
-      <c r="WF18" s="39"/>
-      <c r="WG18" s="39"/>
-      <c r="WH18" s="39"/>
-      <c r="WI18" s="39"/>
-      <c r="WJ18" s="39"/>
-      <c r="WK18" s="39"/>
-      <c r="WL18" s="39"/>
-      <c r="WM18" s="39"/>
-      <c r="WN18" s="39"/>
-      <c r="WO18" s="39"/>
-      <c r="WP18" s="39"/>
-      <c r="WQ18" s="39"/>
-      <c r="WR18" s="39"/>
-      <c r="WS18" s="39"/>
-      <c r="WT18" s="39"/>
-      <c r="WU18" s="39"/>
-      <c r="WV18" s="39"/>
-      <c r="WW18" s="39"/>
-      <c r="WX18" s="39"/>
-      <c r="WY18" s="39"/>
-      <c r="WZ18" s="39"/>
-      <c r="XA18" s="39"/>
-      <c r="XB18" s="39"/>
-      <c r="XC18" s="39"/>
-      <c r="XD18" s="39"/>
-      <c r="XE18" s="39"/>
-      <c r="XF18" s="39"/>
-      <c r="XG18" s="39"/>
-      <c r="XH18" s="39"/>
-      <c r="XI18" s="39"/>
-      <c r="XJ18" s="39"/>
-      <c r="XK18" s="39"/>
-      <c r="XL18" s="39"/>
-      <c r="XM18" s="39"/>
-      <c r="XN18" s="39"/>
-      <c r="XO18" s="39"/>
-      <c r="XP18" s="39"/>
-      <c r="XQ18" s="39"/>
-      <c r="XR18" s="39"/>
-      <c r="XS18" s="39"/>
-      <c r="XT18" s="39"/>
-      <c r="XU18" s="39"/>
-      <c r="XV18" s="39"/>
-      <c r="XW18" s="39"/>
-      <c r="XX18" s="39"/>
-      <c r="XY18" s="39"/>
-      <c r="XZ18" s="39"/>
-      <c r="YA18" s="39"/>
-      <c r="YB18" s="39"/>
-      <c r="YC18" s="39"/>
-      <c r="YD18" s="39"/>
-      <c r="YE18" s="39"/>
-      <c r="YF18" s="39"/>
-      <c r="YG18" s="39"/>
-      <c r="YH18" s="39"/>
-      <c r="YI18" s="39"/>
-      <c r="YJ18" s="39"/>
-      <c r="YK18" s="39"/>
-      <c r="YL18" s="39"/>
-      <c r="YM18" s="39"/>
-      <c r="YN18" s="39"/>
-      <c r="YO18" s="39"/>
-      <c r="YP18" s="39"/>
-      <c r="YQ18" s="39"/>
-      <c r="YR18" s="39"/>
-      <c r="YS18" s="39"/>
-      <c r="YT18" s="39"/>
-      <c r="YU18" s="39"/>
-      <c r="YV18" s="39"/>
-      <c r="YW18" s="39"/>
-      <c r="YX18" s="39"/>
-      <c r="YY18" s="39"/>
-      <c r="YZ18" s="39"/>
-      <c r="ZA18" s="39"/>
-      <c r="ZB18" s="39"/>
-      <c r="ZC18" s="39"/>
-      <c r="ZD18" s="39"/>
-      <c r="ZE18" s="39"/>
-      <c r="ZF18" s="39"/>
-      <c r="ZG18" s="39"/>
-      <c r="ZH18" s="39"/>
-      <c r="ZI18" s="39"/>
-      <c r="ZJ18" s="39"/>
-      <c r="ZK18" s="39"/>
-      <c r="ZL18" s="39"/>
-      <c r="ZM18" s="39"/>
-      <c r="ZN18" s="39"/>
-      <c r="ZO18" s="39"/>
-      <c r="ZP18" s="39"/>
-      <c r="ZQ18" s="39"/>
-      <c r="ZR18" s="39"/>
-      <c r="ZS18" s="39"/>
-      <c r="ZT18" s="39"/>
-      <c r="ZU18" s="39"/>
-      <c r="ZV18" s="39"/>
-      <c r="ZW18" s="39"/>
-      <c r="ZX18" s="39"/>
-      <c r="ZY18" s="39"/>
-      <c r="ZZ18" s="39"/>
-      <c r="AAA18" s="39"/>
-      <c r="AAB18" s="39"/>
-      <c r="AAC18" s="39"/>
-      <c r="AAD18" s="39"/>
-      <c r="AAE18" s="39"/>
-      <c r="AAF18" s="39"/>
-      <c r="AAG18" s="39"/>
-      <c r="AAH18" s="39"/>
-      <c r="AAI18" s="39"/>
-      <c r="AAJ18" s="39"/>
-      <c r="AAK18" s="39"/>
-      <c r="AAL18" s="39"/>
-      <c r="AAM18" s="39"/>
-      <c r="AAN18" s="39"/>
-      <c r="AAO18" s="39"/>
-      <c r="AAP18" s="39"/>
-      <c r="AAQ18" s="39"/>
-      <c r="AAR18" s="39"/>
-      <c r="AAS18" s="39"/>
-      <c r="AAT18" s="39"/>
-      <c r="AAU18" s="39"/>
-      <c r="AAV18" s="39"/>
-      <c r="AAW18" s="39"/>
-      <c r="AAX18" s="39"/>
-      <c r="AAY18" s="39"/>
-      <c r="AAZ18" s="39"/>
-      <c r="ABA18" s="39"/>
-      <c r="ABB18" s="39"/>
-      <c r="ABC18" s="39"/>
-      <c r="ABD18" s="39"/>
-      <c r="ABE18" s="39"/>
-      <c r="ABF18" s="39"/>
-      <c r="ABG18" s="39"/>
-      <c r="ABH18" s="39"/>
-      <c r="ABI18" s="39"/>
-      <c r="ABJ18" s="39"/>
-      <c r="ABK18" s="39"/>
-      <c r="ABL18" s="39"/>
-      <c r="ABM18" s="39"/>
-      <c r="ABN18" s="39"/>
-      <c r="ABO18" s="39"/>
-      <c r="ABP18" s="39"/>
-      <c r="ABQ18" s="39"/>
-      <c r="ABR18" s="39"/>
-      <c r="ABS18" s="39"/>
-      <c r="ABT18" s="39"/>
-      <c r="ABU18" s="39"/>
-      <c r="ABV18" s="39"/>
-      <c r="ABW18" s="39"/>
-      <c r="ABX18" s="39"/>
-      <c r="ABY18" s="39"/>
-      <c r="ABZ18" s="39"/>
-      <c r="ACA18" s="39"/>
-      <c r="ACB18" s="39"/>
-      <c r="ACC18" s="39"/>
-      <c r="ACD18" s="39"/>
-      <c r="ACE18" s="39"/>
-      <c r="ACF18" s="39"/>
-      <c r="ACG18" s="39"/>
-      <c r="ACH18" s="39"/>
-      <c r="ACI18" s="39"/>
-      <c r="ACJ18" s="39"/>
-      <c r="ACK18" s="39"/>
-      <c r="ACL18" s="39"/>
-      <c r="ACM18" s="39"/>
-      <c r="ACN18" s="39"/>
-      <c r="ACO18" s="39"/>
-      <c r="ACP18" s="39"/>
-      <c r="ACQ18" s="39"/>
-      <c r="ACR18" s="39"/>
-      <c r="ACS18" s="39"/>
-      <c r="ACT18" s="39"/>
-      <c r="ACU18" s="39"/>
-      <c r="ACV18" s="39"/>
-      <c r="ACW18" s="39"/>
-      <c r="ACX18" s="39"/>
-      <c r="ACY18" s="39"/>
-      <c r="ACZ18" s="39"/>
-      <c r="ADA18" s="39"/>
-      <c r="ADB18" s="39"/>
-      <c r="ADC18" s="39"/>
-      <c r="ADD18" s="39"/>
-      <c r="ADE18" s="39"/>
-      <c r="ADF18" s="39"/>
-      <c r="ADG18" s="39"/>
-      <c r="ADH18" s="39"/>
-      <c r="ADI18" s="39"/>
-      <c r="ADJ18" s="39"/>
-      <c r="ADK18" s="39"/>
-      <c r="ADL18" s="39"/>
-      <c r="ADM18" s="39"/>
-      <c r="ADN18" s="39"/>
-      <c r="ADO18" s="39"/>
-      <c r="ADP18" s="39"/>
-      <c r="ADQ18" s="39"/>
-      <c r="ADR18" s="39"/>
-      <c r="ADS18" s="39"/>
-      <c r="ADT18" s="39"/>
-      <c r="ADU18" s="39"/>
-      <c r="ADV18" s="39"/>
-      <c r="ADW18" s="39"/>
-      <c r="ADX18" s="39"/>
-      <c r="ADY18" s="39"/>
-      <c r="ADZ18" s="39"/>
-      <c r="AEA18" s="39"/>
-      <c r="AEB18" s="39"/>
-      <c r="AEC18" s="39"/>
-      <c r="AED18" s="39"/>
-      <c r="AEE18" s="39"/>
-      <c r="AEF18" s="39"/>
-      <c r="AEG18" s="39"/>
-      <c r="AEH18" s="39"/>
-      <c r="AEI18" s="39"/>
-      <c r="AEJ18" s="39"/>
-      <c r="AEK18" s="39"/>
-      <c r="AEL18" s="39"/>
-      <c r="AEM18" s="39"/>
-      <c r="AEN18" s="39"/>
-      <c r="AEO18" s="39"/>
-      <c r="AEP18" s="39"/>
-      <c r="AEQ18" s="39"/>
-      <c r="AER18" s="39"/>
-      <c r="AES18" s="39"/>
-      <c r="AET18" s="39"/>
-      <c r="AEU18" s="39"/>
-      <c r="AEV18" s="39"/>
-      <c r="AEW18" s="39"/>
-      <c r="AEX18" s="39"/>
-      <c r="AEY18" s="39"/>
-      <c r="AEZ18" s="39"/>
-      <c r="AFA18" s="39"/>
-      <c r="AFB18" s="39"/>
-      <c r="AFC18" s="39"/>
-      <c r="AFD18" s="39"/>
-      <c r="AFE18" s="39"/>
-      <c r="AFF18" s="39"/>
-      <c r="AFG18" s="39"/>
-      <c r="AFH18" s="39"/>
-      <c r="AFI18" s="39"/>
-      <c r="AFJ18" s="39"/>
-      <c r="AFK18" s="39"/>
-      <c r="AFL18" s="39"/>
-      <c r="AFM18" s="39"/>
-      <c r="AFN18" s="39"/>
-      <c r="AFO18" s="39"/>
-      <c r="AFP18" s="39"/>
-      <c r="AFQ18" s="39"/>
-      <c r="AFR18" s="39"/>
-      <c r="AFS18" s="39"/>
-      <c r="AFT18" s="39"/>
-      <c r="AFU18" s="39"/>
-      <c r="AFV18" s="39"/>
-      <c r="AFW18" s="39"/>
-      <c r="AFX18" s="39"/>
-      <c r="AFY18" s="39"/>
-      <c r="AFZ18" s="39"/>
-      <c r="AGA18" s="39"/>
-      <c r="AGB18" s="39"/>
-      <c r="AGC18" s="39"/>
-      <c r="AGD18" s="39"/>
-      <c r="AGE18" s="39"/>
-      <c r="AGF18" s="39"/>
-      <c r="AGG18" s="39"/>
-      <c r="AGH18" s="39"/>
-      <c r="AGI18" s="39"/>
-      <c r="AGJ18" s="39"/>
-      <c r="AGK18" s="39"/>
-      <c r="AGL18" s="39"/>
-      <c r="AGM18" s="39"/>
-      <c r="AGN18" s="39"/>
-      <c r="AGO18" s="39"/>
-      <c r="AGP18" s="39"/>
-      <c r="AGQ18" s="39"/>
-      <c r="AGR18" s="39"/>
-      <c r="AGS18" s="39"/>
-      <c r="AGT18" s="39"/>
-      <c r="AGU18" s="39"/>
-      <c r="AGV18" s="39"/>
-      <c r="AGW18" s="39"/>
-      <c r="AGX18" s="39"/>
-      <c r="AGY18" s="39"/>
-      <c r="AGZ18" s="39"/>
-      <c r="AHA18" s="39"/>
-      <c r="AHB18" s="39"/>
-      <c r="AHC18" s="39"/>
-      <c r="AHD18" s="39"/>
-      <c r="AHE18" s="39"/>
-      <c r="AHF18" s="39"/>
-      <c r="AHG18" s="39"/>
-      <c r="AHH18" s="39"/>
-      <c r="AHI18" s="39"/>
-      <c r="AHJ18" s="39"/>
-      <c r="AHK18" s="39"/>
-      <c r="AHL18" s="39"/>
-      <c r="AHM18" s="39"/>
-      <c r="AHN18" s="39"/>
-      <c r="AHO18" s="39"/>
-      <c r="AHP18" s="39"/>
-      <c r="AHQ18" s="39"/>
-      <c r="AHR18" s="39"/>
-      <c r="AHS18" s="39"/>
-      <c r="AHT18" s="39"/>
-      <c r="AHU18" s="39"/>
-      <c r="AHV18" s="39"/>
-      <c r="AHW18" s="39"/>
-      <c r="AHX18" s="39"/>
-      <c r="AHY18" s="39"/>
-      <c r="AHZ18" s="39"/>
-      <c r="AIA18" s="39"/>
-      <c r="AIB18" s="39"/>
-      <c r="AIC18" s="39"/>
-      <c r="AID18" s="39"/>
-      <c r="AIE18" s="39"/>
-      <c r="AIF18" s="39"/>
-      <c r="AIG18" s="39"/>
-      <c r="AIH18" s="39"/>
-      <c r="AII18" s="39"/>
-      <c r="AIJ18" s="39"/>
-      <c r="AIK18" s="39"/>
-      <c r="AIL18" s="39"/>
-      <c r="AIM18" s="39"/>
-      <c r="AIN18" s="39"/>
-      <c r="AIO18" s="39"/>
-      <c r="AIP18" s="39"/>
-      <c r="AIQ18" s="39"/>
-      <c r="AIR18" s="39"/>
-      <c r="AIS18" s="39"/>
-      <c r="AIT18" s="39"/>
-      <c r="AIU18" s="39"/>
-      <c r="AIV18" s="39"/>
-      <c r="AIW18" s="39"/>
-      <c r="AIX18" s="39"/>
-      <c r="AIY18" s="39"/>
-      <c r="AIZ18" s="39"/>
-      <c r="AJA18" s="39"/>
-      <c r="AJB18" s="39"/>
-      <c r="AJC18" s="39"/>
-      <c r="AJD18" s="39"/>
-      <c r="AJE18" s="39"/>
-      <c r="AJF18" s="39"/>
-      <c r="AJG18" s="39"/>
-      <c r="AJH18" s="39"/>
-      <c r="AJI18" s="39"/>
-      <c r="AJJ18" s="39"/>
-      <c r="AJK18" s="39"/>
-      <c r="AJL18" s="39"/>
-      <c r="AJM18" s="39"/>
-      <c r="AJN18" s="39"/>
-      <c r="AJO18" s="39"/>
-      <c r="AJP18" s="39"/>
-      <c r="AJQ18" s="39"/>
-      <c r="AJR18" s="39"/>
-      <c r="AJS18" s="39"/>
-      <c r="AJT18" s="39"/>
-      <c r="AJU18" s="39"/>
-      <c r="AJV18" s="39"/>
-      <c r="AJW18" s="39"/>
-      <c r="AJX18" s="39"/>
-      <c r="AJY18" s="39"/>
-      <c r="AJZ18" s="39"/>
-      <c r="AKA18" s="39"/>
-      <c r="AKB18" s="39"/>
-      <c r="AKC18" s="39"/>
-      <c r="AKD18" s="39"/>
-      <c r="AKE18" s="39"/>
-      <c r="AKF18" s="39"/>
-      <c r="AKG18" s="39"/>
-      <c r="AKH18" s="39"/>
-      <c r="AKI18" s="39"/>
-      <c r="AKJ18" s="39"/>
-      <c r="AKK18" s="39"/>
-      <c r="AKL18" s="39"/>
-      <c r="AKM18" s="39"/>
-      <c r="AKN18" s="39"/>
-      <c r="AKO18" s="39"/>
-      <c r="AKP18" s="39"/>
-      <c r="AKQ18" s="39"/>
-      <c r="AKR18" s="39"/>
-      <c r="AKS18" s="39"/>
-      <c r="AKT18" s="39"/>
-      <c r="AKU18" s="39"/>
-      <c r="AKV18" s="39"/>
-      <c r="AKW18" s="39"/>
-      <c r="AKX18" s="39"/>
-      <c r="AKY18" s="39"/>
-      <c r="AKZ18" s="39"/>
-      <c r="ALA18" s="39"/>
-      <c r="ALB18" s="39"/>
-      <c r="ALC18" s="39"/>
-      <c r="ALD18" s="39"/>
-      <c r="ALE18" s="39"/>
-      <c r="ALF18" s="39"/>
-      <c r="ALG18" s="39"/>
-      <c r="ALH18" s="39"/>
-      <c r="ALI18" s="39"/>
-      <c r="ALJ18" s="39"/>
-      <c r="ALK18" s="39"/>
-      <c r="ALL18" s="39"/>
-      <c r="ALM18" s="39"/>
-      <c r="ALN18" s="39"/>
-      <c r="ALO18" s="39"/>
-      <c r="ALP18" s="39"/>
-      <c r="ALQ18" s="39"/>
-      <c r="ALR18" s="39"/>
-      <c r="ALS18" s="39"/>
-      <c r="ALT18" s="39"/>
-      <c r="ALU18" s="39"/>
-      <c r="ALV18" s="39"/>
-      <c r="ALW18" s="39"/>
-      <c r="ALX18" s="39"/>
-      <c r="ALY18" s="39"/>
-      <c r="ALZ18" s="39"/>
-      <c r="AMA18" s="39"/>
-      <c r="AMB18" s="39"/>
-      <c r="AMC18" s="39"/>
-      <c r="AMD18" s="39"/>
-      <c r="AME18" s="39"/>
-      <c r="AMF18" s="39"/>
-      <c r="AMG18" s="39"/>
-      <c r="AMH18" s="39"/>
-      <c r="AMI18" s="39"/>
-      <c r="AMJ18" s="39"/>
+    <row r="22" spans="1:1024" ht="146.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="249"/>
+      <c r="B22" s="105" t="s">
+        <v>340</v>
+      </c>
+      <c r="C22" s="106"/>
+      <c r="D22" s="105" t="s">
+        <v>231</v>
+      </c>
+      <c r="E22" s="106" t="s">
+        <v>504</v>
+      </c>
+      <c r="F22" s="105" t="s">
+        <v>498</v>
+      </c>
+      <c r="G22" s="197" t="s">
+        <v>341</v>
+      </c>
+      <c r="H22" s="126"/>
     </row>
-    <row r="19" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="253"/>
-      <c r="B19" s="113" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="114"/>
-      <c r="D19" s="113" t="s">
-        <v>224</v>
-      </c>
-      <c r="E19" s="114" t="s">
-        <v>495</v>
-      </c>
-      <c r="F19" s="113" t="s">
-        <v>340</v>
-      </c>
-      <c r="G19" s="206" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="129"/>
+    <row r="23" spans="1:1024" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="250"/>
+      <c r="B23" s="108" t="s">
+        <v>535</v>
+      </c>
+      <c r="C23" s="109"/>
+      <c r="D23" s="108" t="s">
+        <v>342</v>
+      </c>
+      <c r="E23" s="109" t="s">
+        <v>497</v>
+      </c>
+      <c r="F23" s="108" t="s">
+        <v>343</v>
+      </c>
+      <c r="G23" s="198" t="s">
+        <v>336</v>
+      </c>
+      <c r="H23" s="127"/>
     </row>
-    <row r="20" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="253"/>
-      <c r="B20" s="113" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="114"/>
-      <c r="D20" s="113" t="s">
-        <v>224</v>
-      </c>
-      <c r="E20" s="114" t="s">
-        <v>496</v>
-      </c>
-      <c r="F20" s="113" t="s">
-        <v>341</v>
-      </c>
-      <c r="G20" s="206" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="129"/>
+    <row r="24" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="251" t="s">
+        <v>525</v>
+      </c>
+      <c r="B24" s="132"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="208"/>
+      <c r="H24" s="133"/>
+      <c r="AMJ24" s="5"/>
     </row>
-    <row r="21" spans="1:1024" ht="86" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="252"/>
-      <c r="B21" s="116" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="116" t="s">
-        <v>337</v>
-      </c>
-      <c r="E21" s="117" t="s">
-        <v>500</v>
-      </c>
-      <c r="F21" s="116" t="s">
-        <v>342</v>
-      </c>
-      <c r="G21" s="201" t="s">
-        <v>343</v>
-      </c>
-      <c r="H21" s="130"/>
+    <row r="25" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="252"/>
+      <c r="B25" s="116" t="s">
+        <v>344</v>
+      </c>
+      <c r="C25" s="117"/>
+      <c r="D25" s="116" t="s">
+        <v>345</v>
+      </c>
+      <c r="E25" s="117"/>
+      <c r="F25" s="116" t="s">
+        <v>346</v>
+      </c>
+      <c r="G25" s="201" t="s">
+        <v>521</v>
+      </c>
+      <c r="H25" s="130"/>
     </row>
-    <row r="22" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="248" t="s">
-        <v>344</v>
-      </c>
-      <c r="B22" s="121"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="207"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="AMJ22" s="5"/>
-    </row>
-    <row r="23" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="249"/>
-      <c r="B23" s="105" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="106"/>
-      <c r="D23" s="105" t="s">
-        <v>211</v>
-      </c>
-      <c r="E23" s="106" t="s">
-        <v>512</v>
-      </c>
-      <c r="F23" s="105" t="s">
-        <v>345</v>
-      </c>
-      <c r="G23" s="197" t="s">
-        <v>346</v>
-      </c>
-      <c r="H23" s="126"/>
-    </row>
-    <row r="24" spans="1:1024" ht="146.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="249"/>
-      <c r="B24" s="105" t="s">
+    <row r="26" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="248" t="s">
         <v>347</v>
       </c>
-      <c r="C24" s="106"/>
-      <c r="D24" s="105" t="s">
-        <v>231</v>
-      </c>
-      <c r="E24" s="106" t="s">
-        <v>514</v>
-      </c>
-      <c r="F24" s="105" t="s">
-        <v>508</v>
-      </c>
-      <c r="G24" s="197" t="s">
-        <v>348</v>
-      </c>
-      <c r="H24" s="126"/>
-    </row>
-    <row r="25" spans="1:1024" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="250"/>
-      <c r="B25" s="108" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="109"/>
-      <c r="D25" s="108" t="s">
-        <v>349</v>
-      </c>
-      <c r="E25" s="109" t="s">
-        <v>507</v>
-      </c>
-      <c r="F25" s="108" t="s">
-        <v>350</v>
-      </c>
-      <c r="G25" s="198" t="s">
-        <v>343</v>
-      </c>
-      <c r="H25" s="127"/>
-    </row>
-    <row r="26" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="251" t="s">
-        <v>535</v>
-      </c>
-      <c r="B26" s="132"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="208"/>
-      <c r="H26" s="133"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="207"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
       <c r="AMJ26" s="5"/>
     </row>
-    <row r="27" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="252"/>
-      <c r="B27" s="116" t="s">
-        <v>351</v>
-      </c>
-      <c r="C27" s="117"/>
-      <c r="D27" s="116" t="s">
-        <v>352</v>
-      </c>
-      <c r="E27" s="117"/>
-      <c r="F27" s="116" t="s">
-        <v>353</v>
-      </c>
-      <c r="G27" s="201" t="s">
-        <v>531</v>
-      </c>
-      <c r="H27" s="130"/>
+    <row r="27" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
+      <c r="A27" s="249"/>
+      <c r="B27" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="106"/>
+      <c r="D27" s="105" t="s">
+        <v>211</v>
+      </c>
+      <c r="E27" s="106" t="s">
+        <v>495</v>
+      </c>
+      <c r="F27" s="105" t="s">
+        <v>348</v>
+      </c>
+      <c r="G27" s="197" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="126"/>
     </row>
-    <row r="28" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="248" t="s">
-        <v>354</v>
-      </c>
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="207"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="AMJ28" s="5"/>
+    <row r="28" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="249"/>
+      <c r="B28" s="105" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="106"/>
+      <c r="D28" s="105" t="s">
+        <v>211</v>
+      </c>
+      <c r="E28" s="106" t="s">
+        <v>494</v>
+      </c>
+      <c r="F28" s="105" t="s">
+        <v>349</v>
+      </c>
+      <c r="G28" s="197" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="126"/>
     </row>
-    <row r="29" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="249"/>
       <c r="B29" s="105" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C29" s="106"/>
       <c r="D29" s="105" t="s">
         <v>211</v>
       </c>
       <c r="E29" s="106" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="F29" s="105" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G29" s="197" t="s">
         <v>43</v>
@@ -42961,146 +41932,108 @@
     <row r="30" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="249"/>
       <c r="B30" s="105" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C30" s="106"/>
       <c r="D30" s="105" t="s">
         <v>211</v>
       </c>
       <c r="E30" s="106" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="F30" s="105" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G30" s="197" t="s">
         <v>43</v>
       </c>
       <c r="H30" s="126"/>
     </row>
-    <row r="31" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="249"/>
-      <c r="B31" s="105" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="106"/>
-      <c r="D31" s="105" t="s">
+    <row r="31" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="250"/>
+      <c r="B31" s="108" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="109"/>
+      <c r="D31" s="108" t="s">
         <v>211</v>
       </c>
-      <c r="E31" s="106" t="s">
-        <v>502</v>
-      </c>
-      <c r="F31" s="105" t="s">
-        <v>357</v>
-      </c>
-      <c r="G31" s="197" t="s">
+      <c r="E31" s="109" t="s">
+        <v>493</v>
+      </c>
+      <c r="F31" s="108" t="s">
+        <v>352</v>
+      </c>
+      <c r="G31" s="198" t="s">
         <v>43</v>
       </c>
-      <c r="H31" s="126"/>
+      <c r="H31" s="127"/>
     </row>
-    <row r="32" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="249"/>
-      <c r="B32" s="105" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" s="106"/>
-      <c r="D32" s="105" t="s">
+    <row r="32" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="251" t="s">
+        <v>353</v>
+      </c>
+      <c r="B32" s="123"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="123"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="204"/>
+      <c r="H32" s="128"/>
+      <c r="AMJ32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" ht="89.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="253"/>
+      <c r="B33" s="113" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="114"/>
+      <c r="D33" s="113" t="s">
         <v>211</v>
       </c>
-      <c r="E32" s="106" t="s">
-        <v>501</v>
-      </c>
-      <c r="F32" s="105" t="s">
-        <v>358</v>
-      </c>
-      <c r="G32" s="197" t="s">
+      <c r="E33" s="114" t="s">
+        <v>496</v>
+      </c>
+      <c r="F33" s="113" t="s">
+        <v>505</v>
+      </c>
+      <c r="G33" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="126"/>
+      <c r="H33" s="129"/>
     </row>
-    <row r="33" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="250"/>
-      <c r="B33" s="108" t="s">
-        <v>130</v>
-      </c>
-      <c r="C33" s="109"/>
-      <c r="D33" s="108" t="s">
+    <row r="34" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="252"/>
+      <c r="B34" s="116" t="s">
+        <v>354</v>
+      </c>
+      <c r="C34" s="117"/>
+      <c r="D34" s="116" t="s">
         <v>211</v>
       </c>
-      <c r="E33" s="109" t="s">
-        <v>503</v>
-      </c>
-      <c r="F33" s="108" t="s">
-        <v>359</v>
-      </c>
-      <c r="G33" s="198" t="s">
+      <c r="E34" s="117"/>
+      <c r="F34" s="116" t="s">
+        <v>355</v>
+      </c>
+      <c r="G34" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="H33" s="127"/>
+      <c r="H34" s="130"/>
     </row>
-    <row r="34" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="251" t="s">
-        <v>360</v>
-      </c>
-      <c r="B34" s="123"/>
-      <c r="C34" s="123"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="204"/>
-      <c r="H34" s="128"/>
-      <c r="AMJ34" s="5"/>
-    </row>
-    <row r="35" spans="1:1024" ht="89.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="253"/>
-      <c r="B35" s="113" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="114"/>
-      <c r="D35" s="113" t="s">
-        <v>211</v>
-      </c>
-      <c r="E35" s="114" t="s">
-        <v>506</v>
-      </c>
-      <c r="F35" s="113" t="s">
-        <v>515</v>
-      </c>
-      <c r="G35" s="200" t="s">
-        <v>43</v>
-      </c>
-      <c r="H35" s="129"/>
-    </row>
-    <row r="36" spans="1:1024" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="252"/>
-      <c r="B36" s="116" t="s">
-        <v>361</v>
-      </c>
-      <c r="C36" s="117"/>
-      <c r="D36" s="116" t="s">
-        <v>211</v>
-      </c>
-      <c r="E36" s="117"/>
-      <c r="F36" s="116" t="s">
-        <v>362</v>
-      </c>
-      <c r="G36" s="201" t="s">
-        <v>43</v>
-      </c>
-      <c r="H36" s="130"/>
-    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" insertRows="0" deleteRows="0"/>
   <mergeCells count="9">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A32:A34"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -43140,7 +42073,7 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="238" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="B1" s="238"/>
       <c r="C1" s="238"/>
@@ -43178,7 +42111,7 @@
     </row>
     <row r="3" spans="1:1024" s="11" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="235" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -43216,10 +42149,10 @@
         <v>266</v>
       </c>
       <c r="F4" s="136" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="G4" s="197" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="H4" s="137"/>
     </row>
@@ -43239,7 +42172,7 @@
         <v>271</v>
       </c>
       <c r="G5" s="197" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="H5" s="137"/>
     </row>
@@ -43256,7 +42189,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="136" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G6" s="197"/>
       <c r="H6" s="137"/>
@@ -43277,7 +42210,7 @@
         <v>276</v>
       </c>
       <c r="G7" s="197" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="H7" s="137"/>
     </row>
@@ -43294,10 +42227,10 @@
         <v>278</v>
       </c>
       <c r="F8" s="136" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="G8" s="197" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="H8" s="137"/>
     </row>
@@ -43311,13 +42244,13 @@
         <v>208</v>
       </c>
       <c r="E9" s="106" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F9" s="136" t="s">
         <v>283</v>
       </c>
       <c r="G9" s="197" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="H9" s="137"/>
     </row>
@@ -43331,10 +42264,10 @@
         <v>284</v>
       </c>
       <c r="E10" s="106" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F10" s="136" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G10" s="197"/>
       <c r="H10" s="137"/>
@@ -43352,7 +42285,7 @@
         <v>288</v>
       </c>
       <c r="F11" s="136" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="G11" s="197"/>
       <c r="H11" s="137"/>
@@ -43360,17 +42293,17 @@
     <row r="12" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="236"/>
       <c r="B12" s="106" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C12" s="106"/>
       <c r="D12" s="136" t="s">
         <v>208</v>
       </c>
       <c r="E12" s="106" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F12" s="136" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G12" s="197"/>
       <c r="H12" s="137"/>
@@ -43382,7 +42315,7 @@
       </c>
       <c r="C13" s="106"/>
       <c r="D13" s="136" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E13" s="106" t="s">
         <v>295</v>
@@ -43396,17 +42329,17 @@
     <row r="14" spans="1:1024" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="236"/>
       <c r="B14" s="106" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C14" s="106"/>
       <c r="D14" s="136" t="s">
         <v>208</v>
       </c>
       <c r="E14" s="136" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F14" s="136" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G14" s="197"/>
       <c r="H14" s="137"/>
@@ -43414,17 +42347,17 @@
     <row r="15" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="236"/>
       <c r="B15" s="106" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C15" s="106"/>
       <c r="D15" s="136" t="s">
         <v>208</v>
       </c>
       <c r="E15" s="136" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="F15" s="136" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="G15" s="197"/>
       <c r="H15" s="137"/>
@@ -43432,17 +42365,17 @@
     <row r="16" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="236"/>
       <c r="B16" s="106" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C16" s="106"/>
       <c r="D16" s="136" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E16" s="136" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F16" s="136" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="G16" s="197"/>
       <c r="H16" s="137"/>
@@ -43450,7 +42383,7 @@
     <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="236"/>
       <c r="B17" s="106" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C17" s="106"/>
       <c r="D17" s="106" t="s">
@@ -43460,7 +42393,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="136" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G17" s="197"/>
       <c r="H17" s="137"/>
@@ -43475,7 +42408,7 @@
         <v>9</v>
       </c>
       <c r="E18" s="109" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F18" s="138" t="s">
         <v>312</v>
@@ -43528,7 +42461,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="238" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="B1" s="238"/>
       <c r="C1" s="238"/>
@@ -43566,7 +42499,7 @@
     </row>
     <row r="3" spans="1:17" s="144" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="254" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="B3" s="142"/>
       <c r="C3" s="142"/>
@@ -43592,7 +42525,7 @@
         <v>267</v>
       </c>
       <c r="G4" s="197" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="H4" s="145"/>
       <c r="I4" s="144"/>
@@ -43621,7 +42554,7 @@
         <v>271</v>
       </c>
       <c r="G5" s="197" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="H5" s="145"/>
       <c r="I5" s="144"/>
@@ -43677,7 +42610,7 @@
         <v>276</v>
       </c>
       <c r="G7" s="197" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="H7" s="145"/>
       <c r="I7" s="144"/>
@@ -43706,7 +42639,7 @@
         <v>279</v>
       </c>
       <c r="G8" s="197" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="H8" s="145"/>
       <c r="I8" s="144"/>
@@ -43735,7 +42668,7 @@
         <v>283</v>
       </c>
       <c r="G9" s="197" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="H9" s="149"/>
       <c r="I9" s="144"/>
@@ -43917,7 +42850,7 @@
       </c>
       <c r="C16" s="106"/>
       <c r="D16" s="105" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="E16" s="136" t="s">
         <v>304</v>
@@ -44010,7 +42943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMJ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E10" sqref="E10"/>
       <selection pane="topRight" activeCell="E10" sqref="E10"/>
@@ -44034,7 +42967,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="238" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="B1" s="238"/>
       <c r="C1" s="238"/>
@@ -44105,10 +43038,10 @@
       </c>
       <c r="E4" s="158"/>
       <c r="F4" s="158" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="G4" s="183" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="H4" s="159"/>
     </row>
@@ -44123,7 +43056,7 @@
       </c>
       <c r="E5" s="158"/>
       <c r="F5" s="158" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G5" s="183" t="s">
         <v>12</v>
@@ -44141,7 +43074,7 @@
       </c>
       <c r="E6" s="158"/>
       <c r="F6" s="158" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="G6" s="183" t="s">
         <v>12</v>
@@ -44155,14 +43088,14 @@
       </c>
       <c r="C7" s="160"/>
       <c r="D7" s="160" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="E7" s="160"/>
       <c r="F7" s="160" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G7" s="184" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="H7" s="161"/>
     </row>
@@ -44185,11 +43118,11 @@
       </c>
       <c r="C9" s="164"/>
       <c r="D9" s="164" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E9" s="164"/>
       <c r="F9" s="164" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G9" s="214" t="s">
         <v>12</v>
@@ -44199,15 +43132,15 @@
     <row r="10" spans="1:20" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="233"/>
       <c r="B10" s="164" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C10" s="164"/>
       <c r="D10" s="164" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E10" s="164"/>
       <c r="F10" s="164" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="G10" s="186"/>
       <c r="H10" s="165"/>
@@ -44216,14 +43149,14 @@
       <c r="A11" s="233"/>
       <c r="B11" s="164"/>
       <c r="C11" s="164" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D11" s="164" t="s">
         <v>208</v>
       </c>
       <c r="E11" s="164"/>
       <c r="F11" s="164" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="G11" s="186"/>
       <c r="H11" s="165"/>
@@ -44232,14 +43165,14 @@
       <c r="A12" s="233"/>
       <c r="B12" s="164"/>
       <c r="C12" s="164" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D12" s="164" t="s">
         <v>208</v>
       </c>
       <c r="E12" s="164"/>
       <c r="F12" s="164" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="G12" s="186"/>
       <c r="H12" s="165"/>
@@ -44248,14 +43181,14 @@
       <c r="A13" s="233"/>
       <c r="B13" s="164"/>
       <c r="C13" s="164" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D13" s="164" t="s">
         <v>208</v>
       </c>
       <c r="E13" s="164"/>
       <c r="F13" s="164" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="G13" s="186"/>
       <c r="H13" s="165"/>
@@ -44264,14 +43197,14 @@
       <c r="A14" s="233"/>
       <c r="B14" s="164"/>
       <c r="C14" s="164" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D14" s="164" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="E14" s="164"/>
       <c r="F14" s="164" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="G14" s="186"/>
       <c r="H14" s="165"/>
@@ -44280,14 +43213,14 @@
       <c r="A15" s="233"/>
       <c r="B15" s="164"/>
       <c r="C15" s="164" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D15" s="164" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E15" s="164"/>
       <c r="F15" s="164" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="G15" s="186"/>
       <c r="H15" s="165"/>
@@ -44295,15 +43228,15 @@
     <row r="16" spans="1:20" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="233"/>
       <c r="B16" s="164" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C16" s="164"/>
       <c r="D16" s="164" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E16" s="164"/>
       <c r="F16" s="164" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="G16" s="186"/>
       <c r="H16" s="165"/>
@@ -44312,21 +43245,21 @@
       <c r="A17" s="234"/>
       <c r="B17" s="166"/>
       <c r="C17" s="166" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D17" s="166" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E17" s="166"/>
       <c r="F17" s="166" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="G17" s="187"/>
       <c r="H17" s="167"/>
     </row>
     <row r="18" spans="1:19" s="157" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="235" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B18" s="168"/>
       <c r="C18" s="168"/>
@@ -44350,15 +43283,15 @@
     <row r="19" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="236"/>
       <c r="B19" s="158" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C19" s="158"/>
       <c r="D19" s="158" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E19" s="158"/>
       <c r="F19" s="158" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="G19" s="183" t="s">
         <v>43</v>
@@ -44369,14 +43302,14 @@
       <c r="A20" s="236"/>
       <c r="B20" s="158"/>
       <c r="C20" s="158" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D20" s="158" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="E20" s="158"/>
       <c r="F20" s="158" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G20" s="183"/>
       <c r="H20" s="159"/>
@@ -44385,14 +43318,14 @@
       <c r="A21" s="236"/>
       <c r="B21" s="158"/>
       <c r="C21" s="158" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D21" s="158" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="E21" s="158"/>
       <c r="F21" s="158" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G21" s="183"/>
       <c r="H21" s="159"/>
@@ -44401,14 +43334,14 @@
       <c r="A22" s="237"/>
       <c r="B22" s="160"/>
       <c r="C22" s="160" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="D22" s="160" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="E22" s="160"/>
       <c r="F22" s="160" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G22" s="184"/>
       <c r="H22" s="161"/>
@@ -44457,7 +43390,7 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="238" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="B1" s="238"/>
       <c r="C1" s="238"/>
@@ -45511,7 +44444,7 @@
     </row>
     <row r="3" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="235" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B3" s="172"/>
       <c r="C3" s="172"/>
@@ -45532,7 +44465,7 @@
       </c>
       <c r="E4" s="47"/>
       <c r="F4" s="158" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G4" s="47"/>
       <c r="H4" s="159"/>
@@ -47596,7 +46529,7 @@
       </c>
       <c r="E6" s="47"/>
       <c r="F6" s="158" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="G6" s="47"/>
       <c r="H6" s="174"/>
@@ -48620,7 +47553,7 @@
     <row r="7" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="236"/>
       <c r="B7" s="47" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C7" s="158"/>
       <c r="D7" s="47" t="s">
@@ -48628,7 +47561,7 @@
       </c>
       <c r="E7" s="47"/>
       <c r="F7" s="158" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="G7" s="47"/>
       <c r="H7" s="159"/>
@@ -49652,7 +48585,7 @@
     <row r="8" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="236"/>
       <c r="B8" s="47" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C8" s="158"/>
       <c r="D8" s="47" t="s">
@@ -49660,7 +48593,7 @@
       </c>
       <c r="E8" s="47"/>
       <c r="F8" s="158" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="G8" s="47"/>
       <c r="H8" s="159"/>
@@ -50684,15 +49617,15 @@
     <row r="9" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="236"/>
       <c r="B9" s="47" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C9" s="158"/>
       <c r="D9" s="47" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E9" s="47"/>
       <c r="F9" s="158" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="G9" s="47"/>
       <c r="H9" s="159"/>
@@ -51716,7 +50649,7 @@
     <row r="10" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="236"/>
       <c r="B10" s="47" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C10" s="158"/>
       <c r="D10" s="47" t="s">
@@ -51724,7 +50657,7 @@
       </c>
       <c r="E10" s="47"/>
       <c r="F10" s="158" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="G10" s="47"/>
       <c r="H10" s="159"/>
@@ -52748,15 +51681,15 @@
     <row r="11" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="236"/>
       <c r="B11" s="47" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C11" s="158"/>
       <c r="D11" s="47" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="E11" s="47"/>
       <c r="F11" s="158" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="G11" s="47"/>
       <c r="H11" s="159"/>
@@ -53780,7 +52713,7 @@
     <row r="12" spans="1:1024" s="26" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="237"/>
       <c r="B12" s="51" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C12" s="160"/>
       <c r="D12" s="51" t="s">
@@ -53788,7 +52721,7 @@
       </c>
       <c r="E12" s="51"/>
       <c r="F12" s="160" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="G12" s="51"/>
       <c r="H12" s="161"/>
@@ -54811,7 +53744,7 @@
     </row>
     <row r="13" spans="1:1024" s="20" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="232" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B13" s="175"/>
       <c r="C13" s="175"/>
@@ -54833,7 +53766,7 @@
       </c>
       <c r="E14" s="69"/>
       <c r="F14" s="69" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="G14" s="69"/>
       <c r="H14" s="177"/>
@@ -54865,7 +53798,7 @@
       </c>
       <c r="E16" s="69"/>
       <c r="F16" s="69" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G16" s="69"/>
       <c r="H16" s="177"/>
@@ -54881,7 +53814,7 @@
       </c>
       <c r="E17" s="69"/>
       <c r="F17" s="69" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="G17" s="69"/>
       <c r="H17" s="177"/>
@@ -54897,7 +53830,7 @@
       </c>
       <c r="E18" s="69"/>
       <c r="F18" s="69" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G18" s="69"/>
       <c r="H18" s="177"/>
@@ -54913,7 +53846,7 @@
       </c>
       <c r="E19" s="69"/>
       <c r="F19" s="69" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="G19" s="69"/>
       <c r="H19" s="177"/>
@@ -54921,15 +53854,15 @@
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="233"/>
       <c r="B20" s="69" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C20" s="69"/>
       <c r="D20" s="69" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="E20" s="69"/>
       <c r="F20" s="69" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="G20" s="69"/>
       <c r="H20" s="177"/>
@@ -54937,15 +53870,15 @@
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="233"/>
       <c r="B21" s="69" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C21" s="69"/>
       <c r="D21" s="69" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E21" s="69"/>
       <c r="F21" s="69" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G21" s="69"/>
       <c r="H21" s="177"/>
@@ -54953,7 +53886,7 @@
     <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="233"/>
       <c r="B22" s="69" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C22" s="69"/>
       <c r="D22" s="69" t="s">
@@ -54961,7 +53894,7 @@
       </c>
       <c r="E22" s="69"/>
       <c r="F22" s="69" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G22" s="69"/>
       <c r="H22" s="177"/>
@@ -54969,7 +53902,7 @@
     <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="233"/>
       <c r="B23" s="69" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C23" s="69"/>
       <c r="D23" s="69" t="s">
@@ -54977,7 +53910,7 @@
       </c>
       <c r="E23" s="69"/>
       <c r="F23" s="69" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G23" s="69"/>
       <c r="H23" s="177"/>
@@ -54985,7 +53918,7 @@
     <row r="24" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="234"/>
       <c r="B24" s="73" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C24" s="73"/>
       <c r="D24" s="73" t="s">
@@ -54993,14 +53926,14 @@
       </c>
       <c r="E24" s="73"/>
       <c r="F24" s="73" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G24" s="73"/>
       <c r="H24" s="178"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="235" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B25" s="179"/>
       <c r="C25" s="179"/>
@@ -55021,7 +53954,7 @@
       </c>
       <c r="E26" s="47"/>
       <c r="F26" s="47" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="G26" s="47"/>
       <c r="H26" s="174"/>
@@ -55053,7 +53986,7 @@
       </c>
       <c r="E28" s="47"/>
       <c r="F28" s="47" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G28" s="47"/>
       <c r="H28" s="174"/>
@@ -55069,7 +54002,7 @@
       </c>
       <c r="E29" s="47"/>
       <c r="F29" s="47" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="G29" s="47"/>
       <c r="H29" s="174"/>
@@ -55077,7 +54010,7 @@
     <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="236"/>
       <c r="B30" s="47" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C30" s="47"/>
       <c r="D30" s="47" t="s">
@@ -55085,7 +54018,7 @@
       </c>
       <c r="E30" s="47"/>
       <c r="F30" s="47" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="G30" s="47"/>
       <c r="H30" s="174"/>
@@ -55101,7 +54034,7 @@
       </c>
       <c r="E31" s="47"/>
       <c r="F31" s="47" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G31" s="47"/>
       <c r="H31" s="174"/>
@@ -55109,15 +54042,15 @@
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="236"/>
       <c r="B32" s="47" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C32" s="47"/>
       <c r="D32" s="47" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="E32" s="47"/>
       <c r="F32" s="47" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="G32" s="47"/>
       <c r="H32" s="174"/>
@@ -55125,7 +54058,7 @@
     <row r="33" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="236"/>
       <c r="B33" s="47" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C33" s="47"/>
       <c r="D33" s="47" t="s">
@@ -55133,7 +54066,7 @@
       </c>
       <c r="E33" s="47"/>
       <c r="F33" s="47" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="G33" s="47"/>
       <c r="H33" s="174"/>
@@ -55149,7 +54082,7 @@
       </c>
       <c r="E34" s="47"/>
       <c r="F34" s="47" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G34" s="47"/>
       <c r="H34" s="174"/>
@@ -55157,7 +54090,7 @@
     <row r="35" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="236"/>
       <c r="B35" s="47" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C35" s="47"/>
       <c r="D35" s="47" t="s">
@@ -55165,7 +54098,7 @@
       </c>
       <c r="E35" s="47"/>
       <c r="F35" s="47" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="G35" s="47"/>
       <c r="H35" s="174"/>
@@ -55173,7 +54106,7 @@
     <row r="36" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="237"/>
       <c r="B36" s="51" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C36" s="51"/>
       <c r="D36" s="51" t="s">
@@ -55181,7 +54114,7 @@
       </c>
       <c r="E36" s="51"/>
       <c r="F36" s="51" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G36" s="51"/>
       <c r="H36" s="181"/>
@@ -55210,7 +54143,7 @@
       </c>
       <c r="E38" s="69"/>
       <c r="F38" s="69" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="G38" s="69"/>
       <c r="H38" s="177"/>
@@ -55242,7 +54175,7 @@
       </c>
       <c r="E40" s="69"/>
       <c r="F40" s="69" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G40" s="69"/>
       <c r="H40" s="177"/>
@@ -55258,7 +54191,7 @@
       </c>
       <c r="E41" s="69"/>
       <c r="F41" s="69" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G41" s="69"/>
       <c r="H41" s="177"/>
@@ -55266,7 +54199,7 @@
     <row r="42" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="233"/>
       <c r="B42" s="69" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C42" s="69"/>
       <c r="D42" s="69" t="s">
@@ -55274,7 +54207,7 @@
       </c>
       <c r="E42" s="69"/>
       <c r="F42" s="69" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="G42" s="69"/>
       <c r="H42" s="177"/>
@@ -55282,7 +54215,7 @@
     <row r="43" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="233"/>
       <c r="B43" s="69" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C43" s="69"/>
       <c r="D43" s="69" t="s">
@@ -55290,7 +54223,7 @@
       </c>
       <c r="E43" s="69"/>
       <c r="F43" s="69" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G43" s="69"/>
       <c r="H43" s="177"/>
@@ -55306,7 +54239,7 @@
       </c>
       <c r="E44" s="69"/>
       <c r="F44" s="69" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="G44" s="69"/>
       <c r="H44" s="177"/>
@@ -55314,15 +54247,15 @@
     <row r="45" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="233"/>
       <c r="B45" s="69" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C45" s="69"/>
       <c r="D45" s="69" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="E45" s="69"/>
       <c r="F45" s="69" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G45" s="69"/>
       <c r="H45" s="177"/>
@@ -55330,7 +54263,7 @@
     <row r="46" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="233"/>
       <c r="B46" s="69" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C46" s="69"/>
       <c r="D46" s="69" t="s">
@@ -55338,7 +54271,7 @@
       </c>
       <c r="E46" s="69"/>
       <c r="F46" s="69" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="G46" s="69"/>
       <c r="H46" s="177"/>
@@ -55354,7 +54287,7 @@
       </c>
       <c r="E47" s="69"/>
       <c r="F47" s="69" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G47" s="69"/>
       <c r="H47" s="177"/>
@@ -55362,7 +54295,7 @@
     <row r="48" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="234"/>
       <c r="B48" s="73" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C48" s="73"/>
       <c r="D48" s="73" t="s">
@@ -55370,7 +54303,7 @@
       </c>
       <c r="E48" s="73"/>
       <c r="F48" s="73" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="G48" s="73"/>
       <c r="H48" s="178"/>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deslauj/CODE/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160631FC-A58C-674F-8CB0-99B04631CC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D1C529-52F7-1141-B053-543E98528845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="460" windowWidth="25600" windowHeight="14020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="460" windowWidth="24080" windowHeight="14020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Microservice" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="565">
   <si>
     <t>Concept</t>
   </si>
@@ -706,18 +706,9 @@
     <t>Version</t>
   </si>
   <si>
-    <t>semver (if model only has revisions, use semver prerelease 0.1, 0.2, etc.)</t>
-  </si>
-  <si>
-    <t>Version of the model</t>
-  </si>
-  <si>
     <t>License</t>
   </si>
   <si>
-    <t>License of the model</t>
-  </si>
-  <si>
     <t>Provider</t>
   </si>
   <si>
@@ -730,9 +721,6 @@
     <t>obj</t>
   </si>
   <si>
-    <t>OPTIONAL: Dictionary with keys being phone, email, address - Type takes into account co-simulation models, for which solver info is mandatory (next slide)</t>
-  </si>
-  <si>
     <t>AuthTool</t>
   </si>
   <si>
@@ -751,9 +739,6 @@
     <t>number</t>
   </si>
   <si>
-    <t>OPTIONAL: Error of the model’s prediction</t>
-  </si>
-  <si>
     <t>Model_URI</t>
   </si>
   <si>
@@ -778,9 +763,6 @@
     <t>In-slots</t>
   </si>
   <si>
-    <t>array of obj  (key (group.key), name, dimensions (e.g. 2, 3, etc.), units (human-readable-name, exponents, offset, scale), default value, ranges, description)</t>
-  </si>
-  <si>
     <t>Values on which the model is evaluated (or parameters that might set before or during the evaluation) - Inputs and parameters together, although if needed we can still differentiate them internally in key field for each specific model.</t>
   </si>
   <si>
@@ -793,12 +775,6 @@
     <t>CosimSolverInfo</t>
   </si>
   <si>
-    <t>**</t>
-  </si>
-  <si>
-    <t>OPTIONAL (for co-simulation Type only)</t>
-  </si>
-  <si>
     <t>Dependant FMUs</t>
   </si>
   <si>
@@ -1607,21 +1583,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Supporting Metadata</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">enum </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>tbd in SAD group</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1735,12 +1696,126 @@
   <si>
     <t>DATA_AUTH</t>
   </si>
+  <si>
+    <t>semver</t>
+  </si>
+  <si>
+    <t>Version of the model. If model only has revisions, use semver prerelease 0.1, 0.2, etc.</t>
+  </si>
+  <si>
+    <t>License of the model.  Type tbd in SAD group</t>
+  </si>
+  <si>
+    <t>Dictionary with keys being phone, email, address - Type takes into account co-simulation models, for which solver info is mandatory (next slide)</t>
+  </si>
+  <si>
+    <t>Error of the model’s prediction</t>
+  </si>
+  <si>
+    <t>array of obj</t>
+  </si>
+  <si>
+    <t>Dimensions</t>
+  </si>
+  <si>
+    <t>Is-continuous</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Units.Unit</t>
+  </si>
+  <si>
+    <t>Units.Exponent</t>
+  </si>
+  <si>
+    <t>Units.Offset</t>
+  </si>
+  <si>
+    <t>Units.Scale</t>
+  </si>
+  <si>
+    <t>Default-value</t>
+  </si>
+  <si>
+    <t>Ranges</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>obj (see subkeys below)</t>
+  </si>
+  <si>
+    <t>array of number</t>
+  </si>
+  <si>
+    <t>Group key (eg. type and name) of the in-slot</t>
+  </si>
+  <si>
+    <t>Human-readable name of the in-slot</t>
+  </si>
+  <si>
+    <t>Number of dimensions of the in-slot (i.e. scalar, vector field)</t>
+  </si>
+  <si>
+    <t>continuous or discreet in-slot</t>
+  </si>
+  <si>
+    <t>Values related to the in-slot measurement units</t>
+  </si>
+  <si>
+    <t>Units of the in-slot (e.g Pa, m/s, etc…)</t>
+  </si>
+  <si>
+    <t>eg. exponents for kg (SI) {1, -2, 0, 0, 0, 0, 1}</t>
+  </si>
+  <si>
+    <t>scale offset if needed (e.g. K to C conversion)</t>
+  </si>
+  <si>
+    <t>Order of magnitude of the measurement unit scale e.g. Scale is equal to 10^-3 for values expressed in mm</t>
+  </si>
+  <si>
+    <t>Default value for the in-slot</t>
+  </si>
+  <si>
+    <t>Max and min value of the in-slot</t>
+  </si>
+  <si>
+    <t>Group key (eg. type and name) of the output</t>
+  </si>
+  <si>
+    <t>Human-readable name of the output</t>
+  </si>
+  <si>
+    <t>Number of dimensions of the output (i.e. scalar, vector field)</t>
+  </si>
+  <si>
+    <t>Continuous or discreet output</t>
+  </si>
+  <si>
+    <t>Values related to the output measurement units</t>
+  </si>
+  <si>
+    <t>Units of the output (e.g Pa, m/s, etc…)</t>
+  </si>
+  <si>
+    <t>Default value for the output</t>
+  </si>
+  <si>
+    <t>Max and min value of the output</t>
+  </si>
+  <si>
+    <t>For co-simulation Type only</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1850,13 +1925,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
@@ -1932,7 +2000,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -2239,12 +2307,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="257">
+  <cellXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3098,60 +3192,20 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3176,6 +3230,46 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3210,16 +3304,32 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -4060,7 +4170,7 @@
       <selection activeCell="E10" sqref="E10"/>
       <selection pane="topRight" activeCell="E10" sqref="E10"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -4077,16 +4187,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="238" t="s">
-        <v>507</v>
-      </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="239"/>
+      <c r="A1" s="226" t="s">
+        <v>499</v>
+      </c>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="227"/>
     </row>
     <row r="2" spans="1:1024" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -4115,7 +4225,7 @@
       </c>
     </row>
     <row r="3" spans="1:1024" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="230" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="27"/>
@@ -4127,7 +4237,7 @@
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="241"/>
+      <c r="A4" s="231"/>
       <c r="B4" s="47" t="s">
         <v>8</v>
       </c>
@@ -4142,12 +4252,12 @@
         <v>11</v>
       </c>
       <c r="G4" s="183" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="241"/>
+      <c r="A5" s="231"/>
       <c r="B5" s="47" t="s">
         <v>13</v>
       </c>
@@ -4167,7 +4277,7 @@
       <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="241"/>
+      <c r="A6" s="231"/>
       <c r="B6" s="47" t="s">
         <v>16</v>
       </c>
@@ -4187,13 +4297,13 @@
       <c r="H6" s="50"/>
     </row>
     <row r="7" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="241"/>
+      <c r="A7" s="231"/>
       <c r="B7" s="47" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="47" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="E7" s="49" t="s">
         <v>20</v>
@@ -4202,12 +4312,12 @@
         <v>21</v>
       </c>
       <c r="G7" s="183" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="241"/>
+      <c r="A8" s="231"/>
       <c r="B8" s="47" t="s">
         <v>22</v>
       </c>
@@ -4227,7 +4337,7 @@
       <c r="H8" s="50"/>
     </row>
     <row r="9" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="241"/>
+      <c r="A9" s="231"/>
       <c r="B9" s="47" t="s">
         <v>25</v>
       </c>
@@ -4236,10 +4346,10 @@
         <v>9</v>
       </c>
       <c r="E9" s="49" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G9" s="183" t="s">
         <v>12</v>
@@ -4247,7 +4357,7 @@
       <c r="H9" s="50"/>
     </row>
     <row r="10" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="241"/>
+      <c r="A10" s="231"/>
       <c r="B10" s="47" t="s">
         <v>26</v>
       </c>
@@ -4267,7 +4377,7 @@
       <c r="H10" s="50"/>
     </row>
     <row r="11" spans="1:1024" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="242"/>
+      <c r="A11" s="232"/>
       <c r="B11" s="51" t="s">
         <v>30</v>
       </c>
@@ -4287,7 +4397,7 @@
       <c r="H11" s="54"/>
     </row>
     <row r="12" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="243" t="s">
+      <c r="A12" s="233" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="217"/>
@@ -4299,7 +4409,7 @@
       <c r="H12" s="220"/>
     </row>
     <row r="13" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="244"/>
+      <c r="A13" s="234"/>
       <c r="B13" s="55" t="s">
         <v>35</v>
       </c>
@@ -4308,7 +4418,7 @@
         <v>36</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="F13" s="55" t="s">
         <v>37</v>
@@ -4319,19 +4429,19 @@
       <c r="H13" s="58"/>
     </row>
     <row r="14" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="244"/>
+      <c r="A14" s="234"/>
       <c r="B14" s="55" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="56"/>
       <c r="D14" s="55" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F14" s="55" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G14" s="188" t="s">
         <v>12</v>
@@ -4339,19 +4449,19 @@
       <c r="H14" s="58"/>
     </row>
     <row r="15" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="244"/>
+      <c r="A15" s="234"/>
       <c r="B15" s="55" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C15" s="56"/>
       <c r="D15" s="55" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F15" s="55" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G15" s="188" t="s">
         <v>43</v>
@@ -5375,19 +5485,19 @@
       <c r="AMJ15" s="4"/>
     </row>
     <row r="16" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="244"/>
+      <c r="A16" s="234"/>
       <c r="B16" s="55" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="C16" s="56"/>
       <c r="D16" s="55" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F16" s="55" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="G16" s="188" t="s">
         <v>43</v>
@@ -6411,19 +6521,19 @@
       <c r="AMJ16" s="4"/>
     </row>
     <row r="17" spans="1:1024" s="10" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="245"/>
+      <c r="A17" s="235"/>
       <c r="B17" s="221" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="C17" s="222"/>
       <c r="D17" s="221" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="E17" s="223" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="F17" s="221" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="G17" s="224" t="s">
         <v>43</v>
@@ -7699,7 +7809,7 @@
       <c r="H30" s="54"/>
     </row>
     <row r="31" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="232" t="s">
+      <c r="A31" s="238" t="s">
         <v>72</v>
       </c>
       <c r="B31" s="62"/>
@@ -7711,7 +7821,7 @@
       <c r="H31" s="64"/>
     </row>
     <row r="32" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="233"/>
+      <c r="A32" s="239"/>
       <c r="B32" s="65" t="s">
         <v>73</v>
       </c>
@@ -7731,7 +7841,7 @@
       <c r="H32" s="68"/>
     </row>
     <row r="33" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="233"/>
+      <c r="A33" s="239"/>
       <c r="B33" s="69" t="s">
         <v>76</v>
       </c>
@@ -7751,7 +7861,7 @@
       <c r="H33" s="72"/>
     </row>
     <row r="34" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="233"/>
+      <c r="A34" s="239"/>
       <c r="B34" s="69" t="s">
         <v>79</v>
       </c>
@@ -7771,7 +7881,7 @@
       <c r="H34" s="72"/>
     </row>
     <row r="35" spans="1:1024" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="234"/>
+      <c r="A35" s="240"/>
       <c r="B35" s="73" t="s">
         <v>82</v>
       </c>
@@ -7791,7 +7901,7 @@
       <c r="H35" s="76"/>
     </row>
     <row r="36" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="235" t="s">
+      <c r="A36" s="241" t="s">
         <v>85</v>
       </c>
       <c r="B36" s="59"/>
@@ -8840,7 +8950,7 @@
     </row>
     <row r="38" spans="1:1024" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="236"/>
-      <c r="B38" s="226" t="s">
+      <c r="B38" s="228" t="s">
         <v>90</v>
       </c>
       <c r="C38" s="47" t="s">
@@ -9878,7 +9988,7 @@
     </row>
     <row r="39" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="236"/>
-      <c r="B39" s="226"/>
+      <c r="B39" s="228"/>
       <c r="C39" s="47" t="s">
         <v>94</v>
       </c>
@@ -10914,7 +11024,7 @@
     </row>
     <row r="40" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="236"/>
-      <c r="B40" s="226"/>
+      <c r="B40" s="228"/>
       <c r="C40" s="47" t="s">
         <v>98</v>
       </c>
@@ -11950,7 +12060,7 @@
     </row>
     <row r="41" spans="1:1024" s="10" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A41" s="236"/>
-      <c r="B41" s="226"/>
+      <c r="B41" s="228"/>
       <c r="C41" s="47" t="s">
         <v>102</v>
       </c>
@@ -12986,7 +13096,7 @@
     </row>
     <row r="42" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="236"/>
-      <c r="B42" s="226"/>
+      <c r="B42" s="228"/>
       <c r="C42" s="47" t="s">
         <v>106</v>
       </c>
@@ -14022,7 +14132,7 @@
     </row>
     <row r="43" spans="1:1024" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="236"/>
-      <c r="B43" s="226"/>
+      <c r="B43" s="228"/>
       <c r="C43" s="47" t="s">
         <v>110</v>
       </c>
@@ -15058,7 +15168,7 @@
     </row>
     <row r="44" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="236"/>
-      <c r="B44" s="226"/>
+      <c r="B44" s="228"/>
       <c r="C44" s="47" t="s">
         <v>114</v>
       </c>
@@ -16094,7 +16204,7 @@
     </row>
     <row r="45" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="236"/>
-      <c r="B45" s="226"/>
+      <c r="B45" s="228"/>
       <c r="C45" s="47" t="s">
         <v>118</v>
       </c>
@@ -17130,7 +17240,7 @@
     </row>
     <row r="46" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="236"/>
-      <c r="B46" s="226"/>
+      <c r="B46" s="228"/>
       <c r="C46" s="47" t="s">
         <v>122</v>
       </c>
@@ -18166,7 +18276,7 @@
     </row>
     <row r="47" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="236"/>
-      <c r="B47" s="226"/>
+      <c r="B47" s="228"/>
       <c r="C47" s="47" t="s">
         <v>126</v>
       </c>
@@ -19202,7 +19312,7 @@
     </row>
     <row r="48" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="236"/>
-      <c r="B48" s="226"/>
+      <c r="B48" s="228"/>
       <c r="C48" s="47" t="s">
         <v>130</v>
       </c>
@@ -20238,7 +20348,7 @@
     </row>
     <row r="49" spans="1:1024" s="16" customFormat="1" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="237"/>
-      <c r="B49" s="227"/>
+      <c r="B49" s="229"/>
       <c r="C49" s="51" t="s">
         <v>134</v>
       </c>
@@ -20249,7 +20359,7 @@
         <v>136</v>
       </c>
       <c r="F49" s="51" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G49" s="184" t="s">
         <v>43</v>
@@ -21273,7 +21383,7 @@
       <c r="AMJ49" s="15"/>
     </row>
     <row r="50" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="232" t="s">
+      <c r="A50" s="238" t="s">
         <v>137</v>
       </c>
       <c r="B50" s="77"/>
@@ -21285,7 +21395,7 @@
       <c r="H50" s="79"/>
     </row>
     <row r="51" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="233"/>
+      <c r="A51" s="239"/>
       <c r="B51" s="80" t="s">
         <v>138</v>
       </c>
@@ -21305,8 +21415,8 @@
       <c r="H51" s="83"/>
     </row>
     <row r="52" spans="1:1024" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="233"/>
-      <c r="B52" s="228" t="s">
+      <c r="A52" s="239"/>
+      <c r="B52" s="242" t="s">
         <v>90</v>
       </c>
       <c r="C52" s="84" t="s">
@@ -21327,8 +21437,8 @@
       <c r="H52" s="83"/>
     </row>
     <row r="53" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A53" s="233"/>
-      <c r="B53" s="228"/>
+      <c r="A53" s="239"/>
+      <c r="B53" s="242"/>
       <c r="C53" s="80" t="s">
         <v>94</v>
       </c>
@@ -21347,8 +21457,8 @@
       <c r="H53" s="83"/>
     </row>
     <row r="54" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A54" s="233"/>
-      <c r="B54" s="228"/>
+      <c r="A54" s="239"/>
+      <c r="B54" s="242"/>
       <c r="C54" s="80" t="s">
         <v>98</v>
       </c>
@@ -21367,8 +21477,8 @@
       <c r="H54" s="83"/>
     </row>
     <row r="55" spans="1:1024" ht="85" x14ac:dyDescent="0.2">
-      <c r="A55" s="233"/>
-      <c r="B55" s="228"/>
+      <c r="A55" s="239"/>
+      <c r="B55" s="242"/>
       <c r="C55" s="80" t="s">
         <v>102</v>
       </c>
@@ -21387,8 +21497,8 @@
       <c r="H55" s="83"/>
     </row>
     <row r="56" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A56" s="233"/>
-      <c r="B56" s="228"/>
+      <c r="A56" s="239"/>
+      <c r="B56" s="242"/>
       <c r="C56" s="80" t="s">
         <v>106</v>
       </c>
@@ -21407,8 +21517,8 @@
       <c r="H56" s="83"/>
     </row>
     <row r="57" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="233"/>
-      <c r="B57" s="228"/>
+      <c r="A57" s="239"/>
+      <c r="B57" s="242"/>
       <c r="C57" s="80" t="s">
         <v>110</v>
       </c>
@@ -21427,8 +21537,8 @@
       <c r="H57" s="83"/>
     </row>
     <row r="58" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A58" s="233"/>
-      <c r="B58" s="228"/>
+      <c r="A58" s="239"/>
+      <c r="B58" s="242"/>
       <c r="C58" s="80" t="s">
         <v>114</v>
       </c>
@@ -21447,8 +21557,8 @@
       <c r="H58" s="83"/>
     </row>
     <row r="59" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A59" s="233"/>
-      <c r="B59" s="228"/>
+      <c r="A59" s="239"/>
+      <c r="B59" s="242"/>
       <c r="C59" s="80" t="s">
         <v>118</v>
       </c>
@@ -21467,8 +21577,8 @@
       <c r="H59" s="83"/>
     </row>
     <row r="60" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A60" s="233"/>
-      <c r="B60" s="228"/>
+      <c r="A60" s="239"/>
+      <c r="B60" s="242"/>
       <c r="C60" s="80" t="s">
         <v>122</v>
       </c>
@@ -21487,8 +21597,8 @@
       <c r="H60" s="83"/>
     </row>
     <row r="61" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A61" s="233"/>
-      <c r="B61" s="228"/>
+      <c r="A61" s="239"/>
+      <c r="B61" s="242"/>
       <c r="C61" s="80" t="s">
         <v>126</v>
       </c>
@@ -21507,8 +21617,8 @@
       <c r="H61" s="83"/>
     </row>
     <row r="62" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A62" s="233"/>
-      <c r="B62" s="228"/>
+      <c r="A62" s="239"/>
+      <c r="B62" s="242"/>
       <c r="C62" s="80" t="s">
         <v>130</v>
       </c>
@@ -21527,8 +21637,8 @@
       <c r="H62" s="83"/>
     </row>
     <row r="63" spans="1:1024" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="234"/>
-      <c r="B63" s="229"/>
+      <c r="A63" s="240"/>
+      <c r="B63" s="243"/>
       <c r="C63" s="85" t="s">
         <v>134</v>
       </c>
@@ -21539,7 +21649,7 @@
         <v>136</v>
       </c>
       <c r="F63" s="85" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G63" s="187" t="s">
         <v>43</v>
@@ -21547,7 +21657,7 @@
       <c r="H63" s="87"/>
     </row>
     <row r="64" spans="1:1024" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="235" t="s">
+      <c r="A64" s="241" t="s">
         <v>145</v>
       </c>
       <c r="B64" s="59"/>
@@ -24647,7 +24757,7 @@
       <c r="AMJ66" s="13"/>
     </row>
     <row r="67" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="232" t="s">
+      <c r="A67" s="238" t="s">
         <v>154</v>
       </c>
       <c r="B67" s="29"/>
@@ -24659,7 +24769,7 @@
       <c r="H67" s="64"/>
     </row>
     <row r="68" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A68" s="233"/>
+      <c r="A68" s="239"/>
       <c r="B68" s="69" t="s">
         <v>155</v>
       </c>
@@ -24677,8 +24787,8 @@
       <c r="H68" s="72"/>
     </row>
     <row r="69" spans="1:1024" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="233"/>
-      <c r="B69" s="230" t="s">
+      <c r="A69" s="239"/>
+      <c r="B69" s="244" t="s">
         <v>158</v>
       </c>
       <c r="C69" s="69" t="s">
@@ -24699,8 +24809,8 @@
       <c r="H69" s="72"/>
     </row>
     <row r="70" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A70" s="233"/>
-      <c r="B70" s="230"/>
+      <c r="A70" s="239"/>
+      <c r="B70" s="244"/>
       <c r="C70" s="69" t="s">
         <v>30</v>
       </c>
@@ -24719,8 +24829,8 @@
       <c r="H70" s="72"/>
     </row>
     <row r="71" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="233"/>
-      <c r="B71" s="230"/>
+      <c r="A71" s="239"/>
+      <c r="B71" s="244"/>
       <c r="C71" s="69" t="s">
         <v>12</v>
       </c>
@@ -24739,8 +24849,8 @@
       <c r="H71" s="72"/>
     </row>
     <row r="72" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A72" s="233"/>
-      <c r="B72" s="230"/>
+      <c r="A72" s="239"/>
+      <c r="B72" s="244"/>
       <c r="C72" s="69" t="s">
         <v>167</v>
       </c>
@@ -24759,8 +24869,8 @@
       <c r="H72" s="72"/>
     </row>
     <row r="73" spans="1:1024" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="234"/>
-      <c r="B73" s="231"/>
+      <c r="A73" s="240"/>
+      <c r="B73" s="245"/>
       <c r="C73" s="73" t="s">
         <v>25</v>
       </c>
@@ -24779,7 +24889,7 @@
       <c r="H73" s="76"/>
     </row>
     <row r="74" spans="1:1024" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="235" t="s">
+      <c r="A74" s="241" t="s">
         <v>172</v>
       </c>
       <c r="B74" s="31"/>
@@ -26842,7 +26952,7 @@
     </row>
     <row r="76" spans="1:1024" s="14" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="236"/>
-      <c r="B76" s="226" t="s">
+      <c r="B76" s="228" t="s">
         <v>176</v>
       </c>
       <c r="C76" s="47" t="s">
@@ -27880,7 +27990,7 @@
     </row>
     <row r="77" spans="1:1024" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="236"/>
-      <c r="B77" s="226"/>
+      <c r="B77" s="228"/>
       <c r="C77" s="47" t="s">
         <v>179</v>
       </c>
@@ -28916,7 +29026,7 @@
     </row>
     <row r="78" spans="1:1024" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="236"/>
-      <c r="B78" s="226"/>
+      <c r="B78" s="228"/>
       <c r="C78" s="47" t="s">
         <v>182</v>
       </c>
@@ -29952,7 +30062,7 @@
     </row>
     <row r="79" spans="1:1024" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="236"/>
-      <c r="B79" s="226"/>
+      <c r="B79" s="228"/>
       <c r="C79" s="47" t="s">
         <v>185</v>
       </c>
@@ -30988,7 +31098,7 @@
     </row>
     <row r="80" spans="1:1024" s="14" customFormat="1" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="237"/>
-      <c r="B80" s="227"/>
+      <c r="B80" s="229"/>
       <c r="C80" s="51" t="s">
         <v>25</v>
       </c>
@@ -32097,6 +32207,13 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" insertRows="0" deleteRows="0"/>
   <mergeCells count="14">
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="B52:B63"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A50:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A67:A73"/>
+    <mergeCell ref="A74:A80"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B38:B49"/>
     <mergeCell ref="A3:A11"/>
@@ -32104,13 +32221,6 @@
     <mergeCell ref="A18:A30"/>
     <mergeCell ref="A31:A35"/>
     <mergeCell ref="A36:A49"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="B52:B63"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A50:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:A73"/>
-    <mergeCell ref="A74:A80"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -32150,16 +32260,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="238" t="s">
-        <v>508</v>
-      </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="239"/>
+      <c r="A1" s="226" t="s">
+        <v>500</v>
+      </c>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="227"/>
     </row>
     <row r="2" spans="1:8" s="35" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -32188,7 +32298,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="230" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="27"/>
@@ -32200,7 +32310,7 @@
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="241"/>
+      <c r="A4" s="231"/>
       <c r="B4" s="47" t="s">
         <v>8</v>
       </c>
@@ -32215,12 +32325,12 @@
         <v>192</v>
       </c>
       <c r="G4" s="183" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="241"/>
+      <c r="A5" s="231"/>
       <c r="B5" s="47" t="s">
         <v>13</v>
       </c>
@@ -32240,7 +32350,7 @@
       <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="241"/>
+      <c r="A6" s="231"/>
       <c r="B6" s="47" t="s">
         <v>25</v>
       </c>
@@ -32260,7 +32370,7 @@
       <c r="H6" s="50"/>
     </row>
     <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="241"/>
+      <c r="A7" s="231"/>
       <c r="B7" s="47" t="s">
         <v>26</v>
       </c>
@@ -32280,7 +32390,7 @@
       <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="241"/>
+      <c r="A8" s="231"/>
       <c r="B8" s="47" t="s">
         <v>30</v>
       </c>
@@ -32300,7 +32410,7 @@
       <c r="H8" s="50"/>
     </row>
     <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="241"/>
+      <c r="A9" s="231"/>
       <c r="B9" s="47" t="s">
         <v>16</v>
       </c>
@@ -32320,13 +32430,13 @@
       <c r="H9" s="50"/>
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="241"/>
+      <c r="A10" s="231"/>
       <c r="B10" s="47" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="47" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="E10" s="49" t="s">
         <v>20</v>
@@ -32335,12 +32445,12 @@
         <v>201</v>
       </c>
       <c r="G10" s="183" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H10" s="50"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="242"/>
+      <c r="A11" s="232"/>
       <c r="B11" s="51" t="s">
         <v>22</v>
       </c>
@@ -32394,17 +32504,17 @@
     <row r="14" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="247"/>
       <c r="B14" s="103" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C14" s="103"/>
       <c r="D14" s="103" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E14" s="104" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F14" s="103" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="G14" s="186" t="s">
         <v>12</v>
@@ -32426,14 +32536,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AMJ37"/>
+  <dimension ref="A1:AMJ59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E10" sqref="E10"/>
       <selection pane="topRight" activeCell="E10" sqref="E10"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
-      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -32450,16 +32560,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="238" t="s">
-        <v>509</v>
-      </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="239"/>
+      <c r="A1" s="226" t="s">
+        <v>501</v>
+      </c>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="227"/>
     </row>
     <row r="2" spans="1:1024" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -32488,7 +32598,7 @@
       </c>
     </row>
     <row r="3" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="230" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="37"/>
@@ -32538,7 +32648,7 @@
       <c r="AMJ3" s="5"/>
     </row>
     <row r="4" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="241"/>
+      <c r="A4" s="231"/>
       <c r="B4" s="105" t="s">
         <v>207</v>
       </c>
@@ -32551,12 +32661,12 @@
         <v>209</v>
       </c>
       <c r="G4" s="197" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H4" s="107"/>
     </row>
     <row r="5" spans="1:1024" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="241"/>
+      <c r="A5" s="231"/>
       <c r="B5" s="105" t="s">
         <v>210</v>
       </c>
@@ -32571,42 +32681,42 @@
       <c r="G5" s="197"/>
       <c r="H5" s="107"/>
     </row>
-    <row r="6" spans="1:1024" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="241"/>
+    <row r="6" spans="1:1024" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="231"/>
       <c r="B6" s="105" t="s">
         <v>213</v>
       </c>
       <c r="C6" s="106"/>
       <c r="D6" s="105" t="s">
-        <v>214</v>
+        <v>527</v>
       </c>
       <c r="E6" s="106"/>
       <c r="F6" s="105" t="s">
-        <v>215</v>
+        <v>528</v>
       </c>
       <c r="G6" s="197"/>
       <c r="H6" s="107"/>
     </row>
     <row r="7" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="241"/>
+      <c r="A7" s="231"/>
       <c r="B7" s="105" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C7" s="106"/>
       <c r="D7" s="105" t="s">
-        <v>515</v>
+        <v>220</v>
       </c>
       <c r="E7" s="106"/>
       <c r="F7" s="105" t="s">
-        <v>217</v>
+        <v>529</v>
       </c>
       <c r="G7" s="197"/>
       <c r="H7" s="107"/>
     </row>
     <row r="8" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="241"/>
+      <c r="A8" s="231"/>
       <c r="B8" s="105" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C8" s="106"/>
       <c r="D8" s="105" t="s">
@@ -32614,39 +32724,41 @@
       </c>
       <c r="E8" s="106"/>
       <c r="F8" s="105" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G8" s="197"/>
       <c r="H8" s="107"/>
     </row>
-    <row r="9" spans="1:1024" ht="90.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="241"/>
+    <row r="9" spans="1:1024" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="231"/>
       <c r="B9" s="105" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C9" s="106"/>
       <c r="D9" s="105" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E9" s="106"/>
       <c r="F9" s="105" t="s">
-        <v>222</v>
-      </c>
-      <c r="G9" s="197"/>
+        <v>530</v>
+      </c>
+      <c r="G9" s="197" t="s">
+        <v>43</v>
+      </c>
       <c r="H9" s="107"/>
     </row>
     <row r="10" spans="1:1024" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="241"/>
+      <c r="A10" s="231"/>
       <c r="B10" s="105" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C10" s="106"/>
       <c r="D10" s="105" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E10" s="106"/>
       <c r="F10" s="105" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G10" s="197"/>
       <c r="H10" s="107"/>
@@ -32664,60 +32776,62 @@
       <c r="T10" s="8"/>
       <c r="AMJ10" s="5"/>
     </row>
-    <row r="11" spans="1:1024" ht="116" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="241"/>
+    <row r="11" spans="1:1024" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="231"/>
       <c r="B11" s="105" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="106"/>
       <c r="D11" s="105" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E11" s="106"/>
       <c r="F11" s="105" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G11" s="197"/>
       <c r="H11" s="107"/>
     </row>
-    <row r="12" spans="1:1024" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="241"/>
+    <row r="12" spans="1:1024" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="231"/>
       <c r="B12" s="105" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C12" s="106"/>
       <c r="D12" s="105" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E12" s="106"/>
       <c r="F12" s="105" t="s">
-        <v>229</v>
-      </c>
-      <c r="G12" s="197"/>
+        <v>531</v>
+      </c>
+      <c r="G12" s="197" t="s">
+        <v>43</v>
+      </c>
       <c r="H12" s="107"/>
     </row>
     <row r="13" spans="1:1024" ht="68" x14ac:dyDescent="0.2">
-      <c r="A13" s="241"/>
+      <c r="A13" s="231"/>
       <c r="B13" s="105" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C13" s="106"/>
       <c r="D13" s="105" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E13" s="106"/>
       <c r="F13" s="105" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G13" s="197" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H13" s="107"/>
     </row>
     <row r="14" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="241"/>
+      <c r="A14" s="231"/>
       <c r="B14" s="105" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="C14" s="106"/>
       <c r="D14" s="105" t="s">
@@ -32725,7 +32839,7 @@
       </c>
       <c r="E14" s="106"/>
       <c r="F14" s="105" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="G14" s="197" t="s">
         <v>43</v>
@@ -32733,23 +32847,23 @@
       <c r="H14" s="107"/>
     </row>
     <row r="15" spans="1:1024" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="242"/>
+      <c r="A15" s="232"/>
       <c r="B15" s="108" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C15" s="109"/>
       <c r="D15" s="108" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E15" s="109"/>
       <c r="F15" s="108" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G15" s="198"/>
       <c r="H15" s="110"/>
     </row>
     <row r="16" spans="1:1024" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A16" s="232" t="s">
+      <c r="A16" s="238" t="s">
         <v>154</v>
       </c>
       <c r="B16" s="111"/>
@@ -32761,450 +32875,814 @@
       <c r="H16" s="112"/>
       <c r="AMJ16" s="5"/>
     </row>
-    <row r="17" spans="1:1024" ht="127" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="233"/>
+    <row r="17" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="239"/>
       <c r="B17" s="113" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C17" s="114"/>
       <c r="D17" s="113" t="s">
-        <v>238</v>
+        <v>532</v>
       </c>
       <c r="E17" s="114"/>
       <c r="F17" s="113" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G17" s="200"/>
       <c r="H17" s="115"/>
     </row>
-    <row r="18" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="233"/>
-      <c r="B18" s="113" t="s">
-        <v>240</v>
-      </c>
-      <c r="C18" s="114"/>
-      <c r="D18" s="113"/>
+    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="239"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="114" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="113" t="s">
+        <v>211</v>
+      </c>
       <c r="E18" s="114"/>
       <c r="F18" s="113" t="s">
-        <v>241</v>
+        <v>545</v>
       </c>
       <c r="G18" s="200"/>
       <c r="H18" s="115"/>
     </row>
-    <row r="19" spans="1:1024" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="234"/>
-      <c r="B19" s="116" t="s">
-        <v>242</v>
-      </c>
-      <c r="C19" s="117"/>
-      <c r="D19" s="116" t="s">
-        <v>243</v>
-      </c>
-      <c r="E19" s="117"/>
-      <c r="F19" s="116" t="s">
-        <v>244</v>
-      </c>
-      <c r="G19" s="201"/>
-      <c r="H19" s="118"/>
+    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="239"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="114" t="s">
+        <v>210</v>
+      </c>
+      <c r="D19" s="113" t="s">
+        <v>211</v>
+      </c>
+      <c r="E19" s="114"/>
+      <c r="F19" s="113" t="s">
+        <v>546</v>
+      </c>
+      <c r="G19" s="200"/>
+      <c r="H19" s="115"/>
     </row>
-    <row r="20" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="235" t="s">
-        <v>245</v>
-      </c>
-      <c r="B20" s="119"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="202"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="7"/>
-      <c r="AH20" s="7"/>
-      <c r="AI20" s="7"/>
-      <c r="AJ20" s="7"/>
-      <c r="AK20" s="7"/>
-      <c r="AL20" s="7"/>
-      <c r="AM20" s="7"/>
-      <c r="AN20" s="7"/>
-      <c r="AO20" s="7"/>
-      <c r="AP20" s="7"/>
-      <c r="AQ20" s="7"/>
-      <c r="AR20" s="7"/>
-      <c r="AS20" s="7"/>
-      <c r="AMJ20" s="5"/>
+    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="239"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="114" t="s">
+        <v>533</v>
+      </c>
+      <c r="D20" s="113" t="s">
+        <v>224</v>
+      </c>
+      <c r="E20" s="114"/>
+      <c r="F20" s="113" t="s">
+        <v>547</v>
+      </c>
+      <c r="G20" s="200"/>
+      <c r="H20" s="115"/>
     </row>
-    <row r="21" spans="1:1024" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="237"/>
-      <c r="B21" s="108" t="s">
-        <v>246</v>
-      </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="108" t="s">
-        <v>247</v>
-      </c>
-      <c r="E21" s="109"/>
-      <c r="F21" s="108" t="s">
-        <v>248</v>
-      </c>
-      <c r="G21" s="198"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AMJ21" s="5"/>
+    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="239"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="114" t="s">
+        <v>534</v>
+      </c>
+      <c r="D21" s="113" t="s">
+        <v>542</v>
+      </c>
+      <c r="E21" s="114"/>
+      <c r="F21" s="113" t="s">
+        <v>548</v>
+      </c>
+      <c r="G21" s="200"/>
+      <c r="H21" s="115"/>
     </row>
-    <row r="22" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="232" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="199"/>
-      <c r="H22" s="112"/>
-      <c r="AMJ22" s="5"/>
+    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="239"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="114" t="s">
+        <v>535</v>
+      </c>
+      <c r="D22" s="113" t="s">
+        <v>543</v>
+      </c>
+      <c r="E22" s="114"/>
+      <c r="F22" s="113" t="s">
+        <v>549</v>
+      </c>
+      <c r="G22" s="200"/>
+      <c r="H22" s="115"/>
     </row>
-    <row r="23" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="233"/>
-      <c r="B23" s="113" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="114"/>
+    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="239"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="114" t="s">
+        <v>536</v>
+      </c>
       <c r="D23" s="113" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="E23" s="114"/>
       <c r="F23" s="113" t="s">
-        <v>249</v>
+        <v>550</v>
       </c>
       <c r="G23" s="200"/>
       <c r="H23" s="115"/>
     </row>
-    <row r="24" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="233"/>
-      <c r="B24" s="113" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="114"/>
+    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="239"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="114" t="s">
+        <v>537</v>
+      </c>
       <c r="D24" s="113" t="s">
-        <v>224</v>
+        <v>544</v>
       </c>
       <c r="E24" s="114"/>
       <c r="F24" s="113" t="s">
-        <v>250</v>
+        <v>551</v>
       </c>
       <c r="G24" s="200"/>
       <c r="H24" s="115"/>
     </row>
-    <row r="25" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="234"/>
-      <c r="B25" s="116" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="117"/>
-      <c r="D25" s="116" t="s">
+    <row r="25" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="239"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="114" t="s">
+        <v>538</v>
+      </c>
+      <c r="D25" s="113" t="s">
         <v>224</v>
       </c>
-      <c r="E25" s="117"/>
-      <c r="F25" s="116" t="s">
-        <v>251</v>
-      </c>
-      <c r="G25" s="201"/>
-      <c r="H25" s="118"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="113" t="s">
+        <v>552</v>
+      </c>
+      <c r="G25" s="200"/>
+      <c r="H25" s="115"/>
     </row>
-    <row r="26" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="235" t="s">
-        <v>252</v>
-      </c>
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="203"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AMJ26" s="5"/>
+    <row r="26" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="239"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="114" t="s">
+        <v>539</v>
+      </c>
+      <c r="D26" s="113" t="s">
+        <v>224</v>
+      </c>
+      <c r="E26" s="114"/>
+      <c r="F26" s="113" t="s">
+        <v>553</v>
+      </c>
+      <c r="G26" s="200"/>
+      <c r="H26" s="115"/>
     </row>
-    <row r="27" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="236"/>
-      <c r="B27" s="105" t="s">
-        <v>253</v>
-      </c>
-      <c r="C27" s="106"/>
-      <c r="D27" s="105" t="s">
-        <v>228</v>
-      </c>
-      <c r="E27" s="106"/>
-      <c r="F27" s="105" t="s">
-        <v>254</v>
-      </c>
-      <c r="G27" s="197" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="107"/>
+    <row r="27" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="239"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="114" t="s">
+        <v>540</v>
+      </c>
+      <c r="D27" s="113" t="s">
+        <v>224</v>
+      </c>
+      <c r="E27" s="114"/>
+      <c r="F27" s="113" t="s">
+        <v>554</v>
+      </c>
+      <c r="G27" s="200"/>
+      <c r="H27" s="115"/>
     </row>
-    <row r="28" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="236"/>
-      <c r="B28" s="105" t="s">
-        <v>255</v>
-      </c>
-      <c r="C28" s="106"/>
-      <c r="D28" s="105" t="s">
-        <v>228</v>
-      </c>
-      <c r="E28" s="106"/>
-      <c r="F28" s="105" t="s">
-        <v>256</v>
-      </c>
-      <c r="G28" s="197" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="107"/>
+    <row r="28" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="239"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="114" t="s">
+        <v>541</v>
+      </c>
+      <c r="D28" s="113" t="s">
+        <v>544</v>
+      </c>
+      <c r="E28" s="114"/>
+      <c r="F28" s="113" t="s">
+        <v>555</v>
+      </c>
+      <c r="G28" s="200"/>
+      <c r="H28" s="115"/>
     </row>
-    <row r="29" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="236"/>
-      <c r="B29" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="106"/>
-      <c r="D29" s="105" t="s">
-        <v>228</v>
-      </c>
-      <c r="E29" s="106"/>
-      <c r="F29" s="105" t="s">
-        <v>257</v>
-      </c>
-      <c r="G29" s="197" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="107"/>
+    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="239"/>
+      <c r="B29" s="113" t="s">
+        <v>234</v>
+      </c>
+      <c r="C29" s="114"/>
+      <c r="D29" s="113" t="s">
+        <v>532</v>
+      </c>
+      <c r="E29" s="114"/>
+      <c r="F29" s="113" t="s">
+        <v>235</v>
+      </c>
+      <c r="G29" s="200"/>
+      <c r="H29" s="115"/>
     </row>
-    <row r="30" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="236"/>
-      <c r="B30" s="105" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="106"/>
-      <c r="D30" s="105" t="s">
-        <v>228</v>
-      </c>
-      <c r="E30" s="106"/>
-      <c r="F30" s="105" t="s">
-        <v>258</v>
-      </c>
-      <c r="G30" s="197" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="107"/>
+    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="239"/>
+      <c r="B30" s="257"/>
+      <c r="C30" s="114" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="113" t="s">
+        <v>211</v>
+      </c>
+      <c r="E30" s="258"/>
+      <c r="F30" s="113" t="s">
+        <v>556</v>
+      </c>
+      <c r="G30" s="259"/>
+      <c r="H30" s="260"/>
     </row>
-    <row r="31" spans="1:1024" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="236"/>
-      <c r="B31" s="105" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="106"/>
-      <c r="D31" s="105" t="s">
-        <v>228</v>
-      </c>
-      <c r="E31" s="106"/>
-      <c r="F31" s="105" t="s">
-        <v>259</v>
-      </c>
-      <c r="G31" s="197" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" s="107"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="8"/>
-      <c r="AA31" s="8"/>
-      <c r="AMJ31" s="5"/>
+    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="239"/>
+      <c r="B31" s="257"/>
+      <c r="C31" s="114" t="s">
+        <v>210</v>
+      </c>
+      <c r="D31" s="113" t="s">
+        <v>211</v>
+      </c>
+      <c r="E31" s="258"/>
+      <c r="F31" s="113" t="s">
+        <v>557</v>
+      </c>
+      <c r="G31" s="259"/>
+      <c r="H31" s="260"/>
     </row>
-    <row r="32" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="236"/>
-      <c r="B32" s="105" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="106"/>
-      <c r="D32" s="105" t="s">
-        <v>228</v>
-      </c>
-      <c r="E32" s="106"/>
-      <c r="F32" s="105" t="s">
-        <v>260</v>
-      </c>
-      <c r="G32" s="197" t="s">
-        <v>43</v>
-      </c>
-      <c r="H32" s="107"/>
+    <row r="32" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="239"/>
+      <c r="B32" s="257"/>
+      <c r="C32" s="114" t="s">
+        <v>533</v>
+      </c>
+      <c r="D32" s="113" t="s">
+        <v>224</v>
+      </c>
+      <c r="E32" s="258"/>
+      <c r="F32" s="113" t="s">
+        <v>558</v>
+      </c>
+      <c r="G32" s="259"/>
+      <c r="H32" s="260"/>
     </row>
     <row r="33" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="236"/>
-      <c r="B33" s="105" t="s">
+      <c r="A33" s="239"/>
+      <c r="B33" s="257"/>
+      <c r="C33" s="114" t="s">
+        <v>534</v>
+      </c>
+      <c r="D33" s="113" t="s">
+        <v>542</v>
+      </c>
+      <c r="E33" s="258"/>
+      <c r="F33" s="113" t="s">
+        <v>559</v>
+      </c>
+      <c r="G33" s="259"/>
+      <c r="H33" s="260"/>
+    </row>
+    <row r="34" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="239"/>
+      <c r="B34" s="257"/>
+      <c r="C34" s="114" t="s">
+        <v>535</v>
+      </c>
+      <c r="D34" s="113" t="s">
+        <v>543</v>
+      </c>
+      <c r="E34" s="258"/>
+      <c r="F34" s="113" t="s">
+        <v>560</v>
+      </c>
+      <c r="G34" s="259"/>
+      <c r="H34" s="260"/>
+    </row>
+    <row r="35" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="239"/>
+      <c r="B35" s="257"/>
+      <c r="C35" s="114" t="s">
+        <v>536</v>
+      </c>
+      <c r="D35" s="113" t="s">
+        <v>211</v>
+      </c>
+      <c r="E35" s="258"/>
+      <c r="F35" s="113" t="s">
+        <v>561</v>
+      </c>
+      <c r="G35" s="259"/>
+      <c r="H35" s="260"/>
+    </row>
+    <row r="36" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="239"/>
+      <c r="B36" s="257"/>
+      <c r="C36" s="114" t="s">
+        <v>537</v>
+      </c>
+      <c r="D36" s="113" t="s">
+        <v>544</v>
+      </c>
+      <c r="E36" s="258"/>
+      <c r="F36" s="113" t="s">
+        <v>551</v>
+      </c>
+      <c r="G36" s="259"/>
+      <c r="H36" s="260"/>
+    </row>
+    <row r="37" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="239"/>
+      <c r="B37" s="257"/>
+      <c r="C37" s="114" t="s">
+        <v>538</v>
+      </c>
+      <c r="D37" s="113" t="s">
+        <v>224</v>
+      </c>
+      <c r="E37" s="258"/>
+      <c r="F37" s="113" t="s">
+        <v>552</v>
+      </c>
+      <c r="G37" s="259"/>
+      <c r="H37" s="260"/>
+    </row>
+    <row r="38" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="239"/>
+      <c r="B38" s="257"/>
+      <c r="C38" s="114" t="s">
+        <v>539</v>
+      </c>
+      <c r="D38" s="113" t="s">
+        <v>224</v>
+      </c>
+      <c r="E38" s="258"/>
+      <c r="F38" s="113" t="s">
+        <v>553</v>
+      </c>
+      <c r="G38" s="259"/>
+      <c r="H38" s="260"/>
+    </row>
+    <row r="39" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="239"/>
+      <c r="B39" s="257"/>
+      <c r="C39" s="114" t="s">
+        <v>540</v>
+      </c>
+      <c r="D39" s="113" t="s">
+        <v>224</v>
+      </c>
+      <c r="E39" s="258"/>
+      <c r="F39" s="113" t="s">
+        <v>562</v>
+      </c>
+      <c r="G39" s="259"/>
+      <c r="H39" s="260"/>
+    </row>
+    <row r="40" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="239"/>
+      <c r="B40" s="257"/>
+      <c r="C40" s="114" t="s">
+        <v>541</v>
+      </c>
+      <c r="D40" s="113" t="s">
+        <v>544</v>
+      </c>
+      <c r="E40" s="258"/>
+      <c r="F40" s="113" t="s">
+        <v>563</v>
+      </c>
+      <c r="G40" s="259"/>
+      <c r="H40" s="260"/>
+    </row>
+    <row r="41" spans="1:1024" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="240"/>
+      <c r="B41" s="116" t="s">
+        <v>236</v>
+      </c>
+      <c r="C41" s="117"/>
+      <c r="D41" s="116" t="s">
+        <v>218</v>
+      </c>
+      <c r="E41" s="117"/>
+      <c r="F41" s="116" t="s">
+        <v>564</v>
+      </c>
+      <c r="G41" s="201" t="s">
+        <v>43</v>
+      </c>
+      <c r="H41" s="118"/>
+    </row>
+    <row r="42" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="241" t="s">
+        <v>237</v>
+      </c>
+      <c r="B42" s="119"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="119"/>
+      <c r="E42" s="119"/>
+      <c r="F42" s="119"/>
+      <c r="G42" s="202"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="7"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="7"/>
+      <c r="AG42" s="7"/>
+      <c r="AH42" s="7"/>
+      <c r="AI42" s="7"/>
+      <c r="AJ42" s="7"/>
+      <c r="AK42" s="7"/>
+      <c r="AL42" s="7"/>
+      <c r="AM42" s="7"/>
+      <c r="AN42" s="7"/>
+      <c r="AO42" s="7"/>
+      <c r="AP42" s="7"/>
+      <c r="AQ42" s="7"/>
+      <c r="AR42" s="7"/>
+      <c r="AS42" s="7"/>
+      <c r="AMJ42" s="5"/>
+    </row>
+    <row r="43" spans="1:1024" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="237"/>
+      <c r="B43" s="108" t="s">
+        <v>238</v>
+      </c>
+      <c r="C43" s="109"/>
+      <c r="D43" s="108" t="s">
+        <v>239</v>
+      </c>
+      <c r="E43" s="109"/>
+      <c r="F43" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="G43" s="201" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43" s="110"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AMJ43" s="5"/>
+    </row>
+    <row r="44" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="238" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="111"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
+      <c r="G44" s="199"/>
+      <c r="H44" s="112"/>
+      <c r="AMJ44" s="5"/>
+    </row>
+    <row r="45" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="239"/>
+      <c r="B45" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="114"/>
+      <c r="D45" s="113" t="s">
+        <v>220</v>
+      </c>
+      <c r="E45" s="114"/>
+      <c r="F45" s="113" t="s">
+        <v>241</v>
+      </c>
+      <c r="G45" s="201" t="s">
+        <v>43</v>
+      </c>
+      <c r="H45" s="115"/>
+    </row>
+    <row r="46" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="239"/>
+      <c r="B46" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="114"/>
+      <c r="D46" s="113" t="s">
+        <v>220</v>
+      </c>
+      <c r="E46" s="114"/>
+      <c r="F46" s="113" t="s">
+        <v>242</v>
+      </c>
+      <c r="G46" s="201" t="s">
+        <v>43</v>
+      </c>
+      <c r="H46" s="115"/>
+    </row>
+    <row r="47" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="240"/>
+      <c r="B47" s="116" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="117"/>
+      <c r="D47" s="116" t="s">
+        <v>220</v>
+      </c>
+      <c r="E47" s="117"/>
+      <c r="F47" s="116" t="s">
+        <v>243</v>
+      </c>
+      <c r="G47" s="201" t="s">
+        <v>43</v>
+      </c>
+      <c r="H47" s="118"/>
+    </row>
+    <row r="48" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="241" t="s">
+        <v>244</v>
+      </c>
+      <c r="B48" s="121"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="121"/>
+      <c r="F48" s="121"/>
+      <c r="G48" s="203"/>
+      <c r="H48" s="122"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+      <c r="AMJ48" s="5"/>
+    </row>
+    <row r="49" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
+      <c r="A49" s="236"/>
+      <c r="B49" s="105" t="s">
+        <v>245</v>
+      </c>
+      <c r="C49" s="106"/>
+      <c r="D49" s="105" t="s">
+        <v>224</v>
+      </c>
+      <c r="E49" s="106"/>
+      <c r="F49" s="105" t="s">
+        <v>246</v>
+      </c>
+      <c r="G49" s="197" t="s">
+        <v>43</v>
+      </c>
+      <c r="H49" s="107"/>
+    </row>
+    <row r="50" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="236"/>
+      <c r="B50" s="105" t="s">
+        <v>247</v>
+      </c>
+      <c r="C50" s="106"/>
+      <c r="D50" s="105" t="s">
+        <v>224</v>
+      </c>
+      <c r="E50" s="106"/>
+      <c r="F50" s="105" t="s">
+        <v>248</v>
+      </c>
+      <c r="G50" s="197" t="s">
+        <v>43</v>
+      </c>
+      <c r="H50" s="107"/>
+    </row>
+    <row r="51" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="236"/>
+      <c r="B51" s="105" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="106"/>
+      <c r="D51" s="105" t="s">
+        <v>224</v>
+      </c>
+      <c r="E51" s="106"/>
+      <c r="F51" s="105" t="s">
+        <v>249</v>
+      </c>
+      <c r="G51" s="197" t="s">
+        <v>43</v>
+      </c>
+      <c r="H51" s="107"/>
+    </row>
+    <row r="52" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="236"/>
+      <c r="B52" s="105" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="106"/>
+      <c r="D52" s="105" t="s">
+        <v>224</v>
+      </c>
+      <c r="E52" s="106"/>
+      <c r="F52" s="105" t="s">
+        <v>250</v>
+      </c>
+      <c r="G52" s="197" t="s">
+        <v>43</v>
+      </c>
+      <c r="H52" s="107"/>
+    </row>
+    <row r="53" spans="1:1024" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="236"/>
+      <c r="B53" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="106"/>
+      <c r="D53" s="105" t="s">
+        <v>224</v>
+      </c>
+      <c r="E53" s="106"/>
+      <c r="F53" s="105" t="s">
+        <v>251</v>
+      </c>
+      <c r="G53" s="197" t="s">
+        <v>43</v>
+      </c>
+      <c r="H53" s="107"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+      <c r="AMJ53" s="5"/>
+    </row>
+    <row r="54" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="236"/>
+      <c r="B54" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="106"/>
+      <c r="D54" s="105" t="s">
+        <v>224</v>
+      </c>
+      <c r="E54" s="106"/>
+      <c r="F54" s="105" t="s">
+        <v>252</v>
+      </c>
+      <c r="G54" s="197" t="s">
+        <v>43</v>
+      </c>
+      <c r="H54" s="107"/>
+    </row>
+    <row r="55" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="236"/>
+      <c r="B55" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="106"/>
-      <c r="D33" s="105" t="s">
-        <v>228</v>
-      </c>
-      <c r="E33" s="106"/>
-      <c r="F33" s="105" t="s">
-        <v>261</v>
-      </c>
-      <c r="G33" s="197" t="s">
+      <c r="C55" s="106"/>
+      <c r="D55" s="105" t="s">
+        <v>224</v>
+      </c>
+      <c r="E55" s="106"/>
+      <c r="F55" s="105" t="s">
+        <v>253</v>
+      </c>
+      <c r="G55" s="197" t="s">
         <v>43</v>
       </c>
-      <c r="H33" s="107"/>
+      <c r="H55" s="107"/>
     </row>
-    <row r="34" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="236"/>
-      <c r="B34" s="105" t="s">
+    <row r="56" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="236"/>
+      <c r="B56" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="106"/>
-      <c r="D34" s="105" t="s">
-        <v>228</v>
-      </c>
-      <c r="E34" s="106"/>
-      <c r="F34" s="105" t="s">
-        <v>262</v>
-      </c>
-      <c r="G34" s="197" t="s">
+      <c r="C56" s="106"/>
+      <c r="D56" s="105" t="s">
+        <v>224</v>
+      </c>
+      <c r="E56" s="106"/>
+      <c r="F56" s="105" t="s">
+        <v>254</v>
+      </c>
+      <c r="G56" s="197" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="107"/>
+      <c r="H56" s="107"/>
     </row>
-    <row r="35" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="237"/>
-      <c r="B35" s="108" t="s">
+    <row r="57" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="237"/>
+      <c r="B57" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="109"/>
-      <c r="D35" s="108" t="s">
-        <v>228</v>
-      </c>
-      <c r="E35" s="109"/>
-      <c r="F35" s="108" t="s">
-        <v>263</v>
-      </c>
-      <c r="G35" s="198" t="s">
+      <c r="C57" s="109"/>
+      <c r="D57" s="108" t="s">
+        <v>224</v>
+      </c>
+      <c r="E57" s="109"/>
+      <c r="F57" s="108" t="s">
+        <v>255</v>
+      </c>
+      <c r="G57" s="198" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="110"/>
+      <c r="H57" s="110"/>
     </row>
-    <row r="36" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="232" t="s">
-        <v>522</v>
-      </c>
-      <c r="B36" s="123"/>
-      <c r="C36" s="123"/>
-      <c r="D36" s="123"/>
-      <c r="E36" s="123"/>
-      <c r="F36" s="123"/>
-      <c r="G36" s="204"/>
-      <c r="H36" s="124"/>
-      <c r="AMJ36" s="5"/>
+    <row r="58" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="238" t="s">
+        <v>513</v>
+      </c>
+      <c r="B58" s="123"/>
+      <c r="C58" s="123"/>
+      <c r="D58" s="123"/>
+      <c r="E58" s="123"/>
+      <c r="F58" s="123"/>
+      <c r="G58" s="204"/>
+      <c r="H58" s="124"/>
+      <c r="AMJ58" s="5"/>
     </row>
-    <row r="37" spans="1:1024" ht="90.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="234"/>
-      <c r="B37" s="116" t="s">
+    <row r="59" spans="1:1024" ht="90.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="240"/>
+      <c r="B59" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="117"/>
-      <c r="D37" s="116" t="s">
+      <c r="C59" s="117"/>
+      <c r="D59" s="116" t="s">
         <v>211</v>
       </c>
-      <c r="E37" s="117"/>
-      <c r="F37" s="116" t="s">
-        <v>264</v>
-      </c>
-      <c r="G37" s="201"/>
-      <c r="H37" s="118"/>
+      <c r="E59" s="117"/>
+      <c r="F59" s="116" t="s">
+        <v>256</v>
+      </c>
+      <c r="G59" s="201"/>
+      <c r="H59" s="118"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" insertRows="0" deleteRows="0"/>
   <mergeCells count="7">
-    <mergeCell ref="A26:A35"/>
-    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A48:A57"/>
+    <mergeCell ref="A58:A59"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A16:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A47"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -33242,16 +33720,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="238" t="s">
-        <v>510</v>
-      </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="239"/>
+      <c r="A1" s="226" t="s">
+        <v>502</v>
+      </c>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="227"/>
     </row>
     <row r="2" spans="1:1024" s="16" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
@@ -34297,7 +34775,7 @@
     </row>
     <row r="3" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="248" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B3" s="121"/>
       <c r="C3" s="121"/>
@@ -34333,17 +34811,17 @@
         <v>208</v>
       </c>
       <c r="F4" s="105" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G4" s="197" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H4" s="126"/>
     </row>
     <row r="5" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="249"/>
       <c r="B5" s="105" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C5" s="106"/>
       <c r="D5" s="105" t="s">
@@ -34353,17 +34831,17 @@
         <v>208</v>
       </c>
       <c r="F5" s="105" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="G5" s="197" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H5" s="126"/>
     </row>
     <row r="6" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="249"/>
       <c r="B6" s="105" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="C6" s="106"/>
       <c r="D6" s="105" t="s">
@@ -34373,30 +34851,30 @@
         <v>208</v>
       </c>
       <c r="F6" s="105" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G6" s="197" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H6" s="126"/>
     </row>
     <row r="7" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="249"/>
       <c r="B7" s="105" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C7" s="106"/>
       <c r="D7" s="105" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E7" s="106" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F7" s="105" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G7" s="197" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H7" s="126"/>
     </row>
@@ -34416,17 +34894,17 @@
     <row r="9" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="253"/>
       <c r="B9" s="113" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C9" s="114"/>
       <c r="D9" s="113" t="s">
         <v>211</v>
       </c>
       <c r="E9" s="114" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F9" s="113" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="G9" s="206" t="s">
         <v>12</v>
@@ -35452,17 +35930,17 @@
     <row r="10" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="253"/>
       <c r="B10" s="113" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="C10" s="114"/>
       <c r="D10" s="113" t="s">
         <v>211</v>
       </c>
       <c r="E10" s="114" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="F10" s="113" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="G10" s="200" t="s">
         <v>43</v>
@@ -36488,17 +36966,17 @@
     <row r="11" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="253"/>
       <c r="B11" s="113" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C11" s="114"/>
       <c r="D11" s="113" t="s">
         <v>211</v>
       </c>
       <c r="E11" s="114" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="F11" s="113" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G11" s="200" t="s">
         <v>43</v>
@@ -37524,17 +38002,17 @@
     <row r="12" spans="1:1024" s="10" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="253"/>
       <c r="B12" s="113" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="C12" s="114"/>
       <c r="D12" s="113" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E12" s="117" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="F12" s="116" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G12" s="200" t="s">
         <v>43</v>
@@ -38560,17 +39038,17 @@
     <row r="13" spans="1:1024" s="10" customFormat="1" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="253"/>
       <c r="B13" s="113" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C13" s="114"/>
       <c r="D13" s="113" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E13" s="114" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F13" s="113" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G13" s="200" t="s">
         <v>43</v>
@@ -39595,7 +40073,7 @@
     </row>
     <row r="14" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="248" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="B14" s="121"/>
       <c r="C14" s="121"/>
@@ -39617,17 +40095,17 @@
     <row r="15" spans="1:1024" s="16" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="250"/>
       <c r="B15" s="108" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C15" s="109"/>
       <c r="D15" s="108" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E15" s="109" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F15" s="108" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="G15" s="198" t="s">
         <v>43</v>
@@ -40652,7 +41130,7 @@
     </row>
     <row r="16" spans="1:1024" s="40" customFormat="1" ht="18.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="251" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B16" s="111"/>
       <c r="C16" s="111"/>
@@ -41685,13 +42163,13 @@
       </c>
       <c r="C17" s="114"/>
       <c r="D17" s="113" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E17" s="114" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="F17" s="113" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="G17" s="206" t="s">
         <v>12</v>
@@ -41705,13 +42183,13 @@
       </c>
       <c r="C18" s="114"/>
       <c r="D18" s="113" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E18" s="114" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F18" s="113" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G18" s="206" t="s">
         <v>12</v>
@@ -41725,22 +42203,22 @@
       </c>
       <c r="C19" s="117"/>
       <c r="D19" s="116" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E19" s="117" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="F19" s="116" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="G19" s="201" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="H19" s="130"/>
     </row>
     <row r="20" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="248" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B20" s="121"/>
       <c r="C20" s="121"/>
@@ -41768,59 +42246,59 @@
         <v>211</v>
       </c>
       <c r="E21" s="106" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="F21" s="105" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G21" s="197" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="H21" s="126"/>
     </row>
     <row r="22" spans="1:1024" ht="146.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="249"/>
       <c r="B22" s="105" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C22" s="106"/>
       <c r="D22" s="105" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E22" s="106" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="F22" s="105" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G22" s="197" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="H22" s="126"/>
     </row>
     <row r="23" spans="1:1024" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="250"/>
       <c r="B23" s="108" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="C23" s="109"/>
       <c r="D23" s="108" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="E23" s="109" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F23" s="108" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="G23" s="198" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="H23" s="127"/>
     </row>
     <row r="24" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="251" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="B24" s="132"/>
       <c r="C24" s="132"/>
@@ -41834,24 +42312,24 @@
     <row r="25" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="252"/>
       <c r="B25" s="116" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C25" s="117"/>
       <c r="D25" s="116" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="E25" s="117"/>
       <c r="F25" s="116" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="G25" s="201" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="H25" s="130"/>
     </row>
     <row r="26" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="248" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B26" s="121"/>
       <c r="C26" s="121"/>
@@ -41879,10 +42357,10 @@
         <v>211</v>
       </c>
       <c r="E27" s="106" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F27" s="105" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G27" s="197" t="s">
         <v>43</v>
@@ -41899,10 +42377,10 @@
         <v>211</v>
       </c>
       <c r="E28" s="106" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="F28" s="105" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="G28" s="197" t="s">
         <v>43</v>
@@ -41919,10 +42397,10 @@
         <v>211</v>
       </c>
       <c r="E29" s="106" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="F29" s="105" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G29" s="197" t="s">
         <v>43</v>
@@ -41939,10 +42417,10 @@
         <v>211</v>
       </c>
       <c r="E30" s="106" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F30" s="105" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="G30" s="197" t="s">
         <v>43</v>
@@ -41959,10 +42437,10 @@
         <v>211</v>
       </c>
       <c r="E31" s="109" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F31" s="108" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G31" s="198" t="s">
         <v>43</v>
@@ -41971,7 +42449,7 @@
     </row>
     <row r="32" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="251" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B32" s="123"/>
       <c r="C32" s="123"/>
@@ -41992,10 +42470,10 @@
         <v>211</v>
       </c>
       <c r="E33" s="114" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="F33" s="113" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="G33" s="200" t="s">
         <v>43</v>
@@ -42005,7 +42483,7 @@
     <row r="34" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="252"/>
       <c r="B34" s="116" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C34" s="117"/>
       <c r="D34" s="116" t="s">
@@ -42013,7 +42491,7 @@
       </c>
       <c r="E34" s="117"/>
       <c r="F34" s="116" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="G34" s="201" t="s">
         <v>43</v>
@@ -42072,16 +42550,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="238" t="s">
-        <v>511</v>
-      </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="239"/>
+      <c r="A1" s="226" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="227"/>
     </row>
     <row r="2" spans="1:1024" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -42110,8 +42588,8 @@
       </c>
     </row>
     <row r="3" spans="1:1024" s="11" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="235" t="s">
-        <v>526</v>
+      <c r="A3" s="241" t="s">
+        <v>517</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -42146,33 +42624,33 @@
         <v>208</v>
       </c>
       <c r="E4" s="106" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F4" s="136" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G4" s="197" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H4" s="137"/>
     </row>
     <row r="5" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="236"/>
       <c r="B5" s="106" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C5" s="106"/>
       <c r="D5" s="136" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E5" s="106" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F5" s="136" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G5" s="197" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H5" s="137"/>
     </row>
@@ -42189,7 +42667,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="136" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="G6" s="197"/>
       <c r="H6" s="137"/>
@@ -42197,60 +42675,60 @@
     <row r="7" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="236"/>
       <c r="B7" s="106" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C7" s="106"/>
       <c r="D7" s="136" t="s">
         <v>208</v>
       </c>
       <c r="E7" s="106" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F7" s="136" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G7" s="197" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H7" s="137"/>
     </row>
     <row r="8" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="236"/>
       <c r="B8" s="106" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C8" s="106"/>
       <c r="D8" s="136" t="s">
         <v>208</v>
       </c>
       <c r="E8" s="106" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F8" s="136" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G8" s="197" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H8" s="137"/>
     </row>
     <row r="9" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="236"/>
       <c r="B9" s="106" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C9" s="106"/>
       <c r="D9" s="136" t="s">
         <v>208</v>
       </c>
       <c r="E9" s="106" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F9" s="136" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G9" s="197" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H9" s="137"/>
     </row>
@@ -42261,13 +42739,13 @@
       </c>
       <c r="C10" s="106"/>
       <c r="D10" s="136" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E10" s="106" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F10" s="136" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="G10" s="197"/>
       <c r="H10" s="137"/>
@@ -42275,17 +42753,17 @@
     <row r="11" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="236"/>
       <c r="B11" s="106" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C11" s="106"/>
       <c r="D11" s="106" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E11" s="106" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F11" s="136" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G11" s="197"/>
       <c r="H11" s="137"/>
@@ -42293,17 +42771,17 @@
     <row r="12" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="236"/>
       <c r="B12" s="106" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C12" s="106"/>
       <c r="D12" s="136" t="s">
         <v>208</v>
       </c>
       <c r="E12" s="106" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="F12" s="136" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="G12" s="197"/>
       <c r="H12" s="137"/>
@@ -42311,17 +42789,17 @@
     <row r="13" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="236"/>
       <c r="B13" s="106" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C13" s="106"/>
       <c r="D13" s="136" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="E13" s="106" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F13" s="136" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G13" s="197"/>
       <c r="H13" s="137"/>
@@ -42329,17 +42807,17 @@
     <row r="14" spans="1:1024" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="236"/>
       <c r="B14" s="106" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C14" s="106"/>
       <c r="D14" s="136" t="s">
         <v>208</v>
       </c>
       <c r="E14" s="136" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F14" s="136" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G14" s="197"/>
       <c r="H14" s="137"/>
@@ -42347,17 +42825,17 @@
     <row r="15" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="236"/>
       <c r="B15" s="106" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C15" s="106"/>
       <c r="D15" s="136" t="s">
         <v>208</v>
       </c>
       <c r="E15" s="136" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F15" s="136" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G15" s="197"/>
       <c r="H15" s="137"/>
@@ -42365,17 +42843,17 @@
     <row r="16" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="236"/>
       <c r="B16" s="106" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C16" s="106"/>
       <c r="D16" s="136" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E16" s="136" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F16" s="136" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G16" s="197"/>
       <c r="H16" s="137"/>
@@ -42383,7 +42861,7 @@
     <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="236"/>
       <c r="B17" s="106" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C17" s="106"/>
       <c r="D17" s="106" t="s">
@@ -42393,7 +42871,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="136" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G17" s="197"/>
       <c r="H17" s="137"/>
@@ -42401,17 +42879,17 @@
     <row r="18" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="237"/>
       <c r="B18" s="109" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C18" s="109"/>
       <c r="D18" s="109" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="109" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F18" s="138" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="G18" s="198"/>
       <c r="H18" s="139"/>
@@ -42460,16 +42938,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="238" t="s">
-        <v>512</v>
-      </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="239"/>
+      <c r="A1" s="226" t="s">
+        <v>504</v>
+      </c>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="227"/>
     </row>
     <row r="2" spans="1:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -42499,7 +42977,7 @@
     </row>
     <row r="3" spans="1:17" s="144" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="254" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="B3" s="142"/>
       <c r="C3" s="142"/>
@@ -42516,16 +42994,16 @@
       </c>
       <c r="C4" s="106"/>
       <c r="D4" s="105" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E4" s="136" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F4" s="105" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G4" s="197" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H4" s="145"/>
       <c r="I4" s="144"/>
@@ -42541,20 +43019,20 @@
     <row r="5" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="255"/>
       <c r="B5" s="106" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C5" s="106"/>
       <c r="D5" s="105" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E5" s="136" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F5" s="106" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G5" s="197" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H5" s="145"/>
       <c r="I5" s="144"/>
@@ -42577,10 +43055,10 @@
         <v>163</v>
       </c>
       <c r="E6" s="136" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F6" s="106" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G6" s="197"/>
       <c r="H6" s="145"/>
@@ -42597,20 +43075,20 @@
     <row r="7" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="255"/>
       <c r="B7" s="106" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C7" s="106"/>
       <c r="D7" s="105" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E7" s="136" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F7" s="106" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G7" s="197" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H7" s="145"/>
       <c r="I7" s="144"/>
@@ -42626,20 +43104,20 @@
     <row r="8" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="255"/>
       <c r="B8" s="106" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C8" s="106"/>
       <c r="D8" s="105" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E8" s="136" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F8" s="106" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G8" s="197" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H8" s="145"/>
       <c r="I8" s="144"/>
@@ -42655,20 +43133,20 @@
     <row r="9" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="255"/>
       <c r="B9" s="106" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C9" s="106"/>
       <c r="D9" s="105" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E9" s="148" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F9" s="106" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G9" s="197" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H9" s="149"/>
       <c r="I9" s="144"/>
@@ -42688,13 +43166,13 @@
       </c>
       <c r="C10" s="106"/>
       <c r="D10" s="105" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E10" s="136" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F10" s="106" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G10" s="197"/>
       <c r="H10" s="145"/>
@@ -42711,17 +43189,17 @@
     <row r="11" spans="1:17" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="255"/>
       <c r="B11" s="106" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C11" s="106"/>
       <c r="D11" s="105" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E11" s="136" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F11" s="106" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="G11" s="197"/>
       <c r="H11" s="145"/>
@@ -42738,17 +43216,17 @@
     <row r="12" spans="1:17" s="151" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="255"/>
       <c r="B12" s="106" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C12" s="106"/>
       <c r="D12" s="105" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E12" s="136" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F12" s="106" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="G12" s="197"/>
       <c r="H12" s="145"/>
@@ -42765,17 +43243,17 @@
     <row r="13" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="255"/>
       <c r="B13" s="106" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C13" s="106"/>
       <c r="D13" s="105" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E13" s="136" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F13" s="106" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G13" s="197"/>
       <c r="H13" s="145"/>
@@ -42792,17 +43270,17 @@
     <row r="14" spans="1:17" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="255"/>
       <c r="B14" s="106" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C14" s="106"/>
       <c r="D14" s="105" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E14" s="136" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="F14" s="106" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="G14" s="197"/>
       <c r="H14" s="145"/>
@@ -42819,17 +43297,17 @@
     <row r="15" spans="1:17" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="255"/>
       <c r="B15" s="106" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C15" s="106"/>
       <c r="D15" s="105" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E15" s="136" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F15" s="106" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G15" s="197"/>
       <c r="H15" s="145"/>
@@ -42846,17 +43324,17 @@
     <row r="16" spans="1:17" ht="85" x14ac:dyDescent="0.2">
       <c r="A16" s="255"/>
       <c r="B16" s="106" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C16" s="106"/>
       <c r="D16" s="105" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="E16" s="136" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F16" s="106" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="G16" s="197"/>
       <c r="H16" s="145"/>
@@ -42873,17 +43351,17 @@
     <row r="17" spans="1:17" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="255"/>
       <c r="B17" s="106" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C17" s="106"/>
       <c r="D17" s="106" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="E17" s="106" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F17" s="106" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="G17" s="197"/>
       <c r="H17" s="137"/>
@@ -42900,17 +43378,17 @@
     <row r="18" spans="1:17" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="256"/>
       <c r="B18" s="109" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C18" s="109"/>
       <c r="D18" s="109" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="109" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F18" s="109" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="G18" s="198"/>
       <c r="H18" s="139"/>
@@ -42966,16 +43444,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="238" t="s">
-        <v>513</v>
-      </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="239"/>
+      <c r="A1" s="226" t="s">
+        <v>505</v>
+      </c>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="227"/>
     </row>
     <row r="2" spans="1:20" s="153" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
@@ -43004,7 +43482,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" s="157" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="241" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="154"/>
@@ -43038,10 +43516,10 @@
       </c>
       <c r="E4" s="158"/>
       <c r="F4" s="158" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G4" s="183" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H4" s="159"/>
     </row>
@@ -43056,7 +43534,7 @@
       </c>
       <c r="E5" s="158"/>
       <c r="F5" s="158" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="G5" s="183" t="s">
         <v>12</v>
@@ -43074,7 +43552,7 @@
       </c>
       <c r="E6" s="158"/>
       <c r="F6" s="158" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G6" s="183" t="s">
         <v>12</v>
@@ -43088,20 +43566,20 @@
       </c>
       <c r="C7" s="160"/>
       <c r="D7" s="160" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="E7" s="160"/>
       <c r="F7" s="160" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="G7" s="184" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H7" s="161"/>
     </row>
     <row r="8" spans="1:20" s="156" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="232" t="s">
-        <v>303</v>
+      <c r="A8" s="238" t="s">
+        <v>295</v>
       </c>
       <c r="B8" s="162"/>
       <c r="C8" s="162"/>
@@ -43112,17 +43590,17 @@
       <c r="H8" s="163"/>
     </row>
     <row r="9" spans="1:20" ht="18.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="233"/>
+      <c r="A9" s="239"/>
       <c r="B9" s="164" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="164"/>
       <c r="D9" s="164" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E9" s="164"/>
       <c r="F9" s="164" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="G9" s="214" t="s">
         <v>12</v>
@@ -43130,136 +43608,136 @@
       <c r="H9" s="165"/>
     </row>
     <row r="10" spans="1:20" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="233"/>
+      <c r="A10" s="239"/>
       <c r="B10" s="164" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C10" s="164"/>
       <c r="D10" s="164" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="E10" s="164"/>
       <c r="F10" s="164" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="G10" s="186"/>
       <c r="H10" s="165"/>
     </row>
     <row r="11" spans="1:20" ht="40.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="233"/>
+      <c r="A11" s="239"/>
       <c r="B11" s="164"/>
       <c r="C11" s="164" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="D11" s="164" t="s">
         <v>208</v>
       </c>
       <c r="E11" s="164"/>
       <c r="F11" s="164" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="G11" s="186"/>
       <c r="H11" s="165"/>
     </row>
     <row r="12" spans="1:20" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="233"/>
+      <c r="A12" s="239"/>
       <c r="B12" s="164"/>
       <c r="C12" s="164" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="D12" s="164" t="s">
         <v>208</v>
       </c>
       <c r="E12" s="164"/>
       <c r="F12" s="164" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="G12" s="186"/>
       <c r="H12" s="165"/>
     </row>
     <row r="13" spans="1:20" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="233"/>
+      <c r="A13" s="239"/>
       <c r="B13" s="164"/>
       <c r="C13" s="164" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D13" s="164" t="s">
         <v>208</v>
       </c>
       <c r="E13" s="164"/>
       <c r="F13" s="164" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="G13" s="186"/>
       <c r="H13" s="165"/>
     </row>
     <row r="14" spans="1:20" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="233"/>
+      <c r="A14" s="239"/>
       <c r="B14" s="164"/>
       <c r="C14" s="164" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D14" s="164" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="E14" s="164"/>
       <c r="F14" s="164" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G14" s="186"/>
       <c r="H14" s="165"/>
     </row>
     <row r="15" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="233"/>
+      <c r="A15" s="239"/>
       <c r="B15" s="164"/>
       <c r="C15" s="164" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D15" s="164" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E15" s="164"/>
       <c r="F15" s="164" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="G15" s="186"/>
       <c r="H15" s="165"/>
     </row>
     <row r="16" spans="1:20" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="233"/>
+      <c r="A16" s="239"/>
       <c r="B16" s="164" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C16" s="164"/>
       <c r="D16" s="164" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="E16" s="164"/>
       <c r="F16" s="164" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="G16" s="186"/>
       <c r="H16" s="165"/>
     </row>
     <row r="17" spans="1:19" ht="18.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="234"/>
+      <c r="A17" s="240"/>
       <c r="B17" s="166"/>
       <c r="C17" s="166" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D17" s="166" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E17" s="166"/>
       <c r="F17" s="166" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G17" s="187"/>
       <c r="H17" s="167"/>
     </row>
     <row r="18" spans="1:19" s="157" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="235" t="s">
-        <v>397</v>
+      <c r="A18" s="241" t="s">
+        <v>389</v>
       </c>
       <c r="B18" s="168"/>
       <c r="C18" s="168"/>
@@ -43283,15 +43761,15 @@
     <row r="19" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="236"/>
       <c r="B19" s="158" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C19" s="158"/>
       <c r="D19" s="158" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="E19" s="158"/>
       <c r="F19" s="158" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="G19" s="183" t="s">
         <v>43</v>
@@ -43302,14 +43780,14 @@
       <c r="A20" s="236"/>
       <c r="B20" s="158"/>
       <c r="C20" s="158" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D20" s="158" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E20" s="158"/>
       <c r="F20" s="158" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="G20" s="183"/>
       <c r="H20" s="159"/>
@@ -43318,14 +43796,14 @@
       <c r="A21" s="236"/>
       <c r="B21" s="158"/>
       <c r="C21" s="158" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D21" s="158" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E21" s="158"/>
       <c r="F21" s="158" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="G21" s="183"/>
       <c r="H21" s="159"/>
@@ -43334,14 +43812,14 @@
       <c r="A22" s="237"/>
       <c r="B22" s="160"/>
       <c r="C22" s="160" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D22" s="160" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E22" s="160"/>
       <c r="F22" s="160" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="G22" s="184"/>
       <c r="H22" s="161"/>
@@ -43389,16 +43867,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="238" t="s">
-        <v>514</v>
-      </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="239"/>
+      <c r="A1" s="226" t="s">
+        <v>506</v>
+      </c>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="227"/>
     </row>
     <row r="2" spans="1:1024" s="42" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
@@ -44443,8 +44921,8 @@
       <c r="AMJ2" s="41"/>
     </row>
     <row r="3" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="235" t="s">
-        <v>406</v>
+      <c r="A3" s="241" t="s">
+        <v>398</v>
       </c>
       <c r="B3" s="172"/>
       <c r="C3" s="172"/>
@@ -44461,11 +44939,11 @@
       </c>
       <c r="C4" s="158"/>
       <c r="D4" s="47" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E4" s="47"/>
       <c r="F4" s="158" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="G4" s="47"/>
       <c r="H4" s="159"/>
@@ -45489,15 +45967,15 @@
     <row r="5" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="236"/>
       <c r="B5" s="47" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C5" s="158"/>
       <c r="D5" s="47" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E5" s="47"/>
       <c r="F5" s="158" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G5" s="47"/>
       <c r="H5" s="159"/>
@@ -46529,7 +47007,7 @@
       </c>
       <c r="E6" s="47"/>
       <c r="F6" s="158" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G6" s="47"/>
       <c r="H6" s="174"/>
@@ -47553,15 +48031,15 @@
     <row r="7" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="236"/>
       <c r="B7" s="47" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="C7" s="158"/>
       <c r="D7" s="47" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E7" s="47"/>
       <c r="F7" s="158" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G7" s="47"/>
       <c r="H7" s="159"/>
@@ -48585,15 +49063,15 @@
     <row r="8" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="236"/>
       <c r="B8" s="47" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C8" s="158"/>
       <c r="D8" s="47" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E8" s="47"/>
       <c r="F8" s="158" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G8" s="47"/>
       <c r="H8" s="159"/>
@@ -49617,15 +50095,15 @@
     <row r="9" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="236"/>
       <c r="B9" s="47" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C9" s="158"/>
       <c r="D9" s="47" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="E9" s="47"/>
       <c r="F9" s="158" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="G9" s="47"/>
       <c r="H9" s="159"/>
@@ -50649,15 +51127,15 @@
     <row r="10" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="236"/>
       <c r="B10" s="47" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C10" s="158"/>
       <c r="D10" s="47" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E10" s="47"/>
       <c r="F10" s="158" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G10" s="47"/>
       <c r="H10" s="159"/>
@@ -51681,15 +52159,15 @@
     <row r="11" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="236"/>
       <c r="B11" s="47" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C11" s="158"/>
       <c r="D11" s="47" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E11" s="47"/>
       <c r="F11" s="158" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G11" s="47"/>
       <c r="H11" s="159"/>
@@ -52713,15 +53191,15 @@
     <row r="12" spans="1:1024" s="26" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="237"/>
       <c r="B12" s="51" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C12" s="160"/>
       <c r="D12" s="51" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E12" s="51"/>
       <c r="F12" s="160" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G12" s="51"/>
       <c r="H12" s="161"/>
@@ -53743,8 +54221,8 @@
       <c r="AMJ12" s="25"/>
     </row>
     <row r="13" spans="1:1024" s="20" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="232" t="s">
-        <v>421</v>
+      <c r="A13" s="238" t="s">
+        <v>413</v>
       </c>
       <c r="B13" s="175"/>
       <c r="C13" s="175"/>
@@ -53756,39 +54234,39 @@
       <c r="AMJ13" s="21"/>
     </row>
     <row r="14" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="233"/>
+      <c r="A14" s="239"/>
       <c r="B14" s="69" t="s">
         <v>207</v>
       </c>
       <c r="C14" s="69"/>
       <c r="D14" s="69" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E14" s="69"/>
       <c r="F14" s="69" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="G14" s="69"/>
       <c r="H14" s="177"/>
     </row>
     <row r="15" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="233"/>
+      <c r="A15" s="239"/>
       <c r="B15" s="69" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C15" s="69"/>
       <c r="D15" s="69" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E15" s="69"/>
       <c r="F15" s="69" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G15" s="69"/>
       <c r="H15" s="177"/>
     </row>
     <row r="16" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="233"/>
+      <c r="A16" s="239"/>
       <c r="B16" s="69" t="s">
         <v>213</v>
       </c>
@@ -53798,111 +54276,111 @@
       </c>
       <c r="E16" s="69"/>
       <c r="F16" s="69" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="G16" s="69"/>
       <c r="H16" s="177"/>
     </row>
     <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="233"/>
+      <c r="A17" s="239"/>
       <c r="B17" s="69" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C17" s="69"/>
       <c r="D17" s="69" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E17" s="69"/>
       <c r="F17" s="69" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G17" s="69"/>
       <c r="H17" s="177"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="233"/>
+      <c r="A18" s="239"/>
       <c r="B18" s="69" t="s">
         <v>210</v>
       </c>
       <c r="C18" s="69"/>
       <c r="D18" s="69" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E18" s="69"/>
       <c r="F18" s="69" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="G18" s="69"/>
       <c r="H18" s="177"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="233"/>
+      <c r="A19" s="239"/>
       <c r="B19" s="69" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="69"/>
       <c r="D19" s="69" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E19" s="69"/>
       <c r="F19" s="69" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G19" s="69"/>
       <c r="H19" s="177"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="233"/>
+      <c r="A20" s="239"/>
       <c r="B20" s="69" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C20" s="69"/>
       <c r="D20" s="69" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E20" s="69"/>
       <c r="F20" s="69" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G20" s="69"/>
       <c r="H20" s="177"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="233"/>
+      <c r="A21" s="239"/>
       <c r="B21" s="69" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C21" s="69"/>
       <c r="D21" s="69" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E21" s="69"/>
       <c r="F21" s="69" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="G21" s="69"/>
       <c r="H21" s="177"/>
     </row>
     <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="233"/>
+      <c r="A22" s="239"/>
       <c r="B22" s="69" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="C22" s="69"/>
       <c r="D22" s="69" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E22" s="69"/>
       <c r="F22" s="69" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="G22" s="69"/>
       <c r="H22" s="177"/>
     </row>
     <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="233"/>
+      <c r="A23" s="239"/>
       <c r="B23" s="69" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C23" s="69"/>
       <c r="D23" s="69" t="s">
@@ -53910,15 +54388,15 @@
       </c>
       <c r="E23" s="69"/>
       <c r="F23" s="69" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="G23" s="69"/>
       <c r="H23" s="177"/>
     </row>
     <row r="24" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="234"/>
+      <c r="A24" s="240"/>
       <c r="B24" s="73" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C24" s="73"/>
       <c r="D24" s="73" t="s">
@@ -53926,14 +54404,14 @@
       </c>
       <c r="E24" s="73"/>
       <c r="F24" s="73" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G24" s="73"/>
       <c r="H24" s="178"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="235" t="s">
-        <v>363</v>
+      <c r="A25" s="241" t="s">
+        <v>355</v>
       </c>
       <c r="B25" s="179"/>
       <c r="C25" s="179"/>
@@ -53950,11 +54428,11 @@
       </c>
       <c r="C26" s="47"/>
       <c r="D26" s="47" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E26" s="47"/>
       <c r="F26" s="47" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G26" s="47"/>
       <c r="H26" s="174"/>
@@ -53962,15 +54440,15 @@
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="236"/>
       <c r="B27" s="47" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C27" s="47"/>
       <c r="D27" s="47" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E27" s="47"/>
       <c r="F27" s="47" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G27" s="47"/>
       <c r="H27" s="174"/>
@@ -53986,7 +54464,7 @@
       </c>
       <c r="E28" s="47"/>
       <c r="F28" s="47" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="G28" s="47"/>
       <c r="H28" s="174"/>
@@ -53994,15 +54472,15 @@
     <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="236"/>
       <c r="B29" s="47" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C29" s="47"/>
       <c r="D29" s="47" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E29" s="47"/>
       <c r="F29" s="47" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G29" s="47"/>
       <c r="H29" s="174"/>
@@ -54010,15 +54488,15 @@
     <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="236"/>
       <c r="B30" s="47" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C30" s="47"/>
       <c r="D30" s="47" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E30" s="47"/>
       <c r="F30" s="47" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G30" s="47"/>
       <c r="H30" s="174"/>
@@ -54030,11 +54508,11 @@
       </c>
       <c r="C31" s="47"/>
       <c r="D31" s="47" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E31" s="47"/>
       <c r="F31" s="47" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="G31" s="47"/>
       <c r="H31" s="174"/>
@@ -54042,15 +54520,15 @@
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="236"/>
       <c r="B32" s="47" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C32" s="47"/>
       <c r="D32" s="47" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E32" s="47"/>
       <c r="F32" s="47" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G32" s="47"/>
       <c r="H32" s="174"/>
@@ -54058,15 +54536,15 @@
     <row r="33" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="236"/>
       <c r="B33" s="47" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C33" s="47"/>
       <c r="D33" s="47" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E33" s="47"/>
       <c r="F33" s="47" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G33" s="47"/>
       <c r="H33" s="174"/>
@@ -54078,11 +54556,11 @@
       </c>
       <c r="C34" s="47"/>
       <c r="D34" s="47" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E34" s="47"/>
       <c r="F34" s="47" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="G34" s="47"/>
       <c r="H34" s="174"/>
@@ -54090,15 +54568,15 @@
     <row r="35" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="236"/>
       <c r="B35" s="47" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C35" s="47"/>
       <c r="D35" s="47" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E35" s="47"/>
       <c r="F35" s="47" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="G35" s="47"/>
       <c r="H35" s="174"/>
@@ -54106,22 +54584,22 @@
     <row r="36" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="237"/>
       <c r="B36" s="51" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C36" s="51"/>
       <c r="D36" s="51" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E36" s="51"/>
       <c r="F36" s="51" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G36" s="51"/>
       <c r="H36" s="181"/>
     </row>
     <row r="37" spans="1:1024" s="20" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="232" t="s">
-        <v>290</v>
+      <c r="A37" s="238" t="s">
+        <v>282</v>
       </c>
       <c r="B37" s="175"/>
       <c r="C37" s="175"/>
@@ -54133,39 +54611,39 @@
       <c r="AMJ37" s="21"/>
     </row>
     <row r="38" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="233"/>
+      <c r="A38" s="239"/>
       <c r="B38" s="69" t="s">
         <v>207</v>
       </c>
       <c r="C38" s="69"/>
       <c r="D38" s="69" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E38" s="69"/>
       <c r="F38" s="69" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G38" s="69"/>
       <c r="H38" s="177"/>
     </row>
     <row r="39" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="233"/>
+      <c r="A39" s="239"/>
       <c r="B39" s="69" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C39" s="69"/>
       <c r="D39" s="69" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E39" s="69"/>
       <c r="F39" s="69" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G39" s="69"/>
       <c r="H39" s="177"/>
     </row>
     <row r="40" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="233"/>
+      <c r="A40" s="239"/>
       <c r="B40" s="69" t="s">
         <v>213</v>
       </c>
@@ -54175,135 +54653,135 @@
       </c>
       <c r="E40" s="69"/>
       <c r="F40" s="69" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="G40" s="69"/>
       <c r="H40" s="177"/>
     </row>
     <row r="41" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="233"/>
+      <c r="A41" s="239"/>
       <c r="B41" s="69" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C41" s="69"/>
       <c r="D41" s="69" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E41" s="69"/>
       <c r="F41" s="69" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G41" s="69"/>
       <c r="H41" s="177"/>
     </row>
     <row r="42" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="233"/>
+      <c r="A42" s="239"/>
       <c r="B42" s="69" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C42" s="69"/>
       <c r="D42" s="69" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E42" s="69"/>
       <c r="F42" s="69" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G42" s="69"/>
       <c r="H42" s="177"/>
     </row>
     <row r="43" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="233"/>
+      <c r="A43" s="239"/>
       <c r="B43" s="69" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C43" s="69"/>
       <c r="D43" s="69" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E43" s="69"/>
       <c r="F43" s="69" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="G43" s="69"/>
       <c r="H43" s="177"/>
     </row>
     <row r="44" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="233"/>
+      <c r="A44" s="239"/>
       <c r="B44" s="69" t="s">
         <v>210</v>
       </c>
       <c r="C44" s="69"/>
       <c r="D44" s="69" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E44" s="69"/>
       <c r="F44" s="69" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G44" s="69"/>
       <c r="H44" s="177"/>
     </row>
     <row r="45" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="233"/>
+      <c r="A45" s="239"/>
       <c r="B45" s="69" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C45" s="69"/>
       <c r="D45" s="69" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E45" s="69"/>
       <c r="F45" s="69" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="G45" s="69"/>
       <c r="H45" s="177"/>
     </row>
     <row r="46" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="233"/>
+      <c r="A46" s="239"/>
       <c r="B46" s="69" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="C46" s="69"/>
       <c r="D46" s="69" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E46" s="69"/>
       <c r="F46" s="69" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G46" s="69"/>
       <c r="H46" s="177"/>
     </row>
     <row r="47" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="233"/>
+      <c r="A47" s="239"/>
       <c r="B47" s="69" t="s">
         <v>5</v>
       </c>
       <c r="C47" s="69"/>
       <c r="D47" s="69" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E47" s="69"/>
       <c r="F47" s="69" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="G47" s="69"/>
       <c r="H47" s="177"/>
     </row>
     <row r="48" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="234"/>
+      <c r="A48" s="240"/>
       <c r="B48" s="73" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="C48" s="73"/>
       <c r="D48" s="73" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E48" s="73"/>
       <c r="F48" s="73" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G48" s="73"/>
       <c r="H48" s="178"/>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deslauj/CODE/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahajnal/Documents/github/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D1C529-52F7-1141-B053-543E98528845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9522CA-23D0-FB4D-9099-EFF84BE7E171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="460" windowWidth="24080" windowHeight="14020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="440" yWindow="500" windowWidth="28360" windowHeight="14020" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Microservice" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="567">
   <si>
     <t>Concept</t>
   </si>
@@ -1060,9 +1060,6 @@
     <t>mandatory (WP6)</t>
   </si>
   <si>
-    <t>DATA_URI (pseudo vars: DATA_PROTOCOL, DATA_HOST, DATA_PORT, DATA_PATH, DATA_QUERY, DATA_FRAGMENT)</t>
-  </si>
-  <si>
     <t>mandatory (WP6 open)</t>
   </si>
   <si>
@@ -1528,13 +1525,7 @@
     <t>HTTP, HTTPS, TCP, UDP</t>
   </si>
   <si>
-    <t>database schema file contents (or URL?)</t>
-  </si>
-  <si>
     <t>[ { none , userpass , accesskey_secretkey , ssl_certificate , tls_mutual, access_token , rclone_config }+ ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accessibility of the data resource, including host, port information, protocol, and other fields (path is protocol dependent, can be a topic name). GUI may show host, port, path separately. Hidden at search. Format: protocol://host:port/path </t>
   </si>
   <si>
     <t>This sensor measures temperature in Celsius, sends data via ConSenses edge device via an MQTT broker</t>
@@ -1809,6 +1800,21 @@
   </si>
   <si>
     <t>For co-simulation Type only</t>
+  </si>
+  <si>
+    <t>DATA_URI</t>
+  </si>
+  <si>
+    <t>Accessibility of the data resource, including host, port information, protocol, and other fields (path is protocol dependent, can be a topic name). GUI may show host, port, path separately. Hidden at search. Format: protocol://host:port/path.  Pseudo vars: DATA_PROTOCOL, DATA_HOST, DATA_PORT, DATA_PATH, DATA_QUERY, DATA_FRAGMENT.</t>
+  </si>
+  <si>
+    <t>DATA_SCHEMA_URL</t>
+  </si>
+  <si>
+    <t>database schema URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">database schema description/contents </t>
   </si>
 </sst>
 </file>
@@ -2338,7 +2344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="262">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3192,12 +3198,20 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3206,6 +3220,54 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3230,46 +3292,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3317,19 +3339,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -4165,7 +4175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E10" sqref="E10"/>
       <selection pane="topRight" activeCell="E10" sqref="E10"/>
@@ -4187,16 +4197,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="226" t="s">
-        <v>499</v>
-      </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="227"/>
+      <c r="A1" s="242" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="243"/>
     </row>
     <row r="2" spans="1:1024" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -4225,7 +4235,7 @@
       </c>
     </row>
     <row r="3" spans="1:1024" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="230" t="s">
+      <c r="A3" s="244" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="27"/>
@@ -4237,7 +4247,7 @@
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="231"/>
+      <c r="A4" s="245"/>
       <c r="B4" s="47" t="s">
         <v>8</v>
       </c>
@@ -4252,12 +4262,12 @@
         <v>11</v>
       </c>
       <c r="G4" s="183" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="231"/>
+      <c r="A5" s="245"/>
       <c r="B5" s="47" t="s">
         <v>13</v>
       </c>
@@ -4277,7 +4287,7 @@
       <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="231"/>
+      <c r="A6" s="245"/>
       <c r="B6" s="47" t="s">
         <v>16</v>
       </c>
@@ -4297,13 +4307,13 @@
       <c r="H6" s="50"/>
     </row>
     <row r="7" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="231"/>
+      <c r="A7" s="245"/>
       <c r="B7" s="47" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="47" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E7" s="49" t="s">
         <v>20</v>
@@ -4312,12 +4322,12 @@
         <v>21</v>
       </c>
       <c r="G7" s="183" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="231"/>
+      <c r="A8" s="245"/>
       <c r="B8" s="47" t="s">
         <v>22</v>
       </c>
@@ -4337,7 +4347,7 @@
       <c r="H8" s="50"/>
     </row>
     <row r="9" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="231"/>
+      <c r="A9" s="245"/>
       <c r="B9" s="47" t="s">
         <v>25</v>
       </c>
@@ -4346,10 +4356,10 @@
         <v>9</v>
       </c>
       <c r="E9" s="49" t="s">
+        <v>474</v>
+      </c>
+      <c r="F9" s="47" t="s">
         <v>475</v>
-      </c>
-      <c r="F9" s="47" t="s">
-        <v>476</v>
       </c>
       <c r="G9" s="183" t="s">
         <v>12</v>
@@ -4357,7 +4367,7 @@
       <c r="H9" s="50"/>
     </row>
     <row r="10" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="231"/>
+      <c r="A10" s="245"/>
       <c r="B10" s="47" t="s">
         <v>26</v>
       </c>
@@ -4377,7 +4387,7 @@
       <c r="H10" s="50"/>
     </row>
     <row r="11" spans="1:1024" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="232"/>
+      <c r="A11" s="246"/>
       <c r="B11" s="51" t="s">
         <v>30</v>
       </c>
@@ -4397,7 +4407,7 @@
       <c r="H11" s="54"/>
     </row>
     <row r="12" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="233" t="s">
+      <c r="A12" s="247" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="217"/>
@@ -4409,7 +4419,7 @@
       <c r="H12" s="220"/>
     </row>
     <row r="13" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="234"/>
+      <c r="A13" s="248"/>
       <c r="B13" s="55" t="s">
         <v>35</v>
       </c>
@@ -4418,7 +4428,7 @@
         <v>36</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F13" s="55" t="s">
         <v>37</v>
@@ -4429,19 +4439,19 @@
       <c r="H13" s="58"/>
     </row>
     <row r="14" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="234"/>
+      <c r="A14" s="248"/>
       <c r="B14" s="55" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="56"/>
       <c r="D14" s="55" t="s">
+        <v>456</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>471</v>
+      </c>
+      <c r="F14" s="55" t="s">
         <v>457</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>472</v>
-      </c>
-      <c r="F14" s="55" t="s">
-        <v>458</v>
       </c>
       <c r="G14" s="188" t="s">
         <v>12</v>
@@ -4449,19 +4459,19 @@
       <c r="H14" s="58"/>
     </row>
     <row r="15" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="234"/>
+      <c r="A15" s="248"/>
       <c r="B15" s="55" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C15" s="56"/>
       <c r="D15" s="55" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F15" s="55" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G15" s="188" t="s">
         <v>43</v>
@@ -5485,19 +5495,19 @@
       <c r="AMJ15" s="4"/>
     </row>
     <row r="16" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="234"/>
+      <c r="A16" s="248"/>
       <c r="B16" s="55" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C16" s="56"/>
       <c r="D16" s="55" t="s">
+        <v>461</v>
+      </c>
+      <c r="E16" s="57" t="s">
         <v>462</v>
       </c>
-      <c r="E16" s="57" t="s">
-        <v>463</v>
-      </c>
       <c r="F16" s="55" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G16" s="188" t="s">
         <v>43</v>
@@ -6521,19 +6531,19 @@
       <c r="AMJ16" s="4"/>
     </row>
     <row r="17" spans="1:1024" s="10" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="235"/>
+      <c r="A17" s="249"/>
       <c r="B17" s="221" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C17" s="222"/>
       <c r="D17" s="221" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E17" s="223" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F17" s="221" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G17" s="224" t="s">
         <v>43</v>
@@ -7557,7 +7567,7 @@
       <c r="AMJ17" s="4"/>
     </row>
     <row r="18" spans="1:1024" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="236" t="s">
+      <c r="A18" s="240" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="59"/>
@@ -7569,7 +7579,7 @@
       <c r="H18" s="61"/>
     </row>
     <row r="19" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="236"/>
+      <c r="A19" s="240"/>
       <c r="B19" s="47" t="s">
         <v>40</v>
       </c>
@@ -7589,7 +7599,7 @@
       <c r="H19" s="50"/>
     </row>
     <row r="20" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="236"/>
+      <c r="A20" s="240"/>
       <c r="B20" s="47" t="s">
         <v>44</v>
       </c>
@@ -7609,7 +7619,7 @@
       <c r="H20" s="50"/>
     </row>
     <row r="21" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="236"/>
+      <c r="A21" s="240"/>
       <c r="B21" s="47" t="s">
         <v>46</v>
       </c>
@@ -7629,7 +7639,7 @@
       <c r="H21" s="50"/>
     </row>
     <row r="22" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="236"/>
+      <c r="A22" s="240"/>
       <c r="B22" s="47" t="s">
         <v>48</v>
       </c>
@@ -7649,7 +7659,7 @@
       <c r="H22" s="50"/>
     </row>
     <row r="23" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="236"/>
+      <c r="A23" s="240"/>
       <c r="B23" s="47" t="s">
         <v>50</v>
       </c>
@@ -7669,7 +7679,7 @@
       <c r="H23" s="50"/>
     </row>
     <row r="24" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="236"/>
+      <c r="A24" s="240"/>
       <c r="B24" s="47" t="s">
         <v>53</v>
       </c>
@@ -7689,7 +7699,7 @@
       <c r="H24" s="50"/>
     </row>
     <row r="25" spans="1:1024" ht="68" x14ac:dyDescent="0.2">
-      <c r="A25" s="236"/>
+      <c r="A25" s="240"/>
       <c r="B25" s="47" t="s">
         <v>57</v>
       </c>
@@ -7709,7 +7719,7 @@
       <c r="H25" s="50"/>
     </row>
     <row r="26" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="236"/>
+      <c r="A26" s="240"/>
       <c r="B26" s="47" t="s">
         <v>61</v>
       </c>
@@ -7729,7 +7739,7 @@
       <c r="H26" s="50"/>
     </row>
     <row r="27" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="236"/>
+      <c r="A27" s="240"/>
       <c r="B27" s="47" t="s">
         <v>63</v>
       </c>
@@ -7749,7 +7759,7 @@
       <c r="H27" s="50"/>
     </row>
     <row r="28" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="236"/>
+      <c r="A28" s="240"/>
       <c r="B28" s="47" t="s">
         <v>65</v>
       </c>
@@ -7769,7 +7779,7 @@
       <c r="H28" s="50"/>
     </row>
     <row r="29" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="236"/>
+      <c r="A29" s="240"/>
       <c r="B29" s="47" t="s">
         <v>67</v>
       </c>
@@ -7789,7 +7799,7 @@
       <c r="H29" s="50"/>
     </row>
     <row r="30" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="237"/>
+      <c r="A30" s="241"/>
       <c r="B30" s="51" t="s">
         <v>69</v>
       </c>
@@ -7809,7 +7819,7 @@
       <c r="H30" s="54"/>
     </row>
     <row r="31" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="238" t="s">
+      <c r="A31" s="236" t="s">
         <v>72</v>
       </c>
       <c r="B31" s="62"/>
@@ -7821,7 +7831,7 @@
       <c r="H31" s="64"/>
     </row>
     <row r="32" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="239"/>
+      <c r="A32" s="237"/>
       <c r="B32" s="65" t="s">
         <v>73</v>
       </c>
@@ -7841,7 +7851,7 @@
       <c r="H32" s="68"/>
     </row>
     <row r="33" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="239"/>
+      <c r="A33" s="237"/>
       <c r="B33" s="69" t="s">
         <v>76</v>
       </c>
@@ -7861,7 +7871,7 @@
       <c r="H33" s="72"/>
     </row>
     <row r="34" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="239"/>
+      <c r="A34" s="237"/>
       <c r="B34" s="69" t="s">
         <v>79</v>
       </c>
@@ -7881,7 +7891,7 @@
       <c r="H34" s="72"/>
     </row>
     <row r="35" spans="1:1024" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="240"/>
+      <c r="A35" s="238"/>
       <c r="B35" s="73" t="s">
         <v>82</v>
       </c>
@@ -7901,7 +7911,7 @@
       <c r="H35" s="76"/>
     </row>
     <row r="36" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="241" t="s">
+      <c r="A36" s="239" t="s">
         <v>85</v>
       </c>
       <c r="B36" s="59"/>
@@ -7913,7 +7923,7 @@
       <c r="H36" s="61"/>
     </row>
     <row r="37" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="236"/>
+      <c r="A37" s="240"/>
       <c r="B37" s="47" t="s">
         <v>86</v>
       </c>
@@ -8949,8 +8959,8 @@
       <c r="AMJ37" s="4"/>
     </row>
     <row r="38" spans="1:1024" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="236"/>
-      <c r="B38" s="228" t="s">
+      <c r="A38" s="240"/>
+      <c r="B38" s="230" t="s">
         <v>90</v>
       </c>
       <c r="C38" s="47" t="s">
@@ -9987,8 +9997,8 @@
       <c r="AMJ38" s="4"/>
     </row>
     <row r="39" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="236"/>
-      <c r="B39" s="228"/>
+      <c r="A39" s="240"/>
+      <c r="B39" s="230"/>
       <c r="C39" s="47" t="s">
         <v>94</v>
       </c>
@@ -11023,8 +11033,8 @@
       <c r="AMJ39" s="4"/>
     </row>
     <row r="40" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="236"/>
-      <c r="B40" s="228"/>
+      <c r="A40" s="240"/>
+      <c r="B40" s="230"/>
       <c r="C40" s="47" t="s">
         <v>98</v>
       </c>
@@ -12059,8 +12069,8 @@
       <c r="AMJ40" s="4"/>
     </row>
     <row r="41" spans="1:1024" s="10" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A41" s="236"/>
-      <c r="B41" s="228"/>
+      <c r="A41" s="240"/>
+      <c r="B41" s="230"/>
       <c r="C41" s="47" t="s">
         <v>102</v>
       </c>
@@ -13095,8 +13105,8 @@
       <c r="AMJ41" s="4"/>
     </row>
     <row r="42" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" s="236"/>
-      <c r="B42" s="228"/>
+      <c r="A42" s="240"/>
+      <c r="B42" s="230"/>
       <c r="C42" s="47" t="s">
         <v>106</v>
       </c>
@@ -14131,8 +14141,8 @@
       <c r="AMJ42" s="4"/>
     </row>
     <row r="43" spans="1:1024" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="236"/>
-      <c r="B43" s="228"/>
+      <c r="A43" s="240"/>
+      <c r="B43" s="230"/>
       <c r="C43" s="47" t="s">
         <v>110</v>
       </c>
@@ -15167,8 +15177,8 @@
       <c r="AMJ43" s="4"/>
     </row>
     <row r="44" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A44" s="236"/>
-      <c r="B44" s="228"/>
+      <c r="A44" s="240"/>
+      <c r="B44" s="230"/>
       <c r="C44" s="47" t="s">
         <v>114</v>
       </c>
@@ -16203,8 +16213,8 @@
       <c r="AMJ44" s="4"/>
     </row>
     <row r="45" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A45" s="236"/>
-      <c r="B45" s="228"/>
+      <c r="A45" s="240"/>
+      <c r="B45" s="230"/>
       <c r="C45" s="47" t="s">
         <v>118</v>
       </c>
@@ -17239,8 +17249,8 @@
       <c r="AMJ45" s="4"/>
     </row>
     <row r="46" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A46" s="236"/>
-      <c r="B46" s="228"/>
+      <c r="A46" s="240"/>
+      <c r="B46" s="230"/>
       <c r="C46" s="47" t="s">
         <v>122</v>
       </c>
@@ -18275,8 +18285,8 @@
       <c r="AMJ46" s="4"/>
     </row>
     <row r="47" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A47" s="236"/>
-      <c r="B47" s="228"/>
+      <c r="A47" s="240"/>
+      <c r="B47" s="230"/>
       <c r="C47" s="47" t="s">
         <v>126</v>
       </c>
@@ -19311,8 +19321,8 @@
       <c r="AMJ47" s="4"/>
     </row>
     <row r="48" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A48" s="236"/>
-      <c r="B48" s="228"/>
+      <c r="A48" s="240"/>
+      <c r="B48" s="230"/>
       <c r="C48" s="47" t="s">
         <v>130</v>
       </c>
@@ -20347,8 +20357,8 @@
       <c r="AMJ48" s="4"/>
     </row>
     <row r="49" spans="1:1024" s="16" customFormat="1" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="237"/>
-      <c r="B49" s="229"/>
+      <c r="A49" s="241"/>
+      <c r="B49" s="231"/>
       <c r="C49" s="51" t="s">
         <v>134</v>
       </c>
@@ -20359,7 +20369,7 @@
         <v>136</v>
       </c>
       <c r="F49" s="51" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G49" s="184" t="s">
         <v>43</v>
@@ -21383,7 +21393,7 @@
       <c r="AMJ49" s="15"/>
     </row>
     <row r="50" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="238" t="s">
+      <c r="A50" s="236" t="s">
         <v>137</v>
       </c>
       <c r="B50" s="77"/>
@@ -21395,7 +21405,7 @@
       <c r="H50" s="79"/>
     </row>
     <row r="51" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="239"/>
+      <c r="A51" s="237"/>
       <c r="B51" s="80" t="s">
         <v>138</v>
       </c>
@@ -21415,8 +21425,8 @@
       <c r="H51" s="83"/>
     </row>
     <row r="52" spans="1:1024" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="239"/>
-      <c r="B52" s="242" t="s">
+      <c r="A52" s="237"/>
+      <c r="B52" s="232" t="s">
         <v>90</v>
       </c>
       <c r="C52" s="84" t="s">
@@ -21437,8 +21447,8 @@
       <c r="H52" s="83"/>
     </row>
     <row r="53" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A53" s="239"/>
-      <c r="B53" s="242"/>
+      <c r="A53" s="237"/>
+      <c r="B53" s="232"/>
       <c r="C53" s="80" t="s">
         <v>94</v>
       </c>
@@ -21457,8 +21467,8 @@
       <c r="H53" s="83"/>
     </row>
     <row r="54" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A54" s="239"/>
-      <c r="B54" s="242"/>
+      <c r="A54" s="237"/>
+      <c r="B54" s="232"/>
       <c r="C54" s="80" t="s">
         <v>98</v>
       </c>
@@ -21477,8 +21487,8 @@
       <c r="H54" s="83"/>
     </row>
     <row r="55" spans="1:1024" ht="85" x14ac:dyDescent="0.2">
-      <c r="A55" s="239"/>
-      <c r="B55" s="242"/>
+      <c r="A55" s="237"/>
+      <c r="B55" s="232"/>
       <c r="C55" s="80" t="s">
         <v>102</v>
       </c>
@@ -21497,8 +21507,8 @@
       <c r="H55" s="83"/>
     </row>
     <row r="56" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A56" s="239"/>
-      <c r="B56" s="242"/>
+      <c r="A56" s="237"/>
+      <c r="B56" s="232"/>
       <c r="C56" s="80" t="s">
         <v>106</v>
       </c>
@@ -21517,8 +21527,8 @@
       <c r="H56" s="83"/>
     </row>
     <row r="57" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="239"/>
-      <c r="B57" s="242"/>
+      <c r="A57" s="237"/>
+      <c r="B57" s="232"/>
       <c r="C57" s="80" t="s">
         <v>110</v>
       </c>
@@ -21537,8 +21547,8 @@
       <c r="H57" s="83"/>
     </row>
     <row r="58" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A58" s="239"/>
-      <c r="B58" s="242"/>
+      <c r="A58" s="237"/>
+      <c r="B58" s="232"/>
       <c r="C58" s="80" t="s">
         <v>114</v>
       </c>
@@ -21557,8 +21567,8 @@
       <c r="H58" s="83"/>
     </row>
     <row r="59" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A59" s="239"/>
-      <c r="B59" s="242"/>
+      <c r="A59" s="237"/>
+      <c r="B59" s="232"/>
       <c r="C59" s="80" t="s">
         <v>118</v>
       </c>
@@ -21577,8 +21587,8 @@
       <c r="H59" s="83"/>
     </row>
     <row r="60" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A60" s="239"/>
-      <c r="B60" s="242"/>
+      <c r="A60" s="237"/>
+      <c r="B60" s="232"/>
       <c r="C60" s="80" t="s">
         <v>122</v>
       </c>
@@ -21597,8 +21607,8 @@
       <c r="H60" s="83"/>
     </row>
     <row r="61" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A61" s="239"/>
-      <c r="B61" s="242"/>
+      <c r="A61" s="237"/>
+      <c r="B61" s="232"/>
       <c r="C61" s="80" t="s">
         <v>126</v>
       </c>
@@ -21617,8 +21627,8 @@
       <c r="H61" s="83"/>
     </row>
     <row r="62" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A62" s="239"/>
-      <c r="B62" s="242"/>
+      <c r="A62" s="237"/>
+      <c r="B62" s="232"/>
       <c r="C62" s="80" t="s">
         <v>130</v>
       </c>
@@ -21637,8 +21647,8 @@
       <c r="H62" s="83"/>
     </row>
     <row r="63" spans="1:1024" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="240"/>
-      <c r="B63" s="243"/>
+      <c r="A63" s="238"/>
+      <c r="B63" s="233"/>
       <c r="C63" s="85" t="s">
         <v>134</v>
       </c>
@@ -21649,7 +21659,7 @@
         <v>136</v>
       </c>
       <c r="F63" s="85" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G63" s="187" t="s">
         <v>43</v>
@@ -21657,7 +21667,7 @@
       <c r="H63" s="87"/>
     </row>
     <row r="64" spans="1:1024" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="241" t="s">
+      <c r="A64" s="239" t="s">
         <v>145</v>
       </c>
       <c r="B64" s="59"/>
@@ -22685,7 +22695,7 @@
       <c r="AMJ64" s="13"/>
     </row>
     <row r="65" spans="1:1024" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="236"/>
+      <c r="A65" s="240"/>
       <c r="B65" s="89" t="s">
         <v>146</v>
       </c>
@@ -23721,7 +23731,7 @@
       <c r="AMJ65" s="13"/>
     </row>
     <row r="66" spans="1:1024" s="14" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="237"/>
+      <c r="A66" s="241"/>
       <c r="B66" s="93" t="s">
         <v>150</v>
       </c>
@@ -24757,7 +24767,7 @@
       <c r="AMJ66" s="13"/>
     </row>
     <row r="67" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="238" t="s">
+      <c r="A67" s="236" t="s">
         <v>154</v>
       </c>
       <c r="B67" s="29"/>
@@ -24769,7 +24779,7 @@
       <c r="H67" s="64"/>
     </row>
     <row r="68" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A68" s="239"/>
+      <c r="A68" s="237"/>
       <c r="B68" s="69" t="s">
         <v>155</v>
       </c>
@@ -24787,8 +24797,8 @@
       <c r="H68" s="72"/>
     </row>
     <row r="69" spans="1:1024" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="239"/>
-      <c r="B69" s="244" t="s">
+      <c r="A69" s="237"/>
+      <c r="B69" s="234" t="s">
         <v>158</v>
       </c>
       <c r="C69" s="69" t="s">
@@ -24809,8 +24819,8 @@
       <c r="H69" s="72"/>
     </row>
     <row r="70" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A70" s="239"/>
-      <c r="B70" s="244"/>
+      <c r="A70" s="237"/>
+      <c r="B70" s="234"/>
       <c r="C70" s="69" t="s">
         <v>30</v>
       </c>
@@ -24829,8 +24839,8 @@
       <c r="H70" s="72"/>
     </row>
     <row r="71" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="239"/>
-      <c r="B71" s="244"/>
+      <c r="A71" s="237"/>
+      <c r="B71" s="234"/>
       <c r="C71" s="69" t="s">
         <v>12</v>
       </c>
@@ -24849,8 +24859,8 @@
       <c r="H71" s="72"/>
     </row>
     <row r="72" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A72" s="239"/>
-      <c r="B72" s="244"/>
+      <c r="A72" s="237"/>
+      <c r="B72" s="234"/>
       <c r="C72" s="69" t="s">
         <v>167</v>
       </c>
@@ -24869,8 +24879,8 @@
       <c r="H72" s="72"/>
     </row>
     <row r="73" spans="1:1024" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="240"/>
-      <c r="B73" s="245"/>
+      <c r="A73" s="238"/>
+      <c r="B73" s="235"/>
       <c r="C73" s="73" t="s">
         <v>25</v>
       </c>
@@ -24889,7 +24899,7 @@
       <c r="H73" s="76"/>
     </row>
     <row r="74" spans="1:1024" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="241" t="s">
+      <c r="A74" s="239" t="s">
         <v>172</v>
       </c>
       <c r="B74" s="31"/>
@@ -25917,7 +25927,7 @@
       <c r="AMJ74" s="13"/>
     </row>
     <row r="75" spans="1:1024" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A75" s="236"/>
+      <c r="A75" s="240"/>
       <c r="B75" s="47" t="s">
         <v>173</v>
       </c>
@@ -26951,8 +26961,8 @@
       <c r="AMJ75" s="13"/>
     </row>
     <row r="76" spans="1:1024" s="14" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="236"/>
-      <c r="B76" s="228" t="s">
+      <c r="A76" s="240"/>
+      <c r="B76" s="230" t="s">
         <v>176</v>
       </c>
       <c r="C76" s="47" t="s">
@@ -27989,8 +27999,8 @@
       <c r="AMJ76" s="13"/>
     </row>
     <row r="77" spans="1:1024" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A77" s="236"/>
-      <c r="B77" s="228"/>
+      <c r="A77" s="240"/>
+      <c r="B77" s="230"/>
       <c r="C77" s="47" t="s">
         <v>179</v>
       </c>
@@ -29025,8 +29035,8 @@
       <c r="AMJ77" s="13"/>
     </row>
     <row r="78" spans="1:1024" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A78" s="236"/>
-      <c r="B78" s="228"/>
+      <c r="A78" s="240"/>
+      <c r="B78" s="230"/>
       <c r="C78" s="47" t="s">
         <v>182</v>
       </c>
@@ -30061,8 +30071,8 @@
       <c r="AMJ78" s="13"/>
     </row>
     <row r="79" spans="1:1024" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="236"/>
-      <c r="B79" s="228"/>
+      <c r="A79" s="240"/>
+      <c r="B79" s="230"/>
       <c r="C79" s="47" t="s">
         <v>185</v>
       </c>
@@ -31097,8 +31107,8 @@
       <c r="AMJ79" s="13"/>
     </row>
     <row r="80" spans="1:1024" s="14" customFormat="1" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="237"/>
-      <c r="B80" s="229"/>
+      <c r="A80" s="241"/>
+      <c r="B80" s="231"/>
       <c r="C80" s="51" t="s">
         <v>25</v>
       </c>
@@ -32207,6 +32217,13 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" insertRows="0" deleteRows="0"/>
   <mergeCells count="14">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B38:B49"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A18:A30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A36:A49"/>
     <mergeCell ref="B76:B80"/>
     <mergeCell ref="B52:B63"/>
     <mergeCell ref="B69:B73"/>
@@ -32214,13 +32231,6 @@
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="A67:A73"/>
     <mergeCell ref="A74:A80"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B38:B49"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A18:A30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A36:A49"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -32260,16 +32270,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="226" t="s">
-        <v>500</v>
-      </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="227"/>
+      <c r="A1" s="242" t="s">
+        <v>497</v>
+      </c>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="243"/>
     </row>
     <row r="2" spans="1:8" s="35" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -32298,7 +32308,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="230" t="s">
+      <c r="A3" s="244" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="27"/>
@@ -32310,7 +32320,7 @@
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="231"/>
+      <c r="A4" s="245"/>
       <c r="B4" s="47" t="s">
         <v>8</v>
       </c>
@@ -32325,12 +32335,12 @@
         <v>192</v>
       </c>
       <c r="G4" s="183" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="231"/>
+      <c r="A5" s="245"/>
       <c r="B5" s="47" t="s">
         <v>13</v>
       </c>
@@ -32350,7 +32360,7 @@
       <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="231"/>
+      <c r="A6" s="245"/>
       <c r="B6" s="47" t="s">
         <v>25</v>
       </c>
@@ -32370,7 +32380,7 @@
       <c r="H6" s="50"/>
     </row>
     <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="231"/>
+      <c r="A7" s="245"/>
       <c r="B7" s="47" t="s">
         <v>26</v>
       </c>
@@ -32390,7 +32400,7 @@
       <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="231"/>
+      <c r="A8" s="245"/>
       <c r="B8" s="47" t="s">
         <v>30</v>
       </c>
@@ -32410,7 +32420,7 @@
       <c r="H8" s="50"/>
     </row>
     <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="231"/>
+      <c r="A9" s="245"/>
       <c r="B9" s="47" t="s">
         <v>16</v>
       </c>
@@ -32430,13 +32440,13 @@
       <c r="H9" s="50"/>
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="231"/>
+      <c r="A10" s="245"/>
       <c r="B10" s="47" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="47" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E10" s="49" t="s">
         <v>20</v>
@@ -32445,12 +32455,12 @@
         <v>201</v>
       </c>
       <c r="G10" s="183" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H10" s="50"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="232"/>
+      <c r="A11" s="246"/>
       <c r="B11" s="51" t="s">
         <v>22</v>
       </c>
@@ -32470,7 +32480,7 @@
       <c r="H11" s="54"/>
     </row>
     <row r="12" spans="1:8" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="246" t="s">
+      <c r="A12" s="250" t="s">
         <v>203</v>
       </c>
       <c r="B12" s="98"/>
@@ -32482,7 +32492,7 @@
       <c r="H12" s="102"/>
     </row>
     <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="247"/>
+      <c r="A13" s="251"/>
       <c r="B13" s="103" t="s">
         <v>204</v>
       </c>
@@ -32502,19 +32512,19 @@
       <c r="H13" s="72"/>
     </row>
     <row r="14" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="247"/>
+      <c r="A14" s="251"/>
       <c r="B14" s="103" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C14" s="103"/>
       <c r="D14" s="103" t="s">
+        <v>453</v>
+      </c>
+      <c r="E14" s="104" t="s">
         <v>454</v>
       </c>
-      <c r="E14" s="104" t="s">
-        <v>455</v>
-      </c>
       <c r="F14" s="103" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G14" s="186" t="s">
         <v>12</v>
@@ -32560,16 +32570,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="226" t="s">
-        <v>501</v>
-      </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="227"/>
+      <c r="A1" s="242" t="s">
+        <v>498</v>
+      </c>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="243"/>
     </row>
     <row r="2" spans="1:1024" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -32598,7 +32608,7 @@
       </c>
     </row>
     <row r="3" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="230" t="s">
+      <c r="A3" s="244" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="37"/>
@@ -32648,7 +32658,7 @@
       <c r="AMJ3" s="5"/>
     </row>
     <row r="4" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="231"/>
+      <c r="A4" s="245"/>
       <c r="B4" s="105" t="s">
         <v>207</v>
       </c>
@@ -32661,12 +32671,12 @@
         <v>209</v>
       </c>
       <c r="G4" s="197" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H4" s="107"/>
     </row>
     <row r="5" spans="1:1024" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="231"/>
+      <c r="A5" s="245"/>
       <c r="B5" s="105" t="s">
         <v>210</v>
       </c>
@@ -32682,23 +32692,23 @@
       <c r="H5" s="107"/>
     </row>
     <row r="6" spans="1:1024" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="231"/>
+      <c r="A6" s="245"/>
       <c r="B6" s="105" t="s">
         <v>213</v>
       </c>
       <c r="C6" s="106"/>
       <c r="D6" s="105" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E6" s="106"/>
       <c r="F6" s="105" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G6" s="197"/>
       <c r="H6" s="107"/>
     </row>
     <row r="7" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="231"/>
+      <c r="A7" s="245"/>
       <c r="B7" s="105" t="s">
         <v>214</v>
       </c>
@@ -32708,13 +32718,13 @@
       </c>
       <c r="E7" s="106"/>
       <c r="F7" s="105" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G7" s="197"/>
       <c r="H7" s="107"/>
     </row>
     <row r="8" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="231"/>
+      <c r="A8" s="245"/>
       <c r="B8" s="105" t="s">
         <v>215</v>
       </c>
@@ -32730,7 +32740,7 @@
       <c r="H8" s="107"/>
     </row>
     <row r="9" spans="1:1024" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="231"/>
+      <c r="A9" s="245"/>
       <c r="B9" s="105" t="s">
         <v>217</v>
       </c>
@@ -32740,7 +32750,7 @@
       </c>
       <c r="E9" s="106"/>
       <c r="F9" s="105" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G9" s="197" t="s">
         <v>43</v>
@@ -32748,7 +32758,7 @@
       <c r="H9" s="107"/>
     </row>
     <row r="10" spans="1:1024" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="231"/>
+      <c r="A10" s="245"/>
       <c r="B10" s="105" t="s">
         <v>219</v>
       </c>
@@ -32777,7 +32787,7 @@
       <c r="AMJ10" s="5"/>
     </row>
     <row r="11" spans="1:1024" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="231"/>
+      <c r="A11" s="245"/>
       <c r="B11" s="105" t="s">
         <v>3</v>
       </c>
@@ -32793,7 +32803,7 @@
       <c r="H11" s="107"/>
     </row>
     <row r="12" spans="1:1024" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="231"/>
+      <c r="A12" s="245"/>
       <c r="B12" s="105" t="s">
         <v>223</v>
       </c>
@@ -32803,7 +32813,7 @@
       </c>
       <c r="E12" s="106"/>
       <c r="F12" s="105" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="G12" s="197" t="s">
         <v>43</v>
@@ -32811,7 +32821,7 @@
       <c r="H12" s="107"/>
     </row>
     <row r="13" spans="1:1024" ht="68" x14ac:dyDescent="0.2">
-      <c r="A13" s="231"/>
+      <c r="A13" s="245"/>
       <c r="B13" s="105" t="s">
         <v>225</v>
       </c>
@@ -32829,9 +32839,9 @@
       <c r="H13" s="107"/>
     </row>
     <row r="14" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="231"/>
+      <c r="A14" s="245"/>
       <c r="B14" s="105" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C14" s="106"/>
       <c r="D14" s="105" t="s">
@@ -32839,7 +32849,7 @@
       </c>
       <c r="E14" s="106"/>
       <c r="F14" s="105" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G14" s="197" t="s">
         <v>43</v>
@@ -32847,7 +32857,7 @@
       <c r="H14" s="107"/>
     </row>
     <row r="15" spans="1:1024" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="232"/>
+      <c r="A15" s="246"/>
       <c r="B15" s="108" t="s">
         <v>229</v>
       </c>
@@ -32863,7 +32873,7 @@
       <c r="H15" s="110"/>
     </row>
     <row r="16" spans="1:1024" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A16" s="238" t="s">
+      <c r="A16" s="236" t="s">
         <v>154</v>
       </c>
       <c r="B16" s="111"/>
@@ -32876,13 +32886,13 @@
       <c r="AMJ16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="239"/>
+      <c r="A17" s="237"/>
       <c r="B17" s="113" t="s">
         <v>232</v>
       </c>
       <c r="C17" s="114"/>
       <c r="D17" s="113" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E17" s="114"/>
       <c r="F17" s="113" t="s">
@@ -32892,7 +32902,7 @@
       <c r="H17" s="115"/>
     </row>
     <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="239"/>
+      <c r="A18" s="237"/>
       <c r="B18" s="113"/>
       <c r="C18" s="114" t="s">
         <v>1</v>
@@ -32902,13 +32912,13 @@
       </c>
       <c r="E18" s="114"/>
       <c r="F18" s="113" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="G18" s="200"/>
       <c r="H18" s="115"/>
     </row>
     <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="239"/>
+      <c r="A19" s="237"/>
       <c r="B19" s="113"/>
       <c r="C19" s="114" t="s">
         <v>210</v>
@@ -32918,163 +32928,163 @@
       </c>
       <c r="E19" s="114"/>
       <c r="F19" s="113" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G19" s="200"/>
       <c r="H19" s="115"/>
     </row>
     <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="239"/>
+      <c r="A20" s="237"/>
       <c r="B20" s="113"/>
       <c r="C20" s="114" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D20" s="113" t="s">
         <v>224</v>
       </c>
       <c r="E20" s="114"/>
       <c r="F20" s="113" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G20" s="200"/>
       <c r="H20" s="115"/>
     </row>
     <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="239"/>
+      <c r="A21" s="237"/>
       <c r="B21" s="113"/>
       <c r="C21" s="114" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D21" s="113" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E21" s="114"/>
       <c r="F21" s="113" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G21" s="200"/>
       <c r="H21" s="115"/>
     </row>
     <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="239"/>
+      <c r="A22" s="237"/>
       <c r="B22" s="113"/>
       <c r="C22" s="114" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D22" s="113" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E22" s="114"/>
       <c r="F22" s="113" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G22" s="200"/>
       <c r="H22" s="115"/>
     </row>
     <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="239"/>
+      <c r="A23" s="237"/>
       <c r="B23" s="113"/>
       <c r="C23" s="114" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D23" s="113" t="s">
         <v>211</v>
       </c>
       <c r="E23" s="114"/>
       <c r="F23" s="113" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G23" s="200"/>
       <c r="H23" s="115"/>
     </row>
     <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="239"/>
+      <c r="A24" s="237"/>
       <c r="B24" s="113"/>
       <c r="C24" s="114" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D24" s="113" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E24" s="114"/>
       <c r="F24" s="113" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="G24" s="200"/>
       <c r="H24" s="115"/>
     </row>
     <row r="25" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="239"/>
+      <c r="A25" s="237"/>
       <c r="B25" s="113"/>
       <c r="C25" s="114" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D25" s="113" t="s">
         <v>224</v>
       </c>
       <c r="E25" s="114"/>
       <c r="F25" s="113" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G25" s="200"/>
       <c r="H25" s="115"/>
     </row>
     <row r="26" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="239"/>
+      <c r="A26" s="237"/>
       <c r="B26" s="113"/>
       <c r="C26" s="114" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D26" s="113" t="s">
         <v>224</v>
       </c>
       <c r="E26" s="114"/>
       <c r="F26" s="113" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G26" s="200"/>
       <c r="H26" s="115"/>
     </row>
     <row r="27" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="239"/>
+      <c r="A27" s="237"/>
       <c r="B27" s="113"/>
       <c r="C27" s="114" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D27" s="113" t="s">
         <v>224</v>
       </c>
       <c r="E27" s="114"/>
       <c r="F27" s="113" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G27" s="200"/>
       <c r="H27" s="115"/>
     </row>
     <row r="28" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="239"/>
+      <c r="A28" s="237"/>
       <c r="B28" s="113"/>
       <c r="C28" s="114" t="s">
+        <v>538</v>
+      </c>
+      <c r="D28" s="113" t="s">
         <v>541</v>
-      </c>
-      <c r="D28" s="113" t="s">
-        <v>544</v>
       </c>
       <c r="E28" s="114"/>
       <c r="F28" s="113" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="G28" s="200"/>
       <c r="H28" s="115"/>
     </row>
     <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="239"/>
+      <c r="A29" s="237"/>
       <c r="B29" s="113" t="s">
         <v>234</v>
       </c>
       <c r="C29" s="114"/>
       <c r="D29" s="113" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E29" s="114"/>
       <c r="F29" s="113" t="s">
@@ -33084,183 +33094,183 @@
       <c r="H29" s="115"/>
     </row>
     <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="239"/>
-      <c r="B30" s="257"/>
+      <c r="A30" s="237"/>
+      <c r="B30" s="226"/>
       <c r="C30" s="114" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="113" t="s">
         <v>211</v>
       </c>
-      <c r="E30" s="258"/>
+      <c r="E30" s="227"/>
       <c r="F30" s="113" t="s">
-        <v>556</v>
-      </c>
-      <c r="G30" s="259"/>
-      <c r="H30" s="260"/>
+        <v>553</v>
+      </c>
+      <c r="G30" s="228"/>
+      <c r="H30" s="229"/>
     </row>
     <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="239"/>
-      <c r="B31" s="257"/>
+      <c r="A31" s="237"/>
+      <c r="B31" s="226"/>
       <c r="C31" s="114" t="s">
         <v>210</v>
       </c>
       <c r="D31" s="113" t="s">
         <v>211</v>
       </c>
-      <c r="E31" s="258"/>
+      <c r="E31" s="227"/>
       <c r="F31" s="113" t="s">
-        <v>557</v>
-      </c>
-      <c r="G31" s="259"/>
-      <c r="H31" s="260"/>
+        <v>554</v>
+      </c>
+      <c r="G31" s="228"/>
+      <c r="H31" s="229"/>
     </row>
     <row r="32" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="239"/>
-      <c r="B32" s="257"/>
+      <c r="A32" s="237"/>
+      <c r="B32" s="226"/>
       <c r="C32" s="114" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D32" s="113" t="s">
         <v>224</v>
       </c>
-      <c r="E32" s="258"/>
+      <c r="E32" s="227"/>
       <c r="F32" s="113" t="s">
-        <v>558</v>
-      </c>
-      <c r="G32" s="259"/>
-      <c r="H32" s="260"/>
+        <v>555</v>
+      </c>
+      <c r="G32" s="228"/>
+      <c r="H32" s="229"/>
     </row>
     <row r="33" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="239"/>
-      <c r="B33" s="257"/>
+      <c r="A33" s="237"/>
+      <c r="B33" s="226"/>
       <c r="C33" s="114" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D33" s="113" t="s">
-        <v>542</v>
-      </c>
-      <c r="E33" s="258"/>
+        <v>539</v>
+      </c>
+      <c r="E33" s="227"/>
       <c r="F33" s="113" t="s">
-        <v>559</v>
-      </c>
-      <c r="G33" s="259"/>
-      <c r="H33" s="260"/>
+        <v>556</v>
+      </c>
+      <c r="G33" s="228"/>
+      <c r="H33" s="229"/>
     </row>
     <row r="34" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A34" s="239"/>
-      <c r="B34" s="257"/>
+      <c r="A34" s="237"/>
+      <c r="B34" s="226"/>
       <c r="C34" s="114" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D34" s="113" t="s">
-        <v>543</v>
-      </c>
-      <c r="E34" s="258"/>
+        <v>540</v>
+      </c>
+      <c r="E34" s="227"/>
       <c r="F34" s="113" t="s">
-        <v>560</v>
-      </c>
-      <c r="G34" s="259"/>
-      <c r="H34" s="260"/>
+        <v>557</v>
+      </c>
+      <c r="G34" s="228"/>
+      <c r="H34" s="229"/>
     </row>
     <row r="35" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="239"/>
-      <c r="B35" s="257"/>
+      <c r="A35" s="237"/>
+      <c r="B35" s="226"/>
       <c r="C35" s="114" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D35" s="113" t="s">
         <v>211</v>
       </c>
-      <c r="E35" s="258"/>
+      <c r="E35" s="227"/>
       <c r="F35" s="113" t="s">
-        <v>561</v>
-      </c>
-      <c r="G35" s="259"/>
-      <c r="H35" s="260"/>
+        <v>558</v>
+      </c>
+      <c r="G35" s="228"/>
+      <c r="H35" s="229"/>
     </row>
     <row r="36" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="239"/>
-      <c r="B36" s="257"/>
+      <c r="A36" s="237"/>
+      <c r="B36" s="226"/>
       <c r="C36" s="114" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D36" s="113" t="s">
-        <v>544</v>
-      </c>
-      <c r="E36" s="258"/>
+        <v>541</v>
+      </c>
+      <c r="E36" s="227"/>
       <c r="F36" s="113" t="s">
-        <v>551</v>
-      </c>
-      <c r="G36" s="259"/>
-      <c r="H36" s="260"/>
+        <v>548</v>
+      </c>
+      <c r="G36" s="228"/>
+      <c r="H36" s="229"/>
     </row>
     <row r="37" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="239"/>
-      <c r="B37" s="257"/>
+      <c r="A37" s="237"/>
+      <c r="B37" s="226"/>
       <c r="C37" s="114" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D37" s="113" t="s">
         <v>224</v>
       </c>
-      <c r="E37" s="258"/>
+      <c r="E37" s="227"/>
       <c r="F37" s="113" t="s">
-        <v>552</v>
-      </c>
-      <c r="G37" s="259"/>
-      <c r="H37" s="260"/>
+        <v>549</v>
+      </c>
+      <c r="G37" s="228"/>
+      <c r="H37" s="229"/>
     </row>
     <row r="38" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" s="239"/>
-      <c r="B38" s="257"/>
+      <c r="A38" s="237"/>
+      <c r="B38" s="226"/>
       <c r="C38" s="114" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D38" s="113" t="s">
         <v>224</v>
       </c>
-      <c r="E38" s="258"/>
+      <c r="E38" s="227"/>
       <c r="F38" s="113" t="s">
-        <v>553</v>
-      </c>
-      <c r="G38" s="259"/>
-      <c r="H38" s="260"/>
+        <v>550</v>
+      </c>
+      <c r="G38" s="228"/>
+      <c r="H38" s="229"/>
     </row>
     <row r="39" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="239"/>
-      <c r="B39" s="257"/>
+      <c r="A39" s="237"/>
+      <c r="B39" s="226"/>
       <c r="C39" s="114" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D39" s="113" t="s">
         <v>224</v>
       </c>
-      <c r="E39" s="258"/>
+      <c r="E39" s="227"/>
       <c r="F39" s="113" t="s">
-        <v>562</v>
-      </c>
-      <c r="G39" s="259"/>
-      <c r="H39" s="260"/>
+        <v>559</v>
+      </c>
+      <c r="G39" s="228"/>
+      <c r="H39" s="229"/>
     </row>
     <row r="40" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="239"/>
-      <c r="B40" s="257"/>
+      <c r="A40" s="237"/>
+      <c r="B40" s="226"/>
       <c r="C40" s="114" t="s">
+        <v>538</v>
+      </c>
+      <c r="D40" s="113" t="s">
         <v>541</v>
       </c>
-      <c r="D40" s="113" t="s">
-        <v>544</v>
-      </c>
-      <c r="E40" s="258"/>
+      <c r="E40" s="227"/>
       <c r="F40" s="113" t="s">
-        <v>563</v>
-      </c>
-      <c r="G40" s="259"/>
-      <c r="H40" s="260"/>
+        <v>560</v>
+      </c>
+      <c r="G40" s="228"/>
+      <c r="H40" s="229"/>
     </row>
     <row r="41" spans="1:1024" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="240"/>
+      <c r="A41" s="238"/>
       <c r="B41" s="116" t="s">
         <v>236</v>
       </c>
@@ -33270,7 +33280,7 @@
       </c>
       <c r="E41" s="117"/>
       <c r="F41" s="116" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G41" s="201" t="s">
         <v>43</v>
@@ -33278,7 +33288,7 @@
       <c r="H41" s="118"/>
     </row>
     <row r="42" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="241" t="s">
+      <c r="A42" s="239" t="s">
         <v>237</v>
       </c>
       <c r="B42" s="119"/>
@@ -33328,7 +33338,7 @@
       <c r="AMJ42" s="5"/>
     </row>
     <row r="43" spans="1:1024" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="237"/>
+      <c r="A43" s="241"/>
       <c r="B43" s="108" t="s">
         <v>238</v>
       </c>
@@ -33365,7 +33375,7 @@
       <c r="AMJ43" s="5"/>
     </row>
     <row r="44" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="238" t="s">
+      <c r="A44" s="236" t="s">
         <v>72</v>
       </c>
       <c r="B44" s="111"/>
@@ -33378,7 +33388,7 @@
       <c r="AMJ44" s="5"/>
     </row>
     <row r="45" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="239"/>
+      <c r="A45" s="237"/>
       <c r="B45" s="113" t="s">
         <v>73</v>
       </c>
@@ -33396,7 +33406,7 @@
       <c r="H45" s="115"/>
     </row>
     <row r="46" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="239"/>
+      <c r="A46" s="237"/>
       <c r="B46" s="113" t="s">
         <v>76</v>
       </c>
@@ -33414,7 +33424,7 @@
       <c r="H46" s="115"/>
     </row>
     <row r="47" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="240"/>
+      <c r="A47" s="238"/>
       <c r="B47" s="116" t="s">
         <v>79</v>
       </c>
@@ -33432,7 +33442,7 @@
       <c r="H47" s="118"/>
     </row>
     <row r="48" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="241" t="s">
+      <c r="A48" s="239" t="s">
         <v>244</v>
       </c>
       <c r="B48" s="121"/>
@@ -33463,7 +33473,7 @@
       <c r="AMJ48" s="5"/>
     </row>
     <row r="49" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A49" s="236"/>
+      <c r="A49" s="240"/>
       <c r="B49" s="105" t="s">
         <v>245</v>
       </c>
@@ -33481,7 +33491,7 @@
       <c r="H49" s="107"/>
     </row>
     <row r="50" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A50" s="236"/>
+      <c r="A50" s="240"/>
       <c r="B50" s="105" t="s">
         <v>247</v>
       </c>
@@ -33499,7 +33509,7 @@
       <c r="H50" s="107"/>
     </row>
     <row r="51" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="236"/>
+      <c r="A51" s="240"/>
       <c r="B51" s="105" t="s">
         <v>46</v>
       </c>
@@ -33517,7 +33527,7 @@
       <c r="H51" s="107"/>
     </row>
     <row r="52" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="236"/>
+      <c r="A52" s="240"/>
       <c r="B52" s="105" t="s">
         <v>48</v>
       </c>
@@ -33535,7 +33545,7 @@
       <c r="H52" s="107"/>
     </row>
     <row r="53" spans="1:1024" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="236"/>
+      <c r="A53" s="240"/>
       <c r="B53" s="105" t="s">
         <v>61</v>
       </c>
@@ -33573,7 +33583,7 @@
       <c r="AMJ53" s="5"/>
     </row>
     <row r="54" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="236"/>
+      <c r="A54" s="240"/>
       <c r="B54" s="105" t="s">
         <v>63</v>
       </c>
@@ -33591,7 +33601,7 @@
       <c r="H54" s="107"/>
     </row>
     <row r="55" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="236"/>
+      <c r="A55" s="240"/>
       <c r="B55" s="105" t="s">
         <v>65</v>
       </c>
@@ -33609,7 +33619,7 @@
       <c r="H55" s="107"/>
     </row>
     <row r="56" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="236"/>
+      <c r="A56" s="240"/>
       <c r="B56" s="105" t="s">
         <v>67</v>
       </c>
@@ -33627,7 +33637,7 @@
       <c r="H56" s="107"/>
     </row>
     <row r="57" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="237"/>
+      <c r="A57" s="241"/>
       <c r="B57" s="108" t="s">
         <v>69</v>
       </c>
@@ -33645,8 +33655,8 @@
       <c r="H57" s="110"/>
     </row>
     <row r="58" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="238" t="s">
-        <v>513</v>
+      <c r="A58" s="236" t="s">
+        <v>510</v>
       </c>
       <c r="B58" s="123"/>
       <c r="C58" s="123"/>
@@ -33658,7 +33668,7 @@
       <c r="AMJ58" s="5"/>
     </row>
     <row r="59" spans="1:1024" ht="90.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="240"/>
+      <c r="A59" s="238"/>
       <c r="B59" s="116" t="s">
         <v>5</v>
       </c>
@@ -33696,14 +33706,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AMJ36"/>
+  <dimension ref="A1:AMJ37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E10" sqref="E10"/>
       <selection pane="topRight" activeCell="E10" sqref="E10"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
-      <selection pane="bottomRight" sqref="A1:H1"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -33720,16 +33730,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="226" t="s">
-        <v>502</v>
-      </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="227"/>
+      <c r="A1" s="242" t="s">
+        <v>499</v>
+      </c>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="243"/>
     </row>
     <row r="2" spans="1:1024" s="16" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
@@ -34774,8 +34784,8 @@
       <c r="AMJ2" s="17"/>
     </row>
     <row r="3" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="248" t="s">
-        <v>514</v>
+      <c r="A3" s="252" t="s">
+        <v>511</v>
       </c>
       <c r="B3" s="121"/>
       <c r="C3" s="121"/>
@@ -34799,7 +34809,7 @@
       <c r="AMJ3" s="5"/>
     </row>
     <row r="4" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="249"/>
+      <c r="A4" s="253"/>
       <c r="B4" s="105" t="s">
         <v>207</v>
       </c>
@@ -34814,12 +34824,12 @@
         <v>305</v>
       </c>
       <c r="G4" s="197" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H4" s="126"/>
     </row>
     <row r="5" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="249"/>
+      <c r="A5" s="253"/>
       <c r="B5" s="105" t="s">
         <v>306</v>
       </c>
@@ -34834,14 +34844,14 @@
         <v>307</v>
       </c>
       <c r="G5" s="197" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H5" s="126"/>
     </row>
     <row r="6" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="249"/>
+      <c r="A6" s="253"/>
       <c r="B6" s="105" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C6" s="106"/>
       <c r="D6" s="105" t="s">
@@ -34854,12 +34864,12 @@
         <v>308</v>
       </c>
       <c r="G6" s="197" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H6" s="126"/>
     </row>
     <row r="7" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249"/>
+      <c r="A7" s="253"/>
       <c r="B7" s="105" t="s">
         <v>309</v>
       </c>
@@ -34868,18 +34878,18 @@
         <v>310</v>
       </c>
       <c r="E7" s="106" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F7" s="105" t="s">
         <v>311</v>
       </c>
       <c r="G7" s="197" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H7" s="126"/>
     </row>
     <row r="8" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="251" t="s">
+      <c r="A8" s="255" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="123"/>
@@ -34892,7 +34902,7 @@
       <c r="AMJ8" s="5"/>
     </row>
     <row r="9" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="253"/>
+      <c r="A9" s="257"/>
       <c r="B9" s="113" t="s">
         <v>312</v>
       </c>
@@ -34901,7 +34911,7 @@
         <v>211</v>
       </c>
       <c r="E9" s="114" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F9" s="113" t="s">
         <v>313</v>
@@ -35928,19 +35938,19 @@
       <c r="AMJ9" s="8"/>
     </row>
     <row r="10" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="253"/>
+      <c r="A10" s="257"/>
       <c r="B10" s="113" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C10" s="114"/>
       <c r="D10" s="113" t="s">
         <v>211</v>
       </c>
       <c r="E10" s="114" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F10" s="113" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G10" s="200" t="s">
         <v>43</v>
@@ -36964,7 +36974,7 @@
       <c r="AMJ10" s="8"/>
     </row>
     <row r="11" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="253"/>
+      <c r="A11" s="257"/>
       <c r="B11" s="113" t="s">
         <v>317</v>
       </c>
@@ -36973,7 +36983,7 @@
         <v>211</v>
       </c>
       <c r="E11" s="114" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F11" s="113" t="s">
         <v>318</v>
@@ -38000,16 +38010,16 @@
       <c r="AMJ11" s="8"/>
     </row>
     <row r="12" spans="1:1024" s="10" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="253"/>
+      <c r="A12" s="257"/>
       <c r="B12" s="113" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C12" s="114"/>
       <c r="D12" s="113" t="s">
         <v>319</v>
       </c>
       <c r="E12" s="117" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F12" s="116" t="s">
         <v>320</v>
@@ -39036,7 +39046,7 @@
       <c r="AMJ12" s="8"/>
     </row>
     <row r="13" spans="1:1024" s="10" customFormat="1" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="253"/>
+      <c r="A13" s="257"/>
       <c r="B13" s="113" t="s">
         <v>314</v>
       </c>
@@ -39045,7 +39055,7 @@
         <v>315</v>
       </c>
       <c r="E13" s="114" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F13" s="113" t="s">
         <v>316</v>
@@ -40072,8 +40082,8 @@
       <c r="AMJ13" s="8"/>
     </row>
     <row r="14" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="248" t="s">
-        <v>515</v>
+      <c r="A14" s="252" t="s">
+        <v>512</v>
       </c>
       <c r="B14" s="121"/>
       <c r="C14" s="121"/>
@@ -40093,7 +40103,7 @@
       <c r="AMJ14" s="5"/>
     </row>
     <row r="15" spans="1:1024" s="16" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="250"/>
+      <c r="A15" s="254"/>
       <c r="B15" s="108" t="s">
         <v>321</v>
       </c>
@@ -40102,7 +40112,7 @@
         <v>322</v>
       </c>
       <c r="E15" s="109" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F15" s="108" t="s">
         <v>323</v>
@@ -41129,7 +41139,7 @@
       <c r="AMJ15" s="17"/>
     </row>
     <row r="16" spans="1:1024" s="40" customFormat="1" ht="18.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="251" t="s">
+      <c r="A16" s="255" t="s">
         <v>324</v>
       </c>
       <c r="B16" s="111"/>
@@ -42157,7 +42167,7 @@
       <c r="AMJ16" s="39"/>
     </row>
     <row r="17" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" s="253"/>
+      <c r="A17" s="257"/>
       <c r="B17" s="113" t="s">
         <v>94</v>
       </c>
@@ -42166,7 +42176,7 @@
         <v>220</v>
       </c>
       <c r="E17" s="114" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F17" s="113" t="s">
         <v>325</v>
@@ -42177,7 +42187,7 @@
       <c r="H17" s="129"/>
     </row>
     <row r="18" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="253"/>
+      <c r="A18" s="257"/>
       <c r="B18" s="113" t="s">
         <v>98</v>
       </c>
@@ -42186,7 +42196,7 @@
         <v>220</v>
       </c>
       <c r="E18" s="114" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F18" s="113" t="s">
         <v>326</v>
@@ -42197,7 +42207,7 @@
       <c r="H18" s="129"/>
     </row>
     <row r="19" spans="1:1024" ht="86" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="252"/>
+      <c r="A19" s="256"/>
       <c r="B19" s="116" t="s">
         <v>102</v>
       </c>
@@ -42206,7 +42216,7 @@
         <v>322</v>
       </c>
       <c r="E19" s="117" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F19" s="116" t="s">
         <v>327</v>
@@ -42217,7 +42227,7 @@
       <c r="H19" s="130"/>
     </row>
     <row r="20" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="248" t="s">
+      <c r="A20" s="252" t="s">
         <v>329</v>
       </c>
       <c r="B20" s="121"/>
@@ -42237,7 +42247,7 @@
       <c r="AMJ20" s="5"/>
     </row>
     <row r="21" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="249"/>
+      <c r="A21" s="253"/>
       <c r="B21" s="105" t="s">
         <v>106</v>
       </c>
@@ -42246,7 +42256,7 @@
         <v>211</v>
       </c>
       <c r="E21" s="106" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F21" s="105" t="s">
         <v>330</v>
@@ -42257,39 +42267,39 @@
       <c r="H21" s="126"/>
     </row>
     <row r="22" spans="1:1024" ht="146.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="249"/>
+      <c r="A22" s="253"/>
       <c r="B22" s="105" t="s">
-        <v>332</v>
+        <v>562</v>
       </c>
       <c r="C22" s="106"/>
       <c r="D22" s="105" t="s">
         <v>226</v>
       </c>
       <c r="E22" s="106" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F22" s="105" t="s">
-        <v>490</v>
+        <v>563</v>
       </c>
       <c r="G22" s="197" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H22" s="126"/>
     </row>
     <row r="23" spans="1:1024" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="250"/>
+      <c r="A23" s="254"/>
       <c r="B23" s="108" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C23" s="109"/>
       <c r="D23" s="108" t="s">
+        <v>333</v>
+      </c>
+      <c r="E23" s="109" t="s">
+        <v>487</v>
+      </c>
+      <c r="F23" s="108" t="s">
         <v>334</v>
-      </c>
-      <c r="E23" s="109" t="s">
-        <v>489</v>
-      </c>
-      <c r="F23" s="108" t="s">
-        <v>335</v>
       </c>
       <c r="G23" s="198" t="s">
         <v>328</v>
@@ -42297,8 +42307,8 @@
       <c r="H23" s="127"/>
     </row>
     <row r="24" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="251" t="s">
-        <v>516</v>
+      <c r="A24" s="255" t="s">
+        <v>513</v>
       </c>
       <c r="B24" s="132"/>
       <c r="C24" s="132"/>
@@ -42310,26 +42320,26 @@
       <c r="AMJ24" s="5"/>
     </row>
     <row r="25" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="252"/>
+      <c r="A25" s="256"/>
       <c r="B25" s="116" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C25" s="117"/>
       <c r="D25" s="116" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E25" s="117"/>
       <c r="F25" s="116" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G25" s="201" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="H25" s="130"/>
     </row>
     <row r="26" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="248" t="s">
-        <v>339</v>
+      <c r="A26" s="252" t="s">
+        <v>338</v>
       </c>
       <c r="B26" s="121"/>
       <c r="C26" s="121"/>
@@ -42348,7 +42358,7 @@
       <c r="AMJ26" s="5"/>
     </row>
     <row r="27" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A27" s="249"/>
+      <c r="A27" s="253"/>
       <c r="B27" s="105" t="s">
         <v>110</v>
       </c>
@@ -42357,10 +42367,10 @@
         <v>211</v>
       </c>
       <c r="E27" s="106" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F27" s="105" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G27" s="197" t="s">
         <v>43</v>
@@ -42368,7 +42378,7 @@
       <c r="H27" s="126"/>
     </row>
     <row r="28" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="249"/>
+      <c r="A28" s="253"/>
       <c r="B28" s="105" t="s">
         <v>118</v>
       </c>
@@ -42377,10 +42387,10 @@
         <v>211</v>
       </c>
       <c r="E28" s="106" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F28" s="105" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G28" s="197" t="s">
         <v>43</v>
@@ -42388,7 +42398,7 @@
       <c r="H28" s="126"/>
     </row>
     <row r="29" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="249"/>
+      <c r="A29" s="253"/>
       <c r="B29" s="105" t="s">
         <v>122</v>
       </c>
@@ -42397,10 +42407,10 @@
         <v>211</v>
       </c>
       <c r="E29" s="106" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F29" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G29" s="197" t="s">
         <v>43</v>
@@ -42408,7 +42418,7 @@
       <c r="H29" s="126"/>
     </row>
     <row r="30" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="249"/>
+      <c r="A30" s="253"/>
       <c r="B30" s="105" t="s">
         <v>126</v>
       </c>
@@ -42417,10 +42427,10 @@
         <v>211</v>
       </c>
       <c r="E30" s="106" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F30" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G30" s="197" t="s">
         <v>43</v>
@@ -42428,7 +42438,7 @@
       <c r="H30" s="126"/>
     </row>
     <row r="31" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="250"/>
+      <c r="A31" s="254"/>
       <c r="B31" s="108" t="s">
         <v>130</v>
       </c>
@@ -42437,10 +42447,10 @@
         <v>211</v>
       </c>
       <c r="E31" s="109" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F31" s="108" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G31" s="198" t="s">
         <v>43</v>
@@ -42448,8 +42458,8 @@
       <c r="H31" s="127"/>
     </row>
     <row r="32" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="251" t="s">
-        <v>345</v>
+      <c r="A32" s="255" t="s">
+        <v>344</v>
       </c>
       <c r="B32" s="123"/>
       <c r="C32" s="123"/>
@@ -42461,7 +42471,7 @@
       <c r="AMJ32" s="5"/>
     </row>
     <row r="33" spans="1:8" ht="89.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="253"/>
+      <c r="A33" s="257"/>
       <c r="B33" s="113" t="s">
         <v>134</v>
       </c>
@@ -42470,43 +42480,61 @@
         <v>211</v>
       </c>
       <c r="E33" s="114" t="s">
-        <v>488</v>
+        <v>566</v>
       </c>
       <c r="F33" s="113" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G33" s="200" t="s">
         <v>43</v>
       </c>
       <c r="H33" s="129"/>
     </row>
-    <row r="34" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="252"/>
-      <c r="B34" s="116" t="s">
+    <row r="34" spans="1:8" ht="89.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="257"/>
+      <c r="B34" s="113" t="s">
+        <v>564</v>
+      </c>
+      <c r="C34" s="227"/>
+      <c r="D34" s="226" t="s">
+        <v>319</v>
+      </c>
+      <c r="E34" s="114" t="s">
+        <v>565</v>
+      </c>
+      <c r="F34" s="226"/>
+      <c r="G34" s="228" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="261"/>
+    </row>
+    <row r="35" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="256"/>
+      <c r="B35" s="116" t="s">
+        <v>345</v>
+      </c>
+      <c r="C35" s="117"/>
+      <c r="D35" s="116" t="s">
+        <v>211</v>
+      </c>
+      <c r="E35" s="117"/>
+      <c r="F35" s="116" t="s">
         <v>346</v>
       </c>
-      <c r="C34" s="117"/>
-      <c r="D34" s="116" t="s">
-        <v>211</v>
-      </c>
-      <c r="E34" s="117"/>
-      <c r="F34" s="116" t="s">
-        <v>347</v>
-      </c>
-      <c r="G34" s="201" t="s">
+      <c r="G35" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="130"/>
+      <c r="H35" s="130"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2"/>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" insertRows="0" deleteRows="0"/>
   <mergeCells count="9">
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A31"/>
-    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A13"/>
@@ -42550,16 +42578,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="226" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="227"/>
+      <c r="A1" s="242" t="s">
+        <v>500</v>
+      </c>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="243"/>
     </row>
     <row r="2" spans="1:1024" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -42588,8 +42616,8 @@
       </c>
     </row>
     <row r="3" spans="1:1024" s="11" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="241" t="s">
-        <v>517</v>
+      <c r="A3" s="239" t="s">
+        <v>514</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -42615,7 +42643,7 @@
       <c r="AMJ3" s="134"/>
     </row>
     <row r="4" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="236"/>
+      <c r="A4" s="240"/>
       <c r="B4" s="106" t="s">
         <v>207</v>
       </c>
@@ -42627,15 +42655,15 @@
         <v>258</v>
       </c>
       <c r="F4" s="136" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G4" s="197" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H4" s="137"/>
     </row>
     <row r="5" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="236"/>
+      <c r="A5" s="240"/>
       <c r="B5" s="106" t="s">
         <v>260</v>
       </c>
@@ -42650,12 +42678,12 @@
         <v>263</v>
       </c>
       <c r="G5" s="197" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H5" s="137"/>
     </row>
     <row r="6" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="236"/>
+      <c r="A6" s="240"/>
       <c r="B6" s="106" t="s">
         <v>213</v>
       </c>
@@ -42667,13 +42695,13 @@
         <v>21</v>
       </c>
       <c r="F6" s="136" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G6" s="197"/>
       <c r="H6" s="137"/>
     </row>
     <row r="7" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="236"/>
+      <c r="A7" s="240"/>
       <c r="B7" s="106" t="s">
         <v>266</v>
       </c>
@@ -42688,12 +42716,12 @@
         <v>268</v>
       </c>
       <c r="G7" s="197" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H7" s="137"/>
     </row>
     <row r="8" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="236"/>
+      <c r="A8" s="240"/>
       <c r="B8" s="106" t="s">
         <v>269</v>
       </c>
@@ -42705,15 +42733,15 @@
         <v>270</v>
       </c>
       <c r="F8" s="136" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G8" s="197" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H8" s="137"/>
     </row>
     <row r="9" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="236"/>
+      <c r="A9" s="240"/>
       <c r="B9" s="106" t="s">
         <v>272</v>
       </c>
@@ -42722,18 +42750,18 @@
         <v>208</v>
       </c>
       <c r="E9" s="106" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F9" s="136" t="s">
         <v>275</v>
       </c>
       <c r="G9" s="197" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H9" s="137"/>
     </row>
     <row r="10" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="236"/>
+      <c r="A10" s="240"/>
       <c r="B10" s="106" t="s">
         <v>210</v>
       </c>
@@ -42742,16 +42770,16 @@
         <v>276</v>
       </c>
       <c r="E10" s="106" t="s">
+        <v>351</v>
+      </c>
+      <c r="F10" s="136" t="s">
         <v>352</v>
-      </c>
-      <c r="F10" s="136" t="s">
-        <v>353</v>
       </c>
       <c r="G10" s="197"/>
       <c r="H10" s="137"/>
     </row>
     <row r="11" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="236"/>
+      <c r="A11" s="240"/>
       <c r="B11" s="106" t="s">
         <v>279</v>
       </c>
@@ -42763,37 +42791,37 @@
         <v>280</v>
       </c>
       <c r="F11" s="136" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G11" s="197"/>
       <c r="H11" s="137"/>
     </row>
     <row r="12" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="236"/>
+      <c r="A12" s="240"/>
       <c r="B12" s="106" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C12" s="106"/>
       <c r="D12" s="136" t="s">
         <v>208</v>
       </c>
       <c r="E12" s="106" t="s">
+        <v>355</v>
+      </c>
+      <c r="F12" s="136" t="s">
         <v>356</v>
-      </c>
-      <c r="F12" s="136" t="s">
-        <v>357</v>
       </c>
       <c r="G12" s="197"/>
       <c r="H12" s="137"/>
     </row>
     <row r="13" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="236"/>
+      <c r="A13" s="240"/>
       <c r="B13" s="106" t="s">
         <v>285</v>
       </c>
       <c r="C13" s="106"/>
       <c r="D13" s="136" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E13" s="106" t="s">
         <v>287</v>
@@ -42805,63 +42833,63 @@
       <c r="H13" s="137"/>
     </row>
     <row r="14" spans="1:1024" ht="85" x14ac:dyDescent="0.2">
-      <c r="A14" s="236"/>
+      <c r="A14" s="240"/>
       <c r="B14" s="106" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C14" s="106"/>
       <c r="D14" s="136" t="s">
         <v>208</v>
       </c>
       <c r="E14" s="136" t="s">
+        <v>359</v>
+      </c>
+      <c r="F14" s="136" t="s">
         <v>360</v>
-      </c>
-      <c r="F14" s="136" t="s">
-        <v>361</v>
       </c>
       <c r="G14" s="197"/>
       <c r="H14" s="137"/>
     </row>
     <row r="15" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="236"/>
+      <c r="A15" s="240"/>
       <c r="B15" s="106" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C15" s="106"/>
       <c r="D15" s="136" t="s">
         <v>208</v>
       </c>
       <c r="E15" s="136" t="s">
+        <v>362</v>
+      </c>
+      <c r="F15" s="136" t="s">
         <v>363</v>
-      </c>
-      <c r="F15" s="136" t="s">
-        <v>364</v>
       </c>
       <c r="G15" s="197"/>
       <c r="H15" s="137"/>
     </row>
     <row r="16" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="236"/>
+      <c r="A16" s="240"/>
       <c r="B16" s="106" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C16" s="106"/>
       <c r="D16" s="136" t="s">
+        <v>365</v>
+      </c>
+      <c r="E16" s="136" t="s">
         <v>366</v>
       </c>
-      <c r="E16" s="136" t="s">
+      <c r="F16" s="136" t="s">
         <v>367</v>
-      </c>
-      <c r="F16" s="136" t="s">
-        <v>368</v>
       </c>
       <c r="G16" s="197"/>
       <c r="H16" s="137"/>
     </row>
     <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="236"/>
+      <c r="A17" s="240"/>
       <c r="B17" s="106" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C17" s="106"/>
       <c r="D17" s="106" t="s">
@@ -42871,13 +42899,13 @@
         <v>12</v>
       </c>
       <c r="F17" s="136" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G17" s="197"/>
       <c r="H17" s="137"/>
     </row>
     <row r="18" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="237"/>
+      <c r="A18" s="241"/>
       <c r="B18" s="109" t="s">
         <v>302</v>
       </c>
@@ -42886,7 +42914,7 @@
         <v>9</v>
       </c>
       <c r="E18" s="109" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F18" s="138" t="s">
         <v>304</v>
@@ -42938,16 +42966,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="226" t="s">
-        <v>504</v>
-      </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="227"/>
+      <c r="A1" s="242" t="s">
+        <v>501</v>
+      </c>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="243"/>
     </row>
     <row r="2" spans="1:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -42976,8 +43004,8 @@
       </c>
     </row>
     <row r="3" spans="1:17" s="144" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="254" t="s">
-        <v>517</v>
+      <c r="A3" s="258" t="s">
+        <v>514</v>
       </c>
       <c r="B3" s="142"/>
       <c r="C3" s="142"/>
@@ -42988,7 +43016,7 @@
       <c r="H3" s="143"/>
     </row>
     <row r="4" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="255"/>
+      <c r="A4" s="259"/>
       <c r="B4" s="106" t="s">
         <v>207</v>
       </c>
@@ -43003,7 +43031,7 @@
         <v>259</v>
       </c>
       <c r="G4" s="197" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H4" s="145"/>
       <c r="I4" s="144"/>
@@ -43017,7 +43045,7 @@
       <c r="Q4" s="144"/>
     </row>
     <row r="5" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="255"/>
+      <c r="A5" s="259"/>
       <c r="B5" s="106" t="s">
         <v>260</v>
       </c>
@@ -43032,7 +43060,7 @@
         <v>263</v>
       </c>
       <c r="G5" s="197" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H5" s="145"/>
       <c r="I5" s="144"/>
@@ -43046,7 +43074,7 @@
       <c r="Q5" s="144"/>
     </row>
     <row r="6" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="255"/>
+      <c r="A6" s="259"/>
       <c r="B6" s="106" t="s">
         <v>213</v>
       </c>
@@ -43073,7 +43101,7 @@
       <c r="Q6" s="144"/>
     </row>
     <row r="7" spans="1:17" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="255"/>
+      <c r="A7" s="259"/>
       <c r="B7" s="106" t="s">
         <v>266</v>
       </c>
@@ -43088,7 +43116,7 @@
         <v>268</v>
       </c>
       <c r="G7" s="197" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H7" s="145"/>
       <c r="I7" s="144"/>
@@ -43102,7 +43130,7 @@
       <c r="Q7" s="144"/>
     </row>
     <row r="8" spans="1:17" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="255"/>
+      <c r="A8" s="259"/>
       <c r="B8" s="106" t="s">
         <v>269</v>
       </c>
@@ -43117,7 +43145,7 @@
         <v>271</v>
       </c>
       <c r="G8" s="197" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H8" s="145"/>
       <c r="I8" s="144"/>
@@ -43131,7 +43159,7 @@
       <c r="Q8" s="144"/>
     </row>
     <row r="9" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="255"/>
+      <c r="A9" s="259"/>
       <c r="B9" s="106" t="s">
         <v>272</v>
       </c>
@@ -43146,7 +43174,7 @@
         <v>275</v>
       </c>
       <c r="G9" s="197" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H9" s="149"/>
       <c r="I9" s="144"/>
@@ -43160,7 +43188,7 @@
       <c r="Q9" s="144"/>
     </row>
     <row r="10" spans="1:17" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="255"/>
+      <c r="A10" s="259"/>
       <c r="B10" s="106" t="s">
         <v>210</v>
       </c>
@@ -43187,7 +43215,7 @@
       <c r="Q10" s="144"/>
     </row>
     <row r="11" spans="1:17" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="255"/>
+      <c r="A11" s="259"/>
       <c r="B11" s="106" t="s">
         <v>279</v>
       </c>
@@ -43214,7 +43242,7 @@
       <c r="Q11" s="144"/>
     </row>
     <row r="12" spans="1:17" s="151" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="255"/>
+      <c r="A12" s="259"/>
       <c r="B12" s="106" t="s">
         <v>282</v>
       </c>
@@ -43241,7 +43269,7 @@
       <c r="Q12" s="144"/>
     </row>
     <row r="13" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="255"/>
+      <c r="A13" s="259"/>
       <c r="B13" s="106" t="s">
         <v>285</v>
       </c>
@@ -43268,7 +43296,7 @@
       <c r="Q13" s="144"/>
     </row>
     <row r="14" spans="1:17" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="255"/>
+      <c r="A14" s="259"/>
       <c r="B14" s="106" t="s">
         <v>289</v>
       </c>
@@ -43295,7 +43323,7 @@
       <c r="Q14" s="144"/>
     </row>
     <row r="15" spans="1:17" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="255"/>
+      <c r="A15" s="259"/>
       <c r="B15" s="106" t="s">
         <v>292</v>
       </c>
@@ -43322,13 +43350,13 @@
       <c r="Q15" s="144"/>
     </row>
     <row r="16" spans="1:17" ht="85" x14ac:dyDescent="0.2">
-      <c r="A16" s="255"/>
+      <c r="A16" s="259"/>
       <c r="B16" s="106" t="s">
         <v>295</v>
       </c>
       <c r="C16" s="106"/>
       <c r="D16" s="105" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E16" s="136" t="s">
         <v>296</v>
@@ -43349,7 +43377,7 @@
       <c r="Q16" s="144"/>
     </row>
     <row r="17" spans="1:17" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="255"/>
+      <c r="A17" s="259"/>
       <c r="B17" s="106" t="s">
         <v>298</v>
       </c>
@@ -43376,7 +43404,7 @@
       <c r="Q17" s="144"/>
     </row>
     <row r="18" spans="1:17" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="256"/>
+      <c r="A18" s="260"/>
       <c r="B18" s="109" t="s">
         <v>302</v>
       </c>
@@ -43444,16 +43472,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="226" t="s">
-        <v>505</v>
-      </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="227"/>
+      <c r="A1" s="242" t="s">
+        <v>502</v>
+      </c>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="243"/>
     </row>
     <row r="2" spans="1:20" s="153" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
@@ -43482,7 +43510,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" s="157" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="241" t="s">
+      <c r="A3" s="239" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="154"/>
@@ -43506,7 +43534,7 @@
       <c r="T3" s="156"/>
     </row>
     <row r="4" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="236"/>
+      <c r="A4" s="240"/>
       <c r="B4" s="158" t="s">
         <v>8</v>
       </c>
@@ -43516,15 +43544,15 @@
       </c>
       <c r="E4" s="158"/>
       <c r="F4" s="158" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G4" s="183" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H4" s="159"/>
     </row>
     <row r="5" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="236"/>
+      <c r="A5" s="240"/>
       <c r="B5" s="158" t="s">
         <v>13</v>
       </c>
@@ -43534,7 +43562,7 @@
       </c>
       <c r="E5" s="158"/>
       <c r="F5" s="158" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G5" s="183" t="s">
         <v>12</v>
@@ -43542,7 +43570,7 @@
       <c r="H5" s="159"/>
     </row>
     <row r="6" spans="1:20" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="236"/>
+      <c r="A6" s="240"/>
       <c r="B6" s="158" t="s">
         <v>16</v>
       </c>
@@ -43552,7 +43580,7 @@
       </c>
       <c r="E6" s="158"/>
       <c r="F6" s="158" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G6" s="183" t="s">
         <v>12</v>
@@ -43560,25 +43588,25 @@
       <c r="H6" s="159"/>
     </row>
     <row r="7" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="237"/>
+      <c r="A7" s="241"/>
       <c r="B7" s="160" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="160"/>
       <c r="D7" s="160" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E7" s="160"/>
       <c r="F7" s="160" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G7" s="184" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H7" s="161"/>
     </row>
     <row r="8" spans="1:20" s="156" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="238" t="s">
+      <c r="A8" s="236" t="s">
         <v>295</v>
       </c>
       <c r="B8" s="162"/>
@@ -43590,17 +43618,17 @@
       <c r="H8" s="163"/>
     </row>
     <row r="9" spans="1:20" ht="18.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="239"/>
+      <c r="A9" s="237"/>
       <c r="B9" s="164" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="164"/>
       <c r="D9" s="164" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E9" s="164"/>
       <c r="F9" s="164" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G9" s="214" t="s">
         <v>12</v>
@@ -43608,136 +43636,136 @@
       <c r="H9" s="165"/>
     </row>
     <row r="10" spans="1:20" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="239"/>
+      <c r="A10" s="237"/>
       <c r="B10" s="164" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C10" s="164"/>
       <c r="D10" s="164" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E10" s="164"/>
       <c r="F10" s="164" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="G10" s="186"/>
       <c r="H10" s="165"/>
     </row>
     <row r="11" spans="1:20" ht="40.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="239"/>
+      <c r="A11" s="237"/>
       <c r="B11" s="164"/>
       <c r="C11" s="164" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D11" s="164" t="s">
         <v>208</v>
       </c>
       <c r="E11" s="164"/>
       <c r="F11" s="164" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G11" s="186"/>
       <c r="H11" s="165"/>
     </row>
     <row r="12" spans="1:20" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="239"/>
+      <c r="A12" s="237"/>
       <c r="B12" s="164"/>
       <c r="C12" s="164" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D12" s="164" t="s">
         <v>208</v>
       </c>
       <c r="E12" s="164"/>
       <c r="F12" s="164" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G12" s="186"/>
       <c r="H12" s="165"/>
     </row>
     <row r="13" spans="1:20" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="239"/>
+      <c r="A13" s="237"/>
       <c r="B13" s="164"/>
       <c r="C13" s="164" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D13" s="164" t="s">
         <v>208</v>
       </c>
       <c r="E13" s="164"/>
       <c r="F13" s="164" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G13" s="186"/>
       <c r="H13" s="165"/>
     </row>
     <row r="14" spans="1:20" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="239"/>
+      <c r="A14" s="237"/>
       <c r="B14" s="164"/>
       <c r="C14" s="164" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D14" s="164" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E14" s="164"/>
       <c r="F14" s="164" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G14" s="186"/>
       <c r="H14" s="165"/>
     </row>
     <row r="15" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="239"/>
+      <c r="A15" s="237"/>
       <c r="B15" s="164"/>
       <c r="C15" s="164" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D15" s="164" t="s">
         <v>319</v>
       </c>
       <c r="E15" s="164"/>
       <c r="F15" s="164" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G15" s="186"/>
       <c r="H15" s="165"/>
     </row>
     <row r="16" spans="1:20" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="239"/>
+      <c r="A16" s="237"/>
       <c r="B16" s="164" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C16" s="164"/>
       <c r="D16" s="164" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E16" s="164"/>
       <c r="F16" s="164" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G16" s="186"/>
       <c r="H16" s="165"/>
     </row>
     <row r="17" spans="1:19" ht="18.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="240"/>
+      <c r="A17" s="238"/>
       <c r="B17" s="166"/>
       <c r="C17" s="166" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D17" s="166" t="s">
         <v>319</v>
       </c>
       <c r="E17" s="166"/>
       <c r="F17" s="166" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G17" s="187"/>
       <c r="H17" s="167"/>
     </row>
     <row r="18" spans="1:19" s="157" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="241" t="s">
-        <v>389</v>
+      <c r="A18" s="239" t="s">
+        <v>388</v>
       </c>
       <c r="B18" s="168"/>
       <c r="C18" s="168"/>
@@ -43759,17 +43787,17 @@
       <c r="S18" s="156"/>
     </row>
     <row r="19" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="236"/>
+      <c r="A19" s="240"/>
       <c r="B19" s="158" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C19" s="158"/>
       <c r="D19" s="158" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E19" s="158"/>
       <c r="F19" s="158" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G19" s="183" t="s">
         <v>43</v>
@@ -43777,49 +43805,49 @@
       <c r="H19" s="159"/>
     </row>
     <row r="20" spans="1:19" ht="41.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="236"/>
+      <c r="A20" s="240"/>
       <c r="B20" s="158"/>
       <c r="C20" s="158" t="s">
+        <v>390</v>
+      </c>
+      <c r="D20" s="158" t="s">
         <v>391</v>
-      </c>
-      <c r="D20" s="158" t="s">
-        <v>392</v>
       </c>
       <c r="E20" s="158"/>
       <c r="F20" s="158" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G20" s="183"/>
       <c r="H20" s="159"/>
     </row>
     <row r="21" spans="1:19" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="236"/>
+      <c r="A21" s="240"/>
       <c r="B21" s="158"/>
       <c r="C21" s="158" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D21" s="158" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E21" s="158"/>
       <c r="F21" s="158" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G21" s="183"/>
       <c r="H21" s="159"/>
     </row>
     <row r="22" spans="1:19" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="237"/>
+      <c r="A22" s="241"/>
       <c r="B22" s="160"/>
       <c r="C22" s="160" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D22" s="160" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E22" s="160"/>
       <c r="F22" s="160" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G22" s="184"/>
       <c r="H22" s="161"/>
@@ -43867,16 +43895,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="226" t="s">
-        <v>506</v>
-      </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="227"/>
+      <c r="A1" s="242" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="243"/>
     </row>
     <row r="2" spans="1:1024" s="42" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
@@ -44921,8 +44949,8 @@
       <c r="AMJ2" s="41"/>
     </row>
     <row r="3" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="241" t="s">
-        <v>398</v>
+      <c r="A3" s="239" t="s">
+        <v>397</v>
       </c>
       <c r="B3" s="172"/>
       <c r="C3" s="172"/>
@@ -44933,7 +44961,7 @@
       <c r="H3" s="173"/>
     </row>
     <row r="4" spans="1:1024" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="236"/>
+      <c r="A4" s="240"/>
       <c r="B4" s="47" t="s">
         <v>207</v>
       </c>
@@ -44943,7 +44971,7 @@
       </c>
       <c r="E4" s="47"/>
       <c r="F4" s="158" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G4" s="47"/>
       <c r="H4" s="159"/>
@@ -45965,7 +45993,7 @@
       <c r="AMJ4" s="23"/>
     </row>
     <row r="5" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="236"/>
+      <c r="A5" s="240"/>
       <c r="B5" s="47" t="s">
         <v>260</v>
       </c>
@@ -46997,7 +47025,7 @@
       <c r="AMJ5" s="23"/>
     </row>
     <row r="6" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="236"/>
+      <c r="A6" s="240"/>
       <c r="B6" s="47" t="s">
         <v>213</v>
       </c>
@@ -47007,7 +47035,7 @@
       </c>
       <c r="E6" s="47"/>
       <c r="F6" s="158" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G6" s="47"/>
       <c r="H6" s="174"/>
@@ -48029,9 +48057,9 @@
       <c r="AMJ6" s="23"/>
     </row>
     <row r="7" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="236"/>
+      <c r="A7" s="240"/>
       <c r="B7" s="47" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C7" s="158"/>
       <c r="D7" s="47" t="s">
@@ -48039,7 +48067,7 @@
       </c>
       <c r="E7" s="47"/>
       <c r="F7" s="158" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G7" s="47"/>
       <c r="H7" s="159"/>
@@ -49061,9 +49089,9 @@
       <c r="AMJ7" s="23"/>
     </row>
     <row r="8" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="236"/>
+      <c r="A8" s="240"/>
       <c r="B8" s="47" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C8" s="158"/>
       <c r="D8" s="47" t="s">
@@ -49071,7 +49099,7 @@
       </c>
       <c r="E8" s="47"/>
       <c r="F8" s="158" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G8" s="47"/>
       <c r="H8" s="159"/>
@@ -50093,17 +50121,17 @@
       <c r="AMJ8" s="23"/>
     </row>
     <row r="9" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="236"/>
+      <c r="A9" s="240"/>
       <c r="B9" s="47" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C9" s="158"/>
       <c r="D9" s="47" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E9" s="47"/>
       <c r="F9" s="158" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G9" s="47"/>
       <c r="H9" s="159"/>
@@ -51125,9 +51153,9 @@
       <c r="AMJ9" s="23"/>
     </row>
     <row r="10" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="236"/>
+      <c r="A10" s="240"/>
       <c r="B10" s="47" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C10" s="158"/>
       <c r="D10" s="47" t="s">
@@ -51135,7 +51163,7 @@
       </c>
       <c r="E10" s="47"/>
       <c r="F10" s="158" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G10" s="47"/>
       <c r="H10" s="159"/>
@@ -52157,17 +52185,17 @@
       <c r="AMJ10" s="23"/>
     </row>
     <row r="11" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="236"/>
+      <c r="A11" s="240"/>
       <c r="B11" s="47" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C11" s="158"/>
       <c r="D11" s="47" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E11" s="47"/>
       <c r="F11" s="158" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G11" s="47"/>
       <c r="H11" s="159"/>
@@ -53189,9 +53217,9 @@
       <c r="AMJ11" s="23"/>
     </row>
     <row r="12" spans="1:1024" s="26" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="237"/>
+      <c r="A12" s="241"/>
       <c r="B12" s="51" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C12" s="160"/>
       <c r="D12" s="51" t="s">
@@ -53199,7 +53227,7 @@
       </c>
       <c r="E12" s="51"/>
       <c r="F12" s="160" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G12" s="51"/>
       <c r="H12" s="161"/>
@@ -54221,8 +54249,8 @@
       <c r="AMJ12" s="25"/>
     </row>
     <row r="13" spans="1:1024" s="20" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="238" t="s">
-        <v>413</v>
+      <c r="A13" s="236" t="s">
+        <v>412</v>
       </c>
       <c r="B13" s="175"/>
       <c r="C13" s="175"/>
@@ -54234,7 +54262,7 @@
       <c r="AMJ13" s="21"/>
     </row>
     <row r="14" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="239"/>
+      <c r="A14" s="237"/>
       <c r="B14" s="69" t="s">
         <v>207</v>
       </c>
@@ -54244,13 +54272,13 @@
       </c>
       <c r="E14" s="69"/>
       <c r="F14" s="69" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G14" s="69"/>
       <c r="H14" s="177"/>
     </row>
     <row r="15" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="239"/>
+      <c r="A15" s="237"/>
       <c r="B15" s="69" t="s">
         <v>260</v>
       </c>
@@ -54266,7 +54294,7 @@
       <c r="H15" s="177"/>
     </row>
     <row r="16" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="239"/>
+      <c r="A16" s="237"/>
       <c r="B16" s="69" t="s">
         <v>213</v>
       </c>
@@ -54276,13 +54304,13 @@
       </c>
       <c r="E16" s="69"/>
       <c r="F16" s="69" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G16" s="69"/>
       <c r="H16" s="177"/>
     </row>
     <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="239"/>
+      <c r="A17" s="237"/>
       <c r="B17" s="69" t="s">
         <v>266</v>
       </c>
@@ -54292,13 +54320,13 @@
       </c>
       <c r="E17" s="69"/>
       <c r="F17" s="69" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G17" s="69"/>
       <c r="H17" s="177"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="239"/>
+      <c r="A18" s="237"/>
       <c r="B18" s="69" t="s">
         <v>210</v>
       </c>
@@ -54308,13 +54336,13 @@
       </c>
       <c r="E18" s="69"/>
       <c r="F18" s="69" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G18" s="69"/>
       <c r="H18" s="177"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="239"/>
+      <c r="A19" s="237"/>
       <c r="B19" s="69" t="s">
         <v>5</v>
       </c>
@@ -54324,29 +54352,29 @@
       </c>
       <c r="E19" s="69"/>
       <c r="F19" s="69" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G19" s="69"/>
       <c r="H19" s="177"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="239"/>
+      <c r="A20" s="237"/>
       <c r="B20" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C20" s="69"/>
       <c r="D20" s="69" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E20" s="69"/>
       <c r="F20" s="69" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G20" s="69"/>
       <c r="H20" s="177"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="239"/>
+      <c r="A21" s="237"/>
       <c r="B21" s="69" t="s">
         <v>319</v>
       </c>
@@ -54356,15 +54384,15 @@
       </c>
       <c r="E21" s="69"/>
       <c r="F21" s="69" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G21" s="69"/>
       <c r="H21" s="177"/>
     </row>
     <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="239"/>
+      <c r="A22" s="237"/>
       <c r="B22" s="69" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C22" s="69"/>
       <c r="D22" s="69" t="s">
@@ -54372,15 +54400,15 @@
       </c>
       <c r="E22" s="69"/>
       <c r="F22" s="69" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G22" s="69"/>
       <c r="H22" s="177"/>
     </row>
     <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="239"/>
+      <c r="A23" s="237"/>
       <c r="B23" s="69" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C23" s="69"/>
       <c r="D23" s="69" t="s">
@@ -54388,15 +54416,15 @@
       </c>
       <c r="E23" s="69"/>
       <c r="F23" s="69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G23" s="69"/>
       <c r="H23" s="177"/>
     </row>
     <row r="24" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="240"/>
+      <c r="A24" s="238"/>
       <c r="B24" s="73" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C24" s="73"/>
       <c r="D24" s="73" t="s">
@@ -54404,14 +54432,14 @@
       </c>
       <c r="E24" s="73"/>
       <c r="F24" s="73" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G24" s="73"/>
       <c r="H24" s="178"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="241" t="s">
-        <v>355</v>
+      <c r="A25" s="239" t="s">
+        <v>354</v>
       </c>
       <c r="B25" s="179"/>
       <c r="C25" s="179"/>
@@ -54422,7 +54450,7 @@
       <c r="H25" s="180"/>
     </row>
     <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="236"/>
+      <c r="A26" s="240"/>
       <c r="B26" s="47" t="s">
         <v>207</v>
       </c>
@@ -54432,13 +54460,13 @@
       </c>
       <c r="E26" s="47"/>
       <c r="F26" s="47" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G26" s="47"/>
       <c r="H26" s="174"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="236"/>
+      <c r="A27" s="240"/>
       <c r="B27" s="47" t="s">
         <v>260</v>
       </c>
@@ -54454,7 +54482,7 @@
       <c r="H27" s="174"/>
     </row>
     <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="236"/>
+      <c r="A28" s="240"/>
       <c r="B28" s="47" t="s">
         <v>213</v>
       </c>
@@ -54464,13 +54492,13 @@
       </c>
       <c r="E28" s="47"/>
       <c r="F28" s="47" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G28" s="47"/>
       <c r="H28" s="174"/>
     </row>
     <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="236"/>
+      <c r="A29" s="240"/>
       <c r="B29" s="47" t="s">
         <v>266</v>
       </c>
@@ -54480,15 +54508,15 @@
       </c>
       <c r="E29" s="47"/>
       <c r="F29" s="47" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G29" s="47"/>
       <c r="H29" s="174"/>
     </row>
     <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="236"/>
+      <c r="A30" s="240"/>
       <c r="B30" s="47" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C30" s="47"/>
       <c r="D30" s="47" t="s">
@@ -54496,13 +54524,13 @@
       </c>
       <c r="E30" s="47"/>
       <c r="F30" s="47" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G30" s="47"/>
       <c r="H30" s="174"/>
     </row>
     <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="236"/>
+      <c r="A31" s="240"/>
       <c r="B31" s="47" t="s">
         <v>210</v>
       </c>
@@ -54512,31 +54540,31 @@
       </c>
       <c r="E31" s="47"/>
       <c r="F31" s="47" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G31" s="47"/>
       <c r="H31" s="174"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="236"/>
+      <c r="A32" s="240"/>
       <c r="B32" s="47" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C32" s="47"/>
       <c r="D32" s="47" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E32" s="47"/>
       <c r="F32" s="47" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G32" s="47"/>
       <c r="H32" s="174"/>
     </row>
     <row r="33" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="236"/>
+      <c r="A33" s="240"/>
       <c r="B33" s="47" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C33" s="47"/>
       <c r="D33" s="47" t="s">
@@ -54544,13 +54572,13 @@
       </c>
       <c r="E33" s="47"/>
       <c r="F33" s="47" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G33" s="47"/>
       <c r="H33" s="174"/>
     </row>
     <row r="34" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="236"/>
+      <c r="A34" s="240"/>
       <c r="B34" s="47" t="s">
         <v>5</v>
       </c>
@@ -54560,15 +54588,15 @@
       </c>
       <c r="E34" s="47"/>
       <c r="F34" s="47" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G34" s="47"/>
       <c r="H34" s="174"/>
     </row>
     <row r="35" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="236"/>
+      <c r="A35" s="240"/>
       <c r="B35" s="47" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C35" s="47"/>
       <c r="D35" s="47" t="s">
@@ -54576,15 +54604,15 @@
       </c>
       <c r="E35" s="47"/>
       <c r="F35" s="47" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G35" s="47"/>
       <c r="H35" s="174"/>
     </row>
     <row r="36" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="237"/>
+      <c r="A36" s="241"/>
       <c r="B36" s="51" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C36" s="51"/>
       <c r="D36" s="51" t="s">
@@ -54592,13 +54620,13 @@
       </c>
       <c r="E36" s="51"/>
       <c r="F36" s="51" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G36" s="51"/>
       <c r="H36" s="181"/>
     </row>
     <row r="37" spans="1:1024" s="20" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="238" t="s">
+      <c r="A37" s="236" t="s">
         <v>282</v>
       </c>
       <c r="B37" s="175"/>
@@ -54611,7 +54639,7 @@
       <c r="AMJ37" s="21"/>
     </row>
     <row r="38" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="239"/>
+      <c r="A38" s="237"/>
       <c r="B38" s="69" t="s">
         <v>207</v>
       </c>
@@ -54621,13 +54649,13 @@
       </c>
       <c r="E38" s="69"/>
       <c r="F38" s="69" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G38" s="69"/>
       <c r="H38" s="177"/>
     </row>
     <row r="39" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="239"/>
+      <c r="A39" s="237"/>
       <c r="B39" s="69" t="s">
         <v>260</v>
       </c>
@@ -54643,7 +54671,7 @@
       <c r="H39" s="177"/>
     </row>
     <row r="40" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="239"/>
+      <c r="A40" s="237"/>
       <c r="B40" s="69" t="s">
         <v>213</v>
       </c>
@@ -54653,13 +54681,13 @@
       </c>
       <c r="E40" s="69"/>
       <c r="F40" s="69" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G40" s="69"/>
       <c r="H40" s="177"/>
     </row>
     <row r="41" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="239"/>
+      <c r="A41" s="237"/>
       <c r="B41" s="69" t="s">
         <v>266</v>
       </c>
@@ -54669,15 +54697,15 @@
       </c>
       <c r="E41" s="69"/>
       <c r="F41" s="69" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G41" s="69"/>
       <c r="H41" s="177"/>
     </row>
     <row r="42" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="239"/>
+      <c r="A42" s="237"/>
       <c r="B42" s="69" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C42" s="69"/>
       <c r="D42" s="69" t="s">
@@ -54685,15 +54713,15 @@
       </c>
       <c r="E42" s="69"/>
       <c r="F42" s="69" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G42" s="69"/>
       <c r="H42" s="177"/>
     </row>
     <row r="43" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="239"/>
+      <c r="A43" s="237"/>
       <c r="B43" s="69" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C43" s="69"/>
       <c r="D43" s="69" t="s">
@@ -54701,13 +54729,13 @@
       </c>
       <c r="E43" s="69"/>
       <c r="F43" s="69" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G43" s="69"/>
       <c r="H43" s="177"/>
     </row>
     <row r="44" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="239"/>
+      <c r="A44" s="237"/>
       <c r="B44" s="69" t="s">
         <v>210</v>
       </c>
@@ -54717,31 +54745,31 @@
       </c>
       <c r="E44" s="69"/>
       <c r="F44" s="69" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G44" s="69"/>
       <c r="H44" s="177"/>
     </row>
     <row r="45" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="239"/>
+      <c r="A45" s="237"/>
       <c r="B45" s="69" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C45" s="69"/>
       <c r="D45" s="69" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E45" s="69"/>
       <c r="F45" s="69" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G45" s="69"/>
       <c r="H45" s="177"/>
     </row>
     <row r="46" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="239"/>
+      <c r="A46" s="237"/>
       <c r="B46" s="69" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C46" s="69"/>
       <c r="D46" s="69" t="s">
@@ -54749,13 +54777,13 @@
       </c>
       <c r="E46" s="69"/>
       <c r="F46" s="69" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G46" s="69"/>
       <c r="H46" s="177"/>
     </row>
     <row r="47" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="239"/>
+      <c r="A47" s="237"/>
       <c r="B47" s="69" t="s">
         <v>5</v>
       </c>
@@ -54765,15 +54793,15 @@
       </c>
       <c r="E47" s="69"/>
       <c r="F47" s="69" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G47" s="69"/>
       <c r="H47" s="177"/>
     </row>
     <row r="48" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="240"/>
+      <c r="A48" s="238"/>
       <c r="B48" s="73" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C48" s="73"/>
       <c r="D48" s="73" t="s">
@@ -54781,7 +54809,7 @@
       </c>
       <c r="E48" s="73"/>
       <c r="F48" s="73" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G48" s="73"/>
       <c r="H48" s="178"/>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahajnal/Documents/github/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\jay\code\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9522CA-23D0-FB4D-9099-EFF84BE7E171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CA294C-C57D-4AA1-ABB1-366C51C7DACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="500" windowWidth="28360" windowHeight="14020" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Microservice" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="Deployment" sheetId="7" r:id="rId7"/>
     <sheet name="Supporting Metadata" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1670,9 +1669,6 @@
     <t>Connection data for a bring-your-own edge</t>
   </si>
   <si>
-    <t>Mapping Microservices to Data assets, as available in the DMA Tuple</t>
-  </si>
-  <si>
     <t>PROVIDER</t>
   </si>
   <si>
@@ -1815,6 +1811,9 @@
   </si>
   <si>
     <t xml:space="preserve">database schema description/contents </t>
+  </si>
+  <si>
+    <t>Mapping the available Data assets in this DMA Tuple to available Microservices. One Microservice may require several Data assets, specified by their UUIDs.</t>
   </si>
 </sst>
 </file>
@@ -3214,6 +3213,10 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -3336,10 +3339,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -4175,40 +4174,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ104"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E10" sqref="E10"/>
       <selection pane="topRight" activeCell="E10" sqref="E10"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:A11"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="2" customWidth="1"/>
     <col min="9" max="1024" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="1025" max="16384" width="9.1640625" hidden="1"/>
+    <col min="1025" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="242" t="s">
+    <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="243" t="s">
         <v>496</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="243"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="243"/>
+      <c r="F1" s="243"/>
+      <c r="G1" s="243"/>
+      <c r="H1" s="244"/>
     </row>
-    <row r="2" spans="1:1024" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1024" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -4234,8 +4233,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1024" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="244" t="s">
+    <row r="3" spans="1:1024" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="245" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="27"/>
@@ -4246,8 +4245,8 @@
       <c r="G3" s="182"/>
       <c r="H3" s="28"/>
     </row>
-    <row r="4" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="245"/>
+    <row r="4" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="246"/>
       <c r="B4" s="47" t="s">
         <v>8</v>
       </c>
@@ -4266,8 +4265,8 @@
       </c>
       <c r="H4" s="50"/>
     </row>
-    <row r="5" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="245"/>
+    <row r="5" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="246"/>
       <c r="B5" s="47" t="s">
         <v>13</v>
       </c>
@@ -4286,8 +4285,8 @@
       </c>
       <c r="H5" s="50"/>
     </row>
-    <row r="6" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="245"/>
+    <row r="6" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="246"/>
       <c r="B6" s="47" t="s">
         <v>16</v>
       </c>
@@ -4306,8 +4305,8 @@
       </c>
       <c r="H6" s="50"/>
     </row>
-    <row r="7" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="245"/>
+    <row r="7" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="246"/>
       <c r="B7" s="47" t="s">
         <v>19</v>
       </c>
@@ -4326,8 +4325,8 @@
       </c>
       <c r="H7" s="50"/>
     </row>
-    <row r="8" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="245"/>
+    <row r="8" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="246"/>
       <c r="B8" s="47" t="s">
         <v>22</v>
       </c>
@@ -4346,8 +4345,8 @@
       </c>
       <c r="H8" s="50"/>
     </row>
-    <row r="9" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="245"/>
+    <row r="9" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="246"/>
       <c r="B9" s="47" t="s">
         <v>25</v>
       </c>
@@ -4366,8 +4365,8 @@
       </c>
       <c r="H9" s="50"/>
     </row>
-    <row r="10" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="245"/>
+    <row r="10" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="246"/>
       <c r="B10" s="47" t="s">
         <v>26</v>
       </c>
@@ -4386,8 +4385,8 @@
       </c>
       <c r="H10" s="50"/>
     </row>
-    <row r="11" spans="1:1024" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="246"/>
+    <row r="11" spans="1:1024" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="247"/>
       <c r="B11" s="51" t="s">
         <v>30</v>
       </c>
@@ -4406,8 +4405,8 @@
       </c>
       <c r="H11" s="54"/>
     </row>
-    <row r="12" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="247" t="s">
+    <row r="12" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="248" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="217"/>
@@ -4418,8 +4417,8 @@
       <c r="G12" s="219"/>
       <c r="H12" s="220"/>
     </row>
-    <row r="13" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="248"/>
+    <row r="13" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
+      <c r="A13" s="249"/>
       <c r="B13" s="55" t="s">
         <v>35</v>
       </c>
@@ -4438,8 +4437,8 @@
       </c>
       <c r="H13" s="58"/>
     </row>
-    <row r="14" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="248"/>
+    <row r="14" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="249"/>
       <c r="B14" s="55" t="s">
         <v>38</v>
       </c>
@@ -4458,8 +4457,8 @@
       </c>
       <c r="H14" s="58"/>
     </row>
-    <row r="15" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="248"/>
+    <row r="15" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="249"/>
       <c r="B15" s="55" t="s">
         <v>466</v>
       </c>
@@ -5494,8 +5493,8 @@
       <c r="AMI15" s="4"/>
       <c r="AMJ15" s="4"/>
     </row>
-    <row r="16" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="248"/>
+    <row r="16" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="249"/>
       <c r="B16" s="55" t="s">
         <v>459</v>
       </c>
@@ -6530,8 +6529,8 @@
       <c r="AMI16" s="4"/>
       <c r="AMJ16" s="4"/>
     </row>
-    <row r="17" spans="1:1024" s="10" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="249"/>
+    <row r="17" spans="1:1024" s="10" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="250"/>
       <c r="B17" s="221" t="s">
         <v>460</v>
       </c>
@@ -7566,8 +7565,8 @@
       <c r="AMI17" s="4"/>
       <c r="AMJ17" s="4"/>
     </row>
-    <row r="18" spans="1:1024" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="240" t="s">
+    <row r="18" spans="1:1024" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="241" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="59"/>
@@ -7578,8 +7577,8 @@
       <c r="G18" s="189"/>
       <c r="H18" s="61"/>
     </row>
-    <row r="19" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="240"/>
+    <row r="19" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="241"/>
       <c r="B19" s="47" t="s">
         <v>40</v>
       </c>
@@ -7598,8 +7597,8 @@
       </c>
       <c r="H19" s="50"/>
     </row>
-    <row r="20" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="240"/>
+    <row r="20" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="241"/>
       <c r="B20" s="47" t="s">
         <v>44</v>
       </c>
@@ -7618,8 +7617,8 @@
       </c>
       <c r="H20" s="50"/>
     </row>
-    <row r="21" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="240"/>
+    <row r="21" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="241"/>
       <c r="B21" s="47" t="s">
         <v>46</v>
       </c>
@@ -7638,8 +7637,8 @@
       </c>
       <c r="H21" s="50"/>
     </row>
-    <row r="22" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="240"/>
+    <row r="22" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="241"/>
       <c r="B22" s="47" t="s">
         <v>48</v>
       </c>
@@ -7658,8 +7657,8 @@
       </c>
       <c r="H22" s="50"/>
     </row>
-    <row r="23" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="240"/>
+    <row r="23" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="241"/>
       <c r="B23" s="47" t="s">
         <v>50</v>
       </c>
@@ -7678,8 +7677,8 @@
       </c>
       <c r="H23" s="50"/>
     </row>
-    <row r="24" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="240"/>
+    <row r="24" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="241"/>
       <c r="B24" s="47" t="s">
         <v>53</v>
       </c>
@@ -7698,8 +7697,8 @@
       </c>
       <c r="H24" s="50"/>
     </row>
-    <row r="25" spans="1:1024" ht="68" x14ac:dyDescent="0.2">
-      <c r="A25" s="240"/>
+    <row r="25" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
+      <c r="A25" s="241"/>
       <c r="B25" s="47" t="s">
         <v>57</v>
       </c>
@@ -7718,8 +7717,8 @@
       </c>
       <c r="H25" s="50"/>
     </row>
-    <row r="26" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="240"/>
+    <row r="26" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="241"/>
       <c r="B26" s="47" t="s">
         <v>61</v>
       </c>
@@ -7738,8 +7737,8 @@
       </c>
       <c r="H26" s="50"/>
     </row>
-    <row r="27" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="240"/>
+    <row r="27" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="241"/>
       <c r="B27" s="47" t="s">
         <v>63</v>
       </c>
@@ -7758,8 +7757,8 @@
       </c>
       <c r="H27" s="50"/>
     </row>
-    <row r="28" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="240"/>
+    <row r="28" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="241"/>
       <c r="B28" s="47" t="s">
         <v>65</v>
       </c>
@@ -7778,8 +7777,8 @@
       </c>
       <c r="H28" s="50"/>
     </row>
-    <row r="29" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="240"/>
+    <row r="29" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="241"/>
       <c r="B29" s="47" t="s">
         <v>67</v>
       </c>
@@ -7798,8 +7797,8 @@
       </c>
       <c r="H29" s="50"/>
     </row>
-    <row r="30" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="241"/>
+    <row r="30" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="242"/>
       <c r="B30" s="51" t="s">
         <v>69</v>
       </c>
@@ -7818,8 +7817,8 @@
       </c>
       <c r="H30" s="54"/>
     </row>
-    <row r="31" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="236" t="s">
+    <row r="31" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="237" t="s">
         <v>72</v>
       </c>
       <c r="B31" s="62"/>
@@ -7830,8 +7829,8 @@
       <c r="G31" s="190"/>
       <c r="H31" s="64"/>
     </row>
-    <row r="32" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="237"/>
+    <row r="32" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="238"/>
       <c r="B32" s="65" t="s">
         <v>73</v>
       </c>
@@ -7850,8 +7849,8 @@
       </c>
       <c r="H32" s="68"/>
     </row>
-    <row r="33" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="237"/>
+    <row r="33" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="238"/>
       <c r="B33" s="69" t="s">
         <v>76</v>
       </c>
@@ -7870,8 +7869,8 @@
       </c>
       <c r="H33" s="72"/>
     </row>
-    <row r="34" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="237"/>
+    <row r="34" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="238"/>
       <c r="B34" s="69" t="s">
         <v>79</v>
       </c>
@@ -7890,8 +7889,8 @@
       </c>
       <c r="H34" s="72"/>
     </row>
-    <row r="35" spans="1:1024" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="238"/>
+    <row r="35" spans="1:1024" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="239"/>
       <c r="B35" s="73" t="s">
         <v>82</v>
       </c>
@@ -7910,8 +7909,8 @@
       </c>
       <c r="H35" s="76"/>
     </row>
-    <row r="36" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="239" t="s">
+    <row r="36" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="240" t="s">
         <v>85</v>
       </c>
       <c r="B36" s="59"/>
@@ -7922,8 +7921,8 @@
       <c r="G36" s="189"/>
       <c r="H36" s="61"/>
     </row>
-    <row r="37" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="240"/>
+    <row r="37" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="241"/>
       <c r="B37" s="47" t="s">
         <v>86</v>
       </c>
@@ -8958,9 +8957,9 @@
       <c r="AMI37" s="4"/>
       <c r="AMJ37" s="4"/>
     </row>
-    <row r="38" spans="1:1024" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="240"/>
-      <c r="B38" s="230" t="s">
+    <row r="38" spans="1:1024" s="10" customFormat="1" ht="46.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="241"/>
+      <c r="B38" s="231" t="s">
         <v>90</v>
       </c>
       <c r="C38" s="47" t="s">
@@ -9996,9 +9995,9 @@
       <c r="AMI38" s="4"/>
       <c r="AMJ38" s="4"/>
     </row>
-    <row r="39" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="240"/>
-      <c r="B39" s="230"/>
+    <row r="39" spans="1:1024" s="10" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A39" s="241"/>
+      <c r="B39" s="231"/>
       <c r="C39" s="47" t="s">
         <v>94</v>
       </c>
@@ -11032,9 +11031,9 @@
       <c r="AMI39" s="4"/>
       <c r="AMJ39" s="4"/>
     </row>
-    <row r="40" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="240"/>
-      <c r="B40" s="230"/>
+    <row r="40" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="241"/>
+      <c r="B40" s="231"/>
       <c r="C40" s="47" t="s">
         <v>98</v>
       </c>
@@ -12068,9 +12067,9 @@
       <c r="AMI40" s="4"/>
       <c r="AMJ40" s="4"/>
     </row>
-    <row r="41" spans="1:1024" s="10" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A41" s="240"/>
-      <c r="B41" s="230"/>
+    <row r="41" spans="1:1024" s="10" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="241"/>
+      <c r="B41" s="231"/>
       <c r="C41" s="47" t="s">
         <v>102</v>
       </c>
@@ -13104,9 +13103,9 @@
       <c r="AMI41" s="4"/>
       <c r="AMJ41" s="4"/>
     </row>
-    <row r="42" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" s="240"/>
-      <c r="B42" s="230"/>
+    <row r="42" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="241"/>
+      <c r="B42" s="231"/>
       <c r="C42" s="47" t="s">
         <v>106</v>
       </c>
@@ -14140,9 +14139,9 @@
       <c r="AMI42" s="4"/>
       <c r="AMJ42" s="4"/>
     </row>
-    <row r="43" spans="1:1024" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="240"/>
-      <c r="B43" s="230"/>
+    <row r="43" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="241"/>
+      <c r="B43" s="231"/>
       <c r="C43" s="47" t="s">
         <v>110</v>
       </c>
@@ -15176,9 +15175,9 @@
       <c r="AMI43" s="4"/>
       <c r="AMJ43" s="4"/>
     </row>
-    <row r="44" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A44" s="240"/>
-      <c r="B44" s="230"/>
+    <row r="44" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="241"/>
+      <c r="B44" s="231"/>
       <c r="C44" s="47" t="s">
         <v>114</v>
       </c>
@@ -16212,9 +16211,9 @@
       <c r="AMI44" s="4"/>
       <c r="AMJ44" s="4"/>
     </row>
-    <row r="45" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A45" s="240"/>
-      <c r="B45" s="230"/>
+    <row r="45" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="241"/>
+      <c r="B45" s="231"/>
       <c r="C45" s="47" t="s">
         <v>118</v>
       </c>
@@ -17248,9 +17247,9 @@
       <c r="AMI45" s="4"/>
       <c r="AMJ45" s="4"/>
     </row>
-    <row r="46" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A46" s="240"/>
-      <c r="B46" s="230"/>
+    <row r="46" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="241"/>
+      <c r="B46" s="231"/>
       <c r="C46" s="47" t="s">
         <v>122</v>
       </c>
@@ -18284,9 +18283,9 @@
       <c r="AMI46" s="4"/>
       <c r="AMJ46" s="4"/>
     </row>
-    <row r="47" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A47" s="240"/>
-      <c r="B47" s="230"/>
+    <row r="47" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="241"/>
+      <c r="B47" s="231"/>
       <c r="C47" s="47" t="s">
         <v>126</v>
       </c>
@@ -19320,9 +19319,9 @@
       <c r="AMI47" s="4"/>
       <c r="AMJ47" s="4"/>
     </row>
-    <row r="48" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A48" s="240"/>
-      <c r="B48" s="230"/>
+    <row r="48" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="241"/>
+      <c r="B48" s="231"/>
       <c r="C48" s="47" t="s">
         <v>130</v>
       </c>
@@ -20356,9 +20355,9 @@
       <c r="AMI48" s="4"/>
       <c r="AMJ48" s="4"/>
     </row>
-    <row r="49" spans="1:1024" s="16" customFormat="1" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="241"/>
-      <c r="B49" s="231"/>
+    <row r="49" spans="1:1024" s="16" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="242"/>
+      <c r="B49" s="232"/>
       <c r="C49" s="51" t="s">
         <v>134</v>
       </c>
@@ -21392,8 +21391,8 @@
       <c r="AMI49" s="15"/>
       <c r="AMJ49" s="15"/>
     </row>
-    <row r="50" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="236" t="s">
+    <row r="50" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="237" t="s">
         <v>137</v>
       </c>
       <c r="B50" s="77"/>
@@ -21404,8 +21403,8 @@
       <c r="G50" s="192"/>
       <c r="H50" s="79"/>
     </row>
-    <row r="51" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="237"/>
+    <row r="51" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="238"/>
       <c r="B51" s="80" t="s">
         <v>138</v>
       </c>
@@ -21424,9 +21423,9 @@
       </c>
       <c r="H51" s="83"/>
     </row>
-    <row r="52" spans="1:1024" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="237"/>
-      <c r="B52" s="232" t="s">
+    <row r="52" spans="1:1024" ht="46.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="238"/>
+      <c r="B52" s="233" t="s">
         <v>90</v>
       </c>
       <c r="C52" s="84" t="s">
@@ -21446,9 +21445,9 @@
       </c>
       <c r="H52" s="83"/>
     </row>
-    <row r="53" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A53" s="237"/>
-      <c r="B53" s="232"/>
+    <row r="53" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
+      <c r="A53" s="238"/>
+      <c r="B53" s="233"/>
       <c r="C53" s="80" t="s">
         <v>94</v>
       </c>
@@ -21466,9 +21465,9 @@
       </c>
       <c r="H53" s="83"/>
     </row>
-    <row r="54" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A54" s="237"/>
-      <c r="B54" s="232"/>
+    <row r="54" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="238"/>
+      <c r="B54" s="233"/>
       <c r="C54" s="80" t="s">
         <v>98</v>
       </c>
@@ -21486,9 +21485,9 @@
       </c>
       <c r="H54" s="83"/>
     </row>
-    <row r="55" spans="1:1024" ht="85" x14ac:dyDescent="0.2">
-      <c r="A55" s="237"/>
-      <c r="B55" s="232"/>
+    <row r="55" spans="1:1024" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="238"/>
+      <c r="B55" s="233"/>
       <c r="C55" s="80" t="s">
         <v>102</v>
       </c>
@@ -21506,9 +21505,9 @@
       </c>
       <c r="H55" s="83"/>
     </row>
-    <row r="56" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A56" s="237"/>
-      <c r="B56" s="232"/>
+    <row r="56" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="238"/>
+      <c r="B56" s="233"/>
       <c r="C56" s="80" t="s">
         <v>106</v>
       </c>
@@ -21526,9 +21525,9 @@
       </c>
       <c r="H56" s="83"/>
     </row>
-    <row r="57" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="237"/>
-      <c r="B57" s="232"/>
+    <row r="57" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="238"/>
+      <c r="B57" s="233"/>
       <c r="C57" s="80" t="s">
         <v>110</v>
       </c>
@@ -21546,9 +21545,9 @@
       </c>
       <c r="H57" s="83"/>
     </row>
-    <row r="58" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A58" s="237"/>
-      <c r="B58" s="232"/>
+    <row r="58" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="238"/>
+      <c r="B58" s="233"/>
       <c r="C58" s="80" t="s">
         <v>114</v>
       </c>
@@ -21566,9 +21565,9 @@
       </c>
       <c r="H58" s="83"/>
     </row>
-    <row r="59" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A59" s="237"/>
-      <c r="B59" s="232"/>
+    <row r="59" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="238"/>
+      <c r="B59" s="233"/>
       <c r="C59" s="80" t="s">
         <v>118</v>
       </c>
@@ -21586,9 +21585,9 @@
       </c>
       <c r="H59" s="83"/>
     </row>
-    <row r="60" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A60" s="237"/>
-      <c r="B60" s="232"/>
+    <row r="60" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="238"/>
+      <c r="B60" s="233"/>
       <c r="C60" s="80" t="s">
         <v>122</v>
       </c>
@@ -21606,9 +21605,9 @@
       </c>
       <c r="H60" s="83"/>
     </row>
-    <row r="61" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A61" s="237"/>
-      <c r="B61" s="232"/>
+    <row r="61" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="238"/>
+      <c r="B61" s="233"/>
       <c r="C61" s="80" t="s">
         <v>126</v>
       </c>
@@ -21626,9 +21625,9 @@
       </c>
       <c r="H61" s="83"/>
     </row>
-    <row r="62" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A62" s="237"/>
-      <c r="B62" s="232"/>
+    <row r="62" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="238"/>
+      <c r="B62" s="233"/>
       <c r="C62" s="80" t="s">
         <v>130</v>
       </c>
@@ -21646,9 +21645,9 @@
       </c>
       <c r="H62" s="83"/>
     </row>
-    <row r="63" spans="1:1024" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="238"/>
-      <c r="B63" s="233"/>
+    <row r="63" spans="1:1024" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="239"/>
+      <c r="B63" s="234"/>
       <c r="C63" s="85" t="s">
         <v>134</v>
       </c>
@@ -21666,8 +21665,8 @@
       </c>
       <c r="H63" s="87"/>
     </row>
-    <row r="64" spans="1:1024" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="239" t="s">
+    <row r="64" spans="1:1024" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="240" t="s">
         <v>145</v>
       </c>
       <c r="B64" s="59"/>
@@ -22694,8 +22693,8 @@
       <c r="AMI64" s="13"/>
       <c r="AMJ64" s="13"/>
     </row>
-    <row r="65" spans="1:1024" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="240"/>
+    <row r="65" spans="1:1024" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="241"/>
       <c r="B65" s="89" t="s">
         <v>146</v>
       </c>
@@ -23730,8 +23729,8 @@
       <c r="AMI65" s="13"/>
       <c r="AMJ65" s="13"/>
     </row>
-    <row r="66" spans="1:1024" s="14" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="241"/>
+    <row r="66" spans="1:1024" s="14" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="242"/>
       <c r="B66" s="93" t="s">
         <v>150</v>
       </c>
@@ -24766,8 +24765,8 @@
       <c r="AMI66" s="13"/>
       <c r="AMJ66" s="13"/>
     </row>
-    <row r="67" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="236" t="s">
+    <row r="67" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="237" t="s">
         <v>154</v>
       </c>
       <c r="B67" s="29"/>
@@ -24778,8 +24777,8 @@
       <c r="G67" s="194"/>
       <c r="H67" s="64"/>
     </row>
-    <row r="68" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A68" s="237"/>
+    <row r="68" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="238"/>
       <c r="B68" s="69" t="s">
         <v>155</v>
       </c>
@@ -24796,9 +24795,9 @@
       </c>
       <c r="H68" s="72"/>
     </row>
-    <row r="69" spans="1:1024" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="237"/>
-      <c r="B69" s="234" t="s">
+    <row r="69" spans="1:1024" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="238"/>
+      <c r="B69" s="235" t="s">
         <v>158</v>
       </c>
       <c r="C69" s="69" t="s">
@@ -24818,9 +24817,9 @@
       </c>
       <c r="H69" s="72"/>
     </row>
-    <row r="70" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A70" s="237"/>
-      <c r="B70" s="234"/>
+    <row r="70" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="238"/>
+      <c r="B70" s="235"/>
       <c r="C70" s="69" t="s">
         <v>30</v>
       </c>
@@ -24838,9 +24837,9 @@
       </c>
       <c r="H70" s="72"/>
     </row>
-    <row r="71" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="237"/>
-      <c r="B71" s="234"/>
+    <row r="71" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="238"/>
+      <c r="B71" s="235"/>
       <c r="C71" s="69" t="s">
         <v>12</v>
       </c>
@@ -24858,9 +24857,9 @@
       </c>
       <c r="H71" s="72"/>
     </row>
-    <row r="72" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A72" s="237"/>
-      <c r="B72" s="234"/>
+    <row r="72" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="238"/>
+      <c r="B72" s="235"/>
       <c r="C72" s="69" t="s">
         <v>167</v>
       </c>
@@ -24878,9 +24877,9 @@
       </c>
       <c r="H72" s="72"/>
     </row>
-    <row r="73" spans="1:1024" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="238"/>
-      <c r="B73" s="235"/>
+    <row r="73" spans="1:1024" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="239"/>
+      <c r="B73" s="236"/>
       <c r="C73" s="73" t="s">
         <v>25</v>
       </c>
@@ -24898,8 +24897,8 @@
       </c>
       <c r="H73" s="76"/>
     </row>
-    <row r="74" spans="1:1024" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="239" t="s">
+    <row r="74" spans="1:1024" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="240" t="s">
         <v>172</v>
       </c>
       <c r="B74" s="31"/>
@@ -25926,8 +25925,8 @@
       <c r="AMI74" s="13"/>
       <c r="AMJ74" s="13"/>
     </row>
-    <row r="75" spans="1:1024" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A75" s="240"/>
+    <row r="75" spans="1:1024" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="241"/>
       <c r="B75" s="47" t="s">
         <v>173</v>
       </c>
@@ -26960,9 +26959,9 @@
       <c r="AMI75" s="13"/>
       <c r="AMJ75" s="13"/>
     </row>
-    <row r="76" spans="1:1024" s="14" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="240"/>
-      <c r="B76" s="230" t="s">
+    <row r="76" spans="1:1024" s="14" customFormat="1" ht="46.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="241"/>
+      <c r="B76" s="231" t="s">
         <v>176</v>
       </c>
       <c r="C76" s="47" t="s">
@@ -27998,9 +27997,9 @@
       <c r="AMI76" s="13"/>
       <c r="AMJ76" s="13"/>
     </row>
-    <row r="77" spans="1:1024" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A77" s="240"/>
-      <c r="B77" s="230"/>
+    <row r="77" spans="1:1024" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="241"/>
+      <c r="B77" s="231"/>
       <c r="C77" s="47" t="s">
         <v>179</v>
       </c>
@@ -29034,9 +29033,9 @@
       <c r="AMI77" s="13"/>
       <c r="AMJ77" s="13"/>
     </row>
-    <row r="78" spans="1:1024" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A78" s="240"/>
-      <c r="B78" s="230"/>
+    <row r="78" spans="1:1024" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="241"/>
+      <c r="B78" s="231"/>
       <c r="C78" s="47" t="s">
         <v>182</v>
       </c>
@@ -30070,9 +30069,9 @@
       <c r="AMI78" s="13"/>
       <c r="AMJ78" s="13"/>
     </row>
-    <row r="79" spans="1:1024" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="240"/>
-      <c r="B79" s="230"/>
+    <row r="79" spans="1:1024" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="241"/>
+      <c r="B79" s="231"/>
       <c r="C79" s="47" t="s">
         <v>185</v>
       </c>
@@ -31106,9 +31105,9 @@
       <c r="AMI79" s="13"/>
       <c r="AMJ79" s="13"/>
     </row>
-    <row r="80" spans="1:1024" s="14" customFormat="1" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="241"/>
-      <c r="B80" s="231"/>
+    <row r="80" spans="1:1024" s="14" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="242"/>
+      <c r="B80" s="232"/>
       <c r="C80" s="51" t="s">
         <v>25</v>
       </c>
@@ -32142,76 +32141,76 @@
       <c r="AMI80" s="13"/>
       <c r="AMJ80" s="13"/>
     </row>
-    <row r="81" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H82" s="4"/>
     </row>
-    <row r="83" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H89" s="4"/>
     </row>
-    <row r="90" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H96" s="4"/>
     </row>
-    <row r="97" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H97" s="4"/>
     </row>
-    <row r="98" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H98" s="4"/>
     </row>
-    <row r="99" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H99" s="4"/>
     </row>
-    <row r="100" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H100" s="4"/>
     </row>
-    <row r="101" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H101" s="4"/>
     </row>
-    <row r="102" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H102" s="4"/>
     </row>
-    <row r="103" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H103" s="4"/>
     </row>
-    <row r="104" spans="8:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="8:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="H104" s="4"/>
     </row>
   </sheetData>
@@ -32255,33 +32254,33 @@
       <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="1" customWidth="1"/>
-    <col min="9" max="1023" width="8.5" style="1" hidden="1"/>
-    <col min="1024" max="1024" width="9.1640625" style="1" hidden="1"/>
-    <col min="16384" max="16384" width="3.5" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
+    <col min="9" max="1023" width="8.42578125" style="1" hidden="1"/>
+    <col min="1024" max="1024" width="9.140625" style="1" hidden="1"/>
+    <col min="16384" max="16384" width="3.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="242" t="s">
+    <row r="1" spans="1:8" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="243" t="s">
         <v>497</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="243"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="243"/>
+      <c r="F1" s="243"/>
+      <c r="G1" s="243"/>
+      <c r="H1" s="244"/>
     </row>
-    <row r="2" spans="1:8" s="35" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -32307,8 +32306,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="244" t="s">
+    <row r="3" spans="1:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="245" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="27"/>
@@ -32319,8 +32318,8 @@
       <c r="G3" s="182"/>
       <c r="H3" s="28"/>
     </row>
-    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="245"/>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="246"/>
       <c r="B4" s="47" t="s">
         <v>8</v>
       </c>
@@ -32339,8 +32338,8 @@
       </c>
       <c r="H4" s="50"/>
     </row>
-    <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="245"/>
+    <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="246"/>
       <c r="B5" s="47" t="s">
         <v>13</v>
       </c>
@@ -32359,8 +32358,8 @@
       </c>
       <c r="H5" s="50"/>
     </row>
-    <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="245"/>
+    <row r="6" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A6" s="246"/>
       <c r="B6" s="47" t="s">
         <v>25</v>
       </c>
@@ -32379,8 +32378,8 @@
       </c>
       <c r="H6" s="50"/>
     </row>
-    <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="245"/>
+    <row r="7" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="246"/>
       <c r="B7" s="47" t="s">
         <v>26</v>
       </c>
@@ -32399,8 +32398,8 @@
       </c>
       <c r="H7" s="50"/>
     </row>
-    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="245"/>
+    <row r="8" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="246"/>
       <c r="B8" s="47" t="s">
         <v>30</v>
       </c>
@@ -32419,8 +32418,8 @@
       </c>
       <c r="H8" s="50"/>
     </row>
-    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="245"/>
+    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="246"/>
       <c r="B9" s="47" t="s">
         <v>16</v>
       </c>
@@ -32439,8 +32438,8 @@
       </c>
       <c r="H9" s="50"/>
     </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="245"/>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="246"/>
       <c r="B10" s="47" t="s">
         <v>19</v>
       </c>
@@ -32459,8 +32458,8 @@
       </c>
       <c r="H10" s="50"/>
     </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="246"/>
+    <row r="11" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="247"/>
       <c r="B11" s="51" t="s">
         <v>22</v>
       </c>
@@ -32479,8 +32478,8 @@
       </c>
       <c r="H11" s="54"/>
     </row>
-    <row r="12" spans="1:8" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="250" t="s">
+    <row r="12" spans="1:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="251" t="s">
         <v>203</v>
       </c>
       <c r="B12" s="98"/>
@@ -32491,8 +32490,8 @@
       <c r="G12" s="185"/>
       <c r="H12" s="102"/>
     </row>
-    <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="251"/>
+    <row r="13" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="252"/>
       <c r="B13" s="103" t="s">
         <v>204</v>
       </c>
@@ -32511,8 +32510,8 @@
       </c>
       <c r="H13" s="72"/>
     </row>
-    <row r="14" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="251"/>
+    <row r="14" spans="1:8" ht="103.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="252"/>
       <c r="B14" s="103" t="s">
         <v>452</v>
       </c>
@@ -32556,32 +32555,32 @@
       <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="5" customWidth="1"/>
-    <col min="3" max="4" width="20.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="50.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="205" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="5" customWidth="1"/>
+    <col min="3" max="4" width="20.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="205" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="5" customWidth="1"/>
     <col min="9" max="1024" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="1025" max="16384" width="9.1640625" hidden="1"/>
+    <col min="1025" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="242" t="s">
+    <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="243" t="s">
         <v>498</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="243"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="243"/>
+      <c r="F1" s="243"/>
+      <c r="G1" s="243"/>
+      <c r="H1" s="244"/>
     </row>
-    <row r="2" spans="1:1024" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1024" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -32607,8 +32606,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="244" t="s">
+    <row r="3" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="245" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="37"/>
@@ -32657,8 +32656,8 @@
       <c r="AS3" s="7"/>
       <c r="AMJ3" s="5"/>
     </row>
-    <row r="4" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="245"/>
+    <row r="4" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="246"/>
       <c r="B4" s="105" t="s">
         <v>207</v>
       </c>
@@ -32675,8 +32674,8 @@
       </c>
       <c r="H4" s="107"/>
     </row>
-    <row r="5" spans="1:1024" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="245"/>
+    <row r="5" spans="1:1024" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="246"/>
       <c r="B5" s="105" t="s">
         <v>210</v>
       </c>
@@ -32691,24 +32690,24 @@
       <c r="G5" s="197"/>
       <c r="H5" s="107"/>
     </row>
-    <row r="6" spans="1:1024" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="245"/>
+    <row r="6" spans="1:1024" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="246"/>
       <c r="B6" s="105" t="s">
         <v>213</v>
       </c>
       <c r="C6" s="106"/>
       <c r="D6" s="105" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E6" s="106"/>
       <c r="F6" s="105" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G6" s="197"/>
       <c r="H6" s="107"/>
     </row>
-    <row r="7" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="245"/>
+    <row r="7" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="246"/>
       <c r="B7" s="105" t="s">
         <v>214</v>
       </c>
@@ -32718,13 +32717,13 @@
       </c>
       <c r="E7" s="106"/>
       <c r="F7" s="105" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G7" s="197"/>
       <c r="H7" s="107"/>
     </row>
-    <row r="8" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="245"/>
+    <row r="8" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="246"/>
       <c r="B8" s="105" t="s">
         <v>215</v>
       </c>
@@ -32739,8 +32738,8 @@
       <c r="G8" s="197"/>
       <c r="H8" s="107"/>
     </row>
-    <row r="9" spans="1:1024" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="245"/>
+    <row r="9" spans="1:1024" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="246"/>
       <c r="B9" s="105" t="s">
         <v>217</v>
       </c>
@@ -32750,15 +32749,15 @@
       </c>
       <c r="E9" s="106"/>
       <c r="F9" s="105" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G9" s="197" t="s">
         <v>43</v>
       </c>
       <c r="H9" s="107"/>
     </row>
-    <row r="10" spans="1:1024" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="245"/>
+    <row r="10" spans="1:1024" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="246"/>
       <c r="B10" s="105" t="s">
         <v>219</v>
       </c>
@@ -32786,8 +32785,8 @@
       <c r="T10" s="8"/>
       <c r="AMJ10" s="5"/>
     </row>
-    <row r="11" spans="1:1024" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="245"/>
+    <row r="11" spans="1:1024" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="246"/>
       <c r="B11" s="105" t="s">
         <v>3</v>
       </c>
@@ -32802,8 +32801,8 @@
       <c r="G11" s="197"/>
       <c r="H11" s="107"/>
     </row>
-    <row r="12" spans="1:1024" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="245"/>
+    <row r="12" spans="1:1024" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="246"/>
       <c r="B12" s="105" t="s">
         <v>223</v>
       </c>
@@ -32813,15 +32812,15 @@
       </c>
       <c r="E12" s="106"/>
       <c r="F12" s="105" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G12" s="197" t="s">
         <v>43</v>
       </c>
       <c r="H12" s="107"/>
     </row>
-    <row r="13" spans="1:1024" ht="68" x14ac:dyDescent="0.2">
-      <c r="A13" s="245"/>
+    <row r="13" spans="1:1024" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="246"/>
       <c r="B13" s="105" t="s">
         <v>225</v>
       </c>
@@ -32838,8 +32837,8 @@
       </c>
       <c r="H13" s="107"/>
     </row>
-    <row r="14" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="245"/>
+    <row r="14" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="246"/>
       <c r="B14" s="105" t="s">
         <v>469</v>
       </c>
@@ -32856,8 +32855,8 @@
       </c>
       <c r="H14" s="107"/>
     </row>
-    <row r="15" spans="1:1024" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="246"/>
+    <row r="15" spans="1:1024" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="247"/>
       <c r="B15" s="108" t="s">
         <v>229</v>
       </c>
@@ -32872,8 +32871,8 @@
       <c r="G15" s="198"/>
       <c r="H15" s="110"/>
     </row>
-    <row r="16" spans="1:1024" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A16" s="236" t="s">
+    <row r="16" spans="1:1024" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="237" t="s">
         <v>154</v>
       </c>
       <c r="B16" s="111"/>
@@ -32885,14 +32884,14 @@
       <c r="H16" s="112"/>
       <c r="AMJ16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="237"/>
+    <row r="17" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="238"/>
       <c r="B17" s="113" t="s">
         <v>232</v>
       </c>
       <c r="C17" s="114"/>
       <c r="D17" s="113" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E17" s="114"/>
       <c r="F17" s="113" t="s">
@@ -32901,8 +32900,8 @@
       <c r="G17" s="200"/>
       <c r="H17" s="115"/>
     </row>
-    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="237"/>
+    <row r="18" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="238"/>
       <c r="B18" s="113"/>
       <c r="C18" s="114" t="s">
         <v>1</v>
@@ -32912,13 +32911,13 @@
       </c>
       <c r="E18" s="114"/>
       <c r="F18" s="113" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G18" s="200"/>
       <c r="H18" s="115"/>
     </row>
-    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="237"/>
+    <row r="19" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="238"/>
       <c r="B19" s="113"/>
       <c r="C19" s="114" t="s">
         <v>210</v>
@@ -32928,163 +32927,163 @@
       </c>
       <c r="E19" s="114"/>
       <c r="F19" s="113" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G19" s="200"/>
       <c r="H19" s="115"/>
     </row>
-    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="237"/>
+    <row r="20" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="238"/>
       <c r="B20" s="113"/>
       <c r="C20" s="114" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D20" s="113" t="s">
         <v>224</v>
       </c>
       <c r="E20" s="114"/>
       <c r="F20" s="113" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G20" s="200"/>
       <c r="H20" s="115"/>
     </row>
-    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="237"/>
+    <row r="21" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="238"/>
       <c r="B21" s="113"/>
       <c r="C21" s="114" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D21" s="113" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E21" s="114"/>
       <c r="F21" s="113" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G21" s="200"/>
       <c r="H21" s="115"/>
     </row>
-    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="237"/>
+    <row r="22" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="238"/>
       <c r="B22" s="113"/>
       <c r="C22" s="114" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D22" s="113" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E22" s="114"/>
       <c r="F22" s="113" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G22" s="200"/>
       <c r="H22" s="115"/>
     </row>
-    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="237"/>
+    <row r="23" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="238"/>
       <c r="B23" s="113"/>
       <c r="C23" s="114" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D23" s="113" t="s">
         <v>211</v>
       </c>
       <c r="E23" s="114"/>
       <c r="F23" s="113" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G23" s="200"/>
       <c r="H23" s="115"/>
     </row>
-    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="237"/>
+    <row r="24" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="238"/>
       <c r="B24" s="113"/>
       <c r="C24" s="114" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D24" s="113" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E24" s="114"/>
       <c r="F24" s="113" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G24" s="200"/>
       <c r="H24" s="115"/>
     </row>
-    <row r="25" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="237"/>
+    <row r="25" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="238"/>
       <c r="B25" s="113"/>
       <c r="C25" s="114" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D25" s="113" t="s">
         <v>224</v>
       </c>
       <c r="E25" s="114"/>
       <c r="F25" s="113" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G25" s="200"/>
       <c r="H25" s="115"/>
     </row>
-    <row r="26" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="237"/>
+    <row r="26" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="238"/>
       <c r="B26" s="113"/>
       <c r="C26" s="114" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D26" s="113" t="s">
         <v>224</v>
       </c>
       <c r="E26" s="114"/>
       <c r="F26" s="113" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G26" s="200"/>
       <c r="H26" s="115"/>
     </row>
-    <row r="27" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="237"/>
+    <row r="27" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="238"/>
       <c r="B27" s="113"/>
       <c r="C27" s="114" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D27" s="113" t="s">
         <v>224</v>
       </c>
       <c r="E27" s="114"/>
       <c r="F27" s="113" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G27" s="200"/>
       <c r="H27" s="115"/>
     </row>
-    <row r="28" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="237"/>
+    <row r="28" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="238"/>
       <c r="B28" s="113"/>
       <c r="C28" s="114" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D28" s="113" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E28" s="114"/>
       <c r="F28" s="113" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G28" s="200"/>
       <c r="H28" s="115"/>
     </row>
-    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="237"/>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="238"/>
       <c r="B29" s="113" t="s">
         <v>234</v>
       </c>
       <c r="C29" s="114"/>
       <c r="D29" s="113" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E29" s="114"/>
       <c r="F29" s="113" t="s">
@@ -33093,8 +33092,8 @@
       <c r="G29" s="200"/>
       <c r="H29" s="115"/>
     </row>
-    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="237"/>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="238"/>
       <c r="B30" s="226"/>
       <c r="C30" s="114" t="s">
         <v>1</v>
@@ -33104,13 +33103,13 @@
       </c>
       <c r="E30" s="227"/>
       <c r="F30" s="113" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G30" s="228"/>
       <c r="H30" s="229"/>
     </row>
-    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="237"/>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="238"/>
       <c r="B31" s="226"/>
       <c r="C31" s="114" t="s">
         <v>210</v>
@@ -33120,157 +33119,157 @@
       </c>
       <c r="E31" s="227"/>
       <c r="F31" s="113" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G31" s="228"/>
       <c r="H31" s="229"/>
     </row>
-    <row r="32" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="237"/>
+    <row r="32" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="238"/>
       <c r="B32" s="226"/>
       <c r="C32" s="114" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D32" s="113" t="s">
         <v>224</v>
       </c>
       <c r="E32" s="227"/>
       <c r="F32" s="113" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G32" s="228"/>
       <c r="H32" s="229"/>
     </row>
-    <row r="33" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="237"/>
+    <row r="33" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="238"/>
       <c r="B33" s="226"/>
       <c r="C33" s="114" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D33" s="113" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E33" s="227"/>
       <c r="F33" s="113" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G33" s="228"/>
       <c r="H33" s="229"/>
     </row>
-    <row r="34" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A34" s="237"/>
+    <row r="34" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="238"/>
       <c r="B34" s="226"/>
       <c r="C34" s="114" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D34" s="113" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E34" s="227"/>
       <c r="F34" s="113" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G34" s="228"/>
       <c r="H34" s="229"/>
     </row>
-    <row r="35" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="237"/>
+    <row r="35" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="238"/>
       <c r="B35" s="226"/>
       <c r="C35" s="114" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D35" s="113" t="s">
         <v>211</v>
       </c>
       <c r="E35" s="227"/>
       <c r="F35" s="113" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G35" s="228"/>
       <c r="H35" s="229"/>
     </row>
-    <row r="36" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="237"/>
+    <row r="36" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="238"/>
       <c r="B36" s="226"/>
       <c r="C36" s="114" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D36" s="113" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E36" s="227"/>
       <c r="F36" s="113" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G36" s="228"/>
       <c r="H36" s="229"/>
     </row>
-    <row r="37" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="237"/>
+    <row r="37" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="238"/>
       <c r="B37" s="226"/>
       <c r="C37" s="114" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D37" s="113" t="s">
         <v>224</v>
       </c>
       <c r="E37" s="227"/>
       <c r="F37" s="113" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G37" s="228"/>
       <c r="H37" s="229"/>
     </row>
-    <row r="38" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" s="237"/>
+    <row r="38" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="238"/>
       <c r="B38" s="226"/>
       <c r="C38" s="114" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D38" s="113" t="s">
         <v>224</v>
       </c>
       <c r="E38" s="227"/>
       <c r="F38" s="113" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G38" s="228"/>
       <c r="H38" s="229"/>
     </row>
-    <row r="39" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="237"/>
+    <row r="39" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="238"/>
       <c r="B39" s="226"/>
       <c r="C39" s="114" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D39" s="113" t="s">
         <v>224</v>
       </c>
       <c r="E39" s="227"/>
       <c r="F39" s="113" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G39" s="228"/>
       <c r="H39" s="229"/>
     </row>
-    <row r="40" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="237"/>
+    <row r="40" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="238"/>
       <c r="B40" s="226"/>
       <c r="C40" s="114" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D40" s="113" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E40" s="227"/>
       <c r="F40" s="113" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G40" s="228"/>
       <c r="H40" s="229"/>
     </row>
-    <row r="41" spans="1:1024" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="238"/>
+    <row r="41" spans="1:1024" ht="41.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="239"/>
       <c r="B41" s="116" t="s">
         <v>236</v>
       </c>
@@ -33280,15 +33279,15 @@
       </c>
       <c r="E41" s="117"/>
       <c r="F41" s="116" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G41" s="201" t="s">
         <v>43</v>
       </c>
       <c r="H41" s="118"/>
     </row>
-    <row r="42" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="239" t="s">
+    <row r="42" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="240" t="s">
         <v>237</v>
       </c>
       <c r="B42" s="119"/>
@@ -33337,8 +33336,8 @@
       <c r="AS42" s="7"/>
       <c r="AMJ42" s="5"/>
     </row>
-    <row r="43" spans="1:1024" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="241"/>
+    <row r="43" spans="1:1024" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="242"/>
       <c r="B43" s="108" t="s">
         <v>238</v>
       </c>
@@ -33374,8 +33373,8 @@
       <c r="Z43" s="8"/>
       <c r="AMJ43" s="5"/>
     </row>
-    <row r="44" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="236" t="s">
+    <row r="44" spans="1:1024" s="7" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="237" t="s">
         <v>72</v>
       </c>
       <c r="B44" s="111"/>
@@ -33387,8 +33386,8 @@
       <c r="H44" s="112"/>
       <c r="AMJ44" s="5"/>
     </row>
-    <row r="45" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="237"/>
+    <row r="45" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="238"/>
       <c r="B45" s="113" t="s">
         <v>73</v>
       </c>
@@ -33405,8 +33404,8 @@
       </c>
       <c r="H45" s="115"/>
     </row>
-    <row r="46" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="237"/>
+    <row r="46" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="238"/>
       <c r="B46" s="113" t="s">
         <v>76</v>
       </c>
@@ -33423,8 +33422,8 @@
       </c>
       <c r="H46" s="115"/>
     </row>
-    <row r="47" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="238"/>
+    <row r="47" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="239"/>
       <c r="B47" s="116" t="s">
         <v>79</v>
       </c>
@@ -33441,8 +33440,8 @@
       </c>
       <c r="H47" s="118"/>
     </row>
-    <row r="48" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="239" t="s">
+    <row r="48" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="240" t="s">
         <v>244</v>
       </c>
       <c r="B48" s="121"/>
@@ -33472,8 +33471,8 @@
       <c r="Z48" s="7"/>
       <c r="AMJ48" s="5"/>
     </row>
-    <row r="49" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A49" s="240"/>
+    <row r="49" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="241"/>
       <c r="B49" s="105" t="s">
         <v>245</v>
       </c>
@@ -33490,8 +33489,8 @@
       </c>
       <c r="H49" s="107"/>
     </row>
-    <row r="50" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A50" s="240"/>
+    <row r="50" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="241"/>
       <c r="B50" s="105" t="s">
         <v>247</v>
       </c>
@@ -33508,8 +33507,8 @@
       </c>
       <c r="H50" s="107"/>
     </row>
-    <row r="51" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="240"/>
+    <row r="51" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="241"/>
       <c r="B51" s="105" t="s">
         <v>46</v>
       </c>
@@ -33526,8 +33525,8 @@
       </c>
       <c r="H51" s="107"/>
     </row>
-    <row r="52" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="240"/>
+    <row r="52" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="241"/>
       <c r="B52" s="105" t="s">
         <v>48</v>
       </c>
@@ -33544,8 +33543,8 @@
       </c>
       <c r="H52" s="107"/>
     </row>
-    <row r="53" spans="1:1024" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="240"/>
+    <row r="53" spans="1:1024" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="241"/>
       <c r="B53" s="105" t="s">
         <v>61</v>
       </c>
@@ -33582,8 +33581,8 @@
       <c r="AA53" s="8"/>
       <c r="AMJ53" s="5"/>
     </row>
-    <row r="54" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="240"/>
+    <row r="54" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="241"/>
       <c r="B54" s="105" t="s">
         <v>63</v>
       </c>
@@ -33600,8 +33599,8 @@
       </c>
       <c r="H54" s="107"/>
     </row>
-    <row r="55" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="240"/>
+    <row r="55" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="241"/>
       <c r="B55" s="105" t="s">
         <v>65</v>
       </c>
@@ -33618,8 +33617,8 @@
       </c>
       <c r="H55" s="107"/>
     </row>
-    <row r="56" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="240"/>
+    <row r="56" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="241"/>
       <c r="B56" s="105" t="s">
         <v>67</v>
       </c>
@@ -33636,8 +33635,8 @@
       </c>
       <c r="H56" s="107"/>
     </row>
-    <row r="57" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="241"/>
+    <row r="57" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="242"/>
       <c r="B57" s="108" t="s">
         <v>69</v>
       </c>
@@ -33654,8 +33653,8 @@
       </c>
       <c r="H57" s="110"/>
     </row>
-    <row r="58" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="236" t="s">
+    <row r="58" spans="1:1024" s="7" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="237" t="s">
         <v>510</v>
       </c>
       <c r="B58" s="123"/>
@@ -33667,8 +33666,8 @@
       <c r="H58" s="124"/>
       <c r="AMJ58" s="5"/>
     </row>
-    <row r="59" spans="1:1024" ht="90.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="238"/>
+    <row r="59" spans="1:1024" ht="90.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="239"/>
       <c r="B59" s="116" t="s">
         <v>5</v>
       </c>
@@ -33708,40 +33707,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E10" sqref="E10"/>
       <selection pane="topRight" activeCell="E10" sqref="E10"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
-      <selection pane="bottomRight" activeCell="B34" sqref="A34:XFD34"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="5" customWidth="1"/>
-    <col min="3" max="4" width="20.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="50.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="205" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="5" customWidth="1"/>
+    <col min="3" max="4" width="20.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="205" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="5" customWidth="1"/>
     <col min="9" max="1024" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="1025" max="16384" width="9.1640625" hidden="1"/>
+    <col min="1025" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="242" t="s">
+    <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="243" t="s">
         <v>499</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="243"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="243"/>
+      <c r="F1" s="243"/>
+      <c r="G1" s="243"/>
+      <c r="H1" s="244"/>
     </row>
-    <row r="2" spans="1:1024" s="16" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1024" s="16" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
@@ -34783,8 +34782,8 @@
       <c r="AMI2" s="17"/>
       <c r="AMJ2" s="17"/>
     </row>
-    <row r="3" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="252" t="s">
+    <row r="3" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="253" t="s">
         <v>511</v>
       </c>
       <c r="B3" s="121"/>
@@ -34808,8 +34807,8 @@
       <c r="T3" s="7"/>
       <c r="AMJ3" s="5"/>
     </row>
-    <row r="4" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="253"/>
+    <row r="4" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="254"/>
       <c r="B4" s="105" t="s">
         <v>207</v>
       </c>
@@ -34828,8 +34827,8 @@
       </c>
       <c r="H4" s="126"/>
     </row>
-    <row r="5" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="253"/>
+    <row r="5" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="254"/>
       <c r="B5" s="105" t="s">
         <v>306</v>
       </c>
@@ -34848,10 +34847,10 @@
       </c>
       <c r="H5" s="126"/>
     </row>
-    <row r="6" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="253"/>
+    <row r="6" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="254"/>
       <c r="B6" s="105" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C6" s="106"/>
       <c r="D6" s="105" t="s">
@@ -34868,8 +34867,8 @@
       </c>
       <c r="H6" s="126"/>
     </row>
-    <row r="7" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="253"/>
+    <row r="7" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="254"/>
       <c r="B7" s="105" t="s">
         <v>309</v>
       </c>
@@ -34888,8 +34887,8 @@
       </c>
       <c r="H7" s="126"/>
     </row>
-    <row r="8" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="255" t="s">
+    <row r="8" spans="1:1024" s="7" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="256" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="123"/>
@@ -34901,8 +34900,8 @@
       <c r="H8" s="128"/>
       <c r="AMJ8" s="5"/>
     </row>
-    <row r="9" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="257"/>
+    <row r="9" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="258"/>
       <c r="B9" s="113" t="s">
         <v>312</v>
       </c>
@@ -35937,10 +35936,10 @@
       <c r="AMI9" s="8"/>
       <c r="AMJ9" s="8"/>
     </row>
-    <row r="10" spans="1:1024" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="257"/>
+    <row r="10" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="258"/>
       <c r="B10" s="113" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C10" s="114"/>
       <c r="D10" s="113" t="s">
@@ -36973,8 +36972,8 @@
       <c r="AMI10" s="8"/>
       <c r="AMJ10" s="8"/>
     </row>
-    <row r="11" spans="1:1024" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="257"/>
+    <row r="11" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="258"/>
       <c r="B11" s="113" t="s">
         <v>317</v>
       </c>
@@ -38009,10 +38008,10 @@
       <c r="AMI11" s="8"/>
       <c r="AMJ11" s="8"/>
     </row>
-    <row r="12" spans="1:1024" s="10" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="257"/>
+    <row r="12" spans="1:1024" s="10" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="258"/>
       <c r="B12" s="113" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C12" s="114"/>
       <c r="D12" s="113" t="s">
@@ -39045,8 +39044,8 @@
       <c r="AMI12" s="8"/>
       <c r="AMJ12" s="8"/>
     </row>
-    <row r="13" spans="1:1024" s="10" customFormat="1" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="257"/>
+    <row r="13" spans="1:1024" s="10" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="258"/>
       <c r="B13" s="113" t="s">
         <v>314</v>
       </c>
@@ -40081,8 +40080,8 @@
       <c r="AMI13" s="8"/>
       <c r="AMJ13" s="8"/>
     </row>
-    <row r="14" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="252" t="s">
+    <row r="14" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="253" t="s">
         <v>512</v>
       </c>
       <c r="B14" s="121"/>
@@ -40102,8 +40101,8 @@
       <c r="P14" s="7"/>
       <c r="AMJ14" s="5"/>
     </row>
-    <row r="15" spans="1:1024" s="16" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="254"/>
+    <row r="15" spans="1:1024" s="16" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="255"/>
       <c r="B15" s="108" t="s">
         <v>321</v>
       </c>
@@ -41138,8 +41137,8 @@
       <c r="AMI15" s="17"/>
       <c r="AMJ15" s="17"/>
     </row>
-    <row r="16" spans="1:1024" s="40" customFormat="1" ht="18.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="255" t="s">
+    <row r="16" spans="1:1024" s="40" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="256" t="s">
         <v>324</v>
       </c>
       <c r="B16" s="111"/>
@@ -42166,8 +42165,8 @@
       <c r="AMI16" s="39"/>
       <c r="AMJ16" s="39"/>
     </row>
-    <row r="17" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" s="257"/>
+    <row r="17" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="258"/>
       <c r="B17" s="113" t="s">
         <v>94</v>
       </c>
@@ -42176,7 +42175,7 @@
         <v>220</v>
       </c>
       <c r="E17" s="114" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F17" s="113" t="s">
         <v>325</v>
@@ -42186,8 +42185,8 @@
       </c>
       <c r="H17" s="129"/>
     </row>
-    <row r="18" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="257"/>
+    <row r="18" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="258"/>
       <c r="B18" s="113" t="s">
         <v>98</v>
       </c>
@@ -42206,8 +42205,8 @@
       </c>
       <c r="H18" s="129"/>
     </row>
-    <row r="19" spans="1:1024" ht="86" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="256"/>
+    <row r="19" spans="1:1024" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="257"/>
       <c r="B19" s="116" t="s">
         <v>102</v>
       </c>
@@ -42226,8 +42225,8 @@
       </c>
       <c r="H19" s="130"/>
     </row>
-    <row r="20" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="252" t="s">
+    <row r="20" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="253" t="s">
         <v>329</v>
       </c>
       <c r="B20" s="121"/>
@@ -42246,8 +42245,8 @@
       <c r="O20" s="7"/>
       <c r="AMJ20" s="5"/>
     </row>
-    <row r="21" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="253"/>
+    <row r="21" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="254"/>
       <c r="B21" s="105" t="s">
         <v>106</v>
       </c>
@@ -42266,10 +42265,10 @@
       </c>
       <c r="H21" s="126"/>
     </row>
-    <row r="22" spans="1:1024" ht="146.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="253"/>
+    <row r="22" spans="1:1024" ht="146.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="254"/>
       <c r="B22" s="105" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C22" s="106"/>
       <c r="D22" s="105" t="s">
@@ -42279,17 +42278,17 @@
         <v>493</v>
       </c>
       <c r="F22" s="105" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G22" s="197" t="s">
         <v>332</v>
       </c>
       <c r="H22" s="126"/>
     </row>
-    <row r="23" spans="1:1024" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="254"/>
+    <row r="23" spans="1:1024" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="255"/>
       <c r="B23" s="108" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C23" s="109"/>
       <c r="D23" s="108" t="s">
@@ -42306,8 +42305,8 @@
       </c>
       <c r="H23" s="127"/>
     </row>
-    <row r="24" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="255" t="s">
+    <row r="24" spans="1:1024" s="7" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="256" t="s">
         <v>513</v>
       </c>
       <c r="B24" s="132"/>
@@ -42319,8 +42318,8 @@
       <c r="H24" s="133"/>
       <c r="AMJ24" s="5"/>
     </row>
-    <row r="25" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="256"/>
+    <row r="25" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="257"/>
       <c r="B25" s="116" t="s">
         <v>335</v>
       </c>
@@ -42337,8 +42336,8 @@
       </c>
       <c r="H25" s="130"/>
     </row>
-    <row r="26" spans="1:1024" s="6" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="252" t="s">
+    <row r="26" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="253" t="s">
         <v>338</v>
       </c>
       <c r="B26" s="121"/>
@@ -42357,8 +42356,8 @@
       <c r="O26" s="7"/>
       <c r="AMJ26" s="5"/>
     </row>
-    <row r="27" spans="1:1024" ht="51" x14ac:dyDescent="0.2">
-      <c r="A27" s="253"/>
+    <row r="27" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
+      <c r="A27" s="254"/>
       <c r="B27" s="105" t="s">
         <v>110</v>
       </c>
@@ -42377,8 +42376,8 @@
       </c>
       <c r="H27" s="126"/>
     </row>
-    <row r="28" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="253"/>
+    <row r="28" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="254"/>
       <c r="B28" s="105" t="s">
         <v>118</v>
       </c>
@@ -42397,8 +42396,8 @@
       </c>
       <c r="H28" s="126"/>
     </row>
-    <row r="29" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="253"/>
+    <row r="29" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="254"/>
       <c r="B29" s="105" t="s">
         <v>122</v>
       </c>
@@ -42417,8 +42416,8 @@
       </c>
       <c r="H29" s="126"/>
     </row>
-    <row r="30" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="253"/>
+    <row r="30" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="254"/>
       <c r="B30" s="105" t="s">
         <v>126</v>
       </c>
@@ -42437,8 +42436,8 @@
       </c>
       <c r="H30" s="126"/>
     </row>
-    <row r="31" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="254"/>
+    <row r="31" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="255"/>
       <c r="B31" s="108" t="s">
         <v>130</v>
       </c>
@@ -42457,8 +42456,8 @@
       </c>
       <c r="H31" s="127"/>
     </row>
-    <row r="32" spans="1:1024" s="7" customFormat="1" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="255" t="s">
+    <row r="32" spans="1:1024" s="7" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="256" t="s">
         <v>344</v>
       </c>
       <c r="B32" s="123"/>
@@ -42470,8 +42469,8 @@
       <c r="H32" s="128"/>
       <c r="AMJ32" s="5"/>
     </row>
-    <row r="33" spans="1:8" ht="89.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="257"/>
+    <row r="33" spans="1:8" ht="89.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="258"/>
       <c r="B33" s="113" t="s">
         <v>134</v>
       </c>
@@ -42480,7 +42479,7 @@
         <v>211</v>
       </c>
       <c r="E33" s="114" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F33" s="113" t="s">
         <v>494</v>
@@ -42490,26 +42489,26 @@
       </c>
       <c r="H33" s="129"/>
     </row>
-    <row r="34" spans="1:8" ht="89.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="257"/>
+    <row r="34" spans="1:8" ht="89.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="258"/>
       <c r="B34" s="113" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C34" s="227"/>
       <c r="D34" s="226" t="s">
         <v>319</v>
       </c>
       <c r="E34" s="114" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F34" s="226"/>
       <c r="G34" s="228" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="261"/>
+      <c r="H34" s="230"/>
     </row>
-    <row r="35" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="256"/>
+    <row r="35" spans="1:8" ht="44.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="257"/>
       <c r="B35" s="116" t="s">
         <v>345</v>
       </c>
@@ -42526,8 +42525,8 @@
       </c>
       <c r="H35" s="130"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" insertRows="0" deleteRows="0"/>
   <mergeCells count="9">
@@ -42563,33 +42562,33 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" style="134" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="134" customWidth="1"/>
-    <col min="3" max="4" width="20.6640625" style="134" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" style="134" customWidth="1"/>
-    <col min="6" max="6" width="50.6640625" style="134" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="209" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="134" customWidth="1"/>
-    <col min="9" max="67" width="10.5" style="134" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="134" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="134" customWidth="1"/>
+    <col min="3" max="4" width="20.7109375" style="134" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" style="134" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" style="134" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="209" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="134" customWidth="1"/>
+    <col min="9" max="67" width="10.42578125" style="134" hidden="1" customWidth="1"/>
     <col min="68" max="1024" width="0" style="134" hidden="1" customWidth="1"/>
-    <col min="1025" max="16384" width="9.1640625" style="135" hidden="1"/>
+    <col min="1025" max="16384" width="9.140625" style="135" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="242" t="s">
+    <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="243" t="s">
         <v>500</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="243"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="243"/>
+      <c r="F1" s="243"/>
+      <c r="G1" s="243"/>
+      <c r="H1" s="244"/>
     </row>
-    <row r="2" spans="1:1024" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1024" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -42615,8 +42614,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1024" s="11" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="239" t="s">
+    <row r="3" spans="1:1024" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="240" t="s">
         <v>514</v>
       </c>
       <c r="B3" s="18"/>
@@ -42642,8 +42641,8 @@
       <c r="V3" s="12"/>
       <c r="AMJ3" s="134"/>
     </row>
-    <row r="4" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="240"/>
+    <row r="4" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="241"/>
       <c r="B4" s="106" t="s">
         <v>207</v>
       </c>
@@ -42662,8 +42661,8 @@
       </c>
       <c r="H4" s="137"/>
     </row>
-    <row r="5" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="240"/>
+    <row r="5" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="241"/>
       <c r="B5" s="106" t="s">
         <v>260</v>
       </c>
@@ -42682,8 +42681,8 @@
       </c>
       <c r="H5" s="137"/>
     </row>
-    <row r="6" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="240"/>
+    <row r="6" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="241"/>
       <c r="B6" s="106" t="s">
         <v>213</v>
       </c>
@@ -42700,8 +42699,8 @@
       <c r="G6" s="197"/>
       <c r="H6" s="137"/>
     </row>
-    <row r="7" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="240"/>
+    <row r="7" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="241"/>
       <c r="B7" s="106" t="s">
         <v>266</v>
       </c>
@@ -42720,8 +42719,8 @@
       </c>
       <c r="H7" s="137"/>
     </row>
-    <row r="8" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="240"/>
+    <row r="8" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="241"/>
       <c r="B8" s="106" t="s">
         <v>269</v>
       </c>
@@ -42740,8 +42739,8 @@
       </c>
       <c r="H8" s="137"/>
     </row>
-    <row r="9" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="240"/>
+    <row r="9" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="241"/>
       <c r="B9" s="106" t="s">
         <v>272</v>
       </c>
@@ -42760,8 +42759,8 @@
       </c>
       <c r="H9" s="137"/>
     </row>
-    <row r="10" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="240"/>
+    <row r="10" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="241"/>
       <c r="B10" s="106" t="s">
         <v>210</v>
       </c>
@@ -42778,8 +42777,8 @@
       <c r="G10" s="197"/>
       <c r="H10" s="137"/>
     </row>
-    <row r="11" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="240"/>
+    <row r="11" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="241"/>
       <c r="B11" s="106" t="s">
         <v>279</v>
       </c>
@@ -42796,8 +42795,8 @@
       <c r="G11" s="197"/>
       <c r="H11" s="137"/>
     </row>
-    <row r="12" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="240"/>
+    <row r="12" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="241"/>
       <c r="B12" s="106" t="s">
         <v>354</v>
       </c>
@@ -42814,8 +42813,8 @@
       <c r="G12" s="197"/>
       <c r="H12" s="137"/>
     </row>
-    <row r="13" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="240"/>
+    <row r="13" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="241"/>
       <c r="B13" s="106" t="s">
         <v>285</v>
       </c>
@@ -42832,8 +42831,8 @@
       <c r="G13" s="197"/>
       <c r="H13" s="137"/>
     </row>
-    <row r="14" spans="1:1024" ht="85" x14ac:dyDescent="0.2">
-      <c r="A14" s="240"/>
+    <row r="14" spans="1:1024" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="241"/>
       <c r="B14" s="106" t="s">
         <v>358</v>
       </c>
@@ -42850,8 +42849,8 @@
       <c r="G14" s="197"/>
       <c r="H14" s="137"/>
     </row>
-    <row r="15" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="240"/>
+    <row r="15" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="241"/>
       <c r="B15" s="106" t="s">
         <v>361</v>
       </c>
@@ -42868,8 +42867,8 @@
       <c r="G15" s="197"/>
       <c r="H15" s="137"/>
     </row>
-    <row r="16" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="240"/>
+    <row r="16" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="241"/>
       <c r="B16" s="106" t="s">
         <v>364</v>
       </c>
@@ -42886,8 +42885,8 @@
       <c r="G16" s="197"/>
       <c r="H16" s="137"/>
     </row>
-    <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="240"/>
+    <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="241"/>
       <c r="B17" s="106" t="s">
         <v>368</v>
       </c>
@@ -42904,8 +42903,8 @@
       <c r="G17" s="197"/>
       <c r="H17" s="137"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="241"/>
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="242"/>
       <c r="B18" s="109" t="s">
         <v>302</v>
       </c>
@@ -42922,10 +42921,10 @@
       <c r="G18" s="198"/>
       <c r="H18" s="139"/>
     </row>
-    <row r="20" spans="1:8" ht="23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="F20" s="140"/>
     </row>
-    <row r="28" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="D28" s="141"/>
     </row>
   </sheetData>
@@ -42949,35 +42948,35 @@
       <selection activeCell="E10" sqref="E10"/>
       <selection pane="topRight" activeCell="E10" sqref="E10"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:A18"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" style="135" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="135" customWidth="1"/>
-    <col min="3" max="4" width="20.6640625" style="135" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" style="135" customWidth="1"/>
-    <col min="6" max="6" width="50.6640625" style="135" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="211" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="135" customWidth="1"/>
-    <col min="9" max="62" width="10.5" style="135" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="135" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="135" customWidth="1"/>
+    <col min="3" max="4" width="20.7109375" style="135" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" style="135" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" style="135" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="211" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="135" customWidth="1"/>
+    <col min="9" max="62" width="10.42578125" style="135" hidden="1" customWidth="1"/>
     <col min="63" max="16384" width="0" style="135" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="242" t="s">
+    <row r="1" spans="1:17" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="243" t="s">
         <v>501</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="243"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="243"/>
+      <c r="F1" s="243"/>
+      <c r="G1" s="243"/>
+      <c r="H1" s="244"/>
     </row>
-    <row r="2" spans="1:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -43003,8 +43002,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="144" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="258" t="s">
+    <row r="3" spans="1:17" s="144" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="259" t="s">
         <v>514</v>
       </c>
       <c r="B3" s="142"/>
@@ -43015,8 +43014,8 @@
       <c r="G3" s="210"/>
       <c r="H3" s="143"/>
     </row>
-    <row r="4" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="259"/>
+    <row r="4" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="260"/>
       <c r="B4" s="106" t="s">
         <v>207</v>
       </c>
@@ -43044,8 +43043,8 @@
       <c r="P4" s="144"/>
       <c r="Q4" s="144"/>
     </row>
-    <row r="5" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="259"/>
+    <row r="5" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="260"/>
       <c r="B5" s="106" t="s">
         <v>260</v>
       </c>
@@ -43073,8 +43072,8 @@
       <c r="P5" s="144"/>
       <c r="Q5" s="144"/>
     </row>
-    <row r="6" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="259"/>
+    <row r="6" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="260"/>
       <c r="B6" s="106" t="s">
         <v>213</v>
       </c>
@@ -43100,8 +43099,8 @@
       <c r="P6" s="144"/>
       <c r="Q6" s="144"/>
     </row>
-    <row r="7" spans="1:17" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="259"/>
+    <row r="7" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="260"/>
       <c r="B7" s="106" t="s">
         <v>266</v>
       </c>
@@ -43129,8 +43128,8 @@
       <c r="P7" s="144"/>
       <c r="Q7" s="144"/>
     </row>
-    <row r="8" spans="1:17" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="259"/>
+    <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="260"/>
       <c r="B8" s="106" t="s">
         <v>269</v>
       </c>
@@ -43158,8 +43157,8 @@
       <c r="P8" s="144"/>
       <c r="Q8" s="144"/>
     </row>
-    <row r="9" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="259"/>
+    <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="260"/>
       <c r="B9" s="106" t="s">
         <v>272</v>
       </c>
@@ -43187,8 +43186,8 @@
       <c r="P9" s="144"/>
       <c r="Q9" s="144"/>
     </row>
-    <row r="10" spans="1:17" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="259"/>
+    <row r="10" spans="1:17" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="260"/>
       <c r="B10" s="106" t="s">
         <v>210</v>
       </c>
@@ -43214,8 +43213,8 @@
       <c r="P10" s="144"/>
       <c r="Q10" s="144"/>
     </row>
-    <row r="11" spans="1:17" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="259"/>
+    <row r="11" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="260"/>
       <c r="B11" s="106" t="s">
         <v>279</v>
       </c>
@@ -43241,8 +43240,8 @@
       <c r="P11" s="144"/>
       <c r="Q11" s="144"/>
     </row>
-    <row r="12" spans="1:17" s="151" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="259"/>
+    <row r="12" spans="1:17" s="151" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="260"/>
       <c r="B12" s="106" t="s">
         <v>282</v>
       </c>
@@ -43268,8 +43267,8 @@
       <c r="P12" s="144"/>
       <c r="Q12" s="144"/>
     </row>
-    <row r="13" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="259"/>
+    <row r="13" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="260"/>
       <c r="B13" s="106" t="s">
         <v>285</v>
       </c>
@@ -43295,8 +43294,8 @@
       <c r="P13" s="144"/>
       <c r="Q13" s="144"/>
     </row>
-    <row r="14" spans="1:17" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="259"/>
+    <row r="14" spans="1:17" ht="37.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="260"/>
       <c r="B14" s="106" t="s">
         <v>289</v>
       </c>
@@ -43322,8 +43321,8 @@
       <c r="P14" s="144"/>
       <c r="Q14" s="144"/>
     </row>
-    <row r="15" spans="1:17" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="259"/>
+    <row r="15" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="260"/>
       <c r="B15" s="106" t="s">
         <v>292</v>
       </c>
@@ -43349,8 +43348,8 @@
       <c r="P15" s="144"/>
       <c r="Q15" s="144"/>
     </row>
-    <row r="16" spans="1:17" ht="85" x14ac:dyDescent="0.2">
-      <c r="A16" s="259"/>
+    <row r="16" spans="1:17" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="260"/>
       <c r="B16" s="106" t="s">
         <v>295</v>
       </c>
@@ -43376,8 +43375,8 @@
       <c r="P16" s="144"/>
       <c r="Q16" s="144"/>
     </row>
-    <row r="17" spans="1:17" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="259"/>
+    <row r="17" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="260"/>
       <c r="B17" s="106" t="s">
         <v>298</v>
       </c>
@@ -43403,8 +43402,8 @@
       <c r="P17" s="144"/>
       <c r="Q17" s="144"/>
     </row>
-    <row r="18" spans="1:17" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="260"/>
+    <row r="18" spans="1:17" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="261"/>
       <c r="B18" s="109" t="s">
         <v>302</v>
       </c>
@@ -43430,7 +43429,7 @@
       <c r="P18" s="144"/>
       <c r="Q18" s="144"/>
     </row>
-    <row r="22" spans="1:17" ht="23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="F22" s="152"/>
     </row>
   </sheetData>
@@ -43457,33 +43456,33 @@
       <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" style="170" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="170" customWidth="1"/>
-    <col min="3" max="4" width="20.6640625" style="171" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" style="171" customWidth="1"/>
-    <col min="6" max="6" width="50.6640625" style="171" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="216" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="135" customWidth="1"/>
-    <col min="9" max="1023" width="10.5" style="135" hidden="1" customWidth="1"/>
-    <col min="1024" max="1024" width="9.1640625" style="135" hidden="1" customWidth="1"/>
-    <col min="1025" max="16384" width="10.5" style="135" hidden="1"/>
+    <col min="1" max="1" width="30.7109375" style="170" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="170" customWidth="1"/>
+    <col min="3" max="4" width="20.7109375" style="171" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" style="171" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" style="171" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="216" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="135" customWidth="1"/>
+    <col min="9" max="1023" width="10.42578125" style="135" hidden="1" customWidth="1"/>
+    <col min="1024" max="1024" width="9.140625" style="135" hidden="1" customWidth="1"/>
+    <col min="1025" max="16384" width="10.42578125" style="135" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="242" t="s">
+    <row r="1" spans="1:20" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="243" t="s">
         <v>502</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="243"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="243"/>
+      <c r="F1" s="243"/>
+      <c r="G1" s="243"/>
+      <c r="H1" s="244"/>
     </row>
-    <row r="2" spans="1:20" s="153" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="153" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
@@ -43509,8 +43508,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="157" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="239" t="s">
+    <row r="3" spans="1:20" s="157" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="240" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="154"/>
@@ -43533,8 +43532,8 @@
       <c r="S3" s="156"/>
       <c r="T3" s="156"/>
     </row>
-    <row r="4" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="240"/>
+    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="241"/>
       <c r="B4" s="158" t="s">
         <v>8</v>
       </c>
@@ -43551,8 +43550,8 @@
       </c>
       <c r="H4" s="159"/>
     </row>
-    <row r="5" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="240"/>
+    <row r="5" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="241"/>
       <c r="B5" s="158" t="s">
         <v>13</v>
       </c>
@@ -43569,8 +43568,8 @@
       </c>
       <c r="H5" s="159"/>
     </row>
-    <row r="6" spans="1:20" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="240"/>
+    <row r="6" spans="1:20" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="241"/>
       <c r="B6" s="158" t="s">
         <v>16</v>
       </c>
@@ -43587,8 +43586,8 @@
       </c>
       <c r="H6" s="159"/>
     </row>
-    <row r="7" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="241"/>
+    <row r="7" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="242"/>
       <c r="B7" s="160" t="s">
         <v>19</v>
       </c>
@@ -43605,8 +43604,8 @@
       </c>
       <c r="H7" s="161"/>
     </row>
-    <row r="8" spans="1:20" s="156" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="236" t="s">
+    <row r="8" spans="1:20" s="156" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="237" t="s">
         <v>295</v>
       </c>
       <c r="B8" s="162"/>
@@ -43617,8 +43616,8 @@
       <c r="G8" s="213"/>
       <c r="H8" s="163"/>
     </row>
-    <row r="9" spans="1:20" ht="18.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="237"/>
+    <row r="9" spans="1:20" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="238"/>
       <c r="B9" s="164" t="s">
         <v>30</v>
       </c>
@@ -43635,8 +43634,8 @@
       </c>
       <c r="H9" s="165"/>
     </row>
-    <row r="10" spans="1:20" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="237"/>
+    <row r="10" spans="1:20" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="238"/>
       <c r="B10" s="164" t="s">
         <v>377</v>
       </c>
@@ -43651,8 +43650,8 @@
       <c r="G10" s="186"/>
       <c r="H10" s="165"/>
     </row>
-    <row r="11" spans="1:20" ht="40.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="237"/>
+    <row r="11" spans="1:20" ht="40.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="238"/>
       <c r="B11" s="164"/>
       <c r="C11" s="164" t="s">
         <v>379</v>
@@ -43667,8 +43666,8 @@
       <c r="G11" s="186"/>
       <c r="H11" s="165"/>
     </row>
-    <row r="12" spans="1:20" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="237"/>
+    <row r="12" spans="1:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="238"/>
       <c r="B12" s="164"/>
       <c r="C12" s="164" t="s">
         <v>380</v>
@@ -43683,8 +43682,8 @@
       <c r="G12" s="186"/>
       <c r="H12" s="165"/>
     </row>
-    <row r="13" spans="1:20" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="237"/>
+    <row r="13" spans="1:20" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="238"/>
       <c r="B13" s="164"/>
       <c r="C13" s="164" t="s">
         <v>381</v>
@@ -43699,8 +43698,8 @@
       <c r="G13" s="186"/>
       <c r="H13" s="165"/>
     </row>
-    <row r="14" spans="1:20" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="237"/>
+    <row r="14" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="238"/>
       <c r="B14" s="164"/>
       <c r="C14" s="164" t="s">
         <v>382</v>
@@ -43715,8 +43714,8 @@
       <c r="G14" s="186"/>
       <c r="H14" s="165"/>
     </row>
-    <row r="15" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="237"/>
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="238"/>
       <c r="B15" s="164"/>
       <c r="C15" s="164" t="s">
         <v>384</v>
@@ -43731,8 +43730,8 @@
       <c r="G15" s="186"/>
       <c r="H15" s="165"/>
     </row>
-    <row r="16" spans="1:20" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="237"/>
+    <row r="16" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="238"/>
       <c r="B16" s="164" t="s">
         <v>386</v>
       </c>
@@ -43747,8 +43746,8 @@
       <c r="G16" s="186"/>
       <c r="H16" s="165"/>
     </row>
-    <row r="17" spans="1:19" ht="18.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="238"/>
+    <row r="17" spans="1:19" ht="18.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="239"/>
       <c r="B17" s="166"/>
       <c r="C17" s="166" t="s">
         <v>384</v>
@@ -43763,8 +43762,8 @@
       <c r="G17" s="187"/>
       <c r="H17" s="167"/>
     </row>
-    <row r="18" spans="1:19" s="157" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="239" t="s">
+    <row r="18" spans="1:19" s="157" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="240" t="s">
         <v>388</v>
       </c>
       <c r="B18" s="168"/>
@@ -43786,8 +43785,8 @@
       <c r="R18" s="156"/>
       <c r="S18" s="156"/>
     </row>
-    <row r="19" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="240"/>
+    <row r="19" spans="1:19" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="241"/>
       <c r="B19" s="158" t="s">
         <v>389</v>
       </c>
@@ -43797,15 +43796,15 @@
       </c>
       <c r="E19" s="158"/>
       <c r="F19" s="158" t="s">
-        <v>518</v>
+        <v>566</v>
       </c>
       <c r="G19" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H19" s="159"/>
     </row>
-    <row r="20" spans="1:19" ht="41.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="240"/>
+    <row r="20" spans="1:19" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="241"/>
       <c r="B20" s="158"/>
       <c r="C20" s="158" t="s">
         <v>390</v>
@@ -43820,8 +43819,8 @@
       <c r="G20" s="183"/>
       <c r="H20" s="159"/>
     </row>
-    <row r="21" spans="1:19" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="240"/>
+    <row r="21" spans="1:19" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="241"/>
       <c r="B21" s="158"/>
       <c r="C21" s="158" t="s">
         <v>393</v>
@@ -43836,8 +43835,8 @@
       <c r="G21" s="183"/>
       <c r="H21" s="159"/>
     </row>
-    <row r="22" spans="1:19" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="241"/>
+    <row r="22" spans="1:19" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="242"/>
       <c r="B22" s="160"/>
       <c r="C22" s="160" t="s">
         <v>395</v>
@@ -43881,32 +43880,32 @@
       <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="21" customWidth="1"/>
-    <col min="3" max="4" width="20.6640625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="50.6640625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="21" customWidth="1"/>
+    <col min="3" max="4" width="20.7109375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" style="21" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="21" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="21" customWidth="1"/>
     <col min="9" max="1024" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="1025" max="16384" width="9.1640625" style="22" hidden="1"/>
+    <col min="1025" max="16384" width="9.140625" style="22" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="47.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="242" t="s">
+    <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="243" t="s">
         <v>503</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="243"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="243"/>
+      <c r="F1" s="243"/>
+      <c r="G1" s="243"/>
+      <c r="H1" s="244"/>
     </row>
-    <row r="2" spans="1:1024" s="42" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1024" s="42" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
@@ -44948,8 +44947,8 @@
       <c r="AMI2" s="41"/>
       <c r="AMJ2" s="41"/>
     </row>
-    <row r="3" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="239" t="s">
+    <row r="3" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="240" t="s">
         <v>397</v>
       </c>
       <c r="B3" s="172"/>
@@ -44960,8 +44959,8 @@
       <c r="G3" s="172"/>
       <c r="H3" s="173"/>
     </row>
-    <row r="4" spans="1:1024" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="240"/>
+    <row r="4" spans="1:1024" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="241"/>
       <c r="B4" s="47" t="s">
         <v>207</v>
       </c>
@@ -45992,8 +45991,8 @@
       <c r="AMI4" s="23"/>
       <c r="AMJ4" s="23"/>
     </row>
-    <row r="5" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="240"/>
+    <row r="5" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="241"/>
       <c r="B5" s="47" t="s">
         <v>260</v>
       </c>
@@ -47024,8 +47023,8 @@
       <c r="AMI5" s="23"/>
       <c r="AMJ5" s="23"/>
     </row>
-    <row r="6" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="240"/>
+    <row r="6" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="241"/>
       <c r="B6" s="47" t="s">
         <v>213</v>
       </c>
@@ -48056,8 +48055,8 @@
       <c r="AMI6" s="23"/>
       <c r="AMJ6" s="23"/>
     </row>
-    <row r="7" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="240"/>
+    <row r="7" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="241"/>
       <c r="B7" s="47" t="s">
         <v>400</v>
       </c>
@@ -49088,8 +49087,8 @@
       <c r="AMI7" s="23"/>
       <c r="AMJ7" s="23"/>
     </row>
-    <row r="8" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="240"/>
+    <row r="8" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="241"/>
       <c r="B8" s="47" t="s">
         <v>402</v>
       </c>
@@ -50120,8 +50119,8 @@
       <c r="AMI8" s="23"/>
       <c r="AMJ8" s="23"/>
     </row>
-    <row r="9" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="240"/>
+    <row r="9" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="241"/>
       <c r="B9" s="47" t="s">
         <v>404</v>
       </c>
@@ -51152,8 +51151,8 @@
       <c r="AMI9" s="23"/>
       <c r="AMJ9" s="23"/>
     </row>
-    <row r="10" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="240"/>
+    <row r="10" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="241"/>
       <c r="B10" s="47" t="s">
         <v>406</v>
       </c>
@@ -52184,8 +52183,8 @@
       <c r="AMI10" s="23"/>
       <c r="AMJ10" s="23"/>
     </row>
-    <row r="11" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="240"/>
+    <row r="11" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="241"/>
       <c r="B11" s="47" t="s">
         <v>408</v>
       </c>
@@ -53216,8 +53215,8 @@
       <c r="AMI11" s="23"/>
       <c r="AMJ11" s="23"/>
     </row>
-    <row r="12" spans="1:1024" s="26" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="241"/>
+    <row r="12" spans="1:1024" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="242"/>
       <c r="B12" s="51" t="s">
         <v>410</v>
       </c>
@@ -54248,8 +54247,8 @@
       <c r="AMI12" s="25"/>
       <c r="AMJ12" s="25"/>
     </row>
-    <row r="13" spans="1:1024" s="20" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="236" t="s">
+    <row r="13" spans="1:1024" s="20" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="237" t="s">
         <v>412</v>
       </c>
       <c r="B13" s="175"/>
@@ -54261,8 +54260,8 @@
       <c r="H13" s="176"/>
       <c r="AMJ13" s="21"/>
     </row>
-    <row r="14" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="237"/>
+    <row r="14" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="238"/>
       <c r="B14" s="69" t="s">
         <v>207</v>
       </c>
@@ -54277,8 +54276,8 @@
       <c r="G14" s="69"/>
       <c r="H14" s="177"/>
     </row>
-    <row r="15" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="237"/>
+    <row r="15" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="238"/>
       <c r="B15" s="69" t="s">
         <v>260</v>
       </c>
@@ -54293,8 +54292,8 @@
       <c r="G15" s="69"/>
       <c r="H15" s="177"/>
     </row>
-    <row r="16" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="237"/>
+    <row r="16" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="238"/>
       <c r="B16" s="69" t="s">
         <v>213</v>
       </c>
@@ -54309,8 +54308,8 @@
       <c r="G16" s="69"/>
       <c r="H16" s="177"/>
     </row>
-    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="237"/>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="238"/>
       <c r="B17" s="69" t="s">
         <v>266</v>
       </c>
@@ -54325,8 +54324,8 @@
       <c r="G17" s="69"/>
       <c r="H17" s="177"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="237"/>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="238"/>
       <c r="B18" s="69" t="s">
         <v>210</v>
       </c>
@@ -54341,8 +54340,8 @@
       <c r="G18" s="69"/>
       <c r="H18" s="177"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="237"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="238"/>
       <c r="B19" s="69" t="s">
         <v>5</v>
       </c>
@@ -54357,8 +54356,8 @@
       <c r="G19" s="69"/>
       <c r="H19" s="177"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="237"/>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="238"/>
       <c r="B20" s="69" t="s">
         <v>418</v>
       </c>
@@ -54373,8 +54372,8 @@
       <c r="G20" s="69"/>
       <c r="H20" s="177"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="237"/>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="238"/>
       <c r="B21" s="69" t="s">
         <v>319</v>
       </c>
@@ -54389,8 +54388,8 @@
       <c r="G21" s="69"/>
       <c r="H21" s="177"/>
     </row>
-    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="237"/>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="238"/>
       <c r="B22" s="69" t="s">
         <v>421</v>
       </c>
@@ -54405,8 +54404,8 @@
       <c r="G22" s="69"/>
       <c r="H22" s="177"/>
     </row>
-    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="237"/>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="238"/>
       <c r="B23" s="69" t="s">
         <v>423</v>
       </c>
@@ -54421,8 +54420,8 @@
       <c r="G23" s="69"/>
       <c r="H23" s="177"/>
     </row>
-    <row r="24" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="238"/>
+    <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="239"/>
       <c r="B24" s="73" t="s">
         <v>425</v>
       </c>
@@ -54437,8 +54436,8 @@
       <c r="G24" s="73"/>
       <c r="H24" s="178"/>
     </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="239" t="s">
+    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="240" t="s">
         <v>354</v>
       </c>
       <c r="B25" s="179"/>
@@ -54449,8 +54448,8 @@
       <c r="G25" s="179"/>
       <c r="H25" s="180"/>
     </row>
-    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="240"/>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="241"/>
       <c r="B26" s="47" t="s">
         <v>207</v>
       </c>
@@ -54465,8 +54464,8 @@
       <c r="G26" s="47"/>
       <c r="H26" s="174"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="240"/>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="241"/>
       <c r="B27" s="47" t="s">
         <v>260</v>
       </c>
@@ -54481,8 +54480,8 @@
       <c r="G27" s="47"/>
       <c r="H27" s="174"/>
     </row>
-    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="240"/>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="241"/>
       <c r="B28" s="47" t="s">
         <v>213</v>
       </c>
@@ -54497,8 +54496,8 @@
       <c r="G28" s="47"/>
       <c r="H28" s="174"/>
     </row>
-    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="240"/>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="241"/>
       <c r="B29" s="47" t="s">
         <v>266</v>
       </c>
@@ -54513,8 +54512,8 @@
       <c r="G29" s="47"/>
       <c r="H29" s="174"/>
     </row>
-    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="240"/>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="241"/>
       <c r="B30" s="47" t="s">
         <v>430</v>
       </c>
@@ -54529,8 +54528,8 @@
       <c r="G30" s="47"/>
       <c r="H30" s="174"/>
     </row>
-    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="240"/>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="241"/>
       <c r="B31" s="47" t="s">
         <v>210</v>
       </c>
@@ -54545,8 +54544,8 @@
       <c r="G31" s="47"/>
       <c r="H31" s="174"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="240"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="241"/>
       <c r="B32" s="47" t="s">
         <v>408</v>
       </c>
@@ -54561,8 +54560,8 @@
       <c r="G32" s="47"/>
       <c r="H32" s="174"/>
     </row>
-    <row r="33" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="240"/>
+    <row r="33" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="241"/>
       <c r="B33" s="47" t="s">
         <v>434</v>
       </c>
@@ -54577,8 +54576,8 @@
       <c r="G33" s="47"/>
       <c r="H33" s="174"/>
     </row>
-    <row r="34" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="240"/>
+    <row r="34" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="241"/>
       <c r="B34" s="47" t="s">
         <v>5</v>
       </c>
@@ -54593,8 +54592,8 @@
       <c r="G34" s="47"/>
       <c r="H34" s="174"/>
     </row>
-    <row r="35" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="240"/>
+    <row r="35" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="241"/>
       <c r="B35" s="47" t="s">
         <v>437</v>
       </c>
@@ -54609,8 +54608,8 @@
       <c r="G35" s="47"/>
       <c r="H35" s="174"/>
     </row>
-    <row r="36" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="241"/>
+    <row r="36" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="242"/>
       <c r="B36" s="51" t="s">
         <v>439</v>
       </c>
@@ -54625,8 +54624,8 @@
       <c r="G36" s="51"/>
       <c r="H36" s="181"/>
     </row>
-    <row r="37" spans="1:1024" s="20" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="236" t="s">
+    <row r="37" spans="1:1024" s="20" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="237" t="s">
         <v>282</v>
       </c>
       <c r="B37" s="175"/>
@@ -54638,8 +54637,8 @@
       <c r="H37" s="176"/>
       <c r="AMJ37" s="21"/>
     </row>
-    <row r="38" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="237"/>
+    <row r="38" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="238"/>
       <c r="B38" s="69" t="s">
         <v>207</v>
       </c>
@@ -54654,8 +54653,8 @@
       <c r="G38" s="69"/>
       <c r="H38" s="177"/>
     </row>
-    <row r="39" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="237"/>
+    <row r="39" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="238"/>
       <c r="B39" s="69" t="s">
         <v>260</v>
       </c>
@@ -54670,8 +54669,8 @@
       <c r="G39" s="69"/>
       <c r="H39" s="177"/>
     </row>
-    <row r="40" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="237"/>
+    <row r="40" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="238"/>
       <c r="B40" s="69" t="s">
         <v>213</v>
       </c>
@@ -54686,8 +54685,8 @@
       <c r="G40" s="69"/>
       <c r="H40" s="177"/>
     </row>
-    <row r="41" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="237"/>
+    <row r="41" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="238"/>
       <c r="B41" s="69" t="s">
         <v>266</v>
       </c>
@@ -54702,8 +54701,8 @@
       <c r="G41" s="69"/>
       <c r="H41" s="177"/>
     </row>
-    <row r="42" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="237"/>
+    <row r="42" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="238"/>
       <c r="B42" s="69" t="s">
         <v>444</v>
       </c>
@@ -54718,8 +54717,8 @@
       <c r="G42" s="69"/>
       <c r="H42" s="177"/>
     </row>
-    <row r="43" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="237"/>
+    <row r="43" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="238"/>
       <c r="B43" s="69" t="s">
         <v>354</v>
       </c>
@@ -54734,8 +54733,8 @@
       <c r="G43" s="69"/>
       <c r="H43" s="177"/>
     </row>
-    <row r="44" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="237"/>
+    <row r="44" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="238"/>
       <c r="B44" s="69" t="s">
         <v>210</v>
       </c>
@@ -54750,8 +54749,8 @@
       <c r="G44" s="69"/>
       <c r="H44" s="177"/>
     </row>
-    <row r="45" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="237"/>
+    <row r="45" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="238"/>
       <c r="B45" s="69" t="s">
         <v>408</v>
       </c>
@@ -54766,8 +54765,8 @@
       <c r="G45" s="69"/>
       <c r="H45" s="177"/>
     </row>
-    <row r="46" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="237"/>
+    <row r="46" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="238"/>
       <c r="B46" s="69" t="s">
         <v>449</v>
       </c>
@@ -54782,8 +54781,8 @@
       <c r="G46" s="69"/>
       <c r="H46" s="177"/>
     </row>
-    <row r="47" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="237"/>
+    <row r="47" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="238"/>
       <c r="B47" s="69" t="s">
         <v>5</v>
       </c>
@@ -54798,8 +54797,8 @@
       <c r="G47" s="69"/>
       <c r="H47" s="177"/>
     </row>
-    <row r="48" spans="1:1024" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="238"/>
+    <row r="48" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="239"/>
       <c r="B48" s="73" t="s">
         <v>421</v>
       </c>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\jay\code\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CA294C-C57D-4AA1-ABB1-366C51C7DACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3519BDEC-F0BF-4FDF-B47F-DDF5E48412EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="24270" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Microservice" sheetId="1" r:id="rId1"/>
@@ -1449,18 +1449,6 @@
     <t>List(String)</t>
   </si>
   <si>
-    <t>/data</t>
-  </si>
-  <si>
-    <t>/data_out</t>
-  </si>
-  <si>
-    <t>directories shared on the host where this microservice can find required inputs</t>
-  </si>
-  <si>
-    <t>directories shared on the host where this microservice can find required outputs</t>
-  </si>
-  <si>
     <t>configurationData</t>
   </si>
   <si>
@@ -1814,6 +1802,18 @@
   </si>
   <si>
     <t>Mapping the available Data assets in this DMA Tuple to available Microservices. One Microservice may require several Data assets, specified by their UUIDs.</t>
+  </si>
+  <si>
+    <t>["/data", "/cfg"]</t>
+  </si>
+  <si>
+    <t>["/data_out", "/results"]</t>
+  </si>
+  <si>
+    <t>A note for developers of co-operating Microservices. A list of directories that should be shared to the host by where this microservice can find required inputs</t>
+  </si>
+  <si>
+    <t>A note for developers of co-operating Microservices.  A list of directories that are shared on the host where this microservice will store its outputs</t>
   </si>
 </sst>
 </file>
@@ -3217,60 +3217,20 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3295,6 +3255,46 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4175,11 +4175,11 @@
   <dimension ref="A1:AMJ104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E10" sqref="E10"/>
       <selection pane="topRight" activeCell="E10" sqref="E10"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -4196,16 +4196,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="243" t="s">
-        <v>496</v>
-      </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="243"/>
-      <c r="H1" s="244"/>
+      <c r="A1" s="231" t="s">
+        <v>492</v>
+      </c>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="232"/>
     </row>
     <row r="2" spans="1:1024" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
@@ -4234,7 +4234,7 @@
       </c>
     </row>
     <row r="3" spans="1:1024" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="245" t="s">
+      <c r="A3" s="235" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="27"/>
@@ -4246,7 +4246,7 @@
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="246"/>
+      <c r="A4" s="236"/>
       <c r="B4" s="47" t="s">
         <v>8</v>
       </c>
@@ -4261,12 +4261,12 @@
         <v>11</v>
       </c>
       <c r="G4" s="183" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="246"/>
+      <c r="A5" s="236"/>
       <c r="B5" s="47" t="s">
         <v>13</v>
       </c>
@@ -4286,7 +4286,7 @@
       <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="246"/>
+      <c r="A6" s="236"/>
       <c r="B6" s="47" t="s">
         <v>16</v>
       </c>
@@ -4306,13 +4306,13 @@
       <c r="H6" s="50"/>
     </row>
     <row r="7" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="246"/>
+      <c r="A7" s="236"/>
       <c r="B7" s="47" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="47" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E7" s="49" t="s">
         <v>20</v>
@@ -4321,12 +4321,12 @@
         <v>21</v>
       </c>
       <c r="G7" s="183" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="246"/>
+      <c r="A8" s="236"/>
       <c r="B8" s="47" t="s">
         <v>22</v>
       </c>
@@ -4346,7 +4346,7 @@
       <c r="H8" s="50"/>
     </row>
     <row r="9" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="246"/>
+      <c r="A9" s="236"/>
       <c r="B9" s="47" t="s">
         <v>25</v>
       </c>
@@ -4355,10 +4355,10 @@
         <v>9</v>
       </c>
       <c r="E9" s="49" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G9" s="183" t="s">
         <v>12</v>
@@ -4366,7 +4366,7 @@
       <c r="H9" s="50"/>
     </row>
     <row r="10" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="246"/>
+      <c r="A10" s="236"/>
       <c r="B10" s="47" t="s">
         <v>26</v>
       </c>
@@ -4386,7 +4386,7 @@
       <c r="H10" s="50"/>
     </row>
     <row r="11" spans="1:1024" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="247"/>
+      <c r="A11" s="237"/>
       <c r="B11" s="51" t="s">
         <v>30</v>
       </c>
@@ -4406,7 +4406,7 @@
       <c r="H11" s="54"/>
     </row>
     <row r="12" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="248" t="s">
+      <c r="A12" s="238" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="217"/>
@@ -4418,7 +4418,7 @@
       <c r="H12" s="220"/>
     </row>
     <row r="13" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="249"/>
+      <c r="A13" s="239"/>
       <c r="B13" s="55" t="s">
         <v>35</v>
       </c>
@@ -4438,7 +4438,7 @@
       <c r="H13" s="58"/>
     </row>
     <row r="14" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="249"/>
+      <c r="A14" s="239"/>
       <c r="B14" s="55" t="s">
         <v>38</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>456</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>457</v>
@@ -4458,19 +4458,19 @@
       <c r="H14" s="58"/>
     </row>
     <row r="15" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="249"/>
+      <c r="A15" s="239"/>
       <c r="B15" s="55" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C15" s="56"/>
       <c r="D15" s="55" t="s">
+        <v>464</v>
+      </c>
+      <c r="E15" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="E15" s="57" t="s">
-        <v>472</v>
-      </c>
       <c r="F15" s="55" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G15" s="188" t="s">
         <v>43</v>
@@ -5493,8 +5493,8 @@
       <c r="AMI15" s="4"/>
       <c r="AMJ15" s="4"/>
     </row>
-    <row r="16" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="249"/>
+    <row r="16" spans="1:1024" s="10" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A16" s="239"/>
       <c r="B16" s="55" t="s">
         <v>459</v>
       </c>
@@ -5503,10 +5503,10 @@
         <v>461</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>462</v>
+        <v>563</v>
       </c>
       <c r="F16" s="55" t="s">
-        <v>464</v>
+        <v>565</v>
       </c>
       <c r="G16" s="188" t="s">
         <v>43</v>
@@ -6529,8 +6529,8 @@
       <c r="AMI16" s="4"/>
       <c r="AMJ16" s="4"/>
     </row>
-    <row r="17" spans="1:1024" s="10" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="250"/>
+    <row r="17" spans="1:1024" s="10" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="240"/>
       <c r="B17" s="221" t="s">
         <v>460</v>
       </c>
@@ -6539,10 +6539,10 @@
         <v>461</v>
       </c>
       <c r="E17" s="223" t="s">
-        <v>463</v>
+        <v>564</v>
       </c>
       <c r="F17" s="221" t="s">
-        <v>465</v>
+        <v>566</v>
       </c>
       <c r="G17" s="224" t="s">
         <v>43</v>
@@ -7818,7 +7818,7 @@
       <c r="H30" s="54"/>
     </row>
     <row r="31" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="237" t="s">
+      <c r="A31" s="243" t="s">
         <v>72</v>
       </c>
       <c r="B31" s="62"/>
@@ -7830,7 +7830,7 @@
       <c r="H31" s="64"/>
     </row>
     <row r="32" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="238"/>
+      <c r="A32" s="244"/>
       <c r="B32" s="65" t="s">
         <v>73</v>
       </c>
@@ -7850,7 +7850,7 @@
       <c r="H32" s="68"/>
     </row>
     <row r="33" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="238"/>
+      <c r="A33" s="244"/>
       <c r="B33" s="69" t="s">
         <v>76</v>
       </c>
@@ -7870,7 +7870,7 @@
       <c r="H33" s="72"/>
     </row>
     <row r="34" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="238"/>
+      <c r="A34" s="244"/>
       <c r="B34" s="69" t="s">
         <v>79</v>
       </c>
@@ -7890,7 +7890,7 @@
       <c r="H34" s="72"/>
     </row>
     <row r="35" spans="1:1024" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="239"/>
+      <c r="A35" s="245"/>
       <c r="B35" s="73" t="s">
         <v>82</v>
       </c>
@@ -7910,7 +7910,7 @@
       <c r="H35" s="76"/>
     </row>
     <row r="36" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="240" t="s">
+      <c r="A36" s="246" t="s">
         <v>85</v>
       </c>
       <c r="B36" s="59"/>
@@ -8959,7 +8959,7 @@
     </row>
     <row r="38" spans="1:1024" s="10" customFormat="1" ht="46.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="241"/>
-      <c r="B38" s="231" t="s">
+      <c r="B38" s="233" t="s">
         <v>90</v>
       </c>
       <c r="C38" s="47" t="s">
@@ -9997,7 +9997,7 @@
     </row>
     <row r="39" spans="1:1024" s="10" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A39" s="241"/>
-      <c r="B39" s="231"/>
+      <c r="B39" s="233"/>
       <c r="C39" s="47" t="s">
         <v>94</v>
       </c>
@@ -11033,7 +11033,7 @@
     </row>
     <row r="40" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="241"/>
-      <c r="B40" s="231"/>
+      <c r="B40" s="233"/>
       <c r="C40" s="47" t="s">
         <v>98</v>
       </c>
@@ -12069,7 +12069,7 @@
     </row>
     <row r="41" spans="1:1024" s="10" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A41" s="241"/>
-      <c r="B41" s="231"/>
+      <c r="B41" s="233"/>
       <c r="C41" s="47" t="s">
         <v>102</v>
       </c>
@@ -13105,7 +13105,7 @@
     </row>
     <row r="42" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="241"/>
-      <c r="B42" s="231"/>
+      <c r="B42" s="233"/>
       <c r="C42" s="47" t="s">
         <v>106</v>
       </c>
@@ -14141,7 +14141,7 @@
     </row>
     <row r="43" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="241"/>
-      <c r="B43" s="231"/>
+      <c r="B43" s="233"/>
       <c r="C43" s="47" t="s">
         <v>110</v>
       </c>
@@ -15177,7 +15177,7 @@
     </row>
     <row r="44" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="241"/>
-      <c r="B44" s="231"/>
+      <c r="B44" s="233"/>
       <c r="C44" s="47" t="s">
         <v>114</v>
       </c>
@@ -16213,7 +16213,7 @@
     </row>
     <row r="45" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A45" s="241"/>
-      <c r="B45" s="231"/>
+      <c r="B45" s="233"/>
       <c r="C45" s="47" t="s">
         <v>118</v>
       </c>
@@ -17249,7 +17249,7 @@
     </row>
     <row r="46" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A46" s="241"/>
-      <c r="B46" s="231"/>
+      <c r="B46" s="233"/>
       <c r="C46" s="47" t="s">
         <v>122</v>
       </c>
@@ -18285,7 +18285,7 @@
     </row>
     <row r="47" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A47" s="241"/>
-      <c r="B47" s="231"/>
+      <c r="B47" s="233"/>
       <c r="C47" s="47" t="s">
         <v>126</v>
       </c>
@@ -19321,7 +19321,7 @@
     </row>
     <row r="48" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="241"/>
-      <c r="B48" s="231"/>
+      <c r="B48" s="233"/>
       <c r="C48" s="47" t="s">
         <v>130</v>
       </c>
@@ -20357,7 +20357,7 @@
     </row>
     <row r="49" spans="1:1024" s="16" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="242"/>
-      <c r="B49" s="232"/>
+      <c r="B49" s="234"/>
       <c r="C49" s="51" t="s">
         <v>134</v>
       </c>
@@ -20368,7 +20368,7 @@
         <v>136</v>
       </c>
       <c r="F49" s="51" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G49" s="184" t="s">
         <v>43</v>
@@ -21392,7 +21392,7 @@
       <c r="AMJ49" s="15"/>
     </row>
     <row r="50" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="237" t="s">
+      <c r="A50" s="243" t="s">
         <v>137</v>
       </c>
       <c r="B50" s="77"/>
@@ -21404,7 +21404,7 @@
       <c r="H50" s="79"/>
     </row>
     <row r="51" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="238"/>
+      <c r="A51" s="244"/>
       <c r="B51" s="80" t="s">
         <v>138</v>
       </c>
@@ -21424,8 +21424,8 @@
       <c r="H51" s="83"/>
     </row>
     <row r="52" spans="1:1024" ht="46.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="238"/>
-      <c r="B52" s="233" t="s">
+      <c r="A52" s="244"/>
+      <c r="B52" s="247" t="s">
         <v>90</v>
       </c>
       <c r="C52" s="84" t="s">
@@ -21446,8 +21446,8 @@
       <c r="H52" s="83"/>
     </row>
     <row r="53" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
-      <c r="A53" s="238"/>
-      <c r="B53" s="233"/>
+      <c r="A53" s="244"/>
+      <c r="B53" s="247"/>
       <c r="C53" s="80" t="s">
         <v>94</v>
       </c>
@@ -21466,8 +21466,8 @@
       <c r="H53" s="83"/>
     </row>
     <row r="54" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="238"/>
-      <c r="B54" s="233"/>
+      <c r="A54" s="244"/>
+      <c r="B54" s="247"/>
       <c r="C54" s="80" t="s">
         <v>98</v>
       </c>
@@ -21486,8 +21486,8 @@
       <c r="H54" s="83"/>
     </row>
     <row r="55" spans="1:1024" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="238"/>
-      <c r="B55" s="233"/>
+      <c r="A55" s="244"/>
+      <c r="B55" s="247"/>
       <c r="C55" s="80" t="s">
         <v>102</v>
       </c>
@@ -21506,8 +21506,8 @@
       <c r="H55" s="83"/>
     </row>
     <row r="56" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="238"/>
-      <c r="B56" s="233"/>
+      <c r="A56" s="244"/>
+      <c r="B56" s="247"/>
       <c r="C56" s="80" t="s">
         <v>106</v>
       </c>
@@ -21526,8 +21526,8 @@
       <c r="H56" s="83"/>
     </row>
     <row r="57" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="238"/>
-      <c r="B57" s="233"/>
+      <c r="A57" s="244"/>
+      <c r="B57" s="247"/>
       <c r="C57" s="80" t="s">
         <v>110</v>
       </c>
@@ -21546,8 +21546,8 @@
       <c r="H57" s="83"/>
     </row>
     <row r="58" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="238"/>
-      <c r="B58" s="233"/>
+      <c r="A58" s="244"/>
+      <c r="B58" s="247"/>
       <c r="C58" s="80" t="s">
         <v>114</v>
       </c>
@@ -21566,8 +21566,8 @@
       <c r="H58" s="83"/>
     </row>
     <row r="59" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="238"/>
-      <c r="B59" s="233"/>
+      <c r="A59" s="244"/>
+      <c r="B59" s="247"/>
       <c r="C59" s="80" t="s">
         <v>118</v>
       </c>
@@ -21586,8 +21586,8 @@
       <c r="H59" s="83"/>
     </row>
     <row r="60" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="238"/>
-      <c r="B60" s="233"/>
+      <c r="A60" s="244"/>
+      <c r="B60" s="247"/>
       <c r="C60" s="80" t="s">
         <v>122</v>
       </c>
@@ -21606,8 +21606,8 @@
       <c r="H60" s="83"/>
     </row>
     <row r="61" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="238"/>
-      <c r="B61" s="233"/>
+      <c r="A61" s="244"/>
+      <c r="B61" s="247"/>
       <c r="C61" s="80" t="s">
         <v>126</v>
       </c>
@@ -21626,8 +21626,8 @@
       <c r="H61" s="83"/>
     </row>
     <row r="62" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="238"/>
-      <c r="B62" s="233"/>
+      <c r="A62" s="244"/>
+      <c r="B62" s="247"/>
       <c r="C62" s="80" t="s">
         <v>130</v>
       </c>
@@ -21646,8 +21646,8 @@
       <c r="H62" s="83"/>
     </row>
     <row r="63" spans="1:1024" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="239"/>
-      <c r="B63" s="234"/>
+      <c r="A63" s="245"/>
+      <c r="B63" s="248"/>
       <c r="C63" s="85" t="s">
         <v>134</v>
       </c>
@@ -21658,7 +21658,7 @@
         <v>136</v>
       </c>
       <c r="F63" s="85" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G63" s="187" t="s">
         <v>43</v>
@@ -21666,7 +21666,7 @@
       <c r="H63" s="87"/>
     </row>
     <row r="64" spans="1:1024" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="240" t="s">
+      <c r="A64" s="246" t="s">
         <v>145</v>
       </c>
       <c r="B64" s="59"/>
@@ -24766,7 +24766,7 @@
       <c r="AMJ66" s="13"/>
     </row>
     <row r="67" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="237" t="s">
+      <c r="A67" s="243" t="s">
         <v>154</v>
       </c>
       <c r="B67" s="29"/>
@@ -24778,7 +24778,7 @@
       <c r="H67" s="64"/>
     </row>
     <row r="68" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="238"/>
+      <c r="A68" s="244"/>
       <c r="B68" s="69" t="s">
         <v>155</v>
       </c>
@@ -24796,8 +24796,8 @@
       <c r="H68" s="72"/>
     </row>
     <row r="69" spans="1:1024" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="238"/>
-      <c r="B69" s="235" t="s">
+      <c r="A69" s="244"/>
+      <c r="B69" s="249" t="s">
         <v>158</v>
       </c>
       <c r="C69" s="69" t="s">
@@ -24818,8 +24818,8 @@
       <c r="H69" s="72"/>
     </row>
     <row r="70" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="238"/>
-      <c r="B70" s="235"/>
+      <c r="A70" s="244"/>
+      <c r="B70" s="249"/>
       <c r="C70" s="69" t="s">
         <v>30</v>
       </c>
@@ -24838,8 +24838,8 @@
       <c r="H70" s="72"/>
     </row>
     <row r="71" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="238"/>
-      <c r="B71" s="235"/>
+      <c r="A71" s="244"/>
+      <c r="B71" s="249"/>
       <c r="C71" s="69" t="s">
         <v>12</v>
       </c>
@@ -24858,8 +24858,8 @@
       <c r="H71" s="72"/>
     </row>
     <row r="72" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="238"/>
-      <c r="B72" s="235"/>
+      <c r="A72" s="244"/>
+      <c r="B72" s="249"/>
       <c r="C72" s="69" t="s">
         <v>167</v>
       </c>
@@ -24878,8 +24878,8 @@
       <c r="H72" s="72"/>
     </row>
     <row r="73" spans="1:1024" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="239"/>
-      <c r="B73" s="236"/>
+      <c r="A73" s="245"/>
+      <c r="B73" s="250"/>
       <c r="C73" s="73" t="s">
         <v>25</v>
       </c>
@@ -24898,7 +24898,7 @@
       <c r="H73" s="76"/>
     </row>
     <row r="74" spans="1:1024" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="240" t="s">
+      <c r="A74" s="246" t="s">
         <v>172</v>
       </c>
       <c r="B74" s="31"/>
@@ -26961,7 +26961,7 @@
     </row>
     <row r="76" spans="1:1024" s="14" customFormat="1" ht="46.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="241"/>
-      <c r="B76" s="231" t="s">
+      <c r="B76" s="233" t="s">
         <v>176</v>
       </c>
       <c r="C76" s="47" t="s">
@@ -27999,7 +27999,7 @@
     </row>
     <row r="77" spans="1:1024" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A77" s="241"/>
-      <c r="B77" s="231"/>
+      <c r="B77" s="233"/>
       <c r="C77" s="47" t="s">
         <v>179</v>
       </c>
@@ -29035,7 +29035,7 @@
     </row>
     <row r="78" spans="1:1024" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A78" s="241"/>
-      <c r="B78" s="231"/>
+      <c r="B78" s="233"/>
       <c r="C78" s="47" t="s">
         <v>182</v>
       </c>
@@ -30071,7 +30071,7 @@
     </row>
     <row r="79" spans="1:1024" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="241"/>
-      <c r="B79" s="231"/>
+      <c r="B79" s="233"/>
       <c r="C79" s="47" t="s">
         <v>185</v>
       </c>
@@ -31107,7 +31107,7 @@
     </row>
     <row r="80" spans="1:1024" s="14" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="242"/>
-      <c r="B80" s="232"/>
+      <c r="B80" s="234"/>
       <c r="C80" s="51" t="s">
         <v>25</v>
       </c>
@@ -32216,6 +32216,13 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" insertRows="0" deleteRows="0"/>
   <mergeCells count="14">
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="B52:B63"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A50:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A67:A73"/>
+    <mergeCell ref="A74:A80"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B38:B49"/>
     <mergeCell ref="A3:A11"/>
@@ -32223,13 +32230,6 @@
     <mergeCell ref="A18:A30"/>
     <mergeCell ref="A31:A35"/>
     <mergeCell ref="A36:A49"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="B52:B63"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A50:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:A73"/>
-    <mergeCell ref="A74:A80"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -32269,16 +32269,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="243" t="s">
-        <v>497</v>
-      </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="243"/>
-      <c r="H1" s="244"/>
+      <c r="A1" s="231" t="s">
+        <v>493</v>
+      </c>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="232"/>
     </row>
     <row r="2" spans="1:8" s="35" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
@@ -32307,7 +32307,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="245" t="s">
+      <c r="A3" s="235" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="27"/>
@@ -32319,7 +32319,7 @@
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="246"/>
+      <c r="A4" s="236"/>
       <c r="B4" s="47" t="s">
         <v>8</v>
       </c>
@@ -32334,12 +32334,12 @@
         <v>192</v>
       </c>
       <c r="G4" s="183" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="246"/>
+      <c r="A5" s="236"/>
       <c r="B5" s="47" t="s">
         <v>13</v>
       </c>
@@ -32359,7 +32359,7 @@
       <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="246"/>
+      <c r="A6" s="236"/>
       <c r="B6" s="47" t="s">
         <v>25</v>
       </c>
@@ -32379,7 +32379,7 @@
       <c r="H6" s="50"/>
     </row>
     <row r="7" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="246"/>
+      <c r="A7" s="236"/>
       <c r="B7" s="47" t="s">
         <v>26</v>
       </c>
@@ -32399,7 +32399,7 @@
       <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="246"/>
+      <c r="A8" s="236"/>
       <c r="B8" s="47" t="s">
         <v>30</v>
       </c>
@@ -32419,7 +32419,7 @@
       <c r="H8" s="50"/>
     </row>
     <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="246"/>
+      <c r="A9" s="236"/>
       <c r="B9" s="47" t="s">
         <v>16</v>
       </c>
@@ -32439,13 +32439,13 @@
       <c r="H9" s="50"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="246"/>
+      <c r="A10" s="236"/>
       <c r="B10" s="47" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="47" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E10" s="49" t="s">
         <v>20</v>
@@ -32454,12 +32454,12 @@
         <v>201</v>
       </c>
       <c r="G10" s="183" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H10" s="50"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="247"/>
+      <c r="A11" s="237"/>
       <c r="B11" s="51" t="s">
         <v>22</v>
       </c>
@@ -32523,7 +32523,7 @@
         <v>454</v>
       </c>
       <c r="F14" s="103" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G14" s="186" t="s">
         <v>12</v>
@@ -32569,16 +32569,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="243" t="s">
-        <v>498</v>
-      </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="243"/>
-      <c r="H1" s="244"/>
+      <c r="A1" s="231" t="s">
+        <v>494</v>
+      </c>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="232"/>
     </row>
     <row r="2" spans="1:1024" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
@@ -32607,7 +32607,7 @@
       </c>
     </row>
     <row r="3" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="245" t="s">
+      <c r="A3" s="235" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="37"/>
@@ -32657,7 +32657,7 @@
       <c r="AMJ3" s="5"/>
     </row>
     <row r="4" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="246"/>
+      <c r="A4" s="236"/>
       <c r="B4" s="105" t="s">
         <v>207</v>
       </c>
@@ -32670,12 +32670,12 @@
         <v>209</v>
       </c>
       <c r="G4" s="197" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H4" s="107"/>
     </row>
     <row r="5" spans="1:1024" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="246"/>
+      <c r="A5" s="236"/>
       <c r="B5" s="105" t="s">
         <v>210</v>
       </c>
@@ -32691,23 +32691,23 @@
       <c r="H5" s="107"/>
     </row>
     <row r="6" spans="1:1024" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="246"/>
+      <c r="A6" s="236"/>
       <c r="B6" s="105" t="s">
         <v>213</v>
       </c>
       <c r="C6" s="106"/>
       <c r="D6" s="105" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E6" s="106"/>
       <c r="F6" s="105" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G6" s="197"/>
       <c r="H6" s="107"/>
     </row>
     <row r="7" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="246"/>
+      <c r="A7" s="236"/>
       <c r="B7" s="105" t="s">
         <v>214</v>
       </c>
@@ -32717,13 +32717,13 @@
       </c>
       <c r="E7" s="106"/>
       <c r="F7" s="105" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="G7" s="197"/>
       <c r="H7" s="107"/>
     </row>
     <row r="8" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="246"/>
+      <c r="A8" s="236"/>
       <c r="B8" s="105" t="s">
         <v>215</v>
       </c>
@@ -32739,7 +32739,7 @@
       <c r="H8" s="107"/>
     </row>
     <row r="9" spans="1:1024" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="246"/>
+      <c r="A9" s="236"/>
       <c r="B9" s="105" t="s">
         <v>217</v>
       </c>
@@ -32749,7 +32749,7 @@
       </c>
       <c r="E9" s="106"/>
       <c r="F9" s="105" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G9" s="197" t="s">
         <v>43</v>
@@ -32757,7 +32757,7 @@
       <c r="H9" s="107"/>
     </row>
     <row r="10" spans="1:1024" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="246"/>
+      <c r="A10" s="236"/>
       <c r="B10" s="105" t="s">
         <v>219</v>
       </c>
@@ -32786,7 +32786,7 @@
       <c r="AMJ10" s="5"/>
     </row>
     <row r="11" spans="1:1024" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="246"/>
+      <c r="A11" s="236"/>
       <c r="B11" s="105" t="s">
         <v>3</v>
       </c>
@@ -32802,7 +32802,7 @@
       <c r="H11" s="107"/>
     </row>
     <row r="12" spans="1:1024" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="246"/>
+      <c r="A12" s="236"/>
       <c r="B12" s="105" t="s">
         <v>223</v>
       </c>
@@ -32812,7 +32812,7 @@
       </c>
       <c r="E12" s="106"/>
       <c r="F12" s="105" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="G12" s="197" t="s">
         <v>43</v>
@@ -32820,7 +32820,7 @@
       <c r="H12" s="107"/>
     </row>
     <row r="13" spans="1:1024" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="246"/>
+      <c r="A13" s="236"/>
       <c r="B13" s="105" t="s">
         <v>225</v>
       </c>
@@ -32838,9 +32838,9 @@
       <c r="H13" s="107"/>
     </row>
     <row r="14" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="246"/>
+      <c r="A14" s="236"/>
       <c r="B14" s="105" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C14" s="106"/>
       <c r="D14" s="105" t="s">
@@ -32848,7 +32848,7 @@
       </c>
       <c r="E14" s="106"/>
       <c r="F14" s="105" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G14" s="197" t="s">
         <v>43</v>
@@ -32856,7 +32856,7 @@
       <c r="H14" s="107"/>
     </row>
     <row r="15" spans="1:1024" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="247"/>
+      <c r="A15" s="237"/>
       <c r="B15" s="108" t="s">
         <v>229</v>
       </c>
@@ -32872,7 +32872,7 @@
       <c r="H15" s="110"/>
     </row>
     <row r="16" spans="1:1024" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="237" t="s">
+      <c r="A16" s="243" t="s">
         <v>154</v>
       </c>
       <c r="B16" s="111"/>
@@ -32885,13 +32885,13 @@
       <c r="AMJ16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="238"/>
+      <c r="A17" s="244"/>
       <c r="B17" s="113" t="s">
         <v>232</v>
       </c>
       <c r="C17" s="114"/>
       <c r="D17" s="113" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E17" s="114"/>
       <c r="F17" s="113" t="s">
@@ -32901,7 +32901,7 @@
       <c r="H17" s="115"/>
     </row>
     <row r="18" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="238"/>
+      <c r="A18" s="244"/>
       <c r="B18" s="113"/>
       <c r="C18" s="114" t="s">
         <v>1</v>
@@ -32911,13 +32911,13 @@
       </c>
       <c r="E18" s="114"/>
       <c r="F18" s="113" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="G18" s="200"/>
       <c r="H18" s="115"/>
     </row>
     <row r="19" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="238"/>
+      <c r="A19" s="244"/>
       <c r="B19" s="113"/>
       <c r="C19" s="114" t="s">
         <v>210</v>
@@ -32927,163 +32927,163 @@
       </c>
       <c r="E19" s="114"/>
       <c r="F19" s="113" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G19" s="200"/>
       <c r="H19" s="115"/>
     </row>
     <row r="20" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="238"/>
+      <c r="A20" s="244"/>
       <c r="B20" s="113"/>
       <c r="C20" s="114" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D20" s="113" t="s">
         <v>224</v>
       </c>
       <c r="E20" s="114"/>
       <c r="F20" s="113" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="G20" s="200"/>
       <c r="H20" s="115"/>
     </row>
     <row r="21" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="238"/>
+      <c r="A21" s="244"/>
       <c r="B21" s="113"/>
       <c r="C21" s="114" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D21" s="113" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E21" s="114"/>
       <c r="F21" s="113" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G21" s="200"/>
       <c r="H21" s="115"/>
     </row>
     <row r="22" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="238"/>
+      <c r="A22" s="244"/>
       <c r="B22" s="113"/>
       <c r="C22" s="114" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D22" s="113" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E22" s="114"/>
       <c r="F22" s="113" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="G22" s="200"/>
       <c r="H22" s="115"/>
     </row>
     <row r="23" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="238"/>
+      <c r="A23" s="244"/>
       <c r="B23" s="113"/>
       <c r="C23" s="114" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D23" s="113" t="s">
         <v>211</v>
       </c>
       <c r="E23" s="114"/>
       <c r="F23" s="113" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G23" s="200"/>
       <c r="H23" s="115"/>
     </row>
     <row r="24" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="238"/>
+      <c r="A24" s="244"/>
       <c r="B24" s="113"/>
       <c r="C24" s="114" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D24" s="113" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E24" s="114"/>
       <c r="F24" s="113" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="G24" s="200"/>
       <c r="H24" s="115"/>
     </row>
     <row r="25" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="238"/>
+      <c r="A25" s="244"/>
       <c r="B25" s="113"/>
       <c r="C25" s="114" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D25" s="113" t="s">
         <v>224</v>
       </c>
       <c r="E25" s="114"/>
       <c r="F25" s="113" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G25" s="200"/>
       <c r="H25" s="115"/>
     </row>
     <row r="26" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="238"/>
+      <c r="A26" s="244"/>
       <c r="B26" s="113"/>
       <c r="C26" s="114" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D26" s="113" t="s">
         <v>224</v>
       </c>
       <c r="E26" s="114"/>
       <c r="F26" s="113" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G26" s="200"/>
       <c r="H26" s="115"/>
     </row>
     <row r="27" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="238"/>
+      <c r="A27" s="244"/>
       <c r="B27" s="113"/>
       <c r="C27" s="114" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D27" s="113" t="s">
         <v>224</v>
       </c>
       <c r="E27" s="114"/>
       <c r="F27" s="113" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G27" s="200"/>
       <c r="H27" s="115"/>
     </row>
     <row r="28" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="238"/>
+      <c r="A28" s="244"/>
       <c r="B28" s="113"/>
       <c r="C28" s="114" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D28" s="113" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E28" s="114"/>
       <c r="F28" s="113" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="G28" s="200"/>
       <c r="H28" s="115"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="238"/>
+      <c r="A29" s="244"/>
       <c r="B29" s="113" t="s">
         <v>234</v>
       </c>
       <c r="C29" s="114"/>
       <c r="D29" s="113" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E29" s="114"/>
       <c r="F29" s="113" t="s">
@@ -33093,7 +33093,7 @@
       <c r="H29" s="115"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="238"/>
+      <c r="A30" s="244"/>
       <c r="B30" s="226"/>
       <c r="C30" s="114" t="s">
         <v>1</v>
@@ -33103,13 +33103,13 @@
       </c>
       <c r="E30" s="227"/>
       <c r="F30" s="113" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G30" s="228"/>
       <c r="H30" s="229"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="238"/>
+      <c r="A31" s="244"/>
       <c r="B31" s="226"/>
       <c r="C31" s="114" t="s">
         <v>210</v>
@@ -33119,157 +33119,157 @@
       </c>
       <c r="E31" s="227"/>
       <c r="F31" s="113" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="G31" s="228"/>
       <c r="H31" s="229"/>
     </row>
     <row r="32" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="238"/>
+      <c r="A32" s="244"/>
       <c r="B32" s="226"/>
       <c r="C32" s="114" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D32" s="113" t="s">
         <v>224</v>
       </c>
       <c r="E32" s="227"/>
       <c r="F32" s="113" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G32" s="228"/>
       <c r="H32" s="229"/>
     </row>
     <row r="33" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="238"/>
+      <c r="A33" s="244"/>
       <c r="B33" s="226"/>
       <c r="C33" s="114" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D33" s="113" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E33" s="227"/>
       <c r="F33" s="113" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="G33" s="228"/>
       <c r="H33" s="229"/>
     </row>
     <row r="34" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="238"/>
+      <c r="A34" s="244"/>
       <c r="B34" s="226"/>
       <c r="C34" s="114" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D34" s="113" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E34" s="227"/>
       <c r="F34" s="113" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G34" s="228"/>
       <c r="H34" s="229"/>
     </row>
     <row r="35" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="238"/>
+      <c r="A35" s="244"/>
       <c r="B35" s="226"/>
       <c r="C35" s="114" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D35" s="113" t="s">
         <v>211</v>
       </c>
       <c r="E35" s="227"/>
       <c r="F35" s="113" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="G35" s="228"/>
       <c r="H35" s="229"/>
     </row>
     <row r="36" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="238"/>
+      <c r="A36" s="244"/>
       <c r="B36" s="226"/>
       <c r="C36" s="114" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D36" s="113" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E36" s="227"/>
       <c r="F36" s="113" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="G36" s="228"/>
       <c r="H36" s="229"/>
     </row>
     <row r="37" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="238"/>
+      <c r="A37" s="244"/>
       <c r="B37" s="226"/>
       <c r="C37" s="114" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D37" s="113" t="s">
         <v>224</v>
       </c>
       <c r="E37" s="227"/>
       <c r="F37" s="113" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G37" s="228"/>
       <c r="H37" s="229"/>
     </row>
     <row r="38" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="238"/>
+      <c r="A38" s="244"/>
       <c r="B38" s="226"/>
       <c r="C38" s="114" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D38" s="113" t="s">
         <v>224</v>
       </c>
       <c r="E38" s="227"/>
       <c r="F38" s="113" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G38" s="228"/>
       <c r="H38" s="229"/>
     </row>
     <row r="39" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="238"/>
+      <c r="A39" s="244"/>
       <c r="B39" s="226"/>
       <c r="C39" s="114" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D39" s="113" t="s">
         <v>224</v>
       </c>
       <c r="E39" s="227"/>
       <c r="F39" s="113" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G39" s="228"/>
       <c r="H39" s="229"/>
     </row>
     <row r="40" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="238"/>
+      <c r="A40" s="244"/>
       <c r="B40" s="226"/>
       <c r="C40" s="114" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D40" s="113" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E40" s="227"/>
       <c r="F40" s="113" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="G40" s="228"/>
       <c r="H40" s="229"/>
     </row>
     <row r="41" spans="1:1024" ht="41.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="239"/>
+      <c r="A41" s="245"/>
       <c r="B41" s="116" t="s">
         <v>236</v>
       </c>
@@ -33279,7 +33279,7 @@
       </c>
       <c r="E41" s="117"/>
       <c r="F41" s="116" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G41" s="201" t="s">
         <v>43</v>
@@ -33287,7 +33287,7 @@
       <c r="H41" s="118"/>
     </row>
     <row r="42" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="240" t="s">
+      <c r="A42" s="246" t="s">
         <v>237</v>
       </c>
       <c r="B42" s="119"/>
@@ -33374,7 +33374,7 @@
       <c r="AMJ43" s="5"/>
     </row>
     <row r="44" spans="1:1024" s="7" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="237" t="s">
+      <c r="A44" s="243" t="s">
         <v>72</v>
       </c>
       <c r="B44" s="111"/>
@@ -33387,7 +33387,7 @@
       <c r="AMJ44" s="5"/>
     </row>
     <row r="45" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="238"/>
+      <c r="A45" s="244"/>
       <c r="B45" s="113" t="s">
         <v>73</v>
       </c>
@@ -33405,7 +33405,7 @@
       <c r="H45" s="115"/>
     </row>
     <row r="46" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="238"/>
+      <c r="A46" s="244"/>
       <c r="B46" s="113" t="s">
         <v>76</v>
       </c>
@@ -33423,7 +33423,7 @@
       <c r="H46" s="115"/>
     </row>
     <row r="47" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="239"/>
+      <c r="A47" s="245"/>
       <c r="B47" s="116" t="s">
         <v>79</v>
       </c>
@@ -33441,7 +33441,7 @@
       <c r="H47" s="118"/>
     </row>
     <row r="48" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="240" t="s">
+      <c r="A48" s="246" t="s">
         <v>244</v>
       </c>
       <c r="B48" s="121"/>
@@ -33654,8 +33654,8 @@
       <c r="H57" s="110"/>
     </row>
     <row r="58" spans="1:1024" s="7" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="237" t="s">
-        <v>510</v>
+      <c r="A58" s="243" t="s">
+        <v>506</v>
       </c>
       <c r="B58" s="123"/>
       <c r="C58" s="123"/>
@@ -33667,7 +33667,7 @@
       <c r="AMJ58" s="5"/>
     </row>
     <row r="59" spans="1:1024" ht="90.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="239"/>
+      <c r="A59" s="245"/>
       <c r="B59" s="116" t="s">
         <v>5</v>
       </c>
@@ -33729,16 +33729,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="243" t="s">
-        <v>499</v>
-      </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="243"/>
-      <c r="H1" s="244"/>
+      <c r="A1" s="231" t="s">
+        <v>495</v>
+      </c>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="232"/>
     </row>
     <row r="2" spans="1:1024" s="16" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
@@ -34784,7 +34784,7 @@
     </row>
     <row r="3" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="253" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B3" s="121"/>
       <c r="C3" s="121"/>
@@ -34823,7 +34823,7 @@
         <v>305</v>
       </c>
       <c r="G4" s="197" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H4" s="126"/>
     </row>
@@ -34843,14 +34843,14 @@
         <v>307</v>
       </c>
       <c r="G5" s="197" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H5" s="126"/>
     </row>
     <row r="6" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="254"/>
       <c r="B6" s="105" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C6" s="106"/>
       <c r="D6" s="105" t="s">
@@ -34863,7 +34863,7 @@
         <v>308</v>
       </c>
       <c r="G6" s="197" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H6" s="126"/>
     </row>
@@ -34877,13 +34877,13 @@
         <v>310</v>
       </c>
       <c r="E7" s="106" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F7" s="105" t="s">
         <v>311</v>
       </c>
       <c r="G7" s="197" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H7" s="126"/>
     </row>
@@ -34910,7 +34910,7 @@
         <v>211</v>
       </c>
       <c r="E9" s="114" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F9" s="113" t="s">
         <v>313</v>
@@ -35939,17 +35939,17 @@
     <row r="10" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="258"/>
       <c r="B10" s="113" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C10" s="114"/>
       <c r="D10" s="113" t="s">
         <v>211</v>
       </c>
       <c r="E10" s="114" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F10" s="113" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G10" s="200" t="s">
         <v>43</v>
@@ -36982,7 +36982,7 @@
         <v>211</v>
       </c>
       <c r="E11" s="114" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F11" s="113" t="s">
         <v>318</v>
@@ -38011,14 +38011,14 @@
     <row r="12" spans="1:1024" s="10" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="258"/>
       <c r="B12" s="113" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C12" s="114"/>
       <c r="D12" s="113" t="s">
         <v>319</v>
       </c>
       <c r="E12" s="117" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F12" s="116" t="s">
         <v>320</v>
@@ -39054,7 +39054,7 @@
         <v>315</v>
       </c>
       <c r="E13" s="114" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F13" s="113" t="s">
         <v>316</v>
@@ -40082,7 +40082,7 @@
     </row>
     <row r="14" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="253" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B14" s="121"/>
       <c r="C14" s="121"/>
@@ -40111,7 +40111,7 @@
         <v>322</v>
       </c>
       <c r="E15" s="109" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F15" s="108" t="s">
         <v>323</v>
@@ -42175,7 +42175,7 @@
         <v>220</v>
       </c>
       <c r="E17" s="114" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F17" s="113" t="s">
         <v>325</v>
@@ -42195,7 +42195,7 @@
         <v>220</v>
       </c>
       <c r="E18" s="114" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F18" s="113" t="s">
         <v>326</v>
@@ -42215,7 +42215,7 @@
         <v>322</v>
       </c>
       <c r="E19" s="117" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F19" s="116" t="s">
         <v>327</v>
@@ -42255,7 +42255,7 @@
         <v>211</v>
       </c>
       <c r="E21" s="106" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F21" s="105" t="s">
         <v>330</v>
@@ -42268,17 +42268,17 @@
     <row r="22" spans="1:1024" ht="146.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="254"/>
       <c r="B22" s="105" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C22" s="106"/>
       <c r="D22" s="105" t="s">
         <v>226</v>
       </c>
       <c r="E22" s="106" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F22" s="105" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G22" s="197" t="s">
         <v>332</v>
@@ -42288,14 +42288,14 @@
     <row r="23" spans="1:1024" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="255"/>
       <c r="B23" s="108" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C23" s="109"/>
       <c r="D23" s="108" t="s">
         <v>333</v>
       </c>
       <c r="E23" s="109" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F23" s="108" t="s">
         <v>334</v>
@@ -42307,7 +42307,7 @@
     </row>
     <row r="24" spans="1:1024" s="7" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="256" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B24" s="132"/>
       <c r="C24" s="132"/>
@@ -42332,7 +42332,7 @@
         <v>337</v>
       </c>
       <c r="G25" s="201" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="H25" s="130"/>
     </row>
@@ -42366,7 +42366,7 @@
         <v>211</v>
       </c>
       <c r="E27" s="106" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F27" s="105" t="s">
         <v>339</v>
@@ -42386,7 +42386,7 @@
         <v>211</v>
       </c>
       <c r="E28" s="106" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F28" s="105" t="s">
         <v>340</v>
@@ -42406,7 +42406,7 @@
         <v>211</v>
       </c>
       <c r="E29" s="106" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F29" s="105" t="s">
         <v>341</v>
@@ -42426,7 +42426,7 @@
         <v>211</v>
       </c>
       <c r="E30" s="106" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F30" s="105" t="s">
         <v>342</v>
@@ -42446,7 +42446,7 @@
         <v>211</v>
       </c>
       <c r="E31" s="109" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F31" s="108" t="s">
         <v>343</v>
@@ -42479,10 +42479,10 @@
         <v>211</v>
       </c>
       <c r="E33" s="114" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F33" s="113" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G33" s="200" t="s">
         <v>43</v>
@@ -42492,14 +42492,14 @@
     <row r="34" spans="1:8" ht="89.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="258"/>
       <c r="B34" s="113" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C34" s="227"/>
       <c r="D34" s="226" t="s">
         <v>319</v>
       </c>
       <c r="E34" s="114" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F34" s="226"/>
       <c r="G34" s="228" t="s">
@@ -42577,16 +42577,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="243" t="s">
-        <v>500</v>
-      </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="243"/>
-      <c r="H1" s="244"/>
+      <c r="A1" s="231" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="232"/>
     </row>
     <row r="2" spans="1:1024" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
@@ -42615,8 +42615,8 @@
       </c>
     </row>
     <row r="3" spans="1:1024" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="240" t="s">
-        <v>514</v>
+      <c r="A3" s="246" t="s">
+        <v>510</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -42657,7 +42657,7 @@
         <v>347</v>
       </c>
       <c r="G4" s="197" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H4" s="137"/>
     </row>
@@ -42677,7 +42677,7 @@
         <v>263</v>
       </c>
       <c r="G5" s="197" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H5" s="137"/>
     </row>
@@ -42715,7 +42715,7 @@
         <v>268</v>
       </c>
       <c r="G7" s="197" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H7" s="137"/>
     </row>
@@ -42735,7 +42735,7 @@
         <v>349</v>
       </c>
       <c r="G8" s="197" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H8" s="137"/>
     </row>
@@ -42755,7 +42755,7 @@
         <v>275</v>
       </c>
       <c r="G9" s="197" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H9" s="137"/>
     </row>
@@ -42965,16 +42965,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="243" t="s">
-        <v>501</v>
-      </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="243"/>
-      <c r="H1" s="244"/>
+      <c r="A1" s="231" t="s">
+        <v>497</v>
+      </c>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="232"/>
     </row>
     <row r="2" spans="1:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
@@ -43004,7 +43004,7 @@
     </row>
     <row r="3" spans="1:17" s="144" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="259" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B3" s="142"/>
       <c r="C3" s="142"/>
@@ -43030,7 +43030,7 @@
         <v>259</v>
       </c>
       <c r="G4" s="197" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H4" s="145"/>
       <c r="I4" s="144"/>
@@ -43059,7 +43059,7 @@
         <v>263</v>
       </c>
       <c r="G5" s="197" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H5" s="145"/>
       <c r="I5" s="144"/>
@@ -43115,7 +43115,7 @@
         <v>268</v>
       </c>
       <c r="G7" s="197" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H7" s="145"/>
       <c r="I7" s="144"/>
@@ -43144,7 +43144,7 @@
         <v>271</v>
       </c>
       <c r="G8" s="197" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H8" s="145"/>
       <c r="I8" s="144"/>
@@ -43173,7 +43173,7 @@
         <v>275</v>
       </c>
       <c r="G9" s="197" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H9" s="149"/>
       <c r="I9" s="144"/>
@@ -43471,16 +43471,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="243" t="s">
-        <v>502</v>
-      </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="243"/>
-      <c r="H1" s="244"/>
+      <c r="A1" s="231" t="s">
+        <v>498</v>
+      </c>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="232"/>
     </row>
     <row r="2" spans="1:20" s="153" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
@@ -43509,7 +43509,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" s="157" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="246" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="154"/>
@@ -43546,7 +43546,7 @@
         <v>371</v>
       </c>
       <c r="G4" s="183" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H4" s="159"/>
     </row>
@@ -43593,19 +43593,19 @@
       </c>
       <c r="C7" s="160"/>
       <c r="D7" s="160" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E7" s="160"/>
       <c r="F7" s="160" t="s">
         <v>374</v>
       </c>
       <c r="G7" s="184" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H7" s="161"/>
     </row>
     <row r="8" spans="1:20" s="156" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="237" t="s">
+      <c r="A8" s="243" t="s">
         <v>295</v>
       </c>
       <c r="B8" s="162"/>
@@ -43617,7 +43617,7 @@
       <c r="H8" s="163"/>
     </row>
     <row r="9" spans="1:20" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="238"/>
+      <c r="A9" s="244"/>
       <c r="B9" s="164" t="s">
         <v>30</v>
       </c>
@@ -43635,7 +43635,7 @@
       <c r="H9" s="165"/>
     </row>
     <row r="10" spans="1:20" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="238"/>
+      <c r="A10" s="244"/>
       <c r="B10" s="164" t="s">
         <v>377</v>
       </c>
@@ -43645,13 +43645,13 @@
       </c>
       <c r="E10" s="164"/>
       <c r="F10" s="164" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G10" s="186"/>
       <c r="H10" s="165"/>
     </row>
     <row r="11" spans="1:20" ht="40.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="238"/>
+      <c r="A11" s="244"/>
       <c r="B11" s="164"/>
       <c r="C11" s="164" t="s">
         <v>379</v>
@@ -43661,13 +43661,13 @@
       </c>
       <c r="E11" s="164"/>
       <c r="F11" s="164" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G11" s="186"/>
       <c r="H11" s="165"/>
     </row>
     <row r="12" spans="1:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="238"/>
+      <c r="A12" s="244"/>
       <c r="B12" s="164"/>
       <c r="C12" s="164" t="s">
         <v>380</v>
@@ -43677,13 +43677,13 @@
       </c>
       <c r="E12" s="164"/>
       <c r="F12" s="164" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="G12" s="186"/>
       <c r="H12" s="165"/>
     </row>
     <row r="13" spans="1:20" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="238"/>
+      <c r="A13" s="244"/>
       <c r="B13" s="164"/>
       <c r="C13" s="164" t="s">
         <v>381</v>
@@ -43693,19 +43693,19 @@
       </c>
       <c r="E13" s="164"/>
       <c r="F13" s="164" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G13" s="186"/>
       <c r="H13" s="165"/>
     </row>
     <row r="14" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="238"/>
+      <c r="A14" s="244"/>
       <c r="B14" s="164"/>
       <c r="C14" s="164" t="s">
         <v>382</v>
       </c>
       <c r="D14" s="164" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E14" s="164"/>
       <c r="F14" s="164" t="s">
@@ -43715,7 +43715,7 @@
       <c r="H14" s="165"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="238"/>
+      <c r="A15" s="244"/>
       <c r="B15" s="164"/>
       <c r="C15" s="164" t="s">
         <v>384</v>
@@ -43731,7 +43731,7 @@
       <c r="H15" s="165"/>
     </row>
     <row r="16" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="238"/>
+      <c r="A16" s="244"/>
       <c r="B16" s="164" t="s">
         <v>386</v>
       </c>
@@ -43741,13 +43741,13 @@
       </c>
       <c r="E16" s="164"/>
       <c r="F16" s="164" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G16" s="186"/>
       <c r="H16" s="165"/>
     </row>
     <row r="17" spans="1:19" ht="18.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="239"/>
+      <c r="A17" s="245"/>
       <c r="B17" s="166"/>
       <c r="C17" s="166" t="s">
         <v>384</v>
@@ -43763,7 +43763,7 @@
       <c r="H17" s="167"/>
     </row>
     <row r="18" spans="1:19" s="157" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="240" t="s">
+      <c r="A18" s="246" t="s">
         <v>388</v>
       </c>
       <c r="B18" s="168"/>
@@ -43796,7 +43796,7 @@
       </c>
       <c r="E19" s="158"/>
       <c r="F19" s="158" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G19" s="183" t="s">
         <v>43</v>
@@ -43894,16 +43894,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="243" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="243"/>
-      <c r="H1" s="244"/>
+      <c r="A1" s="231" t="s">
+        <v>499</v>
+      </c>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="232"/>
     </row>
     <row r="2" spans="1:1024" s="42" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
@@ -44948,7 +44948,7 @@
       <c r="AMJ2" s="41"/>
     </row>
     <row r="3" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="246" t="s">
         <v>397</v>
       </c>
       <c r="B3" s="172"/>
@@ -54248,7 +54248,7 @@
       <c r="AMJ12" s="25"/>
     </row>
     <row r="13" spans="1:1024" s="20" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="237" t="s">
+      <c r="A13" s="243" t="s">
         <v>412</v>
       </c>
       <c r="B13" s="175"/>
@@ -54261,7 +54261,7 @@
       <c r="AMJ13" s="21"/>
     </row>
     <row r="14" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="238"/>
+      <c r="A14" s="244"/>
       <c r="B14" s="69" t="s">
         <v>207</v>
       </c>
@@ -54277,7 +54277,7 @@
       <c r="H14" s="177"/>
     </row>
     <row r="15" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="238"/>
+      <c r="A15" s="244"/>
       <c r="B15" s="69" t="s">
         <v>260</v>
       </c>
@@ -54293,7 +54293,7 @@
       <c r="H15" s="177"/>
     </row>
     <row r="16" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="238"/>
+      <c r="A16" s="244"/>
       <c r="B16" s="69" t="s">
         <v>213</v>
       </c>
@@ -54309,7 +54309,7 @@
       <c r="H16" s="177"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="238"/>
+      <c r="A17" s="244"/>
       <c r="B17" s="69" t="s">
         <v>266</v>
       </c>
@@ -54325,7 +54325,7 @@
       <c r="H17" s="177"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="238"/>
+      <c r="A18" s="244"/>
       <c r="B18" s="69" t="s">
         <v>210</v>
       </c>
@@ -54341,7 +54341,7 @@
       <c r="H18" s="177"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="238"/>
+      <c r="A19" s="244"/>
       <c r="B19" s="69" t="s">
         <v>5</v>
       </c>
@@ -54357,7 +54357,7 @@
       <c r="H19" s="177"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="238"/>
+      <c r="A20" s="244"/>
       <c r="B20" s="69" t="s">
         <v>418</v>
       </c>
@@ -54373,7 +54373,7 @@
       <c r="H20" s="177"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="238"/>
+      <c r="A21" s="244"/>
       <c r="B21" s="69" t="s">
         <v>319</v>
       </c>
@@ -54389,7 +54389,7 @@
       <c r="H21" s="177"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="238"/>
+      <c r="A22" s="244"/>
       <c r="B22" s="69" t="s">
         <v>421</v>
       </c>
@@ -54405,7 +54405,7 @@
       <c r="H22" s="177"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="238"/>
+      <c r="A23" s="244"/>
       <c r="B23" s="69" t="s">
         <v>423</v>
       </c>
@@ -54421,7 +54421,7 @@
       <c r="H23" s="177"/>
     </row>
     <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="239"/>
+      <c r="A24" s="245"/>
       <c r="B24" s="73" t="s">
         <v>425</v>
       </c>
@@ -54437,7 +54437,7 @@
       <c r="H24" s="178"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="240" t="s">
+      <c r="A25" s="246" t="s">
         <v>354</v>
       </c>
       <c r="B25" s="179"/>
@@ -54625,7 +54625,7 @@
       <c r="H36" s="181"/>
     </row>
     <row r="37" spans="1:1024" s="20" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="237" t="s">
+      <c r="A37" s="243" t="s">
         <v>282</v>
       </c>
       <c r="B37" s="175"/>
@@ -54638,7 +54638,7 @@
       <c r="AMJ37" s="21"/>
     </row>
     <row r="38" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="238"/>
+      <c r="A38" s="244"/>
       <c r="B38" s="69" t="s">
         <v>207</v>
       </c>
@@ -54654,7 +54654,7 @@
       <c r="H38" s="177"/>
     </row>
     <row r="39" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="238"/>
+      <c r="A39" s="244"/>
       <c r="B39" s="69" t="s">
         <v>260</v>
       </c>
@@ -54670,7 +54670,7 @@
       <c r="H39" s="177"/>
     </row>
     <row r="40" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="238"/>
+      <c r="A40" s="244"/>
       <c r="B40" s="69" t="s">
         <v>213</v>
       </c>
@@ -54686,7 +54686,7 @@
       <c r="H40" s="177"/>
     </row>
     <row r="41" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="238"/>
+      <c r="A41" s="244"/>
       <c r="B41" s="69" t="s">
         <v>266</v>
       </c>
@@ -54702,7 +54702,7 @@
       <c r="H41" s="177"/>
     </row>
     <row r="42" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="238"/>
+      <c r="A42" s="244"/>
       <c r="B42" s="69" t="s">
         <v>444</v>
       </c>
@@ -54718,7 +54718,7 @@
       <c r="H42" s="177"/>
     </row>
     <row r="43" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="238"/>
+      <c r="A43" s="244"/>
       <c r="B43" s="69" t="s">
         <v>354</v>
       </c>
@@ -54734,7 +54734,7 @@
       <c r="H43" s="177"/>
     </row>
     <row r="44" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="238"/>
+      <c r="A44" s="244"/>
       <c r="B44" s="69" t="s">
         <v>210</v>
       </c>
@@ -54750,7 +54750,7 @@
       <c r="H44" s="177"/>
     </row>
     <row r="45" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="238"/>
+      <c r="A45" s="244"/>
       <c r="B45" s="69" t="s">
         <v>408</v>
       </c>
@@ -54766,7 +54766,7 @@
       <c r="H45" s="177"/>
     </row>
     <row r="46" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="238"/>
+      <c r="A46" s="244"/>
       <c r="B46" s="69" t="s">
         <v>449</v>
       </c>
@@ -54782,7 +54782,7 @@
       <c r="H46" s="177"/>
     </row>
     <row r="47" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="238"/>
+      <c r="A47" s="244"/>
       <c r="B47" s="69" t="s">
         <v>5</v>
       </c>
@@ -54798,7 +54798,7 @@
       <c r="H47" s="177"/>
     </row>
     <row r="48" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="239"/>
+      <c r="A48" s="245"/>
       <c r="B48" s="73" t="s">
         <v>421</v>
       </c>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\jay\code\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3519BDEC-F0BF-4FDF-B47F-DDF5E48412EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02E9736-1C64-4F72-8515-53AF49E0AEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="24270" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5745" yWindow="2085" windowWidth="24270" windowHeight="11385" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Microservice" sheetId="1" r:id="rId1"/>
@@ -678,9 +678,6 @@
     <t>listOfMicroservices</t>
   </si>
   <si>
-    <t>{microserviceAsset_id_121241241}</t>
-  </si>
-  <si>
     <t>a list of Microservice Asset IDs, which are contained in the algorithm</t>
   </si>
   <si>
@@ -1423,9 +1420,6 @@
   </si>
   <si>
     <t>Map( String: String)</t>
-  </si>
-  <si>
-    <t>{microserviceA:hostB, microserviceB:hostB, microserviceC:hostC}</t>
   </si>
   <si>
     <t>docker-compose</t>
@@ -1814,6 +1808,12 @@
   </si>
   <si>
     <t>A note for developers of co-operating Microservices.  A list of directories that are shared on the host where this microservice will store its outputs</t>
+  </si>
+  <si>
+    <t>[microservice.microservice_id_A, microservice.microservice_id_B]</t>
+  </si>
+  <si>
+    <t>{microservice.microservice_id_A: deployment.microservice_id_B, microservice.microservice_id_B: deployment.microservice_id_B}</t>
   </si>
 </sst>
 </file>
@@ -4174,8 +4174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E10" sqref="E10"/>
       <selection pane="topRight" activeCell="E10" sqref="E10"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
@@ -4197,7 +4197,7 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="231" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B1" s="231"/>
       <c r="C1" s="231"/>
@@ -4261,7 +4261,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="183" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H4" s="50"/>
     </row>
@@ -4312,7 +4312,7 @@
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="47" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E7" s="49" t="s">
         <v>20</v>
@@ -4321,7 +4321,7 @@
         <v>21</v>
       </c>
       <c r="G7" s="183" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H7" s="50"/>
     </row>
@@ -4355,10 +4355,10 @@
         <v>9</v>
       </c>
       <c r="E9" s="49" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G9" s="183" t="s">
         <v>12</v>
@@ -4427,7 +4427,7 @@
         <v>36</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F13" s="55" t="s">
         <v>37</v>
@@ -4444,13 +4444,13 @@
       </c>
       <c r="C14" s="56"/>
       <c r="D14" s="55" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F14" s="55" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G14" s="188" t="s">
         <v>12</v>
@@ -4460,17 +4460,17 @@
     <row r="15" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="239"/>
       <c r="B15" s="55" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C15" s="56"/>
       <c r="D15" s="55" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F15" s="55" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G15" s="188" t="s">
         <v>43</v>
@@ -5496,17 +5496,17 @@
     <row r="16" spans="1:1024" s="10" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A16" s="239"/>
       <c r="B16" s="55" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C16" s="56"/>
       <c r="D16" s="55" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E16" s="57" t="s">
+        <v>561</v>
+      </c>
+      <c r="F16" s="55" t="s">
         <v>563</v>
-      </c>
-      <c r="F16" s="55" t="s">
-        <v>565</v>
       </c>
       <c r="G16" s="188" t="s">
         <v>43</v>
@@ -6532,17 +6532,17 @@
     <row r="17" spans="1:1024" s="10" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="240"/>
       <c r="B17" s="221" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C17" s="222"/>
       <c r="D17" s="221" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E17" s="223" t="s">
+        <v>562</v>
+      </c>
+      <c r="F17" s="221" t="s">
         <v>564</v>
-      </c>
-      <c r="F17" s="221" t="s">
-        <v>566</v>
       </c>
       <c r="G17" s="224" t="s">
         <v>43</v>
@@ -20368,7 +20368,7 @@
         <v>136</v>
       </c>
       <c r="F49" s="51" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G49" s="184" t="s">
         <v>43</v>
@@ -21658,7 +21658,7 @@
         <v>136</v>
       </c>
       <c r="F63" s="85" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G63" s="187" t="s">
         <v>43</v>
@@ -32246,8 +32246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFC14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E10" sqref="E10"/>
       <selection pane="topRight" activeCell="E10" sqref="E10"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
@@ -32270,7 +32270,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="231" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B1" s="231"/>
       <c r="C1" s="231"/>
@@ -32334,7 +32334,7 @@
         <v>192</v>
       </c>
       <c r="G4" s="183" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H4" s="50"/>
     </row>
@@ -32445,7 +32445,7 @@
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="47" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E10" s="49" t="s">
         <v>20</v>
@@ -32454,7 +32454,7 @@
         <v>201</v>
       </c>
       <c r="G10" s="183" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H10" s="50"/>
     </row>
@@ -32500,10 +32500,10 @@
         <v>31</v>
       </c>
       <c r="E13" s="104" t="s">
+        <v>565</v>
+      </c>
+      <c r="F13" s="103" t="s">
         <v>205</v>
-      </c>
-      <c r="F13" s="103" t="s">
-        <v>206</v>
       </c>
       <c r="G13" s="186" t="s">
         <v>12</v>
@@ -32513,17 +32513,17 @@
     <row r="14" spans="1:8" ht="103.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="252"/>
       <c r="B14" s="103" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C14" s="103"/>
       <c r="D14" s="103" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E14" s="104" t="s">
-        <v>454</v>
+        <v>566</v>
       </c>
       <c r="F14" s="103" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G14" s="186" t="s">
         <v>12</v>
@@ -32570,7 +32570,7 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="231" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B1" s="231"/>
       <c r="C1" s="231"/>
@@ -32659,33 +32659,33 @@
     <row r="4" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="236"/>
       <c r="B4" s="105" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C4" s="106"/>
       <c r="D4" s="105" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E4" s="106"/>
       <c r="F4" s="105" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G4" s="197" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H4" s="107"/>
     </row>
     <row r="5" spans="1:1024" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="236"/>
       <c r="B5" s="105" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C5" s="106"/>
       <c r="D5" s="105" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E5" s="106"/>
       <c r="F5" s="105" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G5" s="197"/>
       <c r="H5" s="107"/>
@@ -32693,15 +32693,15 @@
     <row r="6" spans="1:1024" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="236"/>
       <c r="B6" s="105" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C6" s="106"/>
       <c r="D6" s="105" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E6" s="106"/>
       <c r="F6" s="105" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G6" s="197"/>
       <c r="H6" s="107"/>
@@ -32709,15 +32709,15 @@
     <row r="7" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="236"/>
       <c r="B7" s="105" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C7" s="106"/>
       <c r="D7" s="105" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E7" s="106"/>
       <c r="F7" s="105" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G7" s="197"/>
       <c r="H7" s="107"/>
@@ -32725,15 +32725,15 @@
     <row r="8" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="236"/>
       <c r="B8" s="105" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C8" s="106"/>
       <c r="D8" s="105" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E8" s="106"/>
       <c r="F8" s="105" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G8" s="197"/>
       <c r="H8" s="107"/>
@@ -32741,15 +32741,15 @@
     <row r="9" spans="1:1024" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="236"/>
       <c r="B9" s="105" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="106"/>
       <c r="D9" s="105" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E9" s="106"/>
       <c r="F9" s="105" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G9" s="197" t="s">
         <v>43</v>
@@ -32759,15 +32759,15 @@
     <row r="10" spans="1:1024" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="236"/>
       <c r="B10" s="105" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="106"/>
       <c r="D10" s="105" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E10" s="106"/>
       <c r="F10" s="105" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G10" s="197"/>
       <c r="H10" s="107"/>
@@ -32792,11 +32792,11 @@
       </c>
       <c r="C11" s="106"/>
       <c r="D11" s="105" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E11" s="106"/>
       <c r="F11" s="105" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G11" s="197"/>
       <c r="H11" s="107"/>
@@ -32804,15 +32804,15 @@
     <row r="12" spans="1:1024" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="236"/>
       <c r="B12" s="105" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C12" s="106"/>
       <c r="D12" s="105" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E12" s="106"/>
       <c r="F12" s="105" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G12" s="197" t="s">
         <v>43</v>
@@ -32822,33 +32822,33 @@
     <row r="13" spans="1:1024" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="236"/>
       <c r="B13" s="105" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C13" s="106"/>
       <c r="D13" s="105" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E13" s="106"/>
       <c r="F13" s="105" t="s">
+        <v>226</v>
+      </c>
+      <c r="G13" s="197" t="s">
         <v>227</v>
-      </c>
-      <c r="G13" s="197" t="s">
-        <v>228</v>
       </c>
       <c r="H13" s="107"/>
     </row>
     <row r="14" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="236"/>
       <c r="B14" s="105" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C14" s="106"/>
       <c r="D14" s="105" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E14" s="106"/>
       <c r="F14" s="105" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G14" s="197" t="s">
         <v>43</v>
@@ -32858,15 +32858,15 @@
     <row r="15" spans="1:1024" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="237"/>
       <c r="B15" s="108" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="109"/>
       <c r="D15" s="108" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E15" s="109"/>
       <c r="F15" s="108" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G15" s="198"/>
       <c r="H15" s="110"/>
@@ -32887,15 +32887,15 @@
     <row r="17" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="244"/>
       <c r="B17" s="113" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C17" s="114"/>
       <c r="D17" s="113" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E17" s="114"/>
       <c r="F17" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G17" s="200"/>
       <c r="H17" s="115"/>
@@ -32907,11 +32907,11 @@
         <v>1</v>
       </c>
       <c r="D18" s="113" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E18" s="114"/>
       <c r="F18" s="113" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G18" s="200"/>
       <c r="H18" s="115"/>
@@ -32920,14 +32920,14 @@
       <c r="A19" s="244"/>
       <c r="B19" s="113"/>
       <c r="C19" s="114" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" s="113" t="s">
         <v>210</v>
-      </c>
-      <c r="D19" s="113" t="s">
-        <v>211</v>
       </c>
       <c r="E19" s="114"/>
       <c r="F19" s="113" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G19" s="200"/>
       <c r="H19" s="115"/>
@@ -32936,14 +32936,14 @@
       <c r="A20" s="244"/>
       <c r="B20" s="113"/>
       <c r="C20" s="114" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D20" s="113" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E20" s="114"/>
       <c r="F20" s="113" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G20" s="200"/>
       <c r="H20" s="115"/>
@@ -32952,14 +32952,14 @@
       <c r="A21" s="244"/>
       <c r="B21" s="113"/>
       <c r="C21" s="114" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D21" s="113" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E21" s="114"/>
       <c r="F21" s="113" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G21" s="200"/>
       <c r="H21" s="115"/>
@@ -32968,14 +32968,14 @@
       <c r="A22" s="244"/>
       <c r="B22" s="113"/>
       <c r="C22" s="114" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D22" s="113" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E22" s="114"/>
       <c r="F22" s="113" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G22" s="200"/>
       <c r="H22" s="115"/>
@@ -32984,14 +32984,14 @@
       <c r="A23" s="244"/>
       <c r="B23" s="113"/>
       <c r="C23" s="114" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D23" s="113" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E23" s="114"/>
       <c r="F23" s="113" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G23" s="200"/>
       <c r="H23" s="115"/>
@@ -33000,14 +33000,14 @@
       <c r="A24" s="244"/>
       <c r="B24" s="113"/>
       <c r="C24" s="114" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D24" s="113" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E24" s="114"/>
       <c r="F24" s="113" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G24" s="200"/>
       <c r="H24" s="115"/>
@@ -33016,14 +33016,14 @@
       <c r="A25" s="244"/>
       <c r="B25" s="113"/>
       <c r="C25" s="114" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D25" s="113" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E25" s="114"/>
       <c r="F25" s="113" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G25" s="200"/>
       <c r="H25" s="115"/>
@@ -33032,14 +33032,14 @@
       <c r="A26" s="244"/>
       <c r="B26" s="113"/>
       <c r="C26" s="114" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D26" s="113" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E26" s="114"/>
       <c r="F26" s="113" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G26" s="200"/>
       <c r="H26" s="115"/>
@@ -33048,14 +33048,14 @@
       <c r="A27" s="244"/>
       <c r="B27" s="113"/>
       <c r="C27" s="114" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D27" s="113" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E27" s="114"/>
       <c r="F27" s="113" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G27" s="200"/>
       <c r="H27" s="115"/>
@@ -33064,14 +33064,14 @@
       <c r="A28" s="244"/>
       <c r="B28" s="113"/>
       <c r="C28" s="114" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D28" s="113" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E28" s="114"/>
       <c r="F28" s="113" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G28" s="200"/>
       <c r="H28" s="115"/>
@@ -33079,15 +33079,15 @@
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="244"/>
       <c r="B29" s="113" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C29" s="114"/>
       <c r="D29" s="113" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E29" s="114"/>
       <c r="F29" s="113" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G29" s="200"/>
       <c r="H29" s="115"/>
@@ -33099,11 +33099,11 @@
         <v>1</v>
       </c>
       <c r="D30" s="113" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E30" s="227"/>
       <c r="F30" s="113" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G30" s="228"/>
       <c r="H30" s="229"/>
@@ -33112,14 +33112,14 @@
       <c r="A31" s="244"/>
       <c r="B31" s="226"/>
       <c r="C31" s="114" t="s">
+        <v>209</v>
+      </c>
+      <c r="D31" s="113" t="s">
         <v>210</v>
-      </c>
-      <c r="D31" s="113" t="s">
-        <v>211</v>
       </c>
       <c r="E31" s="227"/>
       <c r="F31" s="113" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G31" s="228"/>
       <c r="H31" s="229"/>
@@ -33128,14 +33128,14 @@
       <c r="A32" s="244"/>
       <c r="B32" s="226"/>
       <c r="C32" s="114" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D32" s="113" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E32" s="227"/>
       <c r="F32" s="113" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G32" s="228"/>
       <c r="H32" s="229"/>
@@ -33144,14 +33144,14 @@
       <c r="A33" s="244"/>
       <c r="B33" s="226"/>
       <c r="C33" s="114" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D33" s="113" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E33" s="227"/>
       <c r="F33" s="113" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G33" s="228"/>
       <c r="H33" s="229"/>
@@ -33160,14 +33160,14 @@
       <c r="A34" s="244"/>
       <c r="B34" s="226"/>
       <c r="C34" s="114" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D34" s="113" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E34" s="227"/>
       <c r="F34" s="113" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G34" s="228"/>
       <c r="H34" s="229"/>
@@ -33176,14 +33176,14 @@
       <c r="A35" s="244"/>
       <c r="B35" s="226"/>
       <c r="C35" s="114" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D35" s="113" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E35" s="227"/>
       <c r="F35" s="113" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G35" s="228"/>
       <c r="H35" s="229"/>
@@ -33192,14 +33192,14 @@
       <c r="A36" s="244"/>
       <c r="B36" s="226"/>
       <c r="C36" s="114" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D36" s="113" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E36" s="227"/>
       <c r="F36" s="113" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G36" s="228"/>
       <c r="H36" s="229"/>
@@ -33208,14 +33208,14 @@
       <c r="A37" s="244"/>
       <c r="B37" s="226"/>
       <c r="C37" s="114" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D37" s="113" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E37" s="227"/>
       <c r="F37" s="113" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G37" s="228"/>
       <c r="H37" s="229"/>
@@ -33224,14 +33224,14 @@
       <c r="A38" s="244"/>
       <c r="B38" s="226"/>
       <c r="C38" s="114" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D38" s="113" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E38" s="227"/>
       <c r="F38" s="113" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G38" s="228"/>
       <c r="H38" s="229"/>
@@ -33240,14 +33240,14 @@
       <c r="A39" s="244"/>
       <c r="B39" s="226"/>
       <c r="C39" s="114" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D39" s="113" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E39" s="227"/>
       <c r="F39" s="113" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G39" s="228"/>
       <c r="H39" s="229"/>
@@ -33256,14 +33256,14 @@
       <c r="A40" s="244"/>
       <c r="B40" s="226"/>
       <c r="C40" s="114" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D40" s="113" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E40" s="227"/>
       <c r="F40" s="113" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G40" s="228"/>
       <c r="H40" s="229"/>
@@ -33271,15 +33271,15 @@
     <row r="41" spans="1:1024" ht="41.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="245"/>
       <c r="B41" s="116" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C41" s="117"/>
       <c r="D41" s="116" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E41" s="117"/>
       <c r="F41" s="116" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G41" s="201" t="s">
         <v>43</v>
@@ -33288,7 +33288,7 @@
     </row>
     <row r="42" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="246" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B42" s="119"/>
       <c r="C42" s="119"/>
@@ -33339,15 +33339,15 @@
     <row r="43" spans="1:1024" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="242"/>
       <c r="B43" s="108" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C43" s="109"/>
       <c r="D43" s="108" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E43" s="109"/>
       <c r="F43" s="108" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G43" s="201" t="s">
         <v>43</v>
@@ -33393,11 +33393,11 @@
       </c>
       <c r="C45" s="114"/>
       <c r="D45" s="113" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E45" s="114"/>
       <c r="F45" s="113" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G45" s="201" t="s">
         <v>43</v>
@@ -33411,11 +33411,11 @@
       </c>
       <c r="C46" s="114"/>
       <c r="D46" s="113" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E46" s="114"/>
       <c r="F46" s="113" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G46" s="201" t="s">
         <v>43</v>
@@ -33429,11 +33429,11 @@
       </c>
       <c r="C47" s="117"/>
       <c r="D47" s="116" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E47" s="117"/>
       <c r="F47" s="116" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G47" s="201" t="s">
         <v>43</v>
@@ -33442,7 +33442,7 @@
     </row>
     <row r="48" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="246" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B48" s="121"/>
       <c r="C48" s="121"/>
@@ -33474,15 +33474,15 @@
     <row r="49" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="241"/>
       <c r="B49" s="105" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C49" s="106"/>
       <c r="D49" s="105" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E49" s="106"/>
       <c r="F49" s="105" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G49" s="197" t="s">
         <v>43</v>
@@ -33492,15 +33492,15 @@
     <row r="50" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="241"/>
       <c r="B50" s="105" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C50" s="106"/>
       <c r="D50" s="105" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E50" s="106"/>
       <c r="F50" s="105" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G50" s="197" t="s">
         <v>43</v>
@@ -33514,11 +33514,11 @@
       </c>
       <c r="C51" s="106"/>
       <c r="D51" s="105" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E51" s="106"/>
       <c r="F51" s="105" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G51" s="197" t="s">
         <v>43</v>
@@ -33532,11 +33532,11 @@
       </c>
       <c r="C52" s="106"/>
       <c r="D52" s="105" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E52" s="106"/>
       <c r="F52" s="105" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G52" s="197" t="s">
         <v>43</v>
@@ -33550,11 +33550,11 @@
       </c>
       <c r="C53" s="106"/>
       <c r="D53" s="105" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E53" s="106"/>
       <c r="F53" s="105" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G53" s="197" t="s">
         <v>43</v>
@@ -33588,11 +33588,11 @@
       </c>
       <c r="C54" s="106"/>
       <c r="D54" s="105" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E54" s="106"/>
       <c r="F54" s="105" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G54" s="197" t="s">
         <v>43</v>
@@ -33606,11 +33606,11 @@
       </c>
       <c r="C55" s="106"/>
       <c r="D55" s="105" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E55" s="106"/>
       <c r="F55" s="105" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G55" s="197" t="s">
         <v>43</v>
@@ -33624,11 +33624,11 @@
       </c>
       <c r="C56" s="106"/>
       <c r="D56" s="105" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E56" s="106"/>
       <c r="F56" s="105" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G56" s="197" t="s">
         <v>43</v>
@@ -33642,11 +33642,11 @@
       </c>
       <c r="C57" s="109"/>
       <c r="D57" s="108" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E57" s="109"/>
       <c r="F57" s="108" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G57" s="198" t="s">
         <v>43</v>
@@ -33655,7 +33655,7 @@
     </row>
     <row r="58" spans="1:1024" s="7" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="243" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B58" s="123"/>
       <c r="C58" s="123"/>
@@ -33673,11 +33673,11 @@
       </c>
       <c r="C59" s="117"/>
       <c r="D59" s="116" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E59" s="117"/>
       <c r="F59" s="116" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G59" s="201"/>
       <c r="H59" s="118"/>
@@ -33730,7 +33730,7 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="231" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B1" s="231"/>
       <c r="C1" s="231"/>
@@ -34784,7 +34784,7 @@
     </row>
     <row r="3" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="253" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B3" s="121"/>
       <c r="C3" s="121"/>
@@ -34810,80 +34810,80 @@
     <row r="4" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="254"/>
       <c r="B4" s="105" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C4" s="106"/>
       <c r="D4" s="105" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="106" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F4" s="105" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G4" s="197" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H4" s="126"/>
     </row>
     <row r="5" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="254"/>
       <c r="B5" s="105" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C5" s="106"/>
       <c r="D5" s="105" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="106" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F5" s="105" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G5" s="197" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H5" s="126"/>
     </row>
     <row r="6" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="254"/>
       <c r="B6" s="105" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C6" s="106"/>
       <c r="D6" s="105" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="106" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F6" s="105" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G6" s="197" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H6" s="126"/>
     </row>
     <row r="7" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="254"/>
       <c r="B7" s="105" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C7" s="106"/>
       <c r="D7" s="105" t="s">
+        <v>309</v>
+      </c>
+      <c r="E7" s="106" t="s">
+        <v>470</v>
+      </c>
+      <c r="F7" s="105" t="s">
         <v>310</v>
       </c>
-      <c r="E7" s="106" t="s">
-        <v>472</v>
-      </c>
-      <c r="F7" s="105" t="s">
-        <v>311</v>
-      </c>
       <c r="G7" s="197" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H7" s="126"/>
     </row>
@@ -34903,17 +34903,17 @@
     <row r="9" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="258"/>
       <c r="B9" s="113" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C9" s="114"/>
       <c r="D9" s="113" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E9" s="114" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F9" s="113" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G9" s="206" t="s">
         <v>12</v>
@@ -35939,17 +35939,17 @@
     <row r="10" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="258"/>
       <c r="B10" s="113" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C10" s="114"/>
       <c r="D10" s="113" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E10" s="114" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F10" s="113" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G10" s="200" t="s">
         <v>43</v>
@@ -36975,17 +36975,17 @@
     <row r="11" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="258"/>
       <c r="B11" s="113" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C11" s="114"/>
       <c r="D11" s="113" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E11" s="114" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F11" s="113" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G11" s="200" t="s">
         <v>43</v>
@@ -38011,17 +38011,17 @@
     <row r="12" spans="1:1024" s="10" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="258"/>
       <c r="B12" s="113" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C12" s="114"/>
       <c r="D12" s="113" t="s">
+        <v>318</v>
+      </c>
+      <c r="E12" s="117" t="s">
+        <v>483</v>
+      </c>
+      <c r="F12" s="116" t="s">
         <v>319</v>
-      </c>
-      <c r="E12" s="117" t="s">
-        <v>485</v>
-      </c>
-      <c r="F12" s="116" t="s">
-        <v>320</v>
       </c>
       <c r="G12" s="200" t="s">
         <v>43</v>
@@ -39047,17 +39047,17 @@
     <row r="13" spans="1:1024" s="10" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="258"/>
       <c r="B13" s="113" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C13" s="114"/>
       <c r="D13" s="113" t="s">
+        <v>314</v>
+      </c>
+      <c r="E13" s="114" t="s">
+        <v>474</v>
+      </c>
+      <c r="F13" s="113" t="s">
         <v>315</v>
-      </c>
-      <c r="E13" s="114" t="s">
-        <v>476</v>
-      </c>
-      <c r="F13" s="113" t="s">
-        <v>316</v>
       </c>
       <c r="G13" s="200" t="s">
         <v>43</v>
@@ -40082,7 +40082,7 @@
     </row>
     <row r="14" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="253" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B14" s="121"/>
       <c r="C14" s="121"/>
@@ -40104,17 +40104,17 @@
     <row r="15" spans="1:1024" s="16" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="255"/>
       <c r="B15" s="108" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C15" s="109"/>
       <c r="D15" s="108" t="s">
+        <v>321</v>
+      </c>
+      <c r="E15" s="109" t="s">
+        <v>484</v>
+      </c>
+      <c r="F15" s="108" t="s">
         <v>322</v>
-      </c>
-      <c r="E15" s="109" t="s">
-        <v>486</v>
-      </c>
-      <c r="F15" s="108" t="s">
-        <v>323</v>
       </c>
       <c r="G15" s="198" t="s">
         <v>43</v>
@@ -41139,7 +41139,7 @@
     </row>
     <row r="16" spans="1:1024" s="40" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="256" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B16" s="111"/>
       <c r="C16" s="111"/>
@@ -42172,13 +42172,13 @@
       </c>
       <c r="C17" s="114"/>
       <c r="D17" s="113" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E17" s="114" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F17" s="113" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G17" s="206" t="s">
         <v>12</v>
@@ -42192,13 +42192,13 @@
       </c>
       <c r="C18" s="114"/>
       <c r="D18" s="113" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E18" s="114" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F18" s="113" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G18" s="206" t="s">
         <v>12</v>
@@ -42212,22 +42212,22 @@
       </c>
       <c r="C19" s="117"/>
       <c r="D19" s="116" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E19" s="117" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F19" s="116" t="s">
+        <v>326</v>
+      </c>
+      <c r="G19" s="201" t="s">
         <v>327</v>
-      </c>
-      <c r="G19" s="201" t="s">
-        <v>328</v>
       </c>
       <c r="H19" s="130"/>
     </row>
     <row r="20" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="253" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B20" s="121"/>
       <c r="C20" s="121"/>
@@ -42252,62 +42252,62 @@
       </c>
       <c r="C21" s="106"/>
       <c r="D21" s="105" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E21" s="106" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F21" s="105" t="s">
+        <v>329</v>
+      </c>
+      <c r="G21" s="197" t="s">
         <v>330</v>
-      </c>
-      <c r="G21" s="197" t="s">
-        <v>331</v>
       </c>
       <c r="H21" s="126"/>
     </row>
     <row r="22" spans="1:1024" ht="146.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="254"/>
       <c r="B22" s="105" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C22" s="106"/>
       <c r="D22" s="105" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E22" s="106" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F22" s="105" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G22" s="197" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H22" s="126"/>
     </row>
     <row r="23" spans="1:1024" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="255"/>
       <c r="B23" s="108" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C23" s="109"/>
       <c r="D23" s="108" t="s">
+        <v>332</v>
+      </c>
+      <c r="E23" s="109" t="s">
+        <v>481</v>
+      </c>
+      <c r="F23" s="108" t="s">
         <v>333</v>
       </c>
-      <c r="E23" s="109" t="s">
-        <v>483</v>
-      </c>
-      <c r="F23" s="108" t="s">
-        <v>334</v>
-      </c>
       <c r="G23" s="198" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H23" s="127"/>
     </row>
     <row r="24" spans="1:1024" s="7" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="256" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B24" s="132"/>
       <c r="C24" s="132"/>
@@ -42321,24 +42321,24 @@
     <row r="25" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="257"/>
       <c r="B25" s="116" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C25" s="117"/>
       <c r="D25" s="116" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E25" s="117"/>
       <c r="F25" s="116" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G25" s="201" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H25" s="130"/>
     </row>
     <row r="26" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="253" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B26" s="121"/>
       <c r="C26" s="121"/>
@@ -42363,13 +42363,13 @@
       </c>
       <c r="C27" s="106"/>
       <c r="D27" s="105" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E27" s="106" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F27" s="105" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G27" s="197" t="s">
         <v>43</v>
@@ -42383,13 +42383,13 @@
       </c>
       <c r="C28" s="106"/>
       <c r="D28" s="105" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E28" s="106" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F28" s="105" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G28" s="197" t="s">
         <v>43</v>
@@ -42403,13 +42403,13 @@
       </c>
       <c r="C29" s="106"/>
       <c r="D29" s="105" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E29" s="106" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F29" s="105" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G29" s="197" t="s">
         <v>43</v>
@@ -42423,13 +42423,13 @@
       </c>
       <c r="C30" s="106"/>
       <c r="D30" s="105" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E30" s="106" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F30" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G30" s="197" t="s">
         <v>43</v>
@@ -42443,13 +42443,13 @@
       </c>
       <c r="C31" s="109"/>
       <c r="D31" s="108" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E31" s="109" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F31" s="108" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G31" s="198" t="s">
         <v>43</v>
@@ -42458,7 +42458,7 @@
     </row>
     <row r="32" spans="1:1024" s="7" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="256" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B32" s="123"/>
       <c r="C32" s="123"/>
@@ -42476,13 +42476,13 @@
       </c>
       <c r="C33" s="114"/>
       <c r="D33" s="113" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E33" s="114" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F33" s="113" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G33" s="200" t="s">
         <v>43</v>
@@ -42492,14 +42492,14 @@
     <row r="34" spans="1:8" ht="89.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="258"/>
       <c r="B34" s="113" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C34" s="227"/>
       <c r="D34" s="226" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E34" s="114" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F34" s="226"/>
       <c r="G34" s="228" t="s">
@@ -42510,15 +42510,15 @@
     <row r="35" spans="1:8" ht="44.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="257"/>
       <c r="B35" s="116" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C35" s="117"/>
       <c r="D35" s="116" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E35" s="117"/>
       <c r="F35" s="116" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G35" s="201" t="s">
         <v>43</v>
@@ -42578,7 +42578,7 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="231" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B1" s="231"/>
       <c r="C1" s="231"/>
@@ -42616,7 +42616,7 @@
     </row>
     <row r="3" spans="1:1024" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="246" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -42644,47 +42644,47 @@
     <row r="4" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="241"/>
       <c r="B4" s="106" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C4" s="106"/>
       <c r="D4" s="136" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E4" s="106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F4" s="136" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G4" s="197" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H4" s="137"/>
     </row>
     <row r="5" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="241"/>
       <c r="B5" s="106" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C5" s="106"/>
       <c r="D5" s="136" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="106" t="s">
         <v>261</v>
       </c>
-      <c r="E5" s="106" t="s">
+      <c r="F5" s="136" t="s">
         <v>262</v>
       </c>
-      <c r="F5" s="136" t="s">
-        <v>263</v>
-      </c>
       <c r="G5" s="197" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H5" s="137"/>
     </row>
     <row r="6" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="241"/>
       <c r="B6" s="106" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C6" s="106"/>
       <c r="D6" s="136" t="s">
@@ -42694,7 +42694,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="136" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G6" s="197"/>
       <c r="H6" s="137"/>
@@ -42702,77 +42702,77 @@
     <row r="7" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="241"/>
       <c r="B7" s="106" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C7" s="106"/>
       <c r="D7" s="136" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E7" s="106" t="s">
+        <v>266</v>
+      </c>
+      <c r="F7" s="136" t="s">
         <v>267</v>
       </c>
-      <c r="F7" s="136" t="s">
-        <v>268</v>
-      </c>
       <c r="G7" s="197" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H7" s="137"/>
     </row>
     <row r="8" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="241"/>
       <c r="B8" s="106" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C8" s="106"/>
       <c r="D8" s="136" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E8" s="106" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F8" s="136" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G8" s="197" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H8" s="137"/>
     </row>
     <row r="9" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="241"/>
       <c r="B9" s="106" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C9" s="106"/>
       <c r="D9" s="136" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E9" s="106" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F9" s="136" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G9" s="197" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H9" s="137"/>
     </row>
     <row r="10" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="241"/>
       <c r="B10" s="106" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C10" s="106"/>
       <c r="D10" s="136" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E10" s="106" t="s">
+        <v>350</v>
+      </c>
+      <c r="F10" s="136" t="s">
         <v>351</v>
-      </c>
-      <c r="F10" s="136" t="s">
-        <v>352</v>
       </c>
       <c r="G10" s="197"/>
       <c r="H10" s="137"/>
@@ -42780,17 +42780,17 @@
     <row r="11" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="241"/>
       <c r="B11" s="106" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C11" s="106"/>
       <c r="D11" s="106" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E11" s="106" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F11" s="136" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G11" s="197"/>
       <c r="H11" s="137"/>
@@ -42798,17 +42798,17 @@
     <row r="12" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="241"/>
       <c r="B12" s="106" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C12" s="106"/>
       <c r="D12" s="136" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E12" s="106" t="s">
+        <v>354</v>
+      </c>
+      <c r="F12" s="136" t="s">
         <v>355</v>
-      </c>
-      <c r="F12" s="136" t="s">
-        <v>356</v>
       </c>
       <c r="G12" s="197"/>
       <c r="H12" s="137"/>
@@ -42816,17 +42816,17 @@
     <row r="13" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="241"/>
       <c r="B13" s="106" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C13" s="106"/>
       <c r="D13" s="136" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E13" s="106" t="s">
+        <v>286</v>
+      </c>
+      <c r="F13" s="136" t="s">
         <v>287</v>
-      </c>
-      <c r="F13" s="136" t="s">
-        <v>288</v>
       </c>
       <c r="G13" s="197"/>
       <c r="H13" s="137"/>
@@ -42834,17 +42834,17 @@
     <row r="14" spans="1:1024" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A14" s="241"/>
       <c r="B14" s="106" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C14" s="106"/>
       <c r="D14" s="136" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E14" s="136" t="s">
+        <v>358</v>
+      </c>
+      <c r="F14" s="136" t="s">
         <v>359</v>
-      </c>
-      <c r="F14" s="136" t="s">
-        <v>360</v>
       </c>
       <c r="G14" s="197"/>
       <c r="H14" s="137"/>
@@ -42852,17 +42852,17 @@
     <row r="15" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="241"/>
       <c r="B15" s="106" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C15" s="106"/>
       <c r="D15" s="136" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E15" s="136" t="s">
+        <v>361</v>
+      </c>
+      <c r="F15" s="136" t="s">
         <v>362</v>
-      </c>
-      <c r="F15" s="136" t="s">
-        <v>363</v>
       </c>
       <c r="G15" s="197"/>
       <c r="H15" s="137"/>
@@ -42870,17 +42870,17 @@
     <row r="16" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="241"/>
       <c r="B16" s="106" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C16" s="106"/>
       <c r="D16" s="136" t="s">
+        <v>364</v>
+      </c>
+      <c r="E16" s="136" t="s">
         <v>365</v>
       </c>
-      <c r="E16" s="136" t="s">
+      <c r="F16" s="136" t="s">
         <v>366</v>
-      </c>
-      <c r="F16" s="136" t="s">
-        <v>367</v>
       </c>
       <c r="G16" s="197"/>
       <c r="H16" s="137"/>
@@ -42888,7 +42888,7 @@
     <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="241"/>
       <c r="B17" s="106" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C17" s="106"/>
       <c r="D17" s="106" t="s">
@@ -42898,7 +42898,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="136" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G17" s="197"/>
       <c r="H17" s="137"/>
@@ -42906,17 +42906,17 @@
     <row r="18" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="242"/>
       <c r="B18" s="109" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C18" s="109"/>
       <c r="D18" s="109" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="109" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F18" s="138" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G18" s="198"/>
       <c r="H18" s="139"/>
@@ -42966,7 +42966,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="231" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B1" s="231"/>
       <c r="C1" s="231"/>
@@ -43004,7 +43004,7 @@
     </row>
     <row r="3" spans="1:17" s="144" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="259" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B3" s="142"/>
       <c r="C3" s="142"/>
@@ -43017,20 +43017,20 @@
     <row r="4" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A4" s="260"/>
       <c r="B4" s="106" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C4" s="106"/>
       <c r="D4" s="105" t="s">
+        <v>256</v>
+      </c>
+      <c r="E4" s="136" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="136" t="s">
+      <c r="F4" s="105" t="s">
         <v>258</v>
       </c>
-      <c r="F4" s="105" t="s">
-        <v>259</v>
-      </c>
       <c r="G4" s="197" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H4" s="145"/>
       <c r="I4" s="144"/>
@@ -43046,20 +43046,20 @@
     <row r="5" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="260"/>
       <c r="B5" s="106" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C5" s="106"/>
       <c r="D5" s="105" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="136" t="s">
         <v>261</v>
       </c>
-      <c r="E5" s="136" t="s">
+      <c r="F5" s="106" t="s">
         <v>262</v>
       </c>
-      <c r="F5" s="106" t="s">
-        <v>263</v>
-      </c>
       <c r="G5" s="197" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H5" s="145"/>
       <c r="I5" s="144"/>
@@ -43075,17 +43075,17 @@
     <row r="6" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="260"/>
       <c r="B6" s="106" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C6" s="106"/>
       <c r="D6" s="105" t="s">
         <v>163</v>
       </c>
       <c r="E6" s="136" t="s">
+        <v>263</v>
+      </c>
+      <c r="F6" s="106" t="s">
         <v>264</v>
-      </c>
-      <c r="F6" s="106" t="s">
-        <v>265</v>
       </c>
       <c r="G6" s="197"/>
       <c r="H6" s="145"/>
@@ -43102,20 +43102,20 @@
     <row r="7" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A7" s="260"/>
       <c r="B7" s="106" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C7" s="106"/>
       <c r="D7" s="105" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E7" s="136" t="s">
+        <v>266</v>
+      </c>
+      <c r="F7" s="106" t="s">
         <v>267</v>
       </c>
-      <c r="F7" s="106" t="s">
-        <v>268</v>
-      </c>
       <c r="G7" s="197" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H7" s="145"/>
       <c r="I7" s="144"/>
@@ -43131,20 +43131,20 @@
     <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A8" s="260"/>
       <c r="B8" s="106" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C8" s="106"/>
       <c r="D8" s="105" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E8" s="136" t="s">
+        <v>269</v>
+      </c>
+      <c r="F8" s="106" t="s">
         <v>270</v>
       </c>
-      <c r="F8" s="106" t="s">
-        <v>271</v>
-      </c>
       <c r="G8" s="197" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H8" s="145"/>
       <c r="I8" s="144"/>
@@ -43160,20 +43160,20 @@
     <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A9" s="260"/>
       <c r="B9" s="106" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C9" s="106"/>
       <c r="D9" s="105" t="s">
+        <v>272</v>
+      </c>
+      <c r="E9" s="148" t="s">
         <v>273</v>
       </c>
-      <c r="E9" s="148" t="s">
+      <c r="F9" s="106" t="s">
         <v>274</v>
       </c>
-      <c r="F9" s="106" t="s">
-        <v>275</v>
-      </c>
       <c r="G9" s="197" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H9" s="149"/>
       <c r="I9" s="144"/>
@@ -43189,17 +43189,17 @@
     <row r="10" spans="1:17" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="260"/>
       <c r="B10" s="106" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C10" s="106"/>
       <c r="D10" s="105" t="s">
+        <v>275</v>
+      </c>
+      <c r="E10" s="136" t="s">
         <v>276</v>
       </c>
-      <c r="E10" s="136" t="s">
+      <c r="F10" s="106" t="s">
         <v>277</v>
-      </c>
-      <c r="F10" s="106" t="s">
-        <v>278</v>
       </c>
       <c r="G10" s="197"/>
       <c r="H10" s="145"/>
@@ -43216,17 +43216,17 @@
     <row r="11" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="260"/>
       <c r="B11" s="106" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C11" s="106"/>
       <c r="D11" s="105" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E11" s="136" t="s">
+        <v>279</v>
+      </c>
+      <c r="F11" s="106" t="s">
         <v>280</v>
-      </c>
-      <c r="F11" s="106" t="s">
-        <v>281</v>
       </c>
       <c r="G11" s="197"/>
       <c r="H11" s="145"/>
@@ -43243,17 +43243,17 @@
     <row r="12" spans="1:17" s="151" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A12" s="260"/>
       <c r="B12" s="106" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C12" s="106"/>
       <c r="D12" s="105" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E12" s="136" t="s">
+        <v>282</v>
+      </c>
+      <c r="F12" s="106" t="s">
         <v>283</v>
-      </c>
-      <c r="F12" s="106" t="s">
-        <v>284</v>
       </c>
       <c r="G12" s="197"/>
       <c r="H12" s="145"/>
@@ -43270,17 +43270,17 @@
     <row r="13" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A13" s="260"/>
       <c r="B13" s="106" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C13" s="106"/>
       <c r="D13" s="105" t="s">
+        <v>285</v>
+      </c>
+      <c r="E13" s="136" t="s">
         <v>286</v>
       </c>
-      <c r="E13" s="136" t="s">
+      <c r="F13" s="106" t="s">
         <v>287</v>
-      </c>
-      <c r="F13" s="106" t="s">
-        <v>288</v>
       </c>
       <c r="G13" s="197"/>
       <c r="H13" s="145"/>
@@ -43297,17 +43297,17 @@
     <row r="14" spans="1:17" ht="37.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="260"/>
       <c r="B14" s="106" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C14" s="106"/>
       <c r="D14" s="105" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E14" s="136" t="s">
+        <v>289</v>
+      </c>
+      <c r="F14" s="106" t="s">
         <v>290</v>
-      </c>
-      <c r="F14" s="106" t="s">
-        <v>291</v>
       </c>
       <c r="G14" s="197"/>
       <c r="H14" s="145"/>
@@ -43324,17 +43324,17 @@
     <row r="15" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="260"/>
       <c r="B15" s="106" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C15" s="106"/>
       <c r="D15" s="105" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E15" s="136" t="s">
+        <v>292</v>
+      </c>
+      <c r="F15" s="106" t="s">
         <v>293</v>
-      </c>
-      <c r="F15" s="106" t="s">
-        <v>294</v>
       </c>
       <c r="G15" s="197"/>
       <c r="H15" s="145"/>
@@ -43351,17 +43351,17 @@
     <row r="16" spans="1:17" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A16" s="260"/>
       <c r="B16" s="106" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C16" s="106"/>
       <c r="D16" s="105" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E16" s="136" t="s">
+        <v>295</v>
+      </c>
+      <c r="F16" s="106" t="s">
         <v>296</v>
-      </c>
-      <c r="F16" s="106" t="s">
-        <v>297</v>
       </c>
       <c r="G16" s="197"/>
       <c r="H16" s="145"/>
@@ -43378,17 +43378,17 @@
     <row r="17" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="260"/>
       <c r="B17" s="106" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C17" s="106"/>
       <c r="D17" s="106" t="s">
+        <v>298</v>
+      </c>
+      <c r="E17" s="106" t="s">
         <v>299</v>
       </c>
-      <c r="E17" s="106" t="s">
+      <c r="F17" s="106" t="s">
         <v>300</v>
-      </c>
-      <c r="F17" s="106" t="s">
-        <v>301</v>
       </c>
       <c r="G17" s="197"/>
       <c r="H17" s="137"/>
@@ -43405,17 +43405,17 @@
     <row r="18" spans="1:17" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="261"/>
       <c r="B18" s="109" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C18" s="109"/>
       <c r="D18" s="109" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="109" t="s">
+        <v>302</v>
+      </c>
+      <c r="F18" s="109" t="s">
         <v>303</v>
-      </c>
-      <c r="F18" s="109" t="s">
-        <v>304</v>
       </c>
       <c r="G18" s="198"/>
       <c r="H18" s="139"/>
@@ -43472,7 +43472,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="231" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B1" s="231"/>
       <c r="C1" s="231"/>
@@ -43539,14 +43539,14 @@
       </c>
       <c r="C4" s="158"/>
       <c r="D4" s="158" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E4" s="158"/>
       <c r="F4" s="158" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G4" s="183" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H4" s="159"/>
     </row>
@@ -43561,7 +43561,7 @@
       </c>
       <c r="E5" s="158"/>
       <c r="F5" s="158" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G5" s="183" t="s">
         <v>12</v>
@@ -43579,7 +43579,7 @@
       </c>
       <c r="E6" s="158"/>
       <c r="F6" s="158" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G6" s="183" t="s">
         <v>12</v>
@@ -43593,20 +43593,20 @@
       </c>
       <c r="C7" s="160"/>
       <c r="D7" s="160" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E7" s="160"/>
       <c r="F7" s="160" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G7" s="184" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H7" s="161"/>
     </row>
     <row r="8" spans="1:20" s="156" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="243" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B8" s="162"/>
       <c r="C8" s="162"/>
@@ -43623,11 +43623,11 @@
       </c>
       <c r="C9" s="164"/>
       <c r="D9" s="164" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E9" s="164"/>
       <c r="F9" s="164" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G9" s="214" t="s">
         <v>12</v>
@@ -43637,15 +43637,15 @@
     <row r="10" spans="1:20" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="244"/>
       <c r="B10" s="164" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C10" s="164"/>
       <c r="D10" s="164" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E10" s="164"/>
       <c r="F10" s="164" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G10" s="186"/>
       <c r="H10" s="165"/>
@@ -43654,14 +43654,14 @@
       <c r="A11" s="244"/>
       <c r="B11" s="164"/>
       <c r="C11" s="164" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D11" s="164" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E11" s="164"/>
       <c r="F11" s="164" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G11" s="186"/>
       <c r="H11" s="165"/>
@@ -43670,14 +43670,14 @@
       <c r="A12" s="244"/>
       <c r="B12" s="164"/>
       <c r="C12" s="164" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D12" s="164" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E12" s="164"/>
       <c r="F12" s="164" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G12" s="186"/>
       <c r="H12" s="165"/>
@@ -43686,14 +43686,14 @@
       <c r="A13" s="244"/>
       <c r="B13" s="164"/>
       <c r="C13" s="164" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D13" s="164" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E13" s="164"/>
       <c r="F13" s="164" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G13" s="186"/>
       <c r="H13" s="165"/>
@@ -43702,14 +43702,14 @@
       <c r="A14" s="244"/>
       <c r="B14" s="164"/>
       <c r="C14" s="164" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D14" s="164" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E14" s="164"/>
       <c r="F14" s="164" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G14" s="186"/>
       <c r="H14" s="165"/>
@@ -43718,14 +43718,14 @@
       <c r="A15" s="244"/>
       <c r="B15" s="164"/>
       <c r="C15" s="164" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D15" s="164" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E15" s="164"/>
       <c r="F15" s="164" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G15" s="186"/>
       <c r="H15" s="165"/>
@@ -43733,15 +43733,15 @@
     <row r="16" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="244"/>
       <c r="B16" s="164" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C16" s="164"/>
       <c r="D16" s="164" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E16" s="164"/>
       <c r="F16" s="164" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G16" s="186"/>
       <c r="H16" s="165"/>
@@ -43750,21 +43750,21 @@
       <c r="A17" s="245"/>
       <c r="B17" s="166"/>
       <c r="C17" s="166" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D17" s="166" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E17" s="166"/>
       <c r="F17" s="166" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G17" s="187"/>
       <c r="H17" s="167"/>
     </row>
     <row r="18" spans="1:19" s="157" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="246" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B18" s="168"/>
       <c r="C18" s="168"/>
@@ -43788,15 +43788,15 @@
     <row r="19" spans="1:19" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="241"/>
       <c r="B19" s="158" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C19" s="158"/>
       <c r="D19" s="158" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E19" s="158"/>
       <c r="F19" s="158" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G19" s="183" t="s">
         <v>43</v>
@@ -43807,14 +43807,14 @@
       <c r="A20" s="241"/>
       <c r="B20" s="158"/>
       <c r="C20" s="158" t="s">
+        <v>389</v>
+      </c>
+      <c r="D20" s="158" t="s">
         <v>390</v>
-      </c>
-      <c r="D20" s="158" t="s">
-        <v>391</v>
       </c>
       <c r="E20" s="158"/>
       <c r="F20" s="158" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G20" s="183"/>
       <c r="H20" s="159"/>
@@ -43823,14 +43823,14 @@
       <c r="A21" s="241"/>
       <c r="B21" s="158"/>
       <c r="C21" s="158" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D21" s="158" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E21" s="158"/>
       <c r="F21" s="158" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G21" s="183"/>
       <c r="H21" s="159"/>
@@ -43839,14 +43839,14 @@
       <c r="A22" s="242"/>
       <c r="B22" s="160"/>
       <c r="C22" s="160" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D22" s="160" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E22" s="160"/>
       <c r="F22" s="160" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G22" s="184"/>
       <c r="H22" s="161"/>
@@ -43895,7 +43895,7 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="231" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B1" s="231"/>
       <c r="C1" s="231"/>
@@ -44949,7 +44949,7 @@
     </row>
     <row r="3" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="246" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B3" s="172"/>
       <c r="C3" s="172"/>
@@ -44962,15 +44962,15 @@
     <row r="4" spans="1:1024" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="241"/>
       <c r="B4" s="47" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C4" s="158"/>
       <c r="D4" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E4" s="47"/>
       <c r="F4" s="158" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G4" s="47"/>
       <c r="H4" s="159"/>
@@ -45994,15 +45994,15 @@
     <row r="5" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="241"/>
       <c r="B5" s="47" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C5" s="158"/>
       <c r="D5" s="47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E5" s="47"/>
       <c r="F5" s="158" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G5" s="47"/>
       <c r="H5" s="159"/>
@@ -47026,7 +47026,7 @@
     <row r="6" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="241"/>
       <c r="B6" s="47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C6" s="158"/>
       <c r="D6" s="47" t="s">
@@ -47034,7 +47034,7 @@
       </c>
       <c r="E6" s="47"/>
       <c r="F6" s="158" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G6" s="47"/>
       <c r="H6" s="174"/>
@@ -48058,15 +48058,15 @@
     <row r="7" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="241"/>
       <c r="B7" s="47" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C7" s="158"/>
       <c r="D7" s="47" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E7" s="47"/>
       <c r="F7" s="158" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G7" s="47"/>
       <c r="H7" s="159"/>
@@ -49090,15 +49090,15 @@
     <row r="8" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="241"/>
       <c r="B8" s="47" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C8" s="158"/>
       <c r="D8" s="47" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E8" s="47"/>
       <c r="F8" s="158" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G8" s="47"/>
       <c r="H8" s="159"/>
@@ -50122,15 +50122,15 @@
     <row r="9" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="241"/>
       <c r="B9" s="47" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C9" s="158"/>
       <c r="D9" s="47" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E9" s="47"/>
       <c r="F9" s="158" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G9" s="47"/>
       <c r="H9" s="159"/>
@@ -51154,15 +51154,15 @@
     <row r="10" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="241"/>
       <c r="B10" s="47" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C10" s="158"/>
       <c r="D10" s="47" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E10" s="47"/>
       <c r="F10" s="158" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G10" s="47"/>
       <c r="H10" s="159"/>
@@ -52186,15 +52186,15 @@
     <row r="11" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="241"/>
       <c r="B11" s="47" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C11" s="158"/>
       <c r="D11" s="47" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E11" s="47"/>
       <c r="F11" s="158" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G11" s="47"/>
       <c r="H11" s="159"/>
@@ -53218,15 +53218,15 @@
     <row r="12" spans="1:1024" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="242"/>
       <c r="B12" s="51" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C12" s="160"/>
       <c r="D12" s="51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E12" s="51"/>
       <c r="F12" s="160" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G12" s="51"/>
       <c r="H12" s="161"/>
@@ -54249,7 +54249,7 @@
     </row>
     <row r="13" spans="1:1024" s="20" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="243" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B13" s="175"/>
       <c r="C13" s="175"/>
@@ -54263,15 +54263,15 @@
     <row r="14" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="244"/>
       <c r="B14" s="69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C14" s="69"/>
       <c r="D14" s="69" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E14" s="69"/>
       <c r="F14" s="69" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G14" s="69"/>
       <c r="H14" s="177"/>
@@ -54279,15 +54279,15 @@
     <row r="15" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="244"/>
       <c r="B15" s="69" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C15" s="69"/>
       <c r="D15" s="69" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E15" s="69"/>
       <c r="F15" s="69" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G15" s="69"/>
       <c r="H15" s="177"/>
@@ -54295,7 +54295,7 @@
     <row r="16" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="244"/>
       <c r="B16" s="69" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C16" s="69"/>
       <c r="D16" s="69" t="s">
@@ -54303,7 +54303,7 @@
       </c>
       <c r="E16" s="69"/>
       <c r="F16" s="69" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G16" s="69"/>
       <c r="H16" s="177"/>
@@ -54311,15 +54311,15 @@
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="244"/>
       <c r="B17" s="69" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C17" s="69"/>
       <c r="D17" s="69" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E17" s="69"/>
       <c r="F17" s="69" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G17" s="69"/>
       <c r="H17" s="177"/>
@@ -54327,15 +54327,15 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="244"/>
       <c r="B18" s="69" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C18" s="69"/>
       <c r="D18" s="69" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E18" s="69"/>
       <c r="F18" s="69" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G18" s="69"/>
       <c r="H18" s="177"/>
@@ -54347,11 +54347,11 @@
       </c>
       <c r="C19" s="69"/>
       <c r="D19" s="69" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E19" s="69"/>
       <c r="F19" s="69" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G19" s="69"/>
       <c r="H19" s="177"/>
@@ -54359,15 +54359,15 @@
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="244"/>
       <c r="B20" s="69" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C20" s="69"/>
       <c r="D20" s="69" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E20" s="69"/>
       <c r="F20" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G20" s="69"/>
       <c r="H20" s="177"/>
@@ -54375,15 +54375,15 @@
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="244"/>
       <c r="B21" s="69" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C21" s="69"/>
       <c r="D21" s="69" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E21" s="69"/>
       <c r="F21" s="69" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G21" s="69"/>
       <c r="H21" s="177"/>
@@ -54391,15 +54391,15 @@
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="244"/>
       <c r="B22" s="69" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C22" s="69"/>
       <c r="D22" s="69" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E22" s="69"/>
       <c r="F22" s="69" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G22" s="69"/>
       <c r="H22" s="177"/>
@@ -54407,7 +54407,7 @@
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="244"/>
       <c r="B23" s="69" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C23" s="69"/>
       <c r="D23" s="69" t="s">
@@ -54415,7 +54415,7 @@
       </c>
       <c r="E23" s="69"/>
       <c r="F23" s="69" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G23" s="69"/>
       <c r="H23" s="177"/>
@@ -54423,7 +54423,7 @@
     <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="245"/>
       <c r="B24" s="73" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C24" s="73"/>
       <c r="D24" s="73" t="s">
@@ -54431,14 +54431,14 @@
       </c>
       <c r="E24" s="73"/>
       <c r="F24" s="73" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G24" s="73"/>
       <c r="H24" s="178"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="246" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B25" s="179"/>
       <c r="C25" s="179"/>
@@ -54451,15 +54451,15 @@
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="241"/>
       <c r="B26" s="47" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C26" s="47"/>
       <c r="D26" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E26" s="47"/>
       <c r="F26" s="47" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G26" s="47"/>
       <c r="H26" s="174"/>
@@ -54467,15 +54467,15 @@
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="241"/>
       <c r="B27" s="47" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C27" s="47"/>
       <c r="D27" s="47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E27" s="47"/>
       <c r="F27" s="47" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G27" s="47"/>
       <c r="H27" s="174"/>
@@ -54483,7 +54483,7 @@
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="241"/>
       <c r="B28" s="47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C28" s="47"/>
       <c r="D28" s="47" t="s">
@@ -54491,7 +54491,7 @@
       </c>
       <c r="E28" s="47"/>
       <c r="F28" s="47" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G28" s="47"/>
       <c r="H28" s="174"/>
@@ -54499,15 +54499,15 @@
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="241"/>
       <c r="B29" s="47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C29" s="47"/>
       <c r="D29" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E29" s="47"/>
       <c r="F29" s="47" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G29" s="47"/>
       <c r="H29" s="174"/>
@@ -54515,15 +54515,15 @@
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="241"/>
       <c r="B30" s="47" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C30" s="47"/>
       <c r="D30" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E30" s="47"/>
       <c r="F30" s="47" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G30" s="47"/>
       <c r="H30" s="174"/>
@@ -54531,15 +54531,15 @@
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="241"/>
       <c r="B31" s="47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C31" s="47"/>
       <c r="D31" s="47" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E31" s="47"/>
       <c r="F31" s="47" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G31" s="47"/>
       <c r="H31" s="174"/>
@@ -54547,15 +54547,15 @@
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="241"/>
       <c r="B32" s="47" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C32" s="47"/>
       <c r="D32" s="47" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E32" s="47"/>
       <c r="F32" s="47" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G32" s="47"/>
       <c r="H32" s="174"/>
@@ -54563,15 +54563,15 @@
     <row r="33" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="241"/>
       <c r="B33" s="47" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C33" s="47"/>
       <c r="D33" s="47" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E33" s="47"/>
       <c r="F33" s="47" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G33" s="47"/>
       <c r="H33" s="174"/>
@@ -54583,11 +54583,11 @@
       </c>
       <c r="C34" s="47"/>
       <c r="D34" s="47" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E34" s="47"/>
       <c r="F34" s="47" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G34" s="47"/>
       <c r="H34" s="174"/>
@@ -54595,15 +54595,15 @@
     <row r="35" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="241"/>
       <c r="B35" s="47" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C35" s="47"/>
       <c r="D35" s="47" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E35" s="47"/>
       <c r="F35" s="47" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G35" s="47"/>
       <c r="H35" s="174"/>
@@ -54611,22 +54611,22 @@
     <row r="36" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="242"/>
       <c r="B36" s="51" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C36" s="51"/>
       <c r="D36" s="51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E36" s="51"/>
       <c r="F36" s="51" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G36" s="51"/>
       <c r="H36" s="181"/>
     </row>
     <row r="37" spans="1:1024" s="20" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="243" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B37" s="175"/>
       <c r="C37" s="175"/>
@@ -54640,15 +54640,15 @@
     <row r="38" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="244"/>
       <c r="B38" s="69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C38" s="69"/>
       <c r="D38" s="69" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E38" s="69"/>
       <c r="F38" s="69" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G38" s="69"/>
       <c r="H38" s="177"/>
@@ -54656,15 +54656,15 @@
     <row r="39" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="244"/>
       <c r="B39" s="69" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C39" s="69"/>
       <c r="D39" s="69" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E39" s="69"/>
       <c r="F39" s="69" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G39" s="69"/>
       <c r="H39" s="177"/>
@@ -54672,7 +54672,7 @@
     <row r="40" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="244"/>
       <c r="B40" s="69" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C40" s="69"/>
       <c r="D40" s="69" t="s">
@@ -54680,7 +54680,7 @@
       </c>
       <c r="E40" s="69"/>
       <c r="F40" s="69" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G40" s="69"/>
       <c r="H40" s="177"/>
@@ -54688,15 +54688,15 @@
     <row r="41" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="244"/>
       <c r="B41" s="69" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C41" s="69"/>
       <c r="D41" s="69" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E41" s="69"/>
       <c r="F41" s="69" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G41" s="69"/>
       <c r="H41" s="177"/>
@@ -54704,15 +54704,15 @@
     <row r="42" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="244"/>
       <c r="B42" s="69" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C42" s="69"/>
       <c r="D42" s="69" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E42" s="69"/>
       <c r="F42" s="69" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G42" s="69"/>
       <c r="H42" s="177"/>
@@ -54720,15 +54720,15 @@
     <row r="43" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="244"/>
       <c r="B43" s="69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C43" s="69"/>
       <c r="D43" s="69" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E43" s="69"/>
       <c r="F43" s="69" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G43" s="69"/>
       <c r="H43" s="177"/>
@@ -54736,15 +54736,15 @@
     <row r="44" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="244"/>
       <c r="B44" s="69" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C44" s="69"/>
       <c r="D44" s="69" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E44" s="69"/>
       <c r="F44" s="69" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G44" s="69"/>
       <c r="H44" s="177"/>
@@ -54752,15 +54752,15 @@
     <row r="45" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="244"/>
       <c r="B45" s="69" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C45" s="69"/>
       <c r="D45" s="69" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E45" s="69"/>
       <c r="F45" s="69" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G45" s="69"/>
       <c r="H45" s="177"/>
@@ -54768,15 +54768,15 @@
     <row r="46" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="244"/>
       <c r="B46" s="69" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C46" s="69"/>
       <c r="D46" s="69" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E46" s="69"/>
       <c r="F46" s="69" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G46" s="69"/>
       <c r="H46" s="177"/>
@@ -54788,11 +54788,11 @@
       </c>
       <c r="C47" s="69"/>
       <c r="D47" s="69" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E47" s="69"/>
       <c r="F47" s="69" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G47" s="69"/>
       <c r="H47" s="177"/>
@@ -54800,15 +54800,15 @@
     <row r="48" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="245"/>
       <c r="B48" s="73" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C48" s="73"/>
       <c r="D48" s="73" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E48" s="73"/>
       <c r="F48" s="73" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G48" s="73"/>
       <c r="H48" s="178"/>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\jay\code\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F6840F-F000-4D3E-B8DE-2EAB54826BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37D69C4-9477-49FA-B4BD-71DBE6D9B17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="29100" windowHeight="13455" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="29100" windowHeight="13455" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Microservice" sheetId="1" r:id="rId1"/>
@@ -1236,19 +1236,10 @@
     <t>List of UUIDs</t>
   </si>
   <si>
-    <t>UUIDs of required data sources for MicroserviceA</t>
-  </si>
-  <si>
     <t>microserviceB_data</t>
   </si>
   <si>
-    <t>UUIDs of required data sources for MicroserviceB</t>
-  </si>
-  <si>
     <t>microserviceC_data</t>
-  </si>
-  <si>
-    <t>UUIDs of required data sources for MicroserviceC</t>
   </si>
   <si>
     <t>Person</t>
@@ -1845,6 +1836,15 @@
   <si>
     <t>https://github.com/UoW-CPC/ADTGenerator/blob/main/examples/metadata_RISTRA.json#L101</t>
   </si>
+  <si>
+    <t>UUIDs of required Data asset(s) for MicroserviceA</t>
+  </si>
+  <si>
+    <t>UUIDs of required Data asset(s) for  MicroserviceB</t>
+  </si>
+  <si>
+    <t>UUIDs of required Data asset(s) for  MicroserviceC</t>
+  </si>
 </sst>
 </file>
 
@@ -2373,7 +2373,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2933,9 +2933,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -2994,14 +2991,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -3181,10 +3170,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -3369,6 +3354,42 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -4204,8 +4225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E10" sqref="E10"/>
       <selection pane="topRight" activeCell="E10" sqref="E10"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
@@ -4226,16 +4247,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="243" t="s">
-        <v>488</v>
-      </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="243"/>
-      <c r="H1" s="244"/>
+      <c r="A1" s="239" t="s">
+        <v>485</v>
+      </c>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="240"/>
     </row>
     <row r="2" spans="1:1024" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
@@ -4264,7 +4285,7 @@
       </c>
     </row>
     <row r="3" spans="1:1024" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="245" t="s">
+      <c r="A3" s="241" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="27"/>
@@ -4272,11 +4293,11 @@
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
-      <c r="G3" s="182"/>
+      <c r="G3" s="179"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="246"/>
+      <c r="A4" s="242"/>
       <c r="B4" s="47" t="s">
         <v>8</v>
       </c>
@@ -4290,13 +4311,13 @@
       <c r="F4" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="183" t="s">
-        <v>500</v>
+      <c r="G4" s="180" t="s">
+        <v>497</v>
       </c>
       <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="246"/>
+      <c r="A5" s="242"/>
       <c r="B5" s="47" t="s">
         <v>13</v>
       </c>
@@ -4310,13 +4331,13 @@
       <c r="F5" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="183" t="s">
+      <c r="G5" s="180" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="246"/>
+      <c r="A6" s="242"/>
       <c r="B6" s="47" t="s">
         <v>16</v>
       </c>
@@ -4330,19 +4351,19 @@
       <c r="F6" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="183" t="s">
+      <c r="G6" s="180" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="50"/>
     </row>
     <row r="7" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="246"/>
+      <c r="A7" s="242"/>
       <c r="B7" s="47" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="47" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E7" s="49" t="s">
         <v>20</v>
@@ -4350,13 +4371,13 @@
       <c r="F7" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="183" t="s">
-        <v>500</v>
+      <c r="G7" s="180" t="s">
+        <v>497</v>
       </c>
       <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="246"/>
+      <c r="A8" s="242"/>
       <c r="B8" s="47" t="s">
         <v>22</v>
       </c>
@@ -4370,13 +4391,13 @@
       <c r="F8" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="183" t="s">
+      <c r="G8" s="180" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="50"/>
     </row>
     <row r="9" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="246"/>
+      <c r="A9" s="242"/>
       <c r="B9" s="47" t="s">
         <v>25</v>
       </c>
@@ -4385,18 +4406,18 @@
         <v>9</v>
       </c>
       <c r="E9" s="49" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>467</v>
-      </c>
-      <c r="G9" s="183" t="s">
+        <v>464</v>
+      </c>
+      <c r="G9" s="180" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="50"/>
     </row>
     <row r="10" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="246"/>
+      <c r="A10" s="242"/>
       <c r="B10" s="47" t="s">
         <v>26</v>
       </c>
@@ -4410,13 +4431,13 @@
       <c r="F10" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="183" t="s">
+      <c r="G10" s="180" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="50"/>
     </row>
     <row r="11" spans="1:1024" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="247"/>
+      <c r="A11" s="243"/>
       <c r="B11" s="51" t="s">
         <v>30</v>
       </c>
@@ -4430,25 +4451,25 @@
       <c r="F11" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="184" t="s">
+      <c r="G11" s="181" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="54"/>
     </row>
     <row r="12" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="248" t="s">
+      <c r="A12" s="244" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="217"/>
-      <c r="C12" s="217"/>
-      <c r="D12" s="217"/>
-      <c r="E12" s="218"/>
-      <c r="F12" s="217"/>
-      <c r="G12" s="219"/>
-      <c r="H12" s="220"/>
+      <c r="B12" s="213"/>
+      <c r="C12" s="213"/>
+      <c r="D12" s="213"/>
+      <c r="E12" s="214"/>
+      <c r="F12" s="213"/>
+      <c r="G12" s="215"/>
+      <c r="H12" s="216"/>
     </row>
     <row r="13" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="249"/>
+      <c r="A13" s="245"/>
       <c r="B13" s="55" t="s">
         <v>35</v>
       </c>
@@ -4457,52 +4478,52 @@
         <v>36</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F13" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="188" t="s">
+      <c r="G13" s="185" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="58"/>
     </row>
     <row r="14" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="249"/>
+      <c r="A14" s="245"/>
       <c r="B14" s="55" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="56"/>
       <c r="D14" s="55" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F14" s="55" t="s">
-        <v>455</v>
-      </c>
-      <c r="G14" s="188" t="s">
+        <v>452</v>
+      </c>
+      <c r="G14" s="185" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="58"/>
     </row>
     <row r="15" spans="1:1024" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="249"/>
+      <c r="A15" s="245"/>
       <c r="B15" s="55" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C15" s="56"/>
       <c r="D15" s="55" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="F15" s="55" t="s">
-        <v>461</v>
-      </c>
-      <c r="G15" s="188" t="s">
+        <v>458</v>
+      </c>
+      <c r="G15" s="185" t="s">
         <v>43</v>
       </c>
       <c r="H15" s="58"/>
@@ -5524,22 +5545,22 @@
       <c r="AMJ15" s="4"/>
     </row>
     <row r="16" spans="1:1024" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="249"/>
+      <c r="A16" s="245"/>
       <c r="B16" s="55"/>
       <c r="C16" s="56" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D16" s="55" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F16" s="55" t="s">
-        <v>569</v>
-      </c>
-      <c r="G16" s="188" t="s">
-        <v>574</v>
+        <v>566</v>
+      </c>
+      <c r="G16" s="185" t="s">
+        <v>571</v>
       </c>
       <c r="H16" s="58"/>
       <c r="I16" s="4"/>
@@ -6560,22 +6581,22 @@
       <c r="AMJ16" s="4"/>
     </row>
     <row r="17" spans="1:1024" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="249"/>
+      <c r="A17" s="245"/>
       <c r="B17" s="55"/>
       <c r="C17" s="56" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D17" s="55" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="57" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F17" s="55" t="s">
-        <v>570</v>
-      </c>
-      <c r="G17" s="188" t="s">
-        <v>574</v>
+        <v>567</v>
+      </c>
+      <c r="G17" s="185" t="s">
+        <v>571</v>
       </c>
       <c r="H17" s="58"/>
       <c r="I17" s="4"/>
@@ -7596,21 +7617,21 @@
       <c r="AMJ17" s="4"/>
     </row>
     <row r="18" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="249"/>
+      <c r="A18" s="245"/>
       <c r="B18" s="55"/>
       <c r="C18" s="56" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E18" s="57" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F18" s="55" t="s">
-        <v>572</v>
-      </c>
-      <c r="G18" s="188" t="s">
+        <v>569</v>
+      </c>
+      <c r="G18" s="185" t="s">
         <v>43</v>
       </c>
       <c r="H18" s="58"/>
@@ -8632,21 +8653,21 @@
       <c r="AMJ18" s="4"/>
     </row>
     <row r="19" spans="1:1024" s="10" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A19" s="249"/>
+      <c r="A19" s="245"/>
       <c r="B19" s="55" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C19" s="56"/>
       <c r="D19" s="55" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F19" s="55" t="s">
-        <v>561</v>
-      </c>
-      <c r="G19" s="188" t="s">
+        <v>558</v>
+      </c>
+      <c r="G19" s="185" t="s">
         <v>43</v>
       </c>
       <c r="H19" s="58"/>
@@ -9668,24 +9689,24 @@
       <c r="AMJ19" s="4"/>
     </row>
     <row r="20" spans="1:1024" s="10" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="250"/>
-      <c r="B20" s="221" t="s">
-        <v>458</v>
-      </c>
-      <c r="C20" s="222"/>
-      <c r="D20" s="221" t="s">
-        <v>459</v>
-      </c>
-      <c r="E20" s="223" t="s">
-        <v>560</v>
-      </c>
-      <c r="F20" s="221" t="s">
-        <v>562</v>
-      </c>
-      <c r="G20" s="224" t="s">
+      <c r="A20" s="246"/>
+      <c r="B20" s="217" t="s">
+        <v>455</v>
+      </c>
+      <c r="C20" s="218"/>
+      <c r="D20" s="217" t="s">
+        <v>456</v>
+      </c>
+      <c r="E20" s="219" t="s">
+        <v>557</v>
+      </c>
+      <c r="F20" s="217" t="s">
+        <v>559</v>
+      </c>
+      <c r="G20" s="220" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="225"/>
+      <c r="H20" s="221"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -10704,7 +10725,7 @@
       <c r="AMJ20" s="4"/>
     </row>
     <row r="21" spans="1:1024" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="241" t="s">
+      <c r="A21" s="237" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="59"/>
@@ -10712,11 +10733,11 @@
       <c r="D21" s="59"/>
       <c r="E21" s="60"/>
       <c r="F21" s="59"/>
-      <c r="G21" s="189"/>
+      <c r="G21" s="186"/>
       <c r="H21" s="61"/>
     </row>
     <row r="22" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="241"/>
+      <c r="A22" s="237"/>
       <c r="B22" s="47" t="s">
         <v>40</v>
       </c>
@@ -10730,13 +10751,13 @@
       <c r="F22" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="183" t="s">
+      <c r="G22" s="180" t="s">
         <v>43</v>
       </c>
       <c r="H22" s="50"/>
     </row>
     <row r="23" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="241"/>
+      <c r="A23" s="237"/>
       <c r="B23" s="47" t="s">
         <v>44</v>
       </c>
@@ -10750,13 +10771,13 @@
       <c r="F23" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="183" t="s">
+      <c r="G23" s="180" t="s">
         <v>43</v>
       </c>
       <c r="H23" s="50"/>
     </row>
     <row r="24" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="241"/>
+      <c r="A24" s="237"/>
       <c r="B24" s="47" t="s">
         <v>46</v>
       </c>
@@ -10770,13 +10791,13 @@
       <c r="F24" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="183" t="s">
+      <c r="G24" s="180" t="s">
         <v>43</v>
       </c>
       <c r="H24" s="50"/>
     </row>
     <row r="25" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="241"/>
+      <c r="A25" s="237"/>
       <c r="B25" s="47" t="s">
         <v>48</v>
       </c>
@@ -10790,13 +10811,13 @@
       <c r="F25" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="183" t="s">
+      <c r="G25" s="180" t="s">
         <v>43</v>
       </c>
       <c r="H25" s="50"/>
     </row>
     <row r="26" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="241"/>
+      <c r="A26" s="237"/>
       <c r="B26" s="47" t="s">
         <v>50</v>
       </c>
@@ -10810,13 +10831,13 @@
       <c r="F26" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="183" t="s">
+      <c r="G26" s="180" t="s">
         <v>43</v>
       </c>
       <c r="H26" s="50"/>
     </row>
     <row r="27" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="241"/>
+      <c r="A27" s="237"/>
       <c r="B27" s="47" t="s">
         <v>53</v>
       </c>
@@ -10830,13 +10851,13 @@
       <c r="F27" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="183" t="s">
+      <c r="G27" s="180" t="s">
         <v>43</v>
       </c>
       <c r="H27" s="50"/>
     </row>
     <row r="28" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
-      <c r="A28" s="241"/>
+      <c r="A28" s="237"/>
       <c r="B28" s="47" t="s">
         <v>57</v>
       </c>
@@ -10850,13 +10871,13 @@
       <c r="F28" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="G28" s="183" t="s">
+      <c r="G28" s="180" t="s">
         <v>43</v>
       </c>
       <c r="H28" s="50"/>
     </row>
     <row r="29" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="241"/>
+      <c r="A29" s="237"/>
       <c r="B29" s="47" t="s">
         <v>61</v>
       </c>
@@ -10870,13 +10891,13 @@
       <c r="F29" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="G29" s="183" t="s">
+      <c r="G29" s="180" t="s">
         <v>43</v>
       </c>
       <c r="H29" s="50"/>
     </row>
     <row r="30" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="241"/>
+      <c r="A30" s="237"/>
       <c r="B30" s="47" t="s">
         <v>63</v>
       </c>
@@ -10890,13 +10911,13 @@
       <c r="F30" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="183" t="s">
+      <c r="G30" s="180" t="s">
         <v>43</v>
       </c>
       <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="241"/>
+      <c r="A31" s="237"/>
       <c r="B31" s="47" t="s">
         <v>65</v>
       </c>
@@ -10910,13 +10931,13 @@
       <c r="F31" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="G31" s="183" t="s">
+      <c r="G31" s="180" t="s">
         <v>43</v>
       </c>
       <c r="H31" s="50"/>
     </row>
     <row r="32" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="241"/>
+      <c r="A32" s="237"/>
       <c r="B32" s="47" t="s">
         <v>67</v>
       </c>
@@ -10930,13 +10951,13 @@
       <c r="F32" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="G32" s="183" t="s">
+      <c r="G32" s="180" t="s">
         <v>43</v>
       </c>
       <c r="H32" s="50"/>
     </row>
     <row r="33" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="242"/>
+      <c r="A33" s="238"/>
       <c r="B33" s="51" t="s">
         <v>69</v>
       </c>
@@ -10950,13 +10971,13 @@
       <c r="F33" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="G33" s="184" t="s">
+      <c r="G33" s="181" t="s">
         <v>43</v>
       </c>
       <c r="H33" s="54"/>
     </row>
     <row r="34" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="237" t="s">
+      <c r="A34" s="233" t="s">
         <v>72</v>
       </c>
       <c r="B34" s="62"/>
@@ -10964,11 +10985,11 @@
       <c r="D34" s="62"/>
       <c r="E34" s="63"/>
       <c r="F34" s="62"/>
-      <c r="G34" s="190"/>
+      <c r="G34" s="187"/>
       <c r="H34" s="64"/>
     </row>
     <row r="35" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="238"/>
+      <c r="A35" s="234"/>
       <c r="B35" s="65" t="s">
         <v>73</v>
       </c>
@@ -10982,13 +11003,13 @@
       <c r="F35" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="G35" s="191" t="s">
+      <c r="G35" s="188" t="s">
         <v>12</v>
       </c>
       <c r="H35" s="68"/>
     </row>
     <row r="36" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="238"/>
+      <c r="A36" s="234"/>
       <c r="B36" s="69" t="s">
         <v>76</v>
       </c>
@@ -11002,13 +11023,13 @@
       <c r="F36" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="G36" s="186" t="s">
+      <c r="G36" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H36" s="72"/>
     </row>
     <row r="37" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="238"/>
+      <c r="A37" s="234"/>
       <c r="B37" s="69" t="s">
         <v>79</v>
       </c>
@@ -11022,13 +11043,13 @@
       <c r="F37" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="G37" s="186" t="s">
+      <c r="G37" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H37" s="72"/>
     </row>
     <row r="38" spans="1:1024" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="239"/>
+      <c r="A38" s="235"/>
       <c r="B38" s="73" t="s">
         <v>82</v>
       </c>
@@ -11042,13 +11063,13 @@
       <c r="F38" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="G38" s="187" t="s">
+      <c r="G38" s="184" t="s">
         <v>43</v>
       </c>
       <c r="H38" s="76"/>
     </row>
     <row r="39" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="240" t="s">
+      <c r="A39" s="236" t="s">
         <v>85</v>
       </c>
       <c r="B39" s="59"/>
@@ -11056,11 +11077,11 @@
       <c r="D39" s="59"/>
       <c r="E39" s="60"/>
       <c r="F39" s="59"/>
-      <c r="G39" s="189"/>
+      <c r="G39" s="186"/>
       <c r="H39" s="61"/>
     </row>
     <row r="40" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="241"/>
+      <c r="A40" s="237"/>
       <c r="B40" s="47" t="s">
         <v>86</v>
       </c>
@@ -11074,7 +11095,7 @@
       <c r="F40" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="G40" s="183" t="s">
+      <c r="G40" s="180" t="s">
         <v>43</v>
       </c>
       <c r="H40" s="50"/>
@@ -12096,8 +12117,8 @@
       <c r="AMJ40" s="4"/>
     </row>
     <row r="41" spans="1:1024" s="10" customFormat="1" ht="46.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="241"/>
-      <c r="B41" s="231" t="s">
+      <c r="A41" s="237"/>
+      <c r="B41" s="227" t="s">
         <v>90</v>
       </c>
       <c r="C41" s="47" t="s">
@@ -12112,7 +12133,7 @@
       <c r="F41" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="G41" s="183" t="s">
+      <c r="G41" s="180" t="s">
         <v>12</v>
       </c>
       <c r="H41" s="50"/>
@@ -13134,8 +13155,8 @@
       <c r="AMJ41" s="4"/>
     </row>
     <row r="42" spans="1:1024" s="10" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A42" s="241"/>
-      <c r="B42" s="231"/>
+      <c r="A42" s="237"/>
+      <c r="B42" s="227"/>
       <c r="C42" s="47" t="s">
         <v>94</v>
       </c>
@@ -13148,7 +13169,7 @@
       <c r="F42" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="G42" s="183" t="s">
+      <c r="G42" s="180" t="s">
         <v>12</v>
       </c>
       <c r="H42" s="50"/>
@@ -14170,8 +14191,8 @@
       <c r="AMJ42" s="4"/>
     </row>
     <row r="43" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="241"/>
-      <c r="B43" s="231"/>
+      <c r="A43" s="237"/>
+      <c r="B43" s="227"/>
       <c r="C43" s="47" t="s">
         <v>98</v>
       </c>
@@ -14184,7 +14205,7 @@
       <c r="F43" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="G43" s="183" t="s">
+      <c r="G43" s="180" t="s">
         <v>12</v>
       </c>
       <c r="H43" s="50"/>
@@ -15206,8 +15227,8 @@
       <c r="AMJ43" s="4"/>
     </row>
     <row r="44" spans="1:1024" s="10" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="241"/>
-      <c r="B44" s="231"/>
+      <c r="A44" s="237"/>
+      <c r="B44" s="227"/>
       <c r="C44" s="47" t="s">
         <v>102</v>
       </c>
@@ -15220,7 +15241,7 @@
       <c r="F44" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="G44" s="183" t="s">
+      <c r="G44" s="180" t="s">
         <v>43</v>
       </c>
       <c r="H44" s="50"/>
@@ -16242,8 +16263,8 @@
       <c r="AMJ44" s="4"/>
     </row>
     <row r="45" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="241"/>
-      <c r="B45" s="231"/>
+      <c r="A45" s="237"/>
+      <c r="B45" s="227"/>
       <c r="C45" s="47" t="s">
         <v>106</v>
       </c>
@@ -16256,7 +16277,7 @@
       <c r="F45" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="G45" s="183" t="s">
+      <c r="G45" s="180" t="s">
         <v>43</v>
       </c>
       <c r="H45" s="50"/>
@@ -17278,8 +17299,8 @@
       <c r="AMJ45" s="4"/>
     </row>
     <row r="46" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="241"/>
-      <c r="B46" s="231"/>
+      <c r="A46" s="237"/>
+      <c r="B46" s="227"/>
       <c r="C46" s="47" t="s">
         <v>110</v>
       </c>
@@ -17292,7 +17313,7 @@
       <c r="F46" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="G46" s="183" t="s">
+      <c r="G46" s="180" t="s">
         <v>43</v>
       </c>
       <c r="H46" s="50"/>
@@ -18314,8 +18335,8 @@
       <c r="AMJ46" s="4"/>
     </row>
     <row r="47" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="241"/>
-      <c r="B47" s="231"/>
+      <c r="A47" s="237"/>
+      <c r="B47" s="227"/>
       <c r="C47" s="47" t="s">
         <v>114</v>
       </c>
@@ -18328,7 +18349,7 @@
       <c r="F47" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="G47" s="183" t="s">
+      <c r="G47" s="180" t="s">
         <v>43</v>
       </c>
       <c r="H47" s="50"/>
@@ -19350,8 +19371,8 @@
       <c r="AMJ47" s="4"/>
     </row>
     <row r="48" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="241"/>
-      <c r="B48" s="231"/>
+      <c r="A48" s="237"/>
+      <c r="B48" s="227"/>
       <c r="C48" s="47" t="s">
         <v>118</v>
       </c>
@@ -19364,7 +19385,7 @@
       <c r="F48" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="G48" s="183" t="s">
+      <c r="G48" s="180" t="s">
         <v>43</v>
       </c>
       <c r="H48" s="50"/>
@@ -20386,8 +20407,8 @@
       <c r="AMJ48" s="4"/>
     </row>
     <row r="49" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="241"/>
-      <c r="B49" s="231"/>
+      <c r="A49" s="237"/>
+      <c r="B49" s="227"/>
       <c r="C49" s="47" t="s">
         <v>122</v>
       </c>
@@ -20400,7 +20421,7 @@
       <c r="F49" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="G49" s="183" t="s">
+      <c r="G49" s="180" t="s">
         <v>43</v>
       </c>
       <c r="H49" s="50"/>
@@ -21422,8 +21443,8 @@
       <c r="AMJ49" s="4"/>
     </row>
     <row r="50" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="241"/>
-      <c r="B50" s="231"/>
+      <c r="A50" s="237"/>
+      <c r="B50" s="227"/>
       <c r="C50" s="47" t="s">
         <v>126</v>
       </c>
@@ -21436,7 +21457,7 @@
       <c r="F50" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="G50" s="183" t="s">
+      <c r="G50" s="180" t="s">
         <v>43</v>
       </c>
       <c r="H50" s="50"/>
@@ -22458,8 +22479,8 @@
       <c r="AMJ50" s="4"/>
     </row>
     <row r="51" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="241"/>
-      <c r="B51" s="231"/>
+      <c r="A51" s="237"/>
+      <c r="B51" s="227"/>
       <c r="C51" s="47" t="s">
         <v>130</v>
       </c>
@@ -22472,7 +22493,7 @@
       <c r="F51" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="G51" s="183" t="s">
+      <c r="G51" s="180" t="s">
         <v>43</v>
       </c>
       <c r="H51" s="50"/>
@@ -23494,8 +23515,8 @@
       <c r="AMJ51" s="4"/>
     </row>
     <row r="52" spans="1:1024" s="16" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="242"/>
-      <c r="B52" s="232"/>
+      <c r="A52" s="238"/>
+      <c r="B52" s="228"/>
       <c r="C52" s="51" t="s">
         <v>134</v>
       </c>
@@ -23506,9 +23527,9 @@
         <v>136</v>
       </c>
       <c r="F52" s="51" t="s">
-        <v>465</v>
-      </c>
-      <c r="G52" s="184" t="s">
+        <v>462</v>
+      </c>
+      <c r="G52" s="181" t="s">
         <v>43</v>
       </c>
       <c r="H52" s="54"/>
@@ -24530,7 +24551,7 @@
       <c r="AMJ52" s="15"/>
     </row>
     <row r="53" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="237" t="s">
+      <c r="A53" s="233" t="s">
         <v>137</v>
       </c>
       <c r="B53" s="77"/>
@@ -24538,11 +24559,11 @@
       <c r="D53" s="77"/>
       <c r="E53" s="78"/>
       <c r="F53" s="77"/>
-      <c r="G53" s="192"/>
+      <c r="G53" s="189"/>
       <c r="H53" s="79"/>
     </row>
     <row r="54" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="238"/>
+      <c r="A54" s="234"/>
       <c r="B54" s="80" t="s">
         <v>138</v>
       </c>
@@ -24556,14 +24577,14 @@
       <c r="F54" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="G54" s="186" t="s">
+      <c r="G54" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H54" s="83"/>
     </row>
     <row r="55" spans="1:1024" ht="46.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="238"/>
-      <c r="B55" s="233" t="s">
+      <c r="A55" s="234"/>
+      <c r="B55" s="229" t="s">
         <v>90</v>
       </c>
       <c r="C55" s="84" t="s">
@@ -24578,14 +24599,14 @@
       <c r="F55" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="G55" s="186" t="s">
+      <c r="G55" s="183" t="s">
         <v>12</v>
       </c>
       <c r="H55" s="83"/>
     </row>
     <row r="56" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
-      <c r="A56" s="238"/>
-      <c r="B56" s="233"/>
+      <c r="A56" s="234"/>
+      <c r="B56" s="229"/>
       <c r="C56" s="80" t="s">
         <v>94</v>
       </c>
@@ -24598,14 +24619,14 @@
       <c r="F56" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="G56" s="186" t="s">
+      <c r="G56" s="183" t="s">
         <v>12</v>
       </c>
       <c r="H56" s="83"/>
     </row>
     <row r="57" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="238"/>
-      <c r="B57" s="233"/>
+      <c r="A57" s="234"/>
+      <c r="B57" s="229"/>
       <c r="C57" s="80" t="s">
         <v>98</v>
       </c>
@@ -24618,14 +24639,14 @@
       <c r="F57" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="G57" s="186" t="s">
+      <c r="G57" s="183" t="s">
         <v>12</v>
       </c>
       <c r="H57" s="83"/>
     </row>
     <row r="58" spans="1:1024" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="238"/>
-      <c r="B58" s="233"/>
+      <c r="A58" s="234"/>
+      <c r="B58" s="229"/>
       <c r="C58" s="80" t="s">
         <v>102</v>
       </c>
@@ -24638,14 +24659,14 @@
       <c r="F58" s="80" t="s">
         <v>142</v>
       </c>
-      <c r="G58" s="186" t="s">
+      <c r="G58" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H58" s="83"/>
     </row>
     <row r="59" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="238"/>
-      <c r="B59" s="233"/>
+      <c r="A59" s="234"/>
+      <c r="B59" s="229"/>
       <c r="C59" s="80" t="s">
         <v>106</v>
       </c>
@@ -24658,14 +24679,14 @@
       <c r="F59" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="G59" s="186" t="s">
+      <c r="G59" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H59" s="83"/>
     </row>
     <row r="60" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="238"/>
-      <c r="B60" s="233"/>
+      <c r="A60" s="234"/>
+      <c r="B60" s="229"/>
       <c r="C60" s="80" t="s">
         <v>110</v>
       </c>
@@ -24678,14 +24699,14 @@
       <c r="F60" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="G60" s="186" t="s">
+      <c r="G60" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H60" s="83"/>
     </row>
     <row r="61" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="238"/>
-      <c r="B61" s="233"/>
+      <c r="A61" s="234"/>
+      <c r="B61" s="229"/>
       <c r="C61" s="80" t="s">
         <v>114</v>
       </c>
@@ -24698,14 +24719,14 @@
       <c r="F61" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="G61" s="186" t="s">
+      <c r="G61" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H61" s="83"/>
     </row>
     <row r="62" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="238"/>
-      <c r="B62" s="233"/>
+      <c r="A62" s="234"/>
+      <c r="B62" s="229"/>
       <c r="C62" s="80" t="s">
         <v>118</v>
       </c>
@@ -24718,14 +24739,14 @@
       <c r="F62" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="G62" s="186" t="s">
+      <c r="G62" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H62" s="83"/>
     </row>
     <row r="63" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="238"/>
-      <c r="B63" s="233"/>
+      <c r="A63" s="234"/>
+      <c r="B63" s="229"/>
       <c r="C63" s="80" t="s">
         <v>122</v>
       </c>
@@ -24738,14 +24759,14 @@
       <c r="F63" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="G63" s="186" t="s">
+      <c r="G63" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H63" s="83"/>
     </row>
     <row r="64" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="238"/>
-      <c r="B64" s="233"/>
+      <c r="A64" s="234"/>
+      <c r="B64" s="229"/>
       <c r="C64" s="80" t="s">
         <v>126</v>
       </c>
@@ -24758,14 +24779,14 @@
       <c r="F64" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="G64" s="186" t="s">
+      <c r="G64" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H64" s="83"/>
     </row>
     <row r="65" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="238"/>
-      <c r="B65" s="233"/>
+      <c r="A65" s="234"/>
+      <c r="B65" s="229"/>
       <c r="C65" s="80" t="s">
         <v>130</v>
       </c>
@@ -24778,14 +24799,14 @@
       <c r="F65" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="G65" s="186" t="s">
+      <c r="G65" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H65" s="83"/>
     </row>
     <row r="66" spans="1:1024" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="239"/>
-      <c r="B66" s="234"/>
+      <c r="A66" s="235"/>
+      <c r="B66" s="230"/>
       <c r="C66" s="85" t="s">
         <v>134</v>
       </c>
@@ -24796,15 +24817,15 @@
         <v>136</v>
       </c>
       <c r="F66" s="85" t="s">
-        <v>465</v>
-      </c>
-      <c r="G66" s="187" t="s">
+        <v>462</v>
+      </c>
+      <c r="G66" s="184" t="s">
         <v>43</v>
       </c>
       <c r="H66" s="87"/>
     </row>
     <row r="67" spans="1:1024" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="240" t="s">
+      <c r="A67" s="236" t="s">
         <v>145</v>
       </c>
       <c r="B67" s="59"/>
@@ -24812,7 +24833,7 @@
       <c r="D67" s="59"/>
       <c r="E67" s="60"/>
       <c r="F67" s="59"/>
-      <c r="G67" s="193"/>
+      <c r="G67" s="190"/>
       <c r="H67" s="88"/>
       <c r="I67" s="13"/>
       <c r="J67" s="13"/>
@@ -25832,7 +25853,7 @@
       <c r="AMJ67" s="13"/>
     </row>
     <row r="68" spans="1:1024" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="241"/>
+      <c r="A68" s="237"/>
       <c r="B68" s="89" t="s">
         <v>146</v>
       </c>
@@ -25846,7 +25867,7 @@
       <c r="F68" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="G68" s="183" t="s">
+      <c r="G68" s="180" t="s">
         <v>43</v>
       </c>
       <c r="H68" s="92"/>
@@ -26868,7 +26889,7 @@
       <c r="AMJ68" s="13"/>
     </row>
     <row r="69" spans="1:1024" s="14" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="242"/>
+      <c r="A69" s="238"/>
       <c r="B69" s="93" t="s">
         <v>150</v>
       </c>
@@ -26882,7 +26903,7 @@
       <c r="F69" s="93" t="s">
         <v>153</v>
       </c>
-      <c r="G69" s="184" t="s">
+      <c r="G69" s="181" t="s">
         <v>43</v>
       </c>
       <c r="H69" s="96"/>
@@ -27904,7 +27925,7 @@
       <c r="AMJ69" s="13"/>
     </row>
     <row r="70" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="237" t="s">
+      <c r="A70" s="233" t="s">
         <v>154</v>
       </c>
       <c r="B70" s="29"/>
@@ -27912,11 +27933,11 @@
       <c r="D70" s="29"/>
       <c r="E70" s="30"/>
       <c r="F70" s="29"/>
-      <c r="G70" s="194"/>
+      <c r="G70" s="191"/>
       <c r="H70" s="64"/>
     </row>
     <row r="71" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="238"/>
+      <c r="A71" s="234"/>
       <c r="B71" s="69" t="s">
         <v>155</v>
       </c>
@@ -27928,14 +27949,14 @@
       <c r="F71" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="G71" s="186" t="s">
+      <c r="G71" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H71" s="72"/>
     </row>
     <row r="72" spans="1:1024" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="238"/>
-      <c r="B72" s="235" t="s">
+      <c r="A72" s="234"/>
+      <c r="B72" s="231" t="s">
         <v>158</v>
       </c>
       <c r="C72" s="69" t="s">
@@ -27950,14 +27971,14 @@
       <c r="F72" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="G72" s="186" t="s">
+      <c r="G72" s="183" t="s">
         <v>12</v>
       </c>
       <c r="H72" s="72"/>
     </row>
     <row r="73" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="238"/>
-      <c r="B73" s="235"/>
+      <c r="A73" s="234"/>
+      <c r="B73" s="231"/>
       <c r="C73" s="69" t="s">
         <v>30</v>
       </c>
@@ -27970,14 +27991,14 @@
       <c r="F73" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="G73" s="186" t="s">
+      <c r="G73" s="183" t="s">
         <v>12</v>
       </c>
       <c r="H73" s="72"/>
     </row>
     <row r="74" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="238"/>
-      <c r="B74" s="235"/>
+      <c r="A74" s="234"/>
+      <c r="B74" s="231"/>
       <c r="C74" s="69" t="s">
         <v>12</v>
       </c>
@@ -27990,14 +28011,14 @@
       <c r="F74" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="G74" s="186" t="s">
+      <c r="G74" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H74" s="72"/>
     </row>
     <row r="75" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="238"/>
-      <c r="B75" s="235"/>
+      <c r="A75" s="234"/>
+      <c r="B75" s="231"/>
       <c r="C75" s="69" t="s">
         <v>167</v>
       </c>
@@ -28010,14 +28031,14 @@
       <c r="F75" s="69" t="s">
         <v>169</v>
       </c>
-      <c r="G75" s="186" t="s">
+      <c r="G75" s="183" t="s">
         <v>43</v>
       </c>
       <c r="H75" s="72"/>
     </row>
     <row r="76" spans="1:1024" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="239"/>
-      <c r="B76" s="236"/>
+      <c r="A76" s="235"/>
+      <c r="B76" s="232"/>
       <c r="C76" s="73" t="s">
         <v>25</v>
       </c>
@@ -28030,13 +28051,13 @@
       <c r="F76" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="G76" s="187" t="s">
+      <c r="G76" s="184" t="s">
         <v>12</v>
       </c>
       <c r="H76" s="76"/>
     </row>
     <row r="77" spans="1:1024" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="240" t="s">
+      <c r="A77" s="236" t="s">
         <v>172</v>
       </c>
       <c r="B77" s="31"/>
@@ -28044,7 +28065,7 @@
       <c r="D77" s="31"/>
       <c r="E77" s="32"/>
       <c r="F77" s="31"/>
-      <c r="G77" s="195"/>
+      <c r="G77" s="192"/>
       <c r="H77" s="88"/>
       <c r="I77" s="13"/>
       <c r="J77" s="13"/>
@@ -29064,7 +29085,7 @@
       <c r="AMJ77" s="13"/>
     </row>
     <row r="78" spans="1:1024" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="241"/>
+      <c r="A78" s="237"/>
       <c r="B78" s="47" t="s">
         <v>173</v>
       </c>
@@ -29076,7 +29097,7 @@
       <c r="F78" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="G78" s="183" t="s">
+      <c r="G78" s="180" t="s">
         <v>43</v>
       </c>
       <c r="H78" s="50"/>
@@ -30098,8 +30119,8 @@
       <c r="AMJ78" s="13"/>
     </row>
     <row r="79" spans="1:1024" s="14" customFormat="1" ht="46.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="241"/>
-      <c r="B79" s="231" t="s">
+      <c r="A79" s="237"/>
+      <c r="B79" s="227" t="s">
         <v>176</v>
       </c>
       <c r="C79" s="47" t="s">
@@ -30114,7 +30135,7 @@
       <c r="F79" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="G79" s="183" t="s">
+      <c r="G79" s="180" t="s">
         <v>12</v>
       </c>
       <c r="H79" s="50"/>
@@ -31136,8 +31157,8 @@
       <c r="AMJ79" s="13"/>
     </row>
     <row r="80" spans="1:1024" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="241"/>
-      <c r="B80" s="231"/>
+      <c r="A80" s="237"/>
+      <c r="B80" s="227"/>
       <c r="C80" s="47" t="s">
         <v>179</v>
       </c>
@@ -31150,7 +31171,7 @@
       <c r="F80" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="G80" s="183" t="s">
+      <c r="G80" s="180" t="s">
         <v>12</v>
       </c>
       <c r="H80" s="50"/>
@@ -32172,8 +32193,8 @@
       <c r="AMJ80" s="13"/>
     </row>
     <row r="81" spans="1:1024" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="241"/>
-      <c r="B81" s="231"/>
+      <c r="A81" s="237"/>
+      <c r="B81" s="227"/>
       <c r="C81" s="47" t="s">
         <v>182</v>
       </c>
@@ -32186,7 +32207,7 @@
       <c r="F81" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="G81" s="183" t="s">
+      <c r="G81" s="180" t="s">
         <v>12</v>
       </c>
       <c r="H81" s="50"/>
@@ -33208,8 +33229,8 @@
       <c r="AMJ81" s="13"/>
     </row>
     <row r="82" spans="1:1024" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="241"/>
-      <c r="B82" s="231"/>
+      <c r="A82" s="237"/>
+      <c r="B82" s="227"/>
       <c r="C82" s="47" t="s">
         <v>185</v>
       </c>
@@ -33222,7 +33243,7 @@
       <c r="F82" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="G82" s="183" t="s">
+      <c r="G82" s="180" t="s">
         <v>12</v>
       </c>
       <c r="H82" s="50"/>
@@ -34244,8 +34265,8 @@
       <c r="AMJ82" s="13"/>
     </row>
     <row r="83" spans="1:1024" s="14" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="242"/>
-      <c r="B83" s="232"/>
+      <c r="A83" s="238"/>
+      <c r="B83" s="228"/>
       <c r="C83" s="51" t="s">
         <v>25</v>
       </c>
@@ -34258,7 +34279,7 @@
       <c r="F83" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="G83" s="184" t="s">
+      <c r="G83" s="181" t="s">
         <v>12</v>
       </c>
       <c r="H83" s="54"/>
@@ -35385,11 +35406,11 @@
   <dimension ref="A1:XFC14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E10" sqref="E10"/>
       <selection pane="topRight" activeCell="E10" sqref="E10"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -35407,16 +35428,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="243" t="s">
-        <v>489</v>
-      </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="243"/>
-      <c r="H1" s="244"/>
+      <c r="A1" s="239" t="s">
+        <v>486</v>
+      </c>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="240"/>
     </row>
     <row r="2" spans="1:8" s="35" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
@@ -35445,7 +35466,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="245" t="s">
+      <c r="A3" s="241" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="27"/>
@@ -35453,11 +35474,11 @@
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
-      <c r="G3" s="182"/>
+      <c r="G3" s="179"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="246"/>
+      <c r="A4" s="242"/>
       <c r="B4" s="47" t="s">
         <v>8</v>
       </c>
@@ -35471,13 +35492,13 @@
       <c r="F4" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="G4" s="183" t="s">
-        <v>500</v>
+      <c r="G4" s="180" t="s">
+        <v>497</v>
       </c>
       <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="246"/>
+      <c r="A5" s="242"/>
       <c r="B5" s="47" t="s">
         <v>13</v>
       </c>
@@ -35491,13 +35512,13 @@
       <c r="F5" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="G5" s="183" t="s">
+      <c r="G5" s="180" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="246"/>
+      <c r="A6" s="242"/>
       <c r="B6" s="47" t="s">
         <v>25</v>
       </c>
@@ -35511,13 +35532,13 @@
       <c r="F6" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="G6" s="183" t="s">
+      <c r="G6" s="180" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="50"/>
     </row>
     <row r="7" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="246"/>
+      <c r="A7" s="242"/>
       <c r="B7" s="47" t="s">
         <v>26</v>
       </c>
@@ -35531,13 +35552,13 @@
       <c r="F7" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="G7" s="183" t="s">
+      <c r="G7" s="180" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="246"/>
+      <c r="A8" s="242"/>
       <c r="B8" s="47" t="s">
         <v>30</v>
       </c>
@@ -35551,13 +35572,13 @@
       <c r="F8" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="G8" s="183" t="s">
+      <c r="G8" s="180" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="50"/>
     </row>
     <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="246"/>
+      <c r="A9" s="242"/>
       <c r="B9" s="47" t="s">
         <v>16</v>
       </c>
@@ -35571,19 +35592,19 @@
       <c r="F9" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="G9" s="183" t="s">
+      <c r="G9" s="180" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="50"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="246"/>
+      <c r="A10" s="242"/>
       <c r="B10" s="47" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="47" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E10" s="49" t="s">
         <v>20</v>
@@ -35591,13 +35612,13 @@
       <c r="F10" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="G10" s="183" t="s">
-        <v>500</v>
+      <c r="G10" s="180" t="s">
+        <v>497</v>
       </c>
       <c r="H10" s="50"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="247"/>
+      <c r="A11" s="243"/>
       <c r="B11" s="51" t="s">
         <v>22</v>
       </c>
@@ -35611,13 +35632,13 @@
       <c r="F11" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="G11" s="184" t="s">
+      <c r="G11" s="181" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="54"/>
     </row>
     <row r="12" spans="1:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="251" t="s">
+      <c r="A12" s="247" t="s">
         <v>203</v>
       </c>
       <c r="B12" s="98"/>
@@ -35625,11 +35646,11 @@
       <c r="D12" s="100"/>
       <c r="E12" s="101"/>
       <c r="F12" s="100"/>
-      <c r="G12" s="185"/>
+      <c r="G12" s="182"/>
       <c r="H12" s="102"/>
     </row>
     <row r="13" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="252"/>
+      <c r="A13" s="248"/>
       <c r="B13" s="103" t="s">
         <v>204</v>
       </c>
@@ -35638,32 +35659,32 @@
         <v>31</v>
       </c>
       <c r="E13" s="104" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F13" s="103" t="s">
         <v>205</v>
       </c>
-      <c r="G13" s="186" t="s">
+      <c r="G13" s="183" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="72"/>
     </row>
     <row r="14" spans="1:8" ht="103.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="252"/>
+      <c r="A14" s="248"/>
       <c r="B14" s="103" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C14" s="103"/>
       <c r="D14" s="103" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E14" s="104" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F14" s="103" t="s">
-        <v>507</v>
-      </c>
-      <c r="G14" s="186" t="s">
+        <v>504</v>
+      </c>
+      <c r="G14" s="183" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="72"/>
@@ -35700,23 +35721,23 @@
     <col min="3" max="4" width="20.7109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="40.7109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="50.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="205" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="202" customWidth="1"/>
     <col min="8" max="8" width="30.7109375" style="5" customWidth="1"/>
     <col min="9" max="1024" width="0" style="5" hidden="1" customWidth="1"/>
     <col min="1025" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="243" t="s">
-        <v>490</v>
-      </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="243"/>
-      <c r="H1" s="244"/>
+      <c r="A1" s="239" t="s">
+        <v>487</v>
+      </c>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="240"/>
     </row>
     <row r="2" spans="1:1024" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
@@ -35745,7 +35766,7 @@
       </c>
     </row>
     <row r="3" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="245" t="s">
+      <c r="A3" s="241" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="37"/>
@@ -35753,7 +35774,7 @@
       <c r="D3" s="37"/>
       <c r="E3" s="37"/>
       <c r="F3" s="37"/>
-      <c r="G3" s="196"/>
+      <c r="G3" s="193"/>
       <c r="H3" s="38"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -35795,7 +35816,7 @@
       <c r="AMJ3" s="5"/>
     </row>
     <row r="4" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="246"/>
+      <c r="A4" s="242"/>
       <c r="B4" s="105" t="s">
         <v>206</v>
       </c>
@@ -35807,13 +35828,13 @@
       <c r="F4" s="105" t="s">
         <v>208</v>
       </c>
-      <c r="G4" s="197" t="s">
-        <v>500</v>
+      <c r="G4" s="194" t="s">
+        <v>497</v>
       </c>
       <c r="H4" s="107"/>
     </row>
     <row r="5" spans="1:1024" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="246"/>
+      <c r="A5" s="242"/>
       <c r="B5" s="105" t="s">
         <v>209</v>
       </c>
@@ -35825,27 +35846,27 @@
       <c r="F5" s="105" t="s">
         <v>211</v>
       </c>
-      <c r="G5" s="197"/>
+      <c r="G5" s="194"/>
       <c r="H5" s="107"/>
     </row>
     <row r="6" spans="1:1024" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="246"/>
+      <c r="A6" s="242"/>
       <c r="B6" s="105" t="s">
         <v>212</v>
       </c>
       <c r="C6" s="106"/>
       <c r="D6" s="105" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E6" s="106"/>
       <c r="F6" s="105" t="s">
-        <v>516</v>
-      </c>
-      <c r="G6" s="197"/>
+        <v>513</v>
+      </c>
+      <c r="G6" s="194"/>
       <c r="H6" s="107"/>
     </row>
     <row r="7" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="246"/>
+      <c r="A7" s="242"/>
       <c r="B7" s="105" t="s">
         <v>213</v>
       </c>
@@ -35855,13 +35876,13 @@
       </c>
       <c r="E7" s="106"/>
       <c r="F7" s="105" t="s">
-        <v>517</v>
-      </c>
-      <c r="G7" s="197"/>
+        <v>514</v>
+      </c>
+      <c r="G7" s="194"/>
       <c r="H7" s="107"/>
     </row>
     <row r="8" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="246"/>
+      <c r="A8" s="242"/>
       <c r="B8" s="105" t="s">
         <v>214</v>
       </c>
@@ -35873,11 +35894,11 @@
       <c r="F8" s="105" t="s">
         <v>215</v>
       </c>
-      <c r="G8" s="197"/>
+      <c r="G8" s="194"/>
       <c r="H8" s="107"/>
     </row>
     <row r="9" spans="1:1024" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="246"/>
+      <c r="A9" s="242"/>
       <c r="B9" s="105" t="s">
         <v>216</v>
       </c>
@@ -35887,15 +35908,15 @@
       </c>
       <c r="E9" s="106"/>
       <c r="F9" s="105" t="s">
-        <v>518</v>
-      </c>
-      <c r="G9" s="197" t="s">
+        <v>515</v>
+      </c>
+      <c r="G9" s="194" t="s">
         <v>43</v>
       </c>
       <c r="H9" s="107"/>
     </row>
     <row r="10" spans="1:1024" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="246"/>
+      <c r="A10" s="242"/>
       <c r="B10" s="105" t="s">
         <v>218</v>
       </c>
@@ -35907,7 +35928,7 @@
       <c r="F10" s="105" t="s">
         <v>220</v>
       </c>
-      <c r="G10" s="197"/>
+      <c r="G10" s="194"/>
       <c r="H10" s="107"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -35924,7 +35945,7 @@
       <c r="AMJ10" s="5"/>
     </row>
     <row r="11" spans="1:1024" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="246"/>
+      <c r="A11" s="242"/>
       <c r="B11" s="105" t="s">
         <v>3</v>
       </c>
@@ -35936,11 +35957,11 @@
       <c r="F11" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="G11" s="197"/>
+      <c r="G11" s="194"/>
       <c r="H11" s="107"/>
     </row>
     <row r="12" spans="1:1024" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="246"/>
+      <c r="A12" s="242"/>
       <c r="B12" s="105" t="s">
         <v>222</v>
       </c>
@@ -35950,15 +35971,15 @@
       </c>
       <c r="E12" s="106"/>
       <c r="F12" s="105" t="s">
-        <v>519</v>
-      </c>
-      <c r="G12" s="197" t="s">
+        <v>516</v>
+      </c>
+      <c r="G12" s="194" t="s">
         <v>43</v>
       </c>
       <c r="H12" s="107"/>
     </row>
     <row r="13" spans="1:1024" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="246"/>
+      <c r="A13" s="242"/>
       <c r="B13" s="105" t="s">
         <v>224</v>
       </c>
@@ -35970,15 +35991,15 @@
       <c r="F13" s="105" t="s">
         <v>226</v>
       </c>
-      <c r="G13" s="197" t="s">
+      <c r="G13" s="194" t="s">
         <v>227</v>
       </c>
       <c r="H13" s="107"/>
     </row>
     <row r="14" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="246"/>
+      <c r="A14" s="242"/>
       <c r="B14" s="105" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C14" s="106"/>
       <c r="D14" s="105" t="s">
@@ -35986,15 +36007,15 @@
       </c>
       <c r="E14" s="106"/>
       <c r="F14" s="105" t="s">
-        <v>463</v>
-      </c>
-      <c r="G14" s="197" t="s">
+        <v>460</v>
+      </c>
+      <c r="G14" s="194" t="s">
         <v>43</v>
       </c>
       <c r="H14" s="107"/>
     </row>
     <row r="15" spans="1:1024" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="247"/>
+      <c r="A15" s="243"/>
       <c r="B15" s="108" t="s">
         <v>228</v>
       </c>
@@ -36006,11 +36027,11 @@
       <c r="F15" s="108" t="s">
         <v>230</v>
       </c>
-      <c r="G15" s="198"/>
+      <c r="G15" s="195"/>
       <c r="H15" s="110"/>
     </row>
     <row r="16" spans="1:1024" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="237" t="s">
+      <c r="A16" s="233" t="s">
         <v>154</v>
       </c>
       <c r="B16" s="111"/>
@@ -36018,28 +36039,28 @@
       <c r="D16" s="111"/>
       <c r="E16" s="111"/>
       <c r="F16" s="111"/>
-      <c r="G16" s="199"/>
+      <c r="G16" s="196"/>
       <c r="H16" s="112"/>
       <c r="AMJ16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="238"/>
+      <c r="A17" s="234"/>
       <c r="B17" s="113" t="s">
         <v>231</v>
       </c>
       <c r="C17" s="114"/>
       <c r="D17" s="113" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E17" s="114"/>
       <c r="F17" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="G17" s="200"/>
+      <c r="G17" s="197"/>
       <c r="H17" s="115"/>
     </row>
     <row r="18" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="238"/>
+      <c r="A18" s="234"/>
       <c r="B18" s="113"/>
       <c r="C18" s="114" t="s">
         <v>1</v>
@@ -36049,13 +36070,13 @@
       </c>
       <c r="E18" s="114"/>
       <c r="F18" s="113" t="s">
-        <v>533</v>
-      </c>
-      <c r="G18" s="200"/>
+        <v>530</v>
+      </c>
+      <c r="G18" s="197"/>
       <c r="H18" s="115"/>
     </row>
     <row r="19" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="238"/>
+      <c r="A19" s="234"/>
       <c r="B19" s="113"/>
       <c r="C19" s="114" t="s">
         <v>209</v>
@@ -36065,349 +36086,349 @@
       </c>
       <c r="E19" s="114"/>
       <c r="F19" s="113" t="s">
-        <v>534</v>
-      </c>
-      <c r="G19" s="200"/>
+        <v>531</v>
+      </c>
+      <c r="G19" s="197"/>
       <c r="H19" s="115"/>
     </row>
     <row r="20" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="238"/>
+      <c r="A20" s="234"/>
       <c r="B20" s="113"/>
       <c r="C20" s="114" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D20" s="113" t="s">
         <v>223</v>
       </c>
       <c r="E20" s="114"/>
       <c r="F20" s="113" t="s">
-        <v>535</v>
-      </c>
-      <c r="G20" s="200"/>
+        <v>532</v>
+      </c>
+      <c r="G20" s="197"/>
       <c r="H20" s="115"/>
     </row>
     <row r="21" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="238"/>
+      <c r="A21" s="234"/>
       <c r="B21" s="113"/>
       <c r="C21" s="114" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D21" s="113" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E21" s="114"/>
       <c r="F21" s="113" t="s">
-        <v>536</v>
-      </c>
-      <c r="G21" s="200"/>
+        <v>533</v>
+      </c>
+      <c r="G21" s="197"/>
       <c r="H21" s="115"/>
     </row>
     <row r="22" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="238"/>
+      <c r="A22" s="234"/>
       <c r="B22" s="113"/>
       <c r="C22" s="114" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D22" s="113" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E22" s="114"/>
       <c r="F22" s="113" t="s">
-        <v>537</v>
-      </c>
-      <c r="G22" s="200"/>
+        <v>534</v>
+      </c>
+      <c r="G22" s="197"/>
       <c r="H22" s="115"/>
     </row>
     <row r="23" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="238"/>
+      <c r="A23" s="234"/>
       <c r="B23" s="113"/>
       <c r="C23" s="114" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D23" s="113" t="s">
         <v>210</v>
       </c>
       <c r="E23" s="114"/>
       <c r="F23" s="113" t="s">
-        <v>538</v>
-      </c>
-      <c r="G23" s="200"/>
+        <v>535</v>
+      </c>
+      <c r="G23" s="197"/>
       <c r="H23" s="115"/>
     </row>
     <row r="24" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="238"/>
+      <c r="A24" s="234"/>
       <c r="B24" s="113"/>
       <c r="C24" s="114" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D24" s="113" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E24" s="114"/>
       <c r="F24" s="113" t="s">
-        <v>539</v>
-      </c>
-      <c r="G24" s="200"/>
+        <v>536</v>
+      </c>
+      <c r="G24" s="197"/>
       <c r="H24" s="115"/>
     </row>
     <row r="25" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="238"/>
+      <c r="A25" s="234"/>
       <c r="B25" s="113"/>
       <c r="C25" s="114" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D25" s="113" t="s">
         <v>223</v>
       </c>
       <c r="E25" s="114"/>
       <c r="F25" s="113" t="s">
-        <v>540</v>
-      </c>
-      <c r="G25" s="200"/>
+        <v>537</v>
+      </c>
+      <c r="G25" s="197"/>
       <c r="H25" s="115"/>
     </row>
     <row r="26" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="238"/>
+      <c r="A26" s="234"/>
       <c r="B26" s="113"/>
       <c r="C26" s="114" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D26" s="113" t="s">
         <v>223</v>
       </c>
       <c r="E26" s="114"/>
       <c r="F26" s="113" t="s">
-        <v>541</v>
-      </c>
-      <c r="G26" s="200"/>
+        <v>538</v>
+      </c>
+      <c r="G26" s="197"/>
       <c r="H26" s="115"/>
     </row>
     <row r="27" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="238"/>
+      <c r="A27" s="234"/>
       <c r="B27" s="113"/>
       <c r="C27" s="114" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D27" s="113" t="s">
         <v>223</v>
       </c>
       <c r="E27" s="114"/>
       <c r="F27" s="113" t="s">
-        <v>542</v>
-      </c>
-      <c r="G27" s="200"/>
+        <v>539</v>
+      </c>
+      <c r="G27" s="197"/>
       <c r="H27" s="115"/>
     </row>
     <row r="28" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="238"/>
+      <c r="A28" s="234"/>
       <c r="B28" s="113"/>
       <c r="C28" s="114" t="s">
+        <v>526</v>
+      </c>
+      <c r="D28" s="113" t="s">
         <v>529</v>
-      </c>
-      <c r="D28" s="113" t="s">
-        <v>532</v>
       </c>
       <c r="E28" s="114"/>
       <c r="F28" s="113" t="s">
-        <v>543</v>
-      </c>
-      <c r="G28" s="200"/>
+        <v>540</v>
+      </c>
+      <c r="G28" s="197"/>
       <c r="H28" s="115"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="238"/>
+      <c r="A29" s="234"/>
       <c r="B29" s="113" t="s">
         <v>233</v>
       </c>
       <c r="C29" s="114"/>
       <c r="D29" s="113" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E29" s="114"/>
       <c r="F29" s="113" t="s">
         <v>234</v>
       </c>
-      <c r="G29" s="200"/>
+      <c r="G29" s="197"/>
       <c r="H29" s="115"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="238"/>
-      <c r="B30" s="226"/>
+      <c r="A30" s="234"/>
+      <c r="B30" s="222"/>
       <c r="C30" s="114" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="113" t="s">
         <v>210</v>
       </c>
-      <c r="E30" s="227"/>
+      <c r="E30" s="223"/>
       <c r="F30" s="113" t="s">
-        <v>544</v>
-      </c>
-      <c r="G30" s="228"/>
-      <c r="H30" s="229"/>
+        <v>541</v>
+      </c>
+      <c r="G30" s="224"/>
+      <c r="H30" s="225"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="238"/>
-      <c r="B31" s="226"/>
+      <c r="A31" s="234"/>
+      <c r="B31" s="222"/>
       <c r="C31" s="114" t="s">
         <v>209</v>
       </c>
       <c r="D31" s="113" t="s">
         <v>210</v>
       </c>
-      <c r="E31" s="227"/>
+      <c r="E31" s="223"/>
       <c r="F31" s="113" t="s">
-        <v>545</v>
-      </c>
-      <c r="G31" s="228"/>
-      <c r="H31" s="229"/>
+        <v>542</v>
+      </c>
+      <c r="G31" s="224"/>
+      <c r="H31" s="225"/>
     </row>
     <row r="32" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="238"/>
-      <c r="B32" s="226"/>
+      <c r="A32" s="234"/>
+      <c r="B32" s="222"/>
       <c r="C32" s="114" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D32" s="113" t="s">
         <v>223</v>
       </c>
-      <c r="E32" s="227"/>
+      <c r="E32" s="223"/>
       <c r="F32" s="113" t="s">
-        <v>546</v>
-      </c>
-      <c r="G32" s="228"/>
-      <c r="H32" s="229"/>
+        <v>543</v>
+      </c>
+      <c r="G32" s="224"/>
+      <c r="H32" s="225"/>
     </row>
     <row r="33" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="238"/>
-      <c r="B33" s="226"/>
+      <c r="A33" s="234"/>
+      <c r="B33" s="222"/>
       <c r="C33" s="114" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D33" s="113" t="s">
-        <v>530</v>
-      </c>
-      <c r="E33" s="227"/>
+        <v>527</v>
+      </c>
+      <c r="E33" s="223"/>
       <c r="F33" s="113" t="s">
-        <v>547</v>
-      </c>
-      <c r="G33" s="228"/>
-      <c r="H33" s="229"/>
+        <v>544</v>
+      </c>
+      <c r="G33" s="224"/>
+      <c r="H33" s="225"/>
     </row>
     <row r="34" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="238"/>
-      <c r="B34" s="226"/>
+      <c r="A34" s="234"/>
+      <c r="B34" s="222"/>
       <c r="C34" s="114" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D34" s="113" t="s">
-        <v>531</v>
-      </c>
-      <c r="E34" s="227"/>
+        <v>528</v>
+      </c>
+      <c r="E34" s="223"/>
       <c r="F34" s="113" t="s">
-        <v>548</v>
-      </c>
-      <c r="G34" s="228"/>
-      <c r="H34" s="229"/>
+        <v>545</v>
+      </c>
+      <c r="G34" s="224"/>
+      <c r="H34" s="225"/>
     </row>
     <row r="35" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="238"/>
-      <c r="B35" s="226"/>
+      <c r="A35" s="234"/>
+      <c r="B35" s="222"/>
       <c r="C35" s="114" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D35" s="113" t="s">
         <v>210</v>
       </c>
-      <c r="E35" s="227"/>
+      <c r="E35" s="223"/>
       <c r="F35" s="113" t="s">
-        <v>549</v>
-      </c>
-      <c r="G35" s="228"/>
-      <c r="H35" s="229"/>
+        <v>546</v>
+      </c>
+      <c r="G35" s="224"/>
+      <c r="H35" s="225"/>
     </row>
     <row r="36" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="238"/>
-      <c r="B36" s="226"/>
+      <c r="A36" s="234"/>
+      <c r="B36" s="222"/>
       <c r="C36" s="114" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D36" s="113" t="s">
-        <v>532</v>
-      </c>
-      <c r="E36" s="227"/>
+        <v>529</v>
+      </c>
+      <c r="E36" s="223"/>
       <c r="F36" s="113" t="s">
-        <v>539</v>
-      </c>
-      <c r="G36" s="228"/>
-      <c r="H36" s="229"/>
+        <v>536</v>
+      </c>
+      <c r="G36" s="224"/>
+      <c r="H36" s="225"/>
     </row>
     <row r="37" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="238"/>
-      <c r="B37" s="226"/>
+      <c r="A37" s="234"/>
+      <c r="B37" s="222"/>
       <c r="C37" s="114" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D37" s="113" t="s">
         <v>223</v>
       </c>
-      <c r="E37" s="227"/>
+      <c r="E37" s="223"/>
       <c r="F37" s="113" t="s">
-        <v>540</v>
-      </c>
-      <c r="G37" s="228"/>
-      <c r="H37" s="229"/>
+        <v>537</v>
+      </c>
+      <c r="G37" s="224"/>
+      <c r="H37" s="225"/>
     </row>
     <row r="38" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="238"/>
-      <c r="B38" s="226"/>
+      <c r="A38" s="234"/>
+      <c r="B38" s="222"/>
       <c r="C38" s="114" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D38" s="113" t="s">
         <v>223</v>
       </c>
-      <c r="E38" s="227"/>
+      <c r="E38" s="223"/>
       <c r="F38" s="113" t="s">
-        <v>541</v>
-      </c>
-      <c r="G38" s="228"/>
-      <c r="H38" s="229"/>
+        <v>538</v>
+      </c>
+      <c r="G38" s="224"/>
+      <c r="H38" s="225"/>
     </row>
     <row r="39" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="238"/>
-      <c r="B39" s="226"/>
+      <c r="A39" s="234"/>
+      <c r="B39" s="222"/>
       <c r="C39" s="114" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D39" s="113" t="s">
         <v>223</v>
       </c>
-      <c r="E39" s="227"/>
+      <c r="E39" s="223"/>
       <c r="F39" s="113" t="s">
-        <v>550</v>
-      </c>
-      <c r="G39" s="228"/>
-      <c r="H39" s="229"/>
+        <v>547</v>
+      </c>
+      <c r="G39" s="224"/>
+      <c r="H39" s="225"/>
     </row>
     <row r="40" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="238"/>
-      <c r="B40" s="226"/>
+      <c r="A40" s="234"/>
+      <c r="B40" s="222"/>
       <c r="C40" s="114" t="s">
+        <v>526</v>
+      </c>
+      <c r="D40" s="113" t="s">
         <v>529</v>
       </c>
-      <c r="D40" s="113" t="s">
-        <v>532</v>
-      </c>
-      <c r="E40" s="227"/>
+      <c r="E40" s="223"/>
       <c r="F40" s="113" t="s">
-        <v>551</v>
-      </c>
-      <c r="G40" s="228"/>
-      <c r="H40" s="229"/>
+        <v>548</v>
+      </c>
+      <c r="G40" s="224"/>
+      <c r="H40" s="225"/>
     </row>
     <row r="41" spans="1:1024" ht="41.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="239"/>
+      <c r="A41" s="235"/>
       <c r="B41" s="116" t="s">
         <v>235</v>
       </c>
@@ -36417,15 +36438,15 @@
       </c>
       <c r="E41" s="117"/>
       <c r="F41" s="116" t="s">
-        <v>552</v>
-      </c>
-      <c r="G41" s="201" t="s">
+        <v>549</v>
+      </c>
+      <c r="G41" s="198" t="s">
         <v>43</v>
       </c>
       <c r="H41" s="118"/>
     </row>
     <row r="42" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="240" t="s">
+      <c r="A42" s="236" t="s">
         <v>236</v>
       </c>
       <c r="B42" s="119"/>
@@ -36433,7 +36454,7 @@
       <c r="D42" s="119"/>
       <c r="E42" s="119"/>
       <c r="F42" s="119"/>
-      <c r="G42" s="202"/>
+      <c r="G42" s="199"/>
       <c r="H42" s="120"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
@@ -36475,7 +36496,7 @@
       <c r="AMJ42" s="5"/>
     </row>
     <row r="43" spans="1:1024" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="242"/>
+      <c r="A43" s="238"/>
       <c r="B43" s="108" t="s">
         <v>237</v>
       </c>
@@ -36487,7 +36508,7 @@
       <c r="F43" s="108" t="s">
         <v>239</v>
       </c>
-      <c r="G43" s="201" t="s">
+      <c r="G43" s="198" t="s">
         <v>43</v>
       </c>
       <c r="H43" s="110"/>
@@ -36512,7 +36533,7 @@
       <c r="AMJ43" s="5"/>
     </row>
     <row r="44" spans="1:1024" s="7" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="237" t="s">
+      <c r="A44" s="233" t="s">
         <v>72</v>
       </c>
       <c r="B44" s="111"/>
@@ -36520,12 +36541,12 @@
       <c r="D44" s="111"/>
       <c r="E44" s="111"/>
       <c r="F44" s="111"/>
-      <c r="G44" s="199"/>
+      <c r="G44" s="196"/>
       <c r="H44" s="112"/>
       <c r="AMJ44" s="5"/>
     </row>
     <row r="45" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="238"/>
+      <c r="A45" s="234"/>
       <c r="B45" s="113" t="s">
         <v>73</v>
       </c>
@@ -36537,13 +36558,13 @@
       <c r="F45" s="113" t="s">
         <v>240</v>
       </c>
-      <c r="G45" s="201" t="s">
+      <c r="G45" s="198" t="s">
         <v>43</v>
       </c>
       <c r="H45" s="115"/>
     </row>
     <row r="46" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="238"/>
+      <c r="A46" s="234"/>
       <c r="B46" s="113" t="s">
         <v>76</v>
       </c>
@@ -36555,13 +36576,13 @@
       <c r="F46" s="113" t="s">
         <v>241</v>
       </c>
-      <c r="G46" s="201" t="s">
+      <c r="G46" s="198" t="s">
         <v>43</v>
       </c>
       <c r="H46" s="115"/>
     </row>
     <row r="47" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="239"/>
+      <c r="A47" s="235"/>
       <c r="B47" s="116" t="s">
         <v>79</v>
       </c>
@@ -36573,13 +36594,13 @@
       <c r="F47" s="116" t="s">
         <v>242</v>
       </c>
-      <c r="G47" s="201" t="s">
+      <c r="G47" s="198" t="s">
         <v>43</v>
       </c>
       <c r="H47" s="118"/>
     </row>
     <row r="48" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="240" t="s">
+      <c r="A48" s="236" t="s">
         <v>243</v>
       </c>
       <c r="B48" s="121"/>
@@ -36587,7 +36608,7 @@
       <c r="D48" s="121"/>
       <c r="E48" s="121"/>
       <c r="F48" s="121"/>
-      <c r="G48" s="203"/>
+      <c r="G48" s="200"/>
       <c r="H48" s="122"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
@@ -36610,7 +36631,7 @@
       <c r="AMJ48" s="5"/>
     </row>
     <row r="49" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="241"/>
+      <c r="A49" s="237"/>
       <c r="B49" s="105" t="s">
         <v>244</v>
       </c>
@@ -36622,13 +36643,13 @@
       <c r="F49" s="105" t="s">
         <v>245</v>
       </c>
-      <c r="G49" s="197" t="s">
+      <c r="G49" s="194" t="s">
         <v>43</v>
       </c>
       <c r="H49" s="107"/>
     </row>
     <row r="50" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="241"/>
+      <c r="A50" s="237"/>
       <c r="B50" s="105" t="s">
         <v>246</v>
       </c>
@@ -36640,13 +36661,13 @@
       <c r="F50" s="105" t="s">
         <v>247</v>
       </c>
-      <c r="G50" s="197" t="s">
+      <c r="G50" s="194" t="s">
         <v>43</v>
       </c>
       <c r="H50" s="107"/>
     </row>
     <row r="51" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="241"/>
+      <c r="A51" s="237"/>
       <c r="B51" s="105" t="s">
         <v>46</v>
       </c>
@@ -36658,13 +36679,13 @@
       <c r="F51" s="105" t="s">
         <v>248</v>
       </c>
-      <c r="G51" s="197" t="s">
+      <c r="G51" s="194" t="s">
         <v>43</v>
       </c>
       <c r="H51" s="107"/>
     </row>
     <row r="52" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="241"/>
+      <c r="A52" s="237"/>
       <c r="B52" s="105" t="s">
         <v>48</v>
       </c>
@@ -36676,13 +36697,13 @@
       <c r="F52" s="105" t="s">
         <v>249</v>
       </c>
-      <c r="G52" s="197" t="s">
+      <c r="G52" s="194" t="s">
         <v>43</v>
       </c>
       <c r="H52" s="107"/>
     </row>
     <row r="53" spans="1:1024" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="241"/>
+      <c r="A53" s="237"/>
       <c r="B53" s="105" t="s">
         <v>61</v>
       </c>
@@ -36694,7 +36715,7 @@
       <c r="F53" s="105" t="s">
         <v>250</v>
       </c>
-      <c r="G53" s="197" t="s">
+      <c r="G53" s="194" t="s">
         <v>43</v>
       </c>
       <c r="H53" s="107"/>
@@ -36720,7 +36741,7 @@
       <c r="AMJ53" s="5"/>
     </row>
     <row r="54" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="241"/>
+      <c r="A54" s="237"/>
       <c r="B54" s="105" t="s">
         <v>63</v>
       </c>
@@ -36732,13 +36753,13 @@
       <c r="F54" s="105" t="s">
         <v>251</v>
       </c>
-      <c r="G54" s="197" t="s">
+      <c r="G54" s="194" t="s">
         <v>43</v>
       </c>
       <c r="H54" s="107"/>
     </row>
     <row r="55" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="241"/>
+      <c r="A55" s="237"/>
       <c r="B55" s="105" t="s">
         <v>65</v>
       </c>
@@ -36750,13 +36771,13 @@
       <c r="F55" s="105" t="s">
         <v>252</v>
       </c>
-      <c r="G55" s="197" t="s">
+      <c r="G55" s="194" t="s">
         <v>43</v>
       </c>
       <c r="H55" s="107"/>
     </row>
     <row r="56" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="241"/>
+      <c r="A56" s="237"/>
       <c r="B56" s="105" t="s">
         <v>67</v>
       </c>
@@ -36768,13 +36789,13 @@
       <c r="F56" s="105" t="s">
         <v>253</v>
       </c>
-      <c r="G56" s="197" t="s">
+      <c r="G56" s="194" t="s">
         <v>43</v>
       </c>
       <c r="H56" s="107"/>
     </row>
     <row r="57" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="242"/>
+      <c r="A57" s="238"/>
       <c r="B57" s="108" t="s">
         <v>69</v>
       </c>
@@ -36786,26 +36807,26 @@
       <c r="F57" s="108" t="s">
         <v>254</v>
       </c>
-      <c r="G57" s="198" t="s">
+      <c r="G57" s="195" t="s">
         <v>43</v>
       </c>
       <c r="H57" s="110"/>
     </row>
     <row r="58" spans="1:1024" s="7" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="237" t="s">
-        <v>502</v>
+      <c r="A58" s="233" t="s">
+        <v>499</v>
       </c>
       <c r="B58" s="123"/>
       <c r="C58" s="123"/>
       <c r="D58" s="123"/>
       <c r="E58" s="123"/>
       <c r="F58" s="123"/>
-      <c r="G58" s="204"/>
+      <c r="G58" s="201"/>
       <c r="H58" s="124"/>
       <c r="AMJ58" s="5"/>
     </row>
     <row r="59" spans="1:1024" ht="90.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="239"/>
+      <c r="A59" s="235"/>
       <c r="B59" s="116" t="s">
         <v>5</v>
       </c>
@@ -36817,7 +36838,7 @@
       <c r="F59" s="116" t="s">
         <v>255</v>
       </c>
-      <c r="G59" s="201"/>
+      <c r="G59" s="198"/>
       <c r="H59" s="118"/>
     </row>
   </sheetData>
@@ -36860,23 +36881,23 @@
     <col min="3" max="4" width="20.7109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="40.7109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="50.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="205" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="202" customWidth="1"/>
     <col min="8" max="8" width="30.7109375" style="5" customWidth="1"/>
     <col min="9" max="1024" width="0" style="5" hidden="1" customWidth="1"/>
     <col min="1025" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="243" t="s">
-        <v>491</v>
-      </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="243"/>
-      <c r="H1" s="244"/>
+      <c r="A1" s="239" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="240"/>
     </row>
     <row r="2" spans="1:1024" s="16" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
@@ -37921,15 +37942,15 @@
       <c r="AMJ2" s="17"/>
     </row>
     <row r="3" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="253" t="s">
-        <v>503</v>
+      <c r="A3" s="249" t="s">
+        <v>500</v>
       </c>
       <c r="B3" s="121"/>
       <c r="C3" s="121"/>
       <c r="D3" s="121"/>
       <c r="E3" s="121"/>
       <c r="F3" s="121"/>
-      <c r="G3" s="203"/>
+      <c r="G3" s="200"/>
       <c r="H3" s="125"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -37946,7 +37967,7 @@
       <c r="AMJ3" s="5"/>
     </row>
     <row r="4" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="254"/>
+      <c r="A4" s="250"/>
       <c r="B4" s="105" t="s">
         <v>206</v>
       </c>
@@ -37960,13 +37981,13 @@
       <c r="F4" s="105" t="s">
         <v>304</v>
       </c>
-      <c r="G4" s="197" t="s">
-        <v>500</v>
+      <c r="G4" s="194" t="s">
+        <v>497</v>
       </c>
       <c r="H4" s="126"/>
     </row>
     <row r="5" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="254"/>
+      <c r="A5" s="250"/>
       <c r="B5" s="105" t="s">
         <v>305</v>
       </c>
@@ -37980,15 +38001,15 @@
       <c r="F5" s="105" t="s">
         <v>306</v>
       </c>
-      <c r="G5" s="197" t="s">
-        <v>500</v>
+      <c r="G5" s="194" t="s">
+        <v>497</v>
       </c>
       <c r="H5" s="126"/>
     </row>
     <row r="6" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="254"/>
+      <c r="A6" s="250"/>
       <c r="B6" s="105" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C6" s="106"/>
       <c r="D6" s="105" t="s">
@@ -38000,13 +38021,13 @@
       <c r="F6" s="105" t="s">
         <v>307</v>
       </c>
-      <c r="G6" s="197" t="s">
-        <v>500</v>
+      <c r="G6" s="194" t="s">
+        <v>497</v>
       </c>
       <c r="H6" s="126"/>
     </row>
     <row r="7" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="254"/>
+      <c r="A7" s="250"/>
       <c r="B7" s="105" t="s">
         <v>308</v>
       </c>
@@ -38015,18 +38036,18 @@
         <v>309</v>
       </c>
       <c r="E7" s="106" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F7" s="105" t="s">
         <v>310</v>
       </c>
-      <c r="G7" s="197" t="s">
-        <v>500</v>
+      <c r="G7" s="194" t="s">
+        <v>497</v>
       </c>
       <c r="H7" s="126"/>
     </row>
     <row r="8" spans="1:1024" s="7" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="256" t="s">
+      <c r="A8" s="252" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="123"/>
@@ -38034,12 +38055,12 @@
       <c r="D8" s="123"/>
       <c r="E8" s="123"/>
       <c r="F8" s="123"/>
-      <c r="G8" s="204"/>
+      <c r="G8" s="201"/>
       <c r="H8" s="128"/>
       <c r="AMJ8" s="5"/>
     </row>
     <row r="9" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="258"/>
+      <c r="A9" s="254"/>
       <c r="B9" s="113" t="s">
         <v>311</v>
       </c>
@@ -38048,12 +38069,12 @@
         <v>210</v>
       </c>
       <c r="E9" s="114" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F9" s="113" t="s">
         <v>312</v>
       </c>
-      <c r="G9" s="206" t="s">
+      <c r="G9" s="203" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="129"/>
@@ -39075,21 +39096,21 @@
       <c r="AMJ9" s="8"/>
     </row>
     <row r="10" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="258"/>
+      <c r="A10" s="254"/>
       <c r="B10" s="113" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C10" s="114"/>
       <c r="D10" s="113" t="s">
         <v>210</v>
       </c>
       <c r="E10" s="114" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F10" s="113" t="s">
-        <v>484</v>
-      </c>
-      <c r="G10" s="200" t="s">
+        <v>481</v>
+      </c>
+      <c r="G10" s="197" t="s">
         <v>43</v>
       </c>
       <c r="H10" s="129"/>
@@ -40111,7 +40132,7 @@
       <c r="AMJ10" s="8"/>
     </row>
     <row r="11" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="258"/>
+      <c r="A11" s="254"/>
       <c r="B11" s="113" t="s">
         <v>316</v>
       </c>
@@ -40120,12 +40141,12 @@
         <v>210</v>
       </c>
       <c r="E11" s="114" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F11" s="113" t="s">
         <v>317</v>
       </c>
-      <c r="G11" s="200" t="s">
+      <c r="G11" s="197" t="s">
         <v>43</v>
       </c>
       <c r="H11" s="129"/>
@@ -41147,21 +41168,21 @@
       <c r="AMJ11" s="8"/>
     </row>
     <row r="12" spans="1:1024" s="10" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="258"/>
+      <c r="A12" s="254"/>
       <c r="B12" s="113" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C12" s="114"/>
       <c r="D12" s="113" t="s">
         <v>318</v>
       </c>
       <c r="E12" s="117" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F12" s="116" t="s">
         <v>319</v>
       </c>
-      <c r="G12" s="200" t="s">
+      <c r="G12" s="197" t="s">
         <v>43</v>
       </c>
       <c r="H12" s="129"/>
@@ -42183,7 +42204,7 @@
       <c r="AMJ12" s="8"/>
     </row>
     <row r="13" spans="1:1024" s="10" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="258"/>
+      <c r="A13" s="254"/>
       <c r="B13" s="113" t="s">
         <v>313</v>
       </c>
@@ -42192,12 +42213,12 @@
         <v>314</v>
       </c>
       <c r="E13" s="114" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F13" s="113" t="s">
         <v>315</v>
       </c>
-      <c r="G13" s="200" t="s">
+      <c r="G13" s="197" t="s">
         <v>43</v>
       </c>
       <c r="H13" s="129"/>
@@ -43219,15 +43240,15 @@
       <c r="AMJ13" s="8"/>
     </row>
     <row r="14" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="253" t="s">
-        <v>504</v>
+      <c r="A14" s="249" t="s">
+        <v>501</v>
       </c>
       <c r="B14" s="121"/>
       <c r="C14" s="121"/>
       <c r="D14" s="121"/>
       <c r="E14" s="121"/>
       <c r="F14" s="121"/>
-      <c r="G14" s="207"/>
+      <c r="G14" s="204"/>
       <c r="H14" s="131"/>
       <c r="I14" s="7"/>
       <c r="J14" s="5"/>
@@ -43240,7 +43261,7 @@
       <c r="AMJ14" s="5"/>
     </row>
     <row r="15" spans="1:1024" s="16" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="255"/>
+      <c r="A15" s="251"/>
       <c r="B15" s="108" t="s">
         <v>320</v>
       </c>
@@ -43249,12 +43270,12 @@
         <v>321</v>
       </c>
       <c r="E15" s="109" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F15" s="108" t="s">
         <v>322</v>
       </c>
-      <c r="G15" s="198" t="s">
+      <c r="G15" s="195" t="s">
         <v>43</v>
       </c>
       <c r="H15" s="127"/>
@@ -44276,7 +44297,7 @@
       <c r="AMJ15" s="17"/>
     </row>
     <row r="16" spans="1:1024" s="40" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="256" t="s">
+      <c r="A16" s="252" t="s">
         <v>323</v>
       </c>
       <c r="B16" s="111"/>
@@ -44284,7 +44305,7 @@
       <c r="D16" s="111"/>
       <c r="E16" s="111"/>
       <c r="F16" s="111"/>
-      <c r="G16" s="199"/>
+      <c r="G16" s="196"/>
       <c r="H16" s="111"/>
       <c r="I16" s="39"/>
       <c r="J16" s="39"/>
@@ -45304,7 +45325,7 @@
       <c r="AMJ16" s="39"/>
     </row>
     <row r="17" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="258"/>
+      <c r="A17" s="254"/>
       <c r="B17" s="113" t="s">
         <v>94</v>
       </c>
@@ -45313,18 +45334,18 @@
         <v>219</v>
       </c>
       <c r="E17" s="114" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F17" s="113" t="s">
         <v>324</v>
       </c>
-      <c r="G17" s="206" t="s">
+      <c r="G17" s="203" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="129"/>
     </row>
     <row r="18" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="258"/>
+      <c r="A18" s="254"/>
       <c r="B18" s="113" t="s">
         <v>98</v>
       </c>
@@ -45333,18 +45354,18 @@
         <v>219</v>
       </c>
       <c r="E18" s="114" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F18" s="113" t="s">
         <v>325</v>
       </c>
-      <c r="G18" s="206" t="s">
+      <c r="G18" s="203" t="s">
         <v>12</v>
       </c>
       <c r="H18" s="129"/>
     </row>
     <row r="19" spans="1:1024" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="257"/>
+      <c r="A19" s="253"/>
       <c r="B19" s="116" t="s">
         <v>102</v>
       </c>
@@ -45353,18 +45374,18 @@
         <v>321</v>
       </c>
       <c r="E19" s="117" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F19" s="116" t="s">
         <v>326</v>
       </c>
-      <c r="G19" s="201" t="s">
+      <c r="G19" s="198" t="s">
         <v>327</v>
       </c>
       <c r="H19" s="130"/>
     </row>
     <row r="20" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="253" t="s">
+      <c r="A20" s="249" t="s">
         <v>328</v>
       </c>
       <c r="B20" s="121"/>
@@ -45372,7 +45393,7 @@
       <c r="D20" s="121"/>
       <c r="E20" s="121"/>
       <c r="F20" s="121"/>
-      <c r="G20" s="207"/>
+      <c r="G20" s="204"/>
       <c r="H20" s="131"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -45384,7 +45405,7 @@
       <c r="AMJ20" s="5"/>
     </row>
     <row r="21" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="254"/>
+      <c r="A21" s="250"/>
       <c r="B21" s="105" t="s">
         <v>106</v>
       </c>
@@ -45393,71 +45414,71 @@
         <v>210</v>
       </c>
       <c r="E21" s="106" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F21" s="105" t="s">
         <v>329</v>
       </c>
-      <c r="G21" s="197" t="s">
+      <c r="G21" s="194" t="s">
         <v>330</v>
       </c>
       <c r="H21" s="126"/>
     </row>
     <row r="22" spans="1:1024" ht="146.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="254"/>
+      <c r="A22" s="250"/>
       <c r="B22" s="105" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C22" s="106"/>
       <c r="D22" s="105" t="s">
         <v>225</v>
       </c>
       <c r="E22" s="106" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F22" s="105" t="s">
-        <v>554</v>
-      </c>
-      <c r="G22" s="197" t="s">
+        <v>551</v>
+      </c>
+      <c r="G22" s="194" t="s">
         <v>331</v>
       </c>
       <c r="H22" s="126"/>
     </row>
     <row r="23" spans="1:1024" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="255"/>
+      <c r="A23" s="251"/>
       <c r="B23" s="108" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C23" s="109"/>
       <c r="D23" s="108" t="s">
         <v>332</v>
       </c>
       <c r="E23" s="109" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F23" s="108" t="s">
         <v>333</v>
       </c>
-      <c r="G23" s="198" t="s">
+      <c r="G23" s="195" t="s">
         <v>327</v>
       </c>
       <c r="H23" s="127"/>
     </row>
     <row r="24" spans="1:1024" s="7" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="256" t="s">
-        <v>505</v>
+      <c r="A24" s="252" t="s">
+        <v>502</v>
       </c>
       <c r="B24" s="132"/>
       <c r="C24" s="132"/>
       <c r="D24" s="132"/>
       <c r="E24" s="132"/>
       <c r="F24" s="132"/>
-      <c r="G24" s="208"/>
+      <c r="G24" s="205"/>
       <c r="H24" s="133"/>
       <c r="AMJ24" s="5"/>
     </row>
     <row r="25" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="257"/>
+      <c r="A25" s="253"/>
       <c r="B25" s="116" t="s">
         <v>334</v>
       </c>
@@ -45469,13 +45490,13 @@
       <c r="F25" s="116" t="s">
         <v>336</v>
       </c>
-      <c r="G25" s="201" t="s">
-        <v>501</v>
+      <c r="G25" s="198" t="s">
+        <v>498</v>
       </c>
       <c r="H25" s="130"/>
     </row>
     <row r="26" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="253" t="s">
+      <c r="A26" s="249" t="s">
         <v>337</v>
       </c>
       <c r="B26" s="121"/>
@@ -45483,7 +45504,7 @@
       <c r="D26" s="121"/>
       <c r="E26" s="121"/>
       <c r="F26" s="121"/>
-      <c r="G26" s="207"/>
+      <c r="G26" s="204"/>
       <c r="H26" s="131"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -45495,7 +45516,7 @@
       <c r="AMJ26" s="5"/>
     </row>
     <row r="27" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
-      <c r="A27" s="254"/>
+      <c r="A27" s="250"/>
       <c r="B27" s="105" t="s">
         <v>110</v>
       </c>
@@ -45504,18 +45525,18 @@
         <v>210</v>
       </c>
       <c r="E27" s="106" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F27" s="105" t="s">
         <v>338</v>
       </c>
-      <c r="G27" s="197" t="s">
+      <c r="G27" s="194" t="s">
         <v>43</v>
       </c>
       <c r="H27" s="126"/>
     </row>
     <row r="28" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="254"/>
+      <c r="A28" s="250"/>
       <c r="B28" s="105" t="s">
         <v>118</v>
       </c>
@@ -45524,18 +45545,18 @@
         <v>210</v>
       </c>
       <c r="E28" s="106" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F28" s="105" t="s">
         <v>339</v>
       </c>
-      <c r="G28" s="197" t="s">
+      <c r="G28" s="194" t="s">
         <v>43</v>
       </c>
       <c r="H28" s="126"/>
     </row>
     <row r="29" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="254"/>
+      <c r="A29" s="250"/>
       <c r="B29" s="105" t="s">
         <v>122</v>
       </c>
@@ -45544,18 +45565,18 @@
         <v>210</v>
       </c>
       <c r="E29" s="106" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F29" s="105" t="s">
         <v>340</v>
       </c>
-      <c r="G29" s="197" t="s">
+      <c r="G29" s="194" t="s">
         <v>43</v>
       </c>
       <c r="H29" s="126"/>
     </row>
     <row r="30" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="254"/>
+      <c r="A30" s="250"/>
       <c r="B30" s="105" t="s">
         <v>126</v>
       </c>
@@ -45564,18 +45585,18 @@
         <v>210</v>
       </c>
       <c r="E30" s="106" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F30" s="105" t="s">
         <v>341</v>
       </c>
-      <c r="G30" s="197" t="s">
+      <c r="G30" s="194" t="s">
         <v>43</v>
       </c>
       <c r="H30" s="126"/>
     </row>
     <row r="31" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="255"/>
+      <c r="A31" s="251"/>
       <c r="B31" s="108" t="s">
         <v>130</v>
       </c>
@@ -45584,18 +45605,18 @@
         <v>210</v>
       </c>
       <c r="E31" s="109" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F31" s="108" t="s">
         <v>342</v>
       </c>
-      <c r="G31" s="198" t="s">
+      <c r="G31" s="195" t="s">
         <v>43</v>
       </c>
       <c r="H31" s="127"/>
     </row>
     <row r="32" spans="1:1024" s="7" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="256" t="s">
+      <c r="A32" s="252" t="s">
         <v>343</v>
       </c>
       <c r="B32" s="123"/>
@@ -45603,12 +45624,12 @@
       <c r="D32" s="123"/>
       <c r="E32" s="123"/>
       <c r="F32" s="123"/>
-      <c r="G32" s="204"/>
+      <c r="G32" s="201"/>
       <c r="H32" s="128"/>
       <c r="AMJ32" s="5"/>
     </row>
     <row r="33" spans="1:8" ht="89.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="258"/>
+      <c r="A33" s="254"/>
       <c r="B33" s="113" t="s">
         <v>134</v>
       </c>
@@ -45617,36 +45638,36 @@
         <v>210</v>
       </c>
       <c r="E33" s="114" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F33" s="113" t="s">
-        <v>486</v>
-      </c>
-      <c r="G33" s="200" t="s">
+        <v>483</v>
+      </c>
+      <c r="G33" s="197" t="s">
         <v>43</v>
       </c>
       <c r="H33" s="129"/>
     </row>
     <row r="34" spans="1:8" ht="89.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="258"/>
+      <c r="A34" s="254"/>
       <c r="B34" s="113" t="s">
-        <v>555</v>
-      </c>
-      <c r="C34" s="227"/>
-      <c r="D34" s="226" t="s">
+        <v>552</v>
+      </c>
+      <c r="C34" s="223"/>
+      <c r="D34" s="222" t="s">
         <v>318</v>
       </c>
       <c r="E34" s="114" t="s">
-        <v>556</v>
-      </c>
-      <c r="F34" s="226"/>
-      <c r="G34" s="228" t="s">
+        <v>553</v>
+      </c>
+      <c r="F34" s="222"/>
+      <c r="G34" s="224" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="230"/>
+      <c r="H34" s="226"/>
     </row>
     <row r="35" spans="1:8" ht="44.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="257"/>
+      <c r="A35" s="253"/>
       <c r="B35" s="116" t="s">
         <v>344</v>
       </c>
@@ -45658,7 +45679,7 @@
       <c r="F35" s="116" t="s">
         <v>345</v>
       </c>
-      <c r="G35" s="201" t="s">
+      <c r="G35" s="198" t="s">
         <v>43</v>
       </c>
       <c r="H35" s="130"/>
@@ -45707,7 +45728,7 @@
     <col min="3" max="4" width="20.7109375" style="134" customWidth="1"/>
     <col min="5" max="5" width="40.7109375" style="134" customWidth="1"/>
     <col min="6" max="6" width="50.7109375" style="134" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="209" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="206" customWidth="1"/>
     <col min="8" max="8" width="30.7109375" style="134" customWidth="1"/>
     <col min="9" max="67" width="10.42578125" style="134" hidden="1" customWidth="1"/>
     <col min="68" max="1024" width="0" style="134" hidden="1" customWidth="1"/>
@@ -45715,16 +45736,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="243" t="s">
-        <v>492</v>
-      </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="243"/>
-      <c r="H1" s="244"/>
+      <c r="A1" s="239" t="s">
+        <v>489</v>
+      </c>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="240"/>
     </row>
     <row r="2" spans="1:1024" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
@@ -45753,8 +45774,8 @@
       </c>
     </row>
     <row r="3" spans="1:1024" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="240" t="s">
-        <v>506</v>
+      <c r="A3" s="236" t="s">
+        <v>503</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -45780,7 +45801,7 @@
       <c r="AMJ3" s="134"/>
     </row>
     <row r="4" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="241"/>
+      <c r="A4" s="237"/>
       <c r="B4" s="106" t="s">
         <v>206</v>
       </c>
@@ -45794,13 +45815,13 @@
       <c r="F4" s="136" t="s">
         <v>346</v>
       </c>
-      <c r="G4" s="197" t="s">
-        <v>500</v>
+      <c r="G4" s="194" t="s">
+        <v>497</v>
       </c>
       <c r="H4" s="137"/>
     </row>
     <row r="5" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="241"/>
+      <c r="A5" s="237"/>
       <c r="B5" s="106" t="s">
         <v>259</v>
       </c>
@@ -45814,13 +45835,13 @@
       <c r="F5" s="136" t="s">
         <v>262</v>
       </c>
-      <c r="G5" s="197" t="s">
-        <v>500</v>
+      <c r="G5" s="194" t="s">
+        <v>497</v>
       </c>
       <c r="H5" s="137"/>
     </row>
     <row r="6" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="241"/>
+      <c r="A6" s="237"/>
       <c r="B6" s="106" t="s">
         <v>212</v>
       </c>
@@ -45834,11 +45855,11 @@
       <c r="F6" s="136" t="s">
         <v>347</v>
       </c>
-      <c r="G6" s="197"/>
+      <c r="G6" s="194"/>
       <c r="H6" s="137"/>
     </row>
     <row r="7" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="241"/>
+      <c r="A7" s="237"/>
       <c r="B7" s="106" t="s">
         <v>265</v>
       </c>
@@ -45852,13 +45873,13 @@
       <c r="F7" s="136" t="s">
         <v>267</v>
       </c>
-      <c r="G7" s="197" t="s">
-        <v>500</v>
+      <c r="G7" s="194" t="s">
+        <v>497</v>
       </c>
       <c r="H7" s="137"/>
     </row>
     <row r="8" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="241"/>
+      <c r="A8" s="237"/>
       <c r="B8" s="106" t="s">
         <v>268</v>
       </c>
@@ -45872,13 +45893,13 @@
       <c r="F8" s="136" t="s">
         <v>348</v>
       </c>
-      <c r="G8" s="197" t="s">
-        <v>500</v>
+      <c r="G8" s="194" t="s">
+        <v>497</v>
       </c>
       <c r="H8" s="137"/>
     </row>
     <row r="9" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="241"/>
+      <c r="A9" s="237"/>
       <c r="B9" s="106" t="s">
         <v>271</v>
       </c>
@@ -45892,13 +45913,13 @@
       <c r="F9" s="136" t="s">
         <v>274</v>
       </c>
-      <c r="G9" s="197" t="s">
-        <v>500</v>
+      <c r="G9" s="194" t="s">
+        <v>497</v>
       </c>
       <c r="H9" s="137"/>
     </row>
     <row r="10" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="241"/>
+      <c r="A10" s="237"/>
       <c r="B10" s="106" t="s">
         <v>209</v>
       </c>
@@ -45912,11 +45933,11 @@
       <c r="F10" s="136" t="s">
         <v>351</v>
       </c>
-      <c r="G10" s="197"/>
+      <c r="G10" s="194"/>
       <c r="H10" s="137"/>
     </row>
     <row r="11" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="241"/>
+      <c r="A11" s="237"/>
       <c r="B11" s="106" t="s">
         <v>278</v>
       </c>
@@ -45930,11 +45951,11 @@
       <c r="F11" s="136" t="s">
         <v>352</v>
       </c>
-      <c r="G11" s="197"/>
+      <c r="G11" s="194"/>
       <c r="H11" s="137"/>
     </row>
     <row r="12" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="241"/>
+      <c r="A12" s="237"/>
       <c r="B12" s="106" t="s">
         <v>353</v>
       </c>
@@ -45948,11 +45969,11 @@
       <c r="F12" s="136" t="s">
         <v>355</v>
       </c>
-      <c r="G12" s="197"/>
+      <c r="G12" s="194"/>
       <c r="H12" s="137"/>
     </row>
     <row r="13" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="241"/>
+      <c r="A13" s="237"/>
       <c r="B13" s="106" t="s">
         <v>284</v>
       </c>
@@ -45966,11 +45987,11 @@
       <c r="F13" s="136" t="s">
         <v>287</v>
       </c>
-      <c r="G13" s="197"/>
+      <c r="G13" s="194"/>
       <c r="H13" s="137"/>
     </row>
     <row r="14" spans="1:1024" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="241"/>
+      <c r="A14" s="237"/>
       <c r="B14" s="106" t="s">
         <v>357</v>
       </c>
@@ -45984,11 +46005,11 @@
       <c r="F14" s="136" t="s">
         <v>359</v>
       </c>
-      <c r="G14" s="197"/>
+      <c r="G14" s="194"/>
       <c r="H14" s="137"/>
     </row>
     <row r="15" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="241"/>
+      <c r="A15" s="237"/>
       <c r="B15" s="106" t="s">
         <v>360</v>
       </c>
@@ -46002,11 +46023,11 @@
       <c r="F15" s="136" t="s">
         <v>362</v>
       </c>
-      <c r="G15" s="197"/>
+      <c r="G15" s="194"/>
       <c r="H15" s="137"/>
     </row>
     <row r="16" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="241"/>
+      <c r="A16" s="237"/>
       <c r="B16" s="106" t="s">
         <v>363</v>
       </c>
@@ -46020,11 +46041,11 @@
       <c r="F16" s="136" t="s">
         <v>366</v>
       </c>
-      <c r="G16" s="197"/>
+      <c r="G16" s="194"/>
       <c r="H16" s="137"/>
     </row>
     <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="241"/>
+      <c r="A17" s="237"/>
       <c r="B17" s="106" t="s">
         <v>367</v>
       </c>
@@ -46038,11 +46059,11 @@
       <c r="F17" s="136" t="s">
         <v>368</v>
       </c>
-      <c r="G17" s="197"/>
+      <c r="G17" s="194"/>
       <c r="H17" s="137"/>
     </row>
     <row r="18" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="242"/>
+      <c r="A18" s="238"/>
       <c r="B18" s="109" t="s">
         <v>301</v>
       </c>
@@ -46056,7 +46077,7 @@
       <c r="F18" s="138" t="s">
         <v>303</v>
       </c>
-      <c r="G18" s="198"/>
+      <c r="G18" s="195"/>
       <c r="H18" s="139"/>
     </row>
     <row r="20" spans="1:8" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
@@ -46079,14 +46100,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:BJ22"/>
+  <dimension ref="A1:BJ23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E10" sqref="E10"/>
       <selection pane="topRight" activeCell="E10" sqref="E10"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -46096,23 +46117,23 @@
     <col min="3" max="4" width="20.7109375" style="135" customWidth="1"/>
     <col min="5" max="5" width="40.7109375" style="135" customWidth="1"/>
     <col min="6" max="6" width="50.7109375" style="135" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="211" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="208" customWidth="1"/>
     <col min="8" max="8" width="30.7109375" style="135" customWidth="1"/>
     <col min="9" max="62" width="10.42578125" style="135" hidden="1" customWidth="1"/>
     <col min="63" max="16384" width="0" style="135" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="243" t="s">
-        <v>493</v>
-      </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="243"/>
-      <c r="H1" s="244"/>
+      <c r="A1" s="239" t="s">
+        <v>490</v>
+      </c>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="240"/>
     </row>
     <row r="2" spans="1:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
@@ -46140,20 +46161,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="144" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="259" t="s">
-        <v>506</v>
+    <row r="3" spans="1:17" s="144" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="255" t="s">
+        <v>503</v>
       </c>
       <c r="B3" s="142"/>
       <c r="C3" s="142"/>
       <c r="D3" s="142"/>
       <c r="E3" s="142"/>
       <c r="F3" s="142"/>
-      <c r="G3" s="210"/>
+      <c r="G3" s="207"/>
       <c r="H3" s="143"/>
     </row>
     <row r="4" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="260"/>
+      <c r="A4" s="256"/>
       <c r="B4" s="106" t="s">
         <v>206</v>
       </c>
@@ -46167,8 +46188,8 @@
       <c r="F4" s="105" t="s">
         <v>258</v>
       </c>
-      <c r="G4" s="197" t="s">
-        <v>500</v>
+      <c r="G4" s="194" t="s">
+        <v>497</v>
       </c>
       <c r="H4" s="145"/>
       <c r="I4" s="144"/>
@@ -46181,8 +46202,8 @@
       <c r="P4" s="144"/>
       <c r="Q4" s="144"/>
     </row>
-    <row r="5" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="260"/>
+    <row r="5" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="256"/>
       <c r="B5" s="106" t="s">
         <v>259</v>
       </c>
@@ -46196,8 +46217,8 @@
       <c r="F5" s="106" t="s">
         <v>262</v>
       </c>
-      <c r="G5" s="197" t="s">
-        <v>500</v>
+      <c r="G5" s="194" t="s">
+        <v>497</v>
       </c>
       <c r="H5" s="145"/>
       <c r="I5" s="144"/>
@@ -46210,8 +46231,8 @@
       <c r="P5" s="144"/>
       <c r="Q5" s="144"/>
     </row>
-    <row r="6" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="260"/>
+    <row r="6" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="256"/>
       <c r="B6" s="106" t="s">
         <v>212</v>
       </c>
@@ -46225,7 +46246,7 @@
       <c r="F6" s="106" t="s">
         <v>264</v>
       </c>
-      <c r="G6" s="197"/>
+      <c r="G6" s="194"/>
       <c r="H6" s="145"/>
       <c r="I6" s="144"/>
       <c r="J6" s="146"/>
@@ -46238,7 +46259,7 @@
       <c r="Q6" s="144"/>
     </row>
     <row r="7" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="260"/>
+      <c r="A7" s="256"/>
       <c r="B7" s="106" t="s">
         <v>265</v>
       </c>
@@ -46252,8 +46273,8 @@
       <c r="F7" s="106" t="s">
         <v>267</v>
       </c>
-      <c r="G7" s="197" t="s">
-        <v>500</v>
+      <c r="G7" s="194" t="s">
+        <v>497</v>
       </c>
       <c r="H7" s="145"/>
       <c r="I7" s="144"/>
@@ -46267,7 +46288,7 @@
       <c r="Q7" s="144"/>
     </row>
     <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="260"/>
+      <c r="A8" s="256"/>
       <c r="B8" s="106" t="s">
         <v>268</v>
       </c>
@@ -46281,8 +46302,8 @@
       <c r="F8" s="106" t="s">
         <v>270</v>
       </c>
-      <c r="G8" s="197" t="s">
-        <v>500</v>
+      <c r="G8" s="194" t="s">
+        <v>497</v>
       </c>
       <c r="H8" s="145"/>
       <c r="I8" s="144"/>
@@ -46296,7 +46317,7 @@
       <c r="Q8" s="144"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="260"/>
+      <c r="A9" s="256"/>
       <c r="B9" s="106" t="s">
         <v>271</v>
       </c>
@@ -46310,8 +46331,8 @@
       <c r="F9" s="106" t="s">
         <v>274</v>
       </c>
-      <c r="G9" s="197" t="s">
-        <v>500</v>
+      <c r="G9" s="194" t="s">
+        <v>497</v>
       </c>
       <c r="H9" s="149"/>
       <c r="I9" s="144"/>
@@ -46325,7 +46346,7 @@
       <c r="Q9" s="144"/>
     </row>
     <row r="10" spans="1:17" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="260"/>
+      <c r="A10" s="256"/>
       <c r="B10" s="106" t="s">
         <v>209</v>
       </c>
@@ -46339,7 +46360,7 @@
       <c r="F10" s="106" t="s">
         <v>277</v>
       </c>
-      <c r="G10" s="197"/>
+      <c r="G10" s="194"/>
       <c r="H10" s="145"/>
       <c r="I10" s="144"/>
       <c r="J10" s="146"/>
@@ -46352,7 +46373,7 @@
       <c r="Q10" s="144"/>
     </row>
     <row r="11" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="260"/>
+      <c r="A11" s="256"/>
       <c r="B11" s="106" t="s">
         <v>278</v>
       </c>
@@ -46366,7 +46387,7 @@
       <c r="F11" s="106" t="s">
         <v>280</v>
       </c>
-      <c r="G11" s="197"/>
+      <c r="G11" s="194"/>
       <c r="H11" s="145"/>
       <c r="I11" s="144"/>
       <c r="J11" s="146"/>
@@ -46379,7 +46400,7 @@
       <c r="Q11" s="144"/>
     </row>
     <row r="12" spans="1:17" s="151" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="260"/>
+      <c r="A12" s="256"/>
       <c r="B12" s="106" t="s">
         <v>281</v>
       </c>
@@ -46393,7 +46414,7 @@
       <c r="F12" s="106" t="s">
         <v>283</v>
       </c>
-      <c r="G12" s="197"/>
+      <c r="G12" s="194"/>
       <c r="H12" s="145"/>
       <c r="I12" s="144"/>
       <c r="J12" s="146"/>
@@ -46406,7 +46427,7 @@
       <c r="Q12" s="144"/>
     </row>
     <row r="13" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="260"/>
+      <c r="A13" s="256"/>
       <c r="B13" s="106" t="s">
         <v>284</v>
       </c>
@@ -46420,7 +46441,7 @@
       <c r="F13" s="106" t="s">
         <v>287</v>
       </c>
-      <c r="G13" s="197"/>
+      <c r="G13" s="194"/>
       <c r="H13" s="145"/>
       <c r="I13" s="144"/>
       <c r="J13" s="146"/>
@@ -46433,7 +46454,7 @@
       <c r="Q13" s="144"/>
     </row>
     <row r="14" spans="1:17" ht="37.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="260"/>
+      <c r="A14" s="256"/>
       <c r="B14" s="106" t="s">
         <v>288</v>
       </c>
@@ -46447,7 +46468,7 @@
       <c r="F14" s="106" t="s">
         <v>290</v>
       </c>
-      <c r="G14" s="197"/>
+      <c r="G14" s="194"/>
       <c r="H14" s="145"/>
       <c r="I14" s="144"/>
       <c r="J14" s="146"/>
@@ -46460,7 +46481,7 @@
       <c r="Q14" s="144"/>
     </row>
     <row r="15" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="260"/>
+      <c r="A15" s="256"/>
       <c r="B15" s="106" t="s">
         <v>291</v>
       </c>
@@ -46474,7 +46495,7 @@
       <c r="F15" s="106" t="s">
         <v>293</v>
       </c>
-      <c r="G15" s="197"/>
+      <c r="G15" s="194"/>
       <c r="H15" s="145"/>
       <c r="I15" s="144"/>
       <c r="J15" s="146"/>
@@ -46487,13 +46508,13 @@
       <c r="Q15" s="144"/>
     </row>
     <row r="16" spans="1:17" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="260"/>
+      <c r="A16" s="256"/>
       <c r="B16" s="106" t="s">
         <v>294</v>
       </c>
       <c r="C16" s="106"/>
       <c r="D16" s="105" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E16" s="136" t="s">
         <v>295</v>
@@ -46501,7 +46522,7 @@
       <c r="F16" s="106" t="s">
         <v>296</v>
       </c>
-      <c r="G16" s="197"/>
+      <c r="G16" s="194"/>
       <c r="H16" s="145"/>
       <c r="I16" s="144"/>
       <c r="J16" s="146"/>
@@ -46513,8 +46534,8 @@
       <c r="P16" s="144"/>
       <c r="Q16" s="144"/>
     </row>
-    <row r="17" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="260"/>
+    <row r="17" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="256"/>
       <c r="B17" s="106" t="s">
         <v>297</v>
       </c>
@@ -46528,7 +46549,7 @@
       <c r="F17" s="106" t="s">
         <v>300</v>
       </c>
-      <c r="G17" s="197"/>
+      <c r="G17" s="194"/>
       <c r="H17" s="137"/>
       <c r="I17" s="144"/>
       <c r="J17" s="144"/>
@@ -46540,8 +46561,8 @@
       <c r="P17" s="144"/>
       <c r="Q17" s="144"/>
     </row>
-    <row r="18" spans="1:17" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="261"/>
+    <row r="18" spans="1:19" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="257"/>
       <c r="B18" s="109" t="s">
         <v>301</v>
       </c>
@@ -46555,7 +46576,7 @@
       <c r="F18" s="109" t="s">
         <v>303</v>
       </c>
-      <c r="G18" s="198"/>
+      <c r="G18" s="195"/>
       <c r="H18" s="139"/>
       <c r="I18" s="144"/>
       <c r="J18" s="144"/>
@@ -46567,14 +46588,101 @@
       <c r="P18" s="144"/>
       <c r="Q18" s="144"/>
     </row>
-    <row r="22" spans="1:17" ht="25.5" hidden="1" x14ac:dyDescent="0.5">
-      <c r="F22" s="152"/>
+    <row r="19" spans="1:19" s="156" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="244" t="s">
+        <v>387</v>
+      </c>
+      <c r="B19" s="258"/>
+      <c r="C19" s="258"/>
+      <c r="D19" s="258"/>
+      <c r="E19" s="258"/>
+      <c r="F19" s="258"/>
+      <c r="G19" s="259"/>
+      <c r="H19" s="260"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="155"/>
+      <c r="L19" s="155"/>
+      <c r="M19" s="155"/>
+      <c r="N19" s="155"/>
+      <c r="O19" s="155"/>
+      <c r="P19" s="155"/>
+      <c r="Q19" s="155"/>
+      <c r="R19" s="155"/>
+      <c r="S19" s="155"/>
+    </row>
+    <row r="20" spans="1:19" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="245"/>
+      <c r="B20" s="261" t="s">
+        <v>388</v>
+      </c>
+      <c r="C20" s="261"/>
+      <c r="D20" s="261" t="s">
+        <v>377</v>
+      </c>
+      <c r="E20" s="261"/>
+      <c r="F20" s="261" t="s">
+        <v>555</v>
+      </c>
+      <c r="G20" s="262" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="263"/>
+    </row>
+    <row r="21" spans="1:19" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="245"/>
+      <c r="B21" s="261"/>
+      <c r="C21" s="261" t="s">
+        <v>389</v>
+      </c>
+      <c r="D21" s="261" t="s">
+        <v>390</v>
+      </c>
+      <c r="E21" s="261"/>
+      <c r="F21" s="261" t="s">
+        <v>574</v>
+      </c>
+      <c r="G21" s="262"/>
+      <c r="H21" s="263"/>
+    </row>
+    <row r="22" spans="1:19" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="245"/>
+      <c r="B22" s="261"/>
+      <c r="C22" s="261" t="s">
+        <v>391</v>
+      </c>
+      <c r="D22" s="261" t="s">
+        <v>390</v>
+      </c>
+      <c r="E22" s="261"/>
+      <c r="F22" s="261" t="s">
+        <v>575</v>
+      </c>
+      <c r="G22" s="262"/>
+      <c r="H22" s="263"/>
+    </row>
+    <row r="23" spans="1:19" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="246"/>
+      <c r="B23" s="264"/>
+      <c r="C23" s="264" t="s">
+        <v>392</v>
+      </c>
+      <c r="D23" s="264" t="s">
+        <v>390</v>
+      </c>
+      <c r="E23" s="264"/>
+      <c r="F23" s="264" t="s">
+        <v>576</v>
+      </c>
+      <c r="G23" s="265"/>
+      <c r="H23" s="266"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" insertRows="0" deleteRows="0"/>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:A18"/>
+    <mergeCell ref="A19:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -46584,24 +46692,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AMJ22"/>
+  <dimension ref="A1:AMJ17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E10" sqref="E10"/>
       <selection pane="topRight" activeCell="E10" sqref="E10"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="170" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="170" customWidth="1"/>
-    <col min="3" max="4" width="20.7109375" style="171" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" style="171" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" style="171" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="216" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="167" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="167" customWidth="1"/>
+    <col min="3" max="4" width="20.7109375" style="168" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" style="168" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" style="168" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="212" customWidth="1"/>
     <col min="8" max="8" width="30.7109375" style="135" customWidth="1"/>
     <col min="9" max="1023" width="10.42578125" style="135" hidden="1" customWidth="1"/>
     <col min="1024" max="1024" width="9.140625" style="135" hidden="1" customWidth="1"/>
@@ -46609,18 +46717,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="243" t="s">
-        <v>494</v>
-      </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="243"/>
-      <c r="H1" s="244"/>
+      <c r="A1" s="239" t="s">
+        <v>491</v>
+      </c>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="240"/>
     </row>
-    <row r="2" spans="1:20" s="153" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" s="152" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
@@ -46646,356 +46754,266 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="157" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="240" t="s">
+    <row r="3" spans="1:20" s="156" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="212"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="156"/>
-      <c r="O3" s="156"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="156"/>
-      <c r="S3" s="156"/>
-      <c r="T3" s="156"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="155"/>
+      <c r="P3" s="155"/>
+      <c r="Q3" s="155"/>
+      <c r="R3" s="155"/>
+      <c r="S3" s="155"/>
+      <c r="T3" s="155"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="241"/>
-      <c r="B4" s="158" t="s">
+      <c r="A4" s="237"/>
+      <c r="B4" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158" t="s">
+      <c r="C4" s="157"/>
+      <c r="D4" s="157" t="s">
         <v>207</v>
       </c>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158" t="s">
+      <c r="E4" s="157"/>
+      <c r="F4" s="157" t="s">
         <v>370</v>
       </c>
-      <c r="G4" s="183" t="s">
-        <v>500</v>
-      </c>
-      <c r="H4" s="159"/>
+      <c r="G4" s="180" t="s">
+        <v>497</v>
+      </c>
+      <c r="H4" s="158"/>
     </row>
     <row r="5" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="241"/>
-      <c r="B5" s="158" t="s">
+      <c r="A5" s="237"/>
+      <c r="B5" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158" t="s">
+      <c r="C5" s="157"/>
+      <c r="D5" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158" t="s">
+      <c r="E5" s="157"/>
+      <c r="F5" s="157" t="s">
         <v>371</v>
       </c>
-      <c r="G5" s="183" t="s">
+      <c r="G5" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="159"/>
+      <c r="H5" s="158"/>
     </row>
     <row r="6" spans="1:20" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="241"/>
-      <c r="B6" s="158" t="s">
+      <c r="A6" s="237"/>
+      <c r="B6" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="158"/>
-      <c r="D6" s="158" t="s">
+      <c r="C6" s="157"/>
+      <c r="D6" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158" t="s">
+      <c r="E6" s="157"/>
+      <c r="F6" s="157" t="s">
         <v>372</v>
       </c>
-      <c r="G6" s="183" t="s">
+      <c r="G6" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="159"/>
+      <c r="H6" s="158"/>
     </row>
     <row r="7" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="242"/>
-      <c r="B7" s="160" t="s">
+      <c r="A7" s="238"/>
+      <c r="B7" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="160"/>
-      <c r="D7" s="160" t="s">
-        <v>487</v>
-      </c>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160" t="s">
+      <c r="C7" s="159"/>
+      <c r="D7" s="159" t="s">
+        <v>484</v>
+      </c>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159" t="s">
         <v>373</v>
       </c>
-      <c r="G7" s="184" t="s">
-        <v>500</v>
-      </c>
-      <c r="H7" s="161"/>
+      <c r="G7" s="181" t="s">
+        <v>497</v>
+      </c>
+      <c r="H7" s="160"/>
     </row>
-    <row r="8" spans="1:20" s="156" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="237" t="s">
+    <row r="8" spans="1:20" s="155" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="233" t="s">
         <v>294</v>
       </c>
-      <c r="B8" s="162"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="163"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="210"/>
+      <c r="H8" s="162"/>
     </row>
     <row r="9" spans="1:20" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="238"/>
-      <c r="B9" s="164" t="s">
+      <c r="A9" s="234"/>
+      <c r="B9" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="164"/>
-      <c r="D9" s="164" t="s">
+      <c r="C9" s="163"/>
+      <c r="D9" s="163" t="s">
         <v>374</v>
       </c>
-      <c r="E9" s="164"/>
-      <c r="F9" s="164" t="s">
+      <c r="E9" s="163"/>
+      <c r="F9" s="163" t="s">
         <v>375</v>
       </c>
-      <c r="G9" s="214" t="s">
+      <c r="G9" s="211" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="165"/>
+      <c r="H9" s="164"/>
     </row>
     <row r="10" spans="1:20" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="238"/>
-      <c r="B10" s="164" t="s">
+      <c r="A10" s="234"/>
+      <c r="B10" s="163" t="s">
         <v>376</v>
       </c>
-      <c r="C10" s="164"/>
-      <c r="D10" s="164" t="s">
+      <c r="C10" s="163"/>
+      <c r="D10" s="163" t="s">
         <v>377</v>
       </c>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164" t="s">
-        <v>508</v>
-      </c>
-      <c r="G10" s="186"/>
-      <c r="H10" s="165"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="163" t="s">
+        <v>505</v>
+      </c>
+      <c r="G10" s="183"/>
+      <c r="H10" s="164"/>
     </row>
     <row r="11" spans="1:20" ht="40.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="238"/>
-      <c r="B11" s="164"/>
-      <c r="C11" s="164" t="s">
+      <c r="A11" s="234"/>
+      <c r="B11" s="163"/>
+      <c r="C11" s="163" t="s">
         <v>378</v>
       </c>
-      <c r="D11" s="164" t="s">
+      <c r="D11" s="163" t="s">
         <v>207</v>
       </c>
-      <c r="E11" s="164"/>
-      <c r="F11" s="164" t="s">
-        <v>496</v>
-      </c>
-      <c r="G11" s="186"/>
-      <c r="H11" s="165"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="163" t="s">
+        <v>493</v>
+      </c>
+      <c r="G11" s="183"/>
+      <c r="H11" s="164"/>
     </row>
     <row r="12" spans="1:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="238"/>
-      <c r="B12" s="164"/>
-      <c r="C12" s="164" t="s">
+      <c r="A12" s="234"/>
+      <c r="B12" s="163"/>
+      <c r="C12" s="163" t="s">
         <v>379</v>
       </c>
-      <c r="D12" s="164" t="s">
+      <c r="D12" s="163" t="s">
         <v>207</v>
       </c>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164" t="s">
-        <v>497</v>
-      </c>
-      <c r="G12" s="186"/>
-      <c r="H12" s="165"/>
+      <c r="E12" s="163"/>
+      <c r="F12" s="163" t="s">
+        <v>494</v>
+      </c>
+      <c r="G12" s="183"/>
+      <c r="H12" s="164"/>
     </row>
     <row r="13" spans="1:20" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="238"/>
-      <c r="B13" s="164"/>
-      <c r="C13" s="164" t="s">
+      <c r="A13" s="234"/>
+      <c r="B13" s="163"/>
+      <c r="C13" s="163" t="s">
         <v>380</v>
       </c>
-      <c r="D13" s="164" t="s">
+      <c r="D13" s="163" t="s">
         <v>207</v>
       </c>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164" t="s">
-        <v>498</v>
-      </c>
-      <c r="G13" s="186"/>
-      <c r="H13" s="165"/>
+      <c r="E13" s="163"/>
+      <c r="F13" s="163" t="s">
+        <v>495</v>
+      </c>
+      <c r="G13" s="183"/>
+      <c r="H13" s="164"/>
     </row>
     <row r="14" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="238"/>
-      <c r="B14" s="164"/>
-      <c r="C14" s="164" t="s">
+      <c r="A14" s="234"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="163" t="s">
         <v>381</v>
       </c>
-      <c r="D14" s="164" t="s">
-        <v>499</v>
-      </c>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164" t="s">
+      <c r="D14" s="163" t="s">
+        <v>496</v>
+      </c>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163" t="s">
         <v>382</v>
       </c>
-      <c r="G14" s="186"/>
-      <c r="H14" s="165"/>
+      <c r="G14" s="183"/>
+      <c r="H14" s="164"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="238"/>
-      <c r="B15" s="164"/>
-      <c r="C15" s="164" t="s">
+      <c r="A15" s="234"/>
+      <c r="B15" s="163"/>
+      <c r="C15" s="163" t="s">
         <v>383</v>
       </c>
-      <c r="D15" s="164" t="s">
+      <c r="D15" s="163" t="s">
         <v>318</v>
       </c>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164" t="s">
+      <c r="E15" s="163"/>
+      <c r="F15" s="163" t="s">
         <v>384</v>
       </c>
-      <c r="G15" s="186"/>
-      <c r="H15" s="165"/>
+      <c r="G15" s="183"/>
+      <c r="H15" s="164"/>
     </row>
     <row r="16" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="238"/>
-      <c r="B16" s="164" t="s">
+      <c r="A16" s="234"/>
+      <c r="B16" s="163" t="s">
         <v>385</v>
       </c>
-      <c r="C16" s="164"/>
-      <c r="D16" s="164" t="s">
+      <c r="C16" s="163"/>
+      <c r="D16" s="163" t="s">
         <v>377</v>
       </c>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164" t="s">
-        <v>509</v>
-      </c>
-      <c r="G16" s="186"/>
-      <c r="H16" s="165"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163" t="s">
+        <v>506</v>
+      </c>
+      <c r="G16" s="183"/>
+      <c r="H16" s="164"/>
     </row>
-    <row r="17" spans="1:19" ht="18.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="239"/>
-      <c r="B17" s="166"/>
-      <c r="C17" s="166" t="s">
+    <row r="17" spans="1:8" ht="18.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="235"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="165" t="s">
         <v>383</v>
       </c>
-      <c r="D17" s="166" t="s">
+      <c r="D17" s="165" t="s">
         <v>318</v>
       </c>
-      <c r="E17" s="166"/>
-      <c r="F17" s="166" t="s">
+      <c r="E17" s="165"/>
+      <c r="F17" s="165" t="s">
         <v>386</v>
       </c>
-      <c r="G17" s="187"/>
-      <c r="H17" s="167"/>
-    </row>
-    <row r="18" spans="1:19" s="157" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="240" t="s">
-        <v>387</v>
-      </c>
-      <c r="B18" s="168"/>
-      <c r="C18" s="168"/>
-      <c r="D18" s="168"/>
-      <c r="E18" s="168"/>
-      <c r="F18" s="168"/>
-      <c r="G18" s="215"/>
-      <c r="H18" s="169"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="156"/>
-      <c r="K18" s="156"/>
-      <c r="L18" s="156"/>
-      <c r="M18" s="156"/>
-      <c r="N18" s="156"/>
-      <c r="O18" s="156"/>
-      <c r="P18" s="156"/>
-      <c r="Q18" s="156"/>
-      <c r="R18" s="156"/>
-      <c r="S18" s="156"/>
-    </row>
-    <row r="19" spans="1:19" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="241"/>
-      <c r="B19" s="158" t="s">
-        <v>388</v>
-      </c>
-      <c r="C19" s="158"/>
-      <c r="D19" s="158" t="s">
-        <v>377</v>
-      </c>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158" t="s">
-        <v>558</v>
-      </c>
-      <c r="G19" s="183" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="159"/>
-    </row>
-    <row r="20" spans="1:19" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="241"/>
-      <c r="B20" s="158"/>
-      <c r="C20" s="158" t="s">
-        <v>389</v>
-      </c>
-      <c r="D20" s="158" t="s">
-        <v>390</v>
-      </c>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158" t="s">
-        <v>391</v>
-      </c>
-      <c r="G20" s="183"/>
-      <c r="H20" s="159"/>
-    </row>
-    <row r="21" spans="1:19" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="241"/>
-      <c r="B21" s="158"/>
-      <c r="C21" s="158" t="s">
-        <v>392</v>
-      </c>
-      <c r="D21" s="158" t="s">
-        <v>390</v>
-      </c>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158" t="s">
-        <v>393</v>
-      </c>
-      <c r="G21" s="183"/>
-      <c r="H21" s="159"/>
-    </row>
-    <row r="22" spans="1:19" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="242"/>
-      <c r="B22" s="160"/>
-      <c r="C22" s="160" t="s">
-        <v>394</v>
-      </c>
-      <c r="D22" s="160" t="s">
-        <v>390</v>
-      </c>
-      <c r="E22" s="160"/>
-      <c r="F22" s="160" t="s">
-        <v>395</v>
-      </c>
-      <c r="G22" s="184"/>
-      <c r="H22" s="161"/>
+      <c r="G17" s="184"/>
+      <c r="H17" s="166"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" insertRows="0" deleteRows="0"/>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A17"/>
-    <mergeCell ref="A18:A22"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -47012,7 +47030,7 @@
   <dimension ref="A1:AMJ48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
@@ -47032,16 +47050,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="243" t="s">
-        <v>495</v>
-      </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="243"/>
-      <c r="H1" s="244"/>
+      <c r="A1" s="239" t="s">
+        <v>492</v>
+      </c>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="240"/>
     </row>
     <row r="2" spans="1:1024" s="42" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
@@ -48086,32 +48104,32 @@
       <c r="AMJ2" s="41"/>
     </row>
     <row r="3" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="240" t="s">
-        <v>396</v>
-      </c>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="173"/>
+      <c r="A3" s="236" t="s">
+        <v>393</v>
+      </c>
+      <c r="B3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="170"/>
     </row>
     <row r="4" spans="1:1024" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="241"/>
+      <c r="A4" s="237"/>
       <c r="B4" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="158"/>
+      <c r="C4" s="157"/>
       <c r="D4" s="47" t="s">
         <v>256</v>
       </c>
       <c r="E4" s="47"/>
-      <c r="F4" s="158" t="s">
-        <v>397</v>
+      <c r="F4" s="157" t="s">
+        <v>394</v>
       </c>
       <c r="G4" s="47"/>
-      <c r="H4" s="159"/>
+      <c r="H4" s="158"/>
       <c r="I4" s="23"/>
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
@@ -49130,20 +49148,20 @@
       <c r="AMJ4" s="23"/>
     </row>
     <row r="5" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="241"/>
+      <c r="A5" s="237"/>
       <c r="B5" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="C5" s="158"/>
+      <c r="C5" s="157"/>
       <c r="D5" s="47" t="s">
         <v>260</v>
       </c>
       <c r="E5" s="47"/>
-      <c r="F5" s="158" t="s">
+      <c r="F5" s="157" t="s">
         <v>262</v>
       </c>
       <c r="G5" s="47"/>
-      <c r="H5" s="159"/>
+      <c r="H5" s="158"/>
       <c r="I5" s="23"/>
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
@@ -50162,20 +50180,20 @@
       <c r="AMJ5" s="23"/>
     </row>
     <row r="6" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="241"/>
+      <c r="A6" s="237"/>
       <c r="B6" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="C6" s="158"/>
+      <c r="C6" s="157"/>
       <c r="D6" s="47" t="s">
         <v>163</v>
       </c>
       <c r="E6" s="47"/>
-      <c r="F6" s="158" t="s">
-        <v>398</v>
+      <c r="F6" s="157" t="s">
+        <v>395</v>
       </c>
       <c r="G6" s="47"/>
-      <c r="H6" s="174"/>
+      <c r="H6" s="171"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
@@ -51194,20 +51212,20 @@
       <c r="AMJ6" s="23"/>
     </row>
     <row r="7" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="241"/>
+      <c r="A7" s="237"/>
       <c r="B7" s="47" t="s">
-        <v>399</v>
-      </c>
-      <c r="C7" s="158"/>
+        <v>396</v>
+      </c>
+      <c r="C7" s="157"/>
       <c r="D7" s="47" t="s">
         <v>275</v>
       </c>
       <c r="E7" s="47"/>
-      <c r="F7" s="158" t="s">
-        <v>400</v>
+      <c r="F7" s="157" t="s">
+        <v>397</v>
       </c>
       <c r="G7" s="47"/>
-      <c r="H7" s="159"/>
+      <c r="H7" s="158"/>
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
@@ -52226,20 +52244,20 @@
       <c r="AMJ7" s="23"/>
     </row>
     <row r="8" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="241"/>
+      <c r="A8" s="237"/>
       <c r="B8" s="47" t="s">
-        <v>401</v>
-      </c>
-      <c r="C8" s="158"/>
+        <v>398</v>
+      </c>
+      <c r="C8" s="157"/>
       <c r="D8" s="47" t="s">
         <v>275</v>
       </c>
       <c r="E8" s="47"/>
-      <c r="F8" s="158" t="s">
-        <v>402</v>
+      <c r="F8" s="157" t="s">
+        <v>399</v>
       </c>
       <c r="G8" s="47"/>
-      <c r="H8" s="159"/>
+      <c r="H8" s="158"/>
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
@@ -53258,20 +53276,20 @@
       <c r="AMJ8" s="23"/>
     </row>
     <row r="9" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="241"/>
+      <c r="A9" s="237"/>
       <c r="B9" s="47" t="s">
-        <v>403</v>
-      </c>
-      <c r="C9" s="158"/>
+        <v>400</v>
+      </c>
+      <c r="C9" s="157"/>
       <c r="D9" s="47" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E9" s="47"/>
-      <c r="F9" s="158" t="s">
-        <v>404</v>
+      <c r="F9" s="157" t="s">
+        <v>401</v>
       </c>
       <c r="G9" s="47"/>
-      <c r="H9" s="159"/>
+      <c r="H9" s="158"/>
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
@@ -54290,20 +54308,20 @@
       <c r="AMJ9" s="23"/>
     </row>
     <row r="10" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="241"/>
+      <c r="A10" s="237"/>
       <c r="B10" s="47" t="s">
-        <v>405</v>
-      </c>
-      <c r="C10" s="158"/>
+        <v>402</v>
+      </c>
+      <c r="C10" s="157"/>
       <c r="D10" s="47" t="s">
         <v>275</v>
       </c>
       <c r="E10" s="47"/>
-      <c r="F10" s="158" t="s">
-        <v>406</v>
+      <c r="F10" s="157" t="s">
+        <v>403</v>
       </c>
       <c r="G10" s="47"/>
-      <c r="H10" s="159"/>
+      <c r="H10" s="158"/>
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
@@ -55322,20 +55340,20 @@
       <c r="AMJ10" s="23"/>
     </row>
     <row r="11" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="241"/>
+      <c r="A11" s="237"/>
       <c r="B11" s="47" t="s">
-        <v>407</v>
-      </c>
-      <c r="C11" s="158"/>
+        <v>404</v>
+      </c>
+      <c r="C11" s="157"/>
       <c r="D11" s="47" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E11" s="47"/>
-      <c r="F11" s="158" t="s">
-        <v>408</v>
+      <c r="F11" s="157" t="s">
+        <v>405</v>
       </c>
       <c r="G11" s="47"/>
-      <c r="H11" s="159"/>
+      <c r="H11" s="158"/>
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
@@ -56354,20 +56372,20 @@
       <c r="AMJ11" s="23"/>
     </row>
     <row r="12" spans="1:1024" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="242"/>
+      <c r="A12" s="238"/>
       <c r="B12" s="51" t="s">
-        <v>409</v>
-      </c>
-      <c r="C12" s="160"/>
+        <v>406</v>
+      </c>
+      <c r="C12" s="159"/>
       <c r="D12" s="51" t="s">
         <v>256</v>
       </c>
       <c r="E12" s="51"/>
-      <c r="F12" s="160" t="s">
-        <v>410</v>
+      <c r="F12" s="159" t="s">
+        <v>407</v>
       </c>
       <c r="G12" s="51"/>
-      <c r="H12" s="161"/>
+      <c r="H12" s="160"/>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
@@ -57386,20 +57404,20 @@
       <c r="AMJ12" s="25"/>
     </row>
     <row r="13" spans="1:1024" s="20" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="237" t="s">
-        <v>411</v>
-      </c>
-      <c r="B13" s="175"/>
-      <c r="C13" s="175"/>
-      <c r="D13" s="175"/>
-      <c r="E13" s="175"/>
-      <c r="F13" s="175"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="176"/>
+      <c r="A13" s="233" t="s">
+        <v>408</v>
+      </c>
+      <c r="B13" s="172"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="172"/>
+      <c r="H13" s="173"/>
       <c r="AMJ13" s="21"/>
     </row>
     <row r="14" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="238"/>
+      <c r="A14" s="234"/>
       <c r="B14" s="69" t="s">
         <v>206</v>
       </c>
@@ -57409,13 +57427,13 @@
       </c>
       <c r="E14" s="69"/>
       <c r="F14" s="69" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G14" s="69"/>
-      <c r="H14" s="177"/>
+      <c r="H14" s="174"/>
     </row>
     <row r="15" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="238"/>
+      <c r="A15" s="234"/>
       <c r="B15" s="69" t="s">
         <v>259</v>
       </c>
@@ -57428,10 +57446,10 @@
         <v>262</v>
       </c>
       <c r="G15" s="69"/>
-      <c r="H15" s="177"/>
+      <c r="H15" s="174"/>
     </row>
     <row r="16" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="238"/>
+      <c r="A16" s="234"/>
       <c r="B16" s="69" t="s">
         <v>212</v>
       </c>
@@ -57441,13 +57459,13 @@
       </c>
       <c r="E16" s="69"/>
       <c r="F16" s="69" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G16" s="69"/>
-      <c r="H16" s="177"/>
+      <c r="H16" s="174"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="238"/>
+      <c r="A17" s="234"/>
       <c r="B17" s="69" t="s">
         <v>265</v>
       </c>
@@ -57457,13 +57475,13 @@
       </c>
       <c r="E17" s="69"/>
       <c r="F17" s="69" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G17" s="69"/>
-      <c r="H17" s="177"/>
+      <c r="H17" s="174"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="238"/>
+      <c r="A18" s="234"/>
       <c r="B18" s="69" t="s">
         <v>209</v>
       </c>
@@ -57473,13 +57491,13 @@
       </c>
       <c r="E18" s="69"/>
       <c r="F18" s="69" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G18" s="69"/>
-      <c r="H18" s="177"/>
+      <c r="H18" s="174"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="238"/>
+      <c r="A19" s="234"/>
       <c r="B19" s="69" t="s">
         <v>5</v>
       </c>
@@ -57489,29 +57507,29 @@
       </c>
       <c r="E19" s="69"/>
       <c r="F19" s="69" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G19" s="69"/>
-      <c r="H19" s="177"/>
+      <c r="H19" s="174"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="238"/>
+      <c r="A20" s="234"/>
       <c r="B20" s="69" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C20" s="69"/>
       <c r="D20" s="69" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E20" s="69"/>
       <c r="F20" s="69" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G20" s="69"/>
-      <c r="H20" s="177"/>
+      <c r="H20" s="174"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="238"/>
+      <c r="A21" s="234"/>
       <c r="B21" s="69" t="s">
         <v>318</v>
       </c>
@@ -57521,15 +57539,15 @@
       </c>
       <c r="E21" s="69"/>
       <c r="F21" s="69" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G21" s="69"/>
-      <c r="H21" s="177"/>
+      <c r="H21" s="174"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="238"/>
+      <c r="A22" s="234"/>
       <c r="B22" s="69" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C22" s="69"/>
       <c r="D22" s="69" t="s">
@@ -57537,15 +57555,15 @@
       </c>
       <c r="E22" s="69"/>
       <c r="F22" s="69" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G22" s="69"/>
-      <c r="H22" s="177"/>
+      <c r="H22" s="174"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="238"/>
+      <c r="A23" s="234"/>
       <c r="B23" s="69" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C23" s="69"/>
       <c r="D23" s="69" t="s">
@@ -57553,15 +57571,15 @@
       </c>
       <c r="E23" s="69"/>
       <c r="F23" s="69" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G23" s="69"/>
-      <c r="H23" s="177"/>
+      <c r="H23" s="174"/>
     </row>
     <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="239"/>
+      <c r="A24" s="235"/>
       <c r="B24" s="73" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C24" s="73"/>
       <c r="D24" s="73" t="s">
@@ -57569,25 +57587,25 @@
       </c>
       <c r="E24" s="73"/>
       <c r="F24" s="73" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G24" s="73"/>
-      <c r="H24" s="178"/>
+      <c r="H24" s="175"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="240" t="s">
+      <c r="A25" s="236" t="s">
         <v>353</v>
       </c>
-      <c r="B25" s="179"/>
-      <c r="C25" s="179"/>
-      <c r="D25" s="179"/>
-      <c r="E25" s="179"/>
-      <c r="F25" s="179"/>
-      <c r="G25" s="179"/>
-      <c r="H25" s="180"/>
+      <c r="B25" s="176"/>
+      <c r="C25" s="176"/>
+      <c r="D25" s="176"/>
+      <c r="E25" s="176"/>
+      <c r="F25" s="176"/>
+      <c r="G25" s="176"/>
+      <c r="H25" s="177"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="241"/>
+      <c r="A26" s="237"/>
       <c r="B26" s="47" t="s">
         <v>206</v>
       </c>
@@ -57597,13 +57615,13 @@
       </c>
       <c r="E26" s="47"/>
       <c r="F26" s="47" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G26" s="47"/>
-      <c r="H26" s="174"/>
+      <c r="H26" s="171"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="241"/>
+      <c r="A27" s="237"/>
       <c r="B27" s="47" t="s">
         <v>259</v>
       </c>
@@ -57616,10 +57634,10 @@
         <v>262</v>
       </c>
       <c r="G27" s="47"/>
-      <c r="H27" s="174"/>
+      <c r="H27" s="171"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="241"/>
+      <c r="A28" s="237"/>
       <c r="B28" s="47" t="s">
         <v>212</v>
       </c>
@@ -57629,13 +57647,13 @@
       </c>
       <c r="E28" s="47"/>
       <c r="F28" s="47" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G28" s="47"/>
-      <c r="H28" s="174"/>
+      <c r="H28" s="171"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="241"/>
+      <c r="A29" s="237"/>
       <c r="B29" s="47" t="s">
         <v>265</v>
       </c>
@@ -57645,15 +57663,15 @@
       </c>
       <c r="E29" s="47"/>
       <c r="F29" s="47" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G29" s="47"/>
-      <c r="H29" s="174"/>
+      <c r="H29" s="171"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="241"/>
+      <c r="A30" s="237"/>
       <c r="B30" s="47" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C30" s="47"/>
       <c r="D30" s="47" t="s">
@@ -57661,13 +57679,13 @@
       </c>
       <c r="E30" s="47"/>
       <c r="F30" s="47" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G30" s="47"/>
-      <c r="H30" s="174"/>
+      <c r="H30" s="171"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="241"/>
+      <c r="A31" s="237"/>
       <c r="B31" s="47" t="s">
         <v>209</v>
       </c>
@@ -57677,31 +57695,31 @@
       </c>
       <c r="E31" s="47"/>
       <c r="F31" s="47" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G31" s="47"/>
-      <c r="H31" s="174"/>
+      <c r="H31" s="171"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="241"/>
+      <c r="A32" s="237"/>
       <c r="B32" s="47" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C32" s="47"/>
       <c r="D32" s="47" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E32" s="47"/>
       <c r="F32" s="47" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G32" s="47"/>
-      <c r="H32" s="174"/>
+      <c r="H32" s="171"/>
     </row>
     <row r="33" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="241"/>
+      <c r="A33" s="237"/>
       <c r="B33" s="47" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C33" s="47"/>
       <c r="D33" s="47" t="s">
@@ -57709,13 +57727,13 @@
       </c>
       <c r="E33" s="47"/>
       <c r="F33" s="47" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G33" s="47"/>
-      <c r="H33" s="174"/>
+      <c r="H33" s="171"/>
     </row>
     <row r="34" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="241"/>
+      <c r="A34" s="237"/>
       <c r="B34" s="47" t="s">
         <v>5</v>
       </c>
@@ -57725,15 +57743,15 @@
       </c>
       <c r="E34" s="47"/>
       <c r="F34" s="47" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G34" s="47"/>
-      <c r="H34" s="174"/>
+      <c r="H34" s="171"/>
     </row>
     <row r="35" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="241"/>
+      <c r="A35" s="237"/>
       <c r="B35" s="47" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C35" s="47"/>
       <c r="D35" s="47" t="s">
@@ -57741,15 +57759,15 @@
       </c>
       <c r="E35" s="47"/>
       <c r="F35" s="47" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G35" s="47"/>
-      <c r="H35" s="174"/>
+      <c r="H35" s="171"/>
     </row>
     <row r="36" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="242"/>
+      <c r="A36" s="238"/>
       <c r="B36" s="51" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C36" s="51"/>
       <c r="D36" s="51" t="s">
@@ -57757,26 +57775,26 @@
       </c>
       <c r="E36" s="51"/>
       <c r="F36" s="51" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G36" s="51"/>
-      <c r="H36" s="181"/>
+      <c r="H36" s="178"/>
     </row>
     <row r="37" spans="1:1024" s="20" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="237" t="s">
+      <c r="A37" s="233" t="s">
         <v>281</v>
       </c>
-      <c r="B37" s="175"/>
-      <c r="C37" s="175"/>
-      <c r="D37" s="175"/>
-      <c r="E37" s="175"/>
-      <c r="F37" s="175"/>
-      <c r="G37" s="175"/>
-      <c r="H37" s="176"/>
+      <c r="B37" s="172"/>
+      <c r="C37" s="172"/>
+      <c r="D37" s="172"/>
+      <c r="E37" s="172"/>
+      <c r="F37" s="172"/>
+      <c r="G37" s="172"/>
+      <c r="H37" s="173"/>
       <c r="AMJ37" s="21"/>
     </row>
     <row r="38" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="238"/>
+      <c r="A38" s="234"/>
       <c r="B38" s="69" t="s">
         <v>206</v>
       </c>
@@ -57786,13 +57804,13 @@
       </c>
       <c r="E38" s="69"/>
       <c r="F38" s="69" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G38" s="69"/>
-      <c r="H38" s="177"/>
+      <c r="H38" s="174"/>
     </row>
     <row r="39" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="238"/>
+      <c r="A39" s="234"/>
       <c r="B39" s="69" t="s">
         <v>259</v>
       </c>
@@ -57805,10 +57823,10 @@
         <v>262</v>
       </c>
       <c r="G39" s="69"/>
-      <c r="H39" s="177"/>
+      <c r="H39" s="174"/>
     </row>
     <row r="40" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="238"/>
+      <c r="A40" s="234"/>
       <c r="B40" s="69" t="s">
         <v>212</v>
       </c>
@@ -57818,13 +57836,13 @@
       </c>
       <c r="E40" s="69"/>
       <c r="F40" s="69" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G40" s="69"/>
-      <c r="H40" s="177"/>
+      <c r="H40" s="174"/>
     </row>
     <row r="41" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="238"/>
+      <c r="A41" s="234"/>
       <c r="B41" s="69" t="s">
         <v>265</v>
       </c>
@@ -57834,15 +57852,15 @@
       </c>
       <c r="E41" s="69"/>
       <c r="F41" s="69" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G41" s="69"/>
-      <c r="H41" s="177"/>
+      <c r="H41" s="174"/>
     </row>
     <row r="42" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="238"/>
+      <c r="A42" s="234"/>
       <c r="B42" s="69" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C42" s="69"/>
       <c r="D42" s="69" t="s">
@@ -57850,13 +57868,13 @@
       </c>
       <c r="E42" s="69"/>
       <c r="F42" s="69" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G42" s="69"/>
-      <c r="H42" s="177"/>
+      <c r="H42" s="174"/>
     </row>
     <row r="43" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="238"/>
+      <c r="A43" s="234"/>
       <c r="B43" s="69" t="s">
         <v>353</v>
       </c>
@@ -57866,13 +57884,13 @@
       </c>
       <c r="E43" s="69"/>
       <c r="F43" s="69" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G43" s="69"/>
-      <c r="H43" s="177"/>
+      <c r="H43" s="174"/>
     </row>
     <row r="44" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="238"/>
+      <c r="A44" s="234"/>
       <c r="B44" s="69" t="s">
         <v>209</v>
       </c>
@@ -57882,31 +57900,31 @@
       </c>
       <c r="E44" s="69"/>
       <c r="F44" s="69" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G44" s="69"/>
-      <c r="H44" s="177"/>
+      <c r="H44" s="174"/>
     </row>
     <row r="45" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="238"/>
+      <c r="A45" s="234"/>
       <c r="B45" s="69" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C45" s="69"/>
       <c r="D45" s="69" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E45" s="69"/>
       <c r="F45" s="69" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G45" s="69"/>
-      <c r="H45" s="177"/>
+      <c r="H45" s="174"/>
     </row>
     <row r="46" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="238"/>
+      <c r="A46" s="234"/>
       <c r="B46" s="69" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C46" s="69"/>
       <c r="D46" s="69" t="s">
@@ -57914,13 +57932,13 @@
       </c>
       <c r="E46" s="69"/>
       <c r="F46" s="69" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G46" s="69"/>
-      <c r="H46" s="177"/>
+      <c r="H46" s="174"/>
     </row>
     <row r="47" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="238"/>
+      <c r="A47" s="234"/>
       <c r="B47" s="69" t="s">
         <v>5</v>
       </c>
@@ -57930,15 +57948,15 @@
       </c>
       <c r="E47" s="69"/>
       <c r="F47" s="69" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G47" s="69"/>
-      <c r="H47" s="177"/>
+      <c r="H47" s="174"/>
     </row>
     <row r="48" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="239"/>
+      <c r="A48" s="235"/>
       <c r="B48" s="73" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C48" s="73"/>
       <c r="D48" s="73" t="s">
@@ -57946,10 +57964,10 @@
       </c>
       <c r="E48" s="73"/>
       <c r="F48" s="73" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G48" s="73"/>
-      <c r="H48" s="178"/>
+      <c r="H48" s="175"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" insertRows="0" deleteRows="0"/>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\jay\code\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37D69C4-9477-49FA-B4BD-71DBE6D9B17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDC39DD-0486-4138-A4D6-C70033CDBFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="29100" windowHeight="13455" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="29100" windowHeight="13455" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Microservice" sheetId="1" r:id="rId1"/>
@@ -4225,12 +4225,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ107"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E10" sqref="E10"/>
       <selection pane="topRight" activeCell="E10" sqref="E10"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -35406,7 +35406,7 @@
   <dimension ref="A1:XFC14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E10" sqref="E10"/>
       <selection pane="topRight" activeCell="E10" sqref="E10"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
@@ -36871,7 +36871,7 @@
       <selection activeCell="E10" sqref="E10"/>
       <selection pane="topRight" activeCell="E10" sqref="E10"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:A7"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -46102,7 +46102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BJ23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E10" sqref="E10"/>
       <selection pane="topRight" activeCell="E10" sqref="E10"/>
@@ -47030,7 +47030,7 @@
   <dimension ref="A1:AMJ48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="E9" sqref="E9"/>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\jay\code\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDC39DD-0486-4138-A4D6-C70033CDBFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83371CD-6847-4305-864F-F9D049C0CBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="29100" windowHeight="13455" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Microservice" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="580">
   <si>
     <t>Concept</t>
   </si>
@@ -1845,6 +1845,15 @@
   <si>
     <t>UUIDs of required Data asset(s) for  MicroserviceC</t>
   </si>
+  <si>
+    <t>cloud_config</t>
+  </si>
+  <si>
+    <t>cloud-init configuration for contextualisation of the VM</t>
+  </si>
+  <si>
+    <t>#cloud-config\nruncmd:\n- [ sh, -xc, \"echo 'hello world!'\" ]</t>
+  </si>
 </sst>
 </file>
 
@@ -3232,52 +3241,40 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3286,6 +3283,14 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3310,6 +3315,46 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3354,42 +3399,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -4247,16 +4256,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="236" t="s">
         <v>485</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="240"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="237"/>
     </row>
     <row r="2" spans="1:1024" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
@@ -4285,7 +4294,7 @@
       </c>
     </row>
     <row r="3" spans="1:1024" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="241" t="s">
+      <c r="A3" s="240" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="27"/>
@@ -4297,7 +4306,7 @@
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="242"/>
+      <c r="A4" s="241"/>
       <c r="B4" s="47" t="s">
         <v>8</v>
       </c>
@@ -4317,7 +4326,7 @@
       <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="242"/>
+      <c r="A5" s="241"/>
       <c r="B5" s="47" t="s">
         <v>13</v>
       </c>
@@ -4337,7 +4346,7 @@
       <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="242"/>
+      <c r="A6" s="241"/>
       <c r="B6" s="47" t="s">
         <v>16</v>
       </c>
@@ -4357,7 +4366,7 @@
       <c r="H6" s="50"/>
     </row>
     <row r="7" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="242"/>
+      <c r="A7" s="241"/>
       <c r="B7" s="47" t="s">
         <v>19</v>
       </c>
@@ -4377,7 +4386,7 @@
       <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="242"/>
+      <c r="A8" s="241"/>
       <c r="B8" s="47" t="s">
         <v>22</v>
       </c>
@@ -4397,7 +4406,7 @@
       <c r="H8" s="50"/>
     </row>
     <row r="9" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="242"/>
+      <c r="A9" s="241"/>
       <c r="B9" s="47" t="s">
         <v>25</v>
       </c>
@@ -4417,7 +4426,7 @@
       <c r="H9" s="50"/>
     </row>
     <row r="10" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="242"/>
+      <c r="A10" s="241"/>
       <c r="B10" s="47" t="s">
         <v>26</v>
       </c>
@@ -4437,7 +4446,7 @@
       <c r="H10" s="50"/>
     </row>
     <row r="11" spans="1:1024" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="243"/>
+      <c r="A11" s="242"/>
       <c r="B11" s="51" t="s">
         <v>30</v>
       </c>
@@ -4457,7 +4466,7 @@
       <c r="H11" s="54"/>
     </row>
     <row r="12" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="244" t="s">
+      <c r="A12" s="243" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="213"/>
@@ -4469,7 +4478,7 @@
       <c r="H12" s="216"/>
     </row>
     <row r="13" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="245"/>
+      <c r="A13" s="244"/>
       <c r="B13" s="55" t="s">
         <v>35</v>
       </c>
@@ -4489,7 +4498,7 @@
       <c r="H13" s="58"/>
     </row>
     <row r="14" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="245"/>
+      <c r="A14" s="244"/>
       <c r="B14" s="55" t="s">
         <v>38</v>
       </c>
@@ -4508,8 +4517,8 @@
       </c>
       <c r="H14" s="58"/>
     </row>
-    <row r="15" spans="1:1024" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="245"/>
+    <row r="15" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="244"/>
       <c r="B15" s="55" t="s">
         <v>457</v>
       </c>
@@ -5545,7 +5554,7 @@
       <c r="AMJ15" s="4"/>
     </row>
     <row r="16" spans="1:1024" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="245"/>
+      <c r="A16" s="244"/>
       <c r="B16" s="55"/>
       <c r="C16" s="56" t="s">
         <v>562</v>
@@ -6581,7 +6590,7 @@
       <c r="AMJ16" s="4"/>
     </row>
     <row r="17" spans="1:1024" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="245"/>
+      <c r="A17" s="244"/>
       <c r="B17" s="55"/>
       <c r="C17" s="56" t="s">
         <v>564</v>
@@ -7617,7 +7626,7 @@
       <c r="AMJ17" s="4"/>
     </row>
     <row r="18" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="245"/>
+      <c r="A18" s="244"/>
       <c r="B18" s="55"/>
       <c r="C18" s="56" t="s">
         <v>563</v>
@@ -8653,7 +8662,7 @@
       <c r="AMJ18" s="4"/>
     </row>
     <row r="19" spans="1:1024" s="10" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A19" s="245"/>
+      <c r="A19" s="244"/>
       <c r="B19" s="55" t="s">
         <v>454</v>
       </c>
@@ -9689,7 +9698,7 @@
       <c r="AMJ19" s="4"/>
     </row>
     <row r="20" spans="1:1024" s="10" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="246"/>
+      <c r="A20" s="245"/>
       <c r="B20" s="217" t="s">
         <v>455</v>
       </c>
@@ -10725,7 +10734,7 @@
       <c r="AMJ20" s="4"/>
     </row>
     <row r="21" spans="1:1024" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="237" t="s">
+      <c r="A21" s="246" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="59"/>
@@ -10737,7 +10746,7 @@
       <c r="H21" s="61"/>
     </row>
     <row r="22" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="237"/>
+      <c r="A22" s="246"/>
       <c r="B22" s="47" t="s">
         <v>40</v>
       </c>
@@ -10757,7 +10766,7 @@
       <c r="H22" s="50"/>
     </row>
     <row r="23" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="237"/>
+      <c r="A23" s="246"/>
       <c r="B23" s="47" t="s">
         <v>44</v>
       </c>
@@ -10777,7 +10786,7 @@
       <c r="H23" s="50"/>
     </row>
     <row r="24" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="237"/>
+      <c r="A24" s="246"/>
       <c r="B24" s="47" t="s">
         <v>46</v>
       </c>
@@ -10797,7 +10806,7 @@
       <c r="H24" s="50"/>
     </row>
     <row r="25" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="237"/>
+      <c r="A25" s="246"/>
       <c r="B25" s="47" t="s">
         <v>48</v>
       </c>
@@ -10817,7 +10826,7 @@
       <c r="H25" s="50"/>
     </row>
     <row r="26" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="237"/>
+      <c r="A26" s="246"/>
       <c r="B26" s="47" t="s">
         <v>50</v>
       </c>
@@ -10837,7 +10846,7 @@
       <c r="H26" s="50"/>
     </row>
     <row r="27" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="237"/>
+      <c r="A27" s="246"/>
       <c r="B27" s="47" t="s">
         <v>53</v>
       </c>
@@ -10857,7 +10866,7 @@
       <c r="H27" s="50"/>
     </row>
     <row r="28" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
-      <c r="A28" s="237"/>
+      <c r="A28" s="246"/>
       <c r="B28" s="47" t="s">
         <v>57</v>
       </c>
@@ -10877,7 +10886,7 @@
       <c r="H28" s="50"/>
     </row>
     <row r="29" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="237"/>
+      <c r="A29" s="246"/>
       <c r="B29" s="47" t="s">
         <v>61</v>
       </c>
@@ -10897,7 +10906,7 @@
       <c r="H29" s="50"/>
     </row>
     <row r="30" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="237"/>
+      <c r="A30" s="246"/>
       <c r="B30" s="47" t="s">
         <v>63</v>
       </c>
@@ -10917,7 +10926,7 @@
       <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="237"/>
+      <c r="A31" s="246"/>
       <c r="B31" s="47" t="s">
         <v>65</v>
       </c>
@@ -10937,7 +10946,7 @@
       <c r="H31" s="50"/>
     </row>
     <row r="32" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="237"/>
+      <c r="A32" s="246"/>
       <c r="B32" s="47" t="s">
         <v>67</v>
       </c>
@@ -10957,7 +10966,7 @@
       <c r="H32" s="50"/>
     </row>
     <row r="33" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="238"/>
+      <c r="A33" s="247"/>
       <c r="B33" s="51" t="s">
         <v>69</v>
       </c>
@@ -10977,7 +10986,7 @@
       <c r="H33" s="54"/>
     </row>
     <row r="34" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="233" t="s">
+      <c r="A34" s="248" t="s">
         <v>72</v>
       </c>
       <c r="B34" s="62"/>
@@ -10989,7 +10998,7 @@
       <c r="H34" s="64"/>
     </row>
     <row r="35" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="234"/>
+      <c r="A35" s="249"/>
       <c r="B35" s="65" t="s">
         <v>73</v>
       </c>
@@ -11009,7 +11018,7 @@
       <c r="H35" s="68"/>
     </row>
     <row r="36" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="234"/>
+      <c r="A36" s="249"/>
       <c r="B36" s="69" t="s">
         <v>76</v>
       </c>
@@ -11029,7 +11038,7 @@
       <c r="H36" s="72"/>
     </row>
     <row r="37" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="234"/>
+      <c r="A37" s="249"/>
       <c r="B37" s="69" t="s">
         <v>79</v>
       </c>
@@ -11049,7 +11058,7 @@
       <c r="H37" s="72"/>
     </row>
     <row r="38" spans="1:1024" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="235"/>
+      <c r="A38" s="250"/>
       <c r="B38" s="73" t="s">
         <v>82</v>
       </c>
@@ -11069,7 +11078,7 @@
       <c r="H38" s="76"/>
     </row>
     <row r="39" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="236" t="s">
+      <c r="A39" s="251" t="s">
         <v>85</v>
       </c>
       <c r="B39" s="59"/>
@@ -11081,7 +11090,7 @@
       <c r="H39" s="61"/>
     </row>
     <row r="40" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="237"/>
+      <c r="A40" s="246"/>
       <c r="B40" s="47" t="s">
         <v>86</v>
       </c>
@@ -12117,8 +12126,8 @@
       <c r="AMJ40" s="4"/>
     </row>
     <row r="41" spans="1:1024" s="10" customFormat="1" ht="46.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="237"/>
-      <c r="B41" s="227" t="s">
+      <c r="A41" s="246"/>
+      <c r="B41" s="238" t="s">
         <v>90</v>
       </c>
       <c r="C41" s="47" t="s">
@@ -13155,8 +13164,8 @@
       <c r="AMJ41" s="4"/>
     </row>
     <row r="42" spans="1:1024" s="10" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A42" s="237"/>
-      <c r="B42" s="227"/>
+      <c r="A42" s="246"/>
+      <c r="B42" s="238"/>
       <c r="C42" s="47" t="s">
         <v>94</v>
       </c>
@@ -14191,8 +14200,8 @@
       <c r="AMJ42" s="4"/>
     </row>
     <row r="43" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="237"/>
-      <c r="B43" s="227"/>
+      <c r="A43" s="246"/>
+      <c r="B43" s="238"/>
       <c r="C43" s="47" t="s">
         <v>98</v>
       </c>
@@ -15227,8 +15236,8 @@
       <c r="AMJ43" s="4"/>
     </row>
     <row r="44" spans="1:1024" s="10" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="237"/>
-      <c r="B44" s="227"/>
+      <c r="A44" s="246"/>
+      <c r="B44" s="238"/>
       <c r="C44" s="47" t="s">
         <v>102</v>
       </c>
@@ -16263,8 +16272,8 @@
       <c r="AMJ44" s="4"/>
     </row>
     <row r="45" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="237"/>
-      <c r="B45" s="227"/>
+      <c r="A45" s="246"/>
+      <c r="B45" s="238"/>
       <c r="C45" s="47" t="s">
         <v>106</v>
       </c>
@@ -17299,8 +17308,8 @@
       <c r="AMJ45" s="4"/>
     </row>
     <row r="46" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="237"/>
-      <c r="B46" s="227"/>
+      <c r="A46" s="246"/>
+      <c r="B46" s="238"/>
       <c r="C46" s="47" t="s">
         <v>110</v>
       </c>
@@ -18335,8 +18344,8 @@
       <c r="AMJ46" s="4"/>
     </row>
     <row r="47" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="237"/>
-      <c r="B47" s="227"/>
+      <c r="A47" s="246"/>
+      <c r="B47" s="238"/>
       <c r="C47" s="47" t="s">
         <v>114</v>
       </c>
@@ -19371,8 +19380,8 @@
       <c r="AMJ47" s="4"/>
     </row>
     <row r="48" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="237"/>
-      <c r="B48" s="227"/>
+      <c r="A48" s="246"/>
+      <c r="B48" s="238"/>
       <c r="C48" s="47" t="s">
         <v>118</v>
       </c>
@@ -20407,8 +20416,8 @@
       <c r="AMJ48" s="4"/>
     </row>
     <row r="49" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="237"/>
-      <c r="B49" s="227"/>
+      <c r="A49" s="246"/>
+      <c r="B49" s="238"/>
       <c r="C49" s="47" t="s">
         <v>122</v>
       </c>
@@ -21443,8 +21452,8 @@
       <c r="AMJ49" s="4"/>
     </row>
     <row r="50" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="237"/>
-      <c r="B50" s="227"/>
+      <c r="A50" s="246"/>
+      <c r="B50" s="238"/>
       <c r="C50" s="47" t="s">
         <v>126</v>
       </c>
@@ -22479,8 +22488,8 @@
       <c r="AMJ50" s="4"/>
     </row>
     <row r="51" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="237"/>
-      <c r="B51" s="227"/>
+      <c r="A51" s="246"/>
+      <c r="B51" s="238"/>
       <c r="C51" s="47" t="s">
         <v>130</v>
       </c>
@@ -23515,8 +23524,8 @@
       <c r="AMJ51" s="4"/>
     </row>
     <row r="52" spans="1:1024" s="16" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="238"/>
-      <c r="B52" s="228"/>
+      <c r="A52" s="247"/>
+      <c r="B52" s="239"/>
       <c r="C52" s="51" t="s">
         <v>134</v>
       </c>
@@ -24551,7 +24560,7 @@
       <c r="AMJ52" s="15"/>
     </row>
     <row r="53" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="233" t="s">
+      <c r="A53" s="248" t="s">
         <v>137</v>
       </c>
       <c r="B53" s="77"/>
@@ -24563,7 +24572,7 @@
       <c r="H53" s="79"/>
     </row>
     <row r="54" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="234"/>
+      <c r="A54" s="249"/>
       <c r="B54" s="80" t="s">
         <v>138</v>
       </c>
@@ -24583,8 +24592,8 @@
       <c r="H54" s="83"/>
     </row>
     <row r="55" spans="1:1024" ht="46.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="234"/>
-      <c r="B55" s="229" t="s">
+      <c r="A55" s="249"/>
+      <c r="B55" s="252" t="s">
         <v>90</v>
       </c>
       <c r="C55" s="84" t="s">
@@ -24605,8 +24614,8 @@
       <c r="H55" s="83"/>
     </row>
     <row r="56" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
-      <c r="A56" s="234"/>
-      <c r="B56" s="229"/>
+      <c r="A56" s="249"/>
+      <c r="B56" s="252"/>
       <c r="C56" s="80" t="s">
         <v>94</v>
       </c>
@@ -24625,8 +24634,8 @@
       <c r="H56" s="83"/>
     </row>
     <row r="57" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="234"/>
-      <c r="B57" s="229"/>
+      <c r="A57" s="249"/>
+      <c r="B57" s="252"/>
       <c r="C57" s="80" t="s">
         <v>98</v>
       </c>
@@ -24645,8 +24654,8 @@
       <c r="H57" s="83"/>
     </row>
     <row r="58" spans="1:1024" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="234"/>
-      <c r="B58" s="229"/>
+      <c r="A58" s="249"/>
+      <c r="B58" s="252"/>
       <c r="C58" s="80" t="s">
         <v>102</v>
       </c>
@@ -24665,8 +24674,8 @@
       <c r="H58" s="83"/>
     </row>
     <row r="59" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="234"/>
-      <c r="B59" s="229"/>
+      <c r="A59" s="249"/>
+      <c r="B59" s="252"/>
       <c r="C59" s="80" t="s">
         <v>106</v>
       </c>
@@ -24685,8 +24694,8 @@
       <c r="H59" s="83"/>
     </row>
     <row r="60" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="234"/>
-      <c r="B60" s="229"/>
+      <c r="A60" s="249"/>
+      <c r="B60" s="252"/>
       <c r="C60" s="80" t="s">
         <v>110</v>
       </c>
@@ -24705,8 +24714,8 @@
       <c r="H60" s="83"/>
     </row>
     <row r="61" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="234"/>
-      <c r="B61" s="229"/>
+      <c r="A61" s="249"/>
+      <c r="B61" s="252"/>
       <c r="C61" s="80" t="s">
         <v>114</v>
       </c>
@@ -24725,8 +24734,8 @@
       <c r="H61" s="83"/>
     </row>
     <row r="62" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="234"/>
-      <c r="B62" s="229"/>
+      <c r="A62" s="249"/>
+      <c r="B62" s="252"/>
       <c r="C62" s="80" t="s">
         <v>118</v>
       </c>
@@ -24745,8 +24754,8 @@
       <c r="H62" s="83"/>
     </row>
     <row r="63" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="234"/>
-      <c r="B63" s="229"/>
+      <c r="A63" s="249"/>
+      <c r="B63" s="252"/>
       <c r="C63" s="80" t="s">
         <v>122</v>
       </c>
@@ -24765,8 +24774,8 @@
       <c r="H63" s="83"/>
     </row>
     <row r="64" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="234"/>
-      <c r="B64" s="229"/>
+      <c r="A64" s="249"/>
+      <c r="B64" s="252"/>
       <c r="C64" s="80" t="s">
         <v>126</v>
       </c>
@@ -24785,8 +24794,8 @@
       <c r="H64" s="83"/>
     </row>
     <row r="65" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="234"/>
-      <c r="B65" s="229"/>
+      <c r="A65" s="249"/>
+      <c r="B65" s="252"/>
       <c r="C65" s="80" t="s">
         <v>130</v>
       </c>
@@ -24805,8 +24814,8 @@
       <c r="H65" s="83"/>
     </row>
     <row r="66" spans="1:1024" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="235"/>
-      <c r="B66" s="230"/>
+      <c r="A66" s="250"/>
+      <c r="B66" s="253"/>
       <c r="C66" s="85" t="s">
         <v>134</v>
       </c>
@@ -24825,7 +24834,7 @@
       <c r="H66" s="87"/>
     </row>
     <row r="67" spans="1:1024" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="236" t="s">
+      <c r="A67" s="251" t="s">
         <v>145</v>
       </c>
       <c r="B67" s="59"/>
@@ -25853,7 +25862,7 @@
       <c r="AMJ67" s="13"/>
     </row>
     <row r="68" spans="1:1024" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="237"/>
+      <c r="A68" s="246"/>
       <c r="B68" s="89" t="s">
         <v>146</v>
       </c>
@@ -26889,7 +26898,7 @@
       <c r="AMJ68" s="13"/>
     </row>
     <row r="69" spans="1:1024" s="14" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="238"/>
+      <c r="A69" s="247"/>
       <c r="B69" s="93" t="s">
         <v>150</v>
       </c>
@@ -27925,7 +27934,7 @@
       <c r="AMJ69" s="13"/>
     </row>
     <row r="70" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="233" t="s">
+      <c r="A70" s="248" t="s">
         <v>154</v>
       </c>
       <c r="B70" s="29"/>
@@ -27937,7 +27946,7 @@
       <c r="H70" s="64"/>
     </row>
     <row r="71" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="234"/>
+      <c r="A71" s="249"/>
       <c r="B71" s="69" t="s">
         <v>155</v>
       </c>
@@ -27955,8 +27964,8 @@
       <c r="H71" s="72"/>
     </row>
     <row r="72" spans="1:1024" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="234"/>
-      <c r="B72" s="231" t="s">
+      <c r="A72" s="249"/>
+      <c r="B72" s="254" t="s">
         <v>158</v>
       </c>
       <c r="C72" s="69" t="s">
@@ -27977,8 +27986,8 @@
       <c r="H72" s="72"/>
     </row>
     <row r="73" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="234"/>
-      <c r="B73" s="231"/>
+      <c r="A73" s="249"/>
+      <c r="B73" s="254"/>
       <c r="C73" s="69" t="s">
         <v>30</v>
       </c>
@@ -27997,8 +28006,8 @@
       <c r="H73" s="72"/>
     </row>
     <row r="74" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="234"/>
-      <c r="B74" s="231"/>
+      <c r="A74" s="249"/>
+      <c r="B74" s="254"/>
       <c r="C74" s="69" t="s">
         <v>12</v>
       </c>
@@ -28017,8 +28026,8 @@
       <c r="H74" s="72"/>
     </row>
     <row r="75" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="234"/>
-      <c r="B75" s="231"/>
+      <c r="A75" s="249"/>
+      <c r="B75" s="254"/>
       <c r="C75" s="69" t="s">
         <v>167</v>
       </c>
@@ -28037,8 +28046,8 @@
       <c r="H75" s="72"/>
     </row>
     <row r="76" spans="1:1024" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="235"/>
-      <c r="B76" s="232"/>
+      <c r="A76" s="250"/>
+      <c r="B76" s="255"/>
       <c r="C76" s="73" t="s">
         <v>25</v>
       </c>
@@ -28057,7 +28066,7 @@
       <c r="H76" s="76"/>
     </row>
     <row r="77" spans="1:1024" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="236" t="s">
+      <c r="A77" s="251" t="s">
         <v>172</v>
       </c>
       <c r="B77" s="31"/>
@@ -29085,7 +29094,7 @@
       <c r="AMJ77" s="13"/>
     </row>
     <row r="78" spans="1:1024" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="237"/>
+      <c r="A78" s="246"/>
       <c r="B78" s="47" t="s">
         <v>173</v>
       </c>
@@ -30119,8 +30128,8 @@
       <c r="AMJ78" s="13"/>
     </row>
     <row r="79" spans="1:1024" s="14" customFormat="1" ht="46.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="237"/>
-      <c r="B79" s="227" t="s">
+      <c r="A79" s="246"/>
+      <c r="B79" s="238" t="s">
         <v>176</v>
       </c>
       <c r="C79" s="47" t="s">
@@ -31157,8 +31166,8 @@
       <c r="AMJ79" s="13"/>
     </row>
     <row r="80" spans="1:1024" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="237"/>
-      <c r="B80" s="227"/>
+      <c r="A80" s="246"/>
+      <c r="B80" s="238"/>
       <c r="C80" s="47" t="s">
         <v>179</v>
       </c>
@@ -32193,8 +32202,8 @@
       <c r="AMJ80" s="13"/>
     </row>
     <row r="81" spans="1:1024" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="237"/>
-      <c r="B81" s="227"/>
+      <c r="A81" s="246"/>
+      <c r="B81" s="238"/>
       <c r="C81" s="47" t="s">
         <v>182</v>
       </c>
@@ -33229,8 +33238,8 @@
       <c r="AMJ81" s="13"/>
     </row>
     <row r="82" spans="1:1024" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="237"/>
-      <c r="B82" s="227"/>
+      <c r="A82" s="246"/>
+      <c r="B82" s="238"/>
       <c r="C82" s="47" t="s">
         <v>185</v>
       </c>
@@ -34265,8 +34274,8 @@
       <c r="AMJ82" s="13"/>
     </row>
     <row r="83" spans="1:1024" s="14" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="238"/>
-      <c r="B83" s="228"/>
+      <c r="A83" s="247"/>
+      <c r="B83" s="239"/>
       <c r="C83" s="51" t="s">
         <v>25</v>
       </c>
@@ -35375,6 +35384,13 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" insertRows="0" deleteRows="0"/>
   <mergeCells count="14">
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B55:B66"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="A53:A66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="A77:A83"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B41:B52"/>
     <mergeCell ref="A3:A11"/>
@@ -35382,13 +35398,6 @@
     <mergeCell ref="A21:A33"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="A39:A52"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B55:B66"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="A53:A66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="A77:A83"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -35428,16 +35437,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="236" t="s">
         <v>486</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="240"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="237"/>
     </row>
     <row r="2" spans="1:8" s="35" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
@@ -35466,7 +35475,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="241" t="s">
+      <c r="A3" s="240" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="27"/>
@@ -35478,7 +35487,7 @@
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="242"/>
+      <c r="A4" s="241"/>
       <c r="B4" s="47" t="s">
         <v>8</v>
       </c>
@@ -35498,7 +35507,7 @@
       <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="242"/>
+      <c r="A5" s="241"/>
       <c r="B5" s="47" t="s">
         <v>13</v>
       </c>
@@ -35518,7 +35527,7 @@
       <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="242"/>
+      <c r="A6" s="241"/>
       <c r="B6" s="47" t="s">
         <v>25</v>
       </c>
@@ -35538,7 +35547,7 @@
       <c r="H6" s="50"/>
     </row>
     <row r="7" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="242"/>
+      <c r="A7" s="241"/>
       <c r="B7" s="47" t="s">
         <v>26</v>
       </c>
@@ -35558,7 +35567,7 @@
       <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="242"/>
+      <c r="A8" s="241"/>
       <c r="B8" s="47" t="s">
         <v>30</v>
       </c>
@@ -35578,7 +35587,7 @@
       <c r="H8" s="50"/>
     </row>
     <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="242"/>
+      <c r="A9" s="241"/>
       <c r="B9" s="47" t="s">
         <v>16</v>
       </c>
@@ -35598,7 +35607,7 @@
       <c r="H9" s="50"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="242"/>
+      <c r="A10" s="241"/>
       <c r="B10" s="47" t="s">
         <v>19</v>
       </c>
@@ -35618,7 +35627,7 @@
       <c r="H10" s="50"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="243"/>
+      <c r="A11" s="242"/>
       <c r="B11" s="51" t="s">
         <v>22</v>
       </c>
@@ -35638,7 +35647,7 @@
       <c r="H11" s="54"/>
     </row>
     <row r="12" spans="1:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="247" t="s">
+      <c r="A12" s="256" t="s">
         <v>203</v>
       </c>
       <c r="B12" s="98"/>
@@ -35650,7 +35659,7 @@
       <c r="H12" s="102"/>
     </row>
     <row r="13" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="248"/>
+      <c r="A13" s="257"/>
       <c r="B13" s="103" t="s">
         <v>204</v>
       </c>
@@ -35670,7 +35679,7 @@
       <c r="H13" s="72"/>
     </row>
     <row r="14" spans="1:8" ht="103.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="248"/>
+      <c r="A14" s="257"/>
       <c r="B14" s="103" t="s">
         <v>448</v>
       </c>
@@ -35728,16 +35737,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="236" t="s">
         <v>487</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="240"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="237"/>
     </row>
     <row r="2" spans="1:1024" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
@@ -35766,7 +35775,7 @@
       </c>
     </row>
     <row r="3" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="241" t="s">
+      <c r="A3" s="240" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="37"/>
@@ -35816,7 +35825,7 @@
       <c r="AMJ3" s="5"/>
     </row>
     <row r="4" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="242"/>
+      <c r="A4" s="241"/>
       <c r="B4" s="105" t="s">
         <v>206</v>
       </c>
@@ -35834,7 +35843,7 @@
       <c r="H4" s="107"/>
     </row>
     <row r="5" spans="1:1024" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="242"/>
+      <c r="A5" s="241"/>
       <c r="B5" s="105" t="s">
         <v>209</v>
       </c>
@@ -35850,7 +35859,7 @@
       <c r="H5" s="107"/>
     </row>
     <row r="6" spans="1:1024" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="242"/>
+      <c r="A6" s="241"/>
       <c r="B6" s="105" t="s">
         <v>212</v>
       </c>
@@ -35866,7 +35875,7 @@
       <c r="H6" s="107"/>
     </row>
     <row r="7" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="242"/>
+      <c r="A7" s="241"/>
       <c r="B7" s="105" t="s">
         <v>213</v>
       </c>
@@ -35882,7 +35891,7 @@
       <c r="H7" s="107"/>
     </row>
     <row r="8" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="242"/>
+      <c r="A8" s="241"/>
       <c r="B8" s="105" t="s">
         <v>214</v>
       </c>
@@ -35898,7 +35907,7 @@
       <c r="H8" s="107"/>
     </row>
     <row r="9" spans="1:1024" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="242"/>
+      <c r="A9" s="241"/>
       <c r="B9" s="105" t="s">
         <v>216</v>
       </c>
@@ -35916,7 +35925,7 @@
       <c r="H9" s="107"/>
     </row>
     <row r="10" spans="1:1024" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="242"/>
+      <c r="A10" s="241"/>
       <c r="B10" s="105" t="s">
         <v>218</v>
       </c>
@@ -35945,7 +35954,7 @@
       <c r="AMJ10" s="5"/>
     </row>
     <row r="11" spans="1:1024" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="242"/>
+      <c r="A11" s="241"/>
       <c r="B11" s="105" t="s">
         <v>3</v>
       </c>
@@ -35961,7 +35970,7 @@
       <c r="H11" s="107"/>
     </row>
     <row r="12" spans="1:1024" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="242"/>
+      <c r="A12" s="241"/>
       <c r="B12" s="105" t="s">
         <v>222</v>
       </c>
@@ -35979,7 +35988,7 @@
       <c r="H12" s="107"/>
     </row>
     <row r="13" spans="1:1024" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="242"/>
+      <c r="A13" s="241"/>
       <c r="B13" s="105" t="s">
         <v>224</v>
       </c>
@@ -35997,7 +36006,7 @@
       <c r="H13" s="107"/>
     </row>
     <row r="14" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="242"/>
+      <c r="A14" s="241"/>
       <c r="B14" s="105" t="s">
         <v>459</v>
       </c>
@@ -36015,7 +36024,7 @@
       <c r="H14" s="107"/>
     </row>
     <row r="15" spans="1:1024" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="243"/>
+      <c r="A15" s="242"/>
       <c r="B15" s="108" t="s">
         <v>228</v>
       </c>
@@ -36031,7 +36040,7 @@
       <c r="H15" s="110"/>
     </row>
     <row r="16" spans="1:1024" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="233" t="s">
+      <c r="A16" s="248" t="s">
         <v>154</v>
       </c>
       <c r="B16" s="111"/>
@@ -36044,7 +36053,7 @@
       <c r="AMJ16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="234"/>
+      <c r="A17" s="249"/>
       <c r="B17" s="113" t="s">
         <v>231</v>
       </c>
@@ -36060,7 +36069,7 @@
       <c r="H17" s="115"/>
     </row>
     <row r="18" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="234"/>
+      <c r="A18" s="249"/>
       <c r="B18" s="113"/>
       <c r="C18" s="114" t="s">
         <v>1</v>
@@ -36076,7 +36085,7 @@
       <c r="H18" s="115"/>
     </row>
     <row r="19" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="234"/>
+      <c r="A19" s="249"/>
       <c r="B19" s="113"/>
       <c r="C19" s="114" t="s">
         <v>209</v>
@@ -36092,7 +36101,7 @@
       <c r="H19" s="115"/>
     </row>
     <row r="20" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="234"/>
+      <c r="A20" s="249"/>
       <c r="B20" s="113"/>
       <c r="C20" s="114" t="s">
         <v>518</v>
@@ -36108,7 +36117,7 @@
       <c r="H20" s="115"/>
     </row>
     <row r="21" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="234"/>
+      <c r="A21" s="249"/>
       <c r="B21" s="113"/>
       <c r="C21" s="114" t="s">
         <v>519</v>
@@ -36124,7 +36133,7 @@
       <c r="H21" s="115"/>
     </row>
     <row r="22" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="234"/>
+      <c r="A22" s="249"/>
       <c r="B22" s="113"/>
       <c r="C22" s="114" t="s">
         <v>520</v>
@@ -36140,7 +36149,7 @@
       <c r="H22" s="115"/>
     </row>
     <row r="23" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="234"/>
+      <c r="A23" s="249"/>
       <c r="B23" s="113"/>
       <c r="C23" s="114" t="s">
         <v>521</v>
@@ -36156,7 +36165,7 @@
       <c r="H23" s="115"/>
     </row>
     <row r="24" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="234"/>
+      <c r="A24" s="249"/>
       <c r="B24" s="113"/>
       <c r="C24" s="114" t="s">
         <v>522</v>
@@ -36172,7 +36181,7 @@
       <c r="H24" s="115"/>
     </row>
     <row r="25" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="234"/>
+      <c r="A25" s="249"/>
       <c r="B25" s="113"/>
       <c r="C25" s="114" t="s">
         <v>523</v>
@@ -36188,7 +36197,7 @@
       <c r="H25" s="115"/>
     </row>
     <row r="26" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="234"/>
+      <c r="A26" s="249"/>
       <c r="B26" s="113"/>
       <c r="C26" s="114" t="s">
         <v>524</v>
@@ -36204,7 +36213,7 @@
       <c r="H26" s="115"/>
     </row>
     <row r="27" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="234"/>
+      <c r="A27" s="249"/>
       <c r="B27" s="113"/>
       <c r="C27" s="114" t="s">
         <v>525</v>
@@ -36220,7 +36229,7 @@
       <c r="H27" s="115"/>
     </row>
     <row r="28" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="234"/>
+      <c r="A28" s="249"/>
       <c r="B28" s="113"/>
       <c r="C28" s="114" t="s">
         <v>526</v>
@@ -36236,7 +36245,7 @@
       <c r="H28" s="115"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="234"/>
+      <c r="A29" s="249"/>
       <c r="B29" s="113" t="s">
         <v>233</v>
       </c>
@@ -36252,7 +36261,7 @@
       <c r="H29" s="115"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="234"/>
+      <c r="A30" s="249"/>
       <c r="B30" s="222"/>
       <c r="C30" s="114" t="s">
         <v>1</v>
@@ -36268,7 +36277,7 @@
       <c r="H30" s="225"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="234"/>
+      <c r="A31" s="249"/>
       <c r="B31" s="222"/>
       <c r="C31" s="114" t="s">
         <v>209</v>
@@ -36284,7 +36293,7 @@
       <c r="H31" s="225"/>
     </row>
     <row r="32" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="234"/>
+      <c r="A32" s="249"/>
       <c r="B32" s="222"/>
       <c r="C32" s="114" t="s">
         <v>518</v>
@@ -36300,7 +36309,7 @@
       <c r="H32" s="225"/>
     </row>
     <row r="33" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="234"/>
+      <c r="A33" s="249"/>
       <c r="B33" s="222"/>
       <c r="C33" s="114" t="s">
         <v>519</v>
@@ -36316,7 +36325,7 @@
       <c r="H33" s="225"/>
     </row>
     <row r="34" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="234"/>
+      <c r="A34" s="249"/>
       <c r="B34" s="222"/>
       <c r="C34" s="114" t="s">
         <v>520</v>
@@ -36332,7 +36341,7 @@
       <c r="H34" s="225"/>
     </row>
     <row r="35" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="234"/>
+      <c r="A35" s="249"/>
       <c r="B35" s="222"/>
       <c r="C35" s="114" t="s">
         <v>521</v>
@@ -36348,7 +36357,7 @@
       <c r="H35" s="225"/>
     </row>
     <row r="36" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="234"/>
+      <c r="A36" s="249"/>
       <c r="B36" s="222"/>
       <c r="C36" s="114" t="s">
         <v>522</v>
@@ -36364,7 +36373,7 @@
       <c r="H36" s="225"/>
     </row>
     <row r="37" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="234"/>
+      <c r="A37" s="249"/>
       <c r="B37" s="222"/>
       <c r="C37" s="114" t="s">
         <v>523</v>
@@ -36380,7 +36389,7 @@
       <c r="H37" s="225"/>
     </row>
     <row r="38" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="234"/>
+      <c r="A38" s="249"/>
       <c r="B38" s="222"/>
       <c r="C38" s="114" t="s">
         <v>524</v>
@@ -36396,7 +36405,7 @@
       <c r="H38" s="225"/>
     </row>
     <row r="39" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="234"/>
+      <c r="A39" s="249"/>
       <c r="B39" s="222"/>
       <c r="C39" s="114" t="s">
         <v>525</v>
@@ -36412,7 +36421,7 @@
       <c r="H39" s="225"/>
     </row>
     <row r="40" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="234"/>
+      <c r="A40" s="249"/>
       <c r="B40" s="222"/>
       <c r="C40" s="114" t="s">
         <v>526</v>
@@ -36428,7 +36437,7 @@
       <c r="H40" s="225"/>
     </row>
     <row r="41" spans="1:1024" ht="41.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="235"/>
+      <c r="A41" s="250"/>
       <c r="B41" s="116" t="s">
         <v>235</v>
       </c>
@@ -36446,7 +36455,7 @@
       <c r="H41" s="118"/>
     </row>
     <row r="42" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="236" t="s">
+      <c r="A42" s="251" t="s">
         <v>236</v>
       </c>
       <c r="B42" s="119"/>
@@ -36496,7 +36505,7 @@
       <c r="AMJ42" s="5"/>
     </row>
     <row r="43" spans="1:1024" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="238"/>
+      <c r="A43" s="247"/>
       <c r="B43" s="108" t="s">
         <v>237</v>
       </c>
@@ -36533,7 +36542,7 @@
       <c r="AMJ43" s="5"/>
     </row>
     <row r="44" spans="1:1024" s="7" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="233" t="s">
+      <c r="A44" s="248" t="s">
         <v>72</v>
       </c>
       <c r="B44" s="111"/>
@@ -36546,7 +36555,7 @@
       <c r="AMJ44" s="5"/>
     </row>
     <row r="45" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="234"/>
+      <c r="A45" s="249"/>
       <c r="B45" s="113" t="s">
         <v>73</v>
       </c>
@@ -36564,7 +36573,7 @@
       <c r="H45" s="115"/>
     </row>
     <row r="46" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="234"/>
+      <c r="A46" s="249"/>
       <c r="B46" s="113" t="s">
         <v>76</v>
       </c>
@@ -36582,7 +36591,7 @@
       <c r="H46" s="115"/>
     </row>
     <row r="47" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="235"/>
+      <c r="A47" s="250"/>
       <c r="B47" s="116" t="s">
         <v>79</v>
       </c>
@@ -36600,7 +36609,7 @@
       <c r="H47" s="118"/>
     </row>
     <row r="48" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="236" t="s">
+      <c r="A48" s="251" t="s">
         <v>243</v>
       </c>
       <c r="B48" s="121"/>
@@ -36631,7 +36640,7 @@
       <c r="AMJ48" s="5"/>
     </row>
     <row r="49" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="237"/>
+      <c r="A49" s="246"/>
       <c r="B49" s="105" t="s">
         <v>244</v>
       </c>
@@ -36649,7 +36658,7 @@
       <c r="H49" s="107"/>
     </row>
     <row r="50" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="237"/>
+      <c r="A50" s="246"/>
       <c r="B50" s="105" t="s">
         <v>246</v>
       </c>
@@ -36667,7 +36676,7 @@
       <c r="H50" s="107"/>
     </row>
     <row r="51" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="237"/>
+      <c r="A51" s="246"/>
       <c r="B51" s="105" t="s">
         <v>46</v>
       </c>
@@ -36685,7 +36694,7 @@
       <c r="H51" s="107"/>
     </row>
     <row r="52" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="237"/>
+      <c r="A52" s="246"/>
       <c r="B52" s="105" t="s">
         <v>48</v>
       </c>
@@ -36703,7 +36712,7 @@
       <c r="H52" s="107"/>
     </row>
     <row r="53" spans="1:1024" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="237"/>
+      <c r="A53" s="246"/>
       <c r="B53" s="105" t="s">
         <v>61</v>
       </c>
@@ -36741,7 +36750,7 @@
       <c r="AMJ53" s="5"/>
     </row>
     <row r="54" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="237"/>
+      <c r="A54" s="246"/>
       <c r="B54" s="105" t="s">
         <v>63</v>
       </c>
@@ -36759,7 +36768,7 @@
       <c r="H54" s="107"/>
     </row>
     <row r="55" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="237"/>
+      <c r="A55" s="246"/>
       <c r="B55" s="105" t="s">
         <v>65</v>
       </c>
@@ -36777,7 +36786,7 @@
       <c r="H55" s="107"/>
     </row>
     <row r="56" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="237"/>
+      <c r="A56" s="246"/>
       <c r="B56" s="105" t="s">
         <v>67</v>
       </c>
@@ -36795,7 +36804,7 @@
       <c r="H56" s="107"/>
     </row>
     <row r="57" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="238"/>
+      <c r="A57" s="247"/>
       <c r="B57" s="108" t="s">
         <v>69</v>
       </c>
@@ -36813,7 +36822,7 @@
       <c r="H57" s="110"/>
     </row>
     <row r="58" spans="1:1024" s="7" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="233" t="s">
+      <c r="A58" s="248" t="s">
         <v>499</v>
       </c>
       <c r="B58" s="123"/>
@@ -36826,7 +36835,7 @@
       <c r="AMJ58" s="5"/>
     </row>
     <row r="59" spans="1:1024" ht="90.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="235"/>
+      <c r="A59" s="250"/>
       <c r="B59" s="116" t="s">
         <v>5</v>
       </c>
@@ -36888,16 +36897,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="236" t="s">
         <v>488</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="240"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="237"/>
     </row>
     <row r="2" spans="1:1024" s="16" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
@@ -37942,7 +37951,7 @@
       <c r="AMJ2" s="17"/>
     </row>
     <row r="3" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="249" t="s">
+      <c r="A3" s="258" t="s">
         <v>500</v>
       </c>
       <c r="B3" s="121"/>
@@ -37967,7 +37976,7 @@
       <c r="AMJ3" s="5"/>
     </row>
     <row r="4" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="250"/>
+      <c r="A4" s="259"/>
       <c r="B4" s="105" t="s">
         <v>206</v>
       </c>
@@ -37987,7 +37996,7 @@
       <c r="H4" s="126"/>
     </row>
     <row r="5" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="250"/>
+      <c r="A5" s="259"/>
       <c r="B5" s="105" t="s">
         <v>305</v>
       </c>
@@ -38007,7 +38016,7 @@
       <c r="H5" s="126"/>
     </row>
     <row r="6" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="250"/>
+      <c r="A6" s="259"/>
       <c r="B6" s="105" t="s">
         <v>507</v>
       </c>
@@ -38027,7 +38036,7 @@
       <c r="H6" s="126"/>
     </row>
     <row r="7" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="250"/>
+      <c r="A7" s="259"/>
       <c r="B7" s="105" t="s">
         <v>308</v>
       </c>
@@ -38047,7 +38056,7 @@
       <c r="H7" s="126"/>
     </row>
     <row r="8" spans="1:1024" s="7" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="252" t="s">
+      <c r="A8" s="261" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="123"/>
@@ -38060,7 +38069,7 @@
       <c r="AMJ8" s="5"/>
     </row>
     <row r="9" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="254"/>
+      <c r="A9" s="263"/>
       <c r="B9" s="113" t="s">
         <v>311</v>
       </c>
@@ -39096,7 +39105,7 @@
       <c r="AMJ9" s="8"/>
     </row>
     <row r="10" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="254"/>
+      <c r="A10" s="263"/>
       <c r="B10" s="113" t="s">
         <v>508</v>
       </c>
@@ -40132,7 +40141,7 @@
       <c r="AMJ10" s="8"/>
     </row>
     <row r="11" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="254"/>
+      <c r="A11" s="263"/>
       <c r="B11" s="113" t="s">
         <v>316</v>
       </c>
@@ -41168,7 +41177,7 @@
       <c r="AMJ11" s="8"/>
     </row>
     <row r="12" spans="1:1024" s="10" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="254"/>
+      <c r="A12" s="263"/>
       <c r="B12" s="113" t="s">
         <v>509</v>
       </c>
@@ -42204,7 +42213,7 @@
       <c r="AMJ12" s="8"/>
     </row>
     <row r="13" spans="1:1024" s="10" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="254"/>
+      <c r="A13" s="263"/>
       <c r="B13" s="113" t="s">
         <v>313</v>
       </c>
@@ -43240,7 +43249,7 @@
       <c r="AMJ13" s="8"/>
     </row>
     <row r="14" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="249" t="s">
+      <c r="A14" s="258" t="s">
         <v>501</v>
       </c>
       <c r="B14" s="121"/>
@@ -43261,7 +43270,7 @@
       <c r="AMJ14" s="5"/>
     </row>
     <row r="15" spans="1:1024" s="16" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="251"/>
+      <c r="A15" s="260"/>
       <c r="B15" s="108" t="s">
         <v>320</v>
       </c>
@@ -44297,7 +44306,7 @@
       <c r="AMJ15" s="17"/>
     </row>
     <row r="16" spans="1:1024" s="40" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="252" t="s">
+      <c r="A16" s="261" t="s">
         <v>323</v>
       </c>
       <c r="B16" s="111"/>
@@ -45325,7 +45334,7 @@
       <c r="AMJ16" s="39"/>
     </row>
     <row r="17" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="254"/>
+      <c r="A17" s="263"/>
       <c r="B17" s="113" t="s">
         <v>94</v>
       </c>
@@ -45345,7 +45354,7 @@
       <c r="H17" s="129"/>
     </row>
     <row r="18" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="254"/>
+      <c r="A18" s="263"/>
       <c r="B18" s="113" t="s">
         <v>98</v>
       </c>
@@ -45365,7 +45374,7 @@
       <c r="H18" s="129"/>
     </row>
     <row r="19" spans="1:1024" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="253"/>
+      <c r="A19" s="262"/>
       <c r="B19" s="116" t="s">
         <v>102</v>
       </c>
@@ -45385,7 +45394,7 @@
       <c r="H19" s="130"/>
     </row>
     <row r="20" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="249" t="s">
+      <c r="A20" s="258" t="s">
         <v>328</v>
       </c>
       <c r="B20" s="121"/>
@@ -45405,7 +45414,7 @@
       <c r="AMJ20" s="5"/>
     </row>
     <row r="21" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="250"/>
+      <c r="A21" s="259"/>
       <c r="B21" s="105" t="s">
         <v>106</v>
       </c>
@@ -45425,7 +45434,7 @@
       <c r="H21" s="126"/>
     </row>
     <row r="22" spans="1:1024" ht="146.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="250"/>
+      <c r="A22" s="259"/>
       <c r="B22" s="105" t="s">
         <v>550</v>
       </c>
@@ -45445,7 +45454,7 @@
       <c r="H22" s="126"/>
     </row>
     <row r="23" spans="1:1024" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="251"/>
+      <c r="A23" s="260"/>
       <c r="B23" s="108" t="s">
         <v>511</v>
       </c>
@@ -45465,7 +45474,7 @@
       <c r="H23" s="127"/>
     </row>
     <row r="24" spans="1:1024" s="7" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="252" t="s">
+      <c r="A24" s="261" t="s">
         <v>502</v>
       </c>
       <c r="B24" s="132"/>
@@ -45478,7 +45487,7 @@
       <c r="AMJ24" s="5"/>
     </row>
     <row r="25" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="253"/>
+      <c r="A25" s="262"/>
       <c r="B25" s="116" t="s">
         <v>334</v>
       </c>
@@ -45496,7 +45505,7 @@
       <c r="H25" s="130"/>
     </row>
     <row r="26" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="249" t="s">
+      <c r="A26" s="258" t="s">
         <v>337</v>
       </c>
       <c r="B26" s="121"/>
@@ -45516,7 +45525,7 @@
       <c r="AMJ26" s="5"/>
     </row>
     <row r="27" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
-      <c r="A27" s="250"/>
+      <c r="A27" s="259"/>
       <c r="B27" s="105" t="s">
         <v>110</v>
       </c>
@@ -45536,7 +45545,7 @@
       <c r="H27" s="126"/>
     </row>
     <row r="28" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="250"/>
+      <c r="A28" s="259"/>
       <c r="B28" s="105" t="s">
         <v>118</v>
       </c>
@@ -45556,7 +45565,7 @@
       <c r="H28" s="126"/>
     </row>
     <row r="29" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="250"/>
+      <c r="A29" s="259"/>
       <c r="B29" s="105" t="s">
         <v>122</v>
       </c>
@@ -45576,7 +45585,7 @@
       <c r="H29" s="126"/>
     </row>
     <row r="30" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="250"/>
+      <c r="A30" s="259"/>
       <c r="B30" s="105" t="s">
         <v>126</v>
       </c>
@@ -45596,7 +45605,7 @@
       <c r="H30" s="126"/>
     </row>
     <row r="31" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="251"/>
+      <c r="A31" s="260"/>
       <c r="B31" s="108" t="s">
         <v>130</v>
       </c>
@@ -45616,7 +45625,7 @@
       <c r="H31" s="127"/>
     </row>
     <row r="32" spans="1:1024" s="7" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="252" t="s">
+      <c r="A32" s="261" t="s">
         <v>343</v>
       </c>
       <c r="B32" s="123"/>
@@ -45629,7 +45638,7 @@
       <c r="AMJ32" s="5"/>
     </row>
     <row r="33" spans="1:8" ht="89.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="254"/>
+      <c r="A33" s="263"/>
       <c r="B33" s="113" t="s">
         <v>134</v>
       </c>
@@ -45649,7 +45658,7 @@
       <c r="H33" s="129"/>
     </row>
     <row r="34" spans="1:8" ht="89.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="254"/>
+      <c r="A34" s="263"/>
       <c r="B34" s="113" t="s">
         <v>552</v>
       </c>
@@ -45667,7 +45676,7 @@
       <c r="H34" s="226"/>
     </row>
     <row r="35" spans="1:8" ht="44.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="253"/>
+      <c r="A35" s="262"/>
       <c r="B35" s="116" t="s">
         <v>344</v>
       </c>
@@ -45736,16 +45745,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="236" t="s">
         <v>489</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="240"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="237"/>
     </row>
     <row r="2" spans="1:1024" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
@@ -45774,7 +45783,7 @@
       </c>
     </row>
     <row r="3" spans="1:1024" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="236" t="s">
+      <c r="A3" s="251" t="s">
         <v>503</v>
       </c>
       <c r="B3" s="18"/>
@@ -45801,7 +45810,7 @@
       <c r="AMJ3" s="134"/>
     </row>
     <row r="4" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="237"/>
+      <c r="A4" s="246"/>
       <c r="B4" s="106" t="s">
         <v>206</v>
       </c>
@@ -45821,7 +45830,7 @@
       <c r="H4" s="137"/>
     </row>
     <row r="5" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="237"/>
+      <c r="A5" s="246"/>
       <c r="B5" s="106" t="s">
         <v>259</v>
       </c>
@@ -45841,7 +45850,7 @@
       <c r="H5" s="137"/>
     </row>
     <row r="6" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="237"/>
+      <c r="A6" s="246"/>
       <c r="B6" s="106" t="s">
         <v>212</v>
       </c>
@@ -45859,7 +45868,7 @@
       <c r="H6" s="137"/>
     </row>
     <row r="7" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="237"/>
+      <c r="A7" s="246"/>
       <c r="B7" s="106" t="s">
         <v>265</v>
       </c>
@@ -45879,7 +45888,7 @@
       <c r="H7" s="137"/>
     </row>
     <row r="8" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="237"/>
+      <c r="A8" s="246"/>
       <c r="B8" s="106" t="s">
         <v>268</v>
       </c>
@@ -45899,7 +45908,7 @@
       <c r="H8" s="137"/>
     </row>
     <row r="9" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="237"/>
+      <c r="A9" s="246"/>
       <c r="B9" s="106" t="s">
         <v>271</v>
       </c>
@@ -45919,7 +45928,7 @@
       <c r="H9" s="137"/>
     </row>
     <row r="10" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="237"/>
+      <c r="A10" s="246"/>
       <c r="B10" s="106" t="s">
         <v>209</v>
       </c>
@@ -45937,7 +45946,7 @@
       <c r="H10" s="137"/>
     </row>
     <row r="11" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="237"/>
+      <c r="A11" s="246"/>
       <c r="B11" s="106" t="s">
         <v>278</v>
       </c>
@@ -45955,7 +45964,7 @@
       <c r="H11" s="137"/>
     </row>
     <row r="12" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="237"/>
+      <c r="A12" s="246"/>
       <c r="B12" s="106" t="s">
         <v>353</v>
       </c>
@@ -45973,7 +45982,7 @@
       <c r="H12" s="137"/>
     </row>
     <row r="13" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="237"/>
+      <c r="A13" s="246"/>
       <c r="B13" s="106" t="s">
         <v>284</v>
       </c>
@@ -45991,7 +46000,7 @@
       <c r="H13" s="137"/>
     </row>
     <row r="14" spans="1:1024" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="237"/>
+      <c r="A14" s="246"/>
       <c r="B14" s="106" t="s">
         <v>357</v>
       </c>
@@ -46009,7 +46018,7 @@
       <c r="H14" s="137"/>
     </row>
     <row r="15" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="237"/>
+      <c r="A15" s="246"/>
       <c r="B15" s="106" t="s">
         <v>360</v>
       </c>
@@ -46027,7 +46036,7 @@
       <c r="H15" s="137"/>
     </row>
     <row r="16" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="237"/>
+      <c r="A16" s="246"/>
       <c r="B16" s="106" t="s">
         <v>363</v>
       </c>
@@ -46045,7 +46054,7 @@
       <c r="H16" s="137"/>
     </row>
     <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="237"/>
+      <c r="A17" s="246"/>
       <c r="B17" s="106" t="s">
         <v>367</v>
       </c>
@@ -46063,7 +46072,7 @@
       <c r="H17" s="137"/>
     </row>
     <row r="18" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="238"/>
+      <c r="A18" s="247"/>
       <c r="B18" s="109" t="s">
         <v>301</v>
       </c>
@@ -46124,16 +46133,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="236" t="s">
         <v>490</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="240"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="237"/>
     </row>
     <row r="2" spans="1:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
@@ -46162,7 +46171,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" s="144" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="255" t="s">
+      <c r="A3" s="264" t="s">
         <v>503</v>
       </c>
       <c r="B3" s="142"/>
@@ -46174,7 +46183,7 @@
       <c r="H3" s="143"/>
     </row>
     <row r="4" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="256"/>
+      <c r="A4" s="265"/>
       <c r="B4" s="106" t="s">
         <v>206</v>
       </c>
@@ -46203,7 +46212,7 @@
       <c r="Q4" s="144"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="256"/>
+      <c r="A5" s="265"/>
       <c r="B5" s="106" t="s">
         <v>259</v>
       </c>
@@ -46232,7 +46241,7 @@
       <c r="Q5" s="144"/>
     </row>
     <row r="6" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="256"/>
+      <c r="A6" s="265"/>
       <c r="B6" s="106" t="s">
         <v>212</v>
       </c>
@@ -46259,7 +46268,7 @@
       <c r="Q6" s="144"/>
     </row>
     <row r="7" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="256"/>
+      <c r="A7" s="265"/>
       <c r="B7" s="106" t="s">
         <v>265</v>
       </c>
@@ -46288,7 +46297,7 @@
       <c r="Q7" s="144"/>
     </row>
     <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="256"/>
+      <c r="A8" s="265"/>
       <c r="B8" s="106" t="s">
         <v>268</v>
       </c>
@@ -46317,7 +46326,7 @@
       <c r="Q8" s="144"/>
     </row>
     <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="256"/>
+      <c r="A9" s="265"/>
       <c r="B9" s="106" t="s">
         <v>271</v>
       </c>
@@ -46346,7 +46355,7 @@
       <c r="Q9" s="144"/>
     </row>
     <row r="10" spans="1:17" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="256"/>
+      <c r="A10" s="265"/>
       <c r="B10" s="106" t="s">
         <v>209</v>
       </c>
@@ -46373,7 +46382,7 @@
       <c r="Q10" s="144"/>
     </row>
     <row r="11" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="256"/>
+      <c r="A11" s="265"/>
       <c r="B11" s="106" t="s">
         <v>278</v>
       </c>
@@ -46400,7 +46409,7 @@
       <c r="Q11" s="144"/>
     </row>
     <row r="12" spans="1:17" s="151" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="256"/>
+      <c r="A12" s="265"/>
       <c r="B12" s="106" t="s">
         <v>281</v>
       </c>
@@ -46427,7 +46436,7 @@
       <c r="Q12" s="144"/>
     </row>
     <row r="13" spans="1:17" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="256"/>
+      <c r="A13" s="265"/>
       <c r="B13" s="106" t="s">
         <v>284</v>
       </c>
@@ -46454,7 +46463,7 @@
       <c r="Q13" s="144"/>
     </row>
     <row r="14" spans="1:17" ht="37.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="256"/>
+      <c r="A14" s="265"/>
       <c r="B14" s="106" t="s">
         <v>288</v>
       </c>
@@ -46481,7 +46490,7 @@
       <c r="Q14" s="144"/>
     </row>
     <row r="15" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="256"/>
+      <c r="A15" s="265"/>
       <c r="B15" s="106" t="s">
         <v>291</v>
       </c>
@@ -46508,7 +46517,7 @@
       <c r="Q15" s="144"/>
     </row>
     <row r="16" spans="1:17" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="256"/>
+      <c r="A16" s="265"/>
       <c r="B16" s="106" t="s">
         <v>294</v>
       </c>
@@ -46535,7 +46544,7 @@
       <c r="Q16" s="144"/>
     </row>
     <row r="17" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="256"/>
+      <c r="A17" s="265"/>
       <c r="B17" s="106" t="s">
         <v>297</v>
       </c>
@@ -46562,7 +46571,7 @@
       <c r="Q17" s="144"/>
     </row>
     <row r="18" spans="1:19" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="257"/>
+      <c r="A18" s="266"/>
       <c r="B18" s="109" t="s">
         <v>301</v>
       </c>
@@ -46589,16 +46598,16 @@
       <c r="Q18" s="144"/>
     </row>
     <row r="19" spans="1:19" s="156" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="244" t="s">
+      <c r="A19" s="243" t="s">
         <v>387</v>
       </c>
-      <c r="B19" s="258"/>
-      <c r="C19" s="258"/>
-      <c r="D19" s="258"/>
-      <c r="E19" s="258"/>
-      <c r="F19" s="258"/>
-      <c r="G19" s="259"/>
-      <c r="H19" s="260"/>
+      <c r="B19" s="227"/>
+      <c r="C19" s="227"/>
+      <c r="D19" s="227"/>
+      <c r="E19" s="227"/>
+      <c r="F19" s="227"/>
+      <c r="G19" s="228"/>
+      <c r="H19" s="229"/>
       <c r="I19" s="155"/>
       <c r="J19" s="155"/>
       <c r="K19" s="155"/>
@@ -46612,70 +46621,70 @@
       <c r="S19" s="155"/>
     </row>
     <row r="20" spans="1:19" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="245"/>
-      <c r="B20" s="261" t="s">
+      <c r="A20" s="244"/>
+      <c r="B20" s="230" t="s">
         <v>388</v>
       </c>
-      <c r="C20" s="261"/>
-      <c r="D20" s="261" t="s">
+      <c r="C20" s="230"/>
+      <c r="D20" s="230" t="s">
         <v>377</v>
       </c>
-      <c r="E20" s="261"/>
-      <c r="F20" s="261" t="s">
+      <c r="E20" s="230"/>
+      <c r="F20" s="230" t="s">
         <v>555</v>
       </c>
-      <c r="G20" s="262" t="s">
+      <c r="G20" s="231" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="263"/>
+      <c r="H20" s="232"/>
     </row>
     <row r="21" spans="1:19" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="245"/>
-      <c r="B21" s="261"/>
-      <c r="C21" s="261" t="s">
+      <c r="A21" s="244"/>
+      <c r="B21" s="230"/>
+      <c r="C21" s="230" t="s">
         <v>389</v>
       </c>
-      <c r="D21" s="261" t="s">
+      <c r="D21" s="230" t="s">
         <v>390</v>
       </c>
-      <c r="E21" s="261"/>
-      <c r="F21" s="261" t="s">
+      <c r="E21" s="230"/>
+      <c r="F21" s="230" t="s">
         <v>574</v>
       </c>
-      <c r="G21" s="262"/>
-      <c r="H21" s="263"/>
+      <c r="G21" s="231"/>
+      <c r="H21" s="232"/>
     </row>
     <row r="22" spans="1:19" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="245"/>
-      <c r="B22" s="261"/>
-      <c r="C22" s="261" t="s">
+      <c r="A22" s="244"/>
+      <c r="B22" s="230"/>
+      <c r="C22" s="230" t="s">
         <v>391</v>
       </c>
-      <c r="D22" s="261" t="s">
+      <c r="D22" s="230" t="s">
         <v>390</v>
       </c>
-      <c r="E22" s="261"/>
-      <c r="F22" s="261" t="s">
+      <c r="E22" s="230"/>
+      <c r="F22" s="230" t="s">
         <v>575</v>
       </c>
-      <c r="G22" s="262"/>
-      <c r="H22" s="263"/>
+      <c r="G22" s="231"/>
+      <c r="H22" s="232"/>
     </row>
     <row r="23" spans="1:19" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="246"/>
-      <c r="B23" s="264"/>
-      <c r="C23" s="264" t="s">
+      <c r="A23" s="245"/>
+      <c r="B23" s="233"/>
+      <c r="C23" s="233" t="s">
         <v>392</v>
       </c>
-      <c r="D23" s="264" t="s">
+      <c r="D23" s="233" t="s">
         <v>390</v>
       </c>
-      <c r="E23" s="264"/>
-      <c r="F23" s="264" t="s">
+      <c r="E23" s="233"/>
+      <c r="F23" s="233" t="s">
         <v>576</v>
       </c>
-      <c r="G23" s="265"/>
-      <c r="H23" s="266"/>
+      <c r="G23" s="234"/>
+      <c r="H23" s="235"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" insertRows="0" deleteRows="0"/>
@@ -46692,14 +46701,14 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AMJ17"/>
+  <dimension ref="A1:AMJ18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E10" sqref="E10"/>
       <selection pane="topRight" activeCell="E10" sqref="E10"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -46717,16 +46726,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="236" t="s">
         <v>491</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="240"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="237"/>
     </row>
     <row r="2" spans="1:20" s="152" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
@@ -46755,7 +46764,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" s="156" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="236" t="s">
+      <c r="A3" s="251" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="153"/>
@@ -46779,7 +46788,7 @@
       <c r="T3" s="155"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="237"/>
+      <c r="A4" s="246"/>
       <c r="B4" s="157" t="s">
         <v>8</v>
       </c>
@@ -46797,7 +46806,7 @@
       <c r="H4" s="158"/>
     </row>
     <row r="5" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="237"/>
+      <c r="A5" s="246"/>
       <c r="B5" s="157" t="s">
         <v>13</v>
       </c>
@@ -46815,7 +46824,7 @@
       <c r="H5" s="158"/>
     </row>
     <row r="6" spans="1:20" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="237"/>
+      <c r="A6" s="246"/>
       <c r="B6" s="157" t="s">
         <v>16</v>
       </c>
@@ -46833,7 +46842,7 @@
       <c r="H6" s="158"/>
     </row>
     <row r="7" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="238"/>
+      <c r="A7" s="247"/>
       <c r="B7" s="159" t="s">
         <v>19</v>
       </c>
@@ -46851,7 +46860,7 @@
       <c r="H7" s="160"/>
     </row>
     <row r="8" spans="1:20" s="155" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="233" t="s">
+      <c r="A8" s="248" t="s">
         <v>294</v>
       </c>
       <c r="B8" s="161"/>
@@ -46863,7 +46872,7 @@
       <c r="H8" s="162"/>
     </row>
     <row r="9" spans="1:20" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="234"/>
+      <c r="A9" s="249"/>
       <c r="B9" s="163" t="s">
         <v>30</v>
       </c>
@@ -46881,7 +46890,7 @@
       <c r="H9" s="164"/>
     </row>
     <row r="10" spans="1:20" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="234"/>
+      <c r="A10" s="249"/>
       <c r="B10" s="163" t="s">
         <v>376</v>
       </c>
@@ -46897,7 +46906,7 @@
       <c r="H10" s="164"/>
     </row>
     <row r="11" spans="1:20" ht="40.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="234"/>
+      <c r="A11" s="249"/>
       <c r="B11" s="163"/>
       <c r="C11" s="163" t="s">
         <v>378</v>
@@ -46913,7 +46922,7 @@
       <c r="H11" s="164"/>
     </row>
     <row r="12" spans="1:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="234"/>
+      <c r="A12" s="249"/>
       <c r="B12" s="163"/>
       <c r="C12" s="163" t="s">
         <v>379</v>
@@ -46929,7 +46938,7 @@
       <c r="H12" s="164"/>
     </row>
     <row r="13" spans="1:20" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="234"/>
+      <c r="A13" s="249"/>
       <c r="B13" s="163"/>
       <c r="C13" s="163" t="s">
         <v>380</v>
@@ -46945,7 +46954,7 @@
       <c r="H13" s="164"/>
     </row>
     <row r="14" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="234"/>
+      <c r="A14" s="249"/>
       <c r="B14" s="163"/>
       <c r="C14" s="163" t="s">
         <v>381</v>
@@ -46961,7 +46970,7 @@
       <c r="H14" s="164"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="234"/>
+      <c r="A15" s="249"/>
       <c r="B15" s="163"/>
       <c r="C15" s="163" t="s">
         <v>383</v>
@@ -46976,44 +46985,62 @@
       <c r="G15" s="183"/>
       <c r="H15" s="164"/>
     </row>
-    <row r="16" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="234"/>
-      <c r="B16" s="163" t="s">
-        <v>385</v>
-      </c>
-      <c r="C16" s="163"/>
+    <row r="16" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="249"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="163" t="s">
+        <v>577</v>
+      </c>
       <c r="D16" s="163" t="s">
-        <v>377</v>
-      </c>
-      <c r="E16" s="163"/>
+        <v>9</v>
+      </c>
+      <c r="E16" s="163" t="s">
+        <v>579</v>
+      </c>
       <c r="F16" s="163" t="s">
-        <v>506</v>
+        <v>578</v>
       </c>
       <c r="G16" s="183"/>
       <c r="H16" s="164"/>
     </row>
-    <row r="17" spans="1:8" ht="18.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="235"/>
-      <c r="B17" s="165"/>
-      <c r="C17" s="165" t="s">
+    <row r="17" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="249"/>
+      <c r="B17" s="163" t="s">
+        <v>385</v>
+      </c>
+      <c r="C17" s="163"/>
+      <c r="D17" s="163" t="s">
+        <v>377</v>
+      </c>
+      <c r="E17" s="163"/>
+      <c r="F17" s="163" t="s">
+        <v>506</v>
+      </c>
+      <c r="G17" s="183"/>
+      <c r="H17" s="164"/>
+    </row>
+    <row r="18" spans="1:8" ht="18.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="250"/>
+      <c r="B18" s="165"/>
+      <c r="C18" s="165" t="s">
         <v>383</v>
       </c>
-      <c r="D17" s="165" t="s">
+      <c r="D18" s="165" t="s">
         <v>318</v>
       </c>
-      <c r="E17" s="165"/>
-      <c r="F17" s="165" t="s">
+      <c r="E18" s="165"/>
+      <c r="F18" s="165" t="s">
         <v>386</v>
       </c>
-      <c r="G17" s="184"/>
-      <c r="H17" s="166"/>
+      <c r="G18" s="184"/>
+      <c r="H18" s="166"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" insertRows="0" deleteRows="0"/>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="A8:A18"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -47050,16 +47077,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="236" t="s">
         <v>492</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="240"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="237"/>
     </row>
     <row r="2" spans="1:1024" s="42" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
@@ -48104,7 +48131,7 @@
       <c r="AMJ2" s="41"/>
     </row>
     <row r="3" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="236" t="s">
+      <c r="A3" s="251" t="s">
         <v>393</v>
       </c>
       <c r="B3" s="169"/>
@@ -48116,7 +48143,7 @@
       <c r="H3" s="170"/>
     </row>
     <row r="4" spans="1:1024" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="237"/>
+      <c r="A4" s="246"/>
       <c r="B4" s="47" t="s">
         <v>206</v>
       </c>
@@ -49148,7 +49175,7 @@
       <c r="AMJ4" s="23"/>
     </row>
     <row r="5" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="237"/>
+      <c r="A5" s="246"/>
       <c r="B5" s="47" t="s">
         <v>259</v>
       </c>
@@ -50180,7 +50207,7 @@
       <c r="AMJ5" s="23"/>
     </row>
     <row r="6" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="237"/>
+      <c r="A6" s="246"/>
       <c r="B6" s="47" t="s">
         <v>212</v>
       </c>
@@ -51212,7 +51239,7 @@
       <c r="AMJ6" s="23"/>
     </row>
     <row r="7" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="237"/>
+      <c r="A7" s="246"/>
       <c r="B7" s="47" t="s">
         <v>396</v>
       </c>
@@ -52244,7 +52271,7 @@
       <c r="AMJ7" s="23"/>
     </row>
     <row r="8" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="237"/>
+      <c r="A8" s="246"/>
       <c r="B8" s="47" t="s">
         <v>398</v>
       </c>
@@ -53276,7 +53303,7 @@
       <c r="AMJ8" s="23"/>
     </row>
     <row r="9" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="237"/>
+      <c r="A9" s="246"/>
       <c r="B9" s="47" t="s">
         <v>400</v>
       </c>
@@ -54308,7 +54335,7 @@
       <c r="AMJ9" s="23"/>
     </row>
     <row r="10" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="237"/>
+      <c r="A10" s="246"/>
       <c r="B10" s="47" t="s">
         <v>402</v>
       </c>
@@ -55340,7 +55367,7 @@
       <c r="AMJ10" s="23"/>
     </row>
     <row r="11" spans="1:1024" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="237"/>
+      <c r="A11" s="246"/>
       <c r="B11" s="47" t="s">
         <v>404</v>
       </c>
@@ -56372,7 +56399,7 @@
       <c r="AMJ11" s="23"/>
     </row>
     <row r="12" spans="1:1024" s="26" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="238"/>
+      <c r="A12" s="247"/>
       <c r="B12" s="51" t="s">
         <v>406</v>
       </c>
@@ -57404,7 +57431,7 @@
       <c r="AMJ12" s="25"/>
     </row>
     <row r="13" spans="1:1024" s="20" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="233" t="s">
+      <c r="A13" s="248" t="s">
         <v>408</v>
       </c>
       <c r="B13" s="172"/>
@@ -57417,7 +57444,7 @@
       <c r="AMJ13" s="21"/>
     </row>
     <row r="14" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="234"/>
+      <c r="A14" s="249"/>
       <c r="B14" s="69" t="s">
         <v>206</v>
       </c>
@@ -57433,7 +57460,7 @@
       <c r="H14" s="174"/>
     </row>
     <row r="15" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="234"/>
+      <c r="A15" s="249"/>
       <c r="B15" s="69" t="s">
         <v>259</v>
       </c>
@@ -57449,7 +57476,7 @@
       <c r="H15" s="174"/>
     </row>
     <row r="16" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="234"/>
+      <c r="A16" s="249"/>
       <c r="B16" s="69" t="s">
         <v>212</v>
       </c>
@@ -57465,7 +57492,7 @@
       <c r="H16" s="174"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="234"/>
+      <c r="A17" s="249"/>
       <c r="B17" s="69" t="s">
         <v>265</v>
       </c>
@@ -57481,7 +57508,7 @@
       <c r="H17" s="174"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="234"/>
+      <c r="A18" s="249"/>
       <c r="B18" s="69" t="s">
         <v>209</v>
       </c>
@@ -57497,7 +57524,7 @@
       <c r="H18" s="174"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="234"/>
+      <c r="A19" s="249"/>
       <c r="B19" s="69" t="s">
         <v>5</v>
       </c>
@@ -57513,7 +57540,7 @@
       <c r="H19" s="174"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="234"/>
+      <c r="A20" s="249"/>
       <c r="B20" s="69" t="s">
         <v>414</v>
       </c>
@@ -57529,7 +57556,7 @@
       <c r="H20" s="174"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="234"/>
+      <c r="A21" s="249"/>
       <c r="B21" s="69" t="s">
         <v>318</v>
       </c>
@@ -57545,7 +57572,7 @@
       <c r="H21" s="174"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="234"/>
+      <c r="A22" s="249"/>
       <c r="B22" s="69" t="s">
         <v>417</v>
       </c>
@@ -57561,7 +57588,7 @@
       <c r="H22" s="174"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="234"/>
+      <c r="A23" s="249"/>
       <c r="B23" s="69" t="s">
         <v>419</v>
       </c>
@@ -57577,7 +57604,7 @@
       <c r="H23" s="174"/>
     </row>
     <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="235"/>
+      <c r="A24" s="250"/>
       <c r="B24" s="73" t="s">
         <v>421</v>
       </c>
@@ -57593,7 +57620,7 @@
       <c r="H24" s="175"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="236" t="s">
+      <c r="A25" s="251" t="s">
         <v>353</v>
       </c>
       <c r="B25" s="176"/>
@@ -57605,7 +57632,7 @@
       <c r="H25" s="177"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="237"/>
+      <c r="A26" s="246"/>
       <c r="B26" s="47" t="s">
         <v>206</v>
       </c>
@@ -57621,7 +57648,7 @@
       <c r="H26" s="171"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="237"/>
+      <c r="A27" s="246"/>
       <c r="B27" s="47" t="s">
         <v>259</v>
       </c>
@@ -57637,7 +57664,7 @@
       <c r="H27" s="171"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="237"/>
+      <c r="A28" s="246"/>
       <c r="B28" s="47" t="s">
         <v>212</v>
       </c>
@@ -57653,7 +57680,7 @@
       <c r="H28" s="171"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="237"/>
+      <c r="A29" s="246"/>
       <c r="B29" s="47" t="s">
         <v>265</v>
       </c>
@@ -57669,7 +57696,7 @@
       <c r="H29" s="171"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="237"/>
+      <c r="A30" s="246"/>
       <c r="B30" s="47" t="s">
         <v>426</v>
       </c>
@@ -57685,7 +57712,7 @@
       <c r="H30" s="171"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="237"/>
+      <c r="A31" s="246"/>
       <c r="B31" s="47" t="s">
         <v>209</v>
       </c>
@@ -57701,7 +57728,7 @@
       <c r="H31" s="171"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="237"/>
+      <c r="A32" s="246"/>
       <c r="B32" s="47" t="s">
         <v>404</v>
       </c>
@@ -57717,7 +57744,7 @@
       <c r="H32" s="171"/>
     </row>
     <row r="33" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="237"/>
+      <c r="A33" s="246"/>
       <c r="B33" s="47" t="s">
         <v>430</v>
       </c>
@@ -57733,7 +57760,7 @@
       <c r="H33" s="171"/>
     </row>
     <row r="34" spans="1:1024" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="237"/>
+      <c r="A34" s="246"/>
       <c r="B34" s="47" t="s">
         <v>5</v>
       </c>
@@ -57749,7 +57776,7 @@
       <c r="H34" s="171"/>
     </row>
     <row r="35" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="237"/>
+      <c r="A35" s="246"/>
       <c r="B35" s="47" t="s">
         <v>433</v>
       </c>
@@ -57765,7 +57792,7 @@
       <c r="H35" s="171"/>
     </row>
     <row r="36" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="238"/>
+      <c r="A36" s="247"/>
       <c r="B36" s="51" t="s">
         <v>435</v>
       </c>
@@ -57781,7 +57808,7 @@
       <c r="H36" s="178"/>
     </row>
     <row r="37" spans="1:1024" s="20" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="233" t="s">
+      <c r="A37" s="248" t="s">
         <v>281</v>
       </c>
       <c r="B37" s="172"/>
@@ -57794,7 +57821,7 @@
       <c r="AMJ37" s="21"/>
     </row>
     <row r="38" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="234"/>
+      <c r="A38" s="249"/>
       <c r="B38" s="69" t="s">
         <v>206</v>
       </c>
@@ -57810,7 +57837,7 @@
       <c r="H38" s="174"/>
     </row>
     <row r="39" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="234"/>
+      <c r="A39" s="249"/>
       <c r="B39" s="69" t="s">
         <v>259</v>
       </c>
@@ -57826,7 +57853,7 @@
       <c r="H39" s="174"/>
     </row>
     <row r="40" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="234"/>
+      <c r="A40" s="249"/>
       <c r="B40" s="69" t="s">
         <v>212</v>
       </c>
@@ -57842,7 +57869,7 @@
       <c r="H40" s="174"/>
     </row>
     <row r="41" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="234"/>
+      <c r="A41" s="249"/>
       <c r="B41" s="69" t="s">
         <v>265</v>
       </c>
@@ -57858,7 +57885,7 @@
       <c r="H41" s="174"/>
     </row>
     <row r="42" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="234"/>
+      <c r="A42" s="249"/>
       <c r="B42" s="69" t="s">
         <v>440</v>
       </c>
@@ -57874,7 +57901,7 @@
       <c r="H42" s="174"/>
     </row>
     <row r="43" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="234"/>
+      <c r="A43" s="249"/>
       <c r="B43" s="69" t="s">
         <v>353</v>
       </c>
@@ -57890,7 +57917,7 @@
       <c r="H43" s="174"/>
     </row>
     <row r="44" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="234"/>
+      <c r="A44" s="249"/>
       <c r="B44" s="69" t="s">
         <v>209</v>
       </c>
@@ -57906,7 +57933,7 @@
       <c r="H44" s="174"/>
     </row>
     <row r="45" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="234"/>
+      <c r="A45" s="249"/>
       <c r="B45" s="69" t="s">
         <v>404</v>
       </c>
@@ -57922,7 +57949,7 @@
       <c r="H45" s="174"/>
     </row>
     <row r="46" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="234"/>
+      <c r="A46" s="249"/>
       <c r="B46" s="69" t="s">
         <v>445</v>
       </c>
@@ -57938,7 +57965,7 @@
       <c r="H46" s="174"/>
     </row>
     <row r="47" spans="1:1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="234"/>
+      <c r="A47" s="249"/>
       <c r="B47" s="69" t="s">
         <v>5</v>
       </c>
@@ -57954,7 +57981,7 @@
       <c r="H47" s="174"/>
     </row>
     <row r="48" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="235"/>
+      <c r="A48" s="250"/>
       <c r="B48" s="73" t="s">
         <v>417</v>
       </c>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\jay\code\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83371CD-6847-4305-864F-F9D049C0CBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E35F95-B337-4CD8-9B19-A4590D33A16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Microservice" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,18 @@
     <sheet name="Deployment" sheetId="7" r:id="rId7"/>
     <sheet name="Supporting Metadata" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -61,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="574">
   <si>
     <t>Concept</t>
   </si>
@@ -936,13 +947,7 @@
     <t>Identifier of the MA Pair associated to the DMA Tuple</t>
   </si>
   <si>
-    <t>D Assets</t>
-  </si>
-  <si>
     <t>data_123e4567-e89b-12d3</t>
-  </si>
-  <si>
-    <t>Identifiers of the Data Assets associated to the DMA Tuple</t>
   </si>
   <si>
     <t>Deployments</t>
@@ -1222,24 +1227,6 @@
   </si>
   <si>
     <t>accesible IP or FQDN of edge device</t>
-  </si>
-  <si>
-    <t>Data Source Mapping</t>
-  </si>
-  <si>
-    <t>data_source_mapping</t>
-  </si>
-  <si>
-    <t>microserviceA_data</t>
-  </si>
-  <si>
-    <t>List of UUIDs</t>
-  </si>
-  <si>
-    <t>microserviceB_data</t>
-  </si>
-  <si>
-    <t>microserviceC_data</t>
   </si>
   <si>
     <t>Person</t>
@@ -1780,9 +1767,6 @@
     <t xml:space="preserve">database schema description/contents </t>
   </si>
   <si>
-    <t>Mapping the available Data assets in this DMA Tuple to available Microservices. One Microservice may require several Data assets, specified by their UUIDs.</t>
-  </si>
-  <si>
     <t>["/data", "/cfg"]</t>
   </si>
   <si>
@@ -1837,15 +1821,6 @@
     <t>https://github.com/UoW-CPC/ADTGenerator/blob/main/examples/metadata_RISTRA.json#L101</t>
   </si>
   <si>
-    <t>UUIDs of required Data asset(s) for MicroserviceA</t>
-  </si>
-  <si>
-    <t>UUIDs of required Data asset(s) for  MicroserviceB</t>
-  </si>
-  <si>
-    <t>UUIDs of required Data asset(s) for  MicroserviceC</t>
-  </si>
-  <si>
     <t>cloud_config</t>
   </si>
   <si>
@@ -1853,6 +1828,24 @@
   </si>
   <si>
     <t>#cloud-config\nruncmd:\n- [ sh, -xc, \"echo 'hello world!'\" ]</t>
+  </si>
+  <si>
+    <t>DataAssetsMapping</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>{ "microserviceA_ID": "data_123e4567-e89b-12d3", "microserviceB_ID": "data_234e4567-e89b-23d4"}</t>
+  </si>
+  <si>
+    <t>1:1 relationship between a Microservice and a Data asset, specified by their IDs</t>
+  </si>
+  <si>
+    <t>Mapping the available Data assets in this DMA Tuple to available Microservices. Required if Data assets are required. Not all microservices need a Data asset.</t>
+  </si>
+  <si>
+    <t>microserviceA_ID</t>
   </si>
 </sst>
 </file>
@@ -2382,7 +2375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3241,40 +3234,52 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3283,14 +3288,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3315,46 +3312,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4234,8 +4191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E10" sqref="E10"/>
       <selection pane="topRight" activeCell="E10" sqref="E10"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
@@ -4256,16 +4213,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="236" t="s">
-        <v>485</v>
-      </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="237"/>
+      <c r="A1" s="239" t="s">
+        <v>477</v>
+      </c>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="240"/>
     </row>
     <row r="2" spans="1:1024" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
@@ -4294,7 +4251,7 @@
       </c>
     </row>
     <row r="3" spans="1:1024" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="241" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="27"/>
@@ -4306,7 +4263,7 @@
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="241"/>
+      <c r="A4" s="242"/>
       <c r="B4" s="47" t="s">
         <v>8</v>
       </c>
@@ -4321,12 +4278,12 @@
         <v>11</v>
       </c>
       <c r="G4" s="180" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="241"/>
+      <c r="A5" s="242"/>
       <c r="B5" s="47" t="s">
         <v>13</v>
       </c>
@@ -4346,7 +4303,7 @@
       <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="241"/>
+      <c r="A6" s="242"/>
       <c r="B6" s="47" t="s">
         <v>16</v>
       </c>
@@ -4366,13 +4323,13 @@
       <c r="H6" s="50"/>
     </row>
     <row r="7" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="241"/>
+      <c r="A7" s="242"/>
       <c r="B7" s="47" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="47" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="E7" s="49" t="s">
         <v>20</v>
@@ -4381,12 +4338,12 @@
         <v>21</v>
       </c>
       <c r="G7" s="180" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="241"/>
+      <c r="A8" s="242"/>
       <c r="B8" s="47" t="s">
         <v>22</v>
       </c>
@@ -4406,7 +4363,7 @@
       <c r="H8" s="50"/>
     </row>
     <row r="9" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="241"/>
+      <c r="A9" s="242"/>
       <c r="B9" s="47" t="s">
         <v>25</v>
       </c>
@@ -4415,10 +4372,10 @@
         <v>9</v>
       </c>
       <c r="E9" s="49" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G9" s="180" t="s">
         <v>12</v>
@@ -4426,7 +4383,7 @@
       <c r="H9" s="50"/>
     </row>
     <row r="10" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="241"/>
+      <c r="A10" s="242"/>
       <c r="B10" s="47" t="s">
         <v>26</v>
       </c>
@@ -4446,7 +4403,7 @@
       <c r="H10" s="50"/>
     </row>
     <row r="11" spans="1:1024" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="242"/>
+      <c r="A11" s="243"/>
       <c r="B11" s="51" t="s">
         <v>30</v>
       </c>
@@ -4466,7 +4423,7 @@
       <c r="H11" s="54"/>
     </row>
     <row r="12" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="243" t="s">
+      <c r="A12" s="244" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="213"/>
@@ -4478,7 +4435,7 @@
       <c r="H12" s="216"/>
     </row>
     <row r="13" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="244"/>
+      <c r="A13" s="245"/>
       <c r="B13" s="55" t="s">
         <v>35</v>
       </c>
@@ -4487,7 +4444,7 @@
         <v>36</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="F13" s="55" t="s">
         <v>37</v>
@@ -4498,19 +4455,19 @@
       <c r="H13" s="58"/>
     </row>
     <row r="14" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="244"/>
+      <c r="A14" s="245"/>
       <c r="B14" s="55" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="56"/>
       <c r="D14" s="55" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F14" s="55" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G14" s="185" t="s">
         <v>12</v>
@@ -4518,19 +4475,19 @@
       <c r="H14" s="58"/>
     </row>
     <row r="15" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="244"/>
+      <c r="A15" s="245"/>
       <c r="B15" s="55" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="C15" s="56"/>
       <c r="D15" s="55" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="F15" s="55" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G15" s="185" t="s">
         <v>43</v>
@@ -5554,22 +5511,22 @@
       <c r="AMJ15" s="4"/>
     </row>
     <row r="16" spans="1:1024" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="244"/>
+      <c r="A16" s="245"/>
       <c r="B16" s="55"/>
       <c r="C16" s="56" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="D16" s="55" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="F16" s="55" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="G16" s="185" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="H16" s="58"/>
       <c r="I16" s="4"/>
@@ -6590,22 +6547,22 @@
       <c r="AMJ16" s="4"/>
     </row>
     <row r="17" spans="1:1024" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="244"/>
+      <c r="A17" s="245"/>
       <c r="B17" s="55"/>
       <c r="C17" s="56" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="D17" s="55" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="57" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="F17" s="55" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="G17" s="185" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="H17" s="58"/>
       <c r="I17" s="4"/>
@@ -7626,19 +7583,19 @@
       <c r="AMJ17" s="4"/>
     </row>
     <row r="18" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="244"/>
+      <c r="A18" s="245"/>
       <c r="B18" s="55"/>
       <c r="C18" s="56" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="E18" s="57" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="F18" s="55" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="G18" s="185" t="s">
         <v>43</v>
@@ -8662,19 +8619,19 @@
       <c r="AMJ18" s="4"/>
     </row>
     <row r="19" spans="1:1024" s="10" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A19" s="244"/>
+      <c r="A19" s="245"/>
       <c r="B19" s="55" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="C19" s="56"/>
       <c r="D19" s="55" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="F19" s="55" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G19" s="185" t="s">
         <v>43</v>
@@ -9698,19 +9655,19 @@
       <c r="AMJ19" s="4"/>
     </row>
     <row r="20" spans="1:1024" s="10" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="245"/>
+      <c r="A20" s="246"/>
       <c r="B20" s="217" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C20" s="218"/>
       <c r="D20" s="217" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="E20" s="219" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="F20" s="217" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="G20" s="220" t="s">
         <v>43</v>
@@ -10734,7 +10691,7 @@
       <c r="AMJ20" s="4"/>
     </row>
     <row r="21" spans="1:1024" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="246" t="s">
+      <c r="A21" s="237" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="59"/>
@@ -10746,7 +10703,7 @@
       <c r="H21" s="61"/>
     </row>
     <row r="22" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="246"/>
+      <c r="A22" s="237"/>
       <c r="B22" s="47" t="s">
         <v>40</v>
       </c>
@@ -10766,7 +10723,7 @@
       <c r="H22" s="50"/>
     </row>
     <row r="23" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="246"/>
+      <c r="A23" s="237"/>
       <c r="B23" s="47" t="s">
         <v>44</v>
       </c>
@@ -10786,7 +10743,7 @@
       <c r="H23" s="50"/>
     </row>
     <row r="24" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="246"/>
+      <c r="A24" s="237"/>
       <c r="B24" s="47" t="s">
         <v>46</v>
       </c>
@@ -10806,7 +10763,7 @@
       <c r="H24" s="50"/>
     </row>
     <row r="25" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="246"/>
+      <c r="A25" s="237"/>
       <c r="B25" s="47" t="s">
         <v>48</v>
       </c>
@@ -10826,7 +10783,7 @@
       <c r="H25" s="50"/>
     </row>
     <row r="26" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="246"/>
+      <c r="A26" s="237"/>
       <c r="B26" s="47" t="s">
         <v>50</v>
       </c>
@@ -10846,7 +10803,7 @@
       <c r="H26" s="50"/>
     </row>
     <row r="27" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="246"/>
+      <c r="A27" s="237"/>
       <c r="B27" s="47" t="s">
         <v>53</v>
       </c>
@@ -10866,7 +10823,7 @@
       <c r="H27" s="50"/>
     </row>
     <row r="28" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
-      <c r="A28" s="246"/>
+      <c r="A28" s="237"/>
       <c r="B28" s="47" t="s">
         <v>57</v>
       </c>
@@ -10886,7 +10843,7 @@
       <c r="H28" s="50"/>
     </row>
     <row r="29" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="246"/>
+      <c r="A29" s="237"/>
       <c r="B29" s="47" t="s">
         <v>61</v>
       </c>
@@ -10906,7 +10863,7 @@
       <c r="H29" s="50"/>
     </row>
     <row r="30" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="246"/>
+      <c r="A30" s="237"/>
       <c r="B30" s="47" t="s">
         <v>63</v>
       </c>
@@ -10926,7 +10883,7 @@
       <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="246"/>
+      <c r="A31" s="237"/>
       <c r="B31" s="47" t="s">
         <v>65</v>
       </c>
@@ -10946,7 +10903,7 @@
       <c r="H31" s="50"/>
     </row>
     <row r="32" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="246"/>
+      <c r="A32" s="237"/>
       <c r="B32" s="47" t="s">
         <v>67</v>
       </c>
@@ -10966,7 +10923,7 @@
       <c r="H32" s="50"/>
     </row>
     <row r="33" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="247"/>
+      <c r="A33" s="238"/>
       <c r="B33" s="51" t="s">
         <v>69</v>
       </c>
@@ -10986,7 +10943,7 @@
       <c r="H33" s="54"/>
     </row>
     <row r="34" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="248" t="s">
+      <c r="A34" s="233" t="s">
         <v>72</v>
       </c>
       <c r="B34" s="62"/>
@@ -10998,7 +10955,7 @@
       <c r="H34" s="64"/>
     </row>
     <row r="35" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="249"/>
+      <c r="A35" s="234"/>
       <c r="B35" s="65" t="s">
         <v>73</v>
       </c>
@@ -11018,7 +10975,7 @@
       <c r="H35" s="68"/>
     </row>
     <row r="36" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="249"/>
+      <c r="A36" s="234"/>
       <c r="B36" s="69" t="s">
         <v>76</v>
       </c>
@@ -11038,7 +10995,7 @@
       <c r="H36" s="72"/>
     </row>
     <row r="37" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="249"/>
+      <c r="A37" s="234"/>
       <c r="B37" s="69" t="s">
         <v>79</v>
       </c>
@@ -11058,7 +11015,7 @@
       <c r="H37" s="72"/>
     </row>
     <row r="38" spans="1:1024" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="250"/>
+      <c r="A38" s="235"/>
       <c r="B38" s="73" t="s">
         <v>82</v>
       </c>
@@ -11078,7 +11035,7 @@
       <c r="H38" s="76"/>
     </row>
     <row r="39" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="251" t="s">
+      <c r="A39" s="236" t="s">
         <v>85</v>
       </c>
       <c r="B39" s="59"/>
@@ -11090,7 +11047,7 @@
       <c r="H39" s="61"/>
     </row>
     <row r="40" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="246"/>
+      <c r="A40" s="237"/>
       <c r="B40" s="47" t="s">
         <v>86</v>
       </c>
@@ -12126,8 +12083,8 @@
       <c r="AMJ40" s="4"/>
     </row>
     <row r="41" spans="1:1024" s="10" customFormat="1" ht="46.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="246"/>
-      <c r="B41" s="238" t="s">
+      <c r="A41" s="237"/>
+      <c r="B41" s="227" t="s">
         <v>90</v>
       </c>
       <c r="C41" s="47" t="s">
@@ -13164,8 +13121,8 @@
       <c r="AMJ41" s="4"/>
     </row>
     <row r="42" spans="1:1024" s="10" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A42" s="246"/>
-      <c r="B42" s="238"/>
+      <c r="A42" s="237"/>
+      <c r="B42" s="227"/>
       <c r="C42" s="47" t="s">
         <v>94</v>
       </c>
@@ -14200,8 +14157,8 @@
       <c r="AMJ42" s="4"/>
     </row>
     <row r="43" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="246"/>
-      <c r="B43" s="238"/>
+      <c r="A43" s="237"/>
+      <c r="B43" s="227"/>
       <c r="C43" s="47" t="s">
         <v>98</v>
       </c>
@@ -15236,8 +15193,8 @@
       <c r="AMJ43" s="4"/>
     </row>
     <row r="44" spans="1:1024" s="10" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="246"/>
-      <c r="B44" s="238"/>
+      <c r="A44" s="237"/>
+      <c r="B44" s="227"/>
       <c r="C44" s="47" t="s">
         <v>102</v>
       </c>
@@ -16272,8 +16229,8 @@
       <c r="AMJ44" s="4"/>
     </row>
     <row r="45" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="246"/>
-      <c r="B45" s="238"/>
+      <c r="A45" s="237"/>
+      <c r="B45" s="227"/>
       <c r="C45" s="47" t="s">
         <v>106</v>
       </c>
@@ -17308,8 +17265,8 @@
       <c r="AMJ45" s="4"/>
     </row>
     <row r="46" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="246"/>
-      <c r="B46" s="238"/>
+      <c r="A46" s="237"/>
+      <c r="B46" s="227"/>
       <c r="C46" s="47" t="s">
         <v>110</v>
       </c>
@@ -18344,8 +18301,8 @@
       <c r="AMJ46" s="4"/>
     </row>
     <row r="47" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="246"/>
-      <c r="B47" s="238"/>
+      <c r="A47" s="237"/>
+      <c r="B47" s="227"/>
       <c r="C47" s="47" t="s">
         <v>114</v>
       </c>
@@ -19380,8 +19337,8 @@
       <c r="AMJ47" s="4"/>
     </row>
     <row r="48" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="246"/>
-      <c r="B48" s="238"/>
+      <c r="A48" s="237"/>
+      <c r="B48" s="227"/>
       <c r="C48" s="47" t="s">
         <v>118</v>
       </c>
@@ -20416,8 +20373,8 @@
       <c r="AMJ48" s="4"/>
     </row>
     <row r="49" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="246"/>
-      <c r="B49" s="238"/>
+      <c r="A49" s="237"/>
+      <c r="B49" s="227"/>
       <c r="C49" s="47" t="s">
         <v>122</v>
       </c>
@@ -21452,8 +21409,8 @@
       <c r="AMJ49" s="4"/>
     </row>
     <row r="50" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="246"/>
-      <c r="B50" s="238"/>
+      <c r="A50" s="237"/>
+      <c r="B50" s="227"/>
       <c r="C50" s="47" t="s">
         <v>126</v>
       </c>
@@ -22488,8 +22445,8 @@
       <c r="AMJ50" s="4"/>
     </row>
     <row r="51" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="246"/>
-      <c r="B51" s="238"/>
+      <c r="A51" s="237"/>
+      <c r="B51" s="227"/>
       <c r="C51" s="47" t="s">
         <v>130</v>
       </c>
@@ -23524,8 +23481,8 @@
       <c r="AMJ51" s="4"/>
     </row>
     <row r="52" spans="1:1024" s="16" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="247"/>
-      <c r="B52" s="239"/>
+      <c r="A52" s="238"/>
+      <c r="B52" s="228"/>
       <c r="C52" s="51" t="s">
         <v>134</v>
       </c>
@@ -23536,7 +23493,7 @@
         <v>136</v>
       </c>
       <c r="F52" s="51" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="G52" s="181" t="s">
         <v>43</v>
@@ -24560,7 +24517,7 @@
       <c r="AMJ52" s="15"/>
     </row>
     <row r="53" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="248" t="s">
+      <c r="A53" s="233" t="s">
         <v>137</v>
       </c>
       <c r="B53" s="77"/>
@@ -24572,7 +24529,7 @@
       <c r="H53" s="79"/>
     </row>
     <row r="54" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="249"/>
+      <c r="A54" s="234"/>
       <c r="B54" s="80" t="s">
         <v>138</v>
       </c>
@@ -24592,8 +24549,8 @@
       <c r="H54" s="83"/>
     </row>
     <row r="55" spans="1:1024" ht="46.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="249"/>
-      <c r="B55" s="252" t="s">
+      <c r="A55" s="234"/>
+      <c r="B55" s="229" t="s">
         <v>90</v>
       </c>
       <c r="C55" s="84" t="s">
@@ -24614,8 +24571,8 @@
       <c r="H55" s="83"/>
     </row>
     <row r="56" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
-      <c r="A56" s="249"/>
-      <c r="B56" s="252"/>
+      <c r="A56" s="234"/>
+      <c r="B56" s="229"/>
       <c r="C56" s="80" t="s">
         <v>94</v>
       </c>
@@ -24634,8 +24591,8 @@
       <c r="H56" s="83"/>
     </row>
     <row r="57" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="249"/>
-      <c r="B57" s="252"/>
+      <c r="A57" s="234"/>
+      <c r="B57" s="229"/>
       <c r="C57" s="80" t="s">
         <v>98</v>
       </c>
@@ -24654,8 +24611,8 @@
       <c r="H57" s="83"/>
     </row>
     <row r="58" spans="1:1024" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="249"/>
-      <c r="B58" s="252"/>
+      <c r="A58" s="234"/>
+      <c r="B58" s="229"/>
       <c r="C58" s="80" t="s">
         <v>102</v>
       </c>
@@ -24674,8 +24631,8 @@
       <c r="H58" s="83"/>
     </row>
     <row r="59" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="249"/>
-      <c r="B59" s="252"/>
+      <c r="A59" s="234"/>
+      <c r="B59" s="229"/>
       <c r="C59" s="80" t="s">
         <v>106</v>
       </c>
@@ -24694,8 +24651,8 @@
       <c r="H59" s="83"/>
     </row>
     <row r="60" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="249"/>
-      <c r="B60" s="252"/>
+      <c r="A60" s="234"/>
+      <c r="B60" s="229"/>
       <c r="C60" s="80" t="s">
         <v>110</v>
       </c>
@@ -24714,8 +24671,8 @@
       <c r="H60" s="83"/>
     </row>
     <row r="61" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="249"/>
-      <c r="B61" s="252"/>
+      <c r="A61" s="234"/>
+      <c r="B61" s="229"/>
       <c r="C61" s="80" t="s">
         <v>114</v>
       </c>
@@ -24734,8 +24691,8 @@
       <c r="H61" s="83"/>
     </row>
     <row r="62" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="249"/>
-      <c r="B62" s="252"/>
+      <c r="A62" s="234"/>
+      <c r="B62" s="229"/>
       <c r="C62" s="80" t="s">
         <v>118</v>
       </c>
@@ -24754,8 +24711,8 @@
       <c r="H62" s="83"/>
     </row>
     <row r="63" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="249"/>
-      <c r="B63" s="252"/>
+      <c r="A63" s="234"/>
+      <c r="B63" s="229"/>
       <c r="C63" s="80" t="s">
         <v>122</v>
       </c>
@@ -24774,8 +24731,8 @@
       <c r="H63" s="83"/>
     </row>
     <row r="64" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="249"/>
-      <c r="B64" s="252"/>
+      <c r="A64" s="234"/>
+      <c r="B64" s="229"/>
       <c r="C64" s="80" t="s">
         <v>126</v>
       </c>
@@ -24794,8 +24751,8 @@
       <c r="H64" s="83"/>
     </row>
     <row r="65" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="249"/>
-      <c r="B65" s="252"/>
+      <c r="A65" s="234"/>
+      <c r="B65" s="229"/>
       <c r="C65" s="80" t="s">
         <v>130</v>
       </c>
@@ -24814,8 +24771,8 @@
       <c r="H65" s="83"/>
     </row>
     <row r="66" spans="1:1024" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="250"/>
-      <c r="B66" s="253"/>
+      <c r="A66" s="235"/>
+      <c r="B66" s="230"/>
       <c r="C66" s="85" t="s">
         <v>134</v>
       </c>
@@ -24826,7 +24783,7 @@
         <v>136</v>
       </c>
       <c r="F66" s="85" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="G66" s="184" t="s">
         <v>43</v>
@@ -24834,7 +24791,7 @@
       <c r="H66" s="87"/>
     </row>
     <row r="67" spans="1:1024" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="251" t="s">
+      <c r="A67" s="236" t="s">
         <v>145</v>
       </c>
       <c r="B67" s="59"/>
@@ -25862,7 +25819,7 @@
       <c r="AMJ67" s="13"/>
     </row>
     <row r="68" spans="1:1024" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="246"/>
+      <c r="A68" s="237"/>
       <c r="B68" s="89" t="s">
         <v>146</v>
       </c>
@@ -26898,7 +26855,7 @@
       <c r="AMJ68" s="13"/>
     </row>
     <row r="69" spans="1:1024" s="14" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="247"/>
+      <c r="A69" s="238"/>
       <c r="B69" s="93" t="s">
         <v>150</v>
       </c>
@@ -27934,7 +27891,7 @@
       <c r="AMJ69" s="13"/>
     </row>
     <row r="70" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="248" t="s">
+      <c r="A70" s="233" t="s">
         <v>154</v>
       </c>
       <c r="B70" s="29"/>
@@ -27946,7 +27903,7 @@
       <c r="H70" s="64"/>
     </row>
     <row r="71" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="249"/>
+      <c r="A71" s="234"/>
       <c r="B71" s="69" t="s">
         <v>155</v>
       </c>
@@ -27964,8 +27921,8 @@
       <c r="H71" s="72"/>
     </row>
     <row r="72" spans="1:1024" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="249"/>
-      <c r="B72" s="254" t="s">
+      <c r="A72" s="234"/>
+      <c r="B72" s="231" t="s">
         <v>158</v>
       </c>
       <c r="C72" s="69" t="s">
@@ -27986,8 +27943,8 @@
       <c r="H72" s="72"/>
     </row>
     <row r="73" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="249"/>
-      <c r="B73" s="254"/>
+      <c r="A73" s="234"/>
+      <c r="B73" s="231"/>
       <c r="C73" s="69" t="s">
         <v>30</v>
       </c>
@@ -28006,8 +27963,8 @@
       <c r="H73" s="72"/>
     </row>
     <row r="74" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="249"/>
-      <c r="B74" s="254"/>
+      <c r="A74" s="234"/>
+      <c r="B74" s="231"/>
       <c r="C74" s="69" t="s">
         <v>12</v>
       </c>
@@ -28026,8 +27983,8 @@
       <c r="H74" s="72"/>
     </row>
     <row r="75" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="249"/>
-      <c r="B75" s="254"/>
+      <c r="A75" s="234"/>
+      <c r="B75" s="231"/>
       <c r="C75" s="69" t="s">
         <v>167</v>
       </c>
@@ -28046,8 +28003,8 @@
       <c r="H75" s="72"/>
     </row>
     <row r="76" spans="1:1024" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="250"/>
-      <c r="B76" s="255"/>
+      <c r="A76" s="235"/>
+      <c r="B76" s="232"/>
       <c r="C76" s="73" t="s">
         <v>25</v>
       </c>
@@ -28066,7 +28023,7 @@
       <c r="H76" s="76"/>
     </row>
     <row r="77" spans="1:1024" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="251" t="s">
+      <c r="A77" s="236" t="s">
         <v>172</v>
       </c>
       <c r="B77" s="31"/>
@@ -29094,7 +29051,7 @@
       <c r="AMJ77" s="13"/>
     </row>
     <row r="78" spans="1:1024" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="246"/>
+      <c r="A78" s="237"/>
       <c r="B78" s="47" t="s">
         <v>173</v>
       </c>
@@ -30128,8 +30085,8 @@
       <c r="AMJ78" s="13"/>
     </row>
     <row r="79" spans="1:1024" s="14" customFormat="1" ht="46.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="246"/>
-      <c r="B79" s="238" t="s">
+      <c r="A79" s="237"/>
+      <c r="B79" s="227" t="s">
         <v>176</v>
       </c>
       <c r="C79" s="47" t="s">
@@ -31166,8 +31123,8 @@
       <c r="AMJ79" s="13"/>
     </row>
     <row r="80" spans="1:1024" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="246"/>
-      <c r="B80" s="238"/>
+      <c r="A80" s="237"/>
+      <c r="B80" s="227"/>
       <c r="C80" s="47" t="s">
         <v>179</v>
       </c>
@@ -32202,8 +32159,8 @@
       <c r="AMJ80" s="13"/>
     </row>
     <row r="81" spans="1:1024" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="246"/>
-      <c r="B81" s="238"/>
+      <c r="A81" s="237"/>
+      <c r="B81" s="227"/>
       <c r="C81" s="47" t="s">
         <v>182</v>
       </c>
@@ -33238,8 +33195,8 @@
       <c r="AMJ81" s="13"/>
     </row>
     <row r="82" spans="1:1024" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="246"/>
-      <c r="B82" s="238"/>
+      <c r="A82" s="237"/>
+      <c r="B82" s="227"/>
       <c r="C82" s="47" t="s">
         <v>185</v>
       </c>
@@ -34274,8 +34231,8 @@
       <c r="AMJ82" s="13"/>
     </row>
     <row r="83" spans="1:1024" s="14" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="247"/>
-      <c r="B83" s="239"/>
+      <c r="A83" s="238"/>
+      <c r="B83" s="228"/>
       <c r="C83" s="51" t="s">
         <v>25</v>
       </c>
@@ -35384,6 +35341,13 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" insertRows="0" deleteRows="0"/>
   <mergeCells count="14">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B41:B52"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="A21:A33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A52"/>
     <mergeCell ref="B79:B83"/>
     <mergeCell ref="B55:B66"/>
     <mergeCell ref="B72:B76"/>
@@ -35391,13 +35355,6 @@
     <mergeCell ref="A67:A69"/>
     <mergeCell ref="A70:A76"/>
     <mergeCell ref="A77:A83"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B41:B52"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="A21:A33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A39:A52"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -35437,16 +35394,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="236" t="s">
-        <v>486</v>
-      </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="237"/>
+      <c r="A1" s="239" t="s">
+        <v>478</v>
+      </c>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="240"/>
     </row>
     <row r="2" spans="1:8" s="35" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
@@ -35475,7 +35432,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="241" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="27"/>
@@ -35487,7 +35444,7 @@
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="241"/>
+      <c r="A4" s="242"/>
       <c r="B4" s="47" t="s">
         <v>8</v>
       </c>
@@ -35502,12 +35459,12 @@
         <v>192</v>
       </c>
       <c r="G4" s="180" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="241"/>
+      <c r="A5" s="242"/>
       <c r="B5" s="47" t="s">
         <v>13</v>
       </c>
@@ -35527,7 +35484,7 @@
       <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="241"/>
+      <c r="A6" s="242"/>
       <c r="B6" s="47" t="s">
         <v>25</v>
       </c>
@@ -35547,7 +35504,7 @@
       <c r="H6" s="50"/>
     </row>
     <row r="7" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="241"/>
+      <c r="A7" s="242"/>
       <c r="B7" s="47" t="s">
         <v>26</v>
       </c>
@@ -35567,7 +35524,7 @@
       <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="241"/>
+      <c r="A8" s="242"/>
       <c r="B8" s="47" t="s">
         <v>30</v>
       </c>
@@ -35587,7 +35544,7 @@
       <c r="H8" s="50"/>
     </row>
     <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="241"/>
+      <c r="A9" s="242"/>
       <c r="B9" s="47" t="s">
         <v>16</v>
       </c>
@@ -35607,13 +35564,13 @@
       <c r="H9" s="50"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="241"/>
+      <c r="A10" s="242"/>
       <c r="B10" s="47" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="47" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="E10" s="49" t="s">
         <v>20</v>
@@ -35622,12 +35579,12 @@
         <v>201</v>
       </c>
       <c r="G10" s="180" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="H10" s="50"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="242"/>
+      <c r="A11" s="243"/>
       <c r="B11" s="51" t="s">
         <v>22</v>
       </c>
@@ -35647,7 +35604,7 @@
       <c r="H11" s="54"/>
     </row>
     <row r="12" spans="1:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="256" t="s">
+      <c r="A12" s="247" t="s">
         <v>203</v>
       </c>
       <c r="B12" s="98"/>
@@ -35659,7 +35616,7 @@
       <c r="H12" s="102"/>
     </row>
     <row r="13" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="257"/>
+      <c r="A13" s="248"/>
       <c r="B13" s="103" t="s">
         <v>204</v>
       </c>
@@ -35668,7 +35625,7 @@
         <v>31</v>
       </c>
       <c r="E13" s="104" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="F13" s="103" t="s">
         <v>205</v>
@@ -35679,19 +35636,19 @@
       <c r="H13" s="72"/>
     </row>
     <row r="14" spans="1:8" ht="103.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="257"/>
+      <c r="A14" s="248"/>
       <c r="B14" s="103" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C14" s="103"/>
       <c r="D14" s="103" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="E14" s="104" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="F14" s="103" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G14" s="183" t="s">
         <v>12</v>
@@ -35737,16 +35694,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="236" t="s">
-        <v>487</v>
-      </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="237"/>
+      <c r="A1" s="239" t="s">
+        <v>479</v>
+      </c>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="240"/>
     </row>
     <row r="2" spans="1:1024" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
@@ -35775,7 +35732,7 @@
       </c>
     </row>
     <row r="3" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="241" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="37"/>
@@ -35825,7 +35782,7 @@
       <c r="AMJ3" s="5"/>
     </row>
     <row r="4" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="241"/>
+      <c r="A4" s="242"/>
       <c r="B4" s="105" t="s">
         <v>206</v>
       </c>
@@ -35838,12 +35795,12 @@
         <v>208</v>
       </c>
       <c r="G4" s="194" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="H4" s="107"/>
     </row>
     <row r="5" spans="1:1024" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="241"/>
+      <c r="A5" s="242"/>
       <c r="B5" s="105" t="s">
         <v>209</v>
       </c>
@@ -35859,23 +35816,23 @@
       <c r="H5" s="107"/>
     </row>
     <row r="6" spans="1:1024" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="241"/>
+      <c r="A6" s="242"/>
       <c r="B6" s="105" t="s">
         <v>212</v>
       </c>
       <c r="C6" s="106"/>
       <c r="D6" s="105" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="E6" s="106"/>
       <c r="F6" s="105" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="G6" s="194"/>
       <c r="H6" s="107"/>
     </row>
     <row r="7" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="241"/>
+      <c r="A7" s="242"/>
       <c r="B7" s="105" t="s">
         <v>213</v>
       </c>
@@ -35885,13 +35842,13 @@
       </c>
       <c r="E7" s="106"/>
       <c r="F7" s="105" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="G7" s="194"/>
       <c r="H7" s="107"/>
     </row>
     <row r="8" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="241"/>
+      <c r="A8" s="242"/>
       <c r="B8" s="105" t="s">
         <v>214</v>
       </c>
@@ -35907,7 +35864,7 @@
       <c r="H8" s="107"/>
     </row>
     <row r="9" spans="1:1024" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="241"/>
+      <c r="A9" s="242"/>
       <c r="B9" s="105" t="s">
         <v>216</v>
       </c>
@@ -35917,7 +35874,7 @@
       </c>
       <c r="E9" s="106"/>
       <c r="F9" s="105" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="G9" s="194" t="s">
         <v>43</v>
@@ -35925,7 +35882,7 @@
       <c r="H9" s="107"/>
     </row>
     <row r="10" spans="1:1024" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="241"/>
+      <c r="A10" s="242"/>
       <c r="B10" s="105" t="s">
         <v>218</v>
       </c>
@@ -35954,7 +35911,7 @@
       <c r="AMJ10" s="5"/>
     </row>
     <row r="11" spans="1:1024" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="241"/>
+      <c r="A11" s="242"/>
       <c r="B11" s="105" t="s">
         <v>3</v>
       </c>
@@ -35970,7 +35927,7 @@
       <c r="H11" s="107"/>
     </row>
     <row r="12" spans="1:1024" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="241"/>
+      <c r="A12" s="242"/>
       <c r="B12" s="105" t="s">
         <v>222</v>
       </c>
@@ -35980,7 +35937,7 @@
       </c>
       <c r="E12" s="106"/>
       <c r="F12" s="105" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="G12" s="194" t="s">
         <v>43</v>
@@ -35988,7 +35945,7 @@
       <c r="H12" s="107"/>
     </row>
     <row r="13" spans="1:1024" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="241"/>
+      <c r="A13" s="242"/>
       <c r="B13" s="105" t="s">
         <v>224</v>
       </c>
@@ -36006,9 +35963,9 @@
       <c r="H13" s="107"/>
     </row>
     <row r="14" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="241"/>
+      <c r="A14" s="242"/>
       <c r="B14" s="105" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="C14" s="106"/>
       <c r="D14" s="105" t="s">
@@ -36016,7 +35973,7 @@
       </c>
       <c r="E14" s="106"/>
       <c r="F14" s="105" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G14" s="194" t="s">
         <v>43</v>
@@ -36024,7 +35981,7 @@
       <c r="H14" s="107"/>
     </row>
     <row r="15" spans="1:1024" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="242"/>
+      <c r="A15" s="243"/>
       <c r="B15" s="108" t="s">
         <v>228</v>
       </c>
@@ -36040,7 +35997,7 @@
       <c r="H15" s="110"/>
     </row>
     <row r="16" spans="1:1024" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="248" t="s">
+      <c r="A16" s="233" t="s">
         <v>154</v>
       </c>
       <c r="B16" s="111"/>
@@ -36053,13 +36010,13 @@
       <c r="AMJ16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="249"/>
+      <c r="A17" s="234"/>
       <c r="B17" s="113" t="s">
         <v>231</v>
       </c>
       <c r="C17" s="114"/>
       <c r="D17" s="113" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="E17" s="114"/>
       <c r="F17" s="113" t="s">
@@ -36069,7 +36026,7 @@
       <c r="H17" s="115"/>
     </row>
     <row r="18" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="249"/>
+      <c r="A18" s="234"/>
       <c r="B18" s="113"/>
       <c r="C18" s="114" t="s">
         <v>1</v>
@@ -36079,13 +36036,13 @@
       </c>
       <c r="E18" s="114"/>
       <c r="F18" s="113" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G18" s="197"/>
       <c r="H18" s="115"/>
     </row>
     <row r="19" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="249"/>
+      <c r="A19" s="234"/>
       <c r="B19" s="113"/>
       <c r="C19" s="114" t="s">
         <v>209</v>
@@ -36095,163 +36052,163 @@
       </c>
       <c r="E19" s="114"/>
       <c r="F19" s="113" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="G19" s="197"/>
       <c r="H19" s="115"/>
     </row>
     <row r="20" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="249"/>
+      <c r="A20" s="234"/>
       <c r="B20" s="113"/>
       <c r="C20" s="114" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="D20" s="113" t="s">
         <v>223</v>
       </c>
       <c r="E20" s="114"/>
       <c r="F20" s="113" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="G20" s="197"/>
       <c r="H20" s="115"/>
     </row>
     <row r="21" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="249"/>
+      <c r="A21" s="234"/>
       <c r="B21" s="113"/>
       <c r="C21" s="114" t="s">
+        <v>511</v>
+      </c>
+      <c r="D21" s="113" t="s">
         <v>519</v>
-      </c>
-      <c r="D21" s="113" t="s">
-        <v>527</v>
       </c>
       <c r="E21" s="114"/>
       <c r="F21" s="113" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="G21" s="197"/>
       <c r="H21" s="115"/>
     </row>
     <row r="22" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="249"/>
+      <c r="A22" s="234"/>
       <c r="B22" s="113"/>
       <c r="C22" s="114" t="s">
+        <v>512</v>
+      </c>
+      <c r="D22" s="113" t="s">
         <v>520</v>
-      </c>
-      <c r="D22" s="113" t="s">
-        <v>528</v>
       </c>
       <c r="E22" s="114"/>
       <c r="F22" s="113" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G22" s="197"/>
       <c r="H22" s="115"/>
     </row>
     <row r="23" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="249"/>
+      <c r="A23" s="234"/>
       <c r="B23" s="113"/>
       <c r="C23" s="114" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="D23" s="113" t="s">
         <v>210</v>
       </c>
       <c r="E23" s="114"/>
       <c r="F23" s="113" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="G23" s="197"/>
       <c r="H23" s="115"/>
     </row>
     <row r="24" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="249"/>
+      <c r="A24" s="234"/>
       <c r="B24" s="113"/>
       <c r="C24" s="114" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="D24" s="113" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="E24" s="114"/>
       <c r="F24" s="113" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G24" s="197"/>
       <c r="H24" s="115"/>
     </row>
     <row r="25" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="249"/>
+      <c r="A25" s="234"/>
       <c r="B25" s="113"/>
       <c r="C25" s="114" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D25" s="113" t="s">
         <v>223</v>
       </c>
       <c r="E25" s="114"/>
       <c r="F25" s="113" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="G25" s="197"/>
       <c r="H25" s="115"/>
     </row>
     <row r="26" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="249"/>
+      <c r="A26" s="234"/>
       <c r="B26" s="113"/>
       <c r="C26" s="114" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="D26" s="113" t="s">
         <v>223</v>
       </c>
       <c r="E26" s="114"/>
       <c r="F26" s="113" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G26" s="197"/>
       <c r="H26" s="115"/>
     </row>
     <row r="27" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="249"/>
+      <c r="A27" s="234"/>
       <c r="B27" s="113"/>
       <c r="C27" s="114" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D27" s="113" t="s">
         <v>223</v>
       </c>
       <c r="E27" s="114"/>
       <c r="F27" s="113" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="G27" s="197"/>
       <c r="H27" s="115"/>
     </row>
     <row r="28" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="249"/>
+      <c r="A28" s="234"/>
       <c r="B28" s="113"/>
       <c r="C28" s="114" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="D28" s="113" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="E28" s="114"/>
       <c r="F28" s="113" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="G28" s="197"/>
       <c r="H28" s="115"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="249"/>
+      <c r="A29" s="234"/>
       <c r="B29" s="113" t="s">
         <v>233</v>
       </c>
       <c r="C29" s="114"/>
       <c r="D29" s="113" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="E29" s="114"/>
       <c r="F29" s="113" t="s">
@@ -36261,7 +36218,7 @@
       <c r="H29" s="115"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="249"/>
+      <c r="A30" s="234"/>
       <c r="B30" s="222"/>
       <c r="C30" s="114" t="s">
         <v>1</v>
@@ -36271,13 +36228,13 @@
       </c>
       <c r="E30" s="223"/>
       <c r="F30" s="113" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="G30" s="224"/>
       <c r="H30" s="225"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="249"/>
+      <c r="A31" s="234"/>
       <c r="B31" s="222"/>
       <c r="C31" s="114" t="s">
         <v>209</v>
@@ -36287,157 +36244,157 @@
       </c>
       <c r="E31" s="223"/>
       <c r="F31" s="113" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="G31" s="224"/>
       <c r="H31" s="225"/>
     </row>
     <row r="32" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="249"/>
+      <c r="A32" s="234"/>
       <c r="B32" s="222"/>
       <c r="C32" s="114" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="D32" s="113" t="s">
         <v>223</v>
       </c>
       <c r="E32" s="223"/>
       <c r="F32" s="113" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="G32" s="224"/>
       <c r="H32" s="225"/>
     </row>
     <row r="33" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="249"/>
+      <c r="A33" s="234"/>
       <c r="B33" s="222"/>
       <c r="C33" s="114" t="s">
+        <v>511</v>
+      </c>
+      <c r="D33" s="113" t="s">
         <v>519</v>
-      </c>
-      <c r="D33" s="113" t="s">
-        <v>527</v>
       </c>
       <c r="E33" s="223"/>
       <c r="F33" s="113" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G33" s="224"/>
       <c r="H33" s="225"/>
     </row>
     <row r="34" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="249"/>
+      <c r="A34" s="234"/>
       <c r="B34" s="222"/>
       <c r="C34" s="114" t="s">
+        <v>512</v>
+      </c>
+      <c r="D34" s="113" t="s">
         <v>520</v>
-      </c>
-      <c r="D34" s="113" t="s">
-        <v>528</v>
       </c>
       <c r="E34" s="223"/>
       <c r="F34" s="113" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="G34" s="224"/>
       <c r="H34" s="225"/>
     </row>
     <row r="35" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="249"/>
+      <c r="A35" s="234"/>
       <c r="B35" s="222"/>
       <c r="C35" s="114" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="D35" s="113" t="s">
         <v>210</v>
       </c>
       <c r="E35" s="223"/>
       <c r="F35" s="113" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G35" s="224"/>
       <c r="H35" s="225"/>
     </row>
     <row r="36" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="249"/>
+      <c r="A36" s="234"/>
       <c r="B36" s="222"/>
       <c r="C36" s="114" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="D36" s="113" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="E36" s="223"/>
       <c r="F36" s="113" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G36" s="224"/>
       <c r="H36" s="225"/>
     </row>
     <row r="37" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="249"/>
+      <c r="A37" s="234"/>
       <c r="B37" s="222"/>
       <c r="C37" s="114" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D37" s="113" t="s">
         <v>223</v>
       </c>
       <c r="E37" s="223"/>
       <c r="F37" s="113" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="G37" s="224"/>
       <c r="H37" s="225"/>
     </row>
     <row r="38" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="249"/>
+      <c r="A38" s="234"/>
       <c r="B38" s="222"/>
       <c r="C38" s="114" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="D38" s="113" t="s">
         <v>223</v>
       </c>
       <c r="E38" s="223"/>
       <c r="F38" s="113" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G38" s="224"/>
       <c r="H38" s="225"/>
     </row>
     <row r="39" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="249"/>
+      <c r="A39" s="234"/>
       <c r="B39" s="222"/>
       <c r="C39" s="114" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D39" s="113" t="s">
         <v>223</v>
       </c>
       <c r="E39" s="223"/>
       <c r="F39" s="113" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="G39" s="224"/>
       <c r="H39" s="225"/>
     </row>
     <row r="40" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="249"/>
+      <c r="A40" s="234"/>
       <c r="B40" s="222"/>
       <c r="C40" s="114" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="D40" s="113" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="E40" s="223"/>
       <c r="F40" s="113" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="G40" s="224"/>
       <c r="H40" s="225"/>
     </row>
     <row r="41" spans="1:1024" ht="41.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="250"/>
+      <c r="A41" s="235"/>
       <c r="B41" s="116" t="s">
         <v>235</v>
       </c>
@@ -36447,7 +36404,7 @@
       </c>
       <c r="E41" s="117"/>
       <c r="F41" s="116" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="G41" s="198" t="s">
         <v>43</v>
@@ -36455,7 +36412,7 @@
       <c r="H41" s="118"/>
     </row>
     <row r="42" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="251" t="s">
+      <c r="A42" s="236" t="s">
         <v>236</v>
       </c>
       <c r="B42" s="119"/>
@@ -36505,7 +36462,7 @@
       <c r="AMJ42" s="5"/>
     </row>
     <row r="43" spans="1:1024" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="247"/>
+      <c r="A43" s="238"/>
       <c r="B43" s="108" t="s">
         <v>237</v>
       </c>
@@ -36542,7 +36499,7 @@
       <c r="AMJ43" s="5"/>
     </row>
     <row r="44" spans="1:1024" s="7" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="248" t="s">
+      <c r="A44" s="233" t="s">
         <v>72</v>
       </c>
       <c r="B44" s="111"/>
@@ -36555,7 +36512,7 @@
       <c r="AMJ44" s="5"/>
     </row>
     <row r="45" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="249"/>
+      <c r="A45" s="234"/>
       <c r="B45" s="113" t="s">
         <v>73</v>
       </c>
@@ -36573,7 +36530,7 @@
       <c r="H45" s="115"/>
     </row>
     <row r="46" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="249"/>
+      <c r="A46" s="234"/>
       <c r="B46" s="113" t="s">
         <v>76</v>
       </c>
@@ -36591,7 +36548,7 @@
       <c r="H46" s="115"/>
     </row>
     <row r="47" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="250"/>
+      <c r="A47" s="235"/>
       <c r="B47" s="116" t="s">
         <v>79</v>
       </c>
@@ -36609,7 +36566,7 @@
       <c r="H47" s="118"/>
     </row>
     <row r="48" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="251" t="s">
+      <c r="A48" s="236" t="s">
         <v>243</v>
       </c>
       <c r="B48" s="121"/>
@@ -36640,7 +36597,7 @@
       <c r="AMJ48" s="5"/>
     </row>
     <row r="49" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="246"/>
+      <c r="A49" s="237"/>
       <c r="B49" s="105" t="s">
         <v>244</v>
       </c>
@@ -36658,7 +36615,7 @@
       <c r="H49" s="107"/>
     </row>
     <row r="50" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="246"/>
+      <c r="A50" s="237"/>
       <c r="B50" s="105" t="s">
         <v>246</v>
       </c>
@@ -36676,7 +36633,7 @@
       <c r="H50" s="107"/>
     </row>
     <row r="51" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="246"/>
+      <c r="A51" s="237"/>
       <c r="B51" s="105" t="s">
         <v>46</v>
       </c>
@@ -36694,7 +36651,7 @@
       <c r="H51" s="107"/>
     </row>
     <row r="52" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="246"/>
+      <c r="A52" s="237"/>
       <c r="B52" s="105" t="s">
         <v>48</v>
       </c>
@@ -36712,7 +36669,7 @@
       <c r="H52" s="107"/>
     </row>
     <row r="53" spans="1:1024" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="246"/>
+      <c r="A53" s="237"/>
       <c r="B53" s="105" t="s">
         <v>61</v>
       </c>
@@ -36750,7 +36707,7 @@
       <c r="AMJ53" s="5"/>
     </row>
     <row r="54" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="246"/>
+      <c r="A54" s="237"/>
       <c r="B54" s="105" t="s">
         <v>63</v>
       </c>
@@ -36768,7 +36725,7 @@
       <c r="H54" s="107"/>
     </row>
     <row r="55" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="246"/>
+      <c r="A55" s="237"/>
       <c r="B55" s="105" t="s">
         <v>65</v>
       </c>
@@ -36786,7 +36743,7 @@
       <c r="H55" s="107"/>
     </row>
     <row r="56" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="246"/>
+      <c r="A56" s="237"/>
       <c r="B56" s="105" t="s">
         <v>67</v>
       </c>
@@ -36804,7 +36761,7 @@
       <c r="H56" s="107"/>
     </row>
     <row r="57" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="247"/>
+      <c r="A57" s="238"/>
       <c r="B57" s="108" t="s">
         <v>69</v>
       </c>
@@ -36822,8 +36779,8 @@
       <c r="H57" s="110"/>
     </row>
     <row r="58" spans="1:1024" s="7" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="248" t="s">
-        <v>499</v>
+      <c r="A58" s="233" t="s">
+        <v>491</v>
       </c>
       <c r="B58" s="123"/>
       <c r="C58" s="123"/>
@@ -36835,7 +36792,7 @@
       <c r="AMJ58" s="5"/>
     </row>
     <row r="59" spans="1:1024" ht="90.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="250"/>
+      <c r="A59" s="235"/>
       <c r="B59" s="116" t="s">
         <v>5</v>
       </c>
@@ -36897,16 +36854,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="236" t="s">
-        <v>488</v>
-      </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="237"/>
+      <c r="A1" s="239" t="s">
+        <v>480</v>
+      </c>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="240"/>
     </row>
     <row r="2" spans="1:1024" s="16" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
@@ -37951,8 +37908,8 @@
       <c r="AMJ2" s="17"/>
     </row>
     <row r="3" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="258" t="s">
-        <v>500</v>
+      <c r="A3" s="249" t="s">
+        <v>492</v>
       </c>
       <c r="B3" s="121"/>
       <c r="C3" s="121"/>
@@ -37976,7 +37933,7 @@
       <c r="AMJ3" s="5"/>
     </row>
     <row r="4" spans="1:1024" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="259"/>
+      <c r="A4" s="250"/>
       <c r="B4" s="105" t="s">
         <v>206</v>
       </c>
@@ -37988,17 +37945,17 @@
         <v>207</v>
       </c>
       <c r="F4" s="105" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G4" s="194" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="H4" s="126"/>
     </row>
     <row r="5" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="259"/>
+      <c r="A5" s="250"/>
       <c r="B5" s="105" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C5" s="106"/>
       <c r="D5" s="105" t="s">
@@ -38008,17 +37965,17 @@
         <v>207</v>
       </c>
       <c r="F5" s="105" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G5" s="194" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="H5" s="126"/>
     </row>
     <row r="6" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="259"/>
+      <c r="A6" s="250"/>
       <c r="B6" s="105" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="C6" s="106"/>
       <c r="D6" s="105" t="s">
@@ -38028,35 +37985,35 @@
         <v>207</v>
       </c>
       <c r="F6" s="105" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G6" s="194" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="H6" s="126"/>
     </row>
     <row r="7" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="259"/>
+      <c r="A7" s="250"/>
       <c r="B7" s="105" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C7" s="106"/>
       <c r="D7" s="105" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E7" s="106" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F7" s="105" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G7" s="194" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="H7" s="126"/>
     </row>
     <row r="8" spans="1:1024" s="7" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="261" t="s">
+      <c r="A8" s="252" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="123"/>
@@ -38069,19 +38026,19 @@
       <c r="AMJ8" s="5"/>
     </row>
     <row r="9" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="263"/>
+      <c r="A9" s="254"/>
       <c r="B9" s="113" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C9" s="114"/>
       <c r="D9" s="113" t="s">
         <v>210</v>
       </c>
       <c r="E9" s="114" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="F9" s="113" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G9" s="203" t="s">
         <v>12</v>
@@ -39105,19 +39062,19 @@
       <c r="AMJ9" s="8"/>
     </row>
     <row r="10" spans="1:1024" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="263"/>
+      <c r="A10" s="254"/>
       <c r="B10" s="113" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C10" s="114"/>
       <c r="D10" s="113" t="s">
         <v>210</v>
       </c>
       <c r="E10" s="114" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="F10" s="113" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="G10" s="197" t="s">
         <v>43</v>
@@ -40141,19 +40098,19 @@
       <c r="AMJ10" s="8"/>
     </row>
     <row r="11" spans="1:1024" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="263"/>
+      <c r="A11" s="254"/>
       <c r="B11" s="113" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C11" s="114"/>
       <c r="D11" s="113" t="s">
         <v>210</v>
       </c>
       <c r="E11" s="114" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F11" s="113" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G11" s="197" t="s">
         <v>43</v>
@@ -41177,19 +41134,19 @@
       <c r="AMJ11" s="8"/>
     </row>
     <row r="12" spans="1:1024" s="10" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="263"/>
+      <c r="A12" s="254"/>
       <c r="B12" s="113" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="C12" s="114"/>
       <c r="D12" s="113" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E12" s="117" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F12" s="116" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G12" s="197" t="s">
         <v>43</v>
@@ -42213,19 +42170,19 @@
       <c r="AMJ12" s="8"/>
     </row>
     <row r="13" spans="1:1024" s="10" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="263"/>
+      <c r="A13" s="254"/>
       <c r="B13" s="113" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C13" s="114"/>
       <c r="D13" s="113" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E13" s="114" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F13" s="113" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G13" s="197" t="s">
         <v>43</v>
@@ -43249,8 +43206,8 @@
       <c r="AMJ13" s="8"/>
     </row>
     <row r="14" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="258" t="s">
-        <v>501</v>
+      <c r="A14" s="249" t="s">
+        <v>493</v>
       </c>
       <c r="B14" s="121"/>
       <c r="C14" s="121"/>
@@ -43270,19 +43227,19 @@
       <c r="AMJ14" s="5"/>
     </row>
     <row r="15" spans="1:1024" s="16" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="260"/>
+      <c r="A15" s="251"/>
       <c r="B15" s="108" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C15" s="109"/>
       <c r="D15" s="108" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E15" s="109" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F15" s="108" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G15" s="195" t="s">
         <v>43</v>
@@ -44306,8 +44263,8 @@
       <c r="AMJ15" s="17"/>
     </row>
     <row r="16" spans="1:1024" s="40" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="261" t="s">
-        <v>323</v>
+      <c r="A16" s="252" t="s">
+        <v>321</v>
       </c>
       <c r="B16" s="111"/>
       <c r="C16" s="111"/>
@@ -45334,7 +45291,7 @@
       <c r="AMJ16" s="39"/>
     </row>
     <row r="17" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="263"/>
+      <c r="A17" s="254"/>
       <c r="B17" s="113" t="s">
         <v>94</v>
       </c>
@@ -45343,10 +45300,10 @@
         <v>219</v>
       </c>
       <c r="E17" s="114" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="F17" s="113" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G17" s="203" t="s">
         <v>12</v>
@@ -45354,7 +45311,7 @@
       <c r="H17" s="129"/>
     </row>
     <row r="18" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="263"/>
+      <c r="A18" s="254"/>
       <c r="B18" s="113" t="s">
         <v>98</v>
       </c>
@@ -45363,10 +45320,10 @@
         <v>219</v>
       </c>
       <c r="E18" s="114" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F18" s="113" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G18" s="203" t="s">
         <v>12</v>
@@ -45374,28 +45331,28 @@
       <c r="H18" s="129"/>
     </row>
     <row r="19" spans="1:1024" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="262"/>
+      <c r="A19" s="253"/>
       <c r="B19" s="116" t="s">
         <v>102</v>
       </c>
       <c r="C19" s="117"/>
       <c r="D19" s="116" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E19" s="117" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="F19" s="116" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G19" s="198" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H19" s="130"/>
     </row>
     <row r="20" spans="1:1024" s="6" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="258" t="s">
-        <v>328</v>
+      <c r="A20" s="249" t="s">
+        <v>326</v>
       </c>
       <c r="B20" s="121"/>
       <c r="C20" s="121"/>
@@ -45414,7 +45371,7 @@
       <c r="AMJ20" s="5"/>
     </row>
     <row r="21" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="259"/>
+      <c r="A21" s="250"/>
       <c r="B21" s="105" t="s">
         <v>106</v>
       </c>
@@ -45423,59 +45380,59 @@
         <v>210</v>
       </c>
       <c r="E21" s="106" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F21" s="105" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G21" s="194" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H21" s="126"/>
     </row>
     <row r="22" spans="1:1024" ht="146.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="259"/>
+      <c r="A22" s="250"/>
       <c r="B22" s="105" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="C22" s="106"/>
       <c r="D22" s="105" t="s">
         <v>225</v>
       </c>
       <c r="E22" s="106" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="F22" s="105" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="G22" s="194" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H22" s="126"/>
     </row>
     <row r="23" spans="1:1024" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="260"/>
+      <c r="A23" s="251"/>
       <c r="B23" s="108" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C23" s="109"/>
       <c r="D23" s="108" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E23" s="109" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F23" s="108" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G23" s="195" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H23" s="127"/>
     </row>
     <row r="24" spans="1:1024" s="7" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="261" t="s">
-        <v>502</v>
+      <c r="A24" s="252" t="s">
+        <v>494</v>
       </c>
       <c r="B24" s="132"/>
       <c r="C24" s="132"/>
@@ -45487,26 +45444,26 @@
       <c r="AMJ24" s="5"/>
     </row>
     <row r="25" spans="1:1024" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="262"/>
+      <c r="A25" s="253"/>
       <c r="B25" s="116" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C25" s="117"/>
       <c r="D25" s="116" t="s">
-        <v>335</v>
+        <v>333</v>